--- a/Game simulations/Week 16/Ravens at Bengals.xlsx
+++ b/Game simulations/Week 16/Ravens at Bengals.xlsx
@@ -57,16 +57,16 @@
     <t>BengalsAvg. FPTS</t>
   </si>
   <si>
-    <t>N(-0.7935, 11.786927409210595)</t>
-  </si>
-  <si>
-    <t>9 11 -13 8 22 15 3 -17 3 0 -18 4 -22 8 -16 -10 5 2 -7 -9 5 -1 15 6 9 -15 2 -1 13 -23 3 5 14 -6 1 20 -15 6 11 7 -2 7 -3 -3 -1 -2 3 -3 5 -15 17 -3 6 4 -3 0 3 3 -2 -22 8 -10 -1 -7 6 -9 6 8 4 11 17 9 -13 -9 7 -6 17 -6 -7 6 -8 2 13 -15 -12 -3 -4 -3 5 3 -10 2 11 -9 -20 -3 -7 5 -4 -10 -12 3 -3 -7 3 -7 3 3 10 -3 -3 -2 10 11 14 -11 -10 4 -3 3 8 -10 -14 1 12 4 4 -15 -3 -13 3 -7 3 -6 -3 17 -11 25 -3 6 7 7 15 -18 -19 3 -9 -13 -5 2 -16 1 10 6 4 -13 3 0 -7 -6 5 23 3 5 2 -12 6 -15 -6 14 18 18 -8 14 27 -3 8 3 -8 -3 6 15 -1 -16 8 -3 5 -5 9 -6 -7 8 4 5 -10 -3 -8 -17 3 -10 3 -11 -10 19 -21 -7 -6 4 -3 -3 -17 2 3 -20 5 3 8 -7 0 -12 5 -5 14 -1 17 -7 26 -3 8 -11 -3 -11 3 -27 -9 -21 14 -6 13 8 -22 -14 4 4 -3 5 -10 3 3 6 8 24 7 3 11 -4 16 14 11 0 -7 10 11 4 -3 3 -15 -14 7 3 7 11 -3 -2 27 3 -2 -24 8 -6 23 5 -20 1 3 -21 3 29 -20 -3 6 3 5 -27 20 7 -14 2 -6 -3 -2 7 13 11 21 -3 5 -20 -22 3 7 -24 -18 2 -6 34 17 -9 -4 -4 14 -7 -3 -10 -6 -6 -6 14 10 18 -18 -9 11 3 18 -4 -20 -14 -1 3 20 3 9 6 -2 7 2 -13 -6 -6 -15 -23 15 -11 4 4 -5 -12 18 13 -13 7 10 6 7 -4 -3 2 20 -22 14 -7 11 -5 -6 -15 -23 17 -4 -3 -11 -13 -5 -4 8 -6 3 17 1 -17 -7 -7 -5 -3 -3 -11 -13 14 -12 -4 6 -8 9 6 7 -8 -8 3 -17 -8 -3 -4 -14 4 6 -5 3 0 -10 17 6 13 3 -6 -14 1 -3 -3 -4 17 -3 -6 -18 -16 8 9 -12 7 -5 -3 -10 -7 -5 -4 13 14 10 -4 -24 6 0 -10 17 0 10 -3 20 8 -8 3 -10 -3 -11 -5 -3 3 3 16 5 16 -34 -24 -2 -8 6 -10 7 -7 -8 -10 -3 9 11 -4 13 -6 6 7 6 -23 3 -10 6 -6 14 3 -11 -6 6 -5 -12 6 20 -3 -1 -7 15 -5 -2 -6 10 -6 -2 18 10 0 -9 -5 -5 8 -1 -28 -13 -6 -11 3 10 -3 8 -3 -12 -10 -2 -2 -12 14 -4 3 23 9 15 -9 -5 9 -5 -13 12 -13 -6 -2 -9 -3 10 -7 -17 -6 -1 1 -7 6 5 -13 -3 -28 7 -14 -7 4 -3 -3 6 3 -3 4 13 -5 -21 -3 9 -9 10 -2 -3 -11 9 10 7 3 -4 4 9 14 -7 5 -4 2 6 -10 24 -4 -2 -3 -2 -15 3 -14 -11 -10 -1 -13 7 -3 11 12 1 -6 -17 -18 4 -7 -14 -15 19 -20 3 -11 -8 -17 19 5 -35 -11 -6 -8 24 6 1 -14 -3 -3 -4 13 4 -14 -17 -9 3 8 1 7 14 14 1 -18 -8 17 -7 -7 3 -23 -1 6 -12 -14 3 -28 3 -5 -2 -18 -19 13 -5 -10 7 -3 3 27 5 -13 -4 -10 31 -21 -3 31 13 -17 3 8 -10 -11 -9 -4 -4 -14 3 -32 -7 2 12 -14 19 -3 -8 -4 12 -5 -13 -21 -9 -6 -12 -7 -7 -3 -11 16 -22 30 11 -23 -9 -11 -10 3 -7 -7 2 -1 4 7 -6 32 6 2 6 -7 -11 -10 14 -4 -12 -4 -28 -6 -2 -6 16 17 -8 -5 -7 0 -3 21 -11 -7 3 3 6 -4 -3 -13 -30 -3 -3 10 -17 -3 6 -9 -4 11 -24 -4 -6 -3 -20 -17 -6 3 19 3 -3 3 3 -22 -16 3 3 -15 -5 -10 3 -19 -7 6 23 15 -3 3 2 -5 -6 15 -6 13 -7 -2 9 -7 -6 -18 -13 1 15 18 -3 3 -11 21 -5 8 3 4 3 -17 -7 -1 -3 34 1 15 5 32 -10 -1 12 -5 0 -6 9 -17 -3 6 16 -6 -21 -25 -7 -8 6 -12 -6 21 11 7 -4 15 -6 11 7 7 5 21 -3 -14 -7 3 -13 -8 -28 -11 -6 3 -17 -31 2 4 4 -8 4 9 9 -8 -21 10 -1 -6 6 14 28 -4 -3 16 17 10 3 -15 24 6 -7 28 7 17 -16 -15 -8 -3 -7 9 4 -3 4 8 -3 12 12 -2 9 -4 -20 -6 -7 1 -7 -8 22 7 -20 11 -5 17 -5 -3 -12 -12 -1 3 2 -10 18 6 6 4 6 -4 -7 -7 14 -10 -3 3 -9 3 -13 4 3 -10 -14 -7 -1 -3 17 5 10 9 9 13 -3 -17 -3 5 -11 3 -2 -22 3 17 5 2 17 17 4 -7 -5 8 -13 -3 -9 3 3 10 9 13 -3 4 -3 17 18 -3 -5 27 -6 5 -6 -6 -9 12 9 7 7 -6 -14 -21 13 3 -10 -5 -6 18 -17 -10 -7 -5 -8 -11 20 -40 -4 -10 6 -8 5 -7 4 3 -3 4 -5 10 -7 30 3 7 7 5 -26 -3 4 19 1 5 -3 -14 3 -8 -1 11 14 14 7 2 -33 -17 -2 10 -21 6 12 -1 -3 -14 -7 -8 8 0 7 -7 -4 -5 -8 15 9 -10 4 14 14 -7 -4 14 4 -3 -3 -4 17 6 -22 -7 -3 -6 -7 -1 10 12 11 -2 -1 13 4 -11 30 14 -4 -3 7 18 11 -22 -3 0 6 16 7 3 6 -3 -10 24 3 9 -7 20 7 21 -7 36 3 -42 4 -6 -3 -5 -6 -25 14 -16 12 -9 10 -12 6 -7 -3 23 -4 7 -3 6 -9 -1 -11 -4 23 -3 -10 3 -6 3 -2 -3 -3 -24 -7 -24 -3 -8 6 -12 6 -4 6 -4 -3 -10 4 3 3 13 -13 7 6 -5 -3 3 7 6 9 -13 -8 -5 -20 3 -12 -11 12 7 -5 4 4 -3 7 11 4 10 -8 19 -10 -22 16 -4 -22 -18 3 9 -31 12 6 3 -8 -3 6 11 0 -7 -7 -10 4 -7 -4 17 23 8 -14 13 29 13 -2 -13 -10 -11 1 -3 -7 -6 3 -17 -8 -8 -2 3 3 3 13 -7 -7 20 3 -2 3 8 -8 3 -7 -8 -13 -18 8 1 -1 -6 21 18 -6 16 3 -7 9 3 -11 7 -17 0 -3 -10 -4 7 -6 1 -11 7 1 -3 -3 -32 10 -17 4 -7 10 10 -12 -7 20 -3 -13 -8 -13 -1 -11 2 -1 3 8 6 6 3 -3 -3 -7 -5 -10 18 -6 2 7 27 -7 -8 -11 -15 7 3 -7 -8 11 -4 9 3 -10 8 3 11 -7 -3 -14 -21 1 2 5 9 -4 7 -30 17 17 -3 4 -7 3 -17 -4 13 28 3 -6 -7 -10 3 -10 -14 25 25 -27 -20 -10 29 -10 7 -7 -7 -13 3 6 14 -4 -9 -2 -3 -21 7 1 -3 1 -11 -3 4 -23 -3 6 14 17 6 2 14 21 30 -2 -3 -14 7 -9 7 -21 1 8 15 -6 -9 22 24 3 6 -6 -3 3 -7 20 4 -3 15 -22 8 7 -4 -16 -24 -10 25 -3 -2 -11 7 -7 8 17 13 11 -3 -15 10 -8 13 12 3 3 19 -3 -12 3 -12 5 3 5 1 -22 -4 4 3 23 11 3 20 7 -3 -5 18 3 21 -7 -5 32 -10 8 -3 -7 7 -13 17 11 -7 14 -25 -7 -3 8 -25 -7 3 -2 -9 -3 5 3 -21 2 3 21 -3 -3 3 27 -8 6 -3 -13 15 3 -8 -11 1 -3 -13 -9 -10 6 0 -28 2 -24 14 -6 -3 -6 -5 -7 3 7 -2 -3 -21 13 2 2 3 -10 18 10 10 -18 -6 -13 2 -11 3 -31 -10 2 31 21 -25 4 -1 8 14 4 -6 2 20 -34 -21 7 -14 8 1 -6 4 3 -3 -3 -2 9 2 4 8 5 8 7 6 7 -6 1 13 -28 25 10 -5 -1 -11 1 -10 6 -6 17 -15 20 24 -4 26 -7 13 -3 -17 11 8 24 -3 -3 24 4 10 4 -8 10 19 10 6 6 9 -3 -6 13 7 4 -21 -5 17 -3 -26 28 -4 3 -7 -6 6 6 6 -10 15 -8 -6 -33 -3 -11 10 -34 12 13 -4 -1 -19 -3 -8 4 -17 -15 3 -1 -5 -8 -17 3 8 -10 -11 -7 -3 -2 -8 14 -4 -9 13 -6 -10 2 24 -6 -9 -1 -1 3 -12 -25 -1 2 -11 6 7 -9 -11 -2 -6 2 3 -6 -3 16 10 6 -6 -3 7 7 7 -14 17 35 -11 15 -5 24 19 -6 13 -18 -21 -3 -1 -13 -3 -6 -6 -6 10 -1 8 -7 3 2 10 -4 -18 1 11 4 -1 6 1 -17 -7 3 5 14 8 5 -3 1 10 -3 3 5 2 -5 -5 -7 14 -1 -4 -3 -14 -1 5 -6 -11 10 -7 13 24 -11 8 6 -1 -2 -17 7 4 -11 3 7 -20 6 -8 4 3 -9 -3 18 -7 -8 21 -13 -8 8 -21 -5 -5 -5 -7 4 -11 -2 6 -17 -14 -8 13 -12 -1 3 -1 17 9 -3 -13 11 19 3 -11 -7 -24 1 13 13 8 7 4 2 9 9 13 -3 3 10 11 13 -22 3 -11 -4 22 14 -10 2 -19 5 -6 27 -24 -20 6 -3 14 -6 -15 -6 8 10 26 8 8 11 3 2 1 -20 -26 3 -3 4 -9 -3 2 -31 4 -1 7 6 6 -5 -17 -10 14 -27 -4 -2 11 -8 14 -15 -4 3 -4 -9 5 -7 4 -16 6 6 -3 -3 -7 -6 13 -10 3 -1 -4 9 -2 14 4 -1 14 -16 -20 6 -15 15 -5 -41 -4 -7 7 1 -15 -7 -5 10 3 3 3 6 -3 -25 20 7 -9 -26 8 9 14 -1 5 -15 -16 -7 -14 -3 -11 -11 7 6 -10 6 -3 5 -22 10 4 -6 -8 -13 2 -7 25 -6 14 -4 3 32 -11 6 -10 -15 5 -32 -13 -11 3 15 -1 -18 -17 14 -3 -13 -17 3 7 -8 -13 14 8 3 -14 14 0 -15 -9 -29 10 -2 -7 -11 11 -23 -7 -19 15 17 -5 -5 -15 -6 -4 2 -6 6 7 3 -17 4 -6 3 -22 2 -13 2 -29 1 7 8 -6 12 7 3 6 -5 -10 -7 -20 20 11 4 -14 6 -18 -6 -5 -9 9 -3 5 4 -20 8 -24 -15 -7 -6 -7 7 -22 7 8 -5 -12 -3 21 -8 6 31 1 -10 4 -18 -3 9 -3 -7 -3 11 -7 -6 -25 1 6 -6 7 -8 25 -14 -3 21 2 6 11 -18 -5 3 17 10 -14 -4 6 -9 -4 -10 -3 -21 -19 -5 -1 15 -6 14 -2 5 3 9 -13 3 15 0 -22 14 -6 -5 7 -17 -24 1 -7 -3 -12 -3 6 25 4 3 -3 -5 3 2 -8 -7 -6 -7 6 -27 -11 5 -18 3 1 1 -15 -26 21 14 7 9 -11 -8 13 -4 -11 -17 -25 -14 7 -7 -3 -7 6 -20 11 -4 6 -3 -6 -1 -2 -23 -11 13 20 11 3 3 -6 4 5 -4 -11 4 3 -5 3 19 -4 -11 -4 -6 6 3 17 7 -3 -8 -12 -13 -27 -3 -14 -21 11 7 -2 -3 -11 5 8 -3 8 -3 7 0 -7 -11 4 8 6 -20 13 4 -11 -5 -9 -8 -7 -3 -11 8 15 4 -18 -3 9 -20 18 -4 4 -4 -2 -3 -7 3 10 -14 3 -18 8 -5 -8 -8 -15 -6 4 -6 15 -8 -4 -1 -19 22 14 -11 31 -3 -14 3 3 -7 10 -10 -3 14 -25 -4 -25 -8 3 7 8 -3 17 -1 10 3 -35 6 19 -15 5 8 -5 -2 8 -7 -6 10 3 3 2 -26 5 3 -7 -7 -3 5 -19 -7 -4 5 -28 -11 8 5 -2 -3 -21 -17 12 -20 5 -4 -11 -11 6 -6 20 11 14 0 3 -13 3 -20 -17 21 -17 -21 3 -3 -3 7 0 18 11 -17 7 -6 -8 -13 -3 17 -11 3 -10 -4 -17 10 2 -5 4 -31 -26 -6 6 -8 10 30 -2 5 -10 7 -7 -3 -3 -3 -7 4 -23 1 -3 -13 -4 4 -9 -10 -4 -6 22 -11 -6 7 -17 6 -17 -15 23 -8 -18 21 7 18 -4 -8 -38 3 -16 -8 -11 17 20 3 7 14 -3 -1 11 5 3 3 -13 9 10 -11 -15 3 -10 17 -3 -8 5 -16 2 -3 -14 -13 5 -2 21 -17 -1 -4 -3 -2 6 4 -4 7 -1 3 13 -14 3 13 -17 -3 3 7 -10 -14 1 3 14 6 -7 -6 3 6 -6 5 -27 -5 -20 -9 -30 -1 -2 -11 6 -3 4 15 -2 14 3 -24 -5 -6 6 18 19 13 13 11 -6 -20 -7 10 -3 -7 23 7 20 -21 -27 -4 0 -8 -3 3 9 14 -4 -14 3 -19 -7 -8 -12 -19 3 -25 4 -15 3 -8 -8 -14 -12 20 -10 4 -17 0 -4 -14 4 -7 -6 -10 -4 -13 -7 9 26 10 15 3 -4 -17 7 -10 -14 -7 -1 17 -1 -6 -22 4 -4 7 -3 18 14 -21 3 -15 17 15 14 3 -15 3 3 6 7 20 12 -9 3 1 -27 -7 -3 -8 -5 10 -1 -10 -8 -45 17 -20 -24 3 8 9 10 -21 -19 9 -14 -18 5 -11 2 -6 -7 -3 -7 24 -6 -21 1 1 17 3 -4 -4 10 3 -8 3 14 -6 -10 -5 5 -11 4 11 18 -5 15 14 -13 6 3 -6 7 -3 -11 -29 -11 21 2 -7 -5 -3 -17 -6 -4 -18 -1 23 -23 -8 2 -32 -3 -3 31 15 13 -12 8 -11 -13 -5 11 12 -7 -3 17 3 -11 -10 -9 -1 23 3 -3 12 15 -9 -14 -18 3 34 -11 -1 -11 -25 12 -24 -3 -1 7 -1 7 2 -3 -2 13 -6 -27 -21 24 11 -11 -7 10 1 14 3 -10 -14 -7 8 11 11 16 3 -9 -3 -7 3 -1 10 -13 -19 -4 -17 11 14 3 13 6 6 -17 7 -14 -1 17 -8 -3 14 -7 -7 14 -2 3 2 8 -3 7 -21 -6 -3 -6 6 -8 -6 3 -7 4 -12 -15 -11 -15 11 22 -11 -3 3 -18 -14 14 -4 -10 -11 12 11 -6 -1 -10 11 3 -7 23 -4 7 8 -34 -3 -3 2 3 3 -24 6 -19 3 -14 -5 4 -6 -1 4 -6 6 -7 -8 7 -10 -13 -3 27 -4 -2 14 -3 11 -10 18 -34 -7 1 -12 -6 14 16 7 -10 3 11 -13 4 -9 -14 6 19 -10 7 15 -12 -2 1 2 -3 -11 6 2 -12 8 4 3 -11 -4 -13 1 -20 -16 -9 -7 -4 -3 -3 -3 -12 6 10 -10 -7 -14 -3 15 -12 4 -3 -12 26 -31 -13 8 -20 15 17 -7 13 14 6 11 7 5 10 -13 -21 -3 21 -4 3 3 -12 -14 1 21 -7 -7 -14 -5 -18 6 10 -1 -3 27 -8 -10 -7 10 -14 7 -21 -7 -10 7 -7 -19 -2 3 -7 -5 -18 -11 11 -14 29 3 -10 -17 -3 3 3 6 6 -11 5 -7 -30 -8 -6 -9 3 -17 7 -1 6 20 -7 22 5 7 29 -32 5 -3 -17 2 3 -6 8 9 16 -7 -11 -23 6 -7 -6 -3 2 3 6 -6 3 3 3 3 6 4 3 20 -8 -7 -2 4 -25 37 15 -4 4 5 -2 -10 -9 10 -7 7 8 -3 -7 -11 24 -11 2 3 -3 -25 -6 9 14 -39 38 6 6 -10 26 14 -7 -10 4 -2 15 -19 3 14 17 -4 -4 -13 13 29 -3 -6 -2 14 7 -10 -6 4 14 -13 -3 13 11 -14 -11 3 -35 5 -25 3 3 15 -1 -3 -19 35 8 12 15 -14 0 -3 20 3 10 -3 3 7 -6 9 25 10 -10 10 -8 2 -1 -5 11 6 3 4 0 -4 17 -10 -16 18 7 9 -3 -29 14 7 -10 13 23 3 6 -11 14 -7 15 10 -6 3 11 -24 4 -7 -4 14 11 4 6 -6 3 7 -22 4 1 -9 6 -2 -4 -8 8 -1 3 -16 -5 31 -4 2 7 -7 3 9 -2 -11 -3 11 10 6 20 -17 -3 -7 2 20 -11 6 10 3 -3 21 17 6 -3 -8 -1 0 -4 -2 16 18 -14 17 9 -16 -3 -6 3 34 3 3 6 1 -5 -10 22 -3 -14 -6 5 -22 -3 5 -10 -16 -8 14 -6 3 -6 -10 -18 -6 19 -14 13 7 -3 -14 -14 -18 5 -21 -11 5 4 -3 3 -11 4 -11 -10 -3 -7 -28 -12 -21 1 -3 17 6 -3 11 -5 -14 -3 2 0 -1 1 11 -14 3 4 8 -7 -7 -7 14 -9 -4 -4 3 -14 -4 5 11 12 -18 -3 4 -17 -1 -8 12 20 6 -3 -17 20 -20 3 6 -10 -4 10 -13 -14 27 -5 -26 7 -15 2 29 14 6 -2 -7 -6 -17 -2 -2 6 -9 -5 10 3 -6 -7 -5 -11 6 -6 9 13 14 -6 3 -3 3 7 -4 -7 -3 -4 11 10 -3 10 -7 -8 -9 11 -3 11 3 -4 -1 7 -19 4 9 2 -3 8 12 1 -9 -7 19 7 8 -11 -17 1 -2 -16 -21 -10 -14 -17 -22 -20 2 5 10 -24 -7 -3 -12 -11 14 -20 6 3 -7 -15 4 -10 -3 -3 -3 -12 -9 15 -6 6 5 10 3 -3 -42 -2 10 -6 -10 -9 -5 -9 24 6 -2 -13 3 17 11 3 -15 -8 18 -4 -4 -6 -17 -4 14 1 8 -8 19 -4 8 -1 31 3 5 3 -17 4 3 -6 15 -7 -20 -8 -21 -2 7 -1 -15 -31 18 -4 17 7 12 2 11 24 3 6 -10 7 -6 8 -10 -1 10 7 -3 4 6 -31 6 8 6 -7 -3 -2 -18 -7 -27 -7 -6 -16 -3 -6 -2 -1 8 7 9 -7 3 18 -2 1 14 6 -1 -25 -28 3 12 -3 -2 13 3 21 -4 -5 4 -6 7 8 -3 -3 17 -2 10 -4 13 8 -15 21 -8 -11 -18 -3 15 -3 14 14 3 -7 -2 -4 -11 -11 -3 -20 -26 7 -3 4 6 18 -8 15 -33 -24 4 -3 -5 0 1 -17 -10 9 -4 9 -5 -1 -7 0 3 6 11 10 13 13 9 4 -1 3 -27 -3 11 -3 -20 6 3 5 6 3 -21 -9 12 14 -14 -10 -20 6 22 -7 1 -1 -3 -8 1 3 -7 -5 11 3 4 3 -5 -17 -11 2 -12 3 20 -4 -3 -3 -14 4 10 -3 -11 -8 5 -4 3 9 6 18 -29 -8 18 5 2 13 9 -7 0 -6 -4 18 1 11 -10 14 -29 -3 -3 -6 8 -1 4 -17 9 -10 5 -6 -7 3 2 3 -6 -13 28 3 19 15 -16 -10 5 6 15 11 10 7 4 28 -9 -25 4 -3 -3 -14 -3 16 9 7 16 -5 8 1 -12 -7 10 7 -14 -3 -10 -4 -21 3 4 -6 -10 10 14 -3 -8 32 -7 7 -3 -3 3 23 -13 14 1 -14 6 6 -14 13 17 1 -7 18 14 -18 -7 -3 -17 -10 -6 -4 -6 17 -19 27 14 -7 -17 -13 -6 -8 9 4 1 -11 -3 4 3 15 -4 -3 34 17 -7 8 17 12 -12 4 2 3 4 11 4 -3 -3 -3 10 1 -4 17 15 24 12 -5 15 -3 14 11 2 -36 -22 8 12 -12 8 -7 21 3 17 18 -3 8 -7 -1 -7 -3 10 3 17 4 -14 -14 -19 24 -3 7 6 14 4 3 -9 2 -6 6 -4 18 -6 10 10 17 -3 14 -27 -7 13 -6 -2 7 -11 2 3 3 -8 -36 7 10 18 23 14 -3 5 10 4 2 -4 17 15 -20 -15 13 -4 -4 6 -20 -10 -7 3 14 -3 -7 -5 -7 -21 -8 7 24 -1 7 -4 -6 12 7 3 -17 -4 11 7 -7 7 3 -4 -7 -3 -17 16 9 13 -16 7 3 9 -3 -6 20 -9 -7 3 28 10 -1 -3 3 -2 -23 13 11 4 8 -13 -3 23 -4 -10 -13 -12 3 20 7 -10 5 -4 -9 -28 14 -6 -20 -1 18 14 -2 9 7 -14 1 20 -8 -6 -18 -3 -14 -13 7 11 -17 -2 4 -14 -7 -18 5 -10 5 4 -5 -2 12 -4 15 5 -3 -9 -5 2 -8 22 6 -3 1 -15 -24 7 11 -3 9 -16 -18 -7 17 7 2 9 -14 -23 -3 11 -12 -13 -5 -5 17 -11 6 -11 -11 7 -8 15 3 -6 -10 7 -18 -11 -2 5 1 24 11 -5 -4 -13 -1 2 -20 -4 7 3 4 -5 -14 12 -1 4 5 16 18 -19 7 -6 11 5 -6 -17 -8 5 3 -20 0 -6 -7 2 7 2 -11 -5 7 -1 -3 -1 1 15 -10 -1 7 16 -19 -6 -8 -3 -6 12 3 -10 -18 4 -20 3 14 36 -5 -7 -3 5 0 11 13 10 -4 -3 -3 11 -7 3 -3 5 1 12 -14 -3 -3 -3 1 3 2 14 1 -11 8 -3 -3 15 -10 -4 21 3 -4 3 13 13 15 -29 -2 26 -1 -10 -37 -6 8 4 -3 22 6 -5 -3 6 -8 6 -1 15 13 -3 -25 3 -1 11 -7 -9 7 14 -3 -7 -2 18 3 -14 -4 -6 -11 9 -7 -13 -14 14 14 17 2 0 -4 3 -4 7 -14 7 3 -5 12 -6 -7 -35 25 -21 32 11 -11 -7 14 -17 13 -3 -1 13 -2 -2 -27 -1 -18 -10 3 2 24 7 -13 -6 -9 -14 6 -3 8 7 -3 1 -12 -3 -6 -3 3 -2 -3 -17 -25 8 4 7 -2 -18 -7 -2 1 -3 -5 -1 -21 -7 -3 -27 -14 -7 -7 21 -6 -21 11 8 14 4 -6 19 -11 8 -10 14 -14 8 -24 -14 -3 -3 -6 11 1 -9 -3 -6 -4 -11 6 3 3 -11 15 -29 -14 10 -2 -24 33 10 18 3 0 -35 -31 7 3 -19 -14 3 12 3 -6 3 3 -17 -6 -10 31 7 14 3 15 -16 6 13 -8 15 -9 -29 -9 3 -14 6 19 -4 -6 3 5 5 17 -12 -7 6 -5 -30 -26 3 -8 -7 6 -11 24 -6 -19 -3 7 -24 -11 20 2 -4 -10 13 4 -1 5 -13 -8 24 3 14 -12 -12 -5 11 7 -19 -11 -24 7 -3 -2 6 6 -14 -3 7 -9 -3 -2 10 -8 -13 8 8 -3 -26 -11 -5 7 -3 -6 -7 -19 -13 14 20 -15 1 -3 20 -12 -7 -31 -3 16 7 16 -6 9 8 13 3 -8 1 -4 -5 8 1 6 -3 -25 3 -17 -3 -6 -2 -6 -17 4 -3 -3 -3 -9 -7 -4 7 9 -14 -19 0 -6 -6 -7 -10 3 -16 -16 -1 3 -18 -3 4 -5 -31 7 3 5 -3 4 -8 6 3 3 -16 -8 4 -16 -12 -3 3 -7 4 2 14 -11 12 20 -4 18 -21 -11 4 -5 10 11 10 3 14 6 -9 10 -9 -6 -20 -19 -14 18 -9 -12 2 -35 18 2 -6 -3 4 10 10 14 -10 4 -10 -14 10 17 6 -18 -8 10 -1 38 -19 11 -14 -13 -28 -7 -11 0 4 13 -3 -7 -9 21 3 -3 -9 -8 -4 4 12 17 -3 8 -3 -15 10 -9 14 11 8 -3 6 -3 -7 -10 9 3 -3 -3 8 -7 -5 -9 -3 7 -15 -3 17 17 14 -13 3 -17 -17 1 -10 3 -2 -7 -28 2 3 21 15 -8 -6 -5 -10 5 -6 8 14 -7 -7 -3 -2 10 6 16 16 3 -9 -11 -9 -6 -1 -16 -1 -7 -14 8 17 -6 -27 14 -7 -12 6 -15 -4 -3 15 13 -8 17 -3 11 0 -3 -9 -2 -3 -19 3 7 -8 -7 10 27 -19 -3 27 -18 -6 2 10 11 4 -23 11 20 14 -3 -10 -33 5 -2 -3 3 -14 6 7 -7 3 -19 11 -6 5 6 -10 -13 -1 14 14 15 -2 11 -2 15 3 3 7 -12 5 13 -7 -19 -19 17 -6 -3 -7 11 -17 -15 -19 13 -6 -9 -7 21 3 -7 13 21 6 17 -3 -3 6 -5 -3 -10 4 15 -3 11 1 6 -13 11 -3 3 1 13 -8 3 -3 20 3 8 11 -6 -11 5 17 -13 -3 11 -24 -5 -6 7 -3 15 6 24 4 -1 11 -16 3 5 -6 10 -22 6 -17 -20 4 7 1 16 21 -12 4 3 -35 9 -3 -23 -4 -9 1 14 15 6 -3 14 -22 21 8 -13 6 7 -13 4 21 -13 18 -22 -1 3 -14 7 -18 -14 -9 -4 17 7 6 -3 -22 -15 -7 -6 8 3 16 -3 -6 -6 -2 30 4 -15 0 32 -2 3 3 1 10 17 5 -14 7 6 -14 3 26 -3 -13 0 8 14 32 3 -3 -6 -27 0 2 12 -7 0 13 6 -6 -22 -12 19 13 -14 -28 27 -3 29 -27 10 -20 -10 -5 3 10 -19 5 10 -13 6 4 3 16 -23 6 -14 -12 -6 7 -2 1 -11 3 6 2 -2 -13 7 1 8 -18 -3 3 3 -26 4 7 15 -2 7 -3 6 -16 3 -16 18 -3 -16 -6 -3 3 19 6 -16 -10 6 -2 18 10 14 20 -6 6 3 2 -4 -6 7 12 7 -4 -6 10 5 -30 -3 -13 -1 -7 6 6 -10 3 -8 -4 13 -6 -7 6 14 -14 -3 -1 3 -7 3 -8 13 -13 6 -8 14 -14 32 22 4 -24 -11 -5 11 7 -4 -23 3 -4 -11 -4 -23 3 16 -3 10 18 0 -3 -10 -33 -6 -4 17 4 -13 3 11 23 -10 6 -32 8 17 -4 6 3 -16 7 13 -3 5 -14 2 -18 5 -5 -4 17 -13 -4 10 -31 8 -3 -5 5 -3 7 6 3 -6 -2 -4 -9 7 6 23 -7 10 10 15 -21 2 -17 -12 6 -3 6 8 21 17 3 3 -5 10 -3 -10 4 3 -21 -4 3 6 -21 22 13 10 6 -12 1 27 -5 18 -23 -4 11 3 -13 -4 -3 -32 -17 4 -21 3 -22 17 3 -6 -11 -6 6 -5 1 -25 19 -28 -8 -4 28 7 -3 -6 9 -14 7 -3 4 -3 -3 14 -9 9 -3 -3 1 10 5 7 8 1 -7 1 9 17 7 -13 -6 -3 -7 -18 -17 14 -2 -4 7 10 3 -5 -10 -21 6 12 3 4 -6 -3 -6 24 3 6 6 24 1 13 2 1 5 -18 -28 3 -6 4 -7 -18 -37 -17 -7 10 1 -8 6 6 -3 4 7 -8 -28 -6 3 -18 -10 -20 3 1 22 19 8 23 10 9 15 17 7 -20 -25 -1 7 -16 -1 5 7 -12 -23 -5 6 2 14 -3 -8 1 14 13 -7 -8 7 -6 2 -1 -4 1 -7 -6 6 -4 -4 -5 8 6 3 -6 7 1 11 8 -10 -3 -22 -14 -2 11 9 11 -1 17 7 10 -15 -3 -13 -7 -3 -7 -4 -13 -3 -3 -21 1 -31 -7 5 -3 -3 1 4 -6 -2 2 -5 7 -14 -2 -3 7 -8 -6 3 3 -10 -7 -7 2 -6 -6 1 -22 -24 -2 -2 -26 5 11 -8 -5 -21 2 2 -12 -18 -18 1 5 3 -24 -6 -22 3 3 12 -6 -7 -9 -19 4 12 14 30 -3 10 -3 -20 -1 11 4 8 -7 2 14 -3 -3 -11 -25 1 4 -13 -7 2 -6 -3 -3 -24 9 3 -16 5 -3 8 7 -14 3 -6 -4 -3 13 5 -13 3 -29 -7 33 3 -7 3 14 6 4 10 6 19 18 5 10 7 14 -2 -5 9 -13 18 9 -17 5 3 -2 -14 -3 -17 -21 5 1 15 3 -17 -14 -3 -7 11 4 18 -3 -14 -4 7 -23 -8 18 -34 -6 -35 14 -15 5 -31 1 -3 2 -10 -3 -20 -3 7 -3 21 -4 -6 -14 -14 12 28 -17 7 6 -17 -13 18 14 1 -10 -6 14 4 -8 15 -24 -21 12 13 -17 -6 -17 -14 -11 18 -13 -12 -6 -10 19 -3 20 -12 24 4 12 22 9 -8 -7 8 7 -2 1 3 3 -4 -3 -9 3 -2 3 -4 4 -1 4 -5 -2 -12 -3 2 -30 -14 12 -10 10 -5 6 6 13 6 -6 6 -19 -8 -8 -11 5 -10 -28 2 3 -14 2 8 -3 -6 -24 -22 -5 5 -8 2 6 -5 -7 -17 -2 -15 -7 19 3 6 2 -10 12 -1 -18 -16 13 14 -14 7 4 -10 16 -14 14 28 15 7 7 -7 -6 7 -1 3 17 -3 -6 -10 3 -2 17 3 6 -17 2 -1 3 3 -8 -5 15 -5 3 20 23 -6 10 -4 -7 -15 7 -14 3 5 -7 12 1 -1 -37 -21 4 -6 -7 -1 -10 -5 -15 -4 -14 -7 8 -20 1 -25 -7 -6 4 -10 -6 12 15 -23 10 10 -29 -13 6 -8 -3 -5 23 21 -2 23 -11 13 -18 -15 -2 -3 17 -5 -3 6 4 7 -10 -17 1 -4 1 19 -24 -14 -2 3 10 -13 -24 -2 -3 -14 -7 -14 17 -3 -10 -19 -7 -12 -5 3 -14 1 -9 -14 7 -10 -15 -23 20 15 14 -15 3 5 -15 5 -1 -25 -11 14 3 -20 3 7 8 1 -6 -30 -2 12 -6 5 3 -21 17 18 6 -33 3 -17 24 -7 3 7 -3 -1 -1 7 -8 -3 1 -7 -5 -4 17 11 7 5 16 13 -3 -2 -8 14 1 4 -6 -11 -17 6 13 -23 -3 19 -11 14 -24 8 -8 -7 -32 10 19 4 3 4 -5 -4 2 3 -26 -6 1 -11 -3 15 11 0 -2 -2 -12 -3 -18 -4 -21 -3 -10 -6 -11 1 -6 13 -3 3 8 1 3 -3 -6 8 -3 -6 7 3 4 -6 7 -3 -21 3 -20 29 6 4 -23 10 -3 7 -9 7 -15 -10 -10 6 7 2 3 -3 5 11 -2 3 2 -6 18 4 -31 -9 5 4 26 -4 16 11 16 -9 2 12 -7 9 3 -8 -2 -5 -3 10 9 4 18 14 -7 -1 -3 7 -3 -10 5 7 8 -6 -10 -3 0 -7 -1 0 7 9 11 -44 -10 3 -3 -6 11 -21 3 0 -6 -17 -17 13 7 8 5 4 -2 -5 -7 3 -3 -3 -3 -4 6 1 14 -10 16 -18 -10 -20 3 7 -2 -17 -3 -11 7 -8 5 6 8 -7 -10 3 13 9 -25 -3 -3 13 27 -12 8 -6 5 -21 15 11 -3 -5 -22 -17 2 -4 1 -19 -23 -15 -9 -10 -14 -11 -13 5 -7 3 -5 7 4 -4 -4 -1 -14 11 14 3 7 -40 -4 -11 -17 3 -2 17 3 28 -4 -3 1 3 3 -9 5 -4 -3 -6 20 -17 -16 0 -7 -5 12 17 6 -5 -12 -5 4 -2 -17 -4 -4 24 6 -15 -3 -13 7 8 -5 1 7 -3 14 -5 -4 -7 9 -17 -14 13 3 -4 -11 -7 -12 18 -3 13 -11 -3 -6 -14 10 -2 4 25 -11 -3 5 21 -6 10 -18 -13 -14 14 -4 3 -6 -5 1 -8 -13 -6 2 -3 -3 11 17 -9 31 1 5 -18 -12 6 -4 14 -9 25 -3 -3 -13 9 -7 6 11 -2 -13 -6 3 -12 3 -9 -1 3 -26 -2 -14 14 1 3 8 -27 -4 25 10 -7 13 13 3 5 -11 -18 -23 -3 12 6 2 12 -11 10 3 1 5 3 -5 -3 -3 -3 6 15 10 -3 -3 -24 -39 3 15 3 5 0 7 -22 8 15 2 -17 6 -8 7 0 17 -28 -13 -26 -1 5 -4 10 -38 -3 -28 -6 31 -5 -1 -4 14 -6 8 28 -1 18 13 -21 -4 13 6 -18 17 18 -12 20 -19 -8 -10 14 9 17 -20 -5 -8 -24 4 -6 14 -8 -14 -21 -6 10 18 16 3 8 27 2 -11 17 18 31 -10 10 -14 14 -14 -15 21 1 3 -4 6 9 5 13 -14 -3 -21 -11 -29 -7 -14 11 1 11 -4 24 0 -2 -3 -7 8 -16 -10 -20 -11 -7 12 -3 3 -4 14 -3 7 -2 -6 -2 -14 13 -4 6 -5 -18 2 14 -13 1 12 4 -18 -18 20 21 -8 17 8 -5 -15 -2 21 -25 20 3 3 -8 18 -3 2 2 20 9 13 5 16 7 6 -11 24 16 3 10 -3 15 -6 -21 -6 3 28 30 -23 3 -2 -2 -28 9 -6 -2 12 11 -12 -1 12 -10 8 18 -17 13 -3 7 10 -4 -14 -3 17 -13 -27 -4 5 -7 -6 -14 -1 11 -17 12 -4 7 -4 -24 -13 3 -5 7 -14 -7 16 18 -14 -17 -7 -14 4 -10 6 3 4 -4 -7 38 2 12 3 3 28 -3 22 3 -20 3 -5 -4 -1 7 -6 -6 -5 5 9 1 7 1 -6 4 5 10 5 -3 -11 3 -8 -24 -2 -19 8 -9 16 -24 7 2 7 11 -21 10 0 -3 -34 1 -13 -5 14 -3 22 7 7 24 4 13 -4 3 6 2 -2 -13 -3 13 -14 -15 -22 21 7 7 14 -17 -9 -3 27 -6 -13 -9 21 3 -17 4 5 -7 -24 3 -3 14 7 -3 -14 5 -5 -11 -8 7 -20 -4 13 14 5 -1 -22 -8 1 7 6 -6 -14 3 -5 -6 -8 4 -2 -10 -10 -23 -6 -3 -6 -21 -1 -2 -3 7 -3 6 13 -6 18 3 3 7 12 6 4 2 6 -7 8 18 -3 -8 3 12 -1 -5 -8 4 -3 4 -3 7 1 -14 -2 13 1 14 1 -17 2 -6 -3 15 9 -4 14 -14 -16 32 -24 3 -5 33 3 -2 -10 -6 -9 3 21 -8 -4 -11 14 -6 7 13 13 -7 -7 -3 -14 1 -6 3 4 3 7 -7 3 6 7 -6 -14 34 -6 28 1 -1 11 7 18 -18 -20 -8 3 6 -16 3 -20 6 11 -8 5 -3 28 10 -24 -30 -6 -31 -6 8 -4 -20 -11 -18 -17 -5 9 -13 1 -21 5 1 3 -24 14 -8 14 -3 -16 -2 5 -7 6 -11 -4 1 5 17 7 4 -7 11 5 -6 -16 4 3 -3 7 6 3 14 8 14 -23 -7 -15 2 -7 3 -28 -11 11 10 -10 -6 13 -14 1 -12 -3 -4 -1 -5 5 18 -6 -12 3 3 -7 -5 7 19 -2 4 -17 -7 -3 -19 9 -13 8 -19 6 -13 -11 -6 3 -2 -35 3 -7 2 -3 -2 4 -3 -3 -8 -20 -3 -8 13 2 1 -2 27 4 9 3 6 -2 -14 7 -18 -27 17 -3 -7 5 -15 10 -37 -18 6 -7 7 -12 -22 14 -3 -20 10 3 20 4 -6 8 -1 7 18 14 -2 -10 -8 -7 -10 -5 -6 -3 6 -24 -8 14 -8 2 -3 -3 5 -17 -7 -8 -15 -13 -7 12 6 16 8 10 4 22 -14 18 -8 7 1 3 -13 3 5 -14 -15 -3 -8 -4 34 24 8 4 3 18 17 -7 3 -4 2 -10 18 -3 8 -14 -11 -12 -6 -2 3 3 -13 -3 -5 -12 3 -27 1 14 -27 -7 11 4 -9 -31 3 -14 3 -13 -14 -12 8 21 3 -7 10 5 -13 -10 -16 -3 -10 1 26 -2 19 -6 7 -31 0 12 5 19 6 -6 3 -6 -27 -7 13 -2 -12 11 -22 -3 -30 -3 -8 7 -3 -21 -14 -9 4 -3 15 -3 -8 -5 -8 4 -4 -10 -3 -6 -1 -18 -13 -20 2 -21 14 -3 6 -3 7 -21 -3 -9 -3 -8 8 -15 -4 -16 23 2 -6 -7 -8 -8 -15 -17 -12 -11 7 10 4 -14 -9 -3 -6 -13 9 -11 -38 17 -14 5 -33 -1 24 -6 28 -7 -3 11 -19 -17 -7 -5 7 -5 -2 16 3 4 -10 -12 10 -9 17 6 -15 17 -11 -13 -14 -6 5 -7 6 -11 21 -9 3 2 21 3 10 -23 -3 -5 8 -5 -3 -3 1 12 -10 -24 3 -7 1 -7 11 -27 7 -10 3 -10 -7 -6 -8 -14 16 -7 8 6 -8 14 6 -6 -13 -10 6 6 -7 -10 -22 -3 -7 -3 12 17 -2 -10 -3 -10 10 20 -1 2 5 2 -3 -3 5 -18 -6 -14 -2 -3 -21 7 -16 2 -7 11 13 29 11 3 3 16 2 -14 -12 15 3 -1 -3 18 -3 6 6 4 3 -3 11 1 7 -2 15 -7 -22 -18 0 -13 -14 2 -3 -5 -14 -1 -18 -15 -6 -17 -7 -2 -3 -17 -12 10 -4 -7 -10 -6 13 -12 1 -4 -7 6 -7 23 -24 -16 8 13 -6 -7 -27 15 -20 -3 6 -8 -13 -1 -14 -8 2 16 19 3 -1 9 -9 -4 -3 -14 -3 -11 -17 -3 14 14 -3 20 3 -3 -5 -31 31 -3 -7 10 1 7 -9 3 -2 -2 -12 4 -7 31 -3 -2 5 3 8 3 11 -14 5 -20 -12 6 -7 -21 5 -7 -30 -4 -17 -1 -3 -4 -3 -15 -4 8 3 -10 10 3 10 -12 6 -14 10 -13 -6 6 6 -6 -20 3 -6 14 17 -17 3 -3 -10 -3 -3 -2 -28 4 9 1 -8 10 7 4 8 -22 -5 11 4 -17 -2 -4 5 -8 5 20 -6 -3 9 6 8 3 -4 -20 20 -5 -23 -8 3 -3 -3 5 -3 -16 6 -11 -14 4 7 2 -2 13 -7 -1 -2 3 -7 -7 11 -3 -22 5 -10 -4 1 4 1 9 -21 -9 9 5 21 -17 3 -27 14 21 -8 -4 -8 8 2 4 4 -5 -10 12 -19 7 4 -18 -21 -7 -3 -25 -17 -17 -1 -14 -20 8 -10 13 17 3 -25 7 6 4 -21 12 7 20 -4 -12 -3 -15 -5 -4 3 -10 -3 -8 -3 -1 -2 -41 4 4 12 4 -11 -3 -18 -16 6 15 7 -17 4 1 -15 9 -24 28 -16 0 -8 -7 -21 9 -10 -12 -18 -6 12 5 3 -7 0 -7 -24 4 13 1 -26 -1 5 -27 -10 -3 -1 -14 14 -11 20 5 25 -18 -3 -18 -6 -6 3 -4 -10 10 16 29 -4 -2 -6 -3 -18 -14 2 4 3 4 -27 -7 5 -17 4 -9 -2 8 -6 -4 -14 4 -7 6 -11 0 -1 -21 12 3 -8 10 8 -10 3 -7 -8 -14 5 6 3 8 -2 -13 -14 -23 -31 -13 -10 10 -19 -5 7 -3 4 -3 4 -21 10 -6 -4 4 -7 -4 -13 6 11 -14 13 7 7 3 7 -3 1 6 -9 31 2 -3 -11 3 0 13 -3 18 13 -17 -3 2 -19 -21 2 -3 -4 3 -11 -22 4 25 -21 3 14 -22 7 -3 8 7 -7 7 3 -21 -24 9 5 -15 3 -14 -7 9 -15 -6 -9 2 3 11 -8 10 -20 10 18 18 1 10 -3 12 9 -13 3 25 -17 4 -18 -7 -3 4 30 -7 -19 -3 3 -14 7 -3 6 -3 -6 3 -4 4 -12 3 -6 8 -15 -4 -7 11 -10 -14 -4 6 3 -8 -23 -2 -13 -5 6 -11 10 -13 3 29 5 0 -20 -3 8 -3 -9 -3 4 5 -20 -10 -3 14 9 -22 -2 -6 -20 6 3 13 -7 -34 20 14 10 -26 26 5 3 3 -3 -17 5 11 -8 11 -7 6 23 -13 2 11 27 -18 28 -4 -6 -7 3 -11 15 5 -3 9 1 8 11 3 5 14 -3 -10 -4 -2 8 12 7 -13 8 -7 5 -3 -5 -5 -23 -7 -3 -21 1 6 9 -2 7 20 -5 -3 20 3 6 16 -14 5 3 25 3 -17 10 -11 -4 -12 19 -24 -3 -2 -4 14 5 -21 14 3 15 9 17 21 -11 -6 3 10 13 6 -12 7 4 -17 6 -34 -4 -7 5 6 -23 20 -1 4 -6 17 6 4 -15 20 2 -4 2 -11 -25 3 1 5 -18 14 -10 -11 1 6 -3 -22 -5 15 -21 -11 -11 -15 -14 18 -3 -5 -15 11 -7 -7 2 -8 -2 3 14 26 7 -2 3 -13 3 -22 -6 -20 7 -14 -6 -20 -3 -6 24 9 -14 -3 -3 8 -4 4 -8 8 -5 2 18 8 4 -18 3 -14 8 -10 7 10 -6 8 -8 6 -13 6 5 23 -3 -17 24 -17 5 -13 -14 21 -3 11 5 -41 -7 -17 -13 20 15 -3 21 -1 -3 -6 5 3 -12 -3 17 -8 -8 -3 3 3 8 -6 -3 3 3 8 -11 22 8 -3 -7 27 -14 -7 -3 -15 -20 3 -3 32 3 -34 -3 -5 6 3 -7 3 -6 5 3 12 2 -2 21 -8 3 6 4 6 -4 -11 -6 -3 -10 3 -12 14 -6 -3 7 -6 18 -7 6 -17 10 -2 -26 -3 10 -22 -6 -17 -36 11 7 3 -6 -14 -3 2 -4 18 4 -5 -7 -17 -3 -23 25 -4 -13 -8 -20 -13 -22 5 3 -6 -10 -10 28 -21 5 -4 -3 -11 -24 -10 -2 -1 5 17 -10 -3 -7 -6 9 -3 -6 -14 7 -9 3 -8 -22 -3 11 -3 -14 -33 -7 6 -10 1 20 -10 5 21 -17 2 6 -3 -12 12 11 13 3 10 14 1 14 3 -4 -7 -16 8 14 21 -24 15 3 -22 8 -18 7 15 15 -15 -21 3 -11 4 -5 0 -4 1 -16 -6 13 20 -3 11 11 -4 -10 -8 -5 -3 -7 1 -14 -2 6 18 6 -13 -7 5 5 -6 3 3 -3 5 -3 -7 -2 8 7 -2 5 7 17 -25 15 2 24 -7 7 -3 -2 6 5 7 5 9 6 28 -25 14 -8 -3 28 -15 13 -3 -5 2 17 -21 -7 -24 6 -16 5 -16 -3 -3 7 10 10 11 -5 -3 -6 4 -3 -21 7 -9 5 -9 -4 -6 -3 -3 6 -7 3 -4 -32 7 4 3 -16 3 1 -9 7 7 3 -9 5 3 -16 -11 -37 30 -5 4 3 13 -6 -8 6 16 -2 6 8 16 -7 -3 30 18 -4 12 -7 8 -21 10 13 -11 -3 3 -15 -20 17 17 38 -13 3 3 6 16 -4 -3 26 -2 -38 18 -4 4 -11 -11 -6 -3 -17 4 -5 -9 9 -18 -17 -14 4 3 4 3 2 30 -2 7 -18 -3 18 5 -20 -1 -11 -11 -2 8 11 3 -17 -22 -3 22 -17 -9 22 14 4 13 3 10 -6 14 -1 17 -3 -14 -3 -14 -9 -17 8 15 -24 10 -24 2 15 10 -4 -7 -11 8 -22 -26 -10 13 -9 5 -13 -7 3 -6 -10 -11 -4 4 -6 -14 26 9 -3 -16 -4 3 -24 -4 -10 9 -1 -5 3 1 13 0 4 -3 -21 -7 7 14 29 3 -4 -4 12 -10 -11 17 -14 12 -20 -5 -13 -10 17 23 8 -2 -4 11 5 8 17 -3 6 -5 2 -11 3 -17 8 -6 7 -13 21 7 -1 6 6 17 3 1 2 -8 -4 10 -10 -3 3 17 -17 7 -3 7 14 -11 -25 -3 -35 -1 -13 3 3 -14 18 -11 -3 -6 17 13 -3 -1 -11 24 18 3 -3 -7 -3 -6 -1 7 -7 -3 5 -8 -7 21 -17 -7 14 -11 4 13 17 -1 -25 27 26 -6 13 -2 -7 -5 14 4 -15 8 -7 -5 13 -2 -6 5 21 -14 -5 3 -2 -6 7 6 3 18 3 -13 3 28 -4 7 -10 -1 -3 -10 3 9 -3 -13 5 -4 7 7 -17 -1 10 -17 1 -4 3 8 -6 -3 15 -1 -5 -3 -20 -17 -3 15 7 1 4 5 5 21 6 11 -7 -7 -14 -10 -6 8 17 10 3 -5 18 -4 -7 -6 11 3 -6 3 -7 10 -11 -3 3 -13 8 -11 -16 11 7 5 -18 -7 -3 3 -7 -24 26 18 -3 4 -3 -4 -6 -6 7 -5 -4 3 -3 -14 2 -7 -11 -14 -4 5 -3 6 3 -8 -12 0 -2 5 -6 -16 -11 -7 -7 -21 -13 -4 -3 1 6 3 -7 13 24 -3 4 3 -10 -10 7 3 7 -6 -3 12 -3 6 -13 -1 -20 -3 10 4 2 -6 1 -6 -3 4 -3 -2 13 -18 6 14 -6 8 -5 6 8 -3 22 7 14 12 17 3 12 3 20 14 3 -6 -13 -3 -3 10 6 7 -13 17 24 -7 -18 14 -12 4 -19 23 5 -3 -14 -17 -7 1 -25 -4 3 -10 -4 3 -14 3 -21 -6 -17 -29 8 4 10 -11 2 -3 7 4 4 3 14 2 -1 -3 3 -6 -2 17 11 -6 -3 4 8 -21 12 -3 8 3 -25 -1 -4 -7 -6 2 10 -5 -24 -11 -10 -5 5 1 28 -3 6 -3 14 -6 -5 -13 0 -10 5 -13 14 11 24 -10 25 -7 -6 -9 15 14 -3 -8 4 -4 11 12 -3 17 12 -4 -6 1 7 -1 -21 -25 -12 -7 9 7 -13 17 9 -3 11 6 3 2 -18 -18 -6 21 5 -14 -3 -25 -23 -31 -7 1 12 3 -6 -3 24 9 -5 -17 3 -6 0 16 -6 8 3 -14 1 2 -3 -5 10 -24 7 8 -22 15 6 2 9 -14 -4 -1 3 -5 -11 -3 26 24 -7 14 14 6 -2 3 -16 -3 -3 3 -8 8 -14 21 -24 -10 -3 6 16 -3 4 6 -16 1 11 -17 7 0 -3 3 40 3 14 3 3 -2 6 12 -10 8 6 3 -3 10 5 8 -10 -6 -12 3 13 3 -3 -3 -5 3 3 7 -1 -7 -4 5 -6 -6 -48 12 -4 -3 13 7 -22 10 -1 -11 -7 -21 -20 -4 -17 34 7 -17 -18 -6 3 3 -5 -1 -3 -14 1 -7 -4 -22 -7 -3 -10 -3 -4 -6 -7 -12 -10 3 16 -4 3 1 -3 7 -4 -4 6 8 -7 8 7 5 3 -4 -19 2 -3 -7 -8 -2 -21 -3 3 6 17 -6 7 3 10 -3 3 -20 3 -9 -28 -6 -4 -7 -8 -20 5 18 -7 -18 -3 -14 -4 7 3 -1 -17 -12 -3 11 12 -21 -6 -3 -3 -8 6 -12 -6 10 3 4 -3 6 4 -25 11 -7 6 5 -7 10 0 -17 3 -5 -15 -22 -3 -10 23 1 -6 -6 7 9 7 -19 5 10 -24 14 -7 -2 5 7 -28 -6 -9 27 3 -35 6 -13 -3 -8 3 -7 -11 -7 7 3 3 -7 -17 14 7 18 12 6 -7 9 -6 7 1 -6 8 10 -11 17 5 3 -5 17 -5 -7 22 -10 5 32 6 -4 8 19 4 -14 -8 -4 -4 -24 -7 -11 -6 2 3 -6 7 2 6 8 -1 7 5 -12 9 11 17 4 -10 -21 -8 4 4 17 -11 4 -6 6 18 -10 22 9 29 -5 2 -23 -3 4 11 17 -10 -10 -7 -8 17 -9 12 3 -13 -1 -11 7 1 -8 -16 -12 -10 -7 -24 6 -17 -21 22 -9 -2 -2 -13 2 6 7 -23 5 19 8 -21 -5 -18 -3 12 10 4 3 -4 6 3 -1 -41 -28 -6 -7 -7 4 -7 -10 -4 -3 -6 10 -5 6 -16 4 3 3 -7 0 -37 1 14 20 -5 -4 -3 -23 -1 7 18 4 13 7 2 2 3 7 -14 -11 -15 9 -31 -2 -8 -12 14 -8 21 9 -4 13 -10 8 20 -4 -11 11 3 -3 29 3 6 29 -3 7 14 -1 9 8 4 5 33 -12 -16 -10 8 -3 6 6 -14 1 4 -6 12 -5 6 24 -7 -1 -23 -32 -21 -17 5 -6 26 3 -4 -15 -19 -8 7 5 -2 -9 1 -35 7 -20 6 7 -20 -22 -3 -8 -1 29 -3 -1 13 13 11 -3 -8 -7 -18 6 22 -6 15 5 -5 15 3 -11 -4 -20 -21 1 2 -1 -1 -14 -7 2 10 -8 1 3 11 -12 -8 3 8 -4 -27 7 10 -7 -10 3 -10 -6 -9 1 20 8 -16 -7 -8 2 -4 0 -11 24 14 21 -16 23 9 20 8 -19 -10 -10 14 -19 6 10 7 -5 14 -7 10 -6 -10 6 -3 -33 -11 -14 -4 30 -21 -18 7 -19 -24 9 -13 20 -15 2 10 -7 -2 15 10 -13 6 4 14 5 25 -6 4 -18 3 -32 -2 9 18 -10 15 -3 -16 -6 -6 6 -3 -3 2 20 -28 -22 2 -7 -4 2 -6 7 -17 -8 -8 -11 6 -15 11 -5 18 17 31 6 5 -39 -6 -26 9 15 -5 35 48 -11 -10 14 -7 17 -1 11 -6 12 -6 13 7 -3 9 1 -13 5 8 -11 -18 -3 -10 -11 -15 2 -3 22 7 14 10 -14 -4 16 5 18 7 -11 -10 15 10 -10 13 3 9 3 3 -5 5 11 3 18 -5 4 -13 -15 -6 2 -7 -7 -6 -3 8 -3 12 -18 -2 -15 -6 -6 14 6 -1 1 -1 -13 -9 -10 2 -8 9 18 7 3 3 -12 -7 -13 1 6 -7 -28 6 -10 7 5 -3 3 10 -2 2 6 11 -2 3 17 13 6 3 6 -5 -4 13 -14 6 -21 -7 -37 -7 14 -7 -6 -1 -22 7 4 -11 13 -5 -14 -8 -3 8 9 -6 9 -20 -1 12 3 3 -10 -4 -20 3 16 -6 3 -19 -3 3 12 -1 -21 -22 3 -8 -6 7 10 -5 10 -4 -10 -6 1 8 -18 12 3 18 5 4 -18 0 -7 -6 -4 3 -2 -7 12 7 -14 -8 -3 -3 3 -17 2 10 10 6 -3 3 -6 8 3 5 28 -3 11 -14 4 3 -25 14 -9 3 -13 -15 15 10 -4 -4 3 6 3 10 -7 -3 25 -21 3 -4 25 -9 -3 -13 9 -3 -3 -7 -7 -3 7 8 -7 -4 5 -1 -8 -24 13 6 10 10 -7 -6 0 5 -4 -10 6 -3 -6 -21 -12 -2 -3 -4 -8 4 7 -4 3 11 0 3 -3 2 -24 8 -12 -6 11 2 -9 27 -12 -9 13 3 3 14 -10 -11 -7 4 -18 -10 1 -6 -14 -25 -14 11 -9 -14 15 7 8 -12 -7 34 0 4 21 -6 -1 -22 -15 -3 -9 -14 -18 11 4 34 10 7 -12 12 3 -3 -19 -6 20 -4 -1 20 -3 11 -6 3 -17 -14 -6 -9 29 21 -8 2 6 -4 14 9 -4 7 -7 17 -11 1 25 10 3 14 3 6 3 -22 10 -3 8 -10 6 -3 18 21 19 6 -33 16 12 -3 -3 4 -11 1 -2 10 -18 -10 2 6 -14 -14 4 14 6 -4 -2 10 14 -6 -20 -6 -3 -10 -11 -11 24 10 1 4 3 5 -21 7 4 12 -13 -6 -14 11 22 7 -2 -3 -5 -1 -6 -9 3 4 -13 3 -16 -11 -17 -3 3 -8 2 13 20 6 -7 7 -17 -3 -11 -17 9 10 29 12 -10 3 -1 1 -4 3 8 -6 10 2 4 -10 6 -6 -2 -14 -3 9 10 -8 3 -7 -6 23 -7 -28 -7 8 3 5 9 -25 -24 -7 1 4 11 18 2 -4 39 3 4 -8 -4 -11 7 13 -3 3 -12 3 -3 10 -4 -2 5 10 -12 -12 -3 -25 -3 -9 9 1 -21 -3 -3 -2 -6 -3 16 -25 -4 10 -18 -20 -6 0 8 -5 4 4 6 -11 17 -3 -7 -4 -4 -17 -12 -2 12 2 34 14 -3 -6 -11 11 -4 3 -3 3 11 17 -3 -13 6 27 6 -10 15 -14 -3 -18 16 22 14 -6 1 -7 -8 5 -7 -7 -3 -10 6 -13 -3 6 7 -5 21 -3 13 21 -18 3 7 23 -6 -4 16 -3 -19 8 -6 -3 -6 -3 -3 4 -15 17 -10 -5 3 13 -36 11 -14 -11 13 -14 24 -13 -6 3 -6 -24 -24 14 -6 -21 -20 -8 -7 10 -9 26 7 -6 1 7 4 -3 3 -4 9 4 10 4 6 24 -3 -11 -3 -11 -24 13 -7 -7 11 -7 -10 -3 8 22 -3 -5 7</t>
-  </si>
-  <si>
-    <t>JSB(2.427565902059217, 5.578575605303544, -54.874422085715096, 241.13069543488353)</t>
-  </si>
-  <si>
-    <t>29 45 33 32 44 29 37 29 35 40 32 44 36 20 22 64 33 38 27 35 47 31 47 32 53 49 22 31 27 29 37 51 34 26 45 48 39 26 37 39 22 45 43 31 39 40 29 43 29 69 37 37 50 30 37 40 31 49 36 40 48 16 39 55 34 29 34 54 30 49 29 35 33 23 35 32 37 26 41 28 34 40 27 33 44 51 30 37 37 51 30 44 53 23 34 51 45 45 44 44 44 51 29 41 29 49 29 35 30 43 43 22 30 23 40 43 30 42 41 37 60 36 34 27 48 24 30 47 37 41 37 33 31 40 43 43 23 59 45 32 33 49 45 52 25 45 43 33 23 42 58 27 38 34 36 41 43 56 25 42 43 57 43 39 44 30 26 27 12 48 30 44 32 42 27 23 36 51 34 43 54 33 33 38 46 59 37 33 37 26 47 58 44 43 44 23 60 37 59 36 43 37 44 57 33 27 26 44 23 45 45 16 29 54 57 31 54 61 42 12 37 65 40 41 51 27 56 21 38 37 35 23 65 55 29 33 40 44 27 32 50 34 50 36 59 55 50 25 45 34 40 44 25 45 43 30 22 32 51 56 41 44 43 16 41 37 33 32 41 31 29 51 53 44 59 37 50 44 26 42 67 35 50 43 43 49 37 57 26 45 46 23 49 33 26 41 32 54 62 29 44 41 53 23 55 31 53 46 58 51 33 30 38 46 20 46 37 33 30 58 40 25 37 30 40 24 32 48 38 44 50 29 37 35 36 46 48 40 47 15 20 45 29 56 38 41 56 55 34 38 41 49 45 45 58 32 35 32 32 47 27 47 52 34 47 44 45 52 46 50 42 55 43 35 34 41 53 37 24 37 51 33 43 24 20 48 37 23 33 63 35 41 33 37 45 45 47 54 40 38 36 40 33 24 47 40 34 43 43 38 47 22 40 30 34 43 31 26 16 23 40 33 51 54 56 61 49 31 56 39 37 40 30 30 46 27 42 33 33 45 58 33 47 44 55 34 44 44 38 34 46 50 53 54 36 37 46 66 48 43 50 37 49 39 51 23 37 42 29 46 46 52 28 40 32 24 27 47 32 50 51 37 45 30 33 48 40 33 40 43 57 30 40 40 40 31 37 48 46 37 50 32 34 45 33 27 47 37 28 32 50 42 44 44 44 32 27 43 53 34 19 40 27 54 41 43 38 43 62 37 42 30 44 22 44 34 46 37 35 39 75 49 33 39 25 33 50 61 60 28 45 43 30 27 31 56 33 61 47 34 43 33 57 48 19 44 33 44 39 59 26 31 23 44 53 29 35 23 45 57 30 38 51 35 29 60 31 37 44 30 53 40 33 43 30 44 50 16 44 44 50 51 22 53 29 32 47 38 33 27 39 51 29 36 37 34 41 48 38 33 54 43 41 40 29 43 46 43 37 29 41 37 48 40 24 26 55 48 15 51 36 41 38 18 45 37 43 36 55 27 46 28 33 42 26 51 41 41 15 45 35 26 54 48 43 34 37 47 36 36 25 33 43 38 47 23 45 27 33 55 30 36 51 53 43 51 27 23 59 26 38 17 29 44 30 48 35 52 25 30 54 48 25 45 34 38 56 43 33 47 43 62 36 49 33 37 37 44 48 44 35 29 55 41 44 43 41 41 22 39 30 49 32 50 40 54 26 27 31 36 48 32 56 36 48 48 44 52 36 29 20 31 33 40 31 47 37 27 51 23 34 44 57 35 56 43 45 42 37 29 26 35 28 51 48 30 48 43 40 45 40 51 51 51 29 37 37 44 44 51 31 39 31 38 23 41 41 26 43 49 35 45 30 35 34 45 40 55 33 28 37 33 26 52 37 27 41 38 29 43 37 41 33 26 29 36 37 39 47 57 37 34 25 39 25 52 38 31 36 25 54 48 49 29 29 52 42 32 55 45 33 38 60 32 24 27 37 33 30 63 54 37 31 41 39 47 37 54 47 49 13 48 46 37 34 31 29 49 38 36 38 32 38 45 45 26 55 58 47 32 52 30 34 36 51 52 43 38 39 29 58 32 41 34 47 23 36 41 36 29 55 37 30 43 44 32 37 28 32 52 37 22 34 32 27 51 41 54 40 27 46 45 33 37 53 53 52 40 37 37 44 58 30 54 48 50 32 36 33 25 48 36 45 37 47 37 47 22 51 44 48 19 27 45 51 25 44 51 47 47 51 37 43 47 43 23 36 46 31 37 41 62 45 51 44 33 33 48 27 43 35 29 43 36 37 47 29 32 35 37 38 51 39 33 40 51 20 46 31 46 37 63 33 64 34 33 39 39 50 37 32 48 45 30 35 31 32 37 32 40 44 28 48 32 33 53 36 51 39 10 23 50 33 44 37 55 33 39 38 31 52 35 33 33 51 40 37 56 41 43 20 42 21 30 57 29 16 16 47 48 70 33 43 68 49 34 52 34 35 41 52 29 32 43 43 44 30 40 48 41 24 40 36 49 25 38 31 34 42 33 31 40 27 33 44 62 43 50 51 27 36 51 44 34 30 51 35 24 37 36 37 32 48 46 35 23 36 57 22 44 45 51 33 34 19 33 27 48 35 48 38 48 53 49 54 51 52 30 44 55 36 32 32 33 37 37 16 39 37 26 41 39 51 36 65 29 38 29 32 29 34 41 43 44 41 36 49 40 24 40 26 30 58 44 51 30 36 29 29 35 47 49 48 47 37 43 49 34 37 39 54 37 54 39 38 51 32 41 35 30 44 31 55 43 40 30 46 51 58 34 38 28 38 24 43 61 37 16 18 45 32 45 50 29 44 39 33 36 22 27 50 37 51 34 40 33 47 25 38 25 50 29 35 29 49 6 45 31 52 34 48 51 51 43 41 35 55 26 37 48 39 32 26 51 35 54 33 58 40 25 39 48 41 30 40 46 45 33 29 29 59 47 31 40 15 50 44 49 34 45 43 25 33 45 51 52 30 37 38 41 28 38 56 55 34 45 53 40 47 53 31 52 35 37 48 44 56 43 31 43 39 43 36 24 28 30 19 41 25 54 45 39 41 43 47 38 45 30 37 65 24 40 45 23 55 43 40 47 13 42 47 29 58 41 44 37 51 51 36 19 17 45 36 27 34 51 48 47 28 43 44 40 43 51 41 34 30 47 30 41 47 55 33 23 36 28 44 47 56 43 55 47 19 59 39 51 53 16 23 49 38 40 43 48 42 34 27 46 34 37 46 27 37 31 39 47 34 39 52 39 48 30 37 40 54 29 51 41 26 36 51 41 46 20 41 52 58 58 50 37 43 50 37 27 49 40 31 25 29 51 41 38 26 33 58 43 23 47 49 30 37 72 47 31 47 19 52 50 36 37 35 37 37 48 27 45 25 52 29 61 39 33 44 56 34 31 13 47 47 31 31 35 46 51 33 31 38 35 47 51 30 37 37 33 43 41 40 17 27 45 69 65 41 52 26 37 41 41 43 26 29 25 45 25 29 48 48 62 40 42 44 54 34 51 34 33 55 23 33 30 45 33 33 46 42 37 24 36 24 36 24 48 45 54 31 43 37 50 30 45 41 45 42 49 40 34 30 20 36 40 48 55 41 68 34 39 54 42 43 41 31 44 29 26 24 32 43 52 55 48 41 46 41 61 42 43 60 33 39 37 33 28 36 56 45 33 26 30 22 50 27 41 37 31 43 40 44 37 15 44 36 44 44 38 38 51 22 44 32 23 37 40 19 47 36 47 37 43 43 40 34 36 43 41 48 40 40 48 36 47 40 34 39 41 51 44 40 26 33 38 33 53 9 38 42 37 39 31 55 51 40 51 23 34 30 57 19 57 58 32 48 44 53 33 30 30 46 52 46 35 57 25 45 40 31 41 32 23 54 33 37 43 42 34 28 31 40 37 50 50 54 48 35 41 33 41 20 23 41 51 47 37 38 45 42 55 44 45 41 41 41 37 54 34 26 22 47 30 55 45 36 30 24 50 39 57 44 43 32 27 43 41 51 39 40 56 39 45 45 58 45 37 49 36 33 43 41 34 55 50 37 42 41 47 42 41 60 55 53 46 37 54 58 55 30 31 41 56 43 59 55 34 48 52 36 43 49 37 42 41 50 47 27 54 46 47 43 49 37 41 30 43 30 62 37 40 40 33 36 25 39 47 51 45 43 35 37 65 37 37 39 44 41 33 33 34 49 36 22 29 43 33 51 51 36 29 33 34 49 43 44 48 34 36 16 43 33 48 63 56 50 54 37 26 34 43 40 26 24 40 48 34 43 35 44 39 32 48 51 45 44 43 51 44 31 44 39 33 48 48 39 23 16 56 55 52 40 51 54 54 27 38 23 50 43 29 33 24 30 24 32 51 51 39 26 33 50 43 47 30 33 58 46 30 41 42 52 34 40 33 41 39 53 22 41 27 41 43 49 33 42 37 37 37 50 31 37 42 53 39 58 26 53 40 45 29 47 36 41 34 23 17 35 41 36 24 40 59 37 34 42 38 34 40 41 54 25 59 34 48 30 31 44 37 38 30 55 33 50 33 23 29 29 47 50 53 18 43 47 51 45 27 48 33 48 40 23 38 40 40 41 49 61 22 64 33 51 45 45 55 37 39 23 51 39 39 54 44 44 34 18 47 37 29 50 42 37 40 42 41 38 43 39 55 54 40 44 35 37 40 37 30 35 26 42 23 36 48 48 50 40 31 25 65 43 37 38 48 56 44 55 35 34 41 27 62 47 48 29 48 31 33 54 54 37 27 44 40 38 45 39 43 33 43 29 55 40 43 41 36 32 41 48 51 56 51 33 44 40 45 70 33 51 31 30 28 50 24 57 36 44 31 47 31 47 29 55 28 32 22 35 45 45 33 31 55 26 52 40 32 35 27 43 30 55 25 45 36 43 32 45 44 59 41 45 17 44 44 33 32 41 18 55 23 47 36 31 39 33 43 40 47 44 41 45 45 22 41 36 29 37 45 46 49 41 43 41 48 52 35 38 26 37 34 31 50 37 57 53 50 31 31 29 34 36 43 30 37 38 23 47 45 49 52 29 66 40 56 33 49 33 39 28 46 41 71 31 54 63 37 41 36 51 31 35 34 45 34 45 47 40 33 35 36 40 34 54 55 22 37 47 43 40 27 45 23 34 41 66 36 57 33 42 38 30 44 36 32 31 33 31 58 48 49 30 54 43 30 34 41 40 22 32 33 50 38 41 33 40 42 49 45 37 40 57 37 27 44 36 43 26 45 30 45 34 29 47 46 37 45 25 44 37 41 26 49 47 25 40 37 44 32 47 34 36 43 43 28 56 51 35 43 41 45 39 51 55 42 37 40 51 26 43 54 51 55 59 40 48 63 44 45 51 34 46 46 43 20 48 37 27 43 34 59 33 29 47 41 37 29 25 34 44 43 37 33 54 36 47 43 37 43 45 66 56 37 36 30 37 36 31 50 40 38 40 42 36 54 29 44 41 41 29 39 37 41 38 29 19 37 33 50 22 51 30 32 26 54 29 18 41 43 40 43 43 45 54 42 55 41 52 52 40 44 29 44 32 37 35 40 45 47 32 51 33 23 57 57 37 25 47 22 29 47 51 46 35 29 24 41 44 36 43 54 55 39 44 33 47 29 52 57 36 58 30 28 31 27 37 33 20 43 39 17 45 57 41 24 34 39 51 32 42 19 48 29 60 32 39 47 25 56 51 42 39 50 15 64 43 44 33 36 42 37 46 47 48 40 50 33 41 33 37 40 40 47 38 45 51 51 49 34 35 55 24 48 40 37 23 49 34 52 46 43 65 35 48 44 33 45 55 36 27 41 34 40 48 46 48 38 44 37 34 44 54 16 33 26 56 44 27 27 37 40 38 53 37 52 29 55 36 20 21 41 65 33 42 46 38 24 43 37 44 34 39 57 33 45 47 54 29 55 35 51 48 27 40 32 35 51 43 33 41 31 40 39 30 33 16 54 63 37 40 36 51 40 21 38 39 33 35 62 36 39 51 30 48 55 49 35 44 36 41 29 39 59 45 50 24 36 29 20 23 40 34 30 39 35 45 36 37 58 47 33 48 53 34 29 48 27 47 45 55 23 41 28 49 47 49 45 42 36 36 25 43 45 54 30 64 35 51 37 29 47 46 62 43 41 43 27 46 33 35 29 33 23 44 37 53 29 43 43 36 47 29 48 30 37 40 51 47 29 43 44 44 51 41 37 47 33 36 57 46 25 18 47 47 38 31 51 33 38 33 48 71 38 58 47 38 29 55 38 45 37 37 33 23 47 38 33 49 36 35 43 32 45 61 32 40 51 27 48 33 37 34 23 32 21 33 46 36 45 32 32 31 41 39 34 51 48 36 40 40 35 39 22 46 45 37 51 45 36 31 31 23 58 48 46 44 30 51 26 35 34 55 44 37 45 53 45 36 55 24 34 45 15 44 23 51 44 40 51 45 34 31 44 26 55 30 32 26 41 54 41 36 39 55 47 28 42 54 43 37 30 44 46 35 45 44 62 40 16 33 34 51 37 47 36 29 32 44 31 30 47 33 26 26 47 38 31 45 24 40 46 52 44 45 37 24 33 49 40 42 37 49 30 65 37 31 40 34 30 36 27 40 37 47 44 44 63 44 40 45 19 40 34 45 51 47 27 48 32 43 41 37 30 41 45 53 53 16 43 31 32 32 29 41 19 53 48 25 30 48 38 45 31 47 32 50 47 38 42 45 39 41 52 33 33 51 48 65 41 29 42 37 43 28 41 43 28 39 37 37 49 40 26 49 39 35 42 40 40 51 45 45 27 41 54 32 39 50 29 39 47 58 33 59 43 38 37 34 46 49 44 39 49 37 40 27 26 23 40 29 54 48 43 35 45 45 46 10 51 62 44 31 36 44 37 37 35 30 44 57 36 22 37 36 19 33 54 37 33 37 50 45 46 45 57 37 40 37 34 45 52 52 40 52 32 26 55 30 28 42 55 43 45 40 31 28 30 27 39 41 69 46 36 70 41 50 62 36 34 41 37 45 57 34 37 23 41 37 57 37 29 41 33 43 51 47 40 42 55 26 32 43 26 51 56 53 37 33 40 29 45 52 16 44 34 44 57 39 41 32 37 28 26 36 51 30 30 40 33 45 29 35 34 47 44 33 37 43 38 37 34 55 29 30 32 45 51 36 44 63 52 40 45 28 42 40 29 25 36 50 33 37 54 50 44 42 62 43 23 28 33 31 30 48 27 53 43 53 50 37 43 37 36 48 38 31 45 41 22 42 45 44 28 43 37 47 37 32 37 48 33 34 44 38 36 36 40 37 43 58 37 32 27 48 37 45 48 39 29 44 46 65 40 50 29 38 45 33 44 22 54 40 34 51 40 52 48 36 47 48 39 69 65 62 20 42 29 51 51 29 22 33 29 37 50 45 44 37 47 34 44 49 55 59 23 42 51 51 43 32 31 22 48 41 57 57 34 43 44 36 27 13 49 54 43 30 44 37 48 22 47 63 64 52 23 24 51 19 34 52 32 40 29 29 38 20 79 32 30 30 28 27 52 33 39 64 39 15 42 47 40 32 22 33 46 43 50 32 56 59 45 38 51 40 41 45 31 40 50 37 47 34 40 23 43 43 35 44 33 43 66 51 22 43 44 41 38 15 37 51 45 29 30 33 41 49 44 53 32 37 30 40 15 29 69 43 33 26 23 55 43 36 38 41 44 48 45 34 36 40 47 30 50 41 59 52 37 26 48 54 53 27 27 36 44 31 43 53 30 35 45 48 40 39 52 37 57 42 30 24 42 38 51 37 39 38 34 22 41 51 45 43 49 47 26 30 22 30 36 31 30 40 35 60 38 63 30 62 27 37 37 43 43 51 44 21 48 33 29 40 44 41 44 35 49 53 59 40 50 31 25 38 44 31 36 37 28 42 35 40 46 50 25 44 27 43 50 44 31 54 44 40 41 37 50 52 27 55 33 40 30 31 46 38 13 34 43 37 41 39 36 32 19 46 34 33 59 34 23 40 15 50 41 43 21 50 39 30 46 39 48 73 37 57 34 38 36 41 40 39 41 40 49 42 43 41 51 34 40 45 41 44 36 37 37 51 34 54 47 43 44 48 58 32 43 51 36 58 37 35 46 33 43 42 37 36 43 29 41 33 40 37 44 57 52 19 47 45 30 33 37 55 27 45 43 40 48 59 39 48 45 27 27 60 48 48 30 50 40 48 37 33 37 59 46 33 45 47 39 37 23 36 43 29 31 37 48 32 29 40 42 31 51 32 36 30 37 37 50 51 32 59 43 40 38 53 54 44 29 30 77 31 39 46 56 38 50 41 45 36 34 57 51 57 38 34 41 36 37 9 34 19 56 41 37 42 43 34 33 40 35 53 57 30 36 33 48 35 37 16 27 30 48 43 43 30 43 41 34 37 44 55 47 52 31 54 47 64 33 36 41 34 37 64 58 47 45 50 54 66 52 28 23 54 58 49 39 23 29 23 43 39 54 39 34 34 40 20 47 43 19 39 36 26 30 41 57 37 30 40 56 68 45 41 27 48 47 51 47 56 54 69 50 31 35 51 42 49 27 44 31 54 29 55 46 29 50 46 52 36 35 50 29 22 41 43 45 30 49 36 45 35 50 32 51 47 59 40 51 40 66 40 36 38 56 46 47 33 37 35 38 51 62 33 49 55 45 44 51 45 38 34 28 25 30 43 41 34 40 22 23 43 40 38 38 16 44 48 46 50 53 45 20 33 33 27 40 42 47 51 56 35 37 32 52 41 30 44 35 40 49 57 28 36 36 30 23 33 40 33 31 30 44 26 52 30 27 37 40 37 27 45 39 53 26 35 44 45 47 30 34 56 33 43 49 30 37 41 47 39 43 66 33 49 43 52 59 55 42 33 45 43 35 40 26 23 41 37 62 44 27 45 43 50 59 27 43 30 40 35 37 47 22 40 47 24 37 40 49 44 39 16 45 52 46 48 56 31 30 34 36 23 55 48 39 34 46 34 44 35 40 41 63 49 43 50 44 48 47 58 43 30 39 52 35 28 42 44 47 33 37 45 47 36 38 54 40 49 39 33 50 27 23 29 37 36 50 41 31 55 52 43 40 43 25 51 44 39 39 43 51 37 26 59 57 47 54 45 43 22 50 39 24 31 38 29 33 66 37 57 36 39 25 44 40 30 25 17 34 37 40 44 33 44 49 58 44 25 39 34 31 35 40 45 42 35 65 26 26 26 47 50 27 36 31 47 41 33 43 29 45 41 52 27 49 52 41 34 28 37 38 52 37 30 58 42 56 51 48 58 33 49 37 39 40 25 43 44 36 37 35 43 33 37 31 49 39 26 42 53 23 23 37 31 30 54 47 43 38 59 35 47 36 44 33 27 44 51 33 33 45 47 36 64 43 38 73 40 26 50 37 54 40 45 43 42 54 48 41 41 39 35 37 37 33 45 27 45 21 40 21 41 18 50 37 40 44 34 43 51 27 19 54 34 26 29 36 52 44 51 16 27 26 47 37 29 30 40 39 63 43 41 52 57 43 55 46 29 55 15 41 53 50 40 41 41 36 36 37 28 30 55 27 12 37 48 46 51 48 27 71 39 54 43 54 17 39 26 29 51 43 38 38 41 30 48 33 36 53 49 33 47 33 49 35 47 52 33 27 47 48 27 23 26 42 44 20 47 35 30 58 32 40 40 36 34 45 43 48 51 61 45 51 26 36 37 42 51 37 37 47 53 40 22 52 52 33 38 44 51 34 55 45 47 49 25 46 43 38 37 40 23 37 51 42 44 51 19 40 37 41 38 42 41 54 47 27 47 31 27 32 40 65 44 34 23 59 29 37 36 41 62 39 42 56 43 44 37 54 59 52 46 37 41 33 30 37 40 44 30 52 19 30 13 51 39 40 52 27 34 38 36 47 37 75 33 37 36 45 43 36 54 12 68 23 41 23 51 40 52 46 33 38 26 37 38 45 31 55 31 48 41 61 19 20 48 41 33 29 44 58 39 43 31 58 39 50 46 37 34 55 65 42 33 48 35 40 35 40 57 55 37 43 53 26 36 46 23 50 39 31 29 37 27 36 33 37 46 51 20 48 40 33 36 45 44 36 41 59 36 57 30 33 43 61 43 47 37 38 32 34 31 31 60 52 48 16 44 43 23 41 44 50 54 31 40 26 30 44 41 37 32 33 52 51 52 57 20 40 51 30 45 32 26 41 20 42 39 54 58 41 30 44 46 17 30 36 38 60 16 38 22 40 30 37 48 36 40 38 33 72 61 29 34 41 34 41 31 46 36 63 43 45 43 47 37 41 59 32 38 44 50 43 45 54 45 69 50 43 40 43 40 29 26 41 53 42 47 31 59 31 46 35 31 51 43 27 53 37 43 45 34 33 29 37 37 49 50 45 50 19 54 36 47 37 35 36 54 47 30 51 40 48 42 55 35 35 36 22 54 44 38 43 53 37 31 28 39 36 33 33 46 48 23 40 47 44 41 26 34 33 22 49 35 27 40 37 31 37 48 37 45 30 51 53 37 27 34 33 38 27 33 51 55 36 54 44 28 31 38 43 43 32 44 59 44 53 29 38 43 51 48 50 41 49 31 25 45 48 25 36 22 25 41 40 34 33 44 37 50 45 17 15 19 30 53 47 27 31 43 45 48 29 35 45 37 33 55 47 32 35 41 39 29 33 39 55 34 51 49 45 40 51 37 30 28 27 37 37 33 42 41 37 45 49 39 39 48 51 29 40 31 52 43 26 51 53 37 55 37 37 44 37 44 41 37 27 48 60 30 33 37 30 15 33 56 38 46 34 51 34 66 41 25 36 27 44 52 51 41 43 29 35 22 37 39 34 53 40 51 20 36 55 32 47 40 49 33 58 41 47 44 46 49 51 54 27 36 48 41 24 43 49 38 35 36 47 49 40 40 51 44 43 52 34 50 36 34 33 52 56 44 43 29 33 66 39 55 26 21 56 42 47 48 51 33 38 32 46 52 57 37 48 53 12 40 30 13 26 25 46 38 36 30 57 61 34 40 33 37 45 63 44 34 30 25 57 38 39 49 38 55 26 30 49 32 23 40 42 30 32 55 36 23 37 43 12 16 22 47 63 41 48 30 59 23 43 44 24 63 55 32 53 43 42 44 35 16 36 23 36 54 23 59 47 34 38 44 40 50 58 36 46 40 44 34 31 44 44 40 41 58 37 30 48 44 35 30 43 41 35 41 20 48 30 49 32 38 33 48 27 60 40 48 49 39 29 47 29 52 33 55 36 40 20 48 44 40 52 52 51 63 35 53 30 51 31 44 35 30 43 37 30 45 52 58 54 37 28 47 62 30 49 30 39 3 29 29 30 32 38 48 31 44 26 29 22 41 33 37 33 40 44 30 29 53 30 45 47 24 60 45 40 43 57 43 51 33 34 37 32 46 30 37 39 64 23 49 58 38 29 35 34 51 58 34 43 54 22 39 37 51 17 47 38 43 38 44 51 39 44 23 48 47 46 39 38 50 38 33 47 47 36 29 36 45 43 27 38 35 52 35 38 55 43 34 37 37 20 45 26 46 39 69 31 39 56 40 36 48 47 37 38 43 32 19 51 42 31 37 26 37 39 51 37 27 38 37 27 26 33 39 27 45 29 47 19 56 31 47 42 43 28 58 30 27 36 45 65 32 41 46 40 35 58 26 45 46 24 31 32 54 44 47 33 36 33 43 44 62 17 32 38 33 30 51 35 35 44 53 38 48 34 31 44 35 28 46 46 37 36 24 42 31 35 46 45 40 49 52 41 41 59 41 50 49 33 47 44 33 65 41 32 35 47 26 50 46 51 50 27 40 27 33 32 47 40 28 25 52 25 47 36 40 38 36 35 52 44 57 40 47 45 17 34 30 57 54 48 36 29 39 45 41 51 47 22 61 43 27 27 51 33 50 39 45 51 39 27 73 33 29 43 51 39 36 42 22 44 51 33 48 38 37 43 46 40 55 37 30 27 33 44 38 40 35 34 28 50 30 46 39 51 40 43 55 34 22 40 30 30 27 43 37 44 30 54 37 23 36 32 47 37 51 42 36 46 36 37 38 45 40 59 55 30 26 25 56 34 37 43 43 37 41 36 47 49 58 26 35 29 36 33 49 38 49 51 54 47 26 43 32 38 37 27 39 41 45 41 39 49 31 55 45 48 46 46 44 40 49 44 43 28 41 34 16 39 53 39 38 37 53 33 37 50 34 43 43 45 51 55 43 9 37 34 37 55 35 22 58 57 40 30 31 39 38 58 54 30 55 34 55 43 57 33 45 42 58 51 34 43 55 43 47 44 46 34 40 30 40 39 47 60 39 53 44 34 33 30 34 34 30 60 29 60 39 40 33 45 54 29 26 59 50 25 36 38 24 43 49 60 46 36 50 12 48 51 26 49 40 55 30 55 45 45 16 37 31 51 42 45 30 44 33 36 35 56 46 35 36 30 54 50 30 36 37 34 46 27 40 40 60 79 26 40 43 37 30 48 36 45 48 26 54 43 28 46 34 45 53 44 48 60 35 47 29 36 33 33 31 51 34 44 44 36 47 30 44 35 26 26 41 38 44 28 48 48 62 53 47 33 41 40 41 39 37 45 45 46 30 27 28 51 31 46 17 46 47 65 51 40 39 33 43 35 42 29 26 38 52 61 53 33 26 51 57 27 40 47 31 37 33 30 32 49 59 30 37 33 42 20 45 54 40 39 57 41 48 30 22 48 36 29 53 44 44 51 33 58 26 29 39 49 33 42 37 45 41 66 27 42 45 37 43 45 26 30 19 50 35 53 44 33 25 24 48 30 27 24 49 64 36 29 26 27 40 29 37 16 41 33 36 61 37 38 31 21 48 21 36 33 35 26 55 34 53 41 33 39 49 33 31 37 40 29 48 59 39 46 27 34 42 30 38 54 25 57 41 37 44 48 47 51 59 50 41 57 39 37 39 37 53 46 37 47 49 45 42 37 37 33 61 50 45 43 38 38 34 33 50 26 43 37 20 41 37 31 37 45 48 30 60 70 33 48 32 49 64 37 42 29 36 68 51 42 40 43 43 39 55 45 28 28 36 32 45 44 38 33 35 30 34 37 39 56 55 37 37 60 53 43 45 42 46 21 40 21 59 44 40 33 43 69 43 50 55 40 50 47 36 29 57 25 55 43 16 46 34 41 36 43 45 45 43 34 29 42 32 42 38 43 51 39 44 50 30 44 29 22 37 52 42 41 43 35 54 50 43 37 50 39 38 24 54 41 45 43 47 31 58 33 41 26 36 44 37 54 49 39 18 33 37 37 64 36 41 23 34 55 41 37 34 42 23 31 55 27 48 37 30 28 37 55 53 31 37 47 36 48 55 34 32 52 36 38 68 65 41 38 37 37 31 55 38 37 48 26 41 36 51 53 35 31 65 31 33 55 36 46 56 39 53 37 41 37 37 54 45 40 38 41 37 29 49 33 28 48 41 59 49 47 29 37 45 44 32 30 33 48 37 48 51 33 56 38 37 41 43 36 23 37 34 24 45 39 45 31 23 45 28 59 54 40 45 50 20 33 29 32 23 38 61 54 31 22 52 51 36 48 38 34 53 45 25 13 40 33 33 49 65 54 39 30 41 47 45 40 55 43 36 29 55 48 44 31 41 31 51 46 26 28 30 58 37 45 37 51 33 54 44 48 41 34 34 58 51 28 51 19 32 41 40 60 57 29 31 29 29 45 19 29 44 62 48 44 40 35 43 43 43 41 39 41 34 37 36 27 52 43 36 37 29 33 51 40 50 28 44 33 37 34 41 66 57 52 35 51 55 37 41 43 38 43 37 30 34 44 62 51 42 23 25 43 51 33 35 37 43 48 61 30 45 29 38 43 41 47 51 51 40 19 56 40 47 64 45 44 40 49 44 65 48 41 50 49 55 44 22 44 49 48 48 43 25 33 36 34 12 32 48 39 44 27 33 36 41 46 44 43 30 32 50 31 62 58 34 37 29 34 29 40 50 36 46 38 36 54 41 48 30 50 50 45 40 47 36 43 51 36 37 44 50 26 54 56 57 41 25 43 50 34 31 43 41 34 45 47 17 53 35 28 55 47 57 30 30 34 44 37 41 26 50 44 40 51 53 54 23 53 30 40 39 47 22 56 26 48 33 52 34 53 52 40 42 33 29 50 50 50 30 26 47 40 37 20 25 45 56 55 47 62 55 37 32 44 43 30 30 34 53 55 43 60 53 40 43 40 36 29 28 29 33 28 27 34 23 34 44 33 29 30 44 34 9 30 36 50 37 26 33 38 44 40 52 23 33 29 27 38 30 42 43 43 27 39 16 51 27 40 56 59 31 45 50 30 35 22 38 39 51 39 41 48 55 50 36 62 45 41 48 52 30 48 25 30 36 33 52 30 42 29 31 42 51 48 45 26 57 35 56 27 33 34 40 25 39 45 41 55 41 40 30 39 22 51 37 23 59 40 50 34 47 48 37 44 50 35 36 47 37 21 30 48 29 48 39 27 23 28 45 54 33 41 38 50 45 16 45 48 66 44 47 31 41 44 47 48 41 37 25 52 43 23 35 41 40 61 37 39 45 23 32 57 19 36 37 39 48 33 51 34 23 29 43 46 25 34 36 57 48 53 33 54 24 29 33 46 40 40 43 31 40 46 30 30 44 50 37 32 31 32 55 39 36 35 41 51 48 41 20 42 43 37 47 26 32 30 34 68 47 26 36 43 26 29 40 29 57 34 36 23 30 37 41 47 20 36 41 27 38 33 39 44 60 35 29 33 52 34 26 32 38 30 51 29 33 45 52 38 44 37 35 47 66 38 29 60 6 33 53 47 41 45 43 26 51 58 29 36 51 39 27 73 40 39 56 40 40 40 46 39 45 51 41 70 42 38 40 45 40 40 29 74 34 59 38 43 51 34 38 38 42 26 31 46 54 32 54 37 50 51 43 29 47 19 45 29 43 57 44 40 40 34 43 40 48 49 41 44 37 30 39 41 37 33 28 33 41 39 26 58 30 29 37 27 40 41 40 32 40 45 33 41 44 27 31 48 51 39 30 50 40 41 56 35 32 37 24 53 39 51 36 32 40 57 31 41 55 27 55 44 28 45 41 65 19 47 55 40 49 50 27 41 46 45 68 47 37 27 36 45 48 36 31 17 40 50 45 48 19 26 43 50 41 36 33 37 48 38 54 63 34 51 37 37 41 29 47 58 43 38 20 27 19 50 46 46 59 48 16 37 50 32 32 46 39 35 58 40 50 52 40 41 52 25 46 65 26 64 34 40 40 46 43 45 49 35 19 32 47 35 35 62 46 56 40 16 52 26 48 38 48 39 33 37 53 65 47 46 55 39 34 24 40 38 48 28 43 46 45 41 49 36 44 28 52 51 44 46 45 26 54 44 25 51 55 31 47 42 51 45 25 40 53 25 57 28 45 59 37 42 45 41 48 54 48 39 59 41 46 25 59 36 58 51 36 31 26 30 43 54 39 53 28 40 57 43 40 40 37 48 47 47 47 40 32 29 22 51 36 43 20 33 43 61 48 51 38 51 47 43 48 33 26 44 22 36 35 52 33 44 33 62 22 61 56 31 42 45 41 77 29 51 45 42 48 41 30 52 37 36 32 39 46 38 27 37 32 57 47 44 44 40 51 45 34 41 37 37 52 59 46 35 43 35 38 34 46 39 45 35 43 37 33 29 27 51 60 52 17 44 38 46 36 23 37 32 39 43 37 41 40 26 33 35 40 59 39 53 37 36 27 51 30 35 45 29 40 57 37 51 39 36 16 50 51 21 33 47 37 55 33 44 31 38 19 26 34 26 38 61 48 42 46 48 54 42 33 44 20 36 33 42 52 37 47 59 44 39 44 22 37 44 52 34 19 44 37 38 39 37 29 36 32 20 54 35 41 27 30 50 49 51 27 47 23 43 37 36 46 54 30 47 59 45 23 32 51 46 48 34 23 61 43 15 35 44 41 25 40 46 52 27 68 32 31 45 42 39 44 41 48 35 45 36 29 51 58 46 22 55 10 40 47 40 33 30 63 44 45 23 56 54 48 29 60 47 51 43 40 37 54 42 33 33 32 34 26 34 51 45 41 39 23 16 43 48 45 51 43 37 26 34 45 26 51 41 39 37 45 37 33 52 43 41 43 31 28 22 32 64 25 37 51 50 39 45 26 53 23 54 39 32 40 42 27 53 43 41 68 30 63 25 23 38 35 41 36 48 49 36 30 43 38 30 40 48 64 47 26 34 30 40 42 43 20 40 31 51 37 31 36 51 51 44 46 16 51 33 40 60 41 38 26 40 39 23 30 41 50 38 29 26 25 48 40 31 49 34 48 51 28 52 56 47 29 36 51 43 59 41 37 30 54 37 40 38 49 50 30 41 19 51 44 35 27 27 29 53 42 35 50 30 29 36 33 29 49 23 29 29 53 29 37 61 54 21 32 30 26 46 46 16 50 31 36 46 51 41 58 30 41 27 49 31 37 51 41 32 46 46 30 33 43 23 45 55 40 36 33 36 21 62 52 26 51 55 53 30 37 10 37 46 51 35 44 47 30 36 26 58 37 45 62 22 34 43 47 37 22 39 51 37 50 46 22 48 26 33 47 39 44 44 30 34 62 49 45 41 34 33 52 36 47 33 38 19 33 55 58 29 33 52 40 37 48 19 43 36 53 42 40 54 23 22 30 24 44 41 30 44 42 29 32 40 36 38 29 30 33 33 39 43 58 29 36 46 42 30 34 58 41 40 29 38 47 27 54 53 48 38 44 50 51 49 40 32 37 36 43 44 36 61 38 53 57 33 16 56 43 37 27 29 30 31 22 41 38 50 30 36 49 44 25 54 29 40 33 37 49 43 49 51 41 48 39 37 46 31 45 51 40 25 41 50 41 57 51 36 47 47 46 35 30 43 37 40 30 31 27 49 34 40 33 37 40 51 33 41 49 55 50 53 43 47 37 40 53 43 35 46 45 60 31 49 46 36 46 42 38 58 55 38 37 64 29 27 43 51 39 34 36 49 31 38 44 49 51 65 29 34 57 17 34 37 44 37 44 52 42 17 34 28 59 30 41 31 44 54 38 34 51 26 47 30 27 25 34 29 52 33 45 69 29 34 60 29 54 45 37 51 66 37 48 46 57 54 43 50 38 40 46 26 29 41 55 40 50 26 36 32 56 35 55 51 45 37 73 27 36 43 27 48 65 51 28 37 55 50 40 42 40 47 29 37 41 35 31 55 33 34 31 51 39 48 47 38 46 36 20 44 41 47 40 45 47 29 39 51 51 33 31 41 41 32 29 30 25 34 37 29 20 37 32 62 48 29 35 25 29 37 38 51 34 32 51 52 51 42 36 34 57 47 48 31 33 45 43 39 37 62 51 38 47 52 54 33 44 43 60 48 30 45 23 46 51 20 33 44 40 45 28 24 47 46 32 36 36 37 41 57 47 61 44 34 44 31 33 48 53 54 41 49 49 23 53 47 34 48 23 49 47 31 47 47 28 40 44 35 54 40 25 28 37 33 35 28 48 48 55 46 46 40 37 26 30 37 54 37 39 34 38 30 26 26 37 36 58 36 44 44 51 48 60 28 35 16 48 34 40 40 31 34 25 43 45 49 52 51 51 33 34 39 51 57 25 47 49 43 45 34 53 37 49 39 45 42 35 37 58 43 45 40 34 45 45 23 46 26 37 51 37 70 41 46 26 43 47 49 26 47 65 43 38 37 43 44 43 40 39 51 48 37 33 45 20 37 23 32 30 44 53 36 37 34 36 52 24 31 40 37 36 39 32 40 40 49 27 32 38 49 40 23 52 32 60 37 30 42 32 29 58 35 39 45 56 40 29 40 36 44 30 37 47 43 43 51 43 24 41 40 60 13 40 35 37 26 36 42 34 37 43 30 23 73 38 56 54 47 31 51 30 29 41 36 49 45 52 40 47 29 31 60 46 41 51 43 48 47 41 34 44 33 46 44 33 39 37 50 42 43 44 40 57 63 23 46 28 19 34 59 44 41 44 26 40 27 38 39 23 52 40 36 67 47 27 41 33 37 37 30 35 34 16 13 52 40 19 48 31 51 29 36 38 54 49 57 61 47 34 38 34 64 34 27 27 35 39 34 37 43 49 37 57 49 46 36 35 36 23 27 35 31 43 30 30 55 25 37 38 32 19 23 49 37 42 40 37 40 54 37 48 43 39 43 41 32 45 61 47 48 48 52 39 22 35 17 39 38 44 57 53 31 40 42 37 33 25 37 35 51 52 20 37 23 34 27 43 44 58 39 50 43 30 51 33 53 41 63 37 49 39 37 28 43 37 30 33 30 57 61 36 32 18 50 30 34 46 66 39 35 56 38 44 36 35 54 33 64 33 37 41 51 33 26 51 29 60 33 43 59 34 42 52 29 42 42 50 36 34 52 49 31 34 37 23 30 63 45 39 44 37 48 48 37 30 31 54 30 30 49 30 29 30 39 32 33 53 31 30 34 51 43 31 36 37 46 49 23 38 62 24 27 21 50 32 54 41 31 35 40 51 40 43 51 34 33 36 44 50 36 45 30 36 27 45 40 36 38 16 39 43 37 47 33 37 36 52 43 36 30 48 46 58 27 29 64 22 59 44 22 64 51 19 31 51 33 33 54 30 37 47 33 47 40 47 37 24 16 36 44 23 37 40 30 56 33 47 38 43 43 54 36 38 45 47 54 29 43 38 51 30 37 45 45 40 26 41 27 41 47 45 34 22 59 37 49 56 50 38 44 52 43 51 29 57 33 31 41 34 37 31 37 61 39 33 43 37 48 50 31 35 52 43 41 43 41 31 56 58 39 51 49 45 56 57 55 47 47 43 66 27 41 45 41 42 37 36 55 51 19 37 27 32 48 27 32 41 43 48 58 57 46 41 43 45 30 32 37 47 34 41 51 44 28 41 40 33 24 23 41 45 40 44 27 42 33 43 38 45 37 45 61 19 16 47 47 37 33 38 31 41 40 51 48 34 43 41 41 39 23 34 37 37 43 31 47 30 53 43 49 40 31 41 35 46 30 40 48 45 52 41 37 30 30 33 32 29 43 40 59 49 44 37 45 23 63 34 37 52 37 55 31 42 33 23 45 47 36 56 30 35 62 31 44 40 46 47 33 36 37 45 48 32 33 45 54 38 29 57 34 37 44 44 38 30 51 34 58 45 39 55 39 41 44 51 47 36 23 41 33 38 37 38 45 38 30 19 23 35 60 45 44 35 46 39 27 40 51 36 44 54 20 33 54 43 16 37 44 41 38 26 26 46 32 37 34 20 63 40 41 34 62 37 51 44 31 46 20 29 68 47 51 29 50 42 33 41 51 30 41 44 26 26 44 53 43 37 51 40 37 41 33 45 30 51 36 52 43 38 43 47 54 51 55 34 44 24 59 22 53 47 36 30 29 42 54 29 45 37 56 44 59 37 40 37 44 34 35 64 45 40 43 37 25 36 27 26 32 30 47 60 45 30 51 35 53 48 43 48 45 54 32 43 27 32 16 33 41 42 43 30 22 51 41 34 37 39 20 31 46 30 44 31 46 35 45 36 36 42 39 39 57 41 55 26 33 37 47 47 23 51 23 37 52 59 44 30 24 48 41 43 60 29 51 37 31 53 45 36 29 48 59 42 53 45 71 37 60 34 38 34 68 43 20 45 36 37 49 38 50 19 24 34 41 26 36 29 26 44 39 49 39 37 45 50 52 41 46 38 40 58 37 42 55 43 65 32 54 26 33 58 44 23 46 30 43 16 40 46 41 35 45 27 40 63 37 40 33 34 37 23 48 38 50 38 54 46 29 37 38 35 46 48 46 48 37 47 27 51 37 35 51 45 39 57 47 22 37 40 32 54 36 30 43 33 35 40 44 19 37 27 33 34 24 41 40 55 23 30 46 29 31 31 41 35 40 27 39 30 34 41 51 36 45 16 54 41 40 36 31 44 10 31 27 37 25 42 22 26 40 25 26 47 29 37 44 37 36 23 49 54 28 55 45 51 48 43 46 31 35 42 29 25 40 43 53 56 46 44 37 46 34 49 56 37 50 45 34 22 41 59 39 37 54 63 37 48 47 32 37 35 54 52 46 40 38 59 30 37 32 30 45 31 33 18 25 25 38 54 53 17 35 33 34 35 38 43 25 48 24 21 59 19 63 47 16 46 34 27 44 33 41 46 40 53 41 47 61 26 33 51 20 63 41 47 33 41 37 51 47 59 40 27 36 26 34 39 29 40 33 27 40 40 38 31 49 43 37 39 31 23 19 54 36 37 50 54 30 38 39 22 48 34 30 36 56 47 63 26 36 43 28 51 34 42 40 27 33 51 50 39 43 57 36 50 33 46 30 40 37 23 38 48 26 24 38 34 35 29 67 22 37 43 24 43 23 50 44 55 30 31 37 44 43 27 33 43 55 29 32 46 46 36 49 52 62 57 27 48 23 50 42 39 42 52 27 49 43 37 26 55 49 38 25 34 54 28 37 30 40 43 13 47 60 26 31 41 42 47 52 44 51 24 44 43 36 36 30 23 37 33 40 61 39 42 40 43 22 35 37 25 33 40 52 41 33 30 48 51 55 48 29 35 23 37 30 40 48 48 32 41 47 46 33 30 28 42 46 23 29 35 51 47 53 46 53 43 47 28 41 35 30 30 39 51 38 52 42 40 29 42 42 32 47 36 54 32 39 48 38 49 39 35 64 33 29 33 34 44 43 44 55 41 60 41 47 44 59 33 41 55 40 26 35 48 46 37 60 27 41 37 19 41 61 51 51 74 33 44 32 46 60 37 37 33 41 49 51 44 40 41 27 40 33 49 26 27 44 50 40 49 23 51 62 54 43 46 38 33 21 26 49 44 31 50 34 35 47 20 40 42 41 44 32 30 40 49 36 48 39 72 63 41 50 34 53 30 50 26 33 40 38 39 53 28 41 42 34 30 48 51 39 59 32 30 44 39 44 41 47 50 41 41 32 51 52 38 49 22 33 36 41 32 38 34 37 37 34 44 36 45 52 46 61 44 30 55 45 36 48 32 34 31 31 36 62 28 54 54 27 58 32 26 25 37 32 46 51 26 47 37 39 38 51 67 32 39 65 34 32 37 41 57 41 48 43 36 54 41 37 63 23 66 30 20 39 33 9 43 43 33 25 26 31 38 43 36 45 37 36 29 48 39 48 56 46 50 36 43 50 47 37 36 33 52 30 39 37 39 37 43 35 31 39 43 58 39 42 53 47 46 30 47 33 48 37 42 29 42 44 36 47 32 54 48 46 47 39 23 27 39 36 36 40 31 36 33 65 39 40 47 47 19 34 49 48 54 66 27 57 43 25 58 46 22 38 37 30 37 49 19 40 43 40 29 50 35 20 34 27 47 37 33 26 27 46 27 48 25 22 41 53 51 54 46 37 44 35 40 61 34 37 12 57 45 36 38 20 29 52 34 29 57 31 31 24 47 49 50 45 38 56 47 36 37 30 36 36 48 33 48 42 26 29 50 65 22 42 40 41 48 44 37 36 47 58 19 48 42 35 35 31 37 40 36 16 38 51 57 50 48 43 35 56 29 45 46 42 29 43 48 41 59 35 55 45 50 50 30 37 30 31 36 41 37 43 33 49 34 57 37 49 25 29 35 37 63 33 37 27 38 19 44 51 33 48 36 47 54 38 44 21 40 54 57 30 36 26 37 28 27 50 54 49 48 52 38 39 42 33 29 48 43 37 40 30 54 40 46 43 60 43 33 52 33 39 41 23 40 30 49 41 44 44 30 61 32 32 45 48 37 23 54 27 27 44 40 41 54 34 30 41 46 57 44 31 51 41 48 30 23 42 54 50 51 50 44 29 35 43 20 48 36 19 38 43 29 38 23 37 48 40 51 47 35 48 58 44 22 54 43 44 35 27 31 37 47 51 30 43 48 23 48 43 48 38 35 48 24 26 33 50 41 51 48 33 44 32 51 29 38 45 47 32 44 44 58 30 40 34 34 30 48 40 44 58 30 48 46 48 48 23 50 31 43 44 30 19 38 51 37 41 47 30 46 33 40 70 35 34 27 36 37 23 39 26 35 29 36 19 29 44 37 51 57 45 28 28 41 26 40 39 41 51 21 23 37 45 58 49 46 10 59 39 55 50 43 40 34 52 56 44 36 54 62 42 40 41 25 22 46 27 41 60 29 33 48 49 44 45 49 47 37 38 33 33 16 29 30 44 30 45 29 42 36 50 51 21 33 51 43 30 37 37 52 30 16 43 24 64 50 23 25 37 61 51 39 41 35 35 54 46 51 30 37 34 32 36 20 44 46 38 43 44 44 36 43 37 43 47 30 24 43 40 26 64 42 40 28 45 46 51 43 38 23 37 37 23 37 29 47 22 61 20 38 27 28 43 24 22 54 34 26 33 47 40 25 35 55 37 38 26 39 35 56 13 39 41 45 33 33 38 37 55 37 34 44 36 29 39 26 34 23 32 59 57 36 39 37 36 37 53 63 42 43 54 43 27 46 50 27 46 43 34 30 30 40 34 55 32 66 19 30 15 42 33 40 27 51 50 25 55 38 37 42 50 52 56 50 39 45 29 51 60 45 27 35 31 27 38 51 34 46 31 35 27</t>
+    <t>NIG(8.634076709067887, -0.26592628221897957, 0.4710268987222914, 33.893685207892204)</t>
+  </si>
+  <si>
+    <t>-12 -7 -6 -6 2 6 -6 -7 10 -5 -8 0 -14 5 13 9 -14 3 7 -44 6 -4 6 -6 -4 3 -4 -14 -24 -3 -24 3 -3 -2 -8 6 -14 -4 4 3 -1 5 -6 20 11 19 -4 -8 1 -7 10 1 -32 10 4 -8 -6 -4 12 -6 -7 -3 -6 -18 5 41 19 7 -9 3 -7 4 -6 -6 -7 4 1 9 3 3 -7 -10 6 -4 -18 3 2 9 7 2 -10 -3 13 -5 -20 3 -12 24 13 17 -15 -18 -6 -2 -3 16 -13 -1 -3 4 7 20 8 4 13 -1 7 -3 -2 6 -10 6 -5 -11 18 -8 25 -14 6 -3 -1 15 7 -6 -3 7 -3 -9 -4 -18 9 -5 8 -17 10 4 16 24 -3 -7 -3 -6 6 10 8 7 -4 4 -2 10 -9 12 -2 19 -3 -13 -6 -14 3 9 -20 9 10 15 3 -3 -11 10 3 -21 13 -9 2 -15 -8 3 -10 -10 14 -7 -3 6 -10 6 -7 -9 8 6 20 -14 -7 -16 7 7 -4 -10 3 -14 -1 -9 9 -8 -1 14 8 -3 3 15 2 8 -3 -4 3 -17 3 -8 -29 -7 4 14 3 8 13 3 7 -3 -23 9 14 10 7 -6 -7 -19 -19 -16 17 -8 7 9 -5 2 -4 3 -2 7 -9 3 -16 -7 -7 6 -14 -14 14 -3 -12 -5 7 11 7 -15 -3 -10 7 -4 -1 9 -10 -6 -4 -5 6 -6 -6 -7 -3 -6 3 -12 10 9 4 14 -15 12 -14 -3 2 -3 -7 -21 7 -7 13 10 19 5 -3 3 -1 7 -9 -4 -35 -4 -5 3 8 21 -3 15 7 -18 -21 -3 -21 -5 -4 -4 7 -6 -18 35 -13 -18 -3 3 4 5 -9 24 -6 -3 -4 -10 3 4 -11 4 3 4 3 12 -1 -11 -6 -3 -11 3 4 -14 -2 -1 -2 -18 -3 -7 17 -29 -4 3 21 17 -5 -2 7 6 10 -3 4 -34 30 -7 6 -8 20 -7 1 1 -7 -5 -25 -4 20 11 7 4 8 -8 -6 -24 -3 11 -13 7 -3 25 5 27 2 -5 14 -7 -7 -28 14 -13 -7 -15 -8 -5 6 -3 1 -14 8 -3 20 -6 -2 7 -13 4 -21 7 -17 -4 6 -8 -5 -18 -10 -8 13 8 -11 0 -17 4 -21 7 10 15 -2 -18 34 6 -33 0 17 3 10 21 3 14 19 -2 0 -7 -3 10 12 -3 -20 -4 5 -3 -2 -7 -8 0 -2 -13 -17 15 3 -3 -29 8 3 -6 13 1 10 -2 -2 8 18 -1 11 12 -8 13 -5 -5 -17 9 -7 11 3 8 3 6 11 4 -5 -4 -3 -8 -3 6 -4 10 13 15 6 -14 3 18 16 7 7 7 -17 -3 -5 -22 21 -3 4 -1 10 7 14 -23 -1 -16 -19 -11 -3 6 -8 3 -3 7 -24 -2 3 -11 -9 -11 -12 -10 -4 10 -6 13 -14 0 -6 1 -4 3 -6 -4 -13 -13 7 -12 7 3 6 11 6 3 2 5 -3 -1 -3 -10 -13 15 -3 3 -6 -2 -20 -13 11 -11 13 -5 -13 -2 3 -3 -6 7 18 -3 -18 -10 -3 16 -18 24 8 -10 3 10 -7 -3 -5 -2 5 29 -11 3 -8 18 -3 -17 -8 -3 -13 11 -6 -13 -3 -2 -11 3 -3 3 -7 -5 -10 19 -7 3 7 -5 -7 -17 9 6 -3 6 -24 -2 -14 23 -7 19 7 -5 9 -18 -12 -9 -2 -2 -3 -3 -8 9 5 26 7 18 16 -3 -10 -11 11 -11 7 -18 7 3 -13 4 3 0 12 8 35 -3 3 5 -3 5 -4 -17 -5 1 4 -7 -6 10 -16 14 -3 -5 -13 -10 -11 -4 -6 -1 2 6 -3 -2 6 -12 -7 3 -1 0 -6 3 7 7 -10 1 1 -6 3 -4 30 16 5 -6 23 -23 16 -3 -17 -15 -26 19 -10 -13 10 -11 3 23 7 -3 2 -20 19 8 2 17 -10 -1 -9 6 -12 -2 8 25 -3 -23 -6 -3 11 -3 -3 -6 1 -15 -11 -5 -5 6 6 -5 8 -27 -9 -5 3 -10 13 -8 5 -28 1 -1 7 -3 13 -14 -17 -8 7 5 -9 -7 -1 7 -10 -7 -13 5 1 3 -3 1 8 -6 8 -6 7 3 -31 12 -7 3 -33 17 -19 -2 -3 7 13 19 26 -1 3 -9 -13 -10 28 4 6 24 -11 -3 17 -4 -8 6 16 -18 21 -4 -8 -6 -7 -15 12 10 8 -18 -3 17 -1 -7 -3 4 6 -12 7 14 -11 -14 -1 3 -7 -13 13 -3 -15 -3 2 10 3 14 11 -17 -6 8 6 -8 8 -3 9 10 0 7 -11 -11 7 17 5 -3 -20 18 -3 -2 -7 4 13 -21 4 -3 17 -7 -3 -5 -20 9 9 -8 18 14 11 -3 1 -3 8 3 5 -16 9 3 3 -10 -2 6 21 -14 1 -3 13 -16 -1 13 23 -21 3 3 -14 7 3 -4 8 -3 20 4 7 11 11 -26 18 7 -6 28 3 1 -23 3 -4 11 23 -5 -3 -19 -4 -5 2 -12 -1 -6 -20 31 1 18 -6 -3 5 -3 -6 -6 -28 -2 -13 -21 -10 6 3 -11 -21 -7 -3 16 -7 -6 23 7 -21 18 -7 -6 -6 15 5 4 13 -20 4 -8 3 3 -19 -2 8 -4 -6 23 11 -5 -3 36 21 20 13 -1 -5 -9 0 -3 -4 7 -3 29 3 11 -5 4 -10 15 28 7 -4 -10 19 3 16 -6 5 24 -7 35 -5 -12 -10 6 -2 -23 1 17 -3 -4 4 -17 4 6 11 8 -21 1 -20 -31 4 -15 -7 6 2 18 -17 -3 7 2 -16 -13 3 21 3 7 -3 -14 -19 3 -3 -3 6 10 8 -6 -4 -10 -5 1 7 17 -14 -13 6 4 6 7 -9 -14 -7 -3 -3 1 20 3 -3 -19 -10 -3 12 -6 8 13 14 -19 -5 17 3 -4 -18 -23 -3 -3 -6 -7 4 -3 -13 4 1 15 -11 -9 -6 15 15 -11 -4 17 8 2 3 16 -5 9 7 3 30 -6 4 -28 11 1 -3 25 13 19 6 7 -1 -7 -7 -10 -7 14 7 -12 -18 17 -4 18 -3 -24 7 -16 -14 15 -11 3 -11 -18 3 7 -13 -4 15 9 -11 -3 -6 -3 3 2 3 -3 9 17 2 8 5 3 8 3 6 -1 -3 -39 -3 1 -5 3 -1 -3 -11 14 8 -4 -3 -4 -7 -9 3 6 -11 3 3 6 -3 7 6 16 -8 -20 8 18 4 6 12 -14 0 -12 -10 -7 3 -32 -23 18 11 -9 9 2 -8 -12 -3 -1 -15 2 6 2 3 -4 1 7 11 -8 -11 7 -12 11 -17 -7 -16 25 8 -17 -6 3 -11 7 -3 -13 6 3 -14 -3 -24 34 22 -9 15 4 -16 -2 -2 3 3 -23 -6 6 -21 -3 3 8 -10 -7 11 -12 -10 14 3 -12 7 6 10 15 11 6 10 6 8 -18 -4 -5 11 -10 -14 13 -14 -7 8 10 -12 8 10 3 -21 10 -10 -4 -11 4 7 14 -7 -23 -4 6 22 -13 -6 3 -5 8 -3 -4 3 10 -5 15 -3 12 1 9 19 0 3 -5 3 -10 19 2 -5 3 -7 -4 -9 -8 -11 -8 10 -24 -14 -11 6 15 10 -5 -15 17 6 -6 10 -3 1 10 -5 6 3 2 -27 -11 3 -3 9 -17 -3 -13 -7 -3 -6 11 18 13 -1 10 -3 8 31 25 21 21 -1 24 17 -10 14 -2 2 8 -19 -7 11 2 5 2 -17 -10 18 -7 -22 12 14 -26 10 -5 -17 -13 -20 12 -19 18 6 7 -5 -9 1 13 -10 -14 -4 -3 -12 -2 -15 -4 4 4 -8 14 11 -8 -19 -17 -4 -2 -4 1 14 17 -4 -4 11 3 18 -3 -23 1 -1 5 5 -1 20 13 -18 -2 5 3 -6 5 4 -6 -6 3 5 15 -11 -5 14 -3 8 6 -14 -2 3 1 2 -1 17 -2 -9 10 3 7 -10 -3 -6 3 -5 -3 27 -27 2 4 -12 -2 12 -7 -7 18 25 -20 11 1 -3 -14 3 -7 11 4 -11 10 12 -4 4 -13 0 -17 7 -3 -21 4 3 0 -25 6 -3 5 1 9 8 -7 3 -8 -3 -7 -13 6 3 -5 7 2 3 8 -4 -8 -11 20 -7 3 -17 -3 -3 7 16 10 -4 8 -7 -3 15 5 9 -3 -6 -3 1 5 -6 4 -21 -18 -18 15 -3 5 4 -3 3 19 -25 -6 -3 -3 6 -10 -7 3 -7 -3 -6 14 5 -26 -18 3 -3 -6 -7 -14 5 -10 7 -4 15 8 -3 6 2 10 -14 4 -24 15 -8 -3 -2 -5 -7 3 21 -3 5 10 14 -14 7 -24 -7 5 -4 3 7 9 -12 19 -10 -20 3 -14 -9 5 2 -10 -12 7 -17 -22 8 -25 -6 -29 -3 -7 -21 -4 7 -12 6 5 -6 -26 9 -21 -6 -3 7 6 6 5 3 7 -9 13 -11 9 9 5 24 28 -3 -1 -3 -22 9 3 -20 -17 -3 -3 -11 17 4 10 6 -3 -10 6 -10 -14 -3 2 24 -3 17 -9 13 -10 -3 8 3 5 2 -13 -4 6 7 -13 -7 11 -6 14 -4 18 4 -1 23 -3 -1 18 -9 -24 8 26 6 0 20 5 -28 11 13 7 -8 13 -1 -14 20 0 2 4 5 -2 -15 5 -30 -9 -10 10 -2 -17 9 -9 3 3 16 -10 -7 2 -10 -19 -13 -6 0 -4 16 4 2 26 9 -22 -8 -9 15 9 10 -5 -8 9 -3 -14 6 -4 -6 -3 -7 -15 10 7 3 -25 -23 -7 10 -5 -7 11 -23 21 10 -23 -10 -1 2 -2 -4 26 -2 -19 3 3 -17 -5 -25 3 -7 -12 -8 -11 7 7 -14 4 29 -6 16 -10 3 -7 2 -2 -5 6 -6 30 6 7 -10 -13 -3 -2 -16 3 -17 1 -31 8 3 23 -20 10 -7 -10 -6 14 -3 -3 14 7 2 19 1 3 -27 6 -1 -6 -12 -4 -3 3 -4 -7 4 -6 3 -12 -21 -6 3 -8 -6 15 3 -17 5 20 18 12 6 18 3 8 -13 2 -3 -13 -11 5 7 -7 -2 -7 -7 1 8 7 -19 5 3 14 18 4 -6 -2 -7 -13 -10 3 0 -1 8 -2 7 -6 13 3 3 -18 4 8 5 -18 15 -17 4 2 4 15 7 -23 19 -14 4 3 -3 12 3 5 9 14 10 -11 6 3 18 0 -6 -19 -6 -22 7 21 6 -15 -11 2 -21 -13 -20 -19 8 -1 11 12 -5 -8 6 3 -14 10 -3 -4 3 3 -6 4 -2 3 -3 -3 27 17 -9 11 14 -2 -3 -6 -5 -6 9 -4 -8 -3 7 17 -15 10 7 11 3 5 5 -15 8 14 4 8 -3 -7 -18 -2 -5 -10 13 -27 17 -3 6 -1 -3 2 19 11 6 3 -3 -6 9 -1 -14 7 8 17 -3 10 -19 17 -6 -9 4 5 -15 -20 -14 9 -17 -11 -17 11 2 -17 20 -6 3 -8 3 -4 -11 -7 7 -10 -16 -13 3 -9 9 7 1 3 3 5 1 3 7 26 5 5 -8 -20 -5 4 -6 4 4 19 17 19 3 -11 -10 -38 3 4 8 16 5 6 9 -7 12 -19 3 6 4 -16 -3 -3 -4 31 11 -7 14 -13 -7 9 32 29 3 -5 13 1 3 -21 -1 -7 7 -20 23 2 -4 29 3 -14 -14 15 11 10 13 -22 3 18 -16 -13 6 2 -20 -5 -6 5 -2 0 7 -6 31 11 8 -3 -6 -3 3 -8 5 19 -2 6 17 -10 -3 -1 -4 -6 -4 -6 -11 7 -24 -3 28 37 4 18 13 3 -3 10 -21 -6 -5 -25 10 3 -2 -2 -2 2 3 13 6 6 -7 12 -13 8 -17 17 -9 13 -9 -7 -4 3 18 15 10 -4 -7 12 -7 7 -6 3 7 3 -26 21 -8 -6 -21 15 -7 3 2 -13 6 -7 -3 0 2 23 6 -7 -3 -7 -9 7 4 -11 1 -4 14 -8 -3 11 -27 1 3 7 5 20 -12 4 3 3 7 -2 -17 14 1 7 6 -6 1 6 3 -3 3 -18 -2 7 -6 18 -8 -20 -13 1 5 -5 10 5 6 10 7 3 -4 3 -11 3 -2 -19 3 3 20 -12 -6 -5 3 -13 0 5 5 -17 21 -13 -5 -6 2 -3 -15 -2 1 -14 -8 3 -13 -1 10 -6 2 28 -1 5 6 -11 -7 10 -8 -13 -16 -9 -6 3 7 -7 3 -6 3 -8 -7 -13 -5 -9 19 4 -10 21 4 -7 19 -27 -6 -5 7 -11 -5 -3 -11 10 19 1 -4 -5 4 4 4 -11 3 3 4 -13 3 -4 7 10 3 3 -6 3 5 1 6 -27 3 12 -2 3 -24 -4 12 -6 20 21 6 21 8 -13 21 -11 13 -12 11 5 -1 3 -6 -17 -19 -4 -3 10 -1 0 -3 -1 -14 -8 4 4 -3 -14 -22 10 -7 6 9 -2 3 5 3 11 3 9 -9 10 -10 3 3 9 17 14 14 0 18 3 -6 -12 17 19 3 6 -35 -35 3 10 -9 -7 -10 12 7 9 5 -7 -5 7 -2 -8 -12 -7 -2 2 -3 -17 0 -3 8 4 7 -5 -27 21 -18 -3 -4 7 11 -11 -7 -4 4 3 7 3 -7 9 -14 -11 8 6 -1 -1 -4 -8 1 -1 -10 10 -3 -3 -7 -24 -4 18 -1 -12 -18 -3 -4 -3 4 1 -3 10 -7 -18 8 -21 -17 10 -27 -13 8 11 3 -6 -3 -5 -4 3 1 9 3 -6 -4 3 9 -7 -20 9 -10 -3 3 -19 -5 21 -14 -11 11 -17 -6 -3 -9 -11 -11 5 5 -6 4 10 -2 -11 -27 4 16 -6 16 6 2 -7 2 -14 -10 -9 11 -6 -16 4 1 1 -5 8 -7 -4 15 -6 -8 8 6 4 -6 14 2 -5 -5 1 5 11 14 -2 -8 31 17 -1 -7 -15 1 18 0 10 11 -10 -17 -5 2 -5 -14 -5 -6 15 -9 15 15 8 7 -13 -20 12 4 11 1 3 -14 11 -7 3 -25 -3 -3 3 4 1 6 -16 -20 -10 3 7 10 -8 3 -14 -4 -23 0 -2 18 -3 6 -18 -6 -8 -29 -2 -19 8 -3 15 -10 -5 -12 14 -18 14 -29 -11 11 6 -9 -14 -10 -3 6 17 9 1 -6 -7 -17 14 -11 12 -11 2 5 -14 21 15 -18 5 -1 10 3 13 2 10 10 3 -29 -6 6 -21 -4 -3 1 -4 -8 9 -25 -11 -20 -3 -3 10 -13 19 -2 -6 -20 -23 -3 -3 14 -7 17 7 14 -13 35 -15 -10 -19 -3 -17 -3 -8 19 3 -6 -14 7 3 17 18 -13 -14 14 -11 5 4 8 7 3 3 -4 3 3 13 -15 3 17 -7 6 8 10 -7 4 -16 23 -3 8 3 -6 -10 4 -3 6 7 -1 35 10 -4 -16 -9 -3 24 -3 -5 9 5 -18 -19 -7 2 -4 14 -3 7 -6 -3 1 -6 -10 -8 -18 -6 -3 3 5 -6 -7 -15 11 -11 -28 25 -20 -15 -1 -6 5 -4 -18 2 -4 -4 6 10 -8 14 6 -7 3 -17 -3 -40 21 -6 6 10 -3 -14 6 -3 0 14 10 11 3 -3 -6 10 -7 -7 -4 13 4 -14 14 21 -11 7 14 3 -5 4 7 5 -10 -4 10 -14 0 -5 21 3 15 -12 -8 3 5 3 -3 17 -5 3 30 4 -1 8 -11 -9 -19 12 -8 -6 -12 17 8 7 -5 -19 -8 -2 5 31 7 -5 24 3 7 -3 -5 -6 -18 -17 10 -4 -32 5 4 -3 10 17 19 24 -1 15 10 16 -18 6 -13 10 14 20 23 11 10 -6 14 5 3 -4 4 -8 -38 5 -8 -15 13 -3 -3 7 -7 -27 -3 -3 -16 -11 -16 3 4 7 -11 10 10 -6 -4 -26 7 -20 1 12 -12 -2 3 -9 -20 -11 17 7 5 -10 -17 -2 3 7 26 -14 10 4 18 -20 7 -1 3 8 8 1 -3 19 21 -8 -3 3 -11 18 21 -10 14 -6 20 -14 6 -3 -12 -9 14 -3 6 -7 -8 -7 12 10 -20 -6 -5 -4 -3 21 5 -27 -3 -10 -25 -5 11 7 -8 11 -18 -5 -2 -7 -5 11 3 -1 -15 -8 20 -5 6 -7 -6 4 7 20 5 7 8 -8 1 -13 -7 -14 -5 -7 5 14 15 3 -8 3 11 -14 16 -18 9 3 -6 -10 -6 4 -19 12 -4 -6 4 -14 6 2 -3 14 -7 -21 7 1 3 -5 24 -15 -6 1 -28 17 10 -11 -14 8 7 7 14 10 -21 13 4 -5 10 -12 11 -17 -6 11 -1 8 15 13 4 3 3 7 -4 -7 9 -8 6 3 -3 21 20 -19 -6 -16 -13 2 -20 -3 3 25 -13 3 10 -27 -18 10 -10 7 -3 -1 -5 27 6 32 -3 -5 5 -7 -23 -1 22 -6 20 -7 14 14 -3 17 -30 17 -16 -2 -14 -6 -24 12 3 27 -8 22 9 -5 -4 7 10 2 7 -4 -3 4 4 3 -4 11 -3 5 -3 -7 -7 10 9 6 -5 -3 -14 4 -14 7 -7 -9 13 -15 -6 4 -14 -14 8 -32 4 -12 6 -9 -7 -4 3 -17 -17 -15 1 -10 -6 -3 20 -7 -7 8 10 -11 24 -2 -4 7 -6 -3 -3 -4 -3 24 6 -3 -20 1 -3 6 3 -8 3 -1 -8 3 7 -7 -20 11 -2 -17 3 -20 -18 6 -3 -17 -22 -7 14 13 6 -4 -2 -6 4 -14 8 -7 -16 -3 -13 14 6 -3 -2 9 9 -3 6 12 -22 17 25 14 -2 -4 6 -10 7 -6 -2 -3 9 -2 -14 -4 12 -6 7 3 4 -22 -3 2 10 -4 -17 4 -8 13 -2 7 -3 2 4 -6 -10 -6 -5 13 10 -3 1 -5 -3 -11 -3 -6 6 7 20 3 10 -22 -21 -2 -13 10 -14 -20 -3 -7 -3 -4 -3 -13 6 -7 11 4 20 -4 32 -1 -10 -14 7 1 -3 5 6 3 -3 8 1 3 2 -6 -13 4 10 9 -3 11 18 5 -6 11 -3 -2 2 -4 -6 -10 -9 -4 -7 5 4 6 -9 -3 5 -18 -6 -3 -6 6 5 11 -5 -8 10 6 9 -7 9 -6 10 3 -1 7 -14 8 -7 -17 -3 10 -4 -4 -9 4 10 14 3 3 -17 -3 -3 -6 -12 -13 -20 -4 3 17 10 -4 31 -10 3 2 -16 21 7 22 3 6 26 11 -10 -6 8 20 -6 19 -6 -17 6 -1 3 1 -7 -11 4 -3 7 -15 -7 7 -13 -21 -4 5 -17 -1 -3 -10 -21 3 -20 -7 4 16 -29 -3 -15 3 1 -10 3 2 -21 11 7 -3 -5 -14 -5 -3 7 -7 -7 -3 -14 10 -13 -6 -18 13 -11 -20 8 26 3 10 15 -8 -3 -12 -3 -6 3 -3 -3 -7 -12 -8 1 -6 7 -5 -10 17 -18 -17 3 -9 -7 11 -6 6 -17 -12 -5 7 -3 -7 -1 -7 6 8 -6 8 -12 7 -8 10 9 6 -6 -1 -7 7 -19 3 8 0 0 -2 14 3 -6 5 -12 -9 -6 -2 8 -25 -11 6 -7 -3 2 6 10 14 22 -16 6 12 15 13 -4 3 3 23 -11 -27 16 -5 -6 -3 -17 -4 -6 3 -17 20 -2 -23 -15 3 -3 -12 -25 21 -4 13 -3 -25 8 -2 -4 -28 11 -1 -6 -10 18 16 10 8 -10 -4 3 31 -13 -6 4 3 -6 -31 12 -16 -23 8 2 -7 7 -14 10 6 5 27 -9 9 -4 5 16 13 8 -9 9 1 4 -21 -10 7 -8 -3 14 4 6 5 -7 -14 -5 -10 -1 20 -7 3 3 13 -3 -5 -5 7 -7 14 3 -7 7 -6 -3 -3 3 5 10 6 -14 -4 14 -5 3 5 -3 1 7 -14 -1 4 -18 -3 14 -7 6 3 10 -9 6 -23 -17 -13 3 11 14 5 6 -26 1 -7 5 -8 13 -8 -11 -3 2 3 3 -22 -4 17 20 -6 7 -8 11 -8 14 -3 8 -3 3 13 -3 -18 9 2 3 -1 7 11 -18 8 -13 14 -3 0 -7 -11 7 -8 -27 7 24 -12 -7 -17 20 -20 -15 5 -11 -1 -15 10 -7 -3 -7 -2 -20 6 24 10 -21 -8 -10 24 1 5 14 -5 -3 -8 20 6 4 16 -10 -2 -27 2 3 -4 13 -3 -19 -6 -3 3 11 -19 2 -3 7 8 -6 -3 -4 6 2 17 -10 -11 3 14 9 11 -3 1 -18 -8 7 -5 -15 15 -14 -6 2 -17 -10 -21 6 1 18 -7 23 -2 -15 -14 -18 3 23 -11 -1 3 -31 -5 3 -4 -3 6 7 11 2 26 -17 3 -11 15 -4 6 14 4 -15 -14 -4 8 -5 20 6 -3 -4 -3 -5 9 -29 3 -20 -11 7 17 -4 15 -2 8 11 -8 10 17 10 2 23 -7 5 3 8 7 3 5 2 -18 3 1 12 -6 10 7 -14 -3 -21 14 -16 -7 -10 -1 21 -28 -8 4 1 6 4 4 -19 8 6 -13 -4 14 -1 3 -3 -15 -1 -3 -11 16 12 -4 6 14 6 3 -1 -18 2 2 -14 9 -5 0 7 21 -1 -8 22 -12 -29 -14 -6 1 14 3 -16 1 -5 2 -10 -6 1 -4 -3 -7 -7 1 -20 23 12 -7 -6 5 -3 8 3 7 -2 4 -7 -4 33 -4 -15 17 31 -5 -12 -11 -14 -5 -12 6 -1 4 -7 -18 6 13 3 -18 17 10 0 -10 -8 -5 4 32 2 3 -2 -8 -5 -20 8 -20 -3 -4 6 5 3 -14 -6 4 -21 -3 -11 -1 -16 -5 -6 -6 21 -1 -3 -8 15 10 -10 -13 13 -3 -6 5 -18 -5 7 -3 7 6 18 -14 -8 9 3 11 -11 1 -7 15 30 10 -3 10 -1 -9 -20 -9 10 -3 -2 14 10 19 -32 3 -6 -6 1 -14 3 -14 1 4 5 -14 -11 14 7 -17 4 -2 3 14 -6 -6 14 -10 -15 -17 7 -5 -3 -12 10 7 -7 -16 -13 5 12 23 -3 -10 5 -6 -7 -21 13 -22 22 12 15 -3 -14 9 -3 32 22 7 -33 6 -3 3 28 -14 -5 -11 2 16 -3 -3 14 12 -9 17 -7 3 24 -9 -6 3 7 18 -3 -8 -15 -7 8 12 -3 -3 3 -3 16 -19 -12 13 8 -5 3 10 -7 4 -2 -5 -9 -2 -4 -3 7 -1 -3 18 -8 -20 20 18 -18 3 -4 -6 0 11 6 5 5 -1 -10 10 15 -23 -10 10 -14 10 -20 -3 -11 -15 -7 -8 31 -24 8 3 -3 -7 7 13 -4 -2 3 -14 17 -7 -5 -7 -17 -11 13 24 -27 -14 -18 -2 6 22 -28 2 3 13 15 -7 8 -28 -5 -3 14 6 7 -19 3 14 -4 1 12 2 -3 13 2 -11 -4 3 3 -1 -11 20 4 8 -19 -3 -7 -14 21 0 -1 6 -1 -5 4 17 30 -7 -3 -4 -1 -10 5 -31 6 -5 1 20 1 -10 1 3 -26 -4 27 -6 -11 1 5 4 -38 -6 28 3 -6 3 4 9 -7 5 -4 -8 9 -31 -6 10 14 3 3 28 9 9 -3 4 14 20 15 5 -8 3 17 19 -3 8 3 6 20 17 3 -6 7 5 9 -11 13 -7 12 10 -7 -11 -4 -6 -7 -6 -18 10 -35 10 4 3 -10 8 -6 19 26 19 17 3 -7 -13 3 6 -6 -2 4 8 5 -19 -17 -5 -7 2 4 -15 3 5 11 6 14 6 28 2 -6 2 10 -10 9 -1 -15 -15 -4 -21 13 14 -1 -21 -15 -4 -2 -17 -12 7 3 10 6 6 1 -3 -7 20 11 -12 -11 -24 -6 -11 3 -17 -1 -3 3 17 -14 4 -16 -3 -1 -19 14 8 -5 -6 3 -8 -3 3 3 2 -11 15 9 7 5 -21 2 10 -11 -10 -7 -17 -24 6 8 -3 -24 -7 5 10 -7 11 13 -5 -15 -3 -11 -19 -3 -22 -3 22 20 11 27 -14 -11 5 -7 -1 3 -15 14 -15 11 -3 -17 -14 -19 -6 -3 8 7 1 12 -2 11 -16 -18 4 4 -6 -13 -18 -21 7 -7 7 -5 -2 5 -7 -4 -17 21 -10 -3 28 -22 -3 22 18 -3 -18 3 -3 11 -5 -14 15 -4 -11 -16 -14 -3 -35 -18 -8 -7 6 -18 -7 -4 -10 -7 3 6 20 -14 -11 -4 8 -27 3 -12 -11 6 -8 7 4 -3 -17 5 12 8 -6 -14 14 3 10 7 11 -3 -6 -7 3 5 -3 6 -24 -6 -6 4 -6 3 -7 -7 1 -7 28 4 11 11 20 -15 -6 -16 3 -12 -32 -6 3 -10 4 -35 -6 12 20 -10 17 5 -5 5 13 -11 2 -17 3 32 -14 -11 -5 -14 20 18 7 2 -3 6 7 -1 -6 9 -2 30 7 -14 -6 5 1 -9 -12 -15 -7 -13 21 -4 2 5 -7 -6 6 3 11 -3 -6 19 -14 -10 -8 -17 -21 -10 10 1 -15 5 -22 21 -12 -16 -3 -25 13 -5 19 3 10 4 6 2 -6 3 -3 -17 -24 -13 -3 -9 14 11 2 7 -19 11 -6 8 9 11 -9 -25 -9 -20 -24 3 7 -3 -14 -4 12 8 5 3 20 -3 14 15 -24 -10 -3 7 4 -10 3 -11 8 10 -6 -10 5 -22 -31 16 -2 6 -5 3 7 12 1 -32 -10 9 -4 -5 11 2 3 -4 -13 3 25 13 2 4 1 3 1 -7 6 -3 -14 3 -14 -13 22 22 8 1 6 -28 -28 21 -3 2 4 2 -3 7 2 -5 15 5 3 3 8 5 3 13 -7 3 1 1 -1 12 -10 -3 -17 -1 2 6 -10 6 7 -22 9 -13 -14 10 -10 -3 -7 11 9 -4 -15 6 -6 2 -1 19 -14 4 -11 7 -4 -10 7 -6 -4 5 -6 -4 13 -6 11 -1 -3 -18 -7 13 -6 11 1 -13 -6 -21 6 4 -10 -14 6 -11 -4 6 -20 7 -26 -3 16 -7 -2 -6 7 10 7 -15 -17 17 28 0 -14 -15 19 17 17 4 -3 6 -11 -5 15 0 9 -13 19 17 -3 7 12 -4 -17 2 7 -2 3 -3 -6 -3 -11 -6 -3 7 -3 3 2 -8 -10 9 8 -9 6 -24 16 -7 -17 3 13 3 8 -12 -30 -14 7 -6 13 -9 -31 7 12 10 9 -8 6 3 -2 4 -18 -6 -7 -10 -8 3 0 -4 7 6 7 -17 0 6 9 -13 -7 -17 -8 -17 3 -11 -3 9 -13 4 6 -3 -13 7 -3 9 3 3 3 -14 2 3 -6 19 17 -13 17 -8 -11 3 2 -8 17 12 -9 -15 7 -4 -6 5 -16 5 -4 5 -21 -17 12 -7 3 -7 13 10 27 -2 -19 -3 6 -3 -7 15 13 5 3 -8 -5 4 -7 -3 -2 11 7 -13 -22 -7 -9 19 3 3 7 8 6 -14 -8 3 14 3 -30 5 -10 -7 13 1 -3 4 0 -3 -23 6 9 7 -6 -7 16 -3 -10 6 -25 2 11 6 -10 -3 6 -6 7 0 5 -6 -9 3 10 -8 4 -8 -3 -24 -11 11 5 7 15 5 -6 17 -27 -25 10 26 -8 -10 -7 -3 -6 22 -14 -16 6 -13 -5 -15 7 3 -5 13 12 -4 -10 -3 24 4 8 -5 -3 -4 13 1 20 10 -4 15 -3 -21 -25 3 -3 -20 -2 -14 -1 14 -3 4 2 -3 42 31 14 -3 20 11 21 10 5 1 14 6 -19 14 -14 -4 9 3 -3 -14 -6 24 -18 -3 15 -13 -1 3 -7 -21 -6 -5 -2 8 -13 7 3 -7 5 1 11 8 14 11 -7 23 14 30 -13 12 -10 -4 20 -8 3 8 34 27 7 6 3 -7 -3 -3 -10 -3 4 -28 -12 1 -14 8 6 7 -17 5 -8 11 -14 -3 8 -4 -17 8 -6 24 3 6 -6 8 -7 11 11 -14 -17 -9 3 11 17 14 -3 -3 11 14 4 12 -18 -6 -12 11 -14 9 -3 19 -3 -2 -14 -5 -5 -16 14 13 -16 3 -10 -21 -27 8 2 -19 3 -1 -17 18 4 11 12 -13 2 -6 4 -24 7 -3 13 -11 9 22 -26 9 7 17 -26 -1 13 10 -3 -41 -15 -3 14 17 5 -6 4 16 14 3 -13 -4 -18 9 7 7 -4 23 -3 12 -23 15 -3 -21 3 14 14 -4 -5 9 -15 4 18 -5 -7 24 -3 -8 3 -2 -6 -18 -3 11 14 -11 17 7 1 -26 -3 -11 -2 -7 -9 1 -14 -4 -10 13 -4 5 -11 -4 -3 3 6 -5 26 -2 15 0 -13 4 -25 -7 -2 -7 18 -3 3 -11 -15 -1 3 -12 -14 3 3 -3 -1 9 4 -3 -5 -4 24 -18 24 13 10 -8 -7 -19 6 -3 -19 -7 -3 -8 -8 -5 10 -31 7 7 30 -10 4 3 -21 5 7 27 14 -4 2 -13 17 18 15 -16 -10 -15 15 12 6 -1 -3 7 14 -29 -24 -14 -3 17 -17 -15 3 5 -1 -2 18 -3 -11 15 14 13 -3 4 -9 -8 -5 3 -1 -15 -2 9 -5 10 4 29 9 8 -12 -15 -17 -5 4 10 -7 6 -6 13 -7 -22 -3 -3 -22 10 -14 17 -11 13 12 37 -27 10 14 11 -3 3 6 -24 -5 -1 -2 11 -9 9 -3 -9 -21 6 14 -6 -6 -4 -16 -13 -7 4 3 -9 -3 -6 6 -3 -7 -17 3 -6 -7 -1 -11 -3 7 -18 -3 -2 -27 8 -20 -11 -5 8 4 -1 14 8 13 -6 2 6 6 -7 4 -3 -21 -8 -25 -3 -2 -6 10 -13 -11 21 9 17 3 -11 3 -5 -6 -29 10 21 -1 -2 -3 1 7 2 -6 -12 -3 -3 5 20 -11 11 -12 16 -3 -12 7 -1 -5 1 7 14 6 23 -14 0 -24 -29 -7 14 6 10 5 13 -3 9 -1 -3 27 -3 16 -2 -22 7 -24 -24 0 8 -7 -12 10 -3 -6 -6 -12 -6 3 6 7 3 18 -18 -6 -10 -5 9 3 26 3 0 -3 7 -13 -9 -5 30 9 48 7 10 -4 19 4 2 14 -18 -3 -3 5 24 -4 -4 13 16 3 -1 -6 -9 4 10 13 11 -6 -26 3 -14 -3 -3 -9 -3 6 -15 3 6 6 3 -1 -6 -29 3 -6 -10 -3 5 -10 7 6 -6 3 9 -9 3 -14 -23 -7 -8 3 -23 11 -14 6 -18 1 -6 -3 6 -3 -14 6 -9 3 0 -1 -5 -4 -3 -14 11 -6 18 -3 -15 -15 -5 -11 8 10 -18 -16 3 -1 -28 -7 -10 6 8 -29 2 1 -8 23 -7 -2 -11 -20 9 5 -10 4 -2 6 -3 -9 16 5 4 -3 -6 18 -5 -11 20 4 7 -10 -5 -1 -4 1 49 -24 14 22 -4 -6 11 -18 -15 3 7 3 -14 4 -3 3 -11 2 -18 -21 7 -4 7 -13 -8 9 -3 -3 -7 5 -14 -11 -2 -2 3 4 -6 3 -5 -7 1 -7 3 6 18 21 22 7 2 -12 -6 23 -11 2 -6 -8 3 6 -8 -16 3 3 4 -5 -3 3 6 8 19 -27 -1 -14 -3 -10 1 -19 4 -6 -7 4 -3 4 -10 7 1 -13 10 3 17 -30 22 -19 -18 14 -3 -12 -14 4 -3 11 -15 -8 4 -4 -42 -3 4 -7 6 4 5 6 3 3 7 -5 0 13 -9 5 18 12 14 -22 26 -7 -4 -3 -6 -7 5 1 9 -15 1 -4 -8 10 5 14 -4 28 -8 3 3 12 -3 3 -18 10 3 -14 16 -3 -30 2 7 6 28 -20 3 9 2 17 17 -8 -4 3 25 -15 14 -13 -4 20 -17 11 -3 6 3 11 6 -14 -14 -16 -3 2 6 6 -15 -3 -2 -6 4 2 15 3 7 3 -9 -15 -26 10 -6 11 3 -3 -4 -18 -13 2 -20 -21 7 -4 3 21 -1 -7 14 -8 -4 -22 3 -12 8 -10 -7 -13 -22 7 17 4 16 -2 -5 -15 3 -12 3 8 14 -5 -3 -7 10 7 8 6 8 3 -10 0 -10 -4 -13 -7 31 5 -17 -3 -27 3 5 -5 6 -3 10 13 8 -1 -3 10 24 -7 -2 -6 -6 4 6 2 -10 -11 -14 -20 25 -11 20 14 -5 -1 16 10 11 11 -11 -3 1 -3 -27 4 3 1 4 17 11 -9 16 7 5 -7 3 2 -11 35 -7 -2 -7 10 -3 4 -5 -6 -5 -8 -4 -21 -7 -9 -10 17 -9 -3 -19 -18 1 3 10 6 3 -17 3 -4 25 -7 -21 1 -10 -31 11 -11 -6 -2 -7 -4 -3 6 8 35 10 7 -17 3 -7 7 -3 3 -8 7 -6 -7 -3 -20 1 14 -3 -10 3 -4 -8 5 -6 -9 7 3 -1 27 12 14 3 6 6 8 3 -22 -15 14 -4 -4 -7 1 7 -6 -10 -5 11 -13 -15 -17 38 -4 8 -4 -22 -30 -7 8 -7 10 -9 -17 1 -7 7 2 11 11 -4 4 6 3 -5 -31 -8 -6 5 -3 -2 -14 -4 -14 -24 6 -4 10 10 -4 -12 6 3 -11 6 4 -11 -4 12 7 2 3 0 -8 -12 -3 -1 -7 -2 14 -1 7 7 3 -23 5 -11 -3 -2 -10 -4 -6 -4 1 -20 2 -10 -16 14 6 6 -9 -33 7 -5 -6 3 -9 17 13 0 17 0 10 8 -3 12 -7 7 -22 -1 -7 -10 3 7 -9 -9 20 -17 6 -6 14 3 9 32 -3 -5 -8 -5 27 10 10 -2 7 3 -5 -14 -7 13 -1 -3 -15 -6 -10 4 -3 21 10 -4 -4 -2 21 -21 -15 11 11 14 -11 -8 8 15 6 3 11 3 -3 -9 18 -1 -15 -7 4 14 -7 -6 15 -10 -5 -31 17 2 3 -32 8 -7 -3 1 -7 -9 -14 -9 -13 -14 -14 -6 6 -28 -8 -3 1 2 -10 -3 6 18 -14 -8 14 -30 -18 19 -6 12 7 -8 -12 -20 -6 -7 3 -2 -2 13 -17 -23 -6 -3 -9 21 -2 -10 6 -20 16 5 -7 -4 8 4 3 -2 -6 6 -7 -4 -4 -3 -7 12 2 2 3 3 -10 7 -17 -4 1 27 -1 3 -2 -20 10 -5 -14 5 -2 -3 -7 -12 3 10 -14 12 -6 3 -7 -6 23 3 -7 3 -9 -17 12 -3 6 -4 -8 16 -5 -11 10 -25 2 8 -3 -4 -7 6 9 -3 8 15 -10 6 13 3 -3 3 -3 -7 -32 -8 -6 -11 10 -2 -25 -7 17 -14 -14 -8 21 14 -4 -14 20 16 15 13 4 0 13 -2 -8 -14 -3 -4 -4 3 3 -3 -6 27 -3 -3 -2 3 -15 -10 -3 -3 -6 -9 2 10 20 8 10 -18 4 13 -3 1 -1 10 -6 -4 -4 -16 24 -5 -3 7 -28 10 2 -3 -4 -3 -3 0 9 -1 -11 17 13 17 3 7 7 -3 -15 -21 3 1 -4 -6 1 -13 -3 14 -11 -4 -18 -3 -4 -9 14 21 -3 -3 19 13 3 -13 -14 0 -18 -3 34 16 -3 3 -3 -14 -4 2 4 21 14 -2 6 13 17 18 3 3 -15 6 -8 3 -3 8 -6 5 10 -13 3 6 -9 -14 -4 3 -3 -22 8 -14 12 -11 3 7 -3 23 -15 -1 -8 -6 -17 -29 10 -3 8 22 -14 2 8 -8 -14 -9 5 15 10 -17 6 8 14 2 -7 17 -11 3 -8 3 -1 -8 -3 -1 14 -5 2 -6 4 21 -7 -15 -3 -6 15 -2 8 -28 25 -6 -5 14 1 -4 21 3 -25 -14 -7 14 5 1 -3 8 -11 3 17 -7 17 20 17 16 -3 -3 12 3 -15 -3 14 4 -11 -3 -5 4 -6 1 -7 -33 19 -10 3 -26 11 3 -8 -6 10 -6 -15 8 10 8 14 -16 -5 -10 23 -14 -18 -3 -23 -3 -3 -11 -3 13 7 -11 -24 -14 -11 -17 10 6 3 -5 5 6 -5 -2 15 -13 3 3 8 7 11 -10 -11 14 3 -6 -9 -4 5 -16 -19 3 -19 -2 6 5 1 7 4 -2 14 -15 22 5 3 18 -5 -14 -9 3 18 -3 3 6 3 -7 17 -3 -10 -6 3 10 24 7 7 -1 6 -7 -3 0 -6 11 10 7 4 9 20 0 5 7 -20 7 -17 4 -3 -12 -2 -3 -22 2 -7 -24 -11 4 -4 1 -2 12 -19 6 4 -14 -9 3 -3 2 -3 7 -22 5 26 3 -9 11 3 3 16 7 -11 -6 8 13 -3 20 -3 -19 -17 -10 -25 3 21 6 3 5 1 -3 1 -8 13 -19 -9 9 4 2 -3 -21 4 1 10 23 23 8 7 -3 -1 -5 -8 6 3 -16 3 -3 -18 8 -7 3 23 -6 9 18 -38 -11 13 -29 8 7 -3 -22 -16 -20 7 -21 -3 -10 -3 -3 -24 1 14 -26 5 -3 23 -6 13 -1 7 -1 -6 3 13 -4 -2 -8 3 8 12 -7 -11 3 6 -3 10 12 -24 8 -3 3 3 -1 3 -3 -3 -9 -6 3 -6 -2 6 3 10 9 -7 -16 6 -15 3 6 -12 -4 10 -24 3 1 13 14 -21 11 3 -16 -10 -14 -20 14 -3 11 -10 -14 -12 16 -17 -1 7 -1 -3 -3 15 7 -7 14 26 10 10 -3 -27 -14 12 -3 3 -6 -12 -7 -16 -14 -5 7 9 -6 0 3 17 -9 -4 -4 -3 6 7 1 11 11 0 -5 7 -30 -7 -3 -14 -5 -5 12 -10 -12 -20 -3 6 -1 -22 -5 -4 6 3 14 -6 24 -4 4 -2 4 7 -10 5 2 7 6 3 12 0 -13 -3 -24 -21 -7 -27 3 -6 -3 -6 -6 -1 4 -17 11 -10 -6 19 14 8 -13 3 -6 -17 10 14 -5 12 3 5 4 11 -8 10 4 -3 7 -3 7 7 -4 1 3 -15 -30 -4 3 -3 -3 3 5 6 -10 0 -3 14 7 -2 3 21 6 -14 3 24 -15 -3 31 8 -12 3 17 -21 3 7 -2 14 -10 5 14 18 10 -6 3 12 -20 -7 -16 14 1 -4 -3 5 25 -19 17 24 -4 -5 -6 -21 3 -6 -5 -4 4 5 14 3 14 3 -17 -10 31 -3 -20 8 -19 15 13 24 -2 3 17 -11 -29 5 -2 -7 11 7 9 12 -7 -2 14 -14 21 -21 4 -10 3 14 18 8 -14 -3 -20 -17 -6 -4 -1 16 -15 -21 -1 -7 -12 10 20 -6 7 -11 -19 10 3 3 1 2 9 5 12 2 1 -11 2 5 17 5 -10 3 21 3 -18 -10 -4 15 4 0 -5 8 -3 -9 6 -4 -6 -5 -8 -11 -10 -23 -27 -20 14 3 7 -7 11 -3 -6 -6 6 -6 -17 -2 -18 -4 -2 -6 -12 -11 -9 25 8 26 -3 -6 -22 -18 -4 -2 -13 -11 -31 -14 20 -7 -22 -17 -10 -30 -11 -8 -7 -11 5 -6 13 -20 -1 -3 -8 -9 -3 1 3 -6 -7 -22 -11 -6 -2 5 17 7 3 -1 -16 7 -3 -7 5 -6 7 2 -4 7 -8 -3 -2 -10 24 -21 4 16 10 6 8 5 3 -6 3 2 21 6 -16 -32 -14 -5 -14 -5 -3 7 12 -3 3 9 -9 -7 -29 -14 -3 14 -9 -3 -11 -6 -17 3 -1 14 3 -3 3 -7 -16 -32 4 3 -5 -17 -7 7 -11 9 13 -7 -5 5 -3 -11 16 16 -7 10 -14 1 3 -8 -6 3 5 -13 10 -25 -6 3 -8 5 3 14 -2 -3 3 5 -33 14 -6 -14 14 -13 -17 -8 2 -3 7 17 10 19 -2 -6 16 -10 -10 2 -31 3 14 -6 6 -12 23 -3 -10 24 -11 -14 -9 -10 3 6 -3 -3 -7 7 -7 -27 2 -7 -6 23 8 -3 -9 -21 -9 -17 6 -5 5 5 16 -22 -6 24 -17 22 -3 9 -4 -7 -8 5 -3 -18 7 -5 4 -1 -13 5 3 3 9 3 -1 6 17 4 6 8 10 5 8 -3 -2 11 -6 -7 6 -6 5 6 5 -4 -2 -3 7 -13 -7 -8 -9 -6 10 -8 3 2 -40 -14 27 -14 -5 7 7 6 -3 3 6 -26 18 11 -6 7 -3 3 -21 5 -2 -14 -3 3 -3 -11 7 24 -3 4 -12 -3 4 -11 -6 -6 -12 5 11 4 -10 3 6 9 13 -3 -4 17 -3 -35 -10 -3 4 -4 5 -9 17 -8 -7 4 -17 7 -10 20 -3 3 -1 8 -9 -3 16 -16 16 2 6 -6 -2 10 3 -3 -6 -3 -18 -8 -6 -4 -11 -6 13 -8 3 -3 3 -9 -19 -7 -16 -11 13 11 -13 19 -6 -7 -16 10 -3 -5 14 -6 -27 13 -13 3 5 -9 -3 -5 3 6 -7 -12 -20 -2 -9 3 -14 -1 -3 -6 7 -7 -4 -7 -35 -19 -14 -4 5 -30 7 -3 3 -3 10 -8 -3 5 -8 4 -6 -9 -8 -5 4 -10 7 9 5 -5 -13 -7 18 -11 7 -7 -16 10 1 20 -17 6 5 -18 -22 -4 -11 -6 -12 7 -4 -7 -11 -6 9 -15 5 3 8 3 -8 3 -3 -6 -6 -17 18 -8 4 -7 -2 3 12 -10 9 10 3 -2 -6 2 -10 11 14 7 -42 4 7 3 -10 -13 -14 -2 -6 3 -11 -7 10 4 7 -4 -2 -9 28 1 2 1 -6 -16 -17 20 4 10 -9 14 -30 7 -11 1 7 14 13 5 -4 -5 11 -7 -5 10 -4 -3 -9 -3 -7 -13 21 14 4 -5 -13 -4 -3 -9 -7 -5 -10 -3 -7 -1 -4 7 -6 3 -6 4 2 -19 -6 8 7 -3 -13 -18 16 -7 11 -3 -4 20 -20 11 3 -12 14 -17 -31 2 1 5 3 6 -3 -19 8 3 11 14 -4 -23 14 21 7 23 -6 7 -18 -14 -10 5 7 17 -6 -13 8 21 2 6 -15 -1 -3 -4 -3 -17 -3 -7 -2 -6 -8 -6 -3 17 3 7 1 -10 4 6 -12 3 -6 14 -6 -3 -18 -3 11 -10 -1 -10 -18 -10 -4 9 21 -10 -3 -1 2 -18 -18 -6 14 3 6 3 -13 -24 7 15 7 3 -9 22 11 3 4 -7 8 5 3 7 5 -3 -25 7 -27 10 8 6 6 -1 20 10 -2 10 -10 -10 -4 -3 -6 13 -3 -17 7 19 5 17 -7 16 -3 13 21 -5 6 -6 -6 7 -17 -18 -9 -19 4 4 5 -2 -8 7 -8 -14 1 -3 -21 6 34 7 3 -13 2 4 -2 -3 -8 26 -8 -19 -13 3 3 -3 -6 -19 9 6 14 -10 -2 -19 3 9 -7 3 -12 22 -11 -4 -4 -8 -28 -14 -14 -4 1 7 -7 -7 1 12 4 -14 -3 5 5 -5 14 -6 -11 -12 6 21 -7 10 -6 -1 2 -9 -11 2 24 9 3 6 4 -20 -14 3 6 6 -5 17 -6 -16 -3 18 -2 10 11 16 21 7 6 6 -9 3 22 4 7 10 -3 -8 -3 -18 -7 8 -12 -12 -10 -3 -18 -1 -25 -8 7 -6 -8 -8 4 19 16 10 -8 9 -19 10 -13 10 2 -16 1 -7 3 -7 11 14 -8 29 -5 -4 6 -3 8 3 10 -3 -13 -4 4 6 2 -3 -4 18 3 -8 7 -5 -6 -8 7 -5 -1 3 22 -7 -1 -6 -6 9 -36 3 14 -6 -3 20 12 3 4 35 24 3 -7 -21 -17 -3 3 -20 19 5 -3 14 -5 3 -3 -18 -10 2 7 2 0 -14 2 6 2 4 -7 19 6 3 -18 -11 -40 -6 -11 -14 21 25 -3 14 7 -5 7 -5 -25 20 20 9 -13 -21 4 -14 2 21 -12 -3 -26 4 5 8 -13 6 -18 2 7 -3 3 -3 18 -7 -5 -8 8 7 14 19 -16 -4 -3 0 0 4 13 18 -14 2 9 10 -3 8 -7 -10 10 1 -2 7 12 7 -4 -6 21 4 6 -38 -10 -3 -15 14 22 -20 4 -7 6 3 -13 3 1 -1 -9 -6 5 4 -7 7 -12 32 -7 -12 -23 -1 -14 -3 14 3 -7 17 13 -6 -14 -3 -6 8 -27 4 -5 -28 -3 24 -4 -7 8 -8 -1 12 -22 3 -12 8 -3 10 -10 16 10 -13 7 2 -21 -3 6 -7 -13 -4 3 19 -7 3 10 6 -4 -10 -6 6 -12 -5 10 14 5 -14 -20 -3 0 34 7 -7 21 -31 31 -5 3 -4 8 -6 -7 4 -11 -8 9 -4 -11 -16 -36 9 3 -5 3 -5 7 8 13 14 -6 8 -2 -18 3 -4 -4 -6 -2 -4 -9 18 3 -3 6 -5 -8 3 12 -44 16 7 3 -2 2 -18 -4 -2 8 1 3 2 13 -7 10 -2 -1 1 -5 3 30 10 3 -12 3 13 -14 -3 -11 -2 7 -22 1 -3 2 -16 -15 10 13 1 7 10 -4 -15 4 -3 13 -5 10 4 -2 -28 5 8 -14 -3 3 7 20 -2 14 3 -16 -10 -19 -7 -3 1 -3 -22 -3 7 -21 -2 17 6 -7 19 3 10 -6 6 7 -7 -5 -9 8 4 -3 29 -20 -13 6 -14 -6 -14 16 17 14 -1 0 14 2 3 9 -17 -3 13 -3 -3 3 -11 4 -2 6 2 -17 3 -8 -15 2 -8 -4 -6 -19 -11 -16 -7 -5 -11 12 -4 3 -14 13 -3 -30 2 -10 4 -11 -8 8 -6 14 -8 4 6 -10 -2 -6 4 -9 3 -13 3 6 -14 -8 -14 -6 -14 -3 7 -3 -2 -14 10 -10 -5 14 3 17 -3 -2 21 -3 -13 -31 11 -16 -1 3 6 -13 22 -6 -17 -3 -19 -10 -14 7 24 -3 -7 -8 3 6 -16 -35 -19 -4 -3 -7 -14 -15 9 14 -15 -3 2 4 -3 14 -9 -3 -14 -19 11 11 1 5 -2 -14 -11 21 3 10 -3 -2 -10 -13 -10 -11 4 6 -8 -28 4 5 6 3 1 7 -5 3 11 16 24 2 1 7 -15 27 -9 1 -3 7 -6 -5 11 -4 3 0 1 -18 3 -3 7 -12 -9 6 -20 8 4 5 17 -10 -3 6 0 11 -17 -17 7 2 6 -5 7 8 7 -6 -10 -6 30 -14 -3 -3 -3 -2 6 4 -5 3 3 15 -3 -21 17 -7 35 16 14 5 7 11 20 11 4 -18 5 -23 3 6 6 23 3 -3 -24 -5 -5 -12 -4 6 -27 0 17 3 9 -7 4 2 -36 -13 -7 -3 10 10 -8 -6 21 1 -6 -2 10 -9 -14 21 3 6 7 -3 -3 -5 21 -9 7 15 -4 -1 -17 -10 8 11 -16 -3 3 7 -4 11 17 4 -1 6 -4 3 -35 -26 -6 3 25 17 -7 -10 3 8 -3 -16 -3 8 -15 20 5 3 -4 -32 -10 0 8 14 -1 -14 -14 -10 13 -12 -11 -21 -6 18 -24 6 18 -8 -7 -34 -22 -14 -3 12 10 -3 7 -17 6 11 3 -10 -13 -2 10 -14 11 3 -11 7 6 4 24 -2 -6 20 -7 -6 7 -19 8 -13 -11 20 -4 11 -7 -7 -5 10 16 -4 -13 3 5 -3 -9 3 -6 -11 -7 14 -3 -6 1 1 -15 3 -3 12 3 -2 14 -3 3 -6 -7 -16 6 -5 -3 13 -5 -22 5 -3 2 6 0 7 -15 27 -7 -4 -2 14 4 11 10 -16 3 -18 -7 15 -3 8 3 -9 -3 10 7 4 12 4 -4 5 -15 2 8 18 -7 -10 -3 5 15 7 22 -4 -14 -14 5 -3 -1 10 17 -6 17 -14 -7 4 -1 -9 9 3 10 -18 7 -12 -14 -3 -22 -17 3 -7 13 3 3 1 -20 -24 3 -6 -5 3 -14 -1 -6 18 6 7 -12 -17 10 -17 6 15 14 3 8 -8 6 -20 -3 -9 -17 17 -4 22 -16 18 -24 10 10 2 -7 1 2 -5 -4 -14 -9 -11 -6 16 18 -4 19 -28 7 3 6 -13 10 -19 26 14 -3 6 -17 -35 2 7 -13 3 -1 3 3 -8 -33 4 21 7 -11 4 -13 7 11 5 -8 5 1 -13 11 9 -11 -3 -3 7 3 3 2 -10 -19 13 6 8 -18 14 6 3 7 -6 -3 -10 3 3 7 -9 -3 -11 -15 -11 3 18 -14 6 -3 -31 -1 -5 7 5 -5 3 -15 10 -6 -7 -14 -4 25 19 -2 -14 -7 8 3 -31 3 -40 7 6 -3 -9 -3 2 -12 3 5 3 4 -1 29 -5 -8 18 -6 -2 17 -16 11 -34 -3 1 -8 -7 -8 6 20 2 -17 -11 -3 7 11 11 12 4 7 3 -17 -6 10 -10 4 11 3 -4 -3 10 -4 10 -7 13 -25 23 21 -15 -7 -11 -6 6 25 -21 -7 -22 -9 5 -31 -2 -3 -16 -11 -5 1 3 -2 -18 -20 -3 14 8 -7 -17 3 14 -7 7 7 19 20 -17 -6 17 -20 4 2 -22 5 26 -10 6 19 -4 6 -5 -28 -13 17 -10 -2 -18 -27 -8 3 -7 10 21 4 -12 -10 -11 -5 10 -13 8 5 -10 10 27 -11 3 21 32 21 -6 -14 14 7 3 -12 7 -5 -5 -3 17 -11 -27 3 -8 -22 7 10 13 -3 -14 -3 13 -3 -15 -14 -14 3 6 19 3 2 22 6 -4 -14 5 -10 3 15 -6 -23 -20 5 7 39 10 -3 22 3 23 -8 -16 -14 -6 -3 1 3 -25 -4 3 -21 4 1 -3 -7 -11 -5 18 3 -3 -7 -3 3 6 -38 -13 2 19 21 -3 -7 -5 -8 -17 6 7 -3 6 22 -3 -5 13 -17 -3 -6 6 7 -10 3 -17 6 -25 0 8 -3 3 -13 7 -4 -10 -15 -21 3 18 6 6 17 -21 -9 -14 7 6 -3 4 -3 7 13 12 10 5 7 -3 -9 -3 -15 21 -5 5 -6 3 -20 3 3 10 4 -3 -1 -11 -4 -14 -11 -5 -7 -3 14 9 1 7 -8 -6 -13 21 -5 7 11 -3 -13 -10 15 13 15 -3 17 2 3 -6 17 2 20 10 -1 10 3 -23 -9 21 3 7 -3 -14 -2 -32 -13 9 -7 7 13 -15 5 3 -7 9 -18 -3 10 -8 3 -3 -13 13 12 4 -3 14 6 1 -11 -10 -25 28 -18 -15 10 4 -1 7 -6 7 -20 28 0 10 -24 14 -16 -18 -7 -5 -6 -1 -4 -13 4 -11 6 2 13 5 -26 3 -11 -8 -3 -30 -5 7 -6 -10 2 3 8 -12 3 9 -1 -11 -3 -9 3 -14 -31 14 -2 17 7 8 4 -7 7 -11 -4 0 6 3 1 -3 -1 3 -23 -10 -3 -10 6 -8 -11 -2 30 -3 -2 -2 -3 -12 -5 -3 7 -9 6 -3 -2 16 3 -7 3 3 21 -6 3 -7 -3 17 -14 7 -13 11 23 13 -7 8 -10 -2 -8 -2 -12 7 -16 17 -3 17 2 -9 3 27 -2 11 7 5 17 -12 -2 -6 -13 6 3 6 22 -1 8 -6 1 -3 6 -22 -10 -9 -3 5 3 6 2 6 10 14 -3 -8 -8 5 19 8 4 -3 9 3 -3 -11 -1 8 -7 -10 -4 -9 8 -14 -6 6 -15 2 13 2 3 -25 8 -1 -12 -3 6 11 -4 -4 16 28 17 -4 1 12 3 13 5 -5 -3 25 -21 6 -24 10 32 -17 -14 -17 4 1 21 1 -15 -18 -7 17 12 -5 10 7 26 3 15 -5 3 4 -3 -3 -17 -6 -9 -5 3 -5 4 -3 -6 -14 -8 3 -11 3 -3 -4 0 -4 6 -3 -7 -8 -11 13 6 -7 -12 17 4 4 13 3 11 -11 -10 -7 17 -16 -8 22 -13 -2 7 2 9 -11 7 -3 -11 -4 -8 -10 3 -21 -10 18 -17 -2 -8 9 11 -6 1</t>
+  </si>
+  <si>
+    <t>EXN(0.3631903648153104, 36.34406270699964, 9.528672651372313)</t>
+  </si>
+  <si>
+    <t>40 33 46 42 44 42 48 33 24 29 40 28 48 29 33 23 26 23 63 44 30 50 24 20 36 51 16 40 50 51 24 49 65 36 40 40 40 38 30 37 47 57 40 20 31 63 36 32 41 41 42 27 50 44 22 48 32 38 50 38 45 45 40 24 39 41 57 25 29 31 33 42 40 38 41 22 25 43 29 57 19 52 62 42 50 23 50 37 41 54 38 43 33 37 42 45 40 44 33 45 37 44 40 28 43 28 25 27 45 30 27 56 44 38 27 33 41 43 40 34 16 48 23 31 52 32 43 48 40 43 49 33 35 18 39 41 17 59 30 30 29 37 26 37 24 24 28 38 43 19 37 32 34 36 60 39 30 44 28 38 51 32 30 33 45 41 40 48 37 49 44 39 52 33 37 31 37 22 51 35 33 29 38 43 40 43 36 50 46 27 51 52 36 54 21 33 32 34 40 34 37 16 49 47 36 44 37 42 43 43 41 46 59 34 36 31 57 47 22 32 35 28 23 43 31 52 47 33 36 34 51 40 41 35 13 43 59 29 26 46 27 48 41 43 25 28 53 40 41 31 43 30 36 23 36 55 41 23 28 27 31 50 62 48 48 29 26 33 19 51 49 41 37 52 61 44 31 29 36 46 44 39 34 34 46 33 17 48 59 42 44 31 22 32 57 44 34 43 30 35 33 41 41 27 27 30 63 39 29 59 41 55 37 28 45 36 25 43 46 53 51 65 41 64 55 31 35 33 44 52 41 46 58 41 41 58 45 31 22 37 45 36 34 37 46 30 49 44 45 30 45 50 43 32 41 29 34 29 23 29 58 40 44 27 36 50 17 19 37 51 38 43 49 43 33 44 33 32 24 45 38 34 30 41 40 48 34 35 27 35 33 35 37 38 34 23 41 42 48 26 40 44 51 45 47 49 37 59 43 47 50 35 40 45 37 48 38 55 47 29 26 35 34 51 29 48 48 35 48 40 32 33 27 24 55 49 43 44 48 38 33 30 44 54 47 40 37 40 37 42 33 33 44 41 44 50 56 34 53 32 43 43 44 49 37 40 35 58 30 27 51 50 28 51 44 44 25 39 22 55 40 40 34 33 45 31 23 37 47 68 31 40 33 27 28 36 36 34 48 39 43 42 20 19 25 53 31 37 47 51 57 34 31 40 51 36 51 30 57 20 37 40 54 38 49 37 24 32 31 58 44 41 35 27 37 53 37 54 47 57 44 41 44 39 28 51 27 42 63 35 51 46 36 59 51 27 44 42 51 29 51 37 26 50 24 44 34 53 32 40 26 19 22 35 40 52 69 19 55 32 33 23 38 37 40 51 32 41 53 19 37 28 47 41 51 29 48 30 40 47 31 37 47 47 47 40 45 43 40 49 44 51 44 44 51 50 42 50 32 28 51 52 49 29 43 46 29 47 35 43 46 38 57 31 46 43 47 31 34 27 51 48 49 45 37 37 27 57 60 63 55 57 53 33 33 43 25 46 35 26 50 30 26 37 47 51 47 47 47 48 48 35 38 44 37 37 46 37 29 58 41 50 46 53 36 63 31 45 39 44 27 37 19 38 29 38 40 34 53 43 37 31 43 39 30 23 33 47 38 49 34 38 46 26 37 55 19 38 23 44 40 27 44 34 43 44 42 32 55 45 31 34 48 43 31 49 36 27 47 60 29 44 66 46 49 42 39 57 38 45 45 33 46 47 22 47 44 45 49 61 35 57 44 40 25 20 44 29 30 47 35 32 52 50 54 37 35 45 38 37 29 23 43 54 33 49 49 43 57 40 24 33 20 41 37 43 37 36 25 54 37 62 27 47 49 29 45 34 51 26 13 35 37 39 47 41 30 13 39 33 41 37 31 31 32 32 40 40 41 43 51 52 47 37 51 57 39 36 65 33 33 51 32 33 37 43 47 44 48 38 26 24 41 51 45 42 34 46 42 36 41 36 48 26 35 47 36 36 48 50 37 37 27 63 37 22 40 40 47 48 37 62 25 45 55 49 41 39 45 43 46 30 35 26 51 35 40 40 54 54 50 35 29 52 32 33 37 31 25 57 43 29 40 44 45 50 49 42 27 47 38 53 57 27 37 41 40 39 23 64 44 48 51 29 41 35 40 43 25 44 37 59 29 52 54 42 27 40 49 33 25 38 47 33 39 27 29 43 20 33 17 30 40 37 26 38 33 35 37 46 44 55 48 48 51 47 29 37 58 41 37 29 35 65 30 37 42 52 33 34 48 51 31 50 26 53 43 23 40 54 58 48 47 55 30 32 43 77 41 41 51 22 33 32 51 19 61 42 27 40 52 55 47 42 41 26 36 60 37 37 49 22 40 68 36 29 23 35 37 50 33 48 41 33 33 55 20 29 24 55 57 53 57 21 51 30 30 53 54 33 44 24 33 65 36 34 25 44 41 47 49 50 24 48 44 43 53 61 37 42 44 31 30 56 29 40 63 47 40 51 30 47 43 36 46 38 37 37 49 16 40 27 27 31 37 41 45 20 51 31 43 57 40 30 34 40 24 50 43 39 19 23 26 47 28 36 28 27 45 48 33 37 37 27 48 29 43 41 30 23 32 32 26 41 26 33 29 23 45 50 44 57 43 29 34 39 44 43 47 50 33 59 43 29 40 41 39 51 56 37 40 44 31 58 39 41 27 43 44 34 24 54 37 33 37 31 19 57 62 41 41 35 37 44 41 32 45 26 52 23 44 48 37 50 27 38 46 55 29 59 29 44 23 49 27 30 27 51 35 51 52 37 51 50 37 45 39 31 30 36 39 43 46 31 54 43 51 45 45 33 23 45 33 45 29 40 40 30 45 22 33 43 51 48 31 43 35 32 57 27 46 30 40 40 38 58 36 48 24 46 26 36 16 41 29 44 43 44 43 43 37 30 52 30 43 37 35 32 20 30 43 44 39 35 37 40 37 41 32 23 33 35 28 37 26 37 46 37 37 21 43 33 40 37 40 43 30 40 46 35 39 60 50 50 40 45 23 37 18 40 39 57 29 40 30 37 31 56 22 54 59 32 33 54 36 47 29 24 50 38 40 66 34 43 39 58 34 33 20 27 34 58 26 40 30 31 61 30 30 38 65 36 25 42 47 39 44 46 50 25 18 27 43 40 43 44 45 44 51 39 45 42 25 43 55 68 37 33 31 44 33 16 29 43 47 38 37 36 37 38 38 44 44 23 26 35 30 53 43 51 40 32 36 23 35 30 29 60 37 30 33 43 37 45 51 37 43 27 47 37 48 37 36 55 27 50 43 46 43 57 27 67 33 52 45 64 54 40 44 38 33 49 23 44 37 26 37 38 24 41 58 48 34 48 36 23 31 27 48 42 25 44 40 55 39 49 39 69 44 40 38 49 36 56 37 44 30 30 32 34 45 34 43 43 32 40 30 47 54 29 22 30 23 37 52 45 37 33 53 19 39 45 40 61 50 40 29 43 48 25 38 34 64 43 37 33 43 43 34 51 38 40 20 52 37 27 62 27 65 44 51 36 43 47 50 37 26 37 23 59 33 53 32 44 50 36 26 27 33 38 43 34 23 59 43 28 67 33 29 52 37 24 26 38 44 27 40 37 69 43 39 30 45 12 31 20 45 25 31 53 40 35 37 66 15 41 41 54 45 33 49 30 29 32 50 40 49 40 33 43 53 31 45 33 28 28 44 40 41 37 39 33 41 51 38 57 39 37 54 36 53 44 54 47 51 35 38 43 37 47 49 48 43 51 34 44 25 43 33 29 40 34 35 58 44 49 43 42 33 40 37 38 25 16 31 46 57 36 38 30 48 50 36 69 54 51 36 53 47 37 35 27 29 38 40 28 47 42 33 33 30 47 47 37 42 25 26 20 51 48 49 43 36 30 40 21 23 36 26 51 46 43 49 69 33 50 33 40 48 41 40 44 45 55 26 17 47 34 48 57 29 27 49 27 37 37 37 35 30 48 37 45 25 22 23 39 32 31 15 37 29 43 36 36 34 45 30 52 44 48 43 36 56 15 43 39 25 16 59 42 43 37 50 49 32 30 21 49 45 29 42 40 36 30 30 47 51 37 21 30 35 44 32 32 34 40 50 37 40 31 33 19 52 39 41 34 20 58 30 38 47 42 29 65 58 29 38 44 42 37 23 37 29 63 36 38 47 58 16 37 39 60 34 36 34 22 42 48 39 40 54 39 35 39 38 33 54 37 35 34 34 48 24 37 27 53 44 41 43 51 29 41 46 51 47 37 37 41 44 53 44 45 32 42 38 64 40 39 41 17 29 35 45 31 41 40 40 29 27 33 40 22 43 12 52 36 41 19 30 22 51 46 34 30 34 41 50 47 45 36 44 51 31 33 43 46 59 51 34 66 51 38 38 34 59 43 40 39 36 49 41 29 47 48 41 48 42 44 37 45 38 41 36 26 39 32 27 40 27 38 40 27 29 37 49 48 30 54 40 44 23 46 47 44 29 41 37 37 25 33 40 41 33 19 50 25 55 51 43 32 52 30 54 52 27 33 44 43 26 61 58 52 33 26 27 43 49 44 36 32 39 38 33 43 38 44 60 51 53 49 47 52 36 31 35 56 29 25 37 40 50 37 46 31 38 32 48 41 24 40 41 35 32 53 41 44 41 33 26 43 32 49 43 36 29 34 40 51 56 52 43 30 31 41 42 44 36 37 37 59 39 29 37 45 48 30 45 54 37 40 43 30 34 43 33 35 49 52 41 23 37 41 47 41 32 40 38 52 35 41 44 38 53 36 33 39 31 57 48 47 31 52 43 35 52 51 35 40 23 39 34 27 40 29 29 36 37 23 54 45 44 43 55 34 56 53 37 45 43 43 28 43 42 46 37 38 37 24 37 41 47 28 30 25 37 49 37 27 39 31 37 29 35 37 41 40 35 31 54 46 47 58 40 30 30 61 37 37 51 29 16 44 37 24 30 36 35 46 37 33 30 47 37 48 30 44 31 39 22 51 27 27 42 47 55 39 38 55 73 41 25 35 51 41 53 13 55 46 37 36 30 41 37 26 48 33 37 58 55 40 29 50 22 47 20 50 56 43 46 33 58 54 27 54 31 37 48 23 38 37 43 40 29 39 36 34 51 30 37 33 58 34 52 40 51 39 44 51 34 43 44 36 41 45 51 30 39 26 37 37 38 31 42 54 32 44 65 41 40 46 27 40 41 20 43 31 29 41 45 49 30 37 36 41 42 38 33 44 35 47 64 51 19 23 50 33 50 12 27 33 55 57 36 41 32 55 37 40 32 43 20 33 45 47 43 41 30 37 41 30 54 40 37 45 41 33 43 33 39 34 40 36 51 43 35 44 37 46 41 41 50 40 25 20 29 37 31 30 22 33 50 58 36 54 33 33 47 39 38 47 34 52 47 45 44 51 37 51 34 49 43 37 32 36 30 39 37 47 46 43 43 49 27 29 47 38 26 39 47 44 55 20 26 51 33 59 22 40 22 54 33 33 32 43 49 22 34 59 58 43 46 59 19 47 43 42 23 38 47 55 39 39 37 36 28 45 30 47 19 39 42 35 41 37 43 43 49 52 43 41 16 29 44 38 44 37 43 43 42 49 37 30 27 24 35 45 38 57 37 41 26 47 37 62 34 49 44 36 40 32 20 53 54 49 38 33 27 29 55 34 43 43 39 59 48 31 39 30 43 46 55 76 37 27 56 14 24 36 27 46 62 36 25 62 43 36 43 43 33 49 21 47 33 42 30 71 37 23 23 26 32 38 42 51 42 38 51 55 51 40 41 55 51 38 29 41 30 36 19 51 35 33 57 27 44 34 64 39 44 44 43 43 46 35 40 38 41 39 53 41 30 23 44 41 43 35 47 30 16 29 27 43 41 39 48 43 26 30 37 25 30 34 49 41 42 30 45 29 47 42 36 50 33 40 44 37 44 43 16 49 23 50 47 44 40 45 17 30 69 47 38 27 17 40 43 37 52 45 25 37 43 34 30 29 39 33 40 29 38 59 43 47 43 33 34 27 51 51 42 45 37 43 39 43 19 46 44 50 50 45 49 24 40 34 30 56 46 33 16 40 52 43 37 32 52 36 47 25 39 30 33 30 45 40 54 34 46 30 28 40 46 37 57 43 31 43 42 46 50 37 37 35 47 41 25 44 32 22 45 42 37 47 30 49 42 37 42 37 41 39 39 34 55 47 38 44 38 45 25 57 34 23 41 31 51 37 43 35 58 27 34 38 20 36 29 55 44 40 37 34 42 43 40 22 44 35 40 68 48 26 47 36 41 48 43 41 30 39 40 34 44 34 47 45 29 26 43 40 44 21 46 37 53 47 26 49 51 34 43 56 59 36 29 34 47 29 50 37 39 36 37 35 58 36 52 29 47 34 46 47 44 37 35 28 46 37 51 37 26 59 51 42 19 35 36 48 32 37 43 45 48 47 31 21 26 39 47 35 42 49 51 43 29 40 39 23 30 46 41 43 51 44 47 40 34 37 37 44 40 21 31 43 30 57 29 41 45 51 37 49 48 46 44 45 38 36 51 43 32 37 40 24 36 51 32 33 33 47 30 44 52 37 51 50 51 63 57 29 36 33 49 44 38 48 43 19 20 31 27 32 30 46 30 40 37 59 39 48 39 41 45 23 34 55 40 69 41 40 43 44 38 30 36 22 40 44 52 40 40 49 31 45 31 40 47 40 54 42 45 48 40 37 66 40 44 45 43 33 26 24 33 33 30 55 30 40 40 27 51 33 34 35 37 36 35 51 44 30 44 26 40 43 41 71 49 26 40 49 35 43 45 51 47 45 36 36 25 34 37 45 41 46 48 48 36 29 34 33 51 33 48 36 43 37 45 33 42 43 43 43 29 34 36 23 44 44 44 33 42 49 38 51 55 36 27 29 30 52 54 24 33 44 62 40 55 43 72 44 20 43 57 36 36 26 54 51 40 35 25 51 43 41 51 39 27 31 50 37 16 29 24 27 37 18 44 40 52 58 35 60 33 40 32 32 37 45 40 37 45 27 39 24 37 44 37 49 58 34 30 36 44 40 27 39 43 36 34 25 57 51 55 36 37 51 59 50 27 44 40 26 68 26 40 29 36 33 20 59 42 27 54 21 40 44 56 40 29 24 23 27 39 33 57 30 31 53 41 27 42 31 30 33 54 39 39 23 35 25 41 34 46 47 50 41 42 50 27 48 19 49 46 38 29 47 39 20 23 35 39 62 43 45 40 37 29 32 48 36 43 23 54 38 48 24 39 60 38 26 44 34 32 58 51 48 33 55 27 41 41 33 44 41 42 35 40 31 44 43 34 34 33 19 20 52 41 41 38 23 14 40 37 37 42 45 39 48 33 47 44 51 57 33 30 47 29 68 46 45 43 33 48 61 40 22 47 42 40 37 29 25 41 29 30 39 30 42 32 33 29 31 37 39 34 50 45 39 27 41 37 39 54 62 26 33 40 34 57 45 30 43 56 36 28 40 38 26 43 27 46 40 37 33 42 49 36 60 39 42 45 36 42 51 42 45 31 43 37 35 33 24 9 26 43 65 56 42 20 47 47 37 39 27 60 50 48 38 44 44 44 26 52 51 49 58 17 51 23 39 27 38 40 43 48 41 55 20 46 41 44 48 22 33 40 43 43 36 49 36 34 23 26 55 57 54 63 40 37 27 26 39 27 35 26 41 58 37 37 48 30 40 31 37 36 19 34 33 54 44 40 32 50 40 38 41 44 29 25 34 34 51 54 45 61 31 60 50 48 29 37 26 30 52 60 16 35 26 30 49 15 46 34 24 30 42 61 57 36 36 31 58 66 38 43 30 40 41 50 51 29 34 16 46 36 40 25 27 22 43 51 47 37 37 27 26 48 49 40 29 22 34 41 32 27 60 34 56 71 41 43 36 59 33 26 55 29 44 56 30 46 35 28 34 47 25 43 33 38 45 37 48 19 29 32 42 27 22 38 39 29 37 56 35 32 23 29 44 54 36 46 52 59 30 33 39 28 20 35 37 43 40 40 29 54 40 61 29 39 36 30 26 37 35 37 62 44 37 63 49 54 40 33 45 45 58 30 36 23 42 42 34 47 31 37 37 29 50 32 27 40 38 43 51 16 44 43 36 51 48 60 41 41 54 37 34 56 31 30 34 46 48 40 57 32 37 26 39 57 33 25 29 44 43 41 35 27 21 47 33 44 37 43 25 37 36 47 51 56 19 24 36 53 37 27 51 53 38 51 32 27 41 35 63 37 34 37 23 41 33 55 43 54 30 33 38 50 41 35 52 20 50 23 44 29 32 65 30 51 58 43 43 23 49 28 38 27 28 33 53 30 31 66 45 37 33 25 23 42 48 43 32 37 47 31 47 41 41 42 40 20 34 36 41 48 30 41 54 34 41 41 35 41 37 48 40 34 36 34 9 54 51 40 49 48 50 46 51 21 34 33 51 40 28 36 54 42 44 34 42 27 33 50 47 45 59 43 33 42 49 56 51 37 42 28 45 31 26 36 37 41 23 51 44 45 27 44 47 21 43 46 50 24 40 31 33 48 56 38 30 30 26 34 46 37 43 41 20 44 21 26 51 44 36 57 54 38 43 39 40 38 34 29 49 31 49 24 33 32 41 34 59 23 33 28 33 30 27 40 43 34 44 26 25 41 34 23 30 37 40 55 49 43 41 31 33 51 27 49 40 37 41 49 40 43 55 37 35 30 34 34 30 28 49 51 43 37 47 39 34 49 50 38 29 26 39 42 37 30 61 34 37 49 67 57 43 40 65 40 44 41 41 43 48 41 26 51 43 28 63 37 34 30 45 50 40 33 32 29 38 48 45 34 43 31 33 29 30 51 30 41 43 33 35 38 34 41 42 21 54 49 51 63 46 33 47 48 40 25 37 50 46 51 29 31 41 41 38 55 43 33 36 40 40 44 50 27 46 44 44 27 57 46 33 29 40 48 20 50 50 16 36 43 30 9 44 27 51 45 26 49 45 31 55 44 31 39 32 26 57 38 38 30 51 44 25 45 26 21 51 41 33 44 40 33 33 69 41 28 48 52 59 44 47 48 33 30 27 61 44 27 34 30 43 57 51 31 31 45 49 51 36 43 48 39 23 38 32 57 51 51 29 38 42 34 30 41 48 52 54 49 40 26 45 22 43 33 33 47 43 42 37 31 51 44 41 26 26 27 34 44 51 50 42 45 47 29 43 38 53 37 23 40 56 29 25 26 26 36 55 34 37 41 40 36 35 38 41 49 46 34 28 33 34 44 42 43 40 40 63 44 48 37 57 43 45 47 45 45 54 26 36 42 40 32 59 33 36 36 36 34 37 37 48 47 27 41 52 38 26 61 34 50 47 26 49 46 33 51 16 52 34 33 44 43 47 33 41 52 29 30 55 34 51 51 40 59 63 36 30 47 22 49 44 53 37 31 31 40 51 38 39 30 48 41 30 19 58 36 33 45 24 23 36 54 36 20 33 42 38 38 31 36 32 65 34 44 40 45 50 38 35 35 20 50 44 33 29 43 47 22 51 60 34 47 33 43 40 55 30 58 43 31 31 26 47 44 25 33 49 39 56 50 48 34 29 51 45 35 33 41 61 58 52 31 44 27 41 48 23 36 49 44 40 38 57 50 29 48 38 35 34 65 60 55 50 29 26 23 46 55 59 58 44 61 20 40 40 40 30 43 41 27 53 43 44 28 33 47 36 53 49 44 37 49 22 47 50 55 61 55 40 36 36 53 45 62 39 51 58 52 33 39 54 23 23 54 42 35 59 42 22 37 37 48 32 41 29 49 31 44 35 54 31 47 38 17 62 41 47 26 26 43 37 29 45 46 33 64 41 48 39 51 38 27 38 42 47 35 50 30 51 21 35 49 44 40 46 54 30 44 35 52 40 38 23 40 33 25 31 54 42 41 37 50 38 40 30 48 23 23 35 25 48 37 44 38 51 53 27 47 27 44 42 29 40 23 33 45 49 59 51 41 36 33 42 50 36 60 48 54 42 43 41 41 27 40 34 43 51 34 56 47 51 53 50 22 33 22 40 15 33 46 31 36 37 29 27 43 56 66 50 35 29 49 40 45 42 27 32 19 45 36 31 44 27 37 52 41 52 43 37 48 37 33 40 39 30 33 47 44 30 47 26 37 27 37 22 50 26 48 53 40 45 44 47 31 29 36 54 37 51 46 44 20 59 31 48 43 39 45 30 60 40 29 39 48 39 39 49 17 18 41 40 42 43 51 26 53 39 45 37 33 47 46 32 33 43 30 46 41 32 36 40 55 30 22 47 44 40 40 43 46 35 35 45 39 31 23 42 42 44 38 26 43 51 29 43 41 50 40 47 37 35 35 40 34 40 42 50 46 40 30 50 37 33 45 45 56 41 47 48 41 41 41 52 58 35 46 47 45 52 36 40 33 59 63 48 29 30 43 36 32 37 49 35 33 29 51 51 40 24 46 37 41 41 40 38 37 32 45 26 37 37 51 46 29 43 23 33 39 41 16 30 37 44 41 43 52 18 46 35 30 55 35 50 47 23 47 47 41 37 45 47 31 48 51 40 20 23 61 48 49 43 41 33 37 27 40 31 23 31 51 48 25 40 37 40 33 47 26 42 51 44 24 44 30 30 25 44 27 27 19 61 47 36 31 39 30 23 61 42 45 62 42 37 48 38 51 48 45 43 45 43 48 31 44 29 50 40 51 61 44 44 41 26 30 41 50 36 35 43 20 48 20 35 58 40 47 37 56 37 46 34 47 44 37 23 29 30 30 38 40 40 45 38 27 51 37 60 35 37 39 41 32 30 40 22 38 26 43 23 27 33 27 48 24 29 43 40 55 34 58 29 44 50 42 65 44 52 47 32 56 50 36 17 47 53 49 47 43 36 43 65 44 26 37 51 48 46 44 41 32 35 20 35 35 48 53 50 44 31 40 56 51 31 29 32 59 39 47 39 30 50 33 49 40 20 31 31 51 34 25 40 30 46 45 33 30 28 37 31 49 40 33 40 44 43 45 33 25 49 41 50 36 46 36 34 57 23 49 38 33 23 51 48 37 28 33 57 29 50 54 25 29 45 37 45 34 58 45 61 29 40 24 40 58 51 37 34 23 42 41 42 42 31 39 24 30 35 23 34 30 46 44 49 40 51 42 30 42 39 45 41 30 25 44 36 31 58 39 37 54 29 44 47 37 45 47 30 30 25 53 41 47 26 43 32 43 34 27 48 58 26 25 26 34 34 55 37 50 22 36 25 41 28 57 47 37 45 57 34 49 43 47 33 45 67 41 33 48 44 37 45 29 50 34 30 46 19 44 37 27 42 44 16 51 33 65 33 50 41 28 26 40 59 33 20 50 53 19 36 36 35 48 38 31 26 38 33 50 37 33 33 30 33 33 46 37 33 41 46 41 32 30 44 34 26 45 30 40 32 31 46 43 50 41 44 54 45 22 33 41 45 29 54 40 34 53 43 31 57 52 29 34 39 55 61 52 51 33 43 43 35 33 44 28 29 48 27 22 37 59 32 23 29 34 43 41 51 37 46 36 36 37 32 29 46 38 30 33 31 59 33 37 34 28 30 40 47 40 27 37 51 41 44 44 51 40 32 51 36 50 44 26 47 46 46 37 48 42 49 52 25 45 62 34 49 25 35 45 48 65 35 31 51 23 41 44 48 45 43 41 37 51 43 51 37 40 44 23 36 19 37 55 37 40 45 59 48 46 49 50 51 39 19 44 26 29 30 43 16 49 33 31 40 55 37 33 27 44 41 40 57 51 34 43 67 41 55 19 49 26 47 30 55 57 32 35 35 41 54 39 29 49 31 37 47 46 46 26 50 37 54 51 60 31 44 33 63 39 43 16 48 29 23 26 51 25 40 35 28 37 36 40 43 50 51 54 36 51 54 62 41 40 43 12 47 41 38 46 56 40 51 38 41 45 43 27 47 23 32 29 65 51 24 64 54 36 27 29 42 40 26 50 40 49 51 47 33 49 43 19 32 36 36 39 44 36 32 39 51 52 33 45 34 30 36 33 29 47 43 53 51 40 38 34 41 26 49 52 32 45 56 43 32 37 34 47 47 44 43 41 26 52 39 48 38 36 23 41 35 40 48 30 38 37 55 39 31 21 41 41 26 37 46 40 39 41 43 41 37 33 37 46 68 23 39 53 48 60 41 32 26 30 26 40 35 40 54 47 35 32 51 47 17 35 38 45 38 34 36 39 54 40 40 33 51 43 46 29 34 45 40 36 37 26 18 46 37 36 40 32 39 23 37 48 29 37 43 37 29 48 59 43 29 44 58 56 38 54 32 37 70 47 29 49 37 46 40 57 29 38 26 41 44 45 44 27 55 36 44 45 35 43 37 32 52 51 32 19 56 32 16 36 27 43 55 21 43 48 46 49 45 37 62 33 33 52 45 41 55 37 34 31 43 32 30 52 48 59 41 32 38 47 41 41 16 43 51 40 35 43 51 49 59 48 48 30 33 37 21 38 50 39 55 38 37 40 37 46 40 38 31 23 32 59 45 33 37 46 51 37 44 39 41 33 34 30 52 27 46 49 43 38 37 35 34 43 50 52 45 34 47 58 31 55 36 33 36 59 47 45 55 41 31 54 40 45 35 57 39 37 44 29 43 38 52 50 46 19 16 42 19 43 54 49 49 41 31 34 40 37 38 45 19 47 30 44 44 37 39 35 19 27 42 36 40 61 37 36 21 36 16 33 39 30 32 47 43 27 50 45 44 54 57 45 51 39 35 53 33 36 28 51 51 65 48 33 43 44 35 40 43 59 27 33 44 37 51 28 36 43 45 38 36 33 37 37 30 52 33 56 38 45 49 46 35 37 52 44 34 37 29 69 44 51 59 30 48 37 43 37 44 62 51 33 36 31 33 45 35 27 27 48 48 40 36 20 22 43 35 44 51 37 43 40 32 45 45 23 37 40 47 55 51 29 45 44 37 64 55 40 40 37 33 32 30 55 40 54 41 34 30 42 34 49 36 51 27 26 49 17 26 44 42 47 63 47 37 61 37 35 31 37 42 53 42 55 31 42 47 41 49 44 36 50 43 57 41 26 45 29 46 36 51 36 47 51 25 33 47 42 40 37 40 46 56 61 55 40 42 50 49 41 37 37 19 43 47 35 44 30 52 33 44 44 38 48 61 32 30 37 42 44 34 52 59 46 41 31 44 42 64 32 23 43 45 32 31 40 23 27 47 37 37 36 45 60 41 24 42 51 28 44 56 44 43 33 33 44 44 66 33 44 37 27 34 39 52 60 47 37 54 58 51 34 45 37 49 43 24 39 29 20 60 47 29 26 45 51 20 38 37 33 32 55 38 64 51 39 37 53 48 65 35 20 51 37 51 42 48 44 45 56 17 38 43 34 34 29 45 24 33 37 24 31 28 51 34 44 57 47 33 39 51 32 24 54 30 51 27 48 49 44 54 38 55 28 29 40 29 49 32 49 26 41 51 36 44 32 42 43 29 36 43 50 43 34 30 43 23 52 22 27 30 47 27 44 33 55 36 40 34 50 48 51 36 39 37 27 51 62 42 29 29 37 52 36 45 61 30 33 41 42 51 29 23 35 39 40 29 36 30 23 44 56 23 47 41 49 35 73 34 38 39 44 33 30 40 54 23 29 28 26 32 29 24 48 46 29 49 28 43 15 37 36 34 51 47 45 56 37 30 47 43 44 12 39 30 29 30 44 49 29 41 30 35 53 56 50 43 36 46 39 36 40 44 31 37 55 20 38 28 42 57 44 21 34 50 19 34 41 43 35 37 62 39 51 47 36 68 46 44 70 33 42 29 28 39 49 41 39 31 45 30 40 44 47 40 38 46 36 47 23 42 37 43 38 58 31 28 44 37 44 48 19 40 34 26 63 41 36 45 29 52 16 51 31 21 48 33 24 32 29 51 37 26 51 23 54 34 34 36 43 56 48 68 57 37 16 56 58 42 43 51 27 43 43 39 62 38 12 45 45 31 52 36 19 22 52 41 19 38 57 21 41 27 40 26 30 30 51 28 52 44 35 55 46 19 35 24 22 38 33 33 43 40 23 38 34 43 29 13 30 41 44 34 32 43 44 42 44 24 41 13 31 43 45 37 47 41 39 47 34 43 58 33 48 45 29 38 42 33 16 54 28 22 62 38 30 43 38 62 37 35 32 34 43 27 40 36 31 43 37 57 33 51 33 34 43 27 50 37 29 23 44 55 37 27 37 22 31 41 33 36 27 30 43 22 61 30 29 40 52 35 47 29 36 57 23 33 41 36 27 29 38 52 53 59 37 38 37 33 53 43 30 51 53 37 34 46 27 50 45 46 54 41 52 27 43 43 55 33 33 43 54 41 40 33 23 42 33 46 51 50 51 38 38 33 26 39 55 51 33 33 36 40 29 54 40 46 37 52 37 28 36 54 41 47 21 56 38 37 29 19 33 35 38 22 40 24 40 64 33 46 61 44 33 37 41 41 33 22 43 37 30 44 40 23 55 31 46 40 23 37 16 40 36 20 30 46 38 28 30 38 42 48 37 23 40 44 59 30 60 47 30 45 56 48 54 51 47 49 42 34 33 49 33 45 43 33 51 43 20 44 44 40 36 41 40 42 44 52 34 34 62 47 49 41 39 38 59 53 37 41 38 37 42 66 40 45 32 43 53 40 41 31 44 51 41 33 43 48 37 48 40 42 37 47 38 37 65 34 43 33 36 44 30 61 51 43 32 41 41 33 39 29 26 44 44 59 55 36 36 38 36 53 47 33 35 49 40 37 42 26 37 40 29 51 51 43 37 72 41 49 53 52 40 25 56 29 38 45 65 37 38 29 44 34 55 39 33 41 29 48 37 39 56 52 34 60 40 30 29 33 44 38 35 26 36 48 26 42 36 64 33 46 68 41 40 18 48 20 19 51 26 28 39 43 51 54 23 43 27 44 42 54 48 50 43 27 24 44 30 37 44 40 20 49 36 38 45 25 32 34 32 51 37 22 41 43 38 25 39 33 51 26 38 52 29 48 35 40 43 41 56 17 42 26 26 48 37 33 48 37 43 47 45 45 51 26 43 40 44 40 34 59 43 46 45 36 54 45 24 19 34 51 43 40 47 30 34 31 37 45 37 43 33 48 40 42 35 44 36 51 47 51 26 48 40 49 46 36 40 40 36 47 27 36 44 33 36 30 32 35 36 38 35 37 57 46 39 45 43 36 31 35 24 45 37 40 53 30 38 46 38 38 36 36 19 37 33 41 30 54 38 36 30 44 39 29 25 42 36 46 37 50 43 57 40 47 53 43 43 47 45 37 33 55 35 35 47 45 39 30 68 29 41 37 42 35 36 32 23 58 41 48 49 49 29 39 47 45 63 34 46 30 45 64 30 51 59 37 54 30 44 38 47 42 30 30 13 31 42 53 43 33 32 44 29 45 54 48 47 30 53 23 36 37 42 50 45 15 34 32 54 52 37 45 47 43 43 55 33 34 40 23 29 42 29 34 46 40 32 46 34 32 35 37 43 44 31 22 26 40 44 41 51 49 43 42 45 43 40 45 33 40 47 16 38 46 41 55 33 43 36 29 36 32 48 53 32 57 40 35 50 55 51 37 40 25 40 41 27 37 42 23 23 51 27 37 20 37 44 49 23 48 37 45 45 48 50 37 37 39 52 48 39 33 33 53 38 53 44 45 37 48 48 44 40 27 32 44 34 26 58 29 30 49 20 24 37 43 51 37 31 51 47 13 31 36 26 43 37 50 34 29 23 37 34 33 30 41 41 41 37 46 33 37 52 51 42 23 40 43 38 59 44 57 31 61 40 40 47 31 13 36 50 40 55 52 43 51 42 47 38 23 37 58 51 25 34 23 33 23 37 38 42 51 36 30 33 41 41 40 55 45 40 52 51 38 41 36 29 34 42 33 19 50 33 37 30 35 28 50 43 48 22 55 44 35 52 36 41 44 42 39 40 36 26 35 43 53 44 37 47 54 19 58 29 45 59 29 37 54 47 41 40 54 19 31 34 31 35 23 30 43 37 47 36 49 51 41 51 47 34 45 45 49 45 30 60 33 33 30 39 30 75 29 34 37 23 39 29 48 64 35 32 31 31 50 42 35 51 29 46 61 44 50 49 41 65 62 35 59 36 60 34 35 41 21 56 45 51 44 13 42 40 49 37 51 32 41 35 21 47 34 51 41 30 44 32 29 32 40 41 29 45 26 43 44 44 44 32 51 37 57 47 29 31 35 59 50 31 52 46 48 43 36 37 33 58 18 33 45 40 36 22 52 36 45 41 47 34 69 37 53 22 58 40 48 26 57 43 36 54 50 52 31 41 41 47 37 51 55 41 41 26 40 42 22 51 57 34 28 29 37 32 40 27 60 32 43 39 53 32 32 37 43 47 32 36 45 52 35 33 17 43 40 37 49 46 47 57 42 23 39 38 24 42 54 43 60 39 48 33 30 52 39 58 40 52 16 22 22 38 33 58 49 54 47 48 37 36 42 27 35 36 55 19 47 51 36 17 54 34 41 38 51 29 52 44 47 56 46 33 43 48 45 44 34 25 50 37 35 24 23 40 30 44 41 33 51 27 33 44 19 37 33 36 30 45 37 37 45 43 38 24 44 51 40 61 46 29 69 40 28 17 24 61 37 51 40 42 51 31 41 37 37 28 42 30 35 40 42 24 26 31 42 32 49 36 40 57 22 43 37 59 33 45 46 30 43 26 27 35 52 47 30 36 37 34 35 46 35 45 36 45 45 54 58 51 53 31 50 36 43 37 39 47 17 46 55 51 35 29 26 39 50 46 46 41 61 22 38 51 28 58 26 56 31 42 29 34 50 39 42 43 33 41 19 64 16 40 34 27 29 43 44 23 39 53 50 29 35 48 44 43 45 40 31 53 53 44 37 47 51 36 30 38 67 16 48 33 54 43 29 56 36 34 43 52 43 24 59 41 34 48 51 49 39 35 51 32 40 34 48 23 44 24 36 58 44 24 37 35 51 40 26 45 28 62 52 36 42 31 45 51 34 40 47 52 45 50 52 37 34 33 45 33 34 45 40 49 37 46 45 45 41 51 52 47 54 29 62 36 33 51 33 51 59 42 27 37 55 43 46 19 30 52 39 38 59 44 58 60 39 36 52 42 26 68 35 43 46 61 22 41 40 52 58 42 57 34 31 45 55 18 51 29 37 29 27 41 34 29 32 31 29 37 46 59 53 33 34 43 31 51 41 36 44 58 59 53 45 39 43 37 43 27 33 49 33 37 37 52 36 39 30 32 27 35 46 40 45 43 47 44 37 28 43 46 47 31 34 44 43 51 37 39 32 48 46 34 33 43 40 32 31 33 35 40 37 46 48 36 44 36 30 45 45 34 58 34 36 37 37 38 44 31 62 37 44 23 30 37 37 27 49 33 39 44 27 28 37 46 35 45 41 41 51 34 29 43 51 22 48 48 36 37 38 59 45 44 47 26 51 51 52 47 47 44 33 13 49 37 45 53 49 51 48 31 58 34 36 60 33 38 37 46 45 50 35 50 18 39 44 37 32 30 29 61 41 41 38 29 42 36 66 37 58 40 48 49 54 35 27 47 26 45 37 40 40 36 29 38 41 45 51 33 35 34 40 59 31 17 43 39 44 51 60 36 41 30 25 46 30 46 29 33 44 44 45 40 27 55 37 22 45 49 41 46 57 50 24 43 39 17 34 47 38 31 49 46 46 51 37 41 46 43 41 44 66 22 38 32 48 42 44 43 29 48 43 46 46 46 36 31 76 55 34 37 43 37 55 63 61 56 29 33 43 19 61 36 47 30 46 31 47 54 40 33 41 47 37 43 57 29 31 63 56 41 44 42 26 39 9 48 33 49 54 33 27 46 27 51 37 48 24 29 52 33 51 43 59 44 20 29 39 26 36 46 23 40 61 42 52 27 53 39 43 35 41 30 51 47 35 40 28 31 38 23 20 39 50 42 22 23 20 56 33 44 27 43 48 45 41 29 59 42 23 46 37 23 26 26 23 38 40 16 33 40 31 50 52 33 30 51 44 34 30 30 37 34 27 42 50 33 37 30 53 34 32 26 31 31 33 58 24 35 52 54 45 40 49 44 57 44 46 31 34 44 52 51 28 30 53 37 41 39 40 47 47 30 37 43 53 43 44 38 43 37 37 33 41 45 52 36 43 47 42 23 49 45 43 38 43 33 27 30 49 34 27 46 36 32 25 42 52 33 37 41 52 22 41 29 37 36 48 34 49 65 26 38 37 37 42 33 11 51 40 43 35 48 51 37 40 46 37 40 49 51 45 32 41 44 40 44 33 47 37 32 41 40 33 32 40 47 25 45 38 39 31 43 55 40 40 42 40 29 37 55 19 45 22 34 40 36 47 40 38 32 31 18 29 31 24 53 36 38 36 52 37 59 44 31 43 44 44 44 40 34 43 56 29 61 42 27 33 33 45 37 54 29 41 44 33 40 19 61 41 37 23 37 35 39 36 40 42 40 61 54 30 36 44 38 58 16 49 40 27 37 31 47 37 33 43 63 36 43 47 33 61 26 54 18 33 29 34 15 37 30 52 37 50 36 55 40 42 33 51 33 26 56 33 45 53 36 24 42 51 40 50 34 57 33 51 23 35 26 39 41 54 42 30 34 25 15 33 35 31 38 54 45 44 38 32 40 42 28 30 39 19 39 41 47 38 30 40 43 43 29 43 42 62 43 40 46 55 27 30 56 49 36 29 51 36 44 31 51 40 58 40 26 43 42 58 45 43 34 36 41 38 54 36 43 40 41 27 26 34 57 51 34 30 35 38 49 40 37 48 35 54 56 40 52 43 50 27 51 38 41 48 50 44 36 37 44 24 40 23 19 30 33 22 36 16 47 25 37 33 51 28 46 47 25 36 40 29 42 51 44 23 33 44 36 26 52 37 50 36 37 46 21 47 48 42 55 37 25 29 44 19 47 32 48 35 40 35 32 48 53 50 52 23 36 47 50 51 41 35 45 53 37 34 33 43 37 34 31 41 57 50 44 54 35 22 20 56 30 34 40 38 39 35 40 45 62 51 52 46 23 52 49 37 23 62 41 19 41 39 57 48 38 29 41 47 30 54 36 41 26 29 26 42 29 66 33 46 30 38 13 45 47 45 30 35 39 40 34 39 28 41 30 38 43 48 48 38 39 72 34 28 45 52 39 44 41 16 24 41 42 41 56 19 38 34 41 30 48 44 38 25 33 48 46 34 34 33 34 37 33 37 33 55 29 26 33 30 41 41 40 44 41 32 29 41 26 41 32 59 33 43 39 40 54 51 40 40 27 28 39 34 37 38 36 53 34 28 33 44 34 45 50 48 59 30 30 46 60 29 47 44 41 35 32 33 41 24 35 49 47 63 44 42 30 38 40 50 42 41 50 46 35 38 46 29 40 46 39 19 53 43 45 55 29 30 40 18 33 44 23 36 29 30 45 38 48 63 51 53 53 33 35 26 47 48 32 52 48 58 43 38 30 46 44 44 39 30 29 55 34 43 38 29 50 44 44 45 35 42 28 40 58 36 26 19 37 30 47 53 30 44 27 39 33 9 46 44 43 32 43 37 26 51 37 42 27 28 29 51 30 28 27 36 33 27 33 56 44 43 24 43 33 49 38 44 42 28 51 34 48 43 15 33 56 36 34 51 36 44 49 35 37 53 29 46 43 49 61 40 45 38 51 37 37 36 48 36 33 33 33 37 32 38 49 53 54 33 26 54 46 46 36 51 42 31 40 34 36 51 49 37 43 41 37 37 43 37 44 36 32 30 43 37 48 47 58 50 28 26 51 29 50 25 23 29 32 28 51 48 69 37 44 32 42 36 31 32 40 34 28 50 38 40 64 40 48 36 29 37 39 37 34 34 48 20 26 46 29 33 23 30 34 38 50 23 32 43 31 59 28 33 43 39 51 43 44 55 51 50 41 46 40 35 37 47 36 46 61 50 45 49 44 63 66 50 41 55 52 51 41 54 27 29 54 33 43 22 36 43 48 23 51 34 41 23 43 53 53 18 42 57 27 29 30 43 44 38 47 36 45 30 32 46 54 24 23 34 43 47 55 45 43 43 36 36 32 45 35 43 27 43 25 51 45 48 45 23 28 43 54 19 36 51 45 55 50 39 26 54 40 52 49 43 30 43 56 46 43 29 45 47 52 34 43 41 34 33 34 44 34 44 26 51 37 23 54 40 16 37 45 45 33 43 41 53 33 47 34 48 33 41 57 34 51 38 38 47 23 37 50 54 29 35 57 38 31 29 36 38 32 39 30 37 37 55 25 10 46 48 25 41 29 38 22 54 48 47 53 54 42 50 43 40 41 43 26 39 51 35 31 55 29 41 41 44 13 43 50 46 51 64 45 43 33 50 29 43 36 59 40 30 31 57 26 56 37 61 31 49 22 41 38 31 38 51 40 47 56 29 23 24 44 30 48 40 62 41 48 48 44 33 36 23 33 26 30 52 48 70 48 39 40 40 42 37 26 44 35 41 29 54 29 63 44 53 56 30 40 43 49 47 41 44 30 38 40 32 26 39 56 33 47 46 33 51 34 10 45 27 13 39 44 40 58 33 29 51 37 29 37 52 51 41 34 51 60 41 27 47 31 45 52 37 44 40 51 23 30 55 54 62 39 37 41 43 46 51 43 48 30 40 25 47 47 55 30 40 60 36 45 24 30 51 50 25 33 51 32 29 65 29 44 49 66 50 52 30 29 43 50 32 38 27 50 23 37 47 39 34 44 40 42 35 29 39 22 51 56 51 40 35 24 27 45 33 45 30 58 39 42 48 23 40 37 35 55 47 51 23 33 26 44 45 28 35 45 40 39 46 42 40 27 30 23 30 43 26 27 34 51 32 40 40 54 33 49 49 37 50 52 46 38 38 32 30 44 51 33 42 43 36 54 51 35 50 22 50 44 57 40 25 49 44 55 38 37 56 34 57 26 43 47 52 41 69 29 33 51 57 28 45 36 47 39 45 52 27 41 31 37 50 43 25 19 45 37 31 31 35 27 23 49 36 44 43 27 40 30 36 56 58 37 31 48 37 36 51 23 33 35 43 67 35 45 43 30 34 40 59 49 45 43 27 43 37 29 27 44 18 49 48 48 31 33 48 42 41 54 43 51 59 46 33 46 51 33 57 36 26 43 37 45 16 43 57 39 32 52 58 22 45 30 37 40 31 33 54 47 60 46 62 30 51 27 43 47 41 37 28 36 49 43 17 42 52 38 30 29 37 50 53 50 38 44 47 55 49 37 55 27 33 29 32 32 43 47 41 48 33 35 45 30 51 22 29 35 39 31 38 36 38 43 34 32 33 43 43 60 33 55 41 57 40 51 26 35 34 52 44 40 39 58 38 26 35 22 48 51 48 27 37 38 44 48 63 38 51 33 24 35 44 46 44 37 33 16 25 60 29 30 24 27 37 37 39 38 47 40 48 48 55 37 36 41 35 27 23 49 29 41 31 44 54 39 52 19 43 40 57 55 51 37 34 34 37 32 51 49 36 40 26 30 34 43 16 51 27 32 29 40 29 47 39 44 23 34 59 57 40 52 56 34 31 41 37 51 22 45 41 36 29 29 47 71 33 52 57 49 27 43 51 48 50 47 48 49 47 51 33 39 38 37 40 27 55 46 54 43 29 39 43 51 46 42 27 44 37 43 42 31 40 32 43 29 33 47 50 36 33 49 35 44 48 26 37 47 51 26 33 38 43 44 43 33 27 40 30 47 41 57 39 55 41 37 25 53 62 43 34 31 59 30 38 49 33 41 52 34 37 33 43 43 48 37 47 33 40 40 41 33 33 19 43 23 33 36 55 33 35 55 43 44 37 40 43 50 48 58 31 36 49 63 33 39 37 33 45 54 46 66 47 35 41 47 53 33 43 43 33 49 44 45 16 46 43 37 55 69 30 44 37 32 40 43 37 44 37 48 44 41 36 30 43 55 22 47 52 48 34 30 42 40 30 36 47 29 34 25 58 41 38 59 40 42 49 35 40 29 37 54 59 44 37 39 42 36 30 29 48 26 43 51 29 29 45 39 31 40 43 40 46 37 47 62 38 57 35 37 52 56 12 45 41 41 55 31 43 44 31 44 48 60 37 38 30 37 22 42 57 44 39 29 39 29 38 31 60 16 43 47 51 45 41 38 51 33 29 51 32 33 69 43 51 55 41 40 38 28 26 58 40 55 60 17 29 51 36 37 23 45 30 31 55 23 23 26 50 42 27 46 31 42 62 55 32 62 39 29 50 34 52 39 43 39 31 34 36 46 36 34 37 40 34 47 35 26 32 43 51 43 65 43 33 40 35 52 24 33 40 26 34 26 27 36 39 30 43 55 36 53 44 37 50 41 30 24 30 34 45 50 13 40 45 47 37 33 23 43 49 40 52 36 52 65 48 51 36 69 41 27 49 44 33 43 36 43 30 33 26 43 15 29 51 36 37 37 45 48 39 51 31 51 36 29 54 32 32 37 17 29 23 30 38 44 20 45 33 26 31 25 54 41 46 37 38 58 41 45 29 37 16 27 37 42 52 54 49 50 21 44 45 43 55 37 35 38 34 36 49 45 38 72 43 26 32 37 43 48 39</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>NIG(34.376676880844286, 16.503390325356555, -0.7126728628123047, 37.17721019738241)</t>
-  </si>
-  <si>
-    <t>19 28 10 20 33 22 20 6 19 20 7 24 7 14 3 27 19 20 10 13 26 15 31 19 31 17 12 15 20 3 20 28 24 10 23 34 12 16 24 23 10 26 20 14 19 19 16 20 17 27 27 17 28 17 17 20 17 26 17 9 28 3 19 24 20 10 20 31 17 30 23 22 10 7 21 13 27 10 17 17 13 21 20 9 16 24 13 17 21 27 10 23 32 7 7 24 19 25 20 17 16 27 13 17 16 21 16 19 20 20 20 10 20 17 27 16 10 23 19 20 34 13 10 14 30 14 17 16 17 14 20 13 17 17 20 30 6 42 21 19 20 28 30 17 3 24 17 10 9 22 21 14 24 20 20 14 23 28 9 18 24 40 23 22 23 9 16 6 3 31 24 31 12 28 27 10 22 27 13 20 30 24 16 11 27 28 21 14 23 10 20 33 24 24 17 10 26 10 31 13 23 13 17 38 6 10 10 24 10 21 14 9 16 17 31 17 31 27 21 0 21 30 27 20 34 10 41 9 23 13 16 6 34 14 10 6 27 19 20 20 14 10 27 20 28 30 20 14 24 20 24 34 16 24 27 13 19 23 31 28 17 27 27 10 19 20 9 9 24 17 18 31 25 21 43 20 24 10 17 18 45 20 15 22 23 14 20 43 3 21 26 13 27 3 23 24 9 28 28 13 21 24 33 17 38 14 29 13 18 27 20 3 10 24 7 40 27 12 13 27 27 9 17 10 17 9 13 31 24 31 16 10 24 19 27 21 14 13 23 9 20 24 19 31 18 24 29 21 14 16 13 13 30 17 31 18 15 10 25 30 7 27 31 20 27 20 21 27 33 14 28 24 27 15 14 13 15 27 10 17 20 10 19 10 14 21 20 20 17 23 14 17 14 17 21 17 17 34 14 17 21 16 21 15 27 16 13 23 13 15 22 9 13 17 20 19 17 13 3 20 23 23 27 24 21 31 23 14 26 28 17 17 6 7 27 18 15 20 14 21 24 13 21 20 34 24 27 20 7 20 23 20 35 27 23 17 33 37 20 23 20 17 19 17 24 13 20 29 17 31 6 14 13 16 19 7 17 20 12 20 24 23 28 13 23 21 23 20 23 10 30 10 23 17 27 17 13 21 26 16 19 19 27 21 16 10 31 16 13 13 30 18 21 31 27 16 9 19 24 21 9 6 7 24 15 23 24 20 35 17 15 10 21 10 16 24 21 20 29 24 45 20 14 24 10 10 31 24 27 13 18 20 20 10 7 25 16 31 20 20 24 10 27 10 13 15 13 24 18 28 16 17 10 24 33 12 7 10 27 24 20 18 24 12 19 35 19 20 20 17 31 27 13 24 13 23 28 3 34 20 24 24 10 19 16 9 18 14 16 7 23 24 20 24 19 14 12 15 21 13 20 14 30 10 16 16 19 13 28 17 3 13 21 16 24 16 28 17 6 24 16 27 21 2 14 14 23 22 28 17 30 21 17 12 9 34 17 17 9 11 17 16 21 17 23 3 20 21 17 9 3 23 19 14 27 10 24 27 19 21 13 13 41 16 20 41 20 3 31 17 14 3 10 20 13 17 19 10 9 16 33 17 22 21 13 17 34 19 10 13 17 28 12 21 13 17 13 30 13 37 23 3 23 15 17 23 17 17 12 19 17 28 13 41 23 28 16 10 10 13 31 14 22 16 10 21 21 23 26 23 6 13 13 20 14 34 13 10 27 13 20 20 27 11 13 20 21 26 10 13 16 13 12 31 12 13 21 20 10 14 17 27 35 27 13 20 20 11 14 27 17 12 13 14 13 11 17 16 33 32 16 24 16 15 14 30 17 34 13 13 23 13 10 17 12 14 28 28 13 23 13 31 14 17 16 20 20 11 20 28 17 34 13 27 15 42 14 15 24 10 27 21 29 6 13 29 29 13 17 10 13 15 33 10 9 24 24 20 13 39 24 24 19 24 22 34 17 20 20 26 0 20 9 13 14 17 6 9 20 20 21 12 21 27 27 9 17 34 23 13 29 22 31 16 24 34 30 24 21 7 41 19 17 31 27 20 10 13 14 13 24 23 17 20 24 20 17 20 22 25 23 9 7 13 10 26 17 23 31 17 13 28 14 27 24 25 20 14 18 20 23 24 24 30 27 27 19 16 13 9 31 13 21 20 19 20 17 13 27 17 17 6 13 21 34 15 27 30 28 30 24 10 20 26 16 13 17 12 17 27 23 32 31 34 24 13 14 28 7 20 13 16 23 23 23 30 13 18 16 27 28 24 17 30 17 28 7 20 11 29 23 35 20 29 10 6 26 21 20 16 13 33 14 10 14 13 12 13 26 0 20 9 27 12 19 23 20 27 18 7 9 30 13 37 20 31 20 22 6 14 28 27 17 19 24 13 20 24 20 27 17 28 14 16 12 6 7 13 13 27 41 16 20 27 21 13 30 17 21 17 24 12 12 29 26 17 17 27 31 17 10 27 20 23 11 17 24 20 10 13 14 17 10 16 27 37 27 24 25 20 20 20 37 24 13 24 21 21 24 7 17 16 27 31 21 13 21 27 6 34 24 30 13 27 13 27 10 42 19 3 21 21 25 22 24 13 33 7 28 23 23 10 19 13 17 30 6 23 17 16 16 19 20 16 44 13 14 16 13 16 16 19 20 10 17 6 23 16 15 14 16 13 32 20 24 10 20 16 16 24 17 28 27 21 17 23 28 20 23 13 23 16 17 21 13 20 22 24 15 17 24 14 31 27 22 20 19 35 24 6 27 12 8 3 23 35 3 14 12 24 12 21 28 20 22 16 13 13 13 10 23 27 37 21 13 23 38 19 18 6 20 9 18 13 21 0 24 7 22 13 23 27 27 23 27 14 24 23 20 23 21 20 9 27 14 23 10 20 24 13 19 21 31 24 17 31 24 13 19 16 24 27 7 20 6 20 20 28 14 23 16 16 17 21 24 10 20 10 21 17 19 24 22 24 27 21 20 16 17 26 10 27 17 20 28 25 31 23 14 20 16 19 13 21 11 16 13 34 9 23 17 12 24 23 20 15 28 13 23 34 7 24 24 17 24 20 13 13 7 22 26 19 27 24 7 27 34 24 20 6 10 14 16 20 31 27 21 20 9 23 17 13 34 38 7 7 10 38 10 24 20 24 10 13 21 21 20 19 27 20 17 27 10 28 20 20 25 10 0 23 22 27 30 27 22 24 24 38 16 17 16 17 14 19 9 24 21 27 23 15 35 27 20 23 24 13 27 17 23 20 24 28 12 14 24 24 21 17 20 31 20 24 13 17 21 24 24 19 20 24 13 24 9 23 35 23 13 33 23 9 20 30 26 17 26 10 15 23 20 20 29 24 20 34 17 21 10 35 16 41 16 14 38 23 21 14 3 27 17 24 21 14 30 13 13 14 23 5 20 27 14 14 17 19 23 10 21 10 24 21 33 34 34 22 16 17 14 28 23 9 9 13 21 6 10 19 27 31 6 22 10 34 14 24 14 14 24 13 20 14 21 6 23 24 22 20 7 27 17 23 3 21 16 28 10 23 3 20 16 38 31 10 23 24 24 24 17 7 19 30 7 17 24 27 21 20 24 23 23 19 14 21 19 14 14 20 24 30 31 27 24 20 21 37 7 34 35 14 19 13 17 9 21 25 31 9 23 27 9 38 10 27 17 7 27 24 34 17 6 34 20 27 24 15 24 35 16 25 19 16 17 17 16 27 20 13 16 30 20 7 31 16 23 17 21 23 23 27 13 31 16 14 3 19 20 27 3 19 23 17 16 17 3 15 23 10 12 17 27 23 16 17 13 21 10 23 6 27 28 12 31 20 22 23 12 10 24 38 20 13 28 12 24 14 3 20 17 6 30 20 14 16 20 14 15 17 17 17 33 30 30 21 16 24 20 24 3 20 38 20 31 16 31 32 18 34 13 12 19 20 14 17 24 14 10 16 23 19 24 24 19 20 10 16 20 34 24 21 19 14 13 17 27 22 27 32 22 21 23 34 21 20 27 19 14 19 17 24 27 23 17 14 20 26 18 15 35 24 33 35 13 31 32 27 14 7 24 30 16 31 31 7 27 22 20 23 20 17 30 17 21 34 7 23 27 13 19 22 16 17 17 16 14 34 10 13 16 23 12 12 21 23 34 27 20 11 24 42 20 13 16 10 21 23 23 21 28 20 12 19 26 23 24 27 23 20 23 6 26 16 20 35 24 13 9 12 19 21 45 16 15 30 17 20 14 14 17 17 17 33 28 21 27 19 23 20 6 11 27 21 24 17 24 23 0 24 19 20 27 27 17 3 3 35 14 24 19 31 23 34 6 17 13 23 17 17 13 14 7 15 19 24 24 16 10 23 20 23 23 13 21 28 30 17 20 28 18 7 23 9 28 17 6 9 17 17 21 14 21 14 26 20 20 20 28 14 6 31 30 15 16 17 31 27 22 17 16 10 17 10 10 3 12 24 21 7 23 28 21 6 26 21 14 16 14 28 9 42 14 31 13 17 38 13 22 10 20 19 9 10 6 16 22 23 16 18 16 20 17 17 24 17 20 10 31 24 13 12 27 20 13 20 16 16 31 13 20 28 11 24 9 27 20 23 17 12 24 20 23 14 12 27 20 6 27 18 20 9 22 14 20 7 20 31 31 17 28 21 20 23 16 10 14 3 31 17 20 17 27 16 17 13 8 37 20 21 21 14 32 10 20 14 14 17 17 20 27 28 12 18 14 27 23 30 34 14 17 22 10 21 24 20 13 20 20 24 17 9 21 21 13 24 20 38 21 24 27 23 23 28 26 14 27 24 20 7 23 15 24 16 17 14 13 6 21 14 35 11 23 10 20 24 27 10 17 35 13 15 27 13 15 17 13 3 28 9 21 12 20 19 35 24 31 19 20 10 23 18 13 13 17 12 14 6 26 9 17 20 17 14 7 34 29 24 27 17 7 27 16 9 10 10 16 28 17 20 17 27 16 23 17 16 17 14 15 24 7 23 33 35 21 17 16 14 20 24 13 13 21 13 21 24 34 24 9 31 17 31 18 33 20 18 10 17 14 22 14 20 21 24 24 17 24 10 20 21 21 21 21 27 20 13 12 20 24 20 17 34 13 13 21 17 16 10 21 6 21 28 35 9 27 21 11 28 13 24 16 15 14 13 17 34 17 26 6 31 19 11 13 13 17 13 13 24 21 17 20 7 31 28 19 38 17 13 30 20 10 27 13 20 20 10 13 10 13 16 27 27 17 31 12 27 20 3 16 34 16 15 24 16 21 20 20 14 23 23 23 15 15 28 19 18 17 21 22 16 24 19 21 6 20 17 24 26 24 17 21 26 14 34 20 17 20 20 20 33 27 17 24 20 7 23 7 21 27 6 13 22 17 13 16 17 31 27 10 20 24 14 17 20 27 16 24 28 26 10 23 16 16 20 0 12 17 22 16 26 33 26 17 17 24 17 13 18 17 17 21 3 10 17 10 23 13 21 10 14 10 38 9 6 24 13 23 13 14 34 23 12 38 24 35 24 16 3 16 14 12 13 26 30 24 27 23 24 16 17 31 30 20 6 28 16 9 16 27 18 26 13 8 23 14 19 20 20 21 22 21 27 15 14 24 27 17 32 17 12 19 13 20 23 3 23 26 0 21 30 24 7 10 20 27 23 24 6 21 16 33 13 22 10 10 18 21 6 19 24 2 35 20 24 24 17 28 20 11 21 21 23 34 26 27 23 24 17 10 20 24 21 22 37 28 27 7 14 10 24 16 17 13 29 24 24 16 23 23 14 20 16 7 24 15 20 6 22 13 16 17 17 34 14 24 10 17 20 20 10 13 10 23 20 7 10 23 33 24 34 20 24 6 31 13 3 7 20 41 16 18 12 21 10 25 17 31 24 9 30 9 31 31 34 16 20 19 27 27 17 30 22 13 27 22 3 17 14 16 17 20 16 3 23 9 27 10 6 27 24 15 24 9 7 22 24 9 22 20 16 21 24 23 14 34 15 10 15 20 38 24 23 10 23 16 6 13 27 14 10 17 20 17 20 24 38 21 24 31 20 20 16 21 17 22 17 13 6 31 15 21 21 23 14 18 16 9 12 33 11 23 16 16 16 24 34 22 30 17 35 16 14 19 19 29 13 16 23 18 6 17 14 26 26 23 20 24 31 10 17 6 20 37 20 23 9 9 28 10 24 20 22 23 20 19 27 22 19 6 10 13 31 21 20 13 24 17 31 37 14 22 20 23 20 33 27 24 14 17 13 13 23 24 10 15 16 9 27 23 24 37 19 23 17 17 17 16 27 13 10 23 7 13 30 17 24 17 20 14 24 9 14 24 21 21 16 17 19 16 13 17 15 13 18 28 29 10 14 13 20 17 30 20 10 20 19 23 14 27 17 24 24 23 34 16 31 16 0 21 6 23 13 27 10 23 16 24 10 13 24 10 27 17 13 16 17 23 24 13 13 26 37 12 20 34 20 24 10 31 6 14 23 16 28 27 16 20 12 27 24 17 20 10 9 25 25 10 27 24 7 12 24 20 14 17 15 21 17 30 24 24 13 10 10 25 10 13 14 21 13 31 17 14 14 20 20 13 10 13 17 31 16 24 30 16 33 7 3 24 7 30 34 20 20 31 19 27 24 21 20 14 12 25 37 6 23 17 10 9 15 31 6 23 17 10 6 27 24 22 14 37 12 20 20 24 14 26 9 17 21 20 13 16 23 34 17 12 12 13 27 7 35 23 9 11 17 20 26 23 16 19 22 14 6 16 17 21 24 14 17 20 30 26 16 36 17 23 38 13 19 28 13 20 20 14 27 29 30 16 19 7 23 10 10 10 21 16 30 21 23 19 24 24 26 7 27 41 18 12 17 24 6 37 25 13 24 31 17 6 14 23 6 20 31 17 13 13 37 17 24 24 27 6 17 23 24 3 45 29 23 21 29 20 24 10 16 20 35 12 24 27 24 12 13 7 26 35 33 20 17 42 24 20 28 20 24 14 17 29 34 10 13 13 3 21 16 20 16 28 16 20 16 41 24 27 35 6 16 20 23 27 33 25 20 20 17 19 35 31 3 27 13 23 28 17 26 19 20 16 13 16 34 10 7 29 20 27 13 3 24 27 17 23 30 23 22 13 24 24 22 20 13 24 31 6 24 28 24 27 28 16 24 17 16 16 7 27 17 14 30 24 20 17 35 21 13 6 14 31 13 25 17 23 23 31 24 13 20 24 23 27 29 7 21 17 12 31 17 25 19 23 17 34 27 19 17 20 16 17 20 18 26 27 13 27 26 21 17 13 15 41 20 24 27 20 12 17 34 31 13 22 17 8 21 19 17 3 23 27 14 27 17 21 15 15 33 17 26 38 31 24 3 12 17 15 20 17 13 15 16 13 27 17 17 17 20 3 16 14 28 28 20 24 24 31 19 9 14 12 24 20 29 34 10 23 24 22 10 3 21 34 17 13 20 20 17 9 26 37 38 17 10 14 17 9 13 32 26 23 13 6 29 0 41 19 10 13 19 7 19 30 17 19 23 0 22 38 27 19 10 13 20 13 24 15 31 25 20 24 27 17 17 20 10 23 22 23 30 24 17 13 20 23 21 20 13 20 31 31 16 20 27 17 15 3 24 24 28 16 13 16 24 15 24 31 17 17 19 26 8 10 31 31 20 17 6 19 22 17 11 10 17 17 14 6 8 21 26 20 13 17 28 20 13 20 14 30 28 10 6 20 17 14 20 25 9 13 30 21 23 22 31 20 27 0 14 17 18 14 21 16 15 31 20 10 14 27 31 27 26 16 9 24 9 13 15 7 13 27 18 34 15 41 13 35 13 34 20 24 23 17 24 12 21 24 11 10 18 10 21 21 24 19 14 29 23 24 16 25 23 21 30 20 17 16 21 17 27 20 12 27 17 20 27 25 0 30 26 23 17 17 24 17 10 14 13 17 7 14 20 18 6 21 25 23 17 21 27 15 10 30 20 16 17 3 13 26 6 24 27 23 21 23 17 17 20 23 28 35 17 37 16 24 16 27 24 12 31 16 19 12 20 28 24 24 27 24 17 21 16 13 13 24 7 14 27 20 24 27 38 12 29 9 6 31 17 15 23 17 13 16 23 16 26 12 20 13 20 20 25 34 31 16 30 27 17 16 20 14 12 28 20 10 27 31 22 27 24 3 9 36 31 17 10 15 23 35 15 17 18 28 19 17 24 20 17 24 13 20 23 12 7 13 25 10 16 30 19 14 24 9 20 20 17 13 21 28 14 31 26 23 28 12 23 31 17 16 45 20 16 23 25 17 34 21 28 13 24 14 24 27 16 21 20 20 10 9 12 12 25 17 20 22 23 14 10 34 19 36 36 7 13 19 27 25 24 13 17 17 38 17 9 17 20 19 10 17 30 32 27 34 13 31 24 26 13 23 24 10 17 27 27 13 24 27 24 28 31 21 10 23 45 21 23 10 13 13 33 13 34 20 10 20 23 3 30 30 10 16 27 20 6 17 27 10 10 17 26 31 31 11 27 31 20 17 17 25 23 39 27 16 12 24 23 26 21 20 14 44 23 24 27 23 31 17 28 19 19 27 20 13 19 20 21 20 25 16 31 25 37 22 23 31 28 27 31 21 15 9 22 25 22 27 20 27 20 26 28 24 35 13 24 24 21 27 27 31 21 10 7 3 27 20 24 20 27 13 13 17 21 16 22 6 31 21 28 30 35 21 17 3 13 20 17 20 27 20 29 19 20 12 8 24 20 31 29 27 23 31 19 20 19 13 20 24 10 9 22 13 20 16 16 10 10 20 27 17 10 20 16 16 9 21 34 22 27 13 14 34 20 23 16 13 24 24 20 23 23 31 13 23 13 34 34 34 13 20 24 26 16 17 23 7 17 20 45 27 13 21 23 24 18 20 27 17 24 11 17 35 9 15 17 6 20 30 28 17 22 6 18 12 30 21 18 15 24 24 17 16 31 17 20 27 19 14 13 16 13 14 35 30 13 24 24 17 20 20 24 10 22 28 15 13 27 20 31 19 17 18 21 19 15 38 23 23 20 9 13 17 17 13 23 10 16 17 24 31 27 26 13 10 11 31 16 13 17 19 34 13 16 24 23 27 23 30 23 8 20 23 3 10 18 17 17 45 24 26 16 13 12 23 10 13 16 10 19 16 13 28 16 24 27 37 31 3 23 14 21 20 17 14 17 20 34 3 13 10 20 26 17 19 10 21 24 16 20 14 23 28 21 13 28 34 11 14 10 17 16 32 20 10 20 23 18 27 31 47 14 21 17 22 20 18 28 27 16 17 16 27 13 20 14 27 20 19 14 25 10 10 19 17 16 34 24 16 23 28 16 31 13 20 27 15 20 27 23 23 30 9 17 45 21 14 18 17 17 27 17 38 23 20 20 24 23 27 20 28 26 16 6 20 16 28 10 18 14 27 9 17 8 34 20 13 20 14 16 30 10 3 20 24 20 23 19 26 20 27 6 17 6 27 20 12 21 17 16 14 34 10 42 34 16 24 30 6 34 6 20 33 24 19 7 20 9 13 20 15 27 31 7 3 14 17 26 24 28 17 34 20 21 20 24 7 21 12 13 17 9 23 21 24 14 15 13 17 27 23 14 23 6 21 16 10 19 13 10 34 21 3 17 17 28 24 7 33 12 19 24 23 13 24 6 10 21 20 21 31 31 18 24 10 16 13 24 27 20 13 31 12 13 16 25 14 33 24 31 27 17 10 7 27 26 3 16 23 25 20 17 13 20 17 18 17 41 13 27 20 28 11 24 27 23 31 9 9 11 15 9 23 42 20 14 13 32 17 27 12 17 34 17 6 15 23 18 15 30 24 38 20 9 19 20 3 13 30 23 13 21 16 17 6 28 13 16 38 15 24 13 12 21 24 41 7 13 6 26 20 17 30 9 27 10 24 7 24 19 31 19 10 23 17 17 6 17 13 31 14 21 17 21 3 17 34 13 17 13 32 23 16 6 14 37 23 33 20 23 21 34 34 17 17 22 15 24 18 23 27 15 20 13 25 10 17 20 3 27 18 14 13 14 10 16 20 23 16 16 10 21 17 13 13 24 14 10 20 31 9 27 17 14 6 34 23 26 17 21 12 20 17 17 22 22 26 0 16 20 13 17 24 26 34 10 26 23 13 31 10 13 18 14 31 31 31 30 17 23 21 20 18 13 3 11 3 30 15 21 30 3 24 23 20 7 17 23 24 37 3 21 6 13 20 27 27 9 16 24 16 55 21 20 10 14 3 17 10 23 20 38 20 19 17 34 20 19 25 12 17 24 31 30 21 31 21 27 30 17 27 27 24 13 16 19 23 16 28 17 28 14 27 14 13 21 20 17 19 17 30 31 24 10 16 10 10 25 20 24 24 6 13 19 25 29 25 14 24 21 10 28 17 28 28 24 14 16 17 16 30 30 27 23 22 13 11 11 19 10 16 13 16 28 20 17 10 29 17 7 20 9 9 23 25 20 16 27 14 24 24 17 18 14 24 17 20 17 13 13 24 27 7 24 41 9 24 23 19 21 21 10 27 26 29 28 17 10 17 18 20 27 17 28 24 21 17 3 28 21 15 21 6 6 20 27 24 24 21 24 24 30 10 9 13 9 29 30 10 6 12 31 21 13 14 28 10 9 18 30 13 13 17 30 16 13 26 38 20 34 23 21 23 23 17 10 16 21 17 24 17 24 14 24 21 26 20 26 20 27 13 30 17 30 27 10 20 29 27 21 17 24 10 16 19 24 17 21 27 42 17 16 24 7 9 19 25 24 12 20 17 7 35 24 13 26 24 16 28 27 3 26 13 6 9 14 20 24 34 23 24 17 7 38 20 17 23 28 10 31 31 17 31 12 24 27 20 17 9 17 16 10 30 28 22 16 7 16 21 17 24 27 30 20 23 14 24 33 19 9 26 44 21 23 16 17 38 28 30 6 14 31 14 25 37 24 10 19 20 30 42 30 17 21 13 6 21 21 3 13 19 26 16 7 9 38 37 10 6 30 17 37 18 27 7 10 10 30 24 10 27 24 21 16 17 26 24 0 23 14 9 13 31 17 12 13 23 9 9 10 17 35 21 28 6 28 13 23 9 14 35 35 15 30 20 24 14 19 0 27 10 10 24 10 31 33 20 11 17 23 24 38 23 30 30 19 20 17 23 20 17 24 35 22 13 21 27 20 0 20 14 17 17 13 27 10 26 12 17 23 21 10 33 27 17 23 19 16 20 16 22 23 21 21 16 17 17 38 31 28 14 20 29 23 30 13 14 17 20 12 13 10 20 23 21 31 38 27 17 9 7 28 13 33 17 13 3 20 26 10 19 3 28 24 20 16 16 3 24 23 17 19 13 23 6 17 24 13 31 17 10 35 7 24 20 26 24 24 20 20 20 13 22 13 14 23 35 23 21 34 24 22 7 18 17 23 20 20 30 15 30 27 27 10 21 24 20 14 24 27 9 20 13 27 13 34 26 24 28 13 17 37 21 27 3 16 28 23 7 17 16 10 9 21 17 23 6 27 20 7 17 10 26 17 35 3 29 14 16 16 38 27 17 16 26 9 13 24 23 14 17 20 14 24 24 17 14 24 21 17 17 17 16 14 27 23 27 3 25 14 20 12 13 21 28 13 17 23 24 30 11 10 26 26 19 31 10 21 20 24 17 19 30 34 24 23 19 17 24 13 17 10 13 21 13 6 7 9 14 27 27 15 27 20 14 24 21 10 9 20 20 9 7 11 17 18 34 32 24 36 31 25 28 38 24 15 12 16 27 14 16 35 24 10 6 21 16 26 30 24 21 14 27 20 13 12 27 17 15 12 24 13 20 15 23 17 16 15 30 25 30 17 27 23 14 21 10 27 16 17 17 20 24 28 20 34 27 16 23 20 7 10 24 13 23 13 21 24 9 14 21 13 17 20 24 20 20 18 10 23 23 20 17 18 17 25 19 17 29 20 10 10 13 23 16 17 18 6 2 24 14 10 22 31 16 19 17 18 12 14 6 6 14 24 20 10 12 16 20 13 24 13 20 14 16 23 24 30 33 17 24 21 10 29 33 17 17 9 29 24 17 20 16 6 21 20 17 21 30 10 16 13 6 21 26 11 27 24 31 27 6 23 13 17 17 20 22 14 24 6 16 41 17 24 24 31 26 25 27 23 34 31 24 19 24 24 7 17 31 13 28 23 18 19 20 24 10 20 13 12 28 28 29 6 10 10 17 24 23 13 38 27 13 13 19 8 15 38 10 12 10 24 20 24 13 17 21 22 24 24 7 20 31 20 34 20 20 10 13 21 34 11 27 33 11 20 31 24 17 10 14 24 17 26 22 18 9 26 23 14 24 6 6 24 34 6 12 16 7 31 23 40 17 30 27 12 35 30 9 21 24 31 14 28 24 24 6 17 11 27 20 24 13 24 16 20 15 27 17 16 19 0 20 31 10 23 16 20 26 20 23 17 33 30 9 16 16 21 10 10 19 24 17 14 31 20 11 11 6 20 29 18 25 33 15 20 6 17 9 13 25 27 20 23 17 24 23 6 14 24 20 6 24 21 17 22 17 31 45 34 27 20 17 17 24 19 20 31 21 20 10 15 13 34 17 26 0 24 23 34 27 16 17 24 19 19 31 26 10 24 24 27 19 20 6 27 31 10 26 24 15 0 6 17 13 21 29 10 16 9 19 3 19 31 10 20 16 17 21 17 6 21 24 22 15 27 27 11 10 32 9 13 17 36 27 20 30 17 27 24 6 20 21 27 19 21 16 17 13 20 9 27 20 17 22 0 17 14 15 17 18 20 17 13 6 10 13 23 17 3 11 13 12 28 20 12 16 6 17 14 13 9 6 23 35 24 19 22 19 12 27 16 3 13 27 16 14 31 23 27 14 14 6 14 25 24 15 30 10 27 31 27 7 27 21 37 17 30 23 17 19 18 30 19 17 24 21 20 19 27 24 20 33 33 29 20 18 15 24 17 27 10 16 10 13 27 7 14 28 17 31 3 34 31 13 8 21 34 34 20 23 12 16 35 27 8 17 22 16 18 35 28 14 13 17 10 21 13 17 6 16 10 14 13 20 25 34 17 20 34 27 23 21 18 27 9 17 14 31 24 17 20 20 24 23 15 42 23 27 12 23 13 32 8 31 14 3 18 20 24 19 23 21 25 27 16 16 22 13 30 21 6 21 22 24 38 13 30 20 19 14 27 27 17 26 19 23 24 19 17 30 24 21 21 34 17 22 20 27 14 24 19 24 17 15 17 17 27 21 19 9 20 23 24 10 13 22 10 14 33 10 20 17 18 3 7 34 17 28 21 17 13 16 24 28 14 17 22 16 27 28 24 11 34 9 14 24 34 24 18 10 17 10 31 15 21 27 17 17 13 27 33 22 3 31 14 23 41 12 27 25 22 16 26 26 17 16 16 14 21 17 21 9 3 17 12 9 17 15 23 27 20 16 16 26 24 14 13 16 17 24 31 27 20 8 17 13 12 23 17 20 20 31 10 21 20 24 17 7 25 12 28 24 30 14 17 10 13 12 22 20 22 28 21 13 13 25 17 16 22 31 20 19 21 6 10 24 14 17 28 31 34 17 13 17 28 14 13 34 23 16 9 24 18 31 14 27 10 24 20 6 19 14 31 31 17 17 28 27 24 27 15 14 10 24 27 27 11 23 10 12 14 17 31 27 13 21 23 10 38 10 17 13 25 27 20 27 13 34 20 20 14 24 17 20 24 17 7 23 23 12 20 10 16 27 7 24 7 29 17 20 21 7 31 41 31 14 32 34 20 23 16 10 10 17 21 20 23 37 20 26 13 13 24 27 14 16 17 20 27 38 20 21 13 7 2 22 31 27 28 20 13 17 24 31 33 14 25 16 28 22 41 10 14 12 24 30 20 16 3 23 10 21 37 10 16 16 24 3 20 38 19 31 20 6 16 27 26 13 30 24 10 35 6 27 24 24 23 23 7 12 16 13 20 20 26 14 20 10 21 20 34 33 24 24 37 19 16 34 27 34 17 30 6 34 21 21 31 13 23 23 20 20 24 27 10 21 13 3 12 14 7 33 24 34 13 27 17 21 17 17 17 17 17 10 20 23 33 10 28 13 27 18 27 10 25 12 17 23 24 20 24 17 21 28 10 15 31 27 16 6 23 34 16 27 14 10 15 27 38 11 41 29 20 12 31 20 16 16 27 31 34 24 38 30 23 16 32 26 16 19 13 24 11 3 14 13 31 37 5 16 14 21 3 9 12 17 31 24 7 16 25 17 24 35 3 23 13 17 24 13 14 20 30 7 6 6 28 10 17 21 29 21 14 31 13 21 9 7 13 27 17 24 17 24 33 27 24 14 17 17 28 10 27 14 17 16 13 45 16 27 16 17 35 24 35 24 3 30 15 26 13 20 14 17 10 22 27 21 31 21 17 17 22 16 28 17 6 31 16 13 16 14 28 14 30 13 21 19 27 24 0 20 24 13 7 20 7 9 21 21 38 20 24 31 27 29 6 24 27 34 21 17 14 27 15 16 13 31 22 16 33 13 7 16 34 17 24 14 30 24 3 18 31 6 6 20 18 31 20 24 10 14 12 16 19 16 7 16 35 31 29 16 16 8 15 20 26 17 13 23 13 17 19 17 14 17 20 7 13 14 13 17 19 17 16 24 24 27 27 7 30 23 20 27 19 19 17 18 37 20 17 27 20 9 16 26 14 26 13 20 10 17 17 24 24 3 17 27 14 26 17 11 23 27 16 22 21 24 24 6 8 35 3 27 12 33 24 25 14 19 14 19 34 29 17 9 37 0 20 33 30 17 19 20 6 26 26 16 20 27 23 10 38 23 23 25 13 37 17 37 20 22 31 24 44 12 9 16 24 23 12 16 27 20 35 15 24 24 31 24 7 6 10 0 20 31 14 17 13 16 17 19 19 17 10 12 17 22 30 10 27 16 24 20 12 23 27 17 25 13 13 20 23 27 20 16 13 26 22 10 21 17 16 17 17 23 22 27 20 27 11 13 13 23 10 17 10 20 25 20 20 17 27 21 18 10 17 10 26 17 28 27 13 14 30 17 17 25 17 37 21 16 14 17 31 0 28 21 24 15 28 7 15 20 24 33 6 20 10 19 21 23 20 14 7 16 15 21 20 16 14 22 24 34 20 21 20 27 18 20 35 8 12 27 17 17 17 16 34 3 10 13 10 13 19 12 30 28 14 13 20 35 18 13 27 19 21 38 27 24 21 16 17 21 10 20 31 16 20 13 27 16 24 20 21 27 9 6 12 16 11 14 37 26 36 24 13 28 24 17 28 20 23 17 20 20 34 26 16 20 18 13 10 37 31 28 16 23 32 31 17 26 16 23 9 35 24 26 16 17 7 24 21 14 27 21 14 21 15 27 9 13 27 13 9 34 16 18 14 20 14 24 14 17 21 28 30 31 17 28 15 23 13 21 24 13 16 26 14 31 24 23 11 14 26 31 31 23 17 20 21 10 20 30 19 10 20 0 24 3 20 6 20 20 20 17 21 21 24 31 20 20 14 9 24 9 13 16 23 16 13 10 21 12 20 35 14 24 21 24 28 13 21 21 17 28 13 13 18 30 19 13 16 19 15 6 10 10 23 27 27 24 13 21 21 14 14 23 13 7 38 16 20 5 17 31 14 37 16 21 23 12 10 13 12 17 23 29 34 10 24 14 17 23 7 27 19 12 30 13 14 13 10 19 14 23 24 30 22 20 19 24 27 20 6 21 12 24 26 17 24 20 24 3 13 27 7 17 20 24 14 20 17 17 14 6 10 13 6 27 27 28 24 19 31 30 18 10 17 13 21 13 16 15 17 20 28 28 28 21 6 17 17 31 27 9 23 21 20 18 17 17 9 13 3 26 16 10 17 7 26 21 31 20 38 17 23 20 26 24 20 9 31 31 22 10 25 24 26 27 19 13 29 27 8 21 21 28 9 9 14 26 7 27 17 14 20 14 19 13 13 21 9 19 17 13 17 23 28 9 24 0 17 30 14 17 13 28 25 19 23 16 19 28 21 27 20 12 29 10 17 30 17 10 16 9 13 14 25 35 24 20 24 7 6 20 17 21 20 13 17 20 24 21 23 27 19 17 3 38 17 13 31 22 24 17 17 13 10 10 34 9 34 24 24 22 24 17 28 17 20 22 6 14 24 10 16 24 17 19 13 23 12 10 17 16 13 16 28 26 13 20 23 24 9 23 17 37 17 10 20 18 17 11 23 7 27 24 17 20 14 13 24 24 21 9 10 30 17 16 35 24 21 17 9 17 17 17 12 24 17 17 9 15 34 17 14 29 20 28 27 12 16 38 21 3 14 27 20 28 23 17 7 30 13 13 21 28 26 14 27 6 25 21 19 10 10 20 25 10 20 20 13 15 20 17 19 14 7 19 17 37 6 20 17 34 21 12 13 9 27 24 10 27 13 13 29 16 24 31 6 10 10 23 3 10 17 20 9 13 27 10 23 30 13 10 31 23 20 6 24 14 41 24 7 24 20 24 13 20 0 17 19 24 17 21 3 17 20 19 31 13 21 22 3 20 29 27 10 13 20 18 23 13 37 3 24 9 13 13 24 17 16 6 14 37 27 24 17 17 13 14 20 30 17 6 9 19 14 24 13 16 19 27 13 34 12 34 9 25 12 17 24 13 9 10 17 30 35 13 21 18 13 7 13 19 21 16 17 3 13 22 13 31 10 17 27 18 13 10 31 17 23 9 19 23 3 33 28 20 24 26 20 27 21 16 9 21 21 23 26 17 24 12 15 13 10 3 33 12 16 17 13 17 14 13 10 24 22 13 20 21 20 6 30 20 13 23 22 28 23 28 24 21 27 15 34 24 14 17 27 20 19 19 34 27 20 24 19 14 13 24 16 13 23 13 9 17 28 3 26 24 9 20 17 24 29 13 24 26 17 13 31 24 16 20 13 23 26 10 20 18 31 17 30 19 23 13 26 28 38 28 24 17 38 19 7 23 38 11 19 9 21 14 21 37 21 16 31 16 10 32 7 20 17 19 20 20 28 15 10 14 18 22 13 17 21 17 20 17 20 27 9 12 14 7 10 20 9 31 10 24 49 17 17 20 13 31 21 14 24 35 21 14 18 27 34 26 14 18 17 13 16 16 27 24 3 35 20 23 3 41 20 29 27 21 10 39 19 14 27 10 27 44 19 15 24 41 16 34 19 17 20 16 13 28 20 14 32 17 21 21 27 22 31 22 14 21 17 14 28 24 17 24 19 26 13 17 23 14 13 14 10 21 19 19 14 16 27 16 13 20 20 19 39 17 17 19 25 16 10 24 20 15 10 35 14 24 20 16 24 31 13 31 17 24 27 30 30 13 28 27 24 30 29 21 20 24 13 33 7 13 19 14 26 14 20 16 24 17 31 17 14 16 33 17 16 19 13 8 30 24 33 13 24 17 10 17 27 25 16 18 32 14 6 21 16 10 33 10 22 16 21 20 20 15 16 21 19 34 33 16 13 20 10 19 3 21 14 31 16 20 10 17 10 27 23 20 17 18 21 17 17 9 17 16 19 38 22 24 13 27 17 34 9 21 13 21 21 16 23 9 20 15 33 21 16 38 17 28 10 10 30 24 34 15 3 21 13 16 27 34 17 35 19 21 18 20 20 23 20 31 16 13 21 24 13 27 10 17 27 20 39 15 34 17 20 20 38 6 20 31 14 9 20 20 38 23 3 18 23 27 20 13 24 7 21 13 22 16 21 37 14 20 20 20 29 10 10 17 17 13 21 10 27 17 23 17 13 28 21 23 3 31 15 17 17 20 10 13 6 11 23 23 24 25 13 13 21 16 31 17 16 20 13 20 14 34 10 14 16 20 0 9 20 20 10 13 16 31 8 24 13 10 31 7 23 26 23 18 34 10 13 17 15 29 21 23 13 27 10 17 26 12 19 31 20 17 7 17 20 17 17 33 17 19 30 10 26 24 20 16 26 34 38 13 28 21 10 24 31 20 17 14 17 27 24 7 27 13 15 24 9 37 31 21 13 6 20 13 17 15 17 6 7 18 17 16 34 14 31 20 16 14 23 22 27 27 24 10 18 20 41 20 7 10 20 22 14 20 23 23 21 27 21 22 22 21 17 14 17 26 3 29 16 27 24 16 17 18 19 12 15 27 23 24 34 6 27 23 17 38 14 26 20 18 17 31 20 20 12 27 18 22 3 16 7 23 24 27 34 24 14 17 23 17 6 16 14 20 21 24 7 17 10 20 10 23 20 13 23 27 23 7 27 17 22 24 35 20 20 22 20 6 16 0 30 14 17 30 37 15 12 12 33 14 20 27 41 16 16 43 28 20 24 14 31 6 37 23 13 19 27 9 3 34 23 49 10 23 31 20 29 24 13 34 20 6 27 15 28 19 10 14 17 3 17 29 18 24 13 10 17 26 20 17 17 28 30 14 28 6 13 24 22 6 16 21 10 14 21 31 23 7 7 17 34 16 7 30 38 14 20 12 30 13 34 20 24 16 13 24 13 17 17 21 24 6 27 13 19 30 20 16 10 17 24 7 6 3 26 17 21 17 13 20 15 21 16 16 17 21 16 42 18 13 24 9 31 10 9 27 30 9 13 27 17 23 27 17 17 13 13 27 27 38 20 10 6 24 17 6 27 13 21 18 14 17 14 30 33 31 17 17 28 26 31 23 20 22 23 16 13 24 14 24 10 24 7 31 27 22 20 14 38 20 25 29 21 17 27 21 20 27 23 20 20 14 24 24 13 3 17 13 19 10 23 20 17 34 10 16 23 30 27 20 20 10 40 38 21 24 21 21 25 28 31 20 22 24 29 10 31 14 17 28 13 20 34 34 9 6 27 29 21 20 15 17 19 31 31 21 27 17 19 29 14 13 21 34 10 18 27 21 11 24 23 18 21 13 14 24 34 20 17 16 16 20 14 24 23 21 24 12 6 27 27 10 16 24 7 21 18 27 28 14 20 28 20 17 10 7 10 17 29 19 24 17 29 24 35 23 21 17 14 16 10 17 28 31 31 22 16 24 13 13 13 20 23 17 31 21 27 13 21 13 25 21 13 18 24 31 18 12 13 10 24 20 6 41 24 16 33 14 20 17 20 27 14 16 20 21 17 17 13 17 20 17 17 27 20 20 18 16 19 14 28 14 21 17 16 24 9 14 20 24 24 21 13 17 23 31 17 21 24 14 10 13 13 21 27 21 28 16 26 13 13 10 24 23 24 28 7 17 24 20 10 17 21 27 10 16 20 20 20 16 20 14 30 31 24 24 37 27 27 28 17 33 17 16 31 17 24 13 30 24 20 14 34 27 17 13 20 7 24 17 33 21 24 13 10 17 17 10 13 27 13 24 23 12 23 13 24 17 13 21 24 17 24 12 25 27 20 17 16 28 28 14 21 20 25 21 38 24 17 17 24 21 7 38 21 24 23 6 12 16 10 10 17 20 21 18 17 10 23 20 27 38 20 27 21 34 13 19 7 16 3 19 14 28 27 27 6 38 17 14 14 27 17 14 19 17 20 21 29 16 31 24 16 18 20 23 28 10 15 7 13 23 27 17 20 30 10 24 29 31 23 6 3 21 31 24 23 13 13 7 0 23 23 24 16 21 28 33 31 20 27 20 27 17 27 14 38 23 3 23 19 17 22 24 13 13 16 6 28 16 19 19 6 20 19 26 17 13 21 38 38 17 30 26 23 28 20 13 26 20 34 12 31 6 27 17 17 10 26 23 20 10 23 15 21 23 14 17 20 30 20 40 18 24 20 13 23 22 31 14 31 26 16 17 24 20 27 19 20 18 20 30 15 24 17 15 27 24 23 28 20 9 21 17 13 3 24 13 20 23 21 9 27 9 13 10 6 7 10 12 37 31 3 6 20 16 17 13 20 16 13 14 16 13 6 17 24 13 21 6 24 17 14 13 17 30 3 17 14 17 16 19 9 16 24 9 17 27 17 20 20 9 19 10 21 23 13 17 21 27 27 30 20 19 19 26 13 14 10 23 22 14 20 20 15 19 7 27 37 15 16 21 10 9 24 31 19 10 21 30 24 30 13 13 17 16 23 29 17 17 24 31 17 17 19 17 10 21 13 12 15 9 24 27 18 10 15 9 6 16 14 33 13 21 9 14 34 13 22 26 13 11 24 10 21 19 24 9 17 22 34 25 13 16 10 24 6 33 17 18 13 24 20 27 20 21 27 17 27 19 20 16 19 17 20 14 17 24 24 10 33 24 20 17 24 9 6 38 13 21 41 30 13 23 29 13 17 13 13 16 16 20 26 10 19 23 11 29 18 24 24 13 20 28 19 24 27 37 20 20 6 19 17 22 27 6 21 21 16 21 14 28 22 29 31 12 7 20 14 27 20 20 17 24 11 24 14 28 23 7 16 16 31 15 12 15 17 13 21 14 34 20 3 35 7 24 20 13 22 29 17 13 24 28 17 17 22 10 11 23 32 16 20 13 23 23 6 3 16 10 12 17 23 20 21 20 24 9 27 19 21 10 17 13 20 13 20 12 20 28 30 19 9 16 7 12 20 29 28 27 20 16 25 27 31 17 9 10 16 3 14 16 18 31 12 31 28 21 23 10 18 31 21 6 20 19 24 38 28 26 41 20 27 21 20 22 19 17 22 42 13 18 16 24 13 24 24 9 24 20 24 22 17 27 31 21 19 6 16 6 6 19 14 35 23 20 20 11 26 24 26 21 25 17 3 31 10 16 21 14 12 17 26 13 35 17 9 27 37 31 24 33 13 13 19 34 27 26 21 14 28 26 20 20 10 10 14 21 16 24 6 10 23 30 16 25 13 31 25 23 23 27 17 3 14 18 21 17 17 20 14 13 24 20 24 13 17 18 17 13 20 19 30 31 30 28 43 25 35 21 17 10 20 20 7 23 24 23 24 21 17 26 14 10 27 24 3 24 9 13 37 9 13 24 14 13 25 14 26 18 27 24 21 10 24 23 14 19 21 24 21 31 14 24 9 24 10 22 35 31 10 35 21 10 21 13 20 14 14 19 41 0 16 28 10 27 17 10 16 10 12 19 20 16 16 24 17 28 34 49 19 22 13 14 3 23 28 26 38 48 16 13 34 17 27 31 17 30 21 7 26 20 3 26 22 10 15 17 10 10 20 13 17 11 19 13 35 23 31 33 16 23 26 24 34 27 13 13 24 31 10 26 20 24 20 23 15 18 25 23 38 17 23 20 16 20 16 20 13 21 17 25 13 27 13 17 16 13 24 31 26 23 20 11 7 15 13 19 16 20 27 20 34 21 14 20 17 10 20 21 10 30 28 17 31 20 14 34 22 12 22 24 14 20 33 16 23 23 23 12 23 24 3 20 3 20 0 13 20 10 20 13 13 16 13 15 33 23 20 19 17 26 22 17 35 7 18 12 30 24 13 17 0 16 34 14 16 19 14 17 18 23 14 14 24 15 25 27 23 16 20 16 13 21 17 28 12 19 16 34 35 13 12 20 17 21 20 20 17 20 35 13 17 17 16 16 17 10 21 23 13 22 24 30 22 28 23 20 42 13 28 16 23 16 9 31 16 31 11 20 30 30 23 13 20 18 17 23 17 17 34 6 26 15 41 14 23 6 19 16 17 28 13 17 17 23 6 20 28 16 20 6 30 30 24 27 7 17 27 31 13 13 16 17 11 3 19 26 23 22 22 21 23 19 18 20 24 23 17 21 3 31 14 20 27 31 17 30 20 12 26 22 13 27 10 19 17 24 13 10 31 13 9 10 17 24 7 20 21 17 26 14 17 44 17 17 31 20 28 11 8 24 16 17 6 17 23 44 30 29 19 28 16 16 12 7 34 16 9 29 20 20 16 13 10 17 17 21 38 28 20 30 25 9 34 26 20 21 10 24 13 24 38 20 23 31 13 27 23 13 24 16 28 7 16 15 34 31 35 27 0 30 22 24 13 21 17 24 15 27 13 24 16 23 10 10 17 31 23 20 28 20 31 20 14 21 10 20 10 16 34 20 10 21 27 21 10 27 17 29 10 17 28 23 28 17 17 17 9 19 10 13 16 20 3 16 14 13 17 27 24 10 15 27 23 23 16 24 17 9 6 10 27 34 39 29 0 31 19 28 23 23 24 14 31 29 24 13 30 28 20 13 19 17 16 19 15 17 27 26 13 10 21 26 24 27 28 6 7 13 17 10 20 24 23 13 42 16 23 14 23 20 14 23 24 23 9 20 17 31 13 7 24 17 26 19 10 0 17 26 30 20 10 16 16 26 20 24 23 6 15 21 9 0 19 23 23 19 24 24 21 16 27 20 20 13 10 13 14 12 38 22 37 21 21 20 20 27 17 13 17 20 17 27 13 17 14 44 13 14 21 7 20 3 19 38 24 10 17 20 16 15 14 24 17 14 16 13 16 31 10 17 31 21 23 27 10 20 31 30 14 20 26 13 10 17 14 10 13 28 27 20 12 27 13 16 28 38 3 27 20 16 20 16 37 7 20 23 14 3 3 27 14 17 6 29 6 20 3 34 20 17 14 29 27 11 29 17 23 23 30 28 31 37 18 17 13 20 18 29 10 14 21 10 14 24 21 34 14 15 17</t>
-  </si>
-  <si>
-    <t>JSB(1.0589573353227926, 4.010304768274523, -7.684632211471359, 71.91360803904041)</t>
-  </si>
-  <si>
-    <t>25 21 20 22 30 26 15 18 18 34 19 19 24 18 15 25 24 26 18 20 25 25 29 21 31 31 16 20 12 18 21 17 26 22 29 32 26 17 22 28 26 25 29 32 27 31 33 31 19 27 22 23 26 15 16 35 27 20 20 26 27 17 26 26 25 22 26 25 22 22 31 28 19 23 21 19 18 22 25 27 21 24 23 21 13 28 20 18 24 27 24 22 21 27 16 29 25 23 15 30 15 28 27 15 20 21 22 16 30 24 23 16 26 20 25 21 22 30 22 27 27 16 14 22 21 17 25 23 21 19 25 24 21 25 17 21 29 23 18 17 19 26 24 24 14 24 17 28 21 20 26 22 15 24 24 20 27 30 23 25 14 27 18 24 25 27 20 15 12 29 20 26 21 22 29 19 22 22 14 21 26 24 25 18 25 27 18 23 26 19 24 26 19 18 25 18 31 23 15 17 19 34 23 25 28 27 20 23 17 29 19 21 25 20 26 27 29 29 23 21 22 30 25 22 24 21 33 16 17 27 26 18 22 25 21 21 29 15 25 21 21 24 25 19 25 26 27 22 27 24 23 32 23 23 25 22 27 20 24 20 22 23 19 17 24 22 21 27 24 23 27 31 23 20 31 23 27 16 12 23 31 24 24 23 20 28 26 25 15 29 25 21 27 17 24 26 21 22 25 24 26 26 23 24 24 23 22 23 29 21 29 32 28 33 18 29 25 18 22 19 31 26 24 28 29 25 25 24 21 22 28 24 26 26 27 29 29 26 26 24 30 24 26 18 21 31 26 25 18 24 24 20 32 34 27 21 24 17 28 25 27 27 26 18 24 21 25 18 24 12 21 22 26 19 17 30 21 24 26 27 27 27 21 23 18 28 24 22 22 33 25 27 18 24 20 20 31 24 33 22 22 23 21 21 22 22 28 27 27 19 28 26 19 18 28 20 24 23 19 27 26 25 27 26 24 21 19 25 25 25 26 17 16 21 18 25 24 21 22 26 18 22 25 21 24 25 25 23 24 25 31 16 31 36 24 21 30 22 21 33 18 29 20 20 19 25 22 29 22 30 23 27 23 24 24 18 23 21 14 21 31 23 29 22 24 28 18 25 22 18 25 25 22 21 28 27 27 20 25 25 24 33 28 25 22 20 24 27 22 19 29 30 29 31 23 27 21 33 25 21 22 24 21 22 23 26 27 20 29 29 18 16 24 15 34 24 27 22 21 18 29 16 18 17 24 15 24 28 27 14 28 28 24 18 24 28 23 26 27 23 27 20 24 18 23 19 23 23 13 22 22 20 25 26 18 26 24 16 27 29 26 27 29 25 27 24 20 20 17 24 29 29 24 24 19 21 24 10 23 30 29 24 17 20 15 17 24 18 24 29 32 27 28 25 19 18 20 22 27 23 27 23 30 20 21 27 20 16 22 21 23 17 19 32 24 19 18 26 22 26 17 23 22 20 27 26 30 27 28 22 25 27 20 27 15 30 23 25 25 26 24 21 29 27 21 27 19 26 19 24 19 23 28 20 23 19 19 21 22 30 23 20 24 19 21 24 18 26 21 22 18 30 27 25 33 24 17 26 22 31 22 27 26 23 22 22 32 28 16 22 28 19 22 21 22 18 18 30 23 30 19 22 21 24 29 18 23 22 21 22 23 26 26 29 22 28 19 25 23 19 31 23 30 19 21 21 19 32 27 23 23 18 22 20 23 28 26 19 23 26 25 27 22 25 20 27 36 21 28 15 17 26 19 23 31 27 33 21 23 28 21 25 22 27 27 24 25 22 18 28 17 18 13 21 22 21 30 20 25 26 19 16 23 19 19 24 28 30 24 21 26 34 21 25 28 23 30 28 26 27 21 22 17 22 21 30 25 24 19 25 30 26 19 23 22 34 25 21 23 19 27 20 24 21 21 32 26 22 26 17 16 12 26 19 20 23 20 17 23 24 28 26 29 21 28 22 19 29 22 30 23 19 24 26 28 24 24 20 25 21 24 32 23 25 26 18 28 24 16 22 28 22 24 25 34 21 29 23 21 20 34 22 20 23 21 18 30 21 19 25 30 24 19 23 32 21 25 22 22 29 32 21 25 18 19 25 21 25 25 22 28 30 30 23 18 17 28 30 29 25 18 34 32 25 25 24 22 26 25 18 28 20 23 16 20 20 31 21 21 21 30 22 21 25 21 20 23 31 14 24 23 27 27 27 23 24 24 29 20 20 17 21 32 29 24 15 23 23 21 20 21 24 19 25 25 26 21 16 22 22 29 25 18 27 26 23 16 27 19 21 17 31 16 27 27 23 26 25 24 20 21 28 18 16 27 22 18 22 17 17 27 21 26 20 21 19 21 24 22 27 22 23 27 26 20 23 26 18 31 25 27 26 23 21 25 22 22 22 27 23 24 25 24 26 27 17 14 18 29 21 20 26 20 32 29 21 23 28 18 24 16 23 21 31 26 25 18 27 21 18 18 22 18 23 18 19 24 23 19 23 17 28 14 24 28 30 24 22 24 20 28 32 27 34 21 29 20 22 21 22 27 22 26 25 20 24 26 25 18 28 19 20 31 23 27 23 21 30 25 22 32 26 23 24 24 32 24 22 21 23 22 17 24 21 21 29 21 28 24 24 20 25 23 17 34 15 28 18 22 22 19 24 19 26 22 18 32 19 21 21 22 19 31 26 25 18 22 22 28 28 22 25 19 21 20 24 24 25 23 12 28 23 29 10 25 29 16 23 19 18 23 25 22 23 22 31 25 27 25 22 23 20 21 20 26 32 21 18 24 20 25 28 25 23 32 19 20 20 24 21 20 24 33 23 16 20 27 30 27 19 21 21 24 15 25 14 23 16 24 25 34 23 27 25 24 20 23 19 24 26 24 23 23 28 27 29 26 24 26 20 25 23 30 22 14 30 22 26 29 24 24 28 22 27 16 17 23 28 28 23 24 17 19 23 27 24 19 26 24 26 19 26 25 27 31 25 34 17 25 24 23 26 12 25 28 25 27 31 23 25 28 28 19 21 22 28 21 28 23 29 23 23 28 18 24 32 22 22 28 25 19 26 21 26 18 26 17 19 18 23 23 17 28 19 23 28 30 30 23 21 25 24 16 22 29 32 22 26 21 19 33 19 31 22 17 19 14 27 18 21 24 26 23 15 22 26 27 26 25 25 21 29 20 29 29 24 29 22 18 19 23 28 21 32 23 27 28 26 22 25 25 19 25 23 29 28 18 20 26 26 26 23 25 16 22 17 22 26 27 19 30 23 25 28 20 32 26 21 26 32 24 27 12 17 25 25 24 21 28 24 20 22 19 23 24 24 20 22 30 24 25 32 29 12 20 22 28 15 20 18 32 23 29 24 25 23 21 16 19 30 18 18 32 29 23 20 22 28 21 22 18 22 30 21 22 18 17 21 24 24 19 25 24 19 25 29 20 18 17 23 31 28 32 22 32 24 23 24 16 19 24 25 29 17 25 31 33 32 20 27 19 24 26 27 19 21 23 23 23 19 26 26 23 25 18 28 23 23 27 19 25 23 23 27 22 20 16 24 25 27 23 24 23 25 23 29 16 21 30 22 27 30 17 32 27 17 28 26 26 22 19 20 23 15 18 25 21 29 28 31 22 27 25 24 30 26 34 17 27 33 16 14 24 26 29 23 23 25 22 27 32 24 23 18 25 29 25 20 17 25 23 25 21 21 27 33 22 28 25 27 16 22 25 27 23 23 25 26 26 21 20 21 32 25 23 24 25 16 22 27 23 25 20 30 24 30 21 31 22 18 20 31 15 21 19 18 27 22 29 23 20 25 25 23 24 26 17 20 29 22 21 18 24 29 25 22 21 29 27 23 22 20 28 24 25 25 15 19 33 21 28 23 26 15 27 19 18 22 26 21 28 20 21 28 25 30 23 18 38 30 24 21 31 24 24 24 25 25 20 18 25 29 25 22 20 19 25 22 15 22 24 23 22 33 22 26 15 18 28 16 23 20 19 25 22 25 24 25 23 32 22 23 24 24 20 22 18 27 21 16 29 31 23 23 23 18 26 26 27 27 23 33 26 25 29 17 30 21 20 25 23 21 26 28 23 20 28 28 29 18 19 32 22 25 15 27 30 29 20 29 24 22 19 32 19 24 27 23 22 22 23 23 30 26 23 21 21 39 23 26 21 23 28 24 27 18 29 19 23 29 20 27 24 21 20 20 26 17 24 29 26 20 25 35 22 25 23 24 30 24 24 21 22 25 23 22 25 24 21 22 20 24 25 20 19 20 20 20 25 33 26 19 28 24 17 30 26 25 26 29 24 33 20 26 15 20 23 31 23 32 17 22 23 26 19 27 19 24 23 21 29 23 22 23 22 26 24 26 25 26 20 23 21 17 19 23 30 22 24 27 24 16 20 24 21 25 19 24 26 17 24 25 23 18 29 24 21 32 24 26 20 30 29 27 26 21 23 21 21 21 19 24 15 24 16 21 27 19 17 23 26 21 24 23 27 23 16 31 17 22 19 27 24 30 22 18 28 20 24 19 19 17 28 25 25 26 22 25 29 22 18 22 25 31 24 24 23 31 17 37 26 26 22 24 30 16 24 28 28 20 35 33 18 30 19 21 26 22 25 20 17 22 17 18 26 25 28 21 27 21 22 17 18 24 27 28 26 23 26 27 17 26 28 24 25 23 30 23 29 19 27 15 24 23 23 25 27 29 27 12 26 20 27 28 18 31 24 17 24 38 28 26 25 23 29 22 36 27 30 30 23 30 22 29 22 24 13 23 19 25 22 20 27 32 21 24 28 24 28 25 32 22 27 32 23 29 26 20 29 31 33 21 20 19 24 23 25 21 23 17 24 21 28 19 20 28 26 25 22 21 26 23 16 30 24 21 19 35 26 20 31 23 28 19 33 23 19 23 19 21 33 21 22 19 26 18 26 21 20 20 22 33 20 25 23 33 20 25 17 22 18 22 25 20 17 27 25 25 30 25 26 16 26 17 18 24 22 26 22 34 23 22 19 20 11 32 25 28 23 16 24 28 27 21 23 27 26 31 22 27 33 17 18 26 25 23 28 25 31 25 23 22 24 28 15 29 28 22 15 24 30 26 29 17 27 22 25 27 25 26 20 23 23 18 23 16 18 24 27 25 32 27 24 23 23 23 18 22 25 14 23 21 19 28 18 20 28 23 28 25 14 18 22 23 19 15 22 20 24 29 28 30 21 26 21 27 23 28 24 19 22 22 22 28 22 16 24 22 24 22 20 24 21 22 32 22 24 21 21 23 22 24 29 25 24 23 25 25 21 26 30 24 24 26 22 22 30 27 19 16 32 17 30 22 26 29 24 27 34 30 22 22 28 24 20 27 22 22 23 25 18 29 18 27 25 18 20 34 21 27 17 28 20 30 29 31 24 24 33 20 27 27 21 26 20 20 25 28 27 16 24 22 26 23 14 21 20 26 17 23 20 20 21 24 16 28 32 25 23 31 20 21 21 25 20 20 26 30 13 23 25 20 22 22 25 27 21 29 25 25 32 31 25 19 23 23 29 18 21 27 24 28 23 23 22 13 27 29 26 19 24 26 25 18 27 27 26 17 20 21 30 18 26 26 27 20 23 15 23 20 23 18 24 27 21 19 23 17 23 24 19 22 24 12 27 27 25 23 33 18 26 23 21 18 27 17 35 17 30 31 20 32 20 21 23 21 14 27 18 24 23 19 21 25 27 23 25 20 28 26 26 28 30 23 20 27 26 27 29 24 25 21 22 21 25 27 19 18 18 22 27 24 24 26 24 19 22 27 23 25 17 23 14 28 26 18 18 23 24 29 24 26 26 18 27 16 23 23 21 24 26 23 23 26 21 33 23 24 21 21 27 17 27 24 31 21 26 29 30 23 27 25 17 23 19 24 20 26 28 23 26 22 18 23 22 13 19 25 18 25 30 17 24 22 16 26 25 23 22 25 25 33 19 18 31 20 22 27 18 22 24 28 28 27 22 27 29 22 23 30 32 27 26 12 24 27 25 23 21 32 23 20 15 27 27 26 21 22 23 25 25 27 22 26 33 31 25 18 27 20 20 29 29 26 32 17 22 21 23 28 21 19 21 21 22 27 27 24 24 17 20 29 26 28 25 31 28 19 26 33 26 19 21 19 22 25 18 13 24 26 25 19 26 30 23 23 24 19 26 30 29 22 28 23 20 24 30 27 25 29 29 23 20 25 18 21 23 22 30 23 22 24 22 24 32 24 20 26 27 30 22 28 18 27 20 17 20 22 18 22 31 19 31 26 24 32 27 22 17 31 19 33 28 31 21 11 25 15 20 23 19 24 21 15 26 23 17 24 31 31 18 17 15 20 25 19 26 25 22 23 26 34 28 18 25 32 24 25 27 27 25 24 18 26 24 19 24 21 22 29 23 25 20 26 22 17 25 17 25 19 26 33 20 15 20 22 24 21 24 21 21 20 26 20 23 25 32 32 20 24 28 27 23 17 33 23 28 20 22 19 27 23 28 28 29 22 25 18 16 26 24 28 12 27 25 22 14 25 20 20 21 17 25 28 27 21 22 20 23 25 33 20 21 22 14 18 29 24 22 20 21 22 24 18 32 23 27 26 32 31 28 22 19 19 25 20 24 28 29 20 25 25 27 25 29 21 20 29 26 28 19 25 21 25 22 28 27 16 21 29 17 22 30 22 20 22 26 20 23 24 22 24 22 17 23 29 18 24 27 26 34 22 22 25 23 19 24 34 25 15 26 34 23 27 26 24 24 21 21 18 27 25 29 23 26 20 16 29 28 22 23 22 29 31 29 28 27 25 24 22 26 20 24 24 20 22 13 31 24 18 16 19 23 19 21 24 33 24 31 23 19 27 35 25 23 22 19 25 35 25 19 26 20 20 18 20 22 23 25 26 15 27 26 20 20 23 21 27 29 26 26 27 17 30 22 28 31 29 22 16 23 21 21 27 21 23 25 25 20 24 18 25 23 27 18 23 25 27 29 30 15 26 35 24 25 31 18 22 22 17 19 24 17 22 25 30 20 28 33 30 19 24 27 24 24 29 26 25 23 22 22 25 18 29 26 14 24 23 22 25 25 24 30 22 22 24 17 23 19 10 30 22 25 16 18 26 31 20 24 21 26 25 20 24 25 24 23 25 28 31 20 22 24 25 26 24 22 18 16 19 20 18 15 24 25 26 32 16 19 28 27 28 22 11 17 18 25 16 18 27 30 27 20 23 21 24 19 21 19 23 18 26 27 27 23 20 20 29 30 24 19 17 19 26 23 21 29 25 26 21 23 24 25 21 21 24 34 24 20 30 21 18 22 32 33 22 27 22 26 28 21 25 31 22 30 26 29 26 28 18 22 24 28 27 27 21 31 21 24 22 18 23 16 23 21 24 22 30 23 29 17 23 19 23 23 22 27 21 23 31 29 21 18 24 18 26 21 28 23 20 31 18 21 23 18 23 34 24 22 22 21 32 19 24 28 28 15 25 31 29 14 23 25 28 26 23 20 32 26 34 22 19 26 21 17 26 32 21 27 24 16 25 31 24 23 15 20 24 19 26 23 22 28 29 23 21 17 19 30 19 28 24 20 27 28 23 21 24 14 25 19 18 23 26 26 20 23 23 27 18 16 23 22 26 23 24 19 23 24 23 23 24 24 31 25 20 21 27 20 22 22 15 24 24 22 21 20 23 22 26 24 27 24 25 24 28 20 30 21 26 23 28 36 29 21 16 20 24 19 25 17 22 16 27 28 20 20 28 33 24 23 20 21 22 26 28 24 32 27 26 19 20 24 23 30 21 26 19 26 25 24 24 19 20 28 22 22 23 35 13 29 20 29 21 25 25 26 25 22 18 26 13 23 31 16 19 26 18 29 14 25 24 26 20 21 26 23 34 23 18 26 21 24 26 24 27 27 17 22 28 22 27 21 30 21 24 26 28 31 9 33 17 36 24 23 20 17 25 31 21 20 20 19 26 20 23 27 17 15 29 24 27 22 26 23 25 26 31 21 27 15 21 18 23 27 24 27 22 26 14 23 25 22 26 24 24 26 22 24 27 22 23 25 17 23 28 24 30 16 16 27 18 18 22 21 25 26 20 18 24 25 25 19 30 21 23 23 18 23 20 15 22 17 29 18 22 25 21 23 27 25 19 19 24 26 19 29 21 26 28 23 22 19 25 28 28 19 24 26 15 20 26 22 24 20 17 29 24 27 30 22 19 27 19 25 33 28 16 21 21 17 19 27 29 20 19 25 21 19 22 22 22 28 23 23 26 22 17 29 26 25 16 25 33 24 23 30 29 20 33 20 22 26 20 25 22 27 24 24 25 32 16 15 25 20 27 22 28 21 26 19 22 29 22 29 30 19 21 30 25 25 28 29 30 24 25 22 26 18 30 22 23 26 36 22 21 32 16 26 28 23 20 30 29 29 23 29 29 25 34 26 25 29 33 25 26 29 28 25 18 20 23 22 26 24 23 24 21 29 28 21 35 27 16 20 27 21 24 29 33 16 19 30 26 27 30 24 33 22 27 25 27 28 28 20 31 18 24 29 25 30 22 26 26 25 19 23 24 29 20 22 23 18 18 20 26 20 29 18 18 24 20 23 24 20 21 24 24 23 22 23 27 19 26 25 16 25 33 22 21 22 20 22 26 27 31 22 25 25 38 24 23 29 26 21 20 14 29 24 17 16 25 21 28 28 19 22 29 21 27 20 21 23 31 26 18 17 15 22 32 31 25 25 24 27 23 17 19 23 19 19 32 23 26 23 23 22 25 26 32 18 25 21 17 17 28 20 25 24 22 24 16 24 12 24 15 25 23 26 25 26 22 28 27 22 27 16 24 22 30 21 30 28 25 34 17 22 21 30 20 33 22 28 17 18 22 23 23 21 24 20 32 25 19 26 30 27 24 24 28 25 28 23 23 28 20 27 24 13 24 25 22 20 22 21 26 25 30 33 31 22 28 19 18 27 21 23 23 25 21 28 22 21 31 25 27 30 24 22 22 22 21 24 19 16 30 28 24 18 26 20 25 23 15 18 20 21 28 28 29 24 24 26 20 21 27 26 20 14 25 21 26 26 28 25 25 23 23 22 18 23 23 27 29 21 21 22 32 21 26 28 24 22 28 28 15 24 23 23 20 36 26 28 23 14 18 21 24 24 21 18 29 18 22 20 22 20 24 25 24 16 20 20 19 28 17 25 23 20 28 17 31 20 32 29 21 27 20 25 19 24 26 22 23 28 29 31 25 32 24 27 18 27 25 23 18 20 26 26 26 22 25 31 19 31 26 31 23 24 23 21 22 19 24 24 18 25 22 29 25 31 24 25 17 18 21 18 24 22 22 27 23 21 27 24 26 22 26 20 15 28 23 23 27 21 24 30 24 29 26 26 31 26 24 34 25 25 18 27 29 23 22 31 18 21 28 22 25 27 23 22 26 22 20 21 18 30 30 19 20 20 26 26 21 23 28 36 21 30 22 30 22 28 24 23 24 27 21 18 24 14 23 26 29 19 30 23 19 24 26 19 26 24 26 27 23 28 30 26 21 21 23 21 25 26 15 17 20 24 26 34 30 25 33 17 19 26 22 22 27 23 26 28 26 29 19 20 17 22 23 26 28 24 21 29 25 26 25 21 28 16 25 32 21 16 22 26 24 26 25 34 18 18 27 21 13 23 15 19 22 23 28 30 23 24 18 23 25 16 22 35 17 17 27 23 21 16 22 18 31 27 30 26 29 22 21 18 22 18 30 22 23 21 24 21 25 25 16 24 26 18 29 22 25 28 22 17 24 21 21 24 20 23 20 30 26 20 23 29 24 23 20 27 23 33 18 20 30 17 28 20 25 20 28 24 25 23 19 12 23 23 24 17 23 20 22 19 25 28 18 28 23 23 22 24 25 27 25 21 23 17 17 29 26 27 24 25 14 17 12 27 29 27 30 25 27 24 24 25 28 18 26 25 27 24 28 18 17 29 23 23 21 22 30 29 21 25 35 18 30 23 17 25 24 22 21 18 18 26 19 21 21 27 18 22 16 31 17 28 18 22 21 30 29 14 22 21 17 22 24 26 29 29 21 23 25 23 27 24 14 26 31 13 26 15 23 27 25 28 21 33 20 20 23 21 20 28 18 28 16 23 18 20 20 25 25 27 17 26 24 15 25 23 20 20 30 24 25 27 30 22 25 19 20 28 27 29 22 13 24 26 19 20 19 21 28 19 22 17 31 20 26 24 23 20 24 19 22 23 19 21 22 17 23 26 21 16 30 26 30 28 29 27 30 24 24 21 29 24 23 18 21 21 24 30 28 22 26 28 41 26 22 29 25 31 22 16 25 24 17 25 25 22 27 29 16 23 30 21 26 28 25 28 28 22 21 25 28 21 26 27 21 22 19 31 19 19 26 24 23 31 27 19 19 22 25 26 28 15 22 21 30 21 30 21 31 37 24 19 22 21 22 22 28 21 26 19 27 24 24 17 22 19 22 23 28 26 19 17 25 17 23 27 21 21 15 26 16 24 20 25 21 27 28 21 22 30 29 23 27 28 24 26 16 24 24 24 26 34 18 22 20 22 33 22 23 28 30 26 27 20 21 21 26 19 14 25 23 24 23 25 26 24 27 27 22 23 23 22 23 21 13 26 25 24 16 23 23 22 21 20 22 23 22 29 29 25 21 27 33 22 29 36 24 19 26 29 22 27 25 25 24 23 22 32 28 21 19 27 25 20 20 25 31 24 26 33 15 26 26 30 24 19 24 19 26 30 30 23 14 23 21 31 24 30 17 24 27 23 26 24 30 22 23 26 21 22 23 25 30 26 22 20 27 25 26 24 27 20 25 25 27 27 26 23 28 18 22 13 26 17 26 25 22 24 21 19 28 31 18 27 26 13 21 22 21 22 25 10 34 29 23 30 22 24 22 29 22 26 31 26 18 30 30 25 30 22 17 21 30 31 19 18 24 22 29 25 27 24 24 20 25 29 28 19 22 28 32 22 22 12 32 27 24 20 19 33 31 27 30 29 28 25 26 31 22 28 19 24 33 27 22 26 26 33 30 16 25 25 15 27 33 14 21 19 22 28 28 25 22 21 19 19 29 24 23 18 29 23 26 27 19 34 29 21 21 22 21 23 26 17 23 22 33 24 21 26 24 30 29 23 29 28 25 22 27 27 21 26 19 19 25 23 23 23 20 33 24 19 24 16 18 25 26 18 19 24 18 21 24 28 27 22 15 28 25 32 16 23 22 29 15 24 22 22 17 21 25 20 28 30 26 22 28 34 20 23 27 26 26 20 16 25 18 27 21 28 26 25 25 24 18 28 25 17 24 20 20 16 18 25 19 26 23 23 21 25 22 23 18 19 32 25 21 23 21 21 19 26 20 27 23 25 26 24 27 25 22 27 26 21 28 27 19 23 20 23 22 21 30 22 22 28 23 14 23 32 25 27 28 23 25 24 22 28 25 34 25 28 21 18 20 28 26 23 34 13 31 24 31 28 18 16 29 24 30 23 23 26 24 21 27 20 25 24 18 27 24 18 26 28 22 27 20 27 20 27 23 18 26 27 26 27 23 22 21 33 24 24 27 24 20 14 19 16 19 19 16 20 24 25 18 29 18 24 27 27 26 26 22 28 18 27 28 27 22 22 20 23 26 32 24 23 31 28 25 27 25 24 27 22 26 17 19 27 30 24 21 26 19 30 25 23 14 19 20 17 21 29 28 19 21 24 20 26 23 18 24 18 15 25 18 24 20 24 21 21 22 29 24 22 36 27 26 22 27 32 31 25 24 27 20 26 30 20 30 17 21 26 18 32 27 23 23 26 26 20 18 19 20 22 26 21 14 29 24 29 20 29 20 24 19 28 20 24 21 25 29 24 31 37 31 26 25 26 27 20 28 25 25 25 18 20 23 22 29 23 31 21 26 15 21 25 21 30 24 24 23 20 26 17 23 23 33 19 18 22 27 27 24 20 31 26 17 17 29 22 20 25 14 26 26 25 25 29 31 31 19 29 29 25 19 18 25 17 23 26 20 31 22 24 18 24 20 24 25 24 26 26 33 33 17 28 26 19 30 25 24 18 28 25 23 24 25 30 19 25 23 25 24 33 22 19 18 23 18 27 28 20 28 26 29 23 28 22 21 18 23 16 21 18 18 19 29 17 28 24 33 27 30 31 23 29 29 21 26 25 19 21 24 24 25 24 25 26 29 22 15 21 21 22 28 25 31 29 18 24 25 24 22 27 21 25 29 16 28 21 24 22 30 20 21 20 26 33 18 18 23 30 21 22 25 23 20 27 25 23 24 33 27 17 25 23 25 22 36 25 22 23 22 21 25 19 24 18 28 26 32 27 27 28 23 25 12 23 23 25 15 19 20 16 23 20 25 22 23 28 18 28 26 25 18 24 27 18 20 25 25 17 21 22 25 27 29 23 23 16 18 21 29 23 20 27 23 26 25 19 24 22 27 29 20 21 23 32 36 17 20 21 20 25 22 23 32 20 25 26 17 17 30 20 23 18 20 31 25 25 25 25 21 27 22 28 26 21 29 29 25 19 20 28 18 23 17 29 20 23 31 27 29 35 26 22 20 25 23 29 31 21 23 20 27 21 26 16 26 18 22 19 20 20 22 26 20 19 23 33 25 24 20 18 23 32 27 30 18 26 24 26 19 29 24 21 13 22 19 24 22 20 24 22 28 21 23 25 28 19 24 25 19 20 21 25 23 22 26 20 28 20 21 28 26 15 24 25 29 19 28 27 23 22 34 22 29 22 31 26 25 25 24 21 29 23 32 23 23 21 22 27 20 21 23 28 29 25 22 24 19 21 24 21 22 23 21 25 19 20 24 22 14 24 25 28 19 26 24 30 26 35 19 24 21 21 26 17 17 23 26 19 28 23 25 20 20 16 26 28 29 29 31 18 25 28 23 26 26 26 33 30 25 30 24 24 22 24 28 26 26 28 22 21 23 20 24 24 31 18 28 22 25 24 21 21 21 27 21 25 21 21 25 22 21 31 14 27 30 18 27 21 27 31 21 24 22 24 30 19 14 23 28 25 30 23 27 28 19 23 24 22 27 26 32 23 25 25 20 22 24 24 25 26 27 25 22 18 26 26 21 23 22 28 27 20 28 29 23 26 21 25 21 26 18 26 25 21 23 29 21 18 17 33 22 24 17 18 34 34 19 23 21 22 26 17 21 25 27 21 29 28 21 21 21 24 22 24 20 24 26 24 21 26 22 24 21 18 24 24 19 14 27 21 22 19 17 25 18 21 22 22 28 20 26 27 21 21 22 25 12 23 19 23 27 26 24 26 24 22 22 26 20 31 23 16 20 26 21 24 19 25 18 28 22 27 22 32 30 21 20 21 26 29 22 23 22 18 24 27 23 19 19 24 21 20 22 21 25 30 22 29 23 16 21 25 26 23 27 20 21 26 22 24 21 20 17 20 16 22 21 26 20 27 30 27 15 18 28 24 20 23 23 20 27 27 27 26 21 19 22 22 28 28 25 30 24 27 19 19 17 22 21 18 23 20 26 28 17 18 26 21 18 22 23 23 16 23 29 14 19 25 20 19 28 20 31 22 11 12 20 27 26 19 12 21 29 21 23 16 24 25 23 27 26 22 21 22 28 26 22 30 23 21 26 22 28 28 19 23 37 24 18 26 24 20 20 23 22 26 22 28 25 20 19 21 19 21 25 25 22 17 23 23 28 16 18 33 24 32 24 24 28 28 20 22 13 25 22 20 25 25 26 27 27 29 26 25 29 29 22 24 24 29 19 21 26 19 21 29 27 18 30 22 28 17 32 16 28 31 21 19 21 28 20 25 21 25 23 27 17 21 27 24 18 20 25 23 25 25 23 23 27 23 26 28 18 27 22 26 22 30 15 24 23 27 27 26 16 28 30 27 21 23 23 25 27 29 27 20 29 25 23 16 23 30 31 22 26 20 23 29 30 21 29 22 22 33 16 28 28 25 21 26 16 26 23 26 24 26 28 26 28 19 19 24 27 29 31 27 26 20 31 24 24 33 19 27 20 22 27 23 34 13 18 24 21 34 24 27 19 22 14 20 22 17 16 23 24 18 20 28 34 25 21 32 23 19 25 18 27 25 29 21 27 24 29 27 21 14 34 17 25 32 25 25 27 24 20 19 25 21 25 30 23 23 28 29 17 21 19 22 27 25 32 29 26 26 20 22 25 22 26 21 23 29 22 22 26 27 25 28 23 31 15 21 26 23 19 19 18 30 27 33 16 20 19 29 18 23 23 24 20 21 25 27 23 19 17 23 19 22 22 22 25 16 17 26 20 17 28 18 20 31 27 22 26 20 22 21 22 16 22 22 23 19 19 28 18 31 25 22 30 23 25 29 30 20 17 19 24 24 21 36 29 24 26 25 28 19 23 28 22 22 18 25 18 19 21 25 20 27 30 18 27 22 20 21 26 22 20 29 21 27 20 22 17 28 21 19 32 28 22 15 16 21 18 20 29 16 24 19 16 17 18 28 32 19 19 28 21 30 22 28 29 29 20 17 25 25 28 25 13 15 23 27 24 21 25 22 35 22 33 25 30 24 26 20 25 19 21 24 27 26 21 26 25 26 21 25 20 21 29 24 34 32 26 23 26 15 28 22 34 20 30 16 23 25 23 22 20 23 30 21 22 22 21 27 24 24 17 28 20 27 26 29 31 26 23 23 24 23 17 23 26 18 26 26 19 20 24 27 19 31 17 21 22 25 25 25 31 20 25 21 16 32 20 19 24 29 26 24 22 31 27 19 27 28 17 28 20 15 20 26 19 23 20 23 16 22 25 23 25 13 22 31 24 22 21 24 16 24 22 25 18 25 21 18 20 24 23 29 19 29 21 32 22 21 27 28 23 25 28 24 29 27 24 20 31 24 25 20 24 34 34 26 18 22 17 26 18 24 23 26 26 30 25 25 19 23 18 25 23 30 23 26 30 15 28 28 20 16 17 26 30 21 31 15 23 24 20 28 20 19 18 15 21 23 22 21 24 23 27 21 19 24 19 16 25 23 21 20 25 20 19 26 25 27 23 26 27 25 28 27 29 20 25 26 16 28 34 21 23 27 19 27 26 19 22 27 21 19 22 28 19 26 22 20 29 24 24 26 21 28 21 25 21 24 29 23 16 20 30 23 24 29 23 24 25 28 24 19 20 24 24 33 28 21 20 23 21 29 19 29 30 28 27 30 26 20 30 18 29 31 38 25 20 30 30 31 15 25 28 31 22 21 23 19 22 23 22 24 17 28 19 22 20 22 27 24 27 20 17 22 17 26 24 24 25 27 30 24 19 30 30 27 25 18 27 27 23 22 24 28 19 28 26 26 14 18 37 27 23 27 25 27 23 31 23 25 23 31 21 18 29 21 25 23 26 26 23 23 24 17 17 26 24 19 26 19 24 25 17 38 22 23 25 25 28 26 25 29 32 28 25 26 21 29 26 34 25 26 21 28 22 26 23 17 22 24 26 24 27 25 21 18 27 24 19 27 32 24 26 20 26 23 22 27 19 25 31 20 24 26 33 28 26 24 28 24 24 22 16 23 23 15 24 21 25 19 23 31 20 19 23 25 29 19 24 30 15 23 22 20 31 24 19 24 19 23 29 20 22 24 17 30 25 30 27 32 21 20 21 21 18 18 29 30 22 22 23 33 28 25 14 29 18 29 21 18 20 23 21 33 21 18 23 21 28 25 30 26 21 24 28 21 16 19 17 25 22 26 28 20 28 29 27 24 28 19 20 28 22 28 25 27 23 18 19 25 22 26 21 22 28 29 24 26 20 18 28 18 17 22 20 23 21 27 23 24 25 27 25 21 18 22 23 15 25 25 21 23 31 26 30 27 16 23 24 24 23 19 27 27 21 24 22 22 20 13 24 22 24 20 25 16 23 20 27 24 28 22 18 30 27 26 37 26 28 25 18 24 28 22 23 19 20 26 33 23 21 28 21 30 19 23 30 35 24 25 17 20 22 20 26 22 17 27 23 31 20 22 24 28 19 25 28 22 16 28 15 21 26 26 18 25 31 32 24 27 27 23 26 25 24 25 18 19 16 17 30 19 25 21 21 33 23 19 32 27 20 22 19 20 23 27 21 24 19 25 25 27 26 24 23 23 24 20 20 22 17 28 21 26 20 24 31 23 28 28 29 23 23 20 22 22 26 22 17 16 18 22 21 20 21 21 23 22 19 18 25 23 25 26 31 25 18 22 23 24 25 25 24 29 31 20 29 32 27 20 25 20 32 22 18 25 21 25 31 27 21 22 25 17 21 24 24 27 21 24 27 23 17 32 20 28 23 23 20 24 27 28 25 24 21 26 18 16 27 23 23 22 18 20 27 28 24 21 21 27 29 18 24 22 28 17 26 30 25 26 20 17 18 31 24 25 18 24 20 20 26 21 31 23 18 24 14 30 23 22 23 28 26 21 27 28 25 23 20 28 19 24 23 25 26 26 29 22 20 26 25 20 27 24 14 17 16 19 23 30 17 25 28 21 27 28 31 22 35 22 17 26 21 25 27 23 18 22 22 24 24 25 18 20 20 18 30 23 29 23 21 27 25 24 21 31 26 18 14 16 25 21 23 25 25 22 23 23 21 20 22 29 21 20 21 21 19 15 19 16 24 18 28 20 30 24 21 13 25 24 16 24 17 23 28 17 23 16 19 26 19 22 24 23 31 20 24 26 25 21 20 26 17 18 25 23 23 19 26 20 21 22 25 24 26 27 23 23 23 17 23 22 18 26 26 22 23 25 28 23 20 21 16 20 23 20 29 20 26 29 29 28 32 25 20 28 25 23 21 26 17 24 22 26 17 18 20 22 18 18 33 26 19 24 24 23 21 22 35 18 25 18 30 21 23 26 29 25 27 22 32 22 21 32 28 22 15 30 26 17 26 29 22 20 31 22 32 25 25 18 19 25 20 21 24 21 30 24 29 26 25 23 18 28 22 26 33 31 25 28 25 23 25 22 19 26 21 22 19 27 24 27 24 29 32 21 23 30 26 21 23 31 19 29 28 22 29 21 24 22 25 23 21 17 32 25 23 20 22 32 19 23 22 26 24 23 26 27 23 18 25 19 19 25 29 23 23 25 27 19 24 24 21 30 31 21 25 23 15 21 22 34 19 24 27 17 22 20 27 15 27 19 20 29 24 22 17 30 22 29 27 23 24 24 33 23 28 20 23 25 28 20 22 23 25 35 19 24 27 20 23 26 20 24 22 22 22 19 17 27 24 27 21 19 20 24 28 21 23 24 29 25 30 16 27 27 20 18 32 20 25 22 21 19 18 30 19 26 30 19 22 27 23 24 29 26 25 23 26 15 19 27 31 24 26 24 27 28 19 26 23 28 28 29 26 16 24 33 24 29 23 24 21 26 18 28 22 25 18 18 32 33 25 24 23 15 28 29 22 27 23 27 25 22 25 26 30 25 37 21 20 29 29 34 28 17 26 36 28 22 26 23 24 21 29 22 30 24 13 27 27 23 22 21 24 29 27 23 20 17 20 19 19 29 21 26 22 18 20 25 23 25 23 23 27 24 16 25 18 14 23 24 25 29 22 23 27 27 29 21 18 20 21 24 24 27 19 14 22 19 32 23 26 31 23 15 24 21 25 26 26 16 19 22 17 24 19 28 21 31 20 21 26 21 24 30 23 21 27 16 22 25 23 26 19 21 26 21 25 27 27 22 25 25 29 24 17 30 20 31 31 20 35 28 14 21 22 34 26 21 24 24 20 22 25 27 17 35 16 25 26 21 33 24 24 21 25 23 21 21 22 20 22 26 18 25 32 25 22 28 25 22 22 24 22 18 19 21 25 19 31 27 23 20 22 24 29 23 26 27 28 19 26 34 27 22 25 28 10 20 24 21 18 21 22 24 22 26 22 17 25 21 27 25 17 23 29 14 23 17 19 20 33 20 23 20 15 22 29 30 28 32 24 33 26 20 27 19 21 31 25 23 27 19 18 25 16 26 28 19 28 26 27 27 16 19 29 22 19 21 21 24 30 19 21 19 19 25 29 27 19 25 21 22 22 24 22 20 35 21 24 28 18 26 22 31 27 19 22 20 23 25 25 22 20 23 24 20 26 33 29 21 22 28 19 24 27 25 17 30 23 20 30 19 24 17 28 23 26 28 19 29 28 20 14 28 21 24 20 27 20 21 28 18 30 24 22 32 14 23 21 23 19 27 20 16 21 26 26 26 19 22 14 25 20 28 23 23 15 18 22 25 21 25 24 22 20 22 15 31 22 20 23 24 27 25 22 23 27 24 25 21 24 24 28 19 21 28 16 17 26 20 27 22 21 23 26 25 18 18 25 21 28 24 20 22 23 25 30 27 26 18 30 21 27 26 19 19 27 19 17 27 24 28 23 28 28 28 31 24 18 25 24 21 26 23 18 30 26 16 18 20 22 29 33 27 18 19 20 27 24 19 24 21 35 18 23 19 21 23 18 25 23 32 23 23 20 28 26 14 17 27 23 23 16 26 23 19 22 21 26 25 27 27 27 19 17 19 23 25 33 34 28 21 23 25 17 24 20 22 24 30 21 19 26 23 26 26 21 23 22 29 21 29 31 16 23 23 25 25 20 21 30 29 29 30 28 28 28 22 28 26 19 25 22 19 17 19 22 25 22 32 27 19 20 28 22 20 20 24 28 19 27 31 22 28 25 24 19 24 23 26 27 26 20 18 30 29 19 29 29 24 17 27 21 28 22 23 24 19 29 26 26 29 24 21 31 31 26 25 29 21 25 21 21 15 17 27 21 26 26 22 25 19 22 25 27 26 20 25 21 16 22 25 25 33 18 21 30 23 25 27 23 17 28 25 27 23 25 28 20 25 22 25 26 30 26 24 28 26 23 27 28 28 28 25 25 24 27 19 25 26 20 18 24 28 22 23 25 22 26 28 28 26 28 22 30 26 28 28 27 26 22 20 18 28 26 24 37 17 21 28 26 18 18 33 19 25 20 30 24 22 24 27 26 17 22 25 18 24 26 22 24 24 31 26 27 27 19 25 13 21 27 20 28 26 21 19 25 23 17 25 22 24 20 17 23 23 26 25 21 27 29 22 23 29 31 30 20 27 20 20 23 17 20 30 21 22 21 25 25 22 23 28 24 30 20 23 25 15 23 27 27 30 18 30 17 27 24 19 27 21 23 21 28 25 22 22 17 34 19 25 18 30 19 23 23 23 25 15 27 22 16 18 23 19 23 17 26 22 28 20 17 24 17 28 25 20 20 20 19 22 20 19 24 21 24 21 24 16 21 30 16 13 21 31 27 23 22 27 33 26 27 20 25 24 27 24 29 25 17 28 17 23 20 26 23 19 22 22 25 28 28 15 28 17 22 22 20 21 26 21 25 25 27 19 22 23 18 22 14 27 22 21 26 17 20 19 27 20 14 23 23 18 25 30 25 18 28 24 24 26 20 15 19 26 22 29 28 22 12 26 18 28 20 31 13 25 26 18 22 23 22 28 27 25 18 30 26 22 26 22 16 24 23 26 31 19 22 34 19 21 23 21 19 23 28 27 22 22 23 25 27 25 25 26 22 28 25 25 23 19 21 25 28 24 22 25 14 24 19 23 19 27 19 23 28 24 28 21 13 23 28 26 23 26 28 16 30 26 28 19 27 18 18 28 24 30 33 31 26 31 30 15 25 24 31 17 19 18 21 15 21 20 23 25 22 27 19 22 23 28 31 21 25 21 31 18 26 23 26 23 20 26 24 16 25 19 17 25 25 27 21 24 28 22 20 25 25 27 24 28 29 33 26 29 25 28 23 19 21 24 19 32 23 28 31 22 21 25 27 24 23 25 14 25 24 31 32 25 18 25 24 29 27 23 17 24 21 24 22 26 21 30 24 15 31 23 23 24 21 25 32 28 18 22 26 17 19 22 26 28 24 22 20 28 23 23 23 23 24 21 22 26 32 19 17 24 13 29 23 23 24 24 24 17 21 23 12 21 19 19 24 21 19 17 21 19 22 23 21 20 20 26 29 19 31 27 25 20 19 28 29 25 25 22 20 31 20 23 26 30 26 32 19 23 24 23 23 17 25 26 26 28 23 27 23 23 19 19 22 21 18 29 18 21 22 22 22 18 15 24 25 24 23 22 29 19 18 23 21 18 29 20 16 33 19 22 29 29 26 23 26 22 22 26 18 23 19 12 26 23 23 20 30 14 15 21 19 30 19 27 22 23 26 25 26 25 24 24 26 22 25 24 24 21 25 19 28 22 22 22 29 21 24 15 33 23 21 27 23 26 23 23 25 22 23 20 25 26 29 21 25 19 27 20 23 29 22 25 22 26 19 18 24 22 21 29 24 28 19 26 27 25 24 18 26 19 24 23 25 31 28 23 25 29 26 24 16 23 17 19 22 27 15 24 13 34 25 22 30 25 19 20 24 18 27 34 26 28 21 21 27 19 19 29 18 30 24 21 25 29 21 18 29 24 18 23 30 18 29 25 29 20 23 26 25 28 22 23 23 20 21 22 24 16 26 16 30 16 29 21 21 21 20 27 24 20 24 32 21 31 22 30 19 28 20 20 23 32 30 30 27 30 18 25 23 22 24 24 27 21 23 9 32 31 19 22 22 18 23 18 28 23 29 16 21 22 25 25 27 20 29 23 23 27 22 18 17 21 25 31 17 30 23 25 18 20 21 20 17 15 20 18 19 26 31 30 22 28 25 25 22 14 24 30 19 22 28 30 30 29 23 20 33 23 31 21 25 21 25 27 20 24 28 30 27 28 18 29 20 21 28 33 19 20 21 28 21 27 19 24 28 27 24 26 30 27 18 23 20 29 27 27 28 29 28 21 14 34 31 23 30 26 25 16 23 22 22 26 21 23 21 23 26 23 28 19 17 23 17 25 25 20 25 29 28 31 33 23 27 22 20 18 19 21 19 21 16 26 23 26 26 25 23 21 22 32 23 30 17 19 34 14 27 21 24 24 28 18 31 30 29 21 20 22 26 25 24 29 27 20 23 31 17 23 20 24 33 23 26 23 29 30 29 22 25 17 16 26 21 22 28 28 21 18 20 28 16 23 19 18 22 30 27 25 23 31 25 27 19 25 26 25 26 20 27 20 25 26 29 36 26 16 28 21 25 26 24 22 27 23 22 24 13 28 25 26 24 23 25 25 21 26 28 22 25 26 22 19 22 26 25 22 24 23 29 34 23 21 19 26 23 30 28 22 19 26 20 18 26 21 23 30 28 21 23 23 22 23 22 19 27 23 19 29 26 26 24 24 20 18 29 27 21 14 16 29 22 32 24 23 23 23 28 22 27 17 24 23 24 25 25 28 30 24 20 25 16 24 23 23 25 18 18 19 29 19 26 24 23 26 22 15 21 23 25 18 17 24 26 25 24 24 26 31 22 23 27 28 29 26 27 24 20 18 21 27 22 23 28 27 23 25 13 22 23 33 33 31 25 20 22 32 24 32 23 23 25 25 19 24 18 20 29 22 26 18 22 23 23 28 30 26 31 35 26 36 25 23 20 24 26 21 19 15 20 20 16 24 29 24 18 26 25 32 23 26 25 23 25 22 20 26 25 24 25 26 28 31 15 33 15 22 24 24 20 25 15 29 30 18 28 23 26 25 30 18 25 17 25 13 17 24 18 28 19 30 16 21 28 19 28 29 27 26 28 23 24 33 29 22 22 23 16 19 15 25 34 25 21 25 18 21 22 29 27 24 29 23 30 18 12 27 22 24 21 22 23 25 16 21 25 34 19 26 20 23 25 25 26 19 28 16 28 35 25 28 21 33 23 19 28 24 20 29 29 28 28 20 27 18 18 29 25 22 21 22 24 30 25 25 34 23 21 17 21 27 30 20 21 26 21 25 16 20 20 24 15 23 29 32 16 25 21 22 29 26 26 19 23 35 22 25 24 25 26 24 17 33 21 26 27 23 16 29 18 27 23 33 30 25 31 27 23 17 22 24 18 24 16 28 23 35 28 27 29 19 26 30 22 18 27 17 23 21 21 25 19 23 23 17 32 24 15 26 23 18 23 26 21 27 21 19 19 20 20 28 16 13 17 28 17 19 21 28 21 19 20 25 16 31 25 17 25 30 23 17 18 17 23 18 25 24 31 31 29 22 25 29 24 24 22 23 24 23 17 18 22 28 22 28 20 23 23 20 22 22 20 22 19 29 23 21 30 33 23 17 21 19 13 18 19 18 27 22 26 20 32 24 26 19 24 33 21 23 26 29 22 22 19 23 24 22 23 24 32 24 16 17 19 25 25 22 21 24 21 26 22 30 20 20 19 20 21 20 16 25 21 25 25 19 26 24 22 30 26 27 19 35 25 20 25 24 32 29 23 22 24 20 24 20 24 22 19 17 20 23 18 23 24 16 26 17 24 21 25 27 25 21 26 27 25 21 23 24 20 27 25 23 29 25 13 25 18 27 25 29 25 28 23 24 29 22 23 17 25 24 23 23 17 24 24 22 23 25 20 19 27 23 25 24 27 17 21 23 30 30 22 31 19 20 21 30 16 20 17 24 21 16 29 34 19 24 13 24 25 18 29 16 26 23 26 23 26 31 23 29 26 34 30 26 23 19 26 26 22 22 26 29 28 20 24</t>
-  </si>
-  <si>
-    <t>GAM(87.92418353400436, -18.691735835847027, 0.5974753834741741)</t>
-  </si>
-  <si>
-    <t>31 25 35 33 36 35 17 28 27 46 32 27 43 22 25 39 32 29 27 33 36 36 42 29 36 51 22 29 22 29 27 24 33 30 41 38 35 26 30 39 41 34 36 49 37 44 46 40 30 30 33 33 33 22 28 43 36 30 26 46 33 28 42 29 33 32 36 31 34 31 37 36 32 34 28 33 26 37 34 34 34 34 30 28 25 40 27 30 32 34 40 33 28 38 28 38 35 30 24 41 23 42 34 26 31 32 29 22 44 32 33 26 34 29 32 35 33 43 34 39 33 23 27 31 28 25 31 40 31 30 37 39 28 37 25 29 35 29 28 25 29 39 35 36 24 31 31 41 37 34 35 32 22 31 36 29 35 40 32 32 21 32 34 26 32 39 32 19 29 37 29 38 34 27 37 29 31 32 31 28 36 35 28 37 35 41 25 29 37 24 33 37 25 29 38 30 48 38 21 25 29 41 36 37 46 44 30 33 22 38 27 33 32 27 36 33 35 43 34 34 28 38 33 33 33 36 43 25 24 40 37 26 31 34 35 33 37 26 38 31 34 36 31 29 37 34 36 30 35 32 34 42 34 37 32 34 44 31 33 35 33 26 29 24 34 32 35 37 37 30 37 39 30 28 38 30 31 27 21 39 42 33 38 32 30 40 36 32 24 42 34 28 36 28 35 35 30 33 35 32 31 34 28 32 35 33 32 38 41 28 39 44 48 40 27 40 32 32 38 26 38 35 30 47 40 33 36 31 28 26 39 36 33 35 37 43 40 44 39 38 49 35 41 29 32 38 37 39 31 33 36 30 37 47 35 28 31 29 42 31 40 34 35 28 35 34 34 25 31 25 32 29 33 26 30 47 39 29 34 37 39 36 31 40 28 37 35 28 32 46 32 34 24 37 26 27 49 31 48 32 28 33 29 30 27 27 43 34 51 35 37 38 35 27 36 29 32 35 30 35 35 35 37 37 33 29 34 42 31 29 34 31 33 26 27 39 36 28 34 32 27 30 40 37 28 28 30 34 52 31 47 23 38 52 37 32 39 33 30 43 26 40 38 35 24 33 31 43 34 43 37 38 29 32 34 24 30 29 28 36 43 30 38 26 34 40 31 32 32 30 31 34 32 28 35 34 48 32 34 32 35 46 35 37 33 34 32 37 34 31 41 37 43 36 35 34 28 41 34 35 36 38 27 29 29 35 35 29 39 41 29 26 28 25 44 32 41 30 29 24 37 30 24 30 33 26 30 40 37 25 37 39 29 32 34 38 34 39 34 33 34 35 33 33 35 35 33 32 27 30 28 25 36 30 29 32 36 26 38 42 38 39 42 34 41 27 31 33 25 30 37 36 34 36 34 32 34 13 26 41 42 37 28 33 24 29 39 28 36 35 38 33 37 37 26 21 32 29 32 38 46 29 38 30 31 41 33 24 30 26 46 31 33 48 34 26 28 38 31 32 23 31 26 32 38 38 42 40 31 30 34 37 28 45 27 41 36 35 32 40 36 33 40 38 27 39 25 33 26 35 27 39 41 32 27 30 28 30 32 38 34 28 33 36 32 37 27 36 30 29 30 42 36 34 42 34 36 40 37 44 30 38 34 38 31 36 39 42 27 38 45 35 38 30 27 26 27 37 42 39 34 41 31 35 50 29 27 30 35 35 30 37 36 39 27 34 32 34 40 26 40 33 43 32 32 34 34 40 35 38 36 25 32 30 35 40 41 26 37 38 36 35 34 38 36 39 49 30 38 29 29 37 30 34 45 37 43 32 31 36 32 35 34 35 38 35 34 36 32 32 23 28 23 31 34 30 42 29 32 30 28 28 29 25 31 33 41 37 33 31 36 44 36 35 44 34 36 33 40 35 25 30 27 29 28 39 33 34 29 34 40 36 29 34 36 47 39 31 36 27 39 29 32 31 32 41 32 35 41 29 23 26 30 29 33 31 28 25 35 27 48 31 39 29 37 32 29 40 31 38 32 28 40 36 36 35 37 28 35 32 35 42 28 35 38 28 38 31 25 34 40 38 32 35 45 34 34 35 29 30 43 30 32 33 31 28 45 32 26 40 40 37 31 33 41 31 33 30 33 39 46 33 35 30 30 37 33 41 32 28 44 41 38 36 28 23 37 39 42 37 23 50 43 39 38 33 29 35 38 28 34 34 31 29 24 33 39 32 30 28 48 29 29 35 30 30 32 43 29 39 34 42 38 33 37 36 31 48 29 29 26 29 36 35 30 24 33 37 29 35 26 35 29 34 35 36 29 31 34 30 33 33 27 38 34 27 27 41 35 34 27 41 26 35 37 38 36 38 36 37 31 33 31 26 37 33 30 34 26 33 39 34 33 31 31 33 28 32 34 38 35 32 39 40 29 29 33 28 50 34 40 36 35 33 36 34 28 40 35 32 32 32 34 35 36 29 28 27 38 29 28 39 31 49 37 34 30 40 26 38 25 28 32 40 35 37 24 38 31 27 29 34 24 36 25 27 33 32 30 30 31 33 28 40 37 36 30 26 31 30 33 45 32 42 32 36 27 32 30 37 32 32 36 33 31 38 40 37 27 38 26 26 40 35 34 38 33 38 41 34 39 33 34 41 32 47 33 34 28 34 29 28 31 33 36 38 29 39 35 33 29 43 35 28 49 27 39 23 27 37 26 36 27 41 30 31 42 26 33 26 34 28 40 34 32 27 32 34 37 33 31 31 27 38 27 33 35 30 33 29 42 30 41 19 42 39 30 35 30 30 37 37 27 31 28 41 34 30 37 38 30 33 34 38 43 42 40 32 32 23 34 38 39 30 44 33 30 29 37 31 29 33 36 32 23 29 34 43 41 35 28 26 36 23 29 19 29 25 34 37 46 32 33 36 33 23 32 23 29 36 29 32 37 33 34 37 40 37 33 27 34 34 42 30 25 36 30 42 38 33 34 34 35 37 29 29 30 38 43 29 37 30 29 35 38 38 31 40 32 40 31 35 42 35 41 32 46 25 31 39 36 29 23 30 32 35 38 46 38 40 38 34 31 31 35 35 30 39 29 39 38 43 37 23 32 44 30 33 37 33 29 33 35 37 31 34 35 29 21 36 30 23 34 30 37 33 38 39 29 30 31 40 27 30 37 46 30 37 33 28 45 31 38 29 30 33 23 32 27 32 39 40 34 23 31 36 32 37 34 34 39 47 29 33 42 42 38 41 31 26 30 35 31 43 29 33 34 30 37 35 37 28 35 37 43 39 25 29 35 36 33 33 36 29 35 29 26 35 35 27 43 35 39 32 29 38 41 34 37 40 34 35 19 32 36 30 31 28 41 36 31 33 32 31 34 37 25 30 38 35 38 39 41 22 25 30 41 29 29 32 48 29 39 28 33 34 27 23 27 41 24 32 49 34 30 33 36 33 36 26 26 33 40 38 27 29 23 37 32 35 26 37 40 34 35 42 27 26 25 31 39 35 39 36 43 32 31 29 21 32 33 36 43 28 41 47 40 46 30 39 30 31 32 36 25 31 37 28 32 28 40 42 27 35 27 35 33 30 33 28 38 28 32 36 32 28 31 36 36 37 32 36 28 32 39 43 25 33 37 28 43 42 20 43 32 26 39 36 38 36 31 25 31 22 26 29 28 38 37 41 28 39 39 32 51 34 37 31 39 43 27 22 35 32 34 30 34 36 35 35 39 31 32 31 31 41 32 31 30 31 30 32 29 29 33 39 36 40 37 38 29 33 33 40 34 38 35 35 35 35 26 33 43 34 33 37 37 26 34 36 37 39 30 42 34 37 32 40 25 28 31 46 23 32 26 24 38 38 34 28 30 39 35 34 41 43 31 23 37 32 35 26 40 37 37 28 28 38 44 35 27 28 37 29 45 30 29 27 41 30 38 32 38 21 40 31 24 32 31 29 46 32 38 36 33 42 30 22 47 46 31 28 40 34 44 32 36 47 33 22 38 41 37 35 36 30 34 38 29 34 34 30 33 51 31 34 19 24 40 23 29 28 35 30 29 34 36 36 30 42 34 35 36 36 33 34 24 43 27 28 36 40 31 32 32 30 30 35 34 41 31 36 32 36 44 30 36 31 33 33 29 36 35 36 32 26 45 42 41 33 30 38 29 34 24 45 48 38 30 38 36 31 26 41 30 40 34 34 36 34 28 31 39 36 31 38 31 49 32 42 35 37 38 25 40 30 35 32 33 36 29 37 33 29 32 29 41 31 29 40 36 29 34 48 37 34 32 34 34 33 33 27 32 29 35 30 35 34 29 32 24 30 35 33 26 30 37 28 36 45 36 26 42 31 30 47 36 37 35 39 40 49 39 37 25 33 31 36 36 42 29 33 32 33 29 34 26 30 36 32 46 29 35 34 35 36 34 35 41 35 26 31 34 23 35 34 43 38 34 36 33 21 35 37 33 33 28 34 39 25 40 33 35 30 36 36 35 41 34 39 31 39 38 36 41 31 31 37 30 35 25 31 31 29 20 36 36 26 26 32 34 25 38 33 33 32 24 40 30 32 31 36 32 42 34 29 40 35 36 27 38 25 38 33 36 40 29 35 44 32 30 34 34 45 33 33 31 43 30 50 38 41 37 29 36 29 34 39 40 30 48 41 25 44 27 34 39 30 33 30 31 32 20 34 38 37 40 33 39 31 35 30 23 42 38 42 33 36 40 34 23 36 37 39 35 28 38 33 35 33 35 24 41 38 30 35 38 43 33 29 40 28 43 41 25 39 31 26 38 50 39 33 34 31 37 30 46 32 44 37 35 41 32 36 37 33 27 32 26 31 33 36 43 41 25 30 31 37 36 29 47 37 39 41 31 48 34 23 44 42 45 28 29 32 33 29 33 30 38 36 32 33 38 26 29 36 38 34 29 37 36 33 32 49 34 30 26 47 41 29 37 35 35 34 44 31 27 39 27 37 49 27 36 36 37 29 35 27 25 30 31 38 29 28 31 36 27 36 24 33 29 33 35 29 28 53 33 34 38 36 32 24 32 20 31 33 34 37 30 40 32 33 25 29 19 38 36 45 28 28 35 40 36 32 26 37 32 38 39 32 42 29 33 36 34 37 34 37 41 33 34 33 35 45 23 38 41 33 26 30 44 29 48 30 38 28 41 40 36 38 26 35 34 27 28 27 25 34 35 38 46 31 36 28 35 30 24 32 39 24 32 29 32 34 31 31 43 33 40 30 25 31 31 31 25 29 30 27 33 36 43 41 32 38 31 33 36 37 37 31 28 34 31 35 32 32 32 30 32 30 28 35 42 36 46 30 32 30 31 33 35 30 44 30 34 30 38 36 35 38 43 32 34 32 33 33 40 38 26 29 43 28 36 33 39 40 35 31 44 36 31 34 38 34 34 40 31 33 29 39 30 39 30 35 34 33 32 44 29 37 22 38 32 40 38 41 36 32 46 32 38 42 35 31 31 35 34 40 37 27 36 33 37 34 20 30 26 44 24 34 31 26 26 35 27 29 43 39 27 42 38 32 30 41 38 30 34 36 22 39 34 33 34 39 34 37 33 40 28 33 39 45 37 29 35 41 35 27 32 34 36 33 34 34 32 20 37 48 37 27 29 36 37 29 37 41 35 31 30 32 42 29 33 35 35 35 32 26 35 27 34 28 31 42 34 30 33 23 31 29 36 34 32 23 35 39 32 39 49 29 35 33 30 26 34 25 44 25 37 44 30 43 29 44 34 30 28 37 28 28 29 30 31 37 40 39 36 32 38 31 32 40 37 32 28 34 40 36 35 33 33 28 37 33 36 34 26 24 27 29 31 37 33 31 37 34 30 46 38 36 29 33 33 34 33 28 25 36 29 42 37 41 35 24 39 23 32 33 31 33 37 36 33 36 29 39 33 43 37 32 41 33 38 35 41 31 37 35 38 34 39 40 28 34 31 37 32 38 36 29 38 37 25 31 30 18 24 33 33 35 45 28 31 37 29 35 36 35 31 36 36 41 27 30 39 31 32 35 32 33 30 39 42 35 28 40 45 27 35 40 39 31 41 21 36 36 34 37 30 41 32 31 20 37 47 38 35 39 37 39 30 40 34 32 34 45 28 30 42 24 28 41 41 42 41 29 30 28 35 40 35 28 35 39 33 39 37 34 39 25 31 38 36 34 34 37 36 34 39 40 35 25 31 30 31 37 27 25 31 37 34 35 31 35 40 26 31 29 33 41 37 32 45 27 34 31 48 46 31 39 41 37 26 41 26 24 35 26 38 35 31 30 31 33 45 37 36 36 38 39 33 36 24 42 28 29 27 29 28 33 49 31 47 36 29 40 36 28 30 45 28 44 36 43 33 23 34 23 31 30 28 33 33 21 40 29 26 32 41 38 25 27 18 25 40 32 32 40 32 30 31 41 42 25 34 45 34 36 33 40 34 33 24 41 32 28 36 34 30 42 37 33 27 37 30 33 34 32 30 32 32 42 29 26 27 27 32 33 33 37 34 29 40 25 38 38 45 45 26 32 39 43 32 33 44 34 36 28 35 34 37 27 37 47 37 28 35 24 26 29 31 38 23 31 39 39 25 35 31 33 36 27 34 43 35 29 34 39 32 37 40 31 33 28 25 26 39 35 31 30 28 29 34 25 47 35 36 35 43 39 45 33 31 29 33 37 32 39 36 31 34 37 34 33 35 31 31 39 34 37 34 34 34 32 39 37 34 25 31 41 33 36 43 28 31 29 37 29 40 39 27 34 31 24 33 45 25 32 35 31 46 30 39 43 38 30 34 39 33 24 42 43 37 31 34 30 37 27 28 32 38 34 38 30 44 28 30 36 35 31 32 26 35 39 46 39 34 37 33 28 35 33 32 30 27 36 23 40 35 31 26 27 33 28 31 33 46 26 45 31 25 36 42 38 31 37 25 40 41 32 29 37 28 28 27 30 32 40 33 31 26 41 40 26 29 35 31 35 42 38 35 37 25 41 29 38 38 39 34 25 40 29 33 31 28 29 27 34 30 36 35 40 31 33 25 35 38 40 40 38 24 37 46 38 36 36 28 34 34 35 27 34 22 31 34 40 31 33 45 35 29 34 35 36 32 36 32 32 30 30 28 32 32 39 32 22 33 35 36 30 37 33 36 31 35 33 26 35 35 16 45 29 30 27 32 35 36 35 30 34 34 34 33 30 33 34 34 31 32 41 42 35 32 36 33 32 28 28 20 29 34 27 25 34 37 40 43 32 27 38 44 36 34 24 28 31 28 26 26 40 39 41 32 33 31 31 28 32 33 32 29 40 34 40 24 27 37 34 37 30 28 29 27 31 34 37 46 35 36 32 29 36 39 34 31 33 41 34 25 40 28 24 31 39 51 31 39 29 39 35 29 33 46 32 35 37 37 45 37 29 29 33 40 37 36 26 46 28 44 29 29 32 24 30 28 36 31 39 31 37 23 31 39 31 33 31 33 32 36 44 37 30 25 34 25 39 29 36 32 29 44 26 34 33 31 34 42 34 33 30 33 40 35 31 39 34 27 37 39 45 22 42 32 33 40 36 34 38 44 48 31 32 39 28 24 34 38 33 42 27 31 36 39 33 34 25 28 41 34 40 37 30 39 36 29 35 31 33 43 26 35 33 34 42 40 38 35 36 30 32 30 30 31 32 38 32 36 31 35 31 27 34 27 33 32 30 27 35 39 35 32 34 32 37 32 29 39 38 25 29 32 25 32 34 33 38 34 31 32 40 35 41 31 32 33 47 27 38 29 34 36 40 42 34 32 24 27 39 26 35 27 37 22 40 40 30 26 34 47 34 36 28 28 32 38 38 35 42 34 34 33 32 41 30 39 24 39 34 33 36 33 38 30 30 33 33 31 32 41 27 41 35 35 28 31 31 33 34 35 32 39 22 35 40 27 27 34 23 41 32 33 40 29 28 30 33 37 46 34 22 35 31 37 35 35 40 33 28 33 40 29 41 34 39 31 38 35 37 41 22 49 28 49 34 31 30 24 37 39 28 29 32 30 42 32 35 35 28 28 38 35 41 30 44 33 33 34 44 31 37 27 29 28 35 34 35 37 33 32 22 29 33 34 34 36 33 46 34 34 33 29 32 31 29 34 41 41 44 24 25 36 28 25 32 32 34 42 31 35 43 33 35 29 36 30 38 33 28 31 27 22 33 26 49 24 38 41 31 35 38 36 29 33 31 38 28 34 27 38 36 31 34 30 33 41 39 28 35 38 22 37 35 33 31 33 26 39 34 38 39 28 27 37 26 33 43 39 31 36 31 31 29 40 43 32 28 36 28 24 31 39 33 36 36 28 33 35 23 39 41 27 30 33 41 33 35 40 42 31 45 27 34 31 28 35 28 35 31 35 32 39 27 23 41 34 33 30 41 33 33 30 35 39 33 39 37 36 31 42 28 36 38 39 38 36 36 33 42 25 41 35 38 42 44 30 31 42 25 34 37 35 31 39 39 43 29 40 37 43 40 38 41 38 45 39 35 37 30 32 27 39 29 35 38 37 32 29 35 35 34 37 42 30 32 30 36 26 34 36 43 28 35 39 37 37 38 40 45 27 35 40 42 38 33 31 33 27 33 42 35 33 25 42 31 35 28 28 36 37 31 32 31 27 24 33 38 27 41 27 27 38 27 34 29 28 33 32 30 29 33 34 31 24 39 35 29 31 45 33 33 26 30 33 34 35 45 37 31 41 53 32 36 34 37 28 33 28 37 34 25 25 31 32 37 39 24 36 39 37 37 32 30 29 42 35 25 32 30 29 40 41 31 34 37 37 33 27 26 30 26 26 39 32 37 35 36 27 37 34 41 29 41 37 26 26 36 31 42 37 31 32 21 36 20 43 26 37 28 36 35 38 28 40 42 28 34 31 38 30 38 30 41 38 41 41 24 34 38 41 25 42 32 42 21 23 31 36 39 32 30 35 39 34 32 43 40 32 38 31 33 34 39 33 32 32 31 43 39 31 38 34 26 36 30 35 39 36 47 40 48 37 32 23 31 35 31 31 31 29 36 39 30 36 39 43 38 36 33 27 39 38 35 37 26 26 38 36 35 29 34 30 35 29 27 25 23 24 37 37 37 32 32 31 29 33 35 35 31 21 38 35 31 36 40 35 37 35 36 34 29 36 34 41 37 41 31 28 44 28 34 32 27 30 41 36 17 38 36 29 26 46 35 39 34 28 36 31 36 38 31 26 41 26 30 30 38 28 30 32 32 30 32 30 30 34 33 38 34 29 36 28 38 27 39 36 31 37 22 31 26 32 33 34 36 38 34 42 42 44 43 37 25 37 34 32 25 28 38 34 35 32 32 41 30 43 37 41 39 33 29 34 32 35 41 33 29 35 32 38 33 41 34 36 32 31 32 25 29 33 32 42 30 25 39 32 35 34 33 26 25 42 34 38 36 32 35 40 33 39 40 39 44 30 31 43 36 33 25 40 41 28 30 39 24 29 42 34 33 36 37 36 36 34 31 31 28 39 42 30 30 36 39 30 30 37 37 40 30 37 28 36 28 37 34 35 32 36 31 25 36 25 33 39 34 29 36 28 38 33 43 30 31 29 35 35 31 40 42 36 31 30 29 29 30 33 26 27 33 35 38 47 39 31 43 23 33 36 31 34 35 43 38 37 40 35 26 30 27 42 30 35 34 37 33 42 42 37 34 35 41 29 37 38 33 24 33 36 33 39 38 45 28 25 41 33 26 30 25 26 31 34 41 37 24 32 24 34 38 25 30 42 26 24 37 39 29 20 33 33 47 37 38 33 42 33 33 27 28 27 43 31 34 32 32 34 34 42 21 34 34 22 40 28 29 40 31 26 30 25 36 38 35 36 32 44 34 28 40 37 31 31 31 42 32 41 26 38 41 27 37 34 35 37 34 26 35 39 29 22 39 35 31 25 33 38 38 34 30 37 28 33 37 29 30 38 32 32 31 40 30 27 29 35 34 37 38 39 22 26 21 36 41 29 44 41 31 30 35 42 39 29 32 34 39 40 36 23 29 40 35 33 30 31 41 50 39 31 44 26 35 31 26 34 35 29 36 30 21 39 29 28 35 39 32 29 22 43 33 35 26 33 30 45 37 31 34 29 33 33 35 39 40 41 33 30 37 35 33 37 33 31 44 21 42 21 33 42 37 41 30 40 30 35 37 29 27 41 26 42 25 36 28 27 28 36 31 43 26 37 33 30 32 44 39 26 45 32 37 39 39 32 32 24 29 42 40 39 36 25 35 36 34 27 41 32 32 25 31 24 46 28 31 32 33 38 30 29 30 33 32 31 28 21 28 42 31 30 46 50 44 39 37 33 39 32 37 29 35 32 33 26 31 31 36 39 36 33 33 46 51 33 30 37 38 39 34 34 36 37 34 34 34 28 37 35 27 31 34 27 33 45 35 38 47 26 30 35 42 34 35 35 39 31 29 43 30 25 39 31 35 40 35 33 25 32 32 33 36 22 32 30 42 30 40 31 48 53 39 32 42 32 34 34 37 30 33 31 37 37 31 29 36 25 32 39 42 34 26 34 32 24 33 36 34 37 23 34 33 33 27 39 35 37 35 33 31 36 50 27 37 41 32 35 25 32 36 38 37 45 25 29 29 33 47 30 34 36 37 34 40 32 28 30 33 29 27 37 35 29 33 31 32 41 36 36 29 35 32 34 31 29 28 34 34 28 26 36 31 41 34 30 31 30 35 39 43 35 29 36 41 32 38 45 30 29 44 44 36 35 30 36 32 30 27 49 35 34 26 40 36 29 29 36 41 29 39 44 25 38 36 34 32 28 32 30 43 40 36 34 18 37 28 37 32 41 33 38 34 38 44 38 37 38 33 39 32 33 30 32 47 36 31 37 36 38 44 31 39 31 32 34 38 39 34 33 35 26 30 21 38 25 32 28 37 32 37 27 37 39 28 38 40 23 34 35 26 28 35 25 45 38 36 43 30 31 34 41 29 35 47 40 33 43 34 39 40 31 27 26 36 38 32 27 31 34 43 38 40 39 40 29 34 39 36 30 34 47 43 29 29 18 44 41 34 30 33 45 39 39 39 46 35 37 31 46 31 42 25 31 44 40 28 34 36 45 40 22 38 33 33 32 52 26 33 35 31 38 41 34 38 26 25 30 38 34 30 29 44 34 41 40 28 36 35 34 38 31 32 33 33 32 34 32 48 30 30 35 36 37 45 34 36 36 32 39 35 29 34 37 28 26 35 34 28 29 34 51 27 29 27 23 27 34 34 29 29 31 26 40 34 36 34 38 22 35 34 42 20 32 30 34 26 31 33 35 27 36 36 34 34 37 33 33 34 48 24 30 42 32 38 32 28 34 29 38 33 38 37 37 38 34 26 43 38 24 32 29 28 26 28 33 30 38 39 25 29 38 30 35 33 29 37 43 35 38 34 32 26 35 28 40 36 32 34 36 33 34 29 39 37 29 38 48 31 32 28 38 29 26 45 28 25 32 35 27 32 46 35 38 37 32 31 34 30 40 38 42 34 41 25 25 29 38 36 35 43 23 35 35 38 39 29 32 37 32 37 37 32 29 36 30 40 30 38 40 28 37 36 29 40 40 30 38 26 40 23 29 42 26 38 37 37 37 33 30 31 44 41 36 48 34 30 30 35 25 24 27 25 25 30 30 28 36 23 36 38 37 38 35 29 42 27 40 40 38 33 30 30 36 35 41 33 48 39 38 39 35 38 29 34 28 32 25 28 31 35 29 34 38 23 39 36 33 24 30 33 28 35 38 42 29 26 34 25 33 30 24 33 24 31 39 27 34 28 38 33 27 29 41 30 32 47 32 33 31 36 41 43 32 31 38 30 35 35 33 39 31 30 37 31 51 34 34 31 35 33 34 30 28 31 31 37 26 24 37 35 38 31 47 28 35 25 38 28 33 32 39 48 37 38 50 42 34 35 40 34 29 38 28 37 38 27 34 35 33 42 36 52 32 40 31 36 34 31 41 36 33 32 27 39 25 30 30 36 28 28 28 37 35 30 25 38 39 27 28 35 32 29 38 28 37 36 34 48 45 36 44 25 43 42 33 28 29 40 23 35 32 35 44 36 39 28 31 29 32 27 37 38 37 40 41 23 34 36 32 40 38 32 29 45 30 30 42 30 42 39 32 29 40 38 40 30 28 32 36 28 36 34 32 39 34 47 36 39 27 32 25 31 22 32 29 26 34 35 29 38 31 38 37 38 39 30 36 40 29 33 32 26 36 33 37 37 31 33 44 35 37 22 28 29 35 41 31 41 36 31 37 38 36 30 36 33 35 41 29 41 29 39 34 39 29 37 33 33 49 21 31 31 38 29 34 41 35 28 38 32 34 36 40 47 33 35 33 34 28 50 34 28 32 32 29 39 24 29 30 44 41 52 49 37 40 29 32 25 30 31 37 27 33 31 34 30 32 35 32 29 37 26 36 40 36 30 31 32 26 26 28 31 26 35 37 39 38 34 32 34 24 21 30 38 34 30 32 43 40 33 36 33 27 38 45 27 29 38 41 52 26 32 31 35 33 32 28 38 29 35 32 22 27 45 35 33 30 28 41 33 30 37 43 35 40 33 38 32 31 39 42 33 35 31 36 28 32 29 36 28 37 42 38 39 42 31 32 30 35 37 40 48 29 30 29 34 29 36 34 36 25 33 26 35 33 32 40 26 26 31 48 42 34 30 31 30 36 34 42 27 31 31 35 28 40 35 30 25 35 28 34 32 25 31 32 45 38 31 36 39 35 39 35 27 29 28 43 30 27 36 33 40 29 33 49 35 22 35 36 39 35 37 37 34 30 59 31 42 35 41 37 32 33 35 30 42 37 38 31 32 29 34 40 29 29 30 41 44 34 36 40 33 28 29 33 31 29 29 39 29 28 34 27 27 38 36 41 28 42 36 34 32 47 27 32 34 35 38 26 27 29 36 30 33 34 39 29 31 31 32 39 36 38 46 33 30 39 35 38 36 32 49 43 34 37 38 36 26 30 41 32 32 39 32 32 33 27 32 29 44 29 39 36 37 27 28 29 28 39 38 32 26 30 40 26 36 38 26 35 38 29 37 32 38 40 27 29 39 32 40 34 21 37 36 31 44 30 35 37 26 36 38 32 38 38 43 31 37 35 32 27 35 32 27 33 36 31 27 26 46 35 36 33 27 37 36 26 38 46 39 41 36 33 27 35 26 37 39 27 40 44 38 30 25 42 34 35 20 31 45 44 27 33 26 33 35 24 36 38 33 33 39 41 33 30 40 35 36 33 26 36 38 30 28 44 33 29 28 25 29 29 30 25 38 27 36 30 30 35 29 33 27 30 42 31 40 42 27 30 34 47 24 34 29 31 34 38 36 36 41 30 42 34 27 37 27 26 28 39 30 30 30 32 24 34 30 35 28 44 44 35 29 28 30 38 32 32 30 33 32 37 32 27 34 33 31 32 34 31 38 42 33 39 31 23 31 33 39 34 34 31 25 37 34 45 30 24 20 33 28 33 33 34 27 35 39 36 20 28 43 45 30 28 31 30 40 35 35 38 32 33 38 36 41 41 37 40 34 39 24 25 32 32 31 28 30 31 33 37 27 31 35 35 25 31 29 31 28 33 43 22 28 34 33 25 34 34 40 30 15 24 23 33 39 25 21 30 45 38 36 19 32 46 38 37 36 38 31 32 39 36 36 35 32 25 42 35 34 39 31 28 49 38 26 33 35 24 30 35 34 36 29 41 41 32 32 29 27 29 36 34 41 35 38 35 36 24 22 46 39 41 34 36 39 40 30 34 23 33 31 29 32 37 38 35 38 47 34 36 38 39 38 35 34 36 28 31 32 34 32 38 37 27 40 30 35 22 48 28 42 42 30 27 32 38 34 34 27 31 31 37 21 35 37 34 25 29 35 30 34 37 37 30 36 31 37 41 33 33 33 29 27 42 21 33 33 35 34 37 25 46 40 38 33 32 39 34 43 36 41 33 33 30 34 24 32 34 40 29 37 33 37 40 38 31 38 32 37 38 28 40 42 32 28 35 32 40 41 37 36 39 40 36 42 33 28 28 34 36 43 38 36 28 43 33 36 43 30 38 37 30 37 39 46 23 21 34 28 49 32 38 26 28 28 30 32 29 30 33 32 27 32 36 47 32 33 41 29 38 38 34 36 34 38 30 39 38 36 34 32 25 49 27 32 43 35 33 35 40 27 31 41 29 39 36 35 37 37 40 27 27 27 33 34 35 39 47 38 35 31 35 31 28 38 38 34 36 36 28 33 35 30 44 30 41 31 28 36 34 32 29 27 42 32 39 29 29 28 41 28 40 33 32 26 26 31 44 38 32 26 33 33 34 38 29 32 30 25 38 26 29 39 39 29 41 37 35 34 27 33 31 35 25 31 33 34 27 35 35 30 42 37 34 42 39 32 38 43 31 25 27 40 30 29 42 41 31 42 32 35 29 30 40 36 28 29 36 27 27 30 35 35 38 44 20 31 34 28 32 35 33 34 41 34 43 35 45 26 40 27 33 47 34 31 23 24 31 25 25 40 20 40 28 33 31 26 39 38 27 28 36 30 39 32 34 38 40 28 29 37 34 36 36 25 29 33 38 29 30 38 36 43 31 48 33 37 31 38 30 34 30 33 30 34 32 29 32 41 33 32 39 28 34 39 36 45 38 39 32 42 29 41 25 47 25 45 27 36 35 33 28 26 36 40 31 26 33 25 36 36 34 22 37 32 46 34 45 42 30 35 32 37 30 22 29 31 28 35 37 24 29 34 33 26 46 30 35 33 28 37 30 42 27 36 34 25 41 28 27 36 37 34 33 34 42 35 30 39 32 27 40 32 23 28 35 30 31 28 32 27 30 36 34 32 27 34 40 32 26 31 34 30 31 33 39 26 38 25 28 27 37 35 41 31 38 28 42 34 30 38 36 32 39 36 38 33 33 35 33 51 35 35 27 29 50 40 36 31 29 26 45 29 35 31 33 36 41 29 33 25 35 32 45 36 38 28 34 39 22 36 44 32 23 25 36 43 35 43 22 30 34 28 35 28 26 22 20 29 32 36 27 32 29 33 28 27 31 27 20 34 34 35 27 38 36 33 36 33 34 31 35 34 45 47 40 34 32 28 41 25 42 41 27 36 40 27 38 33 30 39 41 34 30 26 38 24 41 33 30 44 39 37 46 39 40 30 34 30 33 32 36 26 35 46 32 33 37 26 35 39 41 28 29 29 31 38 49 30 35 31 31 29 37 27 46 39 43 38 40 34 27 38 26 35 44 56 35 25 38 41 41 22 32 38 43 26 30 38 25 31 26 36 32 28 37 33 36 27 37 41 39 33 30 31 29 22 46 34 32 33 38 39 36 34 32 42 41 38 31 41 44 35 38 30 34 31 41 34 32 20 26 44 38 30 42 36 37 28 45 36 35 32 36 32 29 49 34 35 31 42 33 31 34 35 22 38 34 36 31 33 35 39 38 27 47 37 35 35 37 44 34 38 36 41 30 37 33 27 43 40 44 36 39 30 41 36 37 35 28 27 38 35 30 38 33 31 27 37 33 31 42 39 31 39 30 40 42 30 41 24 31 44 35 36 36 44 35 32 42 49 36 33 29 32 28 24 20 30 34 35 27 38 41 32 25 32 34 47 32 31 39 27 29 34 32 48 30 33 36 33 31 39 33 32 32 22 43 33 42 37 39 34 28 35 31 33 26 35 42 28 38 32 42 42 31 26 40 30 43 39 30 33 27 31 47 29 28 30 31 47 36 39 44 27 43 36 34 32 27 28 36 31 34 39 32 37 40 34 31 37 25 36 46 28 44 40 39 33 29 26 33 33 37 27 33 41 40 41 31 28 29 42 31 27 28 31 30 33 31 31 39 30 35 34 40 34 30 36 27 33 34 29 33 44 35 37 36 24 33 35 30 33 31 41 35 29 35 35 25 32 28 36 33 34 32 36 24 31 28 38 35 37 36 26 41 38 32 46 32 42 37 30 33 41 38 31 30 26 41 43 39 29 40 30 41 31 31 43 46 34 35 22 26 29 34 33 37 33 39 45 39 31 32 41 40 27 35 38 36 24 42 23 29 37 35 26 37 45 41 31 39 35 33 35 39 30 30 26 33 21 31 35 35 34 32 29 40 31 28 38 35 32 38 30 28 33 39 27 31 31 32 32 36 36 31 35 36 31 28 26 34 24 37 27 37 31 31 38 36 41 35 36 35 31 31 29 27 39 27 26 25 22 31 33 28 32 36 41 29 30 27 33 36 35 40 43 37 28 34 35 36 32 35 35 39 42 31 37 41 43 33 34 31 45 31 34 42 35 36 40 36 29 39 38 28 31 36 31 41 29 37 50 36 19 40 36 39 34 28 34 32 40 34 42 33 29 35 21 26 39 33 29 37 30 28 32 31 34 26 28 41 48 24 32 27 39 30 36 42 33 39 29 28 29 42 35 41 25 38 26 28 35 33 44 42 30 33 23 37 35 27 33 36 40 32 36 39 33 34 26 38 33 34 31 36 34 32 51 33 25 38 43 33 35 34 22 28 23 31 30 42 23 36 39 25 35 42 38 35 46 32 30 33 29 32 38 38 25 30 28 33 35 30 36 28 31 30 38 39 36 32 25 34 38 32 31 45 30 29 20 28 36 35 36 39 36 35 30 32 33 30 30 39 35 26 26 36 29 24 31 28 31 32 38 32 44 31 38 28 36 32 26 27 26 36 50 22 35 26 25 39 33 32 34 32 36 31 36 39 33 35 29 33 29 30 39 43 34 29 38 29 33 31 34 33 40 38 27 32 33 28 33 32 30 35 33 36 30 36 36 31 36 35 27 31 31 29 46 28 41 45 55 45 44 39 33 41 32 28 30 40 25 36 35 41 24 30 32 31 27 27 42 35 38 33 36 32 31 36 43 32 32 29 37 31 28 35 36 36 37 40 43 29 34 43 40 40 27 40 37 30 35 41 32 30 40 41 48 32 28 26 27 32 33 29 38 26 41 38 39 35 42 31 26 37 31 38 53 45 28 45 35 29 36 40 29 37 36 28 29 39 29 38 34 42 38 34 37 43 36 34 32 38 36 42 37 38 43 35 40 34 37 35 30 28 38 38 34 28 34 44 28 39 30 36 35 30 36 36 30 33 32 27 34 31 45 31 38 40 36 25 34 34 32 40 39 35 32 28 29 31 34 45 22 33 39 27 32 31 37 23 40 26 31 41 33 32 23 35 33 45 36 33 35 27 40 32 37 29 26 35 40 32 31 32 46 49 26 38 35 37 40 32 24 32 30 28 28 29 25 40 35 41 38 30 26 36 36 24 37 33 39 38 41 28 36 36 32 27 50 25 37 33 31 28 28 39 31 32 44 30 34 37 33 42 41 35 42 29 33 24 27 36 43 35 36 32 38 33 38 31 36 37 36 41 37 25 29 40 31 39 29 31 29 33 29 35 32 35 25 20 44 48 31 39 34 18 34 32 28 39 31 40 37 31 34 42 37 35 43 30 29 44 41 43 44 26 35 50 33 32 39 37 32 28 40 31 47 38 20 43 40 35 26 29 34 42 41 35 28 28 29 32 28 42 36 32 35 33 34 40 33 33 32 34 37 29 21 36 25 22 40 34 34 39 27 30 36 36 40 27 30 32 35 32 35 39 29 24 29 33 44 26 42 41 34 20 38 35 41 36 37 24 34 31 27 42 31 41 27 45 28 31 34 27 35 38 28 27 41 31 32 38 30 38 32 35 28 32 33 40 32 32 37 37 36 41 28 40 30 39 41 32 40 41 27 31 34 45 35 30 31 39 29 34 36 38 29 46 29 33 33 24 42 29 40 30 36 44 28 36 33 34 29 36 27 38 38 35 40 33 39 35 35 31 37 24 31 33 35 28 42 35 39 33 40 37 40 32 38 33 46 31 44 43 36 34 38 46 23 39 33 29 30 34 37 38 36 33 30 30 31 44 41 32 24 35 39 27 36 25 30 32 40 36 37 33 29 31 36 46 39 40 36 52 38 32 40 29 31 38 32 33 35 31 22 30 23 34 38 28 40 39 36 35 27 28 38 39 33 34 28 33 36 29 29 25 33 35 44 38 23 36 30 35 28 45 30 23 41 33 33 38 36 36 33 43 37 24 33 33 34 41 33 29 25 34 31 26 32 41 39 34 31 44 30 33 36 35 25 41 32 30 36 30 30 24 40 39 39 41 35 42 35 32 22 35 32 35 31 32 29 28 37 32 37 42 35 36 19 31 30 31 25 32 23 28 40 37 38 32 36 32 25 32 29 42 35 27 21 25 32 34 40 36 37 36 31 33 26 41 29 29 32 41 40 39 32 35 41 39 31 34 33 35 34 24 30 43 23 30 45 36 38 37 27 30 36 38 25 27 33 30 39 28 28 31 37 35 42 37 31 28 38 30 35 32 30 27 34 39 24 35 31 32 32 36 39 36 40 27 31 34 34 31 37 35 25 39 41 28 27 37 29 39 50 32 30 29 35 38 31 26 32 27 46 20 32 34 30 32 31 39 35 47 33 36 29 37 31 21 25 37 35 36 29 37 27 23 35 30 35 30 37 31 35 33 30 27 32 37 44 38 38 33 32 36 28 36 33 32 35 38 30 27 41 31 39 42 31 32 36 39 30 38 41 22 31 31 36 34 33 34 40 48 34 51 40 40 39 29 36 37 27 37 37 31 27 25 35 36 34 37 33 31 27 41 32 32 31 41 40 28 34 41 31 39 33 35 26 34 36 37 36 41 34 26 39 41 29 35 44 33 27 35 30 33 33 35 38 30 37 38 36 42 31 30 37 43 36 35 39 29 34 31 29 28 33 47 35 34 38 35 36 33 31 33 40 38 37 35 29 26 28 36 36 44 23 31 40 31 38 34 32 20 43 33 32 29 31 46 27 32 30 39 32 36 37 33 39 34 41 43 39 39 38 34 30 35 34 28 35 35 29 29 36 33 32 30 33 32 39 35 38 32 36 29 45 31 33 34 36 37 35 29 26 36 41 31 53 30 29 41 37 27 28 42 33 43 31 39 32 35 36 32 39 25 29 37 31 36 35 36 31 33 41 33 36 38 24 35 22 30 39 33 39 34 27 24 35 33 26 40 31 34 31 29 29 28 33 37 40 37 42 29 34 45 36 35 34 49 30 24 33 26 32 39 31 34 26 40 37 31 37 40 33 43 26 34 40 23 30 41 41 43 26 45 28 34 36 21 43 29 30 35 48 32 37 33 29 49 29 35 29 42 29 33 35 32 38 24 42 35 29 31 40 24 36 27 34 28 33 30 29 43 24 38 33 25 30 30 30 35 28 28 32 35 47 33 35 23 29 42 23 23 35 36 36 30 29 42 42 34 35 26 32 36 34 35 41 33 20 37 28 37 35 40 29 32 32 39 31 42 36 22 37 33 29 32 22 30 39 36 32 27 44 27 36 38 29 31 26 30 33 26 42 27 31 26 37 28 21 33 29 32 30 39 34 23 38 33 39 40 31 22 31 28 35 34 37 35 25 35 28 38 31 43 20 35 43 30 31 30 30 36 36 35 28 45 35 35 35 31 32 36 32 33 43 31 35 43 34 34 34 30 28 34 41 37 37 32 32 36 38 34 31 35 31 36 33 44 36 35 33 35 37 33 31 40 27 30 28 29 29 36 29 31 38 35 41 25 27 32 40 38 31 37 40 21 41 38 34 33 39 28 26 42 28 38 44 42 37 42 37 24 37 35 39 21 26 26 29 25 31 25 35 32 33 40 32 31 29 41 41 34 37 30 41 24 35 35 32 42 27 36 31 29 35 30 37 35 34 38 41 34 35 41 32 30 31 34 39 38 41 42 36 38 31 34 34 25 29 39 27 47 32 36 42 28 32 35 37 40 35 28 25 36 37 38 39 33 27 33 31 41 36 33 34 37 29 35 35 39 28 42 34 25 40 34 32 37 33 44 50 37 29 31 36 27 24 31 35 40 34 35 34 40 37 34 28 42 35 28 31 35 44 23 25 30 25 39 38 32 33 45 39 25 29 36 20 24 24 22 35 30 27 23 27 31 30 28 30 33 23 41 40 31 44 40 41 28 40 43 40 35 39 33 29 46 32 34 38 43 36 44 30 31 34 30 32 30 34 45 31 34 32 33 33 30 28 34 32 28 28 40 25 31 35 37 35 27 22 36 32 35 30 37 37 24 25 33 35 28 42 28 29 46 27 26 38 37 41 30 39 35 31 36 27 32 26 23 38 34 31 26 45 23 25 34 39 39 31 42 34 26 35 32 38 36 35 35 35 27 36 33 38 30 36 26 38 34 32 34 36 29 36 23 40 31 35 32 36 39 28 34 36 32 35 31 36 34 39 31 37 30 37 33 34 41 37 39 34 36 28 30 32 28 33 33 39 37 26 41 40 41 32 30 32 27 37 36 30 38 36 32 34 43 38 37 31 37 27 25 29 40 20 35 26 44 34 30 42 40 27 29 33 26 34 48 37 40 27 39 35 28 30 34 30 37 36 29 36 36 31 29 35 31 27 33 40 27 41 36 33 29 32 36 40 38 34 37 40 33 33 31 28 22 40 25 38 27 36 28 33 30 25 39 30 38 38 46 29 43 28 41 35 38 34 29 32 41 35 39 37 41 23 33 26 36 41 40 36 37 37 19 41 40 30 33 27 24 31 33 36 28 41 27 33 33 36 30 38 30 32 32 29 35 31 25 26 33 33 45 28 50 32 29 28 29 28 29 26 23 35 24 27 34 44 42 32 44 38 34 35 24 37 37 24 35 37 40 45 38 39 28 52 30 58 30 36 36 29 33 32 34 39 36 35 40 32 37 28 31 40 47 29 36 31 39 28 35 30 37 37 39 37 37 43 40 25 34 27 41 39 44 37 35 33 30 28 50 42 33 34 35 30 26 34 34 28 37 32 34 31 35 28 34 36 29 22 32 27 33 39 33 39 38 43 50 45 38 35 33 36 33 31 28 26 26 28 37 31 37 38 36 31 36 29 36 38 41 27 31 42 27 38 34 42 36 35 30 39 41 34 36 28 37 34 30 35 43 41 32 35 40 25 30 33 36 44 39 29 33 37 37 43 36 37 28 21 33 33 33 34 42 29 25 30 37 24 33 31 32 31 41 38 40 41 44 30 37 26 31 40 35 38 29 48 25 32 44 33 46 39 25 42 33 32 39 33 29 39 30 36 37 26 38 37 42 34 35 34 43 31 39 40 32 41 40 28 27 27 38 35 29 35 27 38 41 31 26 31 28 33 43 43 32 32 32 30 25 35 26 32 41 33 28 34 31 33 36 34 26 32 33 28 35 39 33 30 32 27 24 37 41 39 25 27 41 33 51 35 33 37 36 42 29 42 24 40 35 30 35 42 35 40 29 29 43 27 34 31 29 37 23 28 25 40 32 36 35 35 38 37 23 38 35 41 26 28 42 35 37 36 32 41 42 35 33 41 41 37 41 47 37 30 28 27 44 29 37 32 40 30 36 22 28 32 47 40 44 37 30 33 45 44 47 34 34 32 33 26 28 29 29 42 38 41 24 38 38 30 36 38 33 40 51 40 41 37 38 32 33 33 30 27 24 28 37 27 34 43 32 30 33 29 38 33 37 33 32 30 33 24 44 32 38 40 41 44 40 24 44 22 32 34 34 32 33 26 38 47 24 40 34 32 31 35 25 36 23 32 28 20 36 31 35 26 39 23 30 37 33 35 50 32 41 35 29 31 43 36 31 33 32 23 33 32 38 46 39 32 35 28 25 28 43 46 33 41 32 37 27 28 36 33 34 32 29 36 38 35 32 39 43 27 33 32 32 35 27 40 32 37 27 44 49 36 38 31 46 31 26 35 40 34 42 38 35 36 28 36 29 28 39 40 31 34 31 37 39 33 30 42 33 32 24 29 40 40 36 34 39 30 39 24 29 33 40 28 39 39 38 33 37 31 31 37 38 34 29 38 45 34 37 33 33 38 34 28 38 30 38 35 31 21 44 29 35 31 37 36 34 49 32 32 22 36 33 31 34 29 35 31 45 34 36 34 24 35 40 29 29 40 25 24 26 31 34 30 30 31 27 44 32 22 37 27 23 35 38 33 37 31 31 26 28 27 34 26 22 25 42 29 34 32 35 31 24 32 36 33 40 29 29 38 47 36 25 27 31 33 29 37 36 40 41 38 30 38 42 34 29 33 34 36 40 23 29 37 38 34 42 27 40 38 27 32 33 36 37 27 39 35 33 40 49 31 28 27 38 27 28 33 26 37 29 39 31 39 34 32 26 36 49 28 34 39 38 30 27 27 29 34 34 30 33 51 40 26 27 27 37 32 31 37 39 32 36 29 39 32 35 30 29 36 34 26 34 34 32 33 33 29 30 29 38 40 36 26 50 37 29 33 36 43 38 33 33 39 32 34 27 34 34 22 29 31 34 30 34 38 25 36 26 27 32 40 32 34 39 37 38 39 30 29 33 25 33 33 32 38 37 25 39 21 41 33 43 39 38 29 40 39 32 37 31 38 35 33 31 25 34 34 30 41 34 24 31 38 33 41 38 34 32 34 38 38 45 31 41 29 34 33 47 24 35 29 31 29 27 43 47 29 31 20 33 36 29 41 26 36 41 37 32 32 45 36 35 36 42 42 32 40 34 37 32 45 41 32 35 41 36 31</t>
-  </si>
-  <si>
-    <t>NIG(256505.39809281757, 256505.2498441472, -555.9670599134515, 0.8687631611240892)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270 223 259 236 313 271 139 180 194 366 185 206 185 177 162 281 257 271 182 191 277 253 289 235 339 306 178 217 115 186 221 182 235 231 306 354 275 183 244 275 246 292 305 293 279 340 340 330 218 288 269 272 292 173 165 352 269 230 226 275 281 178 285 264 255 223 286 254 250 233 375 313 203 239 240 236 170 207 272 289 234 268 237 226 142 324 218 200 270 279 249 245 241 258 161 279 268 262 175 354 150 273 260 130 201 245 234 184 332 232 224 201 229 207 250 238 215 306 243 297 290 166 133 237 230 198 270 209 197 219 253 266 201 246 179 194 323 257 193 165 235 278 259 232 131 233 181 301 218 251 300 223 132 279 221 199 302 339 264 277 140 296 187 240 257 274 218 136 115 331 217 280 233 220 303 225 236 236 172 207 274 232 269 205 295 292 219 220 280 183 272 296 199 205 240 188 329 226 165 184 208 379 249 249 282 233 212 242 199 311 214 235 256 243 298 269 289 318 281 180 233 336 243 224 247 219 344 201 189 289 229 180 229 233 206 236 281 209 292 257 276 256 279 200 235 293 242 215 291 270 250 316 258 229 257 239 276 205 241 209 254 239 204 221 250 209 215 276 309 249 279 301 245 198 336 222 307 135 142 250 327 265 293 254 235 280 301 304 181 320 265 209 281 174 260 254 225 244 317 230 250 254 233 241 269 250 213 255 297 258 289 307 365 357 177 304 265 214 227 162 357 258 254 309 338 292 252 252 258 216 330 250 233 274 293 292 277 262 281 274 306 251 307 231 206 319 284 265 199 250 246 225 362 352 292 231 241 176 279 241 290 272 265 196 250 215 240 183 248 141 286 252 301 196 183 330 211 250 242 296 299 275 232 233 193 272 209 232 218 355 284 282 184 264 167 217 332 311 334 255 225 209 230 215 208 234 298 285 252 212 294 260 215 185 328 255 251 231 192 279 321 285 277 260 269 257 222 254 267 265 236 166 219 208 222 273 257 222 222 263 220 229 254 215 273 322 272 224 258 257 319 205 365 408 255 219 320 236 206 389 181 282 156 205 242 264 254 298 223 294 234 265 228 243 253 191 258 199 149 236 309 263 308 226 228 292 207 272 242 188 276 274 237 254 292 260 312 219 258 253 260 338 304 261 233 229 255 291 258 213 335 292 291 326 266 305 235 387 274 221 200 257 244 233 238 261 282 220 291 288 214 164 213 166 376 212 302 246 215 196 324 195 216 175 243 167 239 296 278 130 278 320 232 182 218 317 236 316 264 277 304 199 267 198 281 220 292 226 125 234 217 223 259 269 234 275 282 175 293 285 252 273 302 235 287 274 196 205 156 244 333 279 271 233 190 234 267 102 267 302 297 255 185 232 169 170 254 178 242 318 331 285 290 284 178 190 208 222 296 258 319 249 312 174 192 280 203 185 238 228 217 184 238 343 215 201 211 300 231 328 180 255 235 229 250 263 302 298 298 266 263 300 211 276 173 319 200 250 256 292 253 230 355 280 220 293 219 263 240 243 186 255 292 217 238 209 198 223 227 307 232 215 291 226 239 288 192 268 214 225 194 311 321 240 355 233 177 266 253 343 242 240 305 228 198 231 367 283 181 215 299 225 252 234 215 189 179 346 245 315 217 234 235 242 302 177 205 198 206 230 222 258 277 321 225 330 220 241 269 207 298 265 302 220 224 214 179 369 280 244 204 180 233 216 285 266 238 189 238 255 253 287 251 270 188 306 373 235 284 147 166 277 224 251 295 284 330 217 252 275 269 268 238 289 303 270 272 247 189 280 182 193 161 215 232 216 327 214 259 294 174 161 250 201 210 245 285 308 262 212 296 383 250 286 298 230 325 310 279 283 217 243 170 220 259 311 278 259 198 269 317 242 196 272 240 357 251 210 271 196 278 222 231 225 225 313 321 227 293 202 164 102 272 206 244 238 205 180 250 269 303 266 328 240 281 248 231 283 279 301 242 177 220 282 289 279 247 200 234 242 228 312 241 280 284 177 290 276 161 224 302 268 251 245 360 225 265 252 235 211 399 233 210 236 205 218 337 218 195 257 288 222 184 239 323 210 232 240 240 327 341 220 240 167 217 235 257 271 266 214 327 323 305 257 197 162 273 337 297 324 182 313 344 281 283 246 222 262 269 212 323 229 246 149 227 235 328 210 220 226 313 193 215 240 202 186 257 317 134 278 228 278 266 292 240 255 259 329 207 265 195 218 355 311 275 180 264 254 220 232 245 252 199 267 295 273 195 175 231 221 279 257 222 290 261 234 171 305 182 229 186 311 156 249 327 273 300 238 268 190 225 284 193 158 290 203 178 235 164 178 277 230 279 242 246 209 225 228 247 274 246 268 295 286 218 229 242 197 303 247 273 286 221 216 264 229 226 242 292 278 228 281 245 223 292 167 145 204 286 248 244 250 203 346 293 218 270 323 199 274 200 294 230 321 288 287 177 308 220 182 175 235 213 215 199 219 247 274 203 227 191 301 165 221 299 314 231 258 266 224 299 351 260 354 217 277 196 225 236 211 284 229 292 272 243 271 275 274 226 299 184 208 320 261 272 254 221 318 270 228 403 252 232 268 243 310 266 223 217 241 254 174 278 229 214 337 231 322 266 250 211 264 223 194 351 147 338 158 213 239 217 262 202 246 223 185 355 196 227 219 196 195 313 244 285 151 224 227 261 299 220 267 213 234 236 292 275 234 235 135 316 208 301 114 253 289 169 201 168 204 258 260 265 262 224 327 293 319 259 225 281 210 194 214 299 306 200 184 257 218 255 276 269 246 363 212 236 219 292 249 269 274 358 240 180 203 262 274 259 203 230 233 280 142 287 135 242 139 257 269 319 292 283 253 243 216 252 214 257 302 259 251 259 256 299 343 282 271 280 214 292 227 279 244 154 308 238 283 315 250 263 288 216 263 155 178 236 305 308 267 255 198 229 274 292 254 193 253 245 258 195 253 279 294 313 285 371 187 276 270 234 298 134 269 267 261 283 343 236 263 278 270 203 226 191 300 225 279 221 265 247 242 315 217 246 304 258 257 278 265 222 274 221 294 169 308 165 186 190 237 284 190 326 219 216 335 270 303 258 199 257 224 187 223 290 315 246 288 255 194 321 223 349 207 177 189 155 290 215 218 282 294 230 137 262 268 290 266 277 270 214 319 200 269 296 225 315 201 219 192 264 289 213 353 219 263 226 298 212 261 266 204 281 247 294 292 174 208 271 254 269 235 273 176 220 188 227 238 275 206 331 251 265 292 217 330 301 231 274 387 239 271 153 185 257 297 231 225 316 239 192 223 220 272 251 273 217 264 343 264 228 347 286 116 195 225 288 161 239 227 364 232 294 284 243 229 233 154 216 316 164 188 394 316 241 225 255 304 229 220 190 228 346 230 218 185 181 212 252 266 202 255 259 218 273 285 223 190 184 270 384 291 329 235 360 267 232 247 171 210 264 263 284 188 237 354 354 371 193 326 192 287 300 283 208 226 225 238 269 190 286 257 235 275 228 322 236 239 317 198 242 234 260 288 236 213 184 226 262 289 249 220 258 237 288 329 166 232 327 235 259 363 209 320 260 213 289 262 270 261 203 221 243 147 181 256 221 301 300 319 225 293 246 281 291 280 391 179 272 367 151 158 259 270 317 240 249 244 214 311 353 264 251 220 298 309 255 216 188 260 243 299 183 236 257 349 233 306 231 286 193 248 260 303 271 247 258 247 302 216 215 206 380 258 223 233 240 184 253 268 247 243 209 315 236 344 241 314 237 208 172 313 139 210 189 167 310 259 301 267 213 265 268 291 248 290 156 204 305 227 242 166 294 296 255 225 238 321 281 236 252 211 300 218 218 275 146 203 371 229 263 237 249 128 282 217 206 220 330 191 286 199 247 295 276 305 229 182 383 272 273 259 358 244 251 247 295 271 228 177 266 286 267 253 217 213 267 251 169 243 216 267 217 356 249 343 143 186 301 178 235 219 256 247 253 279 214 263 256 392 232 238 268 273 230 261 180 285 226 228 313 355 236 262 244 203 267 289 332 315 230 334 279 240 292 167 351 238 206 306 258 216 270 287 240 279 301 291 301 205 209 324 240 229 158 267 276 311 209 292 267 283 188 343 212 260 267 288 253 231 242 213 349 284 241 221 205 398 260 261 203 255 334 261 293 187 295 205 259 317 209 314 260 231 216 198 279 196 278 312 279 213 243 343 242 276 253 256 298 276 229 251 217 290 258 255 269 268 225 208 218 242 235 229 224 201 207 185 296 324 282 219 315 270 192 327 288 283 258 270 290 350 205 306 152 220 217 331 228 309 182 238 215 314 224 281 156 258 249 231 310 253 260 240 227 258 242 284 272 252 231 265 240 206 204 270 343 209 236 280 266 157 240 231 220 284 202 257 273 200 282 269 222 218 268 270 246 368 263 299 204 347 345 256 285 213 243 206 224 221 192 254 149 264 165 197 309 231 175 223 249 250 237 226 244 220 172 331 184 202 214 268 289 316 217 186 309 219 264 193 193 187 310 270 266 286 251 244 297 262 179 214 288 307 259 252 231 337 208 392 278 289 245 231 342 186 253 272 305 221 352 334 173 340 204 203 258 235 272 212 188 241 174 172 304 277 281 244 272 223 254 172 195 270 252 268 279 276 266 255 174 274 310 234 275 260 308 240 307 243 276 173 246 264 248 235 338 331 344 139 252 188 266 312 176 322 271 177 261 386 283 259 265 278 316 247 358 277 285 307 278 299 244 304 235 252 141 234 226 263 244 203 321 357 246 255 323 267 305 258 340 248 308 348 227 279 274 187 305 342 323 206 200 232 252 228 257 234 218 219 237 227 285 203 234 284 283 252 224 232 273 283 207 344 234 218 163 368 291 191 337 246 291 188 331 228 237 243 216 232 320 215 246 214 252 195 293 195 217 236 221 413 220 270 222 345 183 274 197 248 206 243 253 243 151 300 264 261 296 280 251 164 290 139 163 241 202 300 224 339 243 215 218 227 118 305 284 250 262 193 216 351 312 217 246 266 249 353 232 322 356 160 225 277 267 259 313 243 362 277 273 219 275 278 158 280 288 211 147 266 321 227 300 203 308 206 272 270 235 306 248 239 243 217 259 151 183 245 307 262 321 244 257 240 231 239 198 236 251 133 226 224 230 275 201 220 298 253 281 242 136 181 256 252 218 171 246 219 242 319 265 350 223 276 238 292 231 306 276 240 216 243 220 277 247 203 233 265 250 232 185 279 178 241 318 229 287 224 223 211 250 284 283 220 241 232 282 318 241 272 304 280 216 306 247 233 274 265 212 164 327 185 323 250 252 310 286 257 355 264 257 230 308 232 188 270 241 252 252 259 225 360 216 276 301 161 228 347 246 281 152 311 239 311 311 319 271 223 293 220 319 300 211 256 207 230 280 331 271 167 261 271 297 244 154 233 213 293 194 240 230 233 203 301 184 270 336 277 252 319 208 198 242 257 221 201 251 353 140 264 266 216 247 224 237 333 235 305 300 260 292 337 268 186 246 245 290 182 236 312 234 288 241 267 259 160 307 308 308 184 234 303 264 184 283 291 290 165 234 214 296 218 279 280 282 229 238 169 230 222 258 202 263 261 237 219 227 220 277 222 225 287 254 115 292 285 265 250 299 173 291 217 222 228 256 177 345 175 306 329 206 322 197 218 270 216 126 272 211 221 244 177 230 228 282 238 265 221 321 316 280 251 298 242 171 310 293 259 278 259 244 254 241 251 282 270 190 183 244 261 249 264 267 285 277 205 230 302 264 268 211 210 188 274 261 213 216 248 272 336 254 270 269 169 273 172 204 265 253 221 261 231 242 298 242 343 251 263 213 201 280 184 291 262 332 248 271 296 313 247 306 268 179 265 201 282 234 283 308 275 285 239 210 243 234 138 237 279 184 275 335 152 259 238 201 266 284 218 228 265 265 365 187 190 346 185 251 299 188 213 269 316 289 312 251 324 298 210 253 346 360 250 302 133 253 286 245 247 238 321 277 189 161 278 303 252 189 265 269 269 285 254 265 249 299 331 241 226 280 205 200 322 351 295 330 192 252 192 263 296 199 203 202 234 264 296 285 263 244 187 220 309 296 249 258 345 311 207 305 330 267 203 210 205 244 259 211 161 235 303 279 203 276 306 228 251 251 200 312 326 311 200 273 231 197 209 334 306 234 351 281 294 212 269 180 224 237 263 301 280 212 248 267 244 378 254 214 250 291 294 241 291 219 280 195 193 196 250 223 243 334 218 296 268 259 323 306 244 163 303 217 341 300 325 225 128 281 152 217 223 209 255 218 145 289 268 192 269 299 318 183 184 146 216 285 217 283 273 256 260 275 368 329 213 294 318 262 261 294 268 249 288 193 273 279 182 254 197 257 348 239 238 216 276 234 169 258 161 267 178 280 345 232 172 213 244 251 238 286 236 199 185 288 203 267 243 330 308 240 281 329 297 243 171 353 238 271 232 210 190 288 257 277 270 323 226 267 203 160 284 235 305 134 295 276 258 147 269 216 220 196 211 264 300 347 245 256 210 260 226 347 203 201 266 138 208 317 273 239 244 228 229 261 196 299 220 294 266 344 322 282 262 194 183 282 225 276 291 292 225 304 263 321 276 279 225 229 300 293 334 184 271 257 287 207 287 275 151 216 295 181 213 324 239 224 223 309 224 251 254 211 298 245 218 258 312 211 259 249 305 362 223 237 274 230 227 218 330 257 172 257 338 242 286 260 243 266 219 252 183 263 277 298 228 294 231 177 353 363 242 250 229 292 363 287 326 292 271 266 238 257 199 241 247 221 219 154 360 228 182 173 224 241 214 220 300 331 248 290 208 211 297 370 281 271 227 237 261 378 279 182 274 230 202 168 207 218 215 267 282 179 318 248 237 202 250 235 313 321 271 294 316 162 299 242 316 306 299 244 162 216 240 228 305 235 274 317 266 254 246 187 238 230 339 197 271 283 282 280 292 137 241 392 300 258 352 193 228 241 206 184 257 191 230 278 315 226 285 354 322 234 290 289 257 250 299 270 275 239 215 211 256 188 315 245 139 279 244 230 262 234 266 326 232 240 247 187 256 184 94 278 247 257 181 176 278 347 209 314 237 256 271 232 288 264 251 255 263 267 349 221 207 255 227 283 244 193 201 162 209 176 195 173 262 290 312 327 188 224 315 318 293 260 117 208 197 298 180 189 293 327 308 224 285 222 264 180 215 199 253 188 278 275 321 252 220 216 301 324 250 223 201 216 253 258 241 324 283 289 235 226 253 278 210 233 281 383 227 251 316 225 213 238 312 353 258 305 222 229 323 219 270 304 265 323 295 269 268 292 200 206 255 318 269 313 199 318 242 258 257 202 254 170 237 254 263 233 337 226 321 180 260 201 263 251 274 288 207 259 323 345 266 187 220 196 265 260 253 293 200 308 191 215 230 190 228 387 281 241 225 229 350 202 271 324 316 176 235 335 294 134 268 310 273 257 238 219 347 244 355 233 200 295 197 172 268 311 228 314 268 179 234 340 303 223 161 194 275 195 241 245 246 277 379 237 200 172 237 301 229 292 244 199 281 329 245 240 256 154 276 204 169 263 270 344 214 265 250 250 170 165 241 244 257 225 224 194 252 242 298 267 286 265 335 273 211 228 292 214 260 260 168 268 252 221 235 218 225 239 296 285 259 249 237 238 308 214 336 220 294 242 273 366 292 256 179 232 277 189 281 191 210 161 301 331 213 261 316 349 251 218 223 257 241 280 279 197 321 319 282 186 254 294 266 302 261 279 203 264 264 266 260 236 229 306 258 260 259 386 170 307 232 314 225 271 272 300 287 218 230 279 151 250 307 184 196 284 236 274 152 277 290 283 215 227 282 266 379 247 176 267 208 219 275 240 301 262 217 259 290 261 272 223 303 206 273 231 277 376 117 355 211 404 257 253 205 167 252 349 248 223 221 212 301 208 232 306 197 182 314 253 288 264 275 255 274 266 350 200 317 167 238 198 241 322 262 321 255 290 183 261 259 245 269 207 249 276 238 268 275 223 281 259 163 221 290 266 300 185 140 309 195 221 241 211 260 305 236 245 226 279 235 194 309 227 247 242 186 250 238 163 221 151 275 167 244 300 239 271 250 250 191 198 261 320 197 315 220 260 289 245 225 199 307 259 298 208 241 281 164 226 285 236 248 203 180 305 218 289 308 250 220 323 221 258 336 279 182 239 241 184 194 296 342 231 207 256 205 217 219 256 252 327 242 224 306 246 153 334 243 279 168 279 361 291 253 331 310 190 412 191 285 237 215 263 257 295 224 253 263 283 194 159 238 235 256 239 270 215 292 190 248 333 261 350 320 180 193 323 247 255 285 331 333 279 285 205 248 211 321 253 215 285 378 250 214 318 164 265 321 250 189 275 299 362 261 345 322 252 368 283 234 292 364 277 265 325 316 248 187 229 205 218 269 265 217 241 232 350 308 240 344 312 165 232 302 224 295 300 347 181 200 310 292 277 313 239 342 227 288 307 274 329 289 273 335 183 249 287 239 329 223 288 253 257 178 228 258 303 244 227 245 189 197 210 263 204 316 217 211 247 219 250 270 225 212 253 263 264 224 293 295 234 233 253 160 267 349 300 180 256 231 239 313 310 340 223 282 295 392 285 271 298 301 251 224 133 270 260 174 190 255 219 288 265 201 278 278 218 306 240 230 283 364 299 191 196 169 246 323 346 256 252 241 283 224 169 178 249 219 226 384 238 266 239 246 221 270 262 356 247 254 224 165 173 306 194 266 275 226 253 195 272 128 269 140 253 234 292 278 275 255 305 247 266 299 202 216 242 315 217 350 277 273 387 202 229 231 307 227 355 247 304 173 175 219 196 268 244 233 231 371 265 207 263 321 296 260 261 307 242 320 220 275 321 210 293 286 140 234 267 205 207 281 228 273 258 314 337 345 230 292 193 183 300 217 251 230 240 240 293 229 236 345 282 257 316 248 204 240 202 242 234 236 178 338 327 234 189 270 216 255 257 158 207 205 222 273 267 266 279 247 285 210 210 305 265 242 161 235 231 281 297 303 271 251 226 245 218 216 273 249 273 320 221 220 236 345 233 250 283 256 242 317 279 169 266 221 223 199 380 287 315 254 139 204 209 267 268 227 184 324 245 258 229 243 218 288 280 250 168 222 188 205 292 169 247 244 205 319 170 343 204 310 303 198 297 198 272 218 247 259 242 247 303 309 285 300 340 240 282 183 273 247 251 201 219 321 308 269 245 286 330 197 335 279 313 267 249 245 214 201 225 254 247 213 293 243 315 266 322 263 249 165 192 204 183 229 258 229 255 266 238 305 246 248 250 257 187 157 293 243 232 304 197 229 359 260 288 255 254 323 299 215 374 243 244 173 324 314 242 246 352 159 250 320 242 274 252 233 251 271 210 229 249 186 325 294 216 231 201 232 246 218 213 287 398 238 301 278 319 231 299 251 250 270 285 238 189 254 146 276 302 270 238 360 242 262 252 269 195 294 266 275 294 286 308 302 281 225 249 232 245 294 299 166 153 217 288 262 344 289 273 351 178 211 284 208 252 273 216 261 243 260 285 200 233 172 235 221 273 302 259 202 321 253 250 253 218 269 193 283 365 210 163 237 273 245 290 259 367 195 208 313 234 134 257 161 194 232 265 284 339 296 237 192 240 307 157 262 349 198 202 267 242 212 164 217 185 307 306 309 267 300 221 234 200 234 149 311 227 279 234 257 262 282 217 201 250 273 216 347 235 277 293 244 241 299 235 245 250 213 252 198 321 291 197 207 311 265 241 204 291 239 348 188 205 329 208 285 212 294 207 309 262 248 236 191 125 242 238 243 194 265 256 237 208 254 274 185 301 253 242 209 250 249 262 269 217 245 185 183 306 277 300 279 318 139 185 161 285 275 327 302 264 327 261 251 280 292 177 255 251 277 230 284 208 180 301 224 183 260 262 303 314 236 242 357 235 316 216 142 265 271 235 208 209 209 280 227 232 250 286 203 232 171 349 169 318 226 246 205 301 312 160 233 215 171 225 286 284 280 328 238 219 285 246 316 250 178 240 324 116 287 157 225 266 283 291 231 335 200 234 245 214 184 291 202 322 172 261 200 212 192 287 290 319 176 260 258 150 245 236 217 215 329 218 311 297 320 220 242 203 220 289 301 300 202 127 259 228 201 234 182 223 300 210 237 184 312 196 267 248 252 227 227 190 256 255 213 228 240 176 249 297 217 165 298 268 301 265 279 274 318 261 295 218 322 217 272 225 221 228 261 363 321 219 290 273 428 294 216 336 268 317 259 154 258 261 170 259 229 271 297 311 164 229 286 202 264 274 262 309 281 222 189 265 295 232 297 283 207 247 209 344 225 218 281 295 241 350 283 183 220 218 246 286 329 166 229 253 325 204 338 229 334 397 240 211 231 227 276 233 324 199 298 211 256 304 251 196 206 224 229 239 322 277 195 154 256 172 234 295 200 222 160 266 204 257 215 304 222 302 305 236 255 322 296 256 281 312 254 285 162 239 272 259 270 318 179 260 239 220 379 270 225 308 317 254 283 209 232 198 266 214 145 277 279 250 258 317 267 307 297 261 222 249 261 235 243 222 148 322 304 252 205 229 235 223 218 218 234 230 262 280 321 275 203 284 350 231 352 341 239 222 263 294 216 307 256 263 241 246 233 371 281 230 207 304 290 234 197 251 317 253 276 307 154 272 304 301 264 184 245 203 309 335 304 233 174 276 228 321 291 310 231 270 265 251 301 262 305 234 275 294 231 245 240 233 334 272 245 220 316 276 297 250 250 205 285 254 274 299 288 214 323 202 225 155 309 191 278 230 243 260 230 194 302 333 195 319 292 161 232 274 232 281 293 139 327 306 254 335 237 275 231 309 227 286 331 284 207 331 315 234 291 213 222 225 333 300 193 201 254 224 338 240 294 297 250 203 287 312 295 208 207 266 341 210 210 107 314 318 266 210 205 309 371 302 319 338 308 304 262 307 242 283 201 301 355 262 201 280 280 333 309 168 303 242 131 285 354 117 250 192 196 309 283 280 236 216 201 202 325 265 229 193 304 308 251 329 200 337 294 207 227 268 211 216 267 175 251 219 373 238 217 274 263 339 300 257 284 274 286 250 276 261 191 270 222 160 277 234 272 234 219 320 292 211 241 162 191 264 294 168 187 259 174 239 310 292 283 251 144 294 277 350 176 244 201 276 163 250 224 248 179 232 249 205 261 307 310 224 270 333 177 252 313 300 243 238 189 298 208 295 245 329 259 265 286 244 178 320 249 184 284 232 182 175 207 307 204 315 248 252 202 244 226 259 194 219 346 271 195 256 204 221 200 269 215 323 241 255 282 246 326 261 252 298 293 217 297 300 181 217 227 232 261 216 317 219 211 311 245 148 217 331 256 274 277 239 231 289 234 291 279 353 306 269 247 202 227 271 269 207 366 133 309 236 282 280 194 187 288 261 355 225 222 267 274 215 318 219 264 276 178 264 275 205 276 288 229 266 210 291 199 305 252 190 239 263 252 326 219 299 231 359 280 255 273 276 209 142 191 146 160 198 192 228 282 284 193 303 187 256 312 285 249 263 262 325 194 304 267 280 240 240 246 249 299 337 253 234 326 295 248 285 297 282 317 223 289 171 212 276 317 239 203 278 210 304 293 249 147 209 224 175 205 297 313 202 214 237 250 299 218 199 250 205 151 260 179 244 211 279 203 211 228 328 248 225 385 273 263 279 270 409 312 284 248 263 200 276 331 197 321 192 199 274 188 316 268 226 261 295 256 195 232 193 183 239 263 221 129 310 254 299 265 276 208 241 230 296 213 260 185 215 279 232 320 380 325 297 240 273 258 206 338 258 268 265 191 196 248 254 269 254 318 244 318 137 200 283 192 337 238 279 206 224 269 154 272 290 365 201 182 242 250 269 264 225 326 262 185 167 273 253 203 291 125 255 273 293 281 315 356 291 250 303 312 275 192 161 263 192 258 261 213 316 245 254 177 245 201 291 311 258 291 261 304 344 204 290 296 186 309 307 243 205 307 254 229 265 255 282 207 265 209 279 235 375 219 200 194 248 181 277 345 207 279 272 279 229 309 213 199 181 277 174 208 198 214 214 336 186 301 254 322 334 283 307 268 310 319 237 271 237 241 211 271 289 291 264 260 300 303 221 151 235 230 247 315 246 350 340 201 270 268 250 229 294 238 295 290 150 290 207 294 224 354 219 222 208 252 339 210 207 251 301 223 248 261 246 220 309 268 228 261 366 263 176 262 263 228 214 362 255 207 231 273 210 252 193 241 182 285 285 351 257 282 314 213 300 122 215 213 294 178 203 215 214 280 232 279 221 257 317 199 307 301 240 214 260 282 189 210 261 270 186 234 246 269 290 304 238 267 144 174 213 309 249 217 324 285 294 277 194 255 233 316 309 231 210 238 337 400 169 223 219 238 246 231 218 351 239 278 294 181 201 287 222 277 192 185 343 241 277 288 236 228 301 212 307 276 240 285 310 317 199 208 300 172 239 162 297 218 245 337 290 328 379 295 232 203 251 239 299 342 238 230 226 262 236 270 195 263 183 255 181 221 205 249 309 218 202 262 362 289 270 213 182 243 340 281 324 201 297 238 292 194 323 249 205 145 214 214 252 246 198 223 234 330 263 220 282 299 198 221 274 204 230 231 276 258 263 258 225 283 215 195 314 279 186 257 255 313 217 312 272 265 235 376 213 318 244 307 289 255 267 300 237 264 245 334 221 232 216 250 290 238 248 210 313 286 267 246 272 176 205 234 194 259 255 252 285 199 209 256 252 153 228 270 282 181 285 232 313 248 344 176 244 216 228 272 182 193 283 292 213 306 245 295 220 245 163 256 297 279 341 320 191 313 307 244 245 265 264 338 329 230 332 253 275 262 253 269 281 275 295 205 243 258 223 246 283 343 200 308 233 284 255 209 220 210 301 246 235 228 235 260 241 213 322 131 284 287 186 282 233 261 331 219 263 226 256 283 235 133 239 312 242 329 277 275 314 229 248 241 233 294 282 351 252 258 247 238 226 259 261 280 254 303 245 262 195 263 250 220 249 235 295 306 184 306 330 271 288 218 296 228 288 187 255 225 232 237 309 224 189 188 355 226 261 193 187 368 353 191 251 222 219 307 173 196 296 282 214 332 266 216 244 270 250 253 280 219 253 298 243 216 292 228 228 237 203 264 300 209 177 274 261 220 225 178 230 167 212 228 227 295 218 284 282 254 258 214 259 119 242 185 249 306 257 249 287 269 202 235 312 221 296 262 163 223 286 214 240 234 269 186 279 242 301 282 345 306 198 210 222 297 307 236 223 243 239 240 288 248 194 188 271 214 263 223 222 264 333 239 299 231 155 238 303 249 260 277 237 209 264 269 283 225 236 184 222 158 236 201 252 209 268 298 289 136 204 282 270 214 210 285 227 297 279 289 296 243 223 222 236 302 276 287 294 242 310 215 213 183 242 209 190 243 203 272 275 191 225 280 196 180 221 262 217 191 287 335 142 217 255 245 191 300 234 350 226 110 131 231 282 250 197 104 260 331 240 243 136 243 270 225 247 295 254 217 283 304 279 208 303 266 212 312 230 299 288 214 277 363 261 192 258 234 228 216 244 235 274 244 344 256 249 206 237 176 276 260 259 241 188 241 247 321 180 191 311 256 338 239 267 287 334 226 232 142 270 203 234 305 242 283 279 306 326 272 244 243 330 220 257 260 270 190 223 300 209 229 309 285 197 315 230 249 196 355 186 291 353 266 185 271 314 188 301 205 293 235 310 155 242 276 242 198 215 304 246 231 259 233 223 291 250 271 331 174 275 262 269 228 306 164 234 247 279 311 260 151 262 332 300 229 232 230 305 282 281 263 201 295 268 235 172 258 295 386 226 294 212 228 347 300 228 343 254 222 331 155 297 324 274 198 300 166 259 267 281 247 288 288 280 288 222 226 226 310 310 312 308 275 215 313 235 271 356 195 305 202 227 312 255 331 142 208 230 243 375 261 279 197 255 157 199 246 183 151 267 265 179 221 287 329 256 221 314 235 195 279 205 322 285 320 255 261 250 323 288 263 146 342 195 253 298 291 262 271 303 201 191 275 192 322 313 265 225 331 311 183 225 215 260 247 314 384 293 282 295 248 236 275 217 263 230 258 333 252 240 316 263 275 318 256 357 159 201 254 236 219 197 196 295 298 332 169 215 200 290 204 243 257 275 202 239 242 248 259 209 202 296 189 234 199 249 266 207 225 276 208 192 291 184 195 320 254 247 262 218 226 205 232 168 222 253 245 199 199 314 201 320 275 229 381 246 293 272 282 214 215 205 258 254 216 354 296 231 278 243 323 223 258 293 226 275 175 253 203 185 199 246 194 326 313 169 300 234 238 226 287 251 189 299 245 314 228 228 210 326 230 237 316 309 228 177 167 260 172 218 313 181 254 188 196 173 211 284 341 180 197 280 226 343 236 297 296 318 214 190 306 284 346 247 117 174 233 266 282 211 247 231 399 245 349 250 292 271 269 237 300 206 212 248 271 286 201 245 267 269 217 266 194 224 288 254 345 340 264 249 268 164 334 222 344 218 300 183 264 273 230 250 243 244 334 249 195 213 224 307 258 272 224 309 246 269 291 271 309 297 285 239 242 228 180 271 319 184 266 273 183 208 238 256 209 309 171 252 212 246 251 286 313 202 236 265 172 353 207 211 276 302 273 247 236 384 329 232 254 273 193 297 185 168 253 290 160 249 202 243 194 214 243 230 272 135 224 346 265 255 247 268 175 279 262 234 203 261 230 187 205 245 213 302 191 297 254 358 231 269 268 332 228 247 286 231 296 282 252 220 322 218 252 202 246 373 369 286 185 213 185 260 197 249 212 246 291 304 252 256 179 237 226 300 227 327 291 263 307 174 315 298 200 194 210 271 294 208 338 165 235 293 215 308 236 177 184 153 183 254 228 223 249 268 249 261 200 279 214 170 244 261 213 221 266 254 189 261 265 269 225 260 275 244 297 281 275 231 276 285 121 266 349 214 243 291 210 335 249 226 220 267 246 198 247 283 250 275 266 214 321 279 254 323 244 307 224 300 212 290 268 228 165 163 315 216 269 341 227 275 308 291 244 208 240 250 231 377 276 212 202 238 240 303 200 294 312 336 274 288 272 218 318 182 290 323 396 259 200 311 300 332 156 262 295 310 245 264 239 214 268 249 199 251 192 300 202 222 240 271 339 330 276 215 191 217 172 279 265 237 327 276 351 254 222 320 313 293 297 206 283 261 240 237 269 338 212 284 233 264 151 230 378 263 246 299 274 288 238 335 276 279 214 348 217 207 333 213 236 236 243 272 251 239 269 177 199 256 239 190 251 206 238 291 182 359 241 213 285 236 261 289 243 291 361 289 256 265 247 308 244 365 295 268 270 298 203 282 280 200 235 268 275 263 313 279 225 204 294 237 222 265 317 250 276 190 287 242 276 301 226 288 325 173 290 281 379 305 286 259 269 235 261 220 175 260 264 172 247 220 278 212 270 286 194 196 228 242 341 209 287 325 200 230 239 209 373 262 229 256 210 210 277 253 241 246 187 291 291 345 291 324 233 213 216 206 233 171 321 310 248 207 254 345 276 284 136 307 182 301 235 208 179 246 216 334 211 189 268 225 296 259 332 281 225 254 288 220 193 222 186 249 206 252 352 201 267 318 270 267 286 196 215 284 231 290 252 289 264 185 208 243 235 282 203 267 285 271 239 269 217 199 274 189 177 241 241 237 233 302 268 266 289 342 245 224 206 201 255 177 247 300 208 250 319 304 289 364 149 239 253 253 262 185 291 287 262 204 220 211 193 156 247 276 226 196 274 173 248 192 289 268 279 232 169 309 280 296 385 246 300 248 181 233 276 242 223 204 194 262 347 247 200 311 216 322 219 204 304 358 279 271 172 210 248 195 295 229 170 296 209 310 243 228 258 270 172 280 305 227 212 330 145 206 307 293 176 271 314 322 257 297 264 259 266 299 237 256 183 197 160 154 296 195 252 228 254 370 226 197 315 273 218 228 199 215 231 305 207 261 236 266 255 260 279 282 273 253 294 196 215 235 211 261 226 283 182 251 339 231 297 275 323 230 231 200 244 223 288 221 179 180 195 220 209 203 208 228 238 253 203 181 242 248 284 273 359 261 223 229 230 260 269 294 250 317 329 209 315 329 280 218 304 209 350 234 208 290 220 297 350 288 231 226 277 223 220 231 261 297 192 258 271 305 175 304 213 284 297 239 204 251 281 299 246 291 262 317 223 180 251 255 249 252 186 217 259 326 257 219 230 282 281 194 221 226 311 178 293 290 290 290 199 174 204 320 284 242 197 238 207 206 286 229 341 232 208 245 132 339 242 252 273 302 278 233 287 299 273 273 211 333 198 232 244 256 328 265 287 206 209 283 262 208 307 236 161 153 135 209 234 328 190 264 264 245 335 292 342 223 364 225 159 255 249 296 279 231 181 224 209 251 248 235 193 190 221 195 320 266 295 278 189 308 284 251 222 312 291 210 174 188 269 222 282 244 236 229 290 249 228 218 247 289 258 196 234 231 244 163 195 184 237 208 261 197 364 230 237 129 240 286 164 254 202 256 291 187 236 178 241 275 234 280 282 263 357 216 220 281 283 190 221 255 148 195 250 239 235 209 272 240 229 250 252 258 255 283 225 296 226 165 255 212 215 283 278 245 233 280 293 225 240 225 187 205 234 181 344 268 274 300 287 279 304 258 244 292 291 236 211 265 180 244 215 261 194 194 220 229 224 198 360 289 207 267 262 227 204 220 341 173 265 259 372 223 265 289 306 322 279 269 367 222 227 323 331 228 189 285 280 188 279 305 216 209 308 235 337 259 276 191 188 280 222 223 248 227 279 278 350 287 272 269 182 340 245 296 341 370 264 312 302 284 243 219 218 233 216 254 219 293 290 295 223 334 332 228 260 302 272 215 230 284 208 318 314 224 308 259 254 236 263 250 267 211 348 254 215 213 235 340 214 284 235 249 260 227 287 249 231 185 250 188 198 275 295 265 218 246 273 175 280 228 223 308 352 195 243 285 168 210 219 377 211 266 272 188 260 218 297 154 275 218 220 303 267 229 186 319 233 313 304 248 223 313 345 254 317 190 229 281 318 216 251 251 254 395 218 242 285 193 266 273 203 251 270 287 230 185 189 300 264 279 234 213 183 232 310 232 242 248 312 249 320 184 307 318 244 201 364 214 284 242 239 207 190 273 223 249 308 207 227 293 257 224 299 294 300 246 232 170 196 294 273 240 283 252 318 313 174 263 265 306 291 301 250 155 235 314 223 280 219 265 261 274 198 320 217 260 221 181 339 361 258 232 265 182 320 259 234 289 249 280 241 207 288 245 338 273 387 199 195 323 278 367 298 229 245 343 317 224 249 260 276 200 314 216 296 242 158 301 259 285 225 217 277 356 276 246 237 186 210 213 183 294 196 283 188 197 254 248 236 280 232 257 285 215 189 290 183 170 278 244 284 364 215 245 256 294 290 252 165 217 216 275 255 290 183 129 212 207 348 289 275 348 259 192 253 237 284 235 272 189 189 235 173 232 193 292 246 321 230 230 241 226 265 323 233 221 290 218 249 266 278 288 219 237 252 234 301 246 285 227 266 255 326 231 215 365 176 319 332 227 402 294 145 224 228 366 277 204 255 228 206 225 255 275 203 408 167 264 268 209 352 245 244 196 258 237 226 220 241 202 236 280 212 232 333 304 254 331 258 227 221 255 230 205 202 203 289 205 337 299 252 203 221 305 314 258 253 301 324 170 280 362 298 209 237 280 103 226 267 235 197 213 253 248 216 275 243 222 260 257 285 263 208 269 360 182 258 191 205 234 338 216 265 208 167 232 319 307 301 318 269 353 237 212 285 200 192 295 288 247 295 160 192 259 177 252 287 202 302 276 294 291 193 207 329 257 227 213 174 249 336 224 262 215 209 324 303 301 179 283 228 238 193 246 230 233 383 236 235 294 184 274 217 316 297 197 225 196 265 313 262 236 206 204 255 222 275 356 296 222 209 310 211 277 306 268 153 308 241 221 333 262 217 190 280 286 274 305 219 347 322 230 161 307 214 269 179 285 205 185 266 182 300 304 205 329 151 228 238 223 208 278 225 191 227 257 296 263 204 230 131 300 220 297 257 272 162 204 210 265 226 266 272 237 183 228 188 333 212 239 237 276 289 245 259 276 264 273 246 257 209 258 290 178 228 311 190 160 280 205 302 241 222 265 290 246 183 186 268 236 269 235 237 230 282 270 318 264 294 190 327 213 293 308 183 215 318 196 166 308 238 314 206 306 267 261 350 240 186 317 242 227 275 223 211 324 257 147 179 216 265 331 339 290 197 206 221 306 288 209 288 216 391 191 259 198 188 249 183 247 251 336 252 239 226 335 279 171 182 339 243 239 135 291 243 193 256 235 242 250 264 277 274 </t>
-  </si>
-  <si>
-    <t>GAM(0.1803981105143421, -4.677331148206371e-17, 1.655369308316799)</t>
-  </si>
-  <si>
-    <t>1 2 1 1 1 2 0 0 1 1 1 0 1 0 0 2 1 1 1 0 2 0 2 0 4 1 0 0 0 0 0 2 2 1 2 3 0 0 2 2 1 2 1 1 2 2 1 1 1 2 1 1 2 0 2 1 2 1 1 0 3 0 2 2 1 1 1 2 0 1 1 2 0 1 1 0 3 1 1 1 0 2 0 0 0 1 1 2 2 3 1 1 0 1 1 1 0 2 1 2 1 3 1 0 0 1 1 0 0 2 2 1 1 0 3 1 1 2 0 1 3 0 0 0 3 2 2 1 1 1 2 1 0 1 2 2 0 2 1 0 1 2 2 2 0 3 1 1 1 0 3 1 1 1 3 2 2 2 0 1 1 3 0 1 1 0 0 0 0 1 1 4 0 4 1 1 1 3 1 1 2 0 1 0 1 1 2 1 0 0 1 3 0 0 1 0 2 0 2 0 1 2 1 2 0 1 1 2 1 2 1 0 1 2 2 2 4 2 0 0 2 3 3 2 3 0 3 0 0 1 1 0 1 0 0 0 2 1 2 1 2 1 0 0 1 2 1 2 2 1 2 2 0 2 1 0 0 0 3 1 2 2 2 1 0 1 0 0 2 1 1 4 2 2 2 1 2 1 1 2 5 0 2 2 2 2 0 4 0 1 2 1 1 0 1 0 0 3 1 1 3 1 3 2 2 2 3 1 1 1 2 0 0 2 1 3 1 0 1 2 1 0 2 0 1 1 1 4 1 2 1 0 2 0 2 3 0 1 1 0 2 1 0 3 0 2 2 3 2 0 1 1 3 2 2 0 1 0 0 3 1 2 2 0 2 2 1 3 2 1 1 2 3 0 1 1 1 3 0 2 1 0 1 0 1 1 2 1 2 3 1 1 2 1 2 2 2 3 2 1 2 0 0 0 3 0 0 1 1 0 1 0 0 2 2 1 1 0 0 1 2 2 3 2 2 1 2 0 1 4 2 2 0 1 0 0 1 1 1 1 1 1 2 2 2 2 3 2 1 2 2 0 2 1 1 2 2 2 1 2 2 2 2 1 2 0 0 1 2 2 0 2 1 1 1 1 1 1 0 2 1 1 1 1 2 1 2 1 1 1 1 0 2 1 2 0 1 1 3 1 1 2 3 2 1 1 2 1 1 1 2 2 3 3 2 0 0 1 3 3 0 0 1 1 2 2 2 2 3 1 0 1 2 1 0 1 1 1 1 1 5 1 2 0 1 1 4 2 2 2 2 2 1 1 1 3 0 2 0 2 1 1 2 1 1 0 1 1 0 2 1 1 1 2 0 1 0 1 1 3 2 2 1 1 0 2 1 0 1 1 3 0 1 2 0 0 3 0 1 2 3 1 1 1 0 1 2 0 1 1 2 1 1 1 1 0 0 0 1 0 1 0 1 0 1 1 2 1 3 2 0 0 1 2 2 1 1 2 0 2 1 3 0 0 2 2 1 0 3 1 3 1 1 1 0 2 2 1 0 1 1 1 1 2 1 0 1 1 0 0 0 2 2 2 2 0 1 2 1 3 0 0 3 1 1 4 1 0 3 2 1 0 0 1 0 2 1 1 0 1 1 2 1 2 1 1 2 2 0 0 1 1 0 3 1 1 1 1 0 3 2 0 1 2 1 1 1 2 0 1 2 4 0 5 1 1 0 1 1 1 2 1 2 1 1 1 3 0 1 1 0 2 1 1 2 2 2 1 3 1 2 2 2 1 1 2 3 1 1 1 0 1 0 2 2 0 3 2 0 1 0 0 1 2 0 1 2 1 1 1 1 0 0 0 1 1 0 2 3 2 0 0 0 0 1 1 2 2 0 1 2 1 1 1 1 1 3 4 1 0 1 3 1 1 0 3 1 0 0 4 2 2 1 2 0 3 1 1 2 0 2 1 1 0 0 3 1 1 2 0 1 0 3 1 0 2 2 0 1 1 2 3 1 2 1 0 1 2 2 2 0 1 0 1 2 2 0 0 1 1 1 1 1 2 2 0 1 3 1 1 2 0 2 0 2 3 3 2 3 0 3 1 2 0 0 0 1 0 1 1 2 1 1 2 2 0 1 1 1 3 2 0 0 1 1 2 0 2 3 2 1 3 2 3 1 1 2 2 1 0 2 3 3 1 2 1 1 0 0 0 2 0 2 1 1 2 2 0 3 1 1 0 1 3 2 0 0 1 2 2 2 1 2 1 2 1 1 1 2 0 2 2 3 3 3 1 1 2 0 2 0 1 2 2 2 1 1 0 0 2 3 2 1 1 2 1 0 2 0 2 3 4 0 4 1 0 1 2 2 1 0 1 1 1 2 1 0 1 1 0 2 0 1 1 1 1 1 2 1 1 0 1 0 1 1 2 1 1 1 1 4 2 2 1 1 1 1 2 2 2 1 2 0 1 1 0 0 0 1 1 1 0 1 2 2 1 1 0 1 1 0 1 1 1 0 1 1 0 0 1 1 2 2 1 1 2 1 1 1 1 2 1 0 0 2 2 3 2 1 1 2 2 1 2 0 2 0 3 1 1 1 0 1 1 1 1 1 1 0 3 3 3 1 0 1 2 1 3 0 0 1 2 2 2 2 1 2 0 1 1 1 1 1 1 0 2 0 0 1 0 0 0 2 0 4 1 1 1 0 1 2 0 1 1 2 0 0 2 0 1 0 1 1 0 3 0 2 1 1 1 2 3 2 1 1 0 2 2 2 0 2 1 2 1 1 3 1 3 1 1 2 2 0 1 2 1 2 4 2 0 2 0 1 0 0 4 0 1 1 1 0 1 4 1 1 1 0 0 1 0 0 1 0 2 0 1 3 2 1 1 1 1 0 0 3 0 2 0 1 1 2 1 2 2 1 1 1 1 2 2 2 2 0 3 0 3 1 1 1 1 2 1 3 3 0 3 1 0 0 1 3 1 0 0 0 0 1 3 2 2 0 1 2 1 2 1 1 1 1 1 0 3 2 2 3 2 1 1 1 3 0 1 0 1 1 3 3 1 2 0 1 2 0 2 1 1 0 3 1 3 1 0 3 0 1 1 2 0 2 2 1 1 2 1 2 1 0 1 1 1 0 1 1 1 1 3 3 2 2 0 1 0 0 1 1 3 2 2 0 2 2 1 1 3 1 0 0 3 1 1 0 0 0 0 2 2 2 2 2 1 0 3 0 3 1 2 3 1 0 2 1 1 2 3 3 2 1 4 1 1 1 1 2 1 1 1 0 2 1 1 2 3 1 0 3 0 2 2 1 2 0 4 1 1 1 1 3 2 1 1 1 3 1 1 2 3 0 1 2 2 1 2 0 1 2 1 1 2 1 1 1 1 1 1 3 1 2 2 0 1 2 2 2 3 2 3 1 2 0 2 1 1 1 1 1 1 0 3 1 2 2 2 3 0 1 2 0 0 1 2 1 2 1 1 2 1 0 1 1 3 1 2 3 2 2 2 2 2 2 0 1 1 2 0 1 1 3 3 0 2 1 2 1 2 1 0 1 1 1 1 2 0 1 3 1 2 1 1 0 0 0 2 1 2 1 1 0 1 0 3 3 0 2 1 0 3 1 1 1 1 1 2 2 3 2 2 1 1 1 0 1 2 1 0 2 1 2 2 4 1 2 1 2 1 1 2 2 1 1 2 1 0 1 2 3 0 1 2 0 2 1 3 1 1 1 3 3 1 0 3 2 1 2 1 1 1 1 2 1 1 1 0 1 2 2 1 1 2 0 1 1 1 2 1 2 1 1 2 1 1 1 1 0 1 1 2 0 2 0 1 1 1 0 1 3 0 1 2 2 1 2 1 0 3 1 3 0 0 4 1 2 1 2 2 0 0 1 3 3 1 2 0 2 1 0 1 1 0 3 0 1 2 1 1 1 1 1 2 1 1 2 2 1 3 1 2 0 0 5 2 2 1 2 1 1 2 1 0 0 2 2 2 1 1 0 1 0 0 3 2 0 0 1 0 2 3 2 0 1 1 1 1 1 1 2 2 1 2 0 4 2 1 1 1 2 1 1 2 2 0 1 2 1 0 1 1 2 2 1 1 1 2 2 1 2 1 2 3 1 2 3 0 2 2 0 2 2 2 1 0 1 3 0 2 1 1 2 2 1 2 2 0 1 3 1 1 1 1 1 0 2 2 3 1 1 1 2 4 1 2 1 1 2 2 1 1 4 1 0 0 0 1 1 2 2 1 2 0 1 1 1 2 3 1 0 1 1 3 3 1 2 2 2 0 1 2 0 0 2 1 2 2 1 1 1 2 0 1 1 3 3 0 2 0 0 2 1 2 3 3 2 0 0 2 0 1 1 3 1 4 0 1 1 2 0 2 1 2 1 0 2 1 2 0 0 2 2 0 1 0 1 1 3 1 1 3 2 0 2 0 3 1 1 0 1 2 2 2 2 1 1 1 0 0 2 0 0 2 2 2 0 1 1 3 2 2 0 1 2 1 1 0 1 2 2 0 2 2 2 0 1 1 0 1 2 2 0 4 1 2 0 2 3 1 1 0 2 1 1 1 0 0 0 1 2 2 1 0 2 1 1 1 2 1 2 2 1 1 3 1 1 1 2 0 3 0 2 2 1 0 1 2 0 1 2 0 2 0 1 2 1 1 2 0 3 2 2 1 1 1 0 1 0 1 4 0 3 1 1 2 1 1 1 0 1 1 2 2 2 2 1 1 0 3 1 1 3 2 0 0 1 2 1 2 1 3 2 1 0 2 1 1 3 2 2 1 1 2 0 2 0 2 0 2 1 2 1 1 3 1 1 2 2 2 2 2 3 1 1 2 2 2 3 0 0 1 0 1 2 0 2 1 1 0 2 1 2 0 0 0 1 1 3 1 0 4 1 2 2 1 1 1 1 0 3 0 1 1 2 0 2 1 2 0 1 1 1 2 0 1 2 0 1 0 1 0 2 1 1 1 0 2 1 2 0 2 1 2 0 1 1 0 1 3 0 0 2 2 2 0 1 0 1 1 1 2 1 1 2 3 0 2 1 1 0 3 0 0 2 0 3 1 1 2 0 3 1 4 0 1 1 1 0 1 2 2 1 2 1 2 2 1 2 1 1 1 2 3 1 3 1 1 1 1 2 2 1 2 1 1 1 1 1 1 1 0 1 3 4 0 2 1 1 2 1 2 0 1 0 1 1 1 1 2 0 2 1 1 0 0 1 1 1 3 2 1 2 0 1 1 2 2 0 1 3 1 0 1 1 1 1 0 0 1 0 1 2 3 1 2 1 2 2 0 0 3 1 1 1 0 2 1 2 2 2 2 0 0 1 1 0 1 2 1 1 1 3 2 0 0 2 1 3 2 2 2 2 2 1 1 1 2 1 2 2 2 1 0 2 0 0 2 1 0 2 0 1 0 1 1 0 1 3 3 1 1 1 2 2 2 2 1 0 3 1 1 2 0 1 1 0 1 1 1 1 0 2 2 1 1 2 1 1 1 0 1 2 0 0 1 1 1 0 1 0 2 1 3 0 0 2 1 0 1 2 2 1 1 4 3 2 3 0 0 0 1 0 0 0 2 2 3 1 1 0 1 2 3 1 0 2 1 0 0 1 2 2 0 1 1 1 0 2 2 3 2 0 0 0 2 1 2 1 3 1 0 1 0 0 1 0 0 1 0 3 4 3 1 1 1 3 1 0 0 1 1 2 1 1 1 0 2 1 0 0 2 0 5 1 3 3 1 1 1 1 2 3 1 2 2 3 1 2 1 0 2 1 1 2 1 3 3 0 2 1 2 2 1 0 2 2 2 0 1 2 0 1 1 0 2 2 1 0 1 1 0 1 0 2 2 2 1 2 2 1 0 1 0 0 2 0 0 1 1 2 2 2 2 0 1 0 0 0 0 2 1 2 1 0 1 3 0 3 0 0 2 0 0 2 0 1 2 1 0 2 0 1 1 0 2 1 0 2 2 1 1 2 1 0 2 1 1 0 0 1 1 1 1 0 0 2 0 0 1 2 1 1 3 0 1 4 0 0 1 1 3 3 1 0 2 0 0 1 1 2 0 1 2 1 1 2 4 1 1 4 2 2 1 2 0 1 2 2 0 2 0 2 2 2 2 1 0 0 0 3 1 2 1 2 1 2 1 1 3 1 3 0 1 2 1 1 1 1 1 0 0 1 2 2 1 2 2 1 2 0 2 0 1 3 2 2 0 1 4 1 3 0 1 1 1 1 1 1 1 0 0 1 2 3 3 0 1 1 2 5 2 1 0 2 2 1 3 0 1 1 0 1 1 1 1 1 1 0 1 1 1 3 1 2 1 2 2 0 2 1 1 2 0 1 1 1 2 2 2 1 3 0 1 2 1 1 0 2 1 1 1 2 2 1 2 2 1 1 1 0 3 1 2 0 1 2 1 1 1 2 2 3 2 1 4 0 2 0 0 2 0 1 1 0 1 1 1 2 0 1 3 1 0 0 0 1 0 3 1 1 1 2 2 0 2 1 2 2 1 3 0 1 2 1 2 3 1 2 0 3 3 2 1 1 1 1 1 0 3 1 0 0 2 0 2 1 0 2 1 2 3 3 1 1 1 1 1 2 1 0 1 2 0 2 0 1 0 1 1 1 2 2 1 2 3 1 2 1 0 2 1 2 2 1 1 3 1 3 2 2 2 1 1 2 3 0 2 2 1 0 1 3 0 1 0 0 0 0 2 3 1 2 0 2 1 1 0 2 0 2 3 2 0 2 1 3 2 1 1 0 1 1 4 2 0 1 2 2 1 2 0 2 2 1 0 1 2 2 2 2 1 1 2 2 1 2 0 1 2 1 2 4 1 0 2 2 3 1 3 0 2 0 2 1 1 1 2 1 1 2 1 1 1 3 2 0 2 1 0 1 1 1 0 4 1 0 2 2 0 0 1 1 0 1 3 0 1 1 0 1 3 1 0 0 2 3 1 0 2 2 1 3 1 1 1 1 0 2 3 1 1 0 2 0 0 1 1 4 2 2 2 4 2 2 2 2 2 1 2 3 2 1 1 0 0 0 0 1 1 4 1 1 1 2 2 1 5 0 0 1 0 1 1 3 2 1 2 1 2 2 0 3 1 2 4 1 0 2 1 1 0 0 3 1 0 3 2 3 1 0 1 1 2 1 2 1 2 2 1 1 2 2 1 2 1 0 0 2 0 1 3 1 1 1 0 2 0 0 2 0 2 3 1 0 2 3 1 0 1 2 1 2 1 0 1 3 1 0 2 2 1 0 2 1 1 2 0 2 1 3 1 1 2 1 1 0 0 2 1 1 1 1 1 2 1 1 0 2 2 1 0 3 2 2 2 1 1 2 1 4 1 2 2 1 2 1 1 0 0 2 1 2 2 1 2 1 0 2 2 2 4 3 0 1 0 0 2 0 0 0 1 1 2 0 2 2 2 0 0 1 0 3 1 1 1 2 1 0 2 0 1 1 2 2 1 0 1 0 0 0 2 2 1 0 2 0 1 0 0 2 4 1 0 1 2 0 1 2 2 2 1 0 3 0 4 1 1 1 1 0 2 3 1 2 0 0 1 2 2 0 1 1 2 1 2 0 0 2 3 1 2 0 0 3 0 3 3 0 1 2 2 1 0 1 2 1 0 0 2 3 0 2 1 1 0 0 1 1 1 0 1 1 2 1 1 2 1 0 1 1 0 0 2 2 1 1 0 1 1 1 1 0 2 2 0 0 1 2 1 2 1 2 2 1 0 0 2 4 2 0 0 1 2 2 1 2 1 0 1 2 0 1 2 1 2 0 1 0 2 1 2 1 1 3 1 0 2 1 1 2 2 1 0 2 0 1 2 0 1 2 0 1 1 4 0 2 0 2 0 3 0 1 2 1 2 2 1 1 2 0 2 2 2 1 2 2 1 1 1 1 1 2 1 2 0 0 2 2 2 2 1 2 1 1 2 2 0 1 1 2 1 2 3 2 0 1 1 2 1 1 0 0 0 2 2 1 0 2 2 1 0 1 2 0 2 0 0 0 0 2 0 1 2 2 1 1 2 0 2 1 0 4 1 2 1 2 2 0 1 2 2 1 1 3 1 0 3 2 1 1 1 1 1 2 1 1 1 2 3 1 4 0 1 1 0 0 1 1 0 2 0 0 2 0 1 0 0 1 0 1 1 2 2 0 3 2 1 1 1 2 0 4 2 1 2 2 0 1 1 0 0 2 3 0 1 1 2 2 1 1 0 3 2 2 3 0 1 2 1 2 2 0 0 1 1 0 0 1 1 1 1 0 2 1 1 0 2 2 2 3 1 2 3 1 3 2 1 1 4 1 0 1 3 0 3 1 2 2 3 1 2 2 0 2 2 1 1 0 1 0 3 1 1 2 1 2 1 2 0 1 3 1 1 2 2 1 2 1 1 2 3 1 0 1 2 0 1 1 2 2 2 2 1 2 2 1 0 1 3 1 1 2 2 1 3 3 3 4 4 1 0 1 3 3 1 1 1 1 3 1 3 2 1 1 1 0 2 1 1 1 1 0 0 2 1 1 1 2 1 1 3 1 2 0 2 0 0 2 2 2 3 1 0 3 1 2 1 1 1 2 1 2 2 0 1 0 2 0 1 3 2 0 2 0 1 1 2 1 1 1 2 1 0 2 1 2 2 2 2 1 1 0 3 2 1 1 0 2 2 0 3 1 2 3 3 1 1 3 1 0 0 0 1 1 1 1 3 1 0 1 1 0 2 0 2 2 0 0 1 2 0 0 1 1 2 2 3 2 1 0 1 0 0 2 1 1 2 1 2 3 1 0 1 0 0 0 1 1 1 0 1 1 2 1 0 0 1 1 1 3 1 1 0 0 0 2 2 0 0 3 1 2 1 0 3 2 2 2 1 2 1 1 0 3 2 2 0 1 1 2 1 1 0 0 1 2 4 3 1 3 2 1 2 2 3 2 2 1 1 3 0 1 0 0 1 1 1 1 1 0 1 1 2 3 2 0 2 0 0 1 4 2 1 1 1 1 1 0 1 2 4 2 1 3 1 1 2 1 3 0 1 3 1 1 2 1 2 1 1 0 1 2 1 1 3 1 1 0 1 2 2 0 2 1 2 1 2 2 1 0 1 1 1 2 2 1 1 2 2 1 0 2 2 1 3 2 1 0 2 3 0 0 1 1 0 4 2 2 1 0 0 0 1 0 0 1 1 1 1 0 0 1 1 0 3 0 1 2 1 2 2 2 1 0 2 0 0 0 1 1 1 0 1 3 2 0 1 1 1 1 1 1 3 2 1 2 0 2 0 1 1 1 2 1 1 0 4 3 1 1 1 2 2 0 2 1 1 2 1 1 0 1 0 2 1 0 2 2 1 1 2 1 1 2 2 2 1 4 1 3 0 0 2 2 1 3 1 1 2 1 1 4 2 1 2 2 2 2 1 1 2 1 0 2 3 1 0 3 1 0 1 1 1 4 1 2 1 1 0 2 0 0 2 1 1 1 1 2 0 0 2 1 1 1 1 2 2 3 0 2 0 1 1 1 0 1 1 1 3 1 3 4 1 1 2 0 3 0 2 4 1 1 1 1 1 1 1 0 2 2 1 0 1 2 1 2 3 1 3 2 2 2 3 1 1 1 0 2 0 2 2 2 1 2 0 1 3 1 1 2 0 2 1 1 2 0 1 3 2 0 2 1 0 3 1 3 1 1 2 1 1 1 0 0 2 1 2 2 3 1 3 0 1 1 3 3 0 1 2 1 0 1 1 2 2 3 3 2 2 1 1 1 2 0 2 2 1 1 2 1 1 2 2 1 3 0 2 1 3 1 1 0 2 2 0 0 1 1 0 2 3 2 1 1 2 1 2 1 0 3 1 0 2 2 2 1 3 1 2 2 1 0 2 0 1 3 1 0 1 0 0 0 2 1 1 4 0 2 1 0 3 1 3 1 1 0 2 1 1 3 0 0 0 2 0 2 2 0 2 1 0 2 1 0 2 1 4 2 3 2 2 0 2 3 1 2 1 3 2 1 0 2 2 1 1 2 1 3 0 2 1 2 3 1 3 1 1 2 2 1 1 1 0 2 2 0 1 2 2 0 2 0 0 2 1 1 1 0 2 1 0 2 3 1 0 0 2 0 2 0 1 0 2 1 2 2 1 1 1 1 1 1 3 1 0 2 1 1 2 1 0 3 1 2 1 0 1 1 0 1 0 3 2 4 3 2 1 1 1 2 1 0 1 0 1 1 1 3 0 1 0 0 1 2 2 1 3 0 3 0 1 2 0 0 0 1 1 1 2 2 2 1 2 0 2 1 0 2 2 2 2 2 3 1 0 1 0 1 2 4 1 2 1 2 2 2 1 2 3 2 0 0 2 2 0 1 2 2 0 3 0 0 3 1 1 1 2 1 3 1 0 1 1 1 2 2 3 2 0 1 0 3 1 1 1 3 1 1 1 1 2 3 1 1 0 1 1 3 2 1 2 3 0 1 1 0 0 1 1 1 1 1 2 1 3 2 0 1 0 0 2 1 0 2 2 1 1 2 2 1 2 2 0 0 2 1 1 1 1 1 2 2 0 1 2 1 0 2 1 3 1 1 3 2 1 2 2 0 1 0 2 1 2 1 0 3 2 0 2 0 0 2 1 1 3 2 1 2 2 0 0 0 0 1 2 1 0 1 1 2 1 1 3 1 0 2 3 0 0 2 2 1 0 1 4 0 2 2 0 1 2 2 1 1 2 1 2 1 1 2 1 1 0 1 1 0 3 1 2 0 3 3 1 2 2 1 3 1 2 1 2 1 1 1 1 2 3 1 0 1 1 0 0 3 1 1 0 1 1 3 0 1 3 2 2 3 2 0 1 1 0 0 2 2 1 3 1 3 1 1 3 2 1 1 2 1 3 4 2 3 1 2 2 2 1 0 2 1 0 1 2 0 1 1 2 3 1 1 1 2 0 2 1 3 4 1 0 1 3 3 2 1 2 0 1 2 0 0 2 1 0 2 3 1 1 2 2 3 3 1 2 1 0 0 3 0 1 0 2 1 1 1 2 1 0 0 1 2 2 2 0 1 1 1 3 3 1 3 0 1 1 1 1 3 0 1 2 0 1 1 0 0 1 2 0 0 1 2 3 2 3 0 3 0 1 0 0 1 4 1 1 2 3 1 1 0 2 1 1 2 1 3 1 1 1 0 1 2 2 1 0 3 0 1 2 0 1 2 2 3 0 1 2 2 1 0 1 1 1 0 1 1 1 2 0 1 0 2 1 3 1 2 1 1 0 1 0 3 1 2 2 0 2 2 3 2 4 1 2 3 1 2 0 2 1 0 0 1 1 1 1 1 2 4 3 2 1 1 1 0 0 0 0 0 2 1 0 1 0 1 2 1 1 0 0 2 1 2 0 0 1 1 2 0 1 2 1 0 4 0 2 0 2 2 1 2 1 1 1 1 1 1 0 3 2 0 3 2 0 0 0 2 1 0 2 2 0 1 2 3 1 3 2 0 1 3 2 1 1 1 2 1 4 1 2 1 1 1 2 1 2 0 1 2 2 1 0 0 1 0 2 2 2 0 0 1 1 2 1 2 0 4 0 2 2 0 0 2 2 2 0 1 0 1 1 1 1 1 1 1 2 2 1 1 3 2 1 1 1 1 1 2 1 2 0 2 2 1 1 1 1 1 1 2 1 1 2 1 1 2 1 1 1 1 2 2 2 0 0 2 4 1 2 0 1 2 0 2 1 0 3 0 0 1 0 1 1 1 1 2 1 1 2 1 0 0 0 1 0 1 0 2 0 3 2 1 2 2 2 3 3 2 1 1 0 3 2 1 4 2 1 0 3 2 0 1 2 3 1 1 1 0 1 1 1 0 0 1 1 2 2 2 1 1 1 1 2 1 2 3 3 1 0 1 3 2 1 1 2 3 2 1 2 3 0 3 2 1 1 3 1 2 1 1 2 1 1 3 1 2 2 1 0 2 2 1 1 2 2 2 0 1 1 1 1 4 1 1 1 0 2 0 1 1 0 0 2 2 1 1 3 2 1 1 1 0 2 0 0 1 3 0 0 0 1 1 0 0 1 1 1 1 2 3 2 2 1 1 2 1 2 3 2 1 0 2 1 0 2 2 0 1 2 1 1 2 1 1 1 0 1 1 1 1 2 2 3 0 1 0 2 2 1 0 1 0 0 1 3 1 1 2 4 3 2 3 1 3 2 3 0 2 1 1 1 2 1 3 0 1 0 1 2 0 1 1 1 1 2 1 0 1 1 1 0 1 1 2 3 1 1 0 1 2 5 0 0 1 3 2 2 1 1 2 0 2 2 1 1 2 0 2 1 1 1 1 2 2 1 2 3 1 2 1 1 1 1 1 2 1 3 0 1 1 2 0 1 1 0 0 2 0 0 0 1 1 1 1 3 1 1 2 0 4 3 1 1 3 4 0 1 0 2 0 2 1 3 1 2 0 2 0 2 1 2 1 1 1 0 2 2 0 2 1 1 2 1 2 1 2 2 1 2 0 0 1 1 1 2 1 0 2 1 0 1 0 0 1 2 1 1 1 1 0 2 0 1 0 3 1 1 1 1 2 0 1 2 1 0 1 2 2 1 2 2 4 1 0 1 2 2 2 1 1 1 1 0 1 1 0 1 2 1 0 2 1 3 3 2 1 0 3 1 1 0 0 1 2 3 0 0 0 2 3 0 3 0 0 0 1 1 1 2 2 1 1 0 0 0 1 2 0 2 2 1 2 2 1 2 2 1 0 1 1 1 0 2 1 1 2 4 1 2 1 1 0 3 0 1 1 3 1 2 0 2 1 1 1 3 1 1 1 0 2 1 0 1 2 2 2 1 0 0 0 2 2 0 0 0 1 2 2 1 1 0 2 0 1 0 0 2 2 2 1 2 1 1 1 0 0 0 2 1 2 1 1 1 1 2 0 2 1 3 0 1 1 2 2 1 1 2 2 1 1 0 1 2 1 1 3 2 0 2 3 2 0 3 1 1 4 3 2 0 2 1 1 2 0 1 1 0 1 1 1 0 3 1 3 0 3 3 1 1 2 1 4 1 2 1 1 5 2 1 0 0 2 1 2 2 1 0 2 0 2 1 1 0 0 1 1 1 1 1 1 2 2 2 1 1 2 1 2 0 1 0 3 2 2 2 2 2 1 1 1 2 1 0 2 1 1 0 1 1 0 1 1 2 0 2 2 1 3 1 0 1 0 1 2 1 1 1 0 1 1 1 2 0 2 1 3 0 0 0 3 3 1 1 3 2 2 3 1 2 2 2 2 2 1 1 1 1 2 2 0 1 1 2 0 1 1 1 1 1 2 1 1 3 1 1 1 0 0 1 2 1 3 2 1 0 1 1 2 2 1 1 1 2 4 1 0 3 1 0 2 1 3 1 1 0 1 3 2 2 3 0 2 1 2 2 1 0 3 2 1 3 1 1 1 1 1 2 1 2 1 1 1 3 1 2 0 0 1 0 1 2 1 3 1 1 0 1 1 1 1 1 0 1 1 1 2 2 0 0 1 1 1 1 1 2 0 0 1 0 2 2 1 1 1 1 2 2 0 1 1 1 1 0 1 1 3 0 1 0 1 2 0 1 1 2 2 1 0 0 2 1 1 2 3 2 1 1 0 3 1 1 2 2 1 0 1 2 1 1 2 1 2 1 0 1 2 2 1 2 1 3 1 2 0 1 2 1 2 2 1 1 2 1 0 1 0 2 2 0 1 1 1 2 0 1 1 1 3 1 3 1 3 1 1 1 1 2 1 3 1 1 2 0 0 2 0 1 3 1 3 0 3 0 1 3 0 2 3 2 1 3 4 1 1 1 1 1 2 2 1 1 4 3 0 0 1 2 2 0 1 1 2 2 2 1 2 1 0 0 2 1 2 3 1 1 1 2 2 0 1 2 2 0 2 4 1 2 1 1 2 2 1 0 1 0 3 4 0 0 1 1 0 1 2 0 2 0 0 2 3 1 2 1 1 1 5 0 4 2 3 1 2 0 1 2 2 1 2 1 2 1 1 2 2 2 2 2 2 1 0 1 2 1 3 0 3 0 1 2 3 3 1 1 2 1 2 3 1 1 2 0 0 1 2 1 3 1 0 1 2 1 2 1 2 1 2 2 1 2 1 2 1 1 1 2 1 2 0 3 0 2 2 3 2 2 2 2 3 1 1 2 3 1 1 0 1 0 1 2 1 2 1 3 1 1 2 2 1 2 1 1 0 1 1 1 3 2 3 1 1 3 1 1 1 0 2 1 0 1 1 2 2 0 0 2 2 0 0 0 2 2 1 1 1 2 0 1 3 0 2 1 0 3 0 0 2 0 1 0 0 2 1 1 1 3 3 1 2 1 1 0 0 1 2 2 3 0 2 3 2 2 2 1 2 2 0 0 2 2 0 2 3 0 2 0 1 3 1 2 1 0 1 1 2 0 1 2 1 1 0 2 1 3 2 1 1 1 1 2 2 0 2 1 1 0 1 3 0 3 2 1 1 1 1 0 2 2 1 1 0 0 0 2 2 2 2 1 2 3 1 0 1 2 3 1 1 1 1 2 1 0 1 2 1 1 2 0 0 4 1 2 2 2 1 0 1 3 0 0 2 2 1 2 3 1 0 0 1 0 0 0 0 2 2 1 0 1 0 0 1 1 1 1 1 1 0 2 2 1 0 1 1 1 0 1 2 0 1 1 1 0 0 2 1 2 1 1 2 1 2 2 1 1 1 1 2 0 0 0 2 1 3 0 1 0 0 2 1 3 0 2 2 0 1 1 1 1 2 1 1 2 0 0 0 1 4 0 3 1 2 2 2 2 1 0 1 0 3 1 1 2 0 2 1 0 2 0 2 0 1 1 1 2 1 1 0 3 0 1 3 0 2 1 3 1 1 4 2 2 0 0 1 3 1 0 1 3 1 2 2 3 2 3 1 1 0 1 0 1 2 1 2 1 2 2 2 1 1 1 0 2 3 3 0 2 1 2 2 0 1 2 2 2 1 1 0 1 3 2 1 1 2 0 1 3 1 1 1 0 1 2 1 1 3 1 1 1 1 1 2 1 0 1 1 2 1 1 0 0 0 1 1 1 2 3 1 1 2 3 1 0 2 2 2 2 0 1 1 1 0 1 3 2 2 1 1 1 2 0 1 0 2 0 2 2 1 2 1 1 2 2 2 1 0 2 1 2 3 2 1 1 0 1 1 1 1 1 3 2 2 0 1 2 0 1 1 1 1 1 1 2 3 1 1 1 3 1 0 2 2 1 2 2 2 2 1 1 1 0 0 1 0 1 0 1 2 3 1 2 1 0 0 1 1 1 2 0 1 4 0 1 3 3 1 3 0 1 2 1 2 1 2 0 2 2 0 0 1 3 1 1 1 0 3 0 0 1 1 0 2 2 2 1 0 0 2 2 1 3 1 1 0 1 3 1 1 1 1 0 1 1 2 2 1 0 3 2 2 3 0 1 4 1 3 0 2 1 2 2 1 1 1 1 1 2 2 1 1 0 1 3 2 1 0 1 0 0 1 1 0 2 0 2 0 2 0 2 1 3 1 2 3 2 2 1 1 1 1 2 0 0 1 1 1 1 1 3 0 1 5 2 1 1 2 3 0 1 1 0 1 1 1 2 1 0 1 1 1 2 0 0 0 1 3 2 1 1 2 2 1 2 1 0 1 5 1 0 0 0 2 2 2 1 2 0 1 1 1 0 1 2 2 3 1 2 1 1 1 0 1 0 0 2 0 2 1 1 1 0 2 1 2 2 2 1 3 2 2 0 2 1 1 2 2 2 1 2 0 0 3 1 1 2 1 2 1 2 1 2 0 1 0 0 0 1 3 1 1 2 1 1 1 0 1 2 0 1 1 0 2 4 1 2 1 0 2 1 2 1 0 1 2 1 1 1 2 0 0 0 2 1 1 2 0 1 2 4 2 2 2 1 1 2 2 2 0 2 2 0 1 1 0 2 3 0 1 4 2 0 1 2 2 0 1 1 1 1 3 2 0 2 2 1 1 1 1 0 1 1 1 0 2 2 0 3 0 1 2 1 1 1 2 2 0 1 0 2 1 2 1 0 1 2 0 2 1 2 1 1 0 1 1 2 4 2 2 2 1 0 0 2 1 2 1 0 0 1 1 1 3 1 1 0 2 1 1 1 1 0 1 2 1 1 1 4 0 3 3 2 0 2 1 2 1 1 2 1 1 1 1 1 3 2 0 1 2 0 0 1 0 0 0 2 2 1 1 2 1 0 0 2 2 2 1 1 1 2 0 1 0 0 3 2 1 1 1 1 2 1 0 0 1 0 2 2 2 2 0 0 0 0 1 1 2 2 2 0 0 3 2 2 3 1 3 1 0 2 2 2 0 0 0 2 1 2 1 1 2 2 1 1 2 2 2 0 0 2 1 0 0 0 2 2 1 1 2 0 0 1 1 0 0 1 0 0 3 0 2 2 3 2 0 0 0 1 2 0 1 0 1 1 2 1 4 0 0 1 1 0 0 1 0 0 2 2 1 2 2 0 1 1 1 1 0 2 1 4 3 1 3 1 2 0 1 0 2 1 2 1 3 0 1 1 1 2 0 2 1 0 1 3 1 0 0 2 1 0 1 2 0 1 1 1 0 2 2 2 0 2 3 2 1 1 1 0 2 1 2 1 0 0 1 1 2 1 0 2 3 1 2 0 2 1 1 1 2 2 1 0 1 0 1 4 1 2 1 1 1 0 1 3 1 2 0 1 1 1 2 0 1 2 1 0 1 3 1 2 0 1 2 0 2 1 1 1 1 2 2 1 1 0 1 1 0 0 1 2 1 2 2 1 0 1 1 2 2 1 1 0 1 1 3 1 1 0 1 1 0 2 1 0 0 0 2 0 2 3 2 2 0 3 2 1 0 2 1 1 1 3 0 3 2 0 1 0 3 1 0 0 1 1 1 2 0 2 3 1 1 1 3 2 1 1 0 2 1 2 2 2 1 1 2 2 0 2 2 2 1 2 2 1 2 2 4 3 2 2 2 1 0 1 2 3 1 0 1 2 0 1 4 1 2 3 1 1 4 0 1 2 0 1 1 3 2 1 0 1 2 0 1 2 1 2 2 1 2 0 0 2 1 1 1 1 1 1 1 5 2 1 1 1 1 1 1 1 3 1 2 1 1 2 1 2 0 1 1 1 1 2 1 0 3 1 2 0 2 2 2 3 0 1 1 1 1 2 0 1 1 2 1 3 0 0 4 0 1 2 1 1 4 2 1 3 1 3 0 1 1 2 0 1 1 1 1 1 2 1 1 2 1 1 2 1 0 1 1 1 2 1 1 2 2 0 1 1 1 1 1 3 2 1 1 2 1 0 2 1 1 1 3 1 2 1 0 1 3 1 4 0 3 1 2 2 0 3 2 2 1 0 3 1 0 0 2 1 1 1 1 3 1 1 1 1 0 2 1 2 1 1 1 1 0 1 1 3 3 3 1 2 1 1 2 2 1 2 2 1 2 0 1 1 1 2 0 2 1 0 2 1 1 2 3 2 3 1 0 1 0 1 0 0 3 2 3 2 2 1 1 1 3 2 0 1 2 3 1 2 0 2 2 2 3 1 2 0 2 2 2 0 0 0 1 2 1 1 1 2 0 2 1 0 3 0 0 1 0 2 1 2 1 0 2 1 1 0 1 1 5 0 1 2 1 0 2 2 2 1 0 0 1 0 3 0 2 1 1 1 2 1 2 2 1 4 1 1 4 1 1 2 1 4 1 0 1 3 2 1 1 2 0 3 1 1 1 3 1 2 2 1 2 3 0 1 1 0 2 2 1 1 1 0 0 1 1 2 0 0 3 1 2 1 1 1 1 0 1 1 1 2 2 1 1 2 1 3 0 1 1 1 2 2 1 1 2 1 2 0 1 1 2 1 1 0 1 0 2 1 0 4 0 3 2 0 0 1 1 0 1 0 1 2 2 0 2 1 2 3 0 0 2 0 2 1 0 2 1 0 2 0 0 2 1 2 3 2 1 2 2 4 1 2 0 0 1 4 1 0 1 2 1 2 1 2 0 1 1 0 4 2 2 1 1 2 1 0 1 1 0 1 2 1 1 3 0 2 1 1 0 1 0 2 1 2 1 0 2 3 2 1 1 1 0 1 1 2 1 1 3 1 0 1 1 1 1 2 1 0 1 1 0 1 1 0 2 1 0 0 2 1 2 2 0 1 1 2 3 2 1 1 1 1 2 1 1 0 1 2 1 0 1 0 0 2 1 4 2 1 0 1 1 0 1 2 1 1 1 1 1 1 2 1 1 1 0 0 2 1 1 1 1 2 3 3 1 1 0 1 0 1 0 2 2 0 3 2 2 0 0 0 1 1 1 3 1 0 2 1 1 1 2 3 0 1 2 0 0 3 0 0 2 0 3 1 1 3 2 2 2 0 1 1 0 1 1 2 2 1 2 2 0 1 2 1 1 1 1 2 3 1 2 1 1 2 1 1 0 0 2 1 1 0 3 1 0 2 2 2 1 1 1 3 0 1 0 2 1 2 0 0 1 1 1 2 1 1 2 0 1 2 2 3 0 2 1 1 1 2 0 1 1 2 1 0 0 2 1 3 1 0 1 1 1 1 0 1 1 1 3 1 0 2 0 3 1 0 3 1 0 1 2 2 1 2 1 0 1 0 2 2 3 1 0 0 2 2 0 1 1 0 2 2 2 1 1 1 3 2 1 1 1 3 1 0 1 3 0 1 3 1 3 1 2 1 1 0 0 1 2 4 1 3 3 2 2 0 3 3 1 1 3 1 0 3 0 0 0 1 1 1 0 2 1 2 2 1 1 2 0 2 1 1 0 2 3 1 2 3 2 3 1 0 1 1 2 2 0 2 1 0 2 1 2 3 2 0 0 1 2 2 2 1 2 1 2 3 2 1 1 1 2 0 0 0 3 1 1 2 2 1 0 1 1 1 1 2 3 3 1 1 0 1 1 0 2 1 2 3 0 0 3 3 0 0 1 1 3 2 3 3 2 1 3 1 1 1 1 0 0 1 1 1 0 2 3 3 1 1 1 0 1 0 1 2 2 1 2 1 2 1 1 0 0 0 2 2 2 2 2 0 0 2 1 1 1 2 2 1 0 1 1 1 1 0 2 0 1 1 1 2 0 2 3 1 1 0 2 1 1 1 2 2 2 0 2 1 1 1 0 0 1 0 1 3 2 0 2 0 1 1 1 2 2 1 2 1 3 2 1 2 0 1 0 1 2 3 1 1 1 2 1 1 1 1 1 2 1 1 1 0 1 1 1 2 2 1 1 2 1 1 0 2 1 1 3 1 1 3 2 3 3 2 2 0 0 4 2 3 1 2 2 2 1 1 2 1 1 0 1 3 1 0 1 0 1 1 2 1 1 0 1 0 1 2 0 1 1 1 2 0 0 2 1 2 0 3 2 0 0 0 4 3 2 2 0 1 1 1 3 2 1 2 3 0 4 2 3 2 0 1 0 0 0 1 1 2 2 2 1 0 2 3 2 1 2 2 3 1 2 1 1 0 1 2 2 3 1 1 5 0 2 1 1 1 2 1 1 1 2 2 0 3 2 0 1 0 2 2 1 1 0 1 2 2 2 1 2 0 2 2 4 1 1 0 2 4 0 1 1 0 1 0 2 0 1 1 1 3 2 3 2 2 1 1 1 2 0 4 0 0 3 1 1 2 0 1 0 1 0 3 0 0 0 0 0 2 0 1 1 1 2 3 0 1 2 1 2 2 1 2 1 1 0 2 0 2 1 1 0 1 2 1 1 1 0 2 2 1 1 1 2 1 3 0 1 2 1 2 1 2 0 2 2 0 2 2 0 1 2 2 1 2 1 0 2 2 1 3 2 1 1 2 0 2 1 0 0 2 0 2 2 1 0 0 0 1 0 0 0 0 1 2 2 0 0 1 1 0 1 1 1 1 0 0 1 0 0 2 1 0 0 2 1 2 1 2 2 0 1 1 2 2 1 0 1 1 0 0 2 1 2 2 0 1 1 2 1 1 0 3 3 2 2 2 1 0 1 1 2 0 1 2 1 1 1 1 2 1 2 2 1 1 2 1 0 2 4 1 0 2 3 3 0 1 1 1 0 2 1 1 0 2 3 2 1 1 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 2 0 1 1 1 1 3 1 1 2 1 1 1 0 0 1 2 2 1 1 1 0 2 0 2 0 1 0 1 2 2 2 3 2 1 2 2 1 0 0 1 1 1 2 0 2 1 3 1 1 2 2 0 0 4 0 0 1 3 1 0 3 0 2 2 1 1 2 1 3 1 0 1 0 2 2 3 2 0 1 1 0 3 1 1 1 1 0 2 0 2 1 0 1 0 1 2 1 2 0 1 3 0 1 2 0 2 1 2 1 3 0 2 2 2 1 1 1 1 2 0 1 2 2 2 1 1 3 1 0 2 1 2 1 0 1 3 1 2 2 2 1 2 1 0 1 2 3 1 1 1 1 1 0 0 2 0 1 2 1 1 2 0 3 0 2 2 1 0 2 1 2 1 2 0 2 2 0 2 0 0 1 0 2 1 3 1 1 1 1 3 2 1 0 1 1 0 1 1 1 2 0 1 3 2 1 0 1 2 3 0 1 0 3 2 2 1 4 2 1 2 0 1 0 0 0 6 0 2 1 3 0 1 2 0 1 0 0 0 0 2 0 2 1 0 1 0 0 0 1 3 2 1 2 1 2 1 1 2 3 2 0 3 1 1 0 0 1 0 2 1 3 2 0 1 2 2 2 4 1 1 1 1 2 2 1 1 4 2 2 1 1 0 0 3 1 3 0 0 1 1 1 2 0 4 3 2 1 2 2 0 0 0 3 1 1 1 1 0 1 2 3 1 2 1 1 1 1 1 1 3 2 3 3 0 2 1 2 0 0 1 0 2 2 2 3 2 2 1 1 1 1 3 0 3 0 1 2 0 1 3 2 0 3 1 2 2 3 0 2 1 2 2 1 1 3 2 2 4 1 1 0 1 1 1 2 4 0 4 2 1 2 1 1 1 2 0 3 0 1 2 1 2 1 0 1 1 1 1 1 0 1 3 1 3 0 3 1 1 1 2 0 1 1 2 3 3 1 1 2 1 2 1 2 1 2 0 0 1 0 3 0 1 1 2 0 1 0 1 1 1 0 1 1 1 2 2 0 2 1 1 2 3 0 2 2 3 1 0 1 2 0 0 0 1 1 1 0 2 3 0 2 2 0 1 0 2 1 0 1 2 1 1 2 0 2 3 2 1 1 0 1 2 0 1 1 0 2 2 3 2 0 1 2 1 1 1 1 1 2 2 3 0 0 3 1 0 0 1 0 2 1 1 1 2 1 1 2 0 0 2 0 0 0 1 1 0 0 0 1 0 0 2 2 2 2 2 2 1 1 1 2 1 2 0 1 0 0 1 0 1 2 1 1 2 1 1 1 2 2 1 2 2 2 1 0 1 2 0 1 2 1 3 1 2 1 1 2 1 1 2 1 2 2 1 1 0 3 0 0 1 0 0 1 1 2 1 0 2 2 2 0 3 1 2 3 1 2 2 0 0 1 2 1 3 1 2 4 0 1 0 0 1 0 2 1 1 2 0 2 0 3 1 2 0 1 0 1 2 0 2 0 2 0 0 3 0 2 0 2 1 2 3 0 2 0 3 1 1 0 0 1 0 2 0 2 2 2 0 1 1 1 2 0 0 1 2 0 2 2 2 2 2 2 2 0 1 1 1 1 3 0 1 1 1 2 0 4 0 0 1 2 1 1 2 2 0 2 2 2 2 2 2 2 1 1 1 1 2 1 2 0 1 1 0 0 2 2 1 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 0 3 3 2 3 1 0 3 2 2 1 1 3 0 2 5 1 2 4 1 2 1 1 1 1 0 1 0 0 1 2 3 3 0 1 0 1 1 1 2 2 0 2 1 2 1 3 1 1 1 1 2 1 2 1 3 2 0 1 0 1 0 0 3 1 1 0 2 1 0 2 0 2 1 1 1 0 3 1 1 0 0 0 1 0 1 2 0 0 1 1 0 3 2 0 0 2 1 1 1 3 1 0 0 1 2 3 4 1 0 3 1 0 1 2 1 1 2 2 3 1 2 2 2 1 0 1 1 0 1 2 2 2 0 1 3 2 2 1 3 0 1 1 2 0 1 1 2 1 6 1 0 1 1 2 0 2 2 2 0 0 1 2 0 1 3 2 2 1 1 0 2 2 1 1 1 0 1 2 2 1 0 0 0 0 1 0 1 0 1 2 3 2 3 0 3 1 1 1 1 1 1 0 3 3 2 2 2 1 2 2 1 0 2 1 1 0 0 1 1 3 0 2 2 0 2 0 0 2 2 1 1 1 1 1 1 3 1 2 1 1 1 3 1 1 0 1 2 1 1 1 1 2 2 2 1 1 0 2 1 1 1 2 0 2 1 1 2 1 4 4 0 1 2 2 1 1 3 1 2 2 2 0 0 1 0 1 0 3 0 2 0 3 1 1 1 1 3 1 2 2 1 2 2 2 4 2 1 2 0 2 1 2 0 0 2 1 1 2 2 2 1 1 1</t>
-  </si>
-  <si>
-    <t>GAM(0.3281402142863614, -1.8200678067831153e-28, 0.5970929741274005)</t>
-  </si>
-  <si>
-    <t>0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 1 0 1 0 1 2 1 1 3 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 3 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 2 1 2 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 2 0 0 2 1 1 0 0 0 0 0 2 1 1 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 0 1 1 0 0 0 2 2 0 0 0 0 1 1 0 1 3 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 0 0 1 0 0 1 0 0 0 0 1 2 0 2 0 0 2 0 1 0 0 0 0 0 0 2 0 3 0 2 1 0 0 2 1 0 0 3 0 0 0 1 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 1 0 2 1 0 0 0 0 0 2 1 0 0 1 0 1 0 1 3 0 0 1 0 2 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 2 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0 1 2 0 1 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 2 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 0 2 0 1 0 0 0 2 0 0 0 1 0 0 3 0 1 0 0 0 2 1 0 0 1 0 0 0 0 1 0 0 1 2 0 0 2 0 0 1 1 3 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 3 0 0 0 1 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 2 1 1 0 0 0 0 0 2 1 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 2 1 2 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 1 0 2 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0 1 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 2 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 2 0 1 1 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 2 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 3 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 3 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 3 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 2 0 0 0 1 1 2 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 2 2 1 0 1 1 1 0 0 0 1 1 0 0 1 0 3 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 2 0 0 2 0 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 2 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 1 2 0 0 1 0 0 1 0 0 1 1 1 2 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 2 0 1 1 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 2 3 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 2 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 3 1 0 0 1 3 3 0 1 0 0 1 0 0 1 0 0 0 1 0 2 0 0 2 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 2 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1 1 1 1 0 0 2 0 0 1 0 0 1 0 0 0 0 2 0 1 0 0 1 3 1 1 1 0 1 0 0 0 0 2 0 0 0 2 0 0 2 3 0 1 1 2 0 0 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 1 1 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 3 0 1 0 1 1 0 0 0 0 1 0 0 2 2 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 1 0 0 0 3 2 0 0 0 1 0 1 1 0 1 0 0 1 1 2 2 1 0 1 0 0 1 1 1 0 0 2 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 2 0 2 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 2 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 2 0 0 0 1 0 2 2 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 2 2 1 1 1 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 1 0 2 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 2 0 0 1 1 0 1 1 0 0 0 2 1 2 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 1 1 0 0 0 0 0 1 1 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 2 1 1 1 1 1 1 2 0 2 0 0 0 0 1 0 0 1 1 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 3 2 1 0 0 0 2 1 2 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 1 0 1 0 2 1 0 2 2 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 3 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 2 2 0 1 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0 3 1 0 1 1 0 1 1 1 1 0 0 1 0 2 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 1 0 1 0 0 0 0 1 0 2 2 2 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 2 0 0 1 0 0 2 1 0 0 2 2 3 1 0 2 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 3 1 0 0 0 2 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 2 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 2 0 0 0 0 0 1 2 2 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 2 1 0 0 0 1 1 1 0 1 1 0 0 0 0 1 2 0 1 2 0 0 0 1 0 1 0 2 1 0 0 0 0 0 0 1 0 0 2 3 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 2 0 0 1 0 0 2 0 1 0 2 0 2 2 0 0 1 2 0 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 0 1 2 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 2 1 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 1 1 2 0 0 1 1 2 0 1 0 0 2 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 1 1 1 1 0 1 2 0 1 1 0 0 0 0 1 0 0 1 1 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 1 1 1 3 1 1 1 0 0 1 0 0 1 0 0 0 0 0 3 0 0 0 1 0 0 1 0 2 2 0 1 1 1 1 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 0 0 0 1 2 1 0 0 0 0 3 0 0 1 1 0 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 2 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 1 3 1 0 1 2 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 1 3 1 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 2 0 0 1 1 1 0 1 0 0 0 1 0 1 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 0 2 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 0 2 0 0 0 0 0 1 1 0 1 2 0 0 0 1 1 1 1 0 1 0 0 0 1 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 1 2 0 0 1 3 0 2 1 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 2 1 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 2 2 0 2 0 2 1 2 0 2 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 2 0 5 2 1 0 1 0 1 1 0 0 0 1 1 0 0 0 2 0 2 0 0 0 1 0 0 0 0 1 2 1 1 1 0 0 1 0 0 1 1 1 1 1 2 1 2 1 1 1 0 1 0 1 2 0 2 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 2 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 1 0 1 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 1 0 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 2 2 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 2 0 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 1 0 2 1 1 2 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 2 1 1 1 1 0 0 0 0 0 0 3 1 1 0 0 0 0 1 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 3 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 1 1 2 1 1 0 1 2 1 1 1 1 0 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 2 0 1 0 0 0 0 0 0 1 0 1 0 2 1 0 1 0 2 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 2 0 2 0 1 0 1 0 1 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 2 0 4 1 0 1 0 0 0 0 2 1 1 0 0 0 1 0 0 2 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 2 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 4 0 0 2 1 0 0 0 2 1 1 2 0 0 1 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 1 1 1 2 0 0 0 0 0 2 0 0 0 1 0 0 2 0 0 1 1 3 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 2 0 0 0 0 2 1 0 0 0 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 1 2 0 0 0 1 0 0 0 2 1 0 2 0 0 2 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 2 0 0 0 0 2 0 0 0 0 0 1 1 1 1 2 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 1 0 1 2 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 2 1 0 2 0 0 0 1 2 0 2 0 0 1 0 0 1 0 0 1 0 0 1 3 1 0 0 1 0 0 2 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 2 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 2 0 0 1 1 2 1 0 2 0 0 1 0 1 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 1 3 0 2 0 1 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 2 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 2 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 0 0 0 2 0 0 2 3 1 0 0 0 2 0 0 1 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 2 0 1 1 0 0 0 0 1 1 1 1 0 0 1 2 0 0 0 0 0 1 0 0 0 1 2 0 0 3 1 0 0 1 2 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 1 0 2 2 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 0 0 0 2 1 2 0 0 2 0 0 1 0 0 0 2 1 0 0 0 0 1 2 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 3 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 2 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 1 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 2 2 2 0 0 0 1 0 1 0 0 2 0 0 0 0 1 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 2 1 0 2 0 2 1 0 1 2 0 1 0 0 1 1 0 0 0 0 0 1 0 1 2 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 3 0 1 0 1 1 0 0 0 0 2 0 2 0 2 1 1 0 0 1 1 0 0 1 0 0 2 1 2 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 2 2 0 0 0 0 0 2 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 1 1 2 0 0 0 2 1 0 1 2 1 2 2 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 3 0 3 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 2 0 2 0 0 0 0 0 0 1 1 1 0 0 2 1 3 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 2 3 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 2 1 1 0 1 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 2 2 1 0 1 1 0 1 0 0 0 0 0 1 2 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 2 1 1 0 0 0 2 1 1 0 1 1 0 0 1 0 0 0 0 1 0 2 0 1 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 2 1 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 2 0 1 1 1 2 0 0 0 2 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 2 0 1 0 0 2 0 1 0 0 0 4 1 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 0 3 0 1 0 2 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 2 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 1 0 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 3 1 2 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 2 0 2 1 0 3 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 2 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 0 1 0 4 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 2 0 1 1 0 0 0 2 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 2 1 0 1 2 0 0 0 1 0 0 1 2 0 0 0 2 0 1 2 0 0 0 2 0 1 0 0 0 0 2 1 1 1 1 1 0 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 1 3 0 0 0 1 3 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 1 1 0 0 0 2 1 2 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 2 0 0 1 0 0 1 0 1 0 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 2 1 1 2 0 0 0 1 1 0 0 0 2 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 1 0 2 1 1 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 2 0 0 0 1 1 0 3 0 0 0 1 0 0 0 1 1 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 2 2 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 3 0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 1 2 2 0 0 0 2 1 1 1 1 1 2 2 0 0 0 0 0 0 1 0 3 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 2 1 0 0 0 0 2 0 0 0 2 0 0 0 0 1 2 0 0 0 0 0 0 1 0 2 0 0 0 1 0 1 1 0 0 1 0 0 1 2 1 0 1 1 0 0 0 2 0 2 0 0 0 1 0 1 2 0 1 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 0 2 2 0 0 0 0 2 1 0 0 1 0 0 1 1 1 0 1 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 1 1 0 1 0 0 2 1 1 0 0 1 0 0 3 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 0 1 0 0 2 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 3 0 3 0 1 0 1 0 0 0 1 0 0 0 1 2 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 1 0 1 2 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 2 0 1 2 0 0 1 0 0 3 0 0 0 1 0 0 0 2 1 3 1 0 0 2 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 2 2 0 1 1 1 1 1 2 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 2 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 1 2 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 1 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 2 1 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 1 2 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 3 1 1 1 0 0 3 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 2 1 1 0 1 0 1 1 3 0 0 0 1 0 1 0 1 2 0 0 1 0 0 0 0 1 1 0 1 2 0 0 0 1 0 2 0 0 0 0 1 0 0 2 1 0 1 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 2 1 0 0 0 1 1 0 0 0 0 0 2 2 1 0 2 0 1 1 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 2 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 3 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 2 1 1 1 2 0 0 0 2 1 1 0 1 0 0 2 0 0 0 0 0 1 0 0 1 1 1 1 2 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 1 0 1 3 0 0 0 0 1 1 2 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 2 0 1 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 1 2 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 3 0 0 1 0 1 0 0 0 0 2 0 0 1 2 0 0 1 0 0 1 0 0 0 2 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 2 3 0 0 3 0 0 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 2 0 1 1 2 0 1 2 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 1 1 1 3 0 0 1 1 0 0 0 3 1 0 2 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 2 1 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 2 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 3 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 2 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 1 0 0 1 1 1 0 2 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 2 2 0 0 1 0 0 1 0 2 1 0 0 1 1 0 1 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 2 0 2 0 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 2 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 2 1 1 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 2 2 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 1 2 1 1 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 2 1 0 3 0 0 0 0 0 0 0 1 0 3 1 2 0 0 0 0 1 0 1 2 0 2 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 0 1 0 0 1 1 1 2 0 3 0 0 0 0 2 0 0 0 1 2 2 0 0 1 1 1 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 1 0 2 1 0 0 1 0 1 1 2 0 1 2 0 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 1 1 0 2 2 2 0 2 1 0 0 2 0 0 0 1 2 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 2 1 0 0 0 0 2 1 0 1 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 2 2 0 0 1 1 2 1 1 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 2 1 2 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 2 1 0 1 2 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0 2 1 0 0 0 1 0 2 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 3 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 1 1 0 0 1 1 1 0 0 2 1 0 1 0 0 3 0 0 2 1 1 0 0 4 0 0 0 0 0 0 1 2 0 0 0 0 1 2 0 2 0 1 1 2 1 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 0 1 0 0 1 1 2 0 1 1 1 1 1 1 1 0 1 0 0 1 1 0 0 1 2 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 2 1 0 1 0 1 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 3 0 0 1 1 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 1 1 0 0 0 0 1 1 2 1 1 0 1 0 0 0 1 0 0 1 0 3 1 1 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 2 1 0 2 1 1 0 0 0 2 0 0 1 0 0 0 1 1 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 3 0 0 0 2 2 0 0 2 0 0 0 1 0 1 1 0 1 0 0 4 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 2 2 1 0 1 2 0 0 2 1 2 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 1 0 1 0 1 0 0 1 2 0 0 0 0 3 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 2 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 3 1 0 0 0 1 0 0 0 0 2 0 0 1 0 2 0 1 0 0 0 2 1 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 2 0 1 0 1 0 1 0 2 0 1 0 1 1 0</t>
-  </si>
-  <si>
-    <t>EXN(0.6634689734911161, 80.90118023752586, 30.885740248954733)</t>
-  </si>
-  <si>
-    <t>130 84 64 198 148 95 157 49 155 98 76 114 45 86 44 64 110 79 93 47 92 110 162 130 113 67 101 101 145 89 149 99 193 160 59 94 78 85 77 71 133 85 45 41 83 101 91 135 112 76 124 113 140 117 81 132 106 130 62 52 77 41 102 92 125 92 117 121 104 110 98 98 74 120 132 88 128 69 97 101 92 93 132 109 116 173 118 95 105 120 72 120 92 77 77 109 114 97 101 76 142 78 108 179 125 81 103 114 127 60 164 155 106 120 126 81 65 62 91 130 103 103 103 119 144 122 65 92 120 69 121 41 126 86 97 110 36 198 115 225 142 118 159 33 81 142 79 24 111 73 67 100 133 108 89 114 91 175 135 86 137 146 140 124 143 89 144 84 52 153 116 187 76 125 101 79 71 190 66 118 143 132 78 76 102 101 91 98 145 91 134 119 118 165 81 105 75 107 201 110 112 68 103 171 50 68 68 173 115 96 80 106 74 83 81 87 127 47 122 74 95 84 120 89 155 76 99 81 158 33 77 92 132 60 132 75 59 163 103 91 57 81 102 151 136 126 95 99 97 85 66 131 71 115 105 160 138 185 104 189 93 78 160 153 82 70 56 39 58 124 95 116 105 134 161 118 73 77 142 119 180 134 18 92 50 32 76 172 64 63 241 120 117 76 118 96 81 96 91 62 87 124 155 137 153 157 165 45 37 145 84 29 51 112 75 213 95 91 97 147 75 99 76 81 52 125 78 159 89 187 50 97 147 155 94 65 19 64 92 156 81 76 52 141 75 95 107 51 95 109 80 87 150 43 127 97 80 51 134 108 28 122 142 136 93 113 62 63 178 96 136 97 138 144 136 39 33 88 71 99 110 87 77 64 135 105 123 147 83 0 27 130 130 147 144 134 34 113 47 103 91 77 68 130 66 137 87 94 42 63 89 89 70 140 124 90 104 120 37 55 80 161 173 125 108 110 148 75 112 127 73 124 93 94 136 124 95 143 102 88 118 124 92 76 143 126 105 89 39 113 96 98 98 112 132 115 147 201 114 45 64 97 79 101 96 126 68 148 77 115 47 72 73 82 122 32 69 143 126 152 165 134 127 97 145 63 105 158 95 43 181 102 152 107 112 98 38 153 130 98 91 130 114 109 93 96 111 77 76 81 73 111 58 69 114 154 57 57 98 94 98 73 88 103 49 99 123 148 128 86 128 99 52 70 72 137 104 147 134 121 122 93 100 121 95 67 133 14 125 118 108 81 70 100 85 84 88 76 62 112 125 32 123 84 92 144 87 86 134 152 118 88 94 80 150 43 36 145 143 106 104 43 89 69 135 167 130 94 155 76 98 167 66 92 118 134 117 88 79 69 63 81 78 110 180 79 76 46 118 112 54 133 167 87 147 135 49 118 105 109 46 65 78 48 100 31 50 90 155 142 19 122 91 121 121 75 137 40 89 92 79 125 148 140 72 22 85 109 113 119 123 78 80 62 86 141 131 68 97 57 99 133 71 113 117 82 96 110 109 117 71 136 80 120 200 92 160 152 98 70 99 70 181 46 141 153 102 79 100 105 65 123 56 90 75 72 120 57 44 61 171 45 95 155 68 71 83 87 92 99 63 194 71 53 108 73 128 108 42 182 118 38 101 44 42 157 137 145 93 147 119 65 63 126 83 119 116 71 129 114 100 58 51 47 49 136 111 61 111 200 68 128 147 236 146 162 63 88 143 91 115 100 136 132 38 108 58 148 39 92 117 49 50 121 42 63 37 94 82 62 103 121 148 112 75 94 64 36 51 145 94 122 89 124 101 41 88 150 148 180 165 174 79 113 211 113 83 133 89 71 112 62 62 75 46 95 116 110 98 75 66 205 87 144 183 116 94 88 109 69 80 149 107 140 141 143 74 79 131 71 96 104 82 109 109 87 114 76 65 30 116 125 125 116 83 102 144 113 108 207 73 123 63 120 104 163 154 45 78 215 47 161 34 52 74 41 44 48 131 85 114 48 116 92 159 114 74 109 147 109 161 45 136 46 59 134 93 110 99 20 88 186 87 149 165 124 9 73 50 117 116 136 117 78 115 121 68 109 153 70 62 112 43 85 52 126 114 107 118 102 44 118 30 127 154 145 77 60 92 84 149 68 116 114 99 138 76 98 69 91 120 64 103 157 99 87 59 81 138 106 35 118 173 106 183 143 68 87 108 122 150 66 106 86 85 90 82 72 116 142 139 130 87 111 87 92 95 137 105 84 122 152 156 136 72 86 136 119 82 121 66 97 93 104 80 160 98 43 148 122 129 66 98 131 60 22 170 109 72 111 94 149 114 60 107 77 81 123 194 30 78 41 152 33 93 143 138 160 132 120 108 108 44 136 87 108 96 179 41 139 115 158 101 97 101 72 89 63 61 132 122 143 90 128 26 62 78 107 42 131 196 118 139 62 71 137 154 126 95 83 153 186 131 96 112 67 160 55 106 121 74 108 63 149 122 129 123 109 67 136 117 120 94 79 107 155 111 69 163 123 100 93 164 74 129 105 131 104 111 21 88 175 95 174 121 75 76 84 73 135 149 150 66 155 129 128 28 181 135 50 62 126 45 72 146 62 129 68 150 141 88 55 63 111 143 123 124 54 51 69 60 82 111 91 112 151 87 148 128 82 90 98 197 76 88 31 87 113 101 84 108 67 119 135 76 75 70 145 81 146 109 55 103 50 170 144 116 78 81 91 109 76 51 169 52 41 115 101 92 60 111 84 149 151 77 124 83 120 124 62 121 142 34 53 67 103 81 75 97 150 74 63 112 100 76 117 86 66 147 57 93 95 149 106 174 124 173 106 84 66 86 129 98 96 114 62 119 83 111 66 79 101 160 67 149 107 101 177 98 116 94 127 111 97 134 72 67 21 134 101 104 63 147 70 117 226 111 88 54 161 109 126 59 125 70 96 122 106 118 99 48 92 114 86 85 50 81 52 87 37 192 94 51 100 153 83 68 137 96 120 78 110 162 141 154 54 105 87 138 143 34 88 104 108 82 52 124 148 77 109 77 74 106 85 66 61 137 72 91 131 45 73 129 100 124 53 139 92 165 140 164 139 80 106 57 91 103 105 113 130 57 92 115 83 123 156 97 109 132 79 18 113 121 141 79 37 76 193 55 190 101 60 67 156 135 104 67 33 87 128 54 94 103 103 84 86 143 136 46 139 115 120 172 111 152 123 182 176 82 148 57 111 103 82 42 97 130 103 113 80 158 128 134 119 166 83 97 66 94 92 98 90 52 56 91 111 42 43 111 65 84 74 110 124 70 95 185 182 96 109 56 166 99 175 180 114 93 188 74 73 127 43 109 119 109 121 80 147 192 121 67 91 99 170 91 102 68 125 100 161 140 101 84 43 108 109 84 139 63 188 76 72 100 95 83 120 136 91 114 132 57 47 79 76 123 71 114 68 157 109 140 142 106 94 87 162 147 172 176 94 38 116 73 73 134 76 62 119 78 23 105 130 140 97 108 62 217 94 100 102 126 29 140 129 112 147 94 162 58 114 111 141 71 89 81 156 42 80 107 119 164 47 113 130 132 97 142 134 78 118 21 63 132 86 91 79 89 83 115 92 76 95 133 211 148 117 136 87 84 130 73 133 104 126 40 144 105 124 139 23 122 58 82 114 80 86 152 166 107 125 80 102 90 38 97 94 130 110 81 104 102 133 169 72 132 88 126 130 101 110 99 121 100 76 54 67 80 158 93 46 217 111 79 55 116 132 152 209 78 114 90 81 36 127 83 97 54 109 135 131 104 50 175 105 184 112 44 121 72 115 79 29 93 88 58 84 85 239 99 76 116 126 59 75 44 78 179 158 42 99 112 116 54 101 35 92 109 44 58 65 55 97 107 98 73 120 139 106 152 141 129 94 133 102 176 125 153 134 118 106 70 133 140 127 58 108 40 77 124 173 37 102 107 116 117 132 94 120 101 120 114 112 109 92 128 82 121 113 133 132 115 146 144 108 127 109 91 43 121 58 77 83 161 83 79 130 111 76 110 93 74 38 203 244 64 115 108 103 111 127 116 107 90 132 105 63 107 159 103 124 131 22 66 139 113 145 100 109 102 99 91 118 84 92 184 73 91 64 60 23 131 118 132 117 72 22 62 92 61 124 133 94 110 142 103 63 81 128 90 60 59 36 133 123 73 109 115 167 85 78 139 120 112 109 113 164 117 51 150 31 81 179 124 97 105 60 191 116 201 44 44 80 119 69 69 99 104 90 175 192 127 96 168 60 154 101 45 71 130 111 92 137 116 124 75 98 105 91 112 68 62 59 84 112 121 142 101 163 105 92 25 61 122 82 66 96 193 70 36 108 108 102 135 121 100 123 114 76 86 59 109 102 151 125 124 192 54 77 83 33 84 75 19 95 100 150 126 60 149 86 88 86 179 149 108 47 49 110 144 60 101 67 73 158 84 109 141 49 74 74 109 92 52 133 158 43 95 118 127 73 156 85 62 127 36 94 89 121 60 179 104 118 139 37 119 64 48 127 45 121 32 78 117 114 43 102 111 164 77 101 168 102 90 51 135 147 96 51 161 107 49 75 71 132 91 113 65 111 80 52 16 117 135 79 73 55 149 116 162 72 104 83 137 105 97 62 67 24 169 64 84 57 118 89 151 111 117 179 67 132 103 75 80 59 97 82 63 56 98 39 73 111 81 162 90 82 137 24 120 59 116 67 57 87 103 92 132 145 80 34 61 146 102 141 129 162 52 100 75 101 98 63 130 61 140 93 92 49 110 151 79 93 66 107 59 203 131 132 127 149 38 108 145 111 95 64 160 90 87 49 64 98 70 72 103 70 90 98 146 136 128 121 100 89 147 120 128 54 173 94 113 123 106 45 115 96 130 35 70 104 166 143 165 124 53 139 131 27 94 77 58 113 47 62 112 93 84 163 70 69 53 126 100 109 126 71 113 121 226 43 35 60 104 108 72 72 96 66 56 106 50 123 146 72 89 130 47 44 177 109 77 72 90 77 203 114 127 128 98 137 60 60 109 112 64 98 130 102 78 67 130 73 51 67 54 40 96 120 49 123 100 76 73 64 175 121 139 78 182 123 77 77 52 114 123 120 89 127 68 63 94 75 73 75 107 48 152 121 142 84 102 94 16 118 94 96 122 61 92 95 100 209 57 123 62 162 93 75 107 73 90 126 72 122 142 128 97 81 190 98 50 199 67 48 137 102 130 164 79 94 141 51 122 74 106 83 151 129 63 223 73 79 134 64 143 164 51 122 155 93 62 52 64 115 98 84 111 47 8 165 125 43 109 101 138 44 99 90 109 64 78 99 98 115 101 97 78 128 23 137 104 100 108 88 123 186 112 126 137 78 93 126 22 98 141 84 26 119 91 69 127 96 96 47 82 57 70 109 52 103 86 67 95 130 94 88 101 60 94 82 53 56 83 141 161 130 202 71 167 108 118 43 75 174 133 84 56 43 127 78 114 123 103 88 59 134 71 111 122 97 145 63 118 106 21 129 132 35 162 69 140 106 94 35 78 26 118 126 134 90 114 149 102 56 108 140 115 186 114 33 64 128 125 132 132 79 98 90 65 125 73 102 97 55 53 116 81 205 73 145 108 192 148 114 83 100 121 140 101 119 94 110 87 97 106 102 67 60 57 93 102 126 170 55 103 86 156 101 89 33 126 29 70 28 103 101 108 146 131 108 78 70 178 161 61 96 68 125 91 133 111 93 115 48 53 93 98 78 88 140 119 137 76 44 64 208 132 97 87 60 112 160 46 117 55 102 81 39 70 65 36 132 108 94 52 113 71 103 101 88 160 108 124 139 35 74 100 103 132 115 50 117 115 135 120 117 76 137 68 159 67 94 82 91 112 57 112 89 104 78 76 72 179 113 115 91 44 177 108 84 131 75 106 88 110 121 177 94 115 139 68 33 123 66 87 78 125 127 50 109 11 60 86 34 162 166 55 72 14 27 113 99 62 130 86 96 49 123 145 102 104 81 33 178 103 141 70 95 65 66 89 49 156 94 43 109 82 73 118 114 105 156 127 96 86 29 76 83 91 160 113 144 67 68 131 104 92 120 110 77 124 99 68 87 138 38 65 78 30 103 131 117 141 113 108 116 69 77 65 114 153 65 106 175 97 80 105 117 136 134 117 79 108 96 133 99 68 110 145 66 84 108 50 162 80 145 119 101 72 80 80 152 107 96 69 87 156 174 127 66 126 138 101 135 69 55 135 89 96 70 135 146 110 68 92 64 66 114 91 60 22 90 26 148 83 82 118 95 84 39 105 70 141 94 94 119 120 81 154 153 133 160 100 128 81 81 80 64 72 97 106 159 121 63 85 78 118 48 130 31 148 95 31 118 36 64 78 121 56 43 77 110 164 75 109 141 138 153 131 53 126 164 137 52 79 144 75 85 158 71 104 91 132 150 87 175 69 132 120 104 75 88 60 147 68 129 107 120 91 112 136 63 103 119 88 38 96 108 84 170 95 100 62 108 73 183 50 113 110 67 103 154 95 115 74 75 174 143 122 91 83 115 90 126 138 84 123 90 41 38 133 122 63 62 167 159 165 88 89 99 113 135 87 63 85 48 133 87 90 144 26 169 33 72 97 94 120 80 120 75 70 142 114 110 83 159 96 59 57 116 128 117 71 92 74 86 138 165 99 115 124 40 49 157 114 137 148 156 82 69 135 120 114 62 106 64 108 65 58 108 106 117 131 35 145 132 82 100 195 110 81 71 72 94 116 118 48 161 104 14 92 91 62 153 26 129 111 75 100 128 118 102 61 138 88 95 135 86 163 67 57 134 130 121 67 70 107 107 108 91 84 124 153 118 113 85 98 92 103 212 85 106 131 61 86 83 142 51 80 126 156 64 72 99 89 115 103 132 85 75 83 87 91 155 110 130 141 91 63 109 121 76 11 203 74 88 65 189 110 126 98 94 163 182 58 125 117 118 90 129 53 117 146 125 88 72 194 73 54 75 108 138 60 91 120 107 131 103 114 35 157 81 161 106 149 63 107 97 115 115 118 138 101 105 78 115 93 109 125 107 102 36 128 122 102 54 126 98 65 76 99 112 165 126 135 94 103 190 77 63 129 137 102 82 84 105 79 74 112 153 78 120 129 111 98 139 127 107 113 74 47 161 123 147 92 138 116 108 83 111 111 63 141 92 119 100 70 95 153 68 71 109 86 118 149 122 98 94 177 70 134 141 128 62 122 163 105 96 44 91 110 72 104 130 118 182 145 106 99 139 124 101 82 162 123 75 103 94 59 66 145 130 52 62 64 68 163 108 128 135 74 60 22 102 23 82 80 125 92 91 101 70 17 121 85 80 137 49 137 85 107 127 49 133 106 155 33 41 60 93 71 28 128 52 135 110 70 68 107 71 175 59 31 101 34 119 85 168 115 116 103 83 130 69 88 99 140 103 121 147 111 127 179 111 56 92 80 78 114 84 75 121 100 150 97 137 65 105 90 57 74 38 154 129 235 75 57 81 97 112 113 85 57 66 116 72 91 74 69 91 74 118 78 126 101 91 90 73 97 78 100 129 58 38 139 162 168 61 57 92 168 69 104 104 112 65 138 108 201 66 138 142 149 151 109 164 80 171 124 75 92 111 166 150 169 73 96 94 77 101 110 89 116 117 82 77 107 95 128 83 96 68 111 124 100 36 57 159 98 39 38 51 74 172 112 88 74 57 75 137 136 8 75 128 105 98 133 53 101 100 134 107 79 129 101 137 72 124 114 101 27 128 97 38 61 100 81 57 117 54 132 68 178 154 77 127 90 128 117 119 103 86 60 103 122 156 128 127 185 83 101 91 83 141 111 115 48 128 152 83 105 66 94 35 90 59 61 139 112 62 161 85 138 154 138 97 67 160 71 121 88 116 76 97 124 122 96 139 98 61 127 42 152 125 137 55 55 91 55 100 25 73 56 54 71 92 144 83 67 111 125 55 118 133 106 77 150 119 164 126 34 156 104 81 51 136 118 76 153 86 150 94 149 145 144 76 104 84 81 155 168 151 112 139 104 79 23 107 118 96 112 104 115 83 128 60 85 53 134 35 52 130 120 101 223 97 73 115 51 42 98 154 89 103 100 85 133 122 110 130 99 78 114 58 168 157 155 142 132 137 136 90 85 95 29 88 110 97 63 133 154 139 138 95 43 88 193 150 101 77 37 139 181 88 121 101 80 51 57 97 64 143 119 103 71 101 98 78 71 97 91 74 92 67 100 122 85 94 114 59 116 59 82 58 144 88 136 136 55 71 97 96 63 117 120 51 154 67 105 77 178 112 38 161 37 80 120 81 107 75 71 69 114 57 92 123 84 90 110 60 61 41 150 85 104 152 19 54 81 105 140 129 33 95 86 155 120 22 151 64 130 52 70 123 104 103 117 111 139 94 78 111 86 146 67 101 75 59 56 58 59 103 98 104 69 74 41 183 111 237 61 121 87 140 78 162 42 70 107 64 81 66 94 139 85 137 139 59 52 94 96 104 95 64 142 163 42 118 165 136 65 90 77 78 96 99 144 74 79 102 38 133 118 79 229 169 134 123 91 111 155 78 137 102 141 131 102 51 86 55 112 112 51 130 146 193 116 153 178 100 137 120 146 26 44 168 137 45 185 103 173 53 97 150 93 76 83 119 79 103 147 108 107 32 122 107 127 137 88 148 105 144 52 99 123 121 71 110 81 75 55 160 106 108 89 118 48 115 80 70 90 167 74 142 81 77 112 145 86 131 148 52 141 131 152 79 193 136 108 87 135 71 34 121 126 64 92 65 78 103 106 235 102 144 51 79 116 99 145 154 81 104 91 73 193 74 95 89 80 105 173 67 71 62 122 128 150 72 91 184 94 58 122 182 128 128 86 89 137 71 72 142 149 91 57 66 90 26 120 111 94 88 78 123 104 101 49 52 46 110 128 131 76 94 35 85 47 105 87 31 102 156 91 147 95 137 83 90 145 127 87 88 94 80 55 176 78 73 113 92 105 116 138 130 97 112 112 86 92 143 187 80 140 121 99 92 116 71 146 115 60 138 45 41 83 108 98 67 94 52 94 126 136 66 126 37 57 113 193 94 37 121 90 122 98 124 124 17 147 75 139 156 110 29 118 68 55 94 140 113 159 133 62 83 138 82 122 30 92 63 51 56 79 79 102 93 105 96 158 91 41 164 77 160 65 102 63 68 114 78 43 137 82 180 55 130 102 100 137 184 83 89 101 124 132 103 104 141 68 38 74 68 85 81 157 92 59 76 104 55 122 81 119 103 81 17 106 92 99 169 131 131 102 57 171 117 70 98 92 37 109 30 199 74 49 56 160 136 110 103 54 66 169 62 91 78 106 170 68 183 103 76 106 156 53 69 148 119 91 67 88 95 105 110 122 84 99 145 51 64 119 131 87 176 120 44 155 114 144 60 74 97 153 86 72 109 122 117 57 87 115 86 129 119 97 55 58 118 180 92 114 77 140 164 72 83 103 90 121 106 98 92 19 125 68 112 200 105 91 73 48 162 105 85 135 77 81 33 124 71 54 80 66 87 137 60 48 76 63 106 77 96 124 79 123 98 93 117 77 90 136 141 19 36 45 145 112 115 31 67 48 179 96 94 49 108 74 91 59 85 120 100 140 110 79 73 81 100 61 129 88 107 137 111 118 134 83 58 169 129 67 77 112 73 99 104 145 75 57 97 80 130 89 89 32 82 146 114 34 143 119 102 108 124 49 75 106 145 20 38 130 88 128 58 98 96 59 72 88 102 113 182 95 117 43 106 165 82 210 55 36 129 109 92 89 141 98 105 55 119 82 147 95 78 116 105 55 38 124 40 83 117 118 86 76 64 158 124 63 67 104 102 120 78 110 101 113 104 80 177 110 70 95 94 49 60 125 222 60 62 57 104 100 97 99 77 97 102 133 44 101 111 153 73 60 105 110 80 31 66 124 129 115 83 97 103 109 120 101 111 60 73 133 102 113 57 124 123 59 166 112 205 112 102 125 142 68 101 96 77 92 122 182 50 184 51 96 74 79 116 14 138 79 55 93 85 106 114 101 140 118 57 105 39 125 106 111 80 65 68 169 69 90 127 101 78 65 128 80 138 94 159 105 122 79 75 123 65 118 53 110 118 87 127 113 118 126 97 161 67 109 127 121 91 87 125 70 102 142 153 98 95 154 109 90 100 14 69 126 94 85 53 91 36 96 88 118 93 93 61 153 161 82 87 83 36 127 121 138 64 44 213 126 256 115 33 115 56 50 87 98 168 118 113 71 80 67 97 117 116 110 107 115 79 172 153 93 101 75 100 102 128 83 95 94 53 114 83 88 177 110 134 123 143 78 73 92 95 152 104 107 140 151 139 190 99 57 33 84 78 33 160 127 127 44 115 117 138 109 88 117 127 67 91 95 116 82 116 106 124 131 78 111 137 137 111 52 114 70 83 85 76 72 62 93 93 153 50 60 155 86 95 91 67 121 140 148 163 137 113 83 105 108 135 39 106 84 67 190 125 66 85 119 79 39 129 155 51 153 96 94 140 129 68 118 125 124 135 60 42 59 82 131 114 88 117 140 78 88 54 151 99 154 112 76 97 121 177 122 99 138 146 113 105 130 119 118 116 76 124 118 75 43 157 85 207 114 117 73 75 81 143 88 141 78 124 86 127 136 96 159 129 74 142 103 94 52 79 88 150 115 143 96 134 53 130 126 127 126 124 112 119 90 133 102 95 117 123 82 89 101 58 100 94 54 63 63 69 100 107 120 170 108 107 116 105 98 104 50 142 59 91 131 112 91 102 103 90 171 62 131 134 47 92 64 94 84 72 105 126 112 93 64 61 24 161 120 65 163 141 67 80 125 62 91 45 203 90 81 111 50 68 72 134 153 128 85 55 86 56 106 93 88 158 178 67 94 108 144 136 66 69 191 194 123 143 80 92 212 103 71 92 124 127 66 46 237 46 92 80 133 153 86 88 99 99 95 94 84 191 61 101 90 130 69 73 71 132 79 108 52 120 64 180 34 149 33 75 86 118 123 62 155 119 39 48 86 121 178 73 87 61 207 61 189 76 22 51 94 91 68 26 82 123 112 163 62 118 88 164 45 165 110 98 146 89 49 83 66 121 92 92 82 40 143 80 143 156 128 96 123 110 91 101 156 150 135 128 143 95 137 85 86 125 123 86 111 90 87 71 36 97 43 83 154 86 159 60 97 47 140 101 70 78 152 52 33 130 85 89 107 138 120 115 75 112 54 92 68 196 180 75 19 90 62 111 110 110 109 186 133 78 88 21 66 86 43 144 160 121 95 76 57 78 146 113 150 111 92 115 115 112 92 63 96 195 110 100 129 55 97 128 87 156 52 83 53 156 86 135 84 69 104 84 45 138 131 58 119 145 87 62 113 131 132 57 89 92 220 103 88 212 86 153 137 114 54 90 80 48 172 88 111 92 116 120 28 73 81 155 93 126 39 92 97 140 79 118 166 115 100 115 104 140 55 155 26 59 91 129 68 117 144 44 48 111 61 102 37 159 88 40 77 136 166 132 133 73 137 95 92 98 126 164 62 88 72 57 63 118 88 77 100 101 129 142 129 100 127 164 117 86 103 97 61 74 115 157 91 76 47 126 92 37 69 107 62 53 109 108 84 145 85 43 146 86 104 95 84 80 129 88 118 97 135 168 86 145 104 78 69 82 23 92 124 109 124 56 31 32 94 130 94 95 155 149 64 116 203 125 33 164 164 79 55 23 158 154 127 113 137 110 120 46 116 117 98 66 30 80 108 64 116 138 121 112 79 88 87 148 135 145 124 116 121 116 68 64 199 125 99 163 124 143 103 102 146 60 76 85 148 132 136 97 125 190 108 84 105 89 55 80 37 124 57 128 95 119 125 133 97 137 49 63 104 77 163 28 61 107 38 71 32 126 82 96 59 79 79 74 91 170 115 84 71 189 128 85 42 133 97 52 99 140 113 139 126 115 82 48 33 80 86 56 135 52 76 112 56 99 83 59 73 37 76 56 132 39 64 118 118 92 138 82 69 68 33 115 107 107 142 127 85 69 91 93 118 102 162 58 121 108 94 90 93 129 112 156 110 133 106 42 103 104 69 131 138 37 88 86 127 93 79 79 102 109 98 84 186 70 81 68 93 151 111 120 108 110 67 74 155 152 145 110 202 101 100 190 82 115 146 94 136 110 72 138 116 157 104 115 82 121 131 63 85 92 59 76 77 143 136 94 178 54 88 85 60 35 41 106 72 155 54 61 91 152 50 75 91 77 127 126 66 104 134 97 112 133 67 78 77 126 125 55 168 144 105 96 167 117 60 64 105 117 102 50 65 56 53 65 103 84 101 71 77 99 163 89 72 103 90 78 117 157 119 158 96 141 107 92 31 108 146 112 111 132 125 108 102 82 24 104 121 109 169 163 107 136 73 104 37 120 54 86 88 182 56 125 73 58 133 67 136 60 159 48 102 76 92 160 69 79 183 126 102 82 88 177 94 57 68 111 156 104 89 132 139 114 50 97 59 89 76 155 110 97 91 106 117 126 85 134 135 62 133 89 40 77 97 124 150 109 96 130 87 82 111 130 98 165 103 180 60 82 101 117 113 139 103 144 147 132 97 131 100 129 51 72 177 114 96 147 73 88 53 118 88 110 115 132 66 106 99 113 53 97 84 105 168 77 101 51 128 25 132 117 93 113 43 160 87 57 94 82 139 90 43 140 101 18 48 121 115 58 41 89 185 78 133 105 125 27 77 79 132 105 80 159 107 101 90 74 36 102 71 85 175 30 53 109 97 156 58 56 38 54 48 116 122 135 170 105 112 103 76 72 85 58 100 97 47 95 42 72 60 101 128 95 96 124 136 80 80 70 86 94 84 140 68 169 112 89 106 71 81 54 106 88 101 116 109 90 141 173 17 84 89 131 44 228 69 113 73 101 137 80 97 151 54 135 114 159 117 108 148 77 180 120 93 90 112 98 115 94 74 108 55 97 31 64 99 81 153 90 179 85 73 41 115 226 67 96 96 85 85 83 164 62 95 136 94 94 139 135 112 112 72 32 64 45 79 64 100 52 96 79 101 117 116 42 92 168 109 92 100 53 122 67 122 135 165 54 37 86 66 113 129 59 190 125 136 73 121 84 129 38 148 62 66 102 96 142 90 130 124 58 77 121 148 143 76 117 142 34 63 79 133 131 76 234 97 73 94 201 88 95 143 107 130 87 67 71 115 79 122 71 186 109 92 133 79 116 111 105 135 107 134 132 78 98 109 93 102 84 146 90 15 90 93 93 79 88 72 87 103 34 92 43 121 57 71 92 150 63 87 137 121 89 46 180 131 138 86 119 99 93 23 80 129 112 86 87 45 69 88 131 93 106 129 117 134 110 84 143 206 29 68 83 93 189 93 90 87 97 61 155 107 58 80 85 23 155 143 101 44 75 98 130 108 69 42 59 95 141 83 126 86 139 132 91 147 34 63 111 88 135 20 92 74 54 104 111 113 109 102 118 93 153 86 59 97 75 142 146 101 119 73 71 103 90 81 87 142 97 57 54 61 110 106 105 90 65 193 113 155 169 62 106 110 80 111 170 112 131 62 98 129 154 72 99 129 104 145 116 149 46 98 101 135 126 166 57 51 119 34 154 163 48 85 151 198 119 131 50 57 70 114 130 90 103 117 94 119 75 110 143 129 95 130 124 90 178 95 104 34 110 124 147 143 49 132 106 76 87 115 127 138 63 53 9 62 141 80 120 76 120 80 63 101 107 116 129 145 105 112 117 96 130 95 115 139 143 109 43 75 28 81 74 137 92 124 141 93 139 80 114 68 84 84 125 58 167 203 111 70 107 85 20 91 126 142 108 77 101 58 131 138 180 73 131 102 155 101 118 41 106 11 113 141 73 122 26 55 23 63 147 121 77 59 141 54 114 139 107 98 150 77 46 99 130 88 156 164 40 55 73 30 90 80 175 116 57 51 73 46 117 98 114 82 101 55 81 121 168 146 110 126 180 92 80 269 74 125 141 144 56 148 60 119 139 104 154 127 77 53 99 174 56 137 102 83 47 123 90 151 89 181 88 176 96 51 109 80 58 134 94 39 88 112 101 49 103 96 114 89 78 93 44 105 65 108 97 103 83 48 117 161 81 145 90 92 50 38 173 118 132 226 68 101 44 62 115 41 152 102 84 120 138 122 74 110 148 115 152 95 106 163 98 37 138 102 101 113 88 133 78 50 67 169 112 179 48 140 65 90 82 77 68 69 144 123 64 98 133 63 113 158 59 108 121 104 117 140 89 94 128 71 13 129 120 47 89 88 124 80 86 103 89 114 110 43 137 109 84 72 123 118 161 160 39 103 122 93 112 48 167 69 131 89 79 108 60 155 94 86 121 56 154 95 27 104 82 96 132 95 126 119 63 116 103 121 82 152 82 146 113 67 159 84 63 122 126 55 84 79 106 79 142 38 55 89 114 157 93 101 99 71 23 98 62 83 103 66 140 100 160 142 110 119 75 94 75 140 80 62 64 136 70 47 113 151 106 106 119 91 41 119 84 96 59 38 117 108 113 107 125 53 88 181 43 111 112 143 134 143 147 56 153 134 108 74 91 115 98 102 53 72 108 111 112 80 68 115 98 102 83 142 135 81 42 56 106 79 128 54 89 105 85 89 103 165 131 172 162 51 106 84 95 90 60 101 221 118 76 128 149 103 124 125 127 63 135 125 39 151 58 57 74 97 58 112 88 79 74 70 57 102 132 115 98 107 113 73 17 116 43 57 119 195 114 56 88 79 110 91 262 128 123 66 124 76 121 93 106 111 96 84 62 150 102 119 127 154 81 123 202 124 131 91 41 161 114 145 43 88 103 79 174 59 51 107 114 106 65 106 65 144 121 124 149 76 136 185 47 36 117 28 143 145 136 61 75 70 66 86 127 74 71 35 95 81 104 38 98 142 105 118 107 133 157 88 89 106 68 155 61 168 126 93 69 161 144 69 98 77 69 57 98 90 109 121 164 86 24 141 54 116 102 139 64 74 140 80 62 155 150 132 97 80 88 102 104 137 108 153 111 52 85 187 104 73 127 125 59 129 41 59 156 70 92 46 173 37 141 106 21 99 171 81 53 75 117 76 146 72 123 96 89 81 46 126 103 71 88 125 103 114 67 91 135 178 89 34 157 43 23 137 49 114 166 82 105 21 51 87 73 93 61 95 129 91 28 144 170 133 83 49 141 137 115 116 106 82 60 80 87 67 99 129 197 131 81 112 172 74 66 136 51 138 62 85 101 53 36 82 114 90 156 139 153 106 149 69 147 114 105 81 68 90 113 102 127 44 46 102 110 131 106 137 91 77 172 101 121 144 69 101 98 75 53 105 65 85 74 86 78 75 132 116 83 108 92 108 42 76 124 61 96 141 71 21 42 141 50 145 69 48 52 112 170 145 95 119 109 106 44 77 103 68 68 129 71 136 102 125 54 104 129 141 182 107 104 156 104 91 74 140 73 74 83 34 105 67 98 71 79 88 52 69 82 99 110 89 84 98 85 100 65 93 71 128 138 109 171 132 41 78 90 133 110 167 132 95 58 89 114 123 84 160 48 72 61 99 114 104 90 107 142 34 111 61 144 120 48 115 59 74 71 73 74 175 46 45 158 39 87 32 64 110 64 187 111 69 202 13 117 85 133 108 163 54 126 96 92 52 32 123 54 104 92 117 89 48 85 94 100 77 150 145 62 181 137 93 115 108 118 139 78 117 53 125 116 70 122 124 144 60 49 125 120 54 74 159 59 99 140 164 57 65 90 85 60 89 171 83 162 100 120 101 48 59 98 117 95 82 55 50 105 60 137 116 126 70 94 79 135 140 161 138 99 96 115 135 80 97 91 110 75 123 54 77 69 61 82 105 84 93 203 92 138 57 175 97 72 72 111 103 123 92 133 92 172 157 113 81 56 113 130 71 132 151 103 65 40 90 27 106 126 77 96 140 51 108 94 89 48 110 85 121 83 139 184 63 87 91 94 129 72 125 83 79 129 124 142 93 22 179 147 101 172 52 126 85 80 190 94 170 63 79 110 105 113 110 114 117 86 113 81 184 97 84 96 54 129 140 100 61 101 104 56 110 41 184 72 84 200 105 110 52 152 57 117 64 100 74 135 124 59 95 138 138 134 123 37 68 126 104 110 70 90 84 122 91 78 60 150 134 126 116 36 116 104 92 128 157 127 100 97 55 83 106 56 149 101 74 134 31 59 60 102 197 99 54 74 57 111 76 115 47 92 168 79 112 157 112 143 83 59 82 111 75 105 101 84 72 87 105 98 78 70 103 66 79 124 101 52 170 80 51 93 155 89 131 130 74 57 121 53 51 97 121 141 80 90 83 128 103 136 93 100 51 122 40 114 102 85 117 118 75 138 100 123 84 104 98 92 106 88 107 136 143 108 43 119 89 153 97 114 79 142 73 114 114 34 59 105 48 46 77 68 193 64 72 137 29 64 114 118 74 112 58 57 43 28 38 129 130 48 85 95 81 95 55 51 92 122 28 98 135 33 110 88 152 83 91 84 93 44 140 133 99 32 66 97 142 151 88 109 95 170 82 125 40 108 108 104 121 90 130 164 128 101 134 80 80 130 168 100 30 105 72 60 113 68 88 34 107 66 130 73 145 32 106 81 96 106 130 79 77 83 120 148 33 63 51 51 24 133 129 201 106 75 10 135 149 63 168 74 67 195 45 65 82 125 123 104 105 164 65 75 69 120 88 123 131 63 141 108 108 53 122 137 139 114 89 69 75 27 78 78 70 171 24 75 103 47 61 99 80 71 101 99 135 138 103 73 100 155 95 69 113 84 93 122 173 110 154 85 70 75 103 83 105 101 154 114 129 119 141 85 93 113 14 84 82 121 79 83 50 40 104 97 71 72 118 48 63 133 95 172 88 101 72 53 101 142 94 66 146 85 32 116 93 25 58 147 95 147 151 165 29 107 160 201 103 90 62 165 85 54 130 119 78 139 70 67 107 152 133 128 36 118 78 74 93 125 198 96 75 78 59 57 63 116 127 82 54 103 91 74 93 55 108 104 127 99 62 89 59 80 137 60 104 43 90 206 141 82 112 123 123 91 83 98 164 138 142 113 70 150 110 53 96 105 47 116 165 103 122 35 131 134 98 50 163 133 100 117 152 53 95 117 79 92 124 134 135 97 118 97 220 53 101 147 120 165 79 46 91 95 77 112 46 111 111 142 70 69 135 40 116 49 112 124 126 54 167 70 110 85 69 127 108 65 93 35 101 102 119 92 67 223 91 59 150 46 123 119 77 89 150 120 78 74 125 116 110 70 106 67 88 146 58 193 112 76 95 84 83 168 103 157 150 160 90 88 112 239 151 104 130 153 181 66 79 69 105 38 16 154 163 121 102 180 74 69 41 142 107 116 172 122 41 59 80 122 77 85 99 50 54 63 162 76 34 157 80 54 81 118 45 129 112 31 74 134 111 43 106 76 140 37 97 113 103 82 119 59 128 28 72 117 112 44 96 49 124 69 113 107 61 98 93 158 111 82 82 80 94 59 137 130 161 99 100 61 170 136 123 119 123 89 84 152 72 104 81 103 113 51 102 75 155 60 94 172 108 88 78 48 48 54 84 199 64 154 112 100 109 66 116 120 43 141 123 53 124 92 68 78 157 65 162 179 92 117 44 98 90 82 134 175 94 112 102 102 44 78 110 189 150 83 91 57 60 107 93 109 58 108 139 133 82 82 104 98 111 73 51 29 82 58 171 84 71 130 116 116 77 111 75 102 80 96 127 50 165 97 83 135 93 39 119 38 79 123 101 112 66 84 124 95 107 165 111 64 42 62 104 42 160 117 98 61 70 85 36 80 64 107 85 64 169 66 98 56 106 42 63 47 96 104 112 132 90 40 80 76 155 43 108 82 100 118 101 74 80 78 91 92 24 24 79 67 86 161 151 39 123 166 64 134 184 121 94 108 262 104 75 124 61 84 137 138 149 93 101 108 176 135 41 97 143 70 132 76 105 159 126 70 29 87 55 125 69 123 80 54 80 91 181 162 90 92 145 81 70 100 72 45 135 131 93 97 108 164 91 58 54 50 82 57 89 135 97 157 82 108 59 94 104 68 124 97 143 62 139 82 91 68 70 110 87 47 90 105 97 124 120 175 69 82 60 118 152 95 154 98 85 91 164 79 143 140 122 14 145 64 142 155 63 138 90 87 83 46 76 116 83 36 183 85 72 92 127 112 63 95 94 97 111 102 53 127 66 113 54 168 83 134 98 88 73 107 127 139 86 95 17 189 30 95 110 74 88 106 168 140 119 78 94 179 159 77 188 97 137 120 90 112 40 77 35 112 112 61 68 117 176 109 189 66 69 121 128 106 130 105 244 111 60 121 104 141 42 76 109 113 93 99 71 25 113 98 70 68 79 172 116 82 135 73 104 148 113 57 99 143 45 101 35 75 124 129 167 60 43 47 123 108 117 96 97 221 105 72 59 173 59 180 113 154 185 108 128 47 81 62 86 110 47 90 56 110 172 107 83 67 106 62 42 43 79 88 59 88 72 101 122 126 77 90 161 101 81 36 105 59 106 67 82 117 48 45 49 99 81 82 179 62 162 165 66 118 29 93 157 130 102 90 53 96 118 65 185 130 33 73 100 84 43 144 88 137 161 51 108 129 127 115 123 116 127 68 80 69 93 59 117 101 125 87 95 129 116 86 91 129 132 63 182 58 112 94 84 87 84 118 66 124 89 116 157 95 48 104 42 81 86 36 125 86 139 57 108 148 169 168 110 98 116 180 113 134 125 37 122 71 117 147 179 112 129 63 104 104 73 125 97 86 48 140 146 84 64 106 180 84 86 97 37 118 156 133 91 121 97 118 78 121 152 117 128 31 77 83 141 136 99 115 120 130 105 46 90 86 99 100 72 99 86 94 64 167 99 36 106 88 81 142 83 147 103 104 91 71 114 105 94 51 184 151 113 69 35 70 136 140 106 108 65 56 134 137 95 110 76 109 65 91 116 68 103 92 91 52 130 110 123 88 116 135 76 149 91 107 93 105 38 80 120 114 55 97 121 115 108 122 64 135 152 34 144 181 96 148 90 126 83 99 89 96 67 155 61 100 118 154 92 52 62 144 85 134 112 100 93 114 131 133 102 79 55 101 223 81 67 106 108 92 83 98 110 137 141 89 79 95 85 79 57 117 129 90 108 93 66 126 94 62 32 137 65 140 146 142 88 128 85 109 92 104 149 29 85 97 155 133 88 126 115 155 104 132 117 142 101 118 148 121 133 90 118 107 72 151 81 163 140 124 77 123 120 51 74 133 59 72 44 130 136 182 99 82 121 151 62 75 127 92 69 87 124 92 85 156 81 61 51 105 125 106 95 85 184 98 136 116 119 162 83 98 130 127 85 141 105 66 94 96 162 58 178 147 105 139 19 106 111 93 74 100 92 132 75 56 89 56 95 111 148 83 116 75 57 87 101 82 113 89 96 41 112 123 82 98 104 103 47 45 132 111 43 89 91 86 132 105 84 121 122 70 86 111 63 84 67 34 107 85 119 85 113 150 104 159 120 175 108 154 53 91 118 150 108 63 56 152 87 33 101 133 111 85 89 102 130 162 79 95 119 124 124 77 107 81 159 116 53 96 130 87 125 81 86 154 48 100 130 116 158 80 158 69 65 97 69 80 153 126 119 79 98 116 171 98 92 123 83 167 158 136 84 109 100 121 96 64 92 91 122 59 76 77 100 97 105 114 109 118 184 78 91 78 92 96 102 214 138 182 95 88 132 131 78 88 61 132 79 112 80 127 80 130 99 127 109 107 129 148 45 83 73 130 62 115 127 78 123 144 50 121 119 60 95 68 33 67 11 175 118 124 71 101 120 117 97 108 173 48 86 135 131 57 67 138 32 115 111 155 89 61 112 108 136 86 57 90 52 53 79 117 125 135 46 126 122 96 142 87 40 120 97 84 93 106 58 92 96 104 109 75 92 105 131 110 57 37 64 82 65 43 93 60 21 47 129 169 81 106 49 94 92 169 163 96 122 93 128 107 121 65 98 47 65 101 214 95 105 145 115 58 91 89 138 62 104 94 77 77 63 172 105 34 119 88 49 51 107 89 242 143 96 64 84 139 92 123 96 78 62 125 115 118 104 121 43 170 102 181 121 59 35 94 151 101 141 131 66 144 170 100 115 89 45 110 105 96 119 117 58 107 67 92 141 82 176 127 93 113 73 89 107 100 78 104 142 62 89 155 170 138 150 122 143 104 85 82 123 58 92 85 71 128 121 136 143 171 79 131 116 125 163 97 104 104 156 103 56 73 77 66 91 77 62 115 63 82 140 101 178 139 101 92 129 113 110 170 156 154 111 137 107 104 72 65 120 116 125 106 126 147 123 102 85 60 76 137 87 149 95 86 173 68 49 116 51 74 108 79 47 128 41 92 89 89 64 79 200 109 108 149 114 176 102 54 49 43 114 83 124 65 132 74 88 59 91 96 74 108 95 179 101 136 77 84 68 148 100 199 87 110 84 90 93 87 163 105 148 82 81 104 149 110 127 92 38 113 61 48 141 29 105 100 162 121 126 111 102 98 134 181 65 135 142 91 193 101 159 187 126 110 141 105 194 100 104 147 132 115 43 73 88 171 159 123 109 97 139 155 119 139 169 152 92 125 51 54 93 86 142 64 94 158 101 87 56 79 128 122 98 37 57 31 136 75 77 113 64 93 59 116 25 114 117 86 147 133 103 112 99 124 194 119 121 190 144 141 142 106 64 121 116 48 78 123 86 135 109 33 67 145 133 80 101 119 134 30 45 89 79 107 37 113 99 43 57 125 129 85 64 103 138 123 111 112 88 81 63 87 103 152 95 203 55 133 106 153 123 96 100 144 115 57 97 160 47 69 135 108 172 55 77 130 63 60 84 99 93 169 105 46 111 60 43 90 58 108 27 104 124 100 116 110 150 136 123 66 133 101 129 127 167 87 74 38 112 151 174 69 163 99 23 102 66 83 72 87 130 200 41 67 164 107 99 123 43 152 77 55 62 108 52 55 118 87 136 146 197 86 94 44 53 14 189 112 121 138 188 94 111 143 70 168 125 121 155 88 81 139 119 107 119 140 77 75 80 61 52</t>
-  </si>
-  <si>
-    <t>GAM(0.26840644794555557, -4.030454550508848e-27, 0.7741434856685485)</t>
-  </si>
-  <si>
-    <t>0 2 0 1 2 0 2 0 0 1 0 3 0 2 0 1 1 1 0 1 1 0 2 1 0 1 0 1 2 0 2 2 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 1 1 2 1 1 2 0 1 0 1 1 0 0 0 0 1 1 0 1 2 2 2 1 1 1 0 2 1 0 0 1 1 1 1 2 0 1 2 0 0 1 0 0 1 3 0 0 2 2 1 1 0 0 0 0 2 1 1 0 1 2 0 0 0 1 2 0 1 0 0 1 1 1 2 1 2 0 0 0 0 1 1 0 0 1 1 0 1 0 4 2 1 1 1 2 0 0 0 0 0 0 1 0 1 2 1 0 0 0 2 0 1 2 2 2 1 1 0 1 0 0 3 2 0 0 0 2 0 1 1 1 1 2 3 0 0 2 2 1 1 2 0 2 1 3 3 1 1 0 1 2 1 1 0 1 3 0 0 0 1 0 1 1 0 0 0 2 0 0 1 3 0 1 0 0 0 1 1 2 0 2 0 1 0 3 1 1 0 1 1 0 1 0 0 3 2 3 2 1 0 1 1 1 2 1 1 2 1 1 2 1 2 0 1 1 0 1 1 0 0 1 1 0 0 1 1 3 1 1 0 1 0 1 2 0 0 0 0 2 2 0 1 1 0 2 0 1 3 0 1 3 0 0 2 1 0 3 0 0 1 1 2 0 0 1 0 0 2 2 1 0 1 2 0 0 1 1 0 0 0 2 2 1 1 1 1 1 0 1 0 1 0 0 2 1 1 1 1 1 0 0 1 0 1 1 0 2 0 0 1 2 0 0 1 2 2 1 0 2 0 1 1 2 1 0 1 1 0 1 0 1 0 1 1 0 1 1 1 0 1 0 0 0 1 0 1 1 0 0 1 0 1 1 2 3 1 0 1 1 1 0 2 0 0 1 0 0 1 1 1 0 1 0 0 0 1 1 3 0 0 2 0 0 0 0 0 3 0 0 1 1 2 2 0 0 0 2 1 0 0 0 1 0 3 3 2 1 0 1 2 1 0 0 0 0 1 1 1 2 1 0 2 0 0 0 0 1 0 1 1 1 1 2 2 2 0 0 2 0 1 1 0 2 1 0 1 1 2 0 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 2 0 0 1 0 2 1 1 0 1 0 1 2 2 1 1 2 1 1 0 2 0 0 0 1 1 0 0 0 1 0 0 0 1 2 2 0 2 0 1 0 0 1 0 2 1 1 0 1 0 1 3 0 1 0 2 0 0 0 2 0 1 3 0 2 1 1 1 3 0 1 1 2 1 0 3 0 0 1 0 1 1 0 0 2 0 0 1 2 1 2 1 1 1 2 2 1 1 2 2 1 0 0 0 1 1 0 0 1 2 0 1 0 3 0 0 1 0 0 3 0 0 0 1 1 1 1 0 1 1 0 0 2 0 1 0 0 1 0 2 0 1 0 1 2 2 0 0 0 0 0 1 1 2 1 0 0 1 1 2 1 1 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 3 0 1 1 0 1 2 0 1 1 1 2 0 0 0 1 0 2 1 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 3 1 0 0 0 2 1 1 0 0 2 0 2 1 1 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 2 0 1 0 0 1 1 2 3 4 1 1 1 0 0 1 2 1 0 1 1 0 0 2 0 0 1 1 3 1 0 1 2 0 2 1 0 0 0 0 1 0 1 1 0 0 2 0 1 1 1 1 0 1 1 2 0 0 2 0 1 1 3 1 0 1 1 1 1 1 0 1 1 2 0 0 1 0 1 0 0 0 1 1 2 0 3 1 0 1 1 1 4 1 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 1 1 2 0 1 1 1 0 2 1 2 1 1 1 0 1 0 1 2 1 0 4 3 2 0 1 1 0 1 1 1 0 1 2 1 1 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 2 2 0 0 0 2 0 0 0 2 2 3 1 1 1 0 2 1 1 1 1 0 0 1 0 1 1 0 0 0 2 1 3 2 2 1 1 0 0 2 0 0 1 0 0 3 0 2 1 1 0 0 1 2 1 0 1 0 0 0 0 2 0 0 1 1 1 1 1 2 0 3 1 0 0 2 0 0 2 0 0 0 1 1 0 0 1 2 1 0 0 0 0 0 1 0 0 0 2 0 1 1 2 1 0 0 0 3 1 3 1 2 1 1 0 1 0 1 0 0 2 0 1 1 0 1 1 2 1 0 0 0 1 1 0 2 4 1 1 1 1 0 2 2 2 1 3 0 0 1 2 1 1 3 4 1 0 1 0 1 0 0 2 1 0 0 0 1 1 1 1 2 0 1 1 1 1 0 3 1 1 1 3 0 2 0 1 1 2 3 2 0 1 2 0 1 0 0 0 3 0 1 0 3 1 0 2 1 1 0 1 0 1 1 3 1 1 0 0 0 2 1 0 2 1 1 1 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 2 0 0 1 1 0 3 2 0 1 0 0 0 2 0 1 1 2 1 2 1 0 0 1 1 1 0 2 0 0 1 0 0 1 1 0 4 2 0 1 0 1 1 0 1 0 0 0 2 1 0 1 0 2 0 1 0 1 0 0 1 1 1 1 3 1 4 1 1 1 2 0 1 0 1 0 1 1 0 0 1 1 1 0 1 2 1 0 2 1 2 1 0 0 1 0 0 0 2 0 0 1 2 0 0 1 1 0 2 1 2 1 2 0 0 2 1 2 0 3 1 1 0 0 1 0 0 2 0 0 1 0 2 1 1 0 1 1 0 1 1 1 1 0 1 2 2 1 2 0 0 1 0 2 0 0 1 1 0 0 1 1 0 0 1 0 0 2 1 0 2 1 1 2 0 2 1 1 1 1 1 0 0 1 2 0 2 1 0 0 1 1 0 0 0 1 1 1 3 0 0 0 0 0 0 0 3 2 0 1 1 2 0 2 2 3 1 1 1 0 0 0 1 1 2 0 1 1 1 0 0 0 0 0 1 2 1 0 0 0 2 1 0 1 0 1 0 0 0 2 3 1 1 0 3 0 1 2 0 1 2 0 1 1 3 0 0 0 2 2 0 0 1 3 1 0 0 1 0 0 3 0 0 0 0 1 1 1 3 1 0 2 1 0 1 2 2 1 0 0 0 0 2 1 0 1 0 1 0 0 0 3 2 3 0 1 4 1 2 0 0 0 1 0 1 0 0 1 0 0 2 0 1 1 1 0 1 0 0 0 3 0 2 0 3 2 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 2 2 0 1 1 0 0 1 0 2 0 0 2 2 2 0 1 0 2 0 1 0 1 1 2 1 1 0 2 2 0 1 0 0 2 0 0 1 0 1 0 2 1 1 1 1 1 0 2 0 1 1 1 0 2 1 1 1 3 0 2 3 1 1 0 1 1 2 1 1 0 1 1 0 3 0 0 0 0 2 0 1 1 0 1 1 2 1 0 2 4 0 1 0 0 0 2 0 0 0 0 1 1 2 0 3 0 0 1 1 1 2 1 0 3 1 1 0 0 0 1 0 0 2 0 0 1 0 1 0 1 0 0 1 1 0 1 1 0 0 0 0 3 0 0 2 1 1 0 0 1 2 2 0 0 1 0 1 1 0 1 1 0 1 2 1 0 1 1 0 1 1 0 2 2 1 0 0 0 1 1 0 2 0 0 2 0 2 2 1 2 0 1 1 0 0 0 2 1 1 0 2 2 0 1 2 2 0 1 0 1 1 3 1 1 0 1 2 0 1 2 0 1 3 0 1 1 2 0 0 0 1 1 2 2 1 0 1 2 1 1 3 1 2 2 0 2 2 2 0 0 1 0 1 2 1 1 1 0 2 0 0 0 2 2 2 1 1 1 2 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 2 0 0 1 2 1 0 0 0 1 0 1 2 0 1 0 1 2 1 2 1 0 1 0 0 1 0 1 3 0 0 0 0 0 0 3 0 0 1 0 2 0 0 2 2 0 3 2 1 2 0 1 1 0 0 2 0 0 2 0 2 0 1 0 0 0 0 0 0 0 3 2 2 1 1 1 0 0 1 0 0 2 0 0 0 0 0 0 2 1 1 1 0 0 2 1 1 2 3 0 1 1 1 0 1 0 0 1 1 0 0 1 0 1 0 1 1 1 1 1 2 1 2 0 2 1 0 1 1 3 0 1 0 2 0 0 0 0 0 0 1 1 1 0 2 1 0 2 2 2 0 0 1 0 2 0 2 1 0 2 0 2 1 0 1 0 0 0 1 2 1 0 0 0 2 0 1 2 1 0 0 2 1 0 0 0 1 1 1 0 1 1 1 0 2 0 2 0 1 2 1 0 1 1 1 1 0 0 2 0 0 1 0 0 0 1 1 2 0 2 3 0 2 1 2 1 0 0 0 1 0 3 1 0 0 1 0 1 0 1 1 1 2 0 0 3 1 1 0 1 0 1 0 1 3 0 0 1 2 0 2 2 1 1 1 1 1 3 0 1 0 1 1 1 0 0 2 0 1 0 3 1 1 0 1 1 2 1 0 0 3 2 0 2 1 1 1 0 1 0 0 1 1 3 1 2 1 1 2 0 0 2 1 0 0 1 0 0 1 0 0 1 0 2 0 0 1 3 2 1 1 1 0 2 0 1 0 0 0 0 0 2 0 0 1 1 1 1 3 3 1 3 0 0 1 1 0 0 1 0 1 2 2 0 1 0 2 1 1 1 1 0 1 0 1 1 2 3 0 0 1 2 0 1 1 1 1 0 2 3 1 0 0 0 0 0 2 1 1 1 1 0 1 0 0 2 1 1 1 1 0 1 2 1 0 2 0 1 0 0 1 1 0 1 2 0 0 2 1 1 0 1 0 2 1 0 0 1 1 0 2 0 1 1 0 2 0 1 3 1 1 0 2 0 0 1 1 1 0 0 0 1 1 0 1 3 2 0 3 2 0 0 1 1 2 0 1 1 1 1 0 1 0 1 0 1 2 0 1 0 0 2 1 1 0 2 1 1 1 0 0 0 0 2 0 1 1 1 1 0 2 1 1 0 0 3 0 1 1 0 0 1 0 0 0 0 3 1 0 1 0 0 1 2 2 1 2 1 0 0 2 1 0 1 1 1 0 1 1 1 0 0 1 2 0 0 0 1 1 3 1 1 0 0 1 0 1 0 0 1 1 1 2 2 1 1 1 1 1 0 1 2 1 1 0 1 1 0 1 1 1 1 0 0 2 0 0 1 0 2 0 0 2 1 0 1 0 3 0 1 0 1 1 1 1 3 1 0 0 1 1 1 1 2 0 1 0 1 0 0 1 2 0 0 1 0 1 1 1 0 0 0 0 2 3 1 0 2 1 1 1 1 1 0 1 2 1 0 2 1 0 0 0 0 0 0 1 0 1 3 0 2 0 2 0 0 0 1 0 2 0 1 1 0 0 1 0 0 1 2 1 0 1 0 1 2 1 0 1 1 1 1 0 2 2 0 3 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 2 1 0 1 1 0 2 0 2 0 2 1 2 2 0 1 0 0 0 1 1 0 1 2 0 1 1 1 3 1 2 0 1 0 2 1 0 1 2 3 1 0 0 3 0 0 2 1 2 0 1 0 3 2 4 0 0 0 3 1 2 2 0 1 2 1 0 0 0 0 1 0 0 0 0 0 2 1 0 2 2 1 2 0 1 0 3 0 0 0 0 2 0 2 1 0 0 1 0 1 2 0 1 1 0 1 0 0 2 0 1 1 0 1 1 1 1 2 2 0 0 0 0 0 2 2 0 0 0 2 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 3 0 0 1 2 1 1 0 0 1 0 0 1 0 0 1 0 0 2 1 0 2 2 1 0 0 1 1 0 1 0 0 0 0 0 2 0 1 1 0 2 2 0 0 1 0 2 0 0 1 2 1 2 0 0 1 2 0 0 2 0 3 1 1 1 0 1 2 0 0 0 0 2 1 2 1 1 0 0 0 0 1 1 0 0 0 1 0 2 1 1 0 0 0 0 0 1 1 2 2 1 0 1 0 0 0 0 0 0 2 1 0 1 1 0 1 1 2 0 0 1 1 1 1 0 0 1 1 0 1 2 1 0 1 0 1 0 2 0 1 1 1 1 0 0 0 3 2 1 0 1 0 2 0 1 0 2 1 0 3 0 1 0 1 0 1 1 0 2 0 0 0 0 0 0 0 1 0 0 2 1 1 0 2 1 1 1 2 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 3 0 2 2 0 2 1 2 1 0 0 0 2 1 1 0 1 2 0 0 1 0 1 2 1 1 1 1 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 2 1 0 2 1 0 1 2 1 0 0 2 2 0 0 0 0 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 1 1 1 0 0 2 2 1 3 0 0 0 0 2 0 0 0 2 0 1 0 1 0 0 0 0 1 0 2 1 0 0 2 0 1 1 1 4 1 0 1 2 0 1 1 1 1 2 2 1 1 1 0 1 1 2 0 0 4 1 0 2 3 0 0 0 2 0 4 2 1 0 1 1 2 0 1 0 2 0 2 3 1 0 1 0 1 1 2 0 0 2 0 0 1 0 1 1 0 0 2 0 0 1 0 3 1 1 0 0 0 1 0 3 1 2 0 0 1 1 2 2 2 0 0 1 0 0 3 2 0 0 0 1 0 1 3 0 1 1 1 1 1 0 1 0 0 0 0 0 2 2 0 1 1 2 0 0 2 1 0 0 0 1 3 0 3 1 3 2 1 0 2 1 1 0 1 3 0 2 1 0 1 2 3 0 0 0 1 2 0 1 1 2 1 1 2 1 0 1 1 3 1 0 2 0 0 2 1 0 0 1 0 3 2 1 2 0 1 1 1 1 1 1 0 2 2 1 0 0 0 2 0 1 1 2 0 0 3 0 0 1 0 0 1 1 1 0 3 1 0 1 0 1 0 0 4 0 0 3 0 0 0 0 2 2 0 2 1 1 0 0 1 2 0 0 0 0 1 1 4 1 1 2 2 2 1 0 0 0 2 1 1 2 0 2 1 2 1 0 1 2 1 1 0 2 1 0 3 2 1 1 1 1 0 0 0 2 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 3 0 0 3 1 2 0 0 0 0 0 0 4 1 0 2 1 2 2 0 1 0 0 2 2 1 0 0 2 1 1 1 1 2 2 1 1 0 2 1 1 0 2 2 3 1 0 0 1 0 2 2 1 2 1 1 0 1 2 2 1 1 0 0 1 1 0 1 0 0 2 0 0 1 2 0 0 0 1 1 1 2 0 0 2 1 0 1 0 0 1 1 0 1 2 0 2 0 2 1 1 0 1 2 0 1 1 0 1 1 0 1 0 2 3 1 0 1 0 1 1 0 0 1 0 1 0 3 0 1 1 3 1 2 2 0 2 1 1 0 1 1 0 0 0 1 1 1 1 0 0 1 1 2 0 2 1 1 2 0 2 2 1 0 1 0 0 1 1 1 1 1 0 2 1 0 1 0 0 0 1 0 0 0 0 0 2 2 0 1 1 1 2 1 1 0 1 2 0 1 0 0 1 2 0 1 3 1 1 0 1 1 0 2 2 3 2 1 0 1 0 1 1 0 3 0 0 0 1 1 2 3 0 1 0 2 0 0 0 1 0 1 2 0 0 2 1 1 1 0 0 4 1 0 2 0 1 1 0 1 1 1 2 0 2 1 2 1 2 1 0 1 1 0 1 0 0 0 0 0 1 2 2 2 2 0 0 2 1 2 0 1 0 3 0 1 2 0 0 0 0 2 1 1 0 0 0 0 1 0 0 1 1 2 1 1 1 0 1 1 1 1 1 2 0 0 1 0 1 0 0 2 1 0 2 1 1 1 0 2 1 2 2 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 1 3 0 0 0 0 1 1 1 0 1 0 2 1 0 1 0 1 0 1 1 2 1 2 1 2 1 2 1 1 0 0 1 1 1 1 0 0 0 0 0 1 1 1 3 0 2 0 0 0 0 0 1 0 0 1 1 0 1 3 0 0 2 2 0 0 2 0 0 0 1 2 1 0 1 4 0 2 2 1 0 3 1 0 0 0 1 0 2 1 1 3 1 1 1 2 3 2 2 1 0 0 0 1 1 2 2 1 1 0 3 1 2 0 2 2 2 1 2 1 0 0 0 2 0 1 1 3 2 0 2 3 2 0 1 0 0 2 2 0 2 1 1 0 2 1 2 1 0 0 1 1 2 1 0 0 2 0 4 3 2 1 2 0 0 1 0 0 0 0 1 1 1 1 1 1 1 3 0 2 0 1 1 2 0 1 2 3 0 0 0 1 1 0 0 0 1 2 2 1 0 0 0 1 0 2 4 1 1 1 2 1 1 0 0 1 0 1 0 0 1 2 0 1 1 1 2 2 1 1 2 1 0 1 2 1 1 0 2 0 0 0 0 2 0 0 0 0 1 0 0 2 0 1 2 0 1 2 3 1 1 0 1 0 1 0 0 0 1 3 2 0 0 0 1 2 1 0 0 1 0 0 1 1 0 0 2 1 0 1 0 1 1 1 0 0 1 1 2 1 1 2 2 0 1 4 0 1 1 0 0 0 0 1 0 0 0 1 0 2 2 2 0 0 0 2 0 0 1 0 2 0 1 1 1 2 0 1 1 0 0 0 0 1 0 1 2 2 1 1 0 1 0 2 0 1 1 0 1 0 0 3 1 2 2 4 1 0 1 0 2 0 0 0 1 2 2 0 1 1 1 2 1 1 0 0 1 1 1 1 1 3 2 0 0 2 0 0 1 0 1 2 1 0 0 2 1 3 0 3 1 2 1 0 0 1 2 2 0 0 0 2 1 1 2 1 1 1 0 1 0 0 0 1 0 2 1 0 1 0 0 1 2 2 1 0 1 0 1 1 2 0 1 2 1 1 0 0 0 1 1 4 1 1 2 1 0 2 2 1 2 1 0 1 0 0 0 0 1 2 0 0 0 4 0 0 1 1 0 1 1 0 0 2 1 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 0 3 1 0 2 1 0 1 0 0 0 2 1 0 1 0 0 1 1 1 2 0 0 1 0 2 1 1 1 1 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 0 1 0 1 1 0 0 1 3 0 0 1 0 1 1 1 0 2 0 1 1 1 1 2 1 1 0 1 0 0 0 0 2 0 2 0 1 0 2 0 1 0 1 1 0 0 0 2 1 0 0 0 2 1 0 0 1 0 0 1 2 1 1 1 1 0 2 3 1 2 0 1 0 0 0 1 3 0 1 0 1 1 1 0 2 2 1 0 0 0 0 1 0 2 3 0 0 1 0 0 0 0 1 1 1 1 2 0 2 0 0 1 0 1 1 1 0 2 2 0 0 0 0 1 1 1 0 3 1 1 1 0 0 4 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 2 2 0 1 0 4 2 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 2 0 0 1 0 1 1 0 1 0 0 1 0 1 1 0 0 1 1 2 2 0 1 2 1 0 2 1 1 0 1 0 1 1 1 1 0 1 0 0 1 0 0 2 2 1 0 1 1 1 3 0 1 0 2 1 2 0 1 0 1 2 1 0 0 0 0 0 2 0 1 0 0 2 3 2 0 0 0 2 1 0 0 0 0 0 3 3 0 1 2 0 5 1 0 0 0 0 0 0 2 0 3 0 0 0 1 1 1 2 0 1 1 0 2 1 3 0 1 1 1 1 0 1 1 1 0 0 2 3 0 2 2 0 1 1 0 1 1 1 0 2 1 2 1 0 0 0 0 0 0 1 0 0 1 0 2 1 1 0 2 0 3 0 2 1 2 1 2 1 0 1 1 2 1 0 1 0 0 1 1 0 0 0 2 1 0 0 1 0 0 1 0 0 0 1 2 0 1 1 2 1 0 1 0 1 2 2 0 0 0 2 2 0 1 3 0 2 0 0 3 1 0 0 1 1 0 0 0 0 0 2 2 2 1 2 1 1 0 1 1 0 0 0 0 0 2 2 0 1 2 1 2 1 0 1 0 2 1 0 0 0 3 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1 1 2 2 0 2 1 0 0 0 1 1 1 1 1 2 0 2 2 2 1 1 2 0 0 1 2 0 0 0 1 1 2 0 1 1 0 0 0 2 1 2 1 3 1 1 2 0 0 2 0 2 0 2 1 0 2 3 0 0 1 0 1 1 0 1 0 0 0 0 0 2 1 1 0 1 0 2 0 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0 1 1 2 2 1 0 0 0 0 1 2 1 1 2 0 1 0 0 1 0 1 2 0 0 0 0 5 3 1 0 2 2 1 1 2 0 0 0 0 1 3 0 1 1 1 0 2 0 0 0 1 1 0 0 0 3 3 1 0 2 0 2 0 3 0 0 0 1 0 0 0 3 2 0 1 1 0 0 1 0 0 0 3 2 0 0 0 0 0 0 0 2 1 1 0 1 1 1 0 2 3 1 0 3 0 0 0 0 0 1 0 0 1 0 1 2 1 0 2 1 1 3 1 4 0 1 1 0 2 1 0 1 2 2 0 0 1 1 0 1 1 1 1 1 2 0 0 1 1 2 0 0 1 2 0 1 1 1 1 1 0 1 1 1 1 0 0 2 2 0 0 1 1 1 2 1 0 0 2 1 0 0 1 1 1 2 1 0 0 0 0 2 1 3 2 2 0 0 1 1 0 0 3 1 1 0 1 0 1 1 0 1 1 1 0 0 3 0 2 1 1 1 1 1 2 1 1 2 0 1 1 0 2 0 0 2 2 0 3 1 1 1 1 1 0 1 2 0 1 1 2 1 0 0 0 1 2 1 0 1 0 1 0 2 0 0 1 1 2 0 1 2 2 1 0 0 2 1 0 2 1 0 0 1 0 0 0 3 1 0 0 0 1 2 1 0 1 0 1 1 3 1 0 1 1 1 0 1 2 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 0 1 1 0 1 0 1 0 0 0 2 0 0 2 2 2 0 0 1 1 0 3 0 1 0 1 2 1 2 0 2 0 1 1 1 1 0 0 1 0 1 0 0 0 1 2 3 1 1 1 1 1 2 1 0 2 1 0 0 1 0 0 1 1 2 1 2 1 1 2 0 0 0 1 0 0 0 1 1 0 0 0 0 2 2 1 0 1 2 1 1 0 2 1 0 0 2 0 0 0 1 1 0 0 2 1 3 0 0 0 1 1 0 0 0 1 1 0 0 2 1 1 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 2 2 0 0 0 1 1 1 0 1 1 1 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 0 2 1 0 0 1 1 3 0 1 1 0 0 0 1 1 1 2 1 0 2 0 0 1 0 2 2 2 0 0 0 2 0 1 1 1 0 0 0 0 2 1 0 2 1 2 0 0 1 1 0 0 1 1 1 3 0 0 2 1 2 1 0 0 0 0 2 1 2 0 1 1 2 0 1 2 0 1 2 1 1 1 1 1 1 0 0 3 2 2 0 0 0 0 3 2 0 3 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 1 2 2 2 1 1 0 0 1 2 0 1 1 0 1 3 2 1 0 1 1 1 0 2 1 0 1 2 1 2 0 0 1 4 0 0 0 0 3 1 2 1 2 1 0 1 0 0 2 0 0 2 3 3 1 0 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 2 1 0 0 1 1 1 0 1 2 2 0 0 1 3 0 0 0 1 1 2 2 1 1 0 0 2 2 0 2 3 0 1 0 0 0 0 1 0 1 1 1 2 0 0 0 1 1 0 2 1 0 0 0 2 2 3 3 1 0 0 0 0 1 3 2 2 0 0 1 3 0 2 0 1 1 1 0 0 1 3 0 0 3 2 1 2 1 0 1 1 0 1 1 1 0 3 0 0 0 1 0 0 2 0 1 0 1 0 0 2 1 1 0 1 1 0 0 1 1 1 1 2 2 0 1 2 0 0 0 0 2 0 2 1 3 0 1 1 2 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 2 0 0 1 0 0 1 0 0 0 0 3 1 1 1 1 0 2 1 0 1 1 0 0 2 1 2 1 0 0 0 0 0 1 2 0 1 2 2 0 1 1 3 1 3 1 0 0 1 0 0 2 1 0 1 1 0 2 1 0 0 1 2 0 0 2 0 3 0 0 1 0 2 0 2 1 1 1 0 2 1 0 0 1 3 0 1 0 0 0 0 1 0 2 1 0 0 3 2 0 1 0 1 1 0 0 0 1 0 0 0 1 1 3 0 0 2 2 1 1 1 1 0 1 0 1 1 0 0 0 1 1 1 5 0 2 0 0 0 3 0 3 0 0 1 1 1 1 0 1 1 0 1 1 0 1 2 1 0 1 1 3 4 0 2 0 1 0 2 0 2 2 1 0 0 1 1 0 1 1 0 3 0 0 0 1 0 2 0 2 1 0 0 2 2 1 0 0 2 1 2 0 1 1 0 1 1 0 1 1 2 0 0 2 1 1 1 1 1 0 2 2 0 1 1 0 1 0 2 0 1 0 2 1 3 0 1 0 2 0 1 0 1 0 2 0 0 1 1 0 0 1 0 1 2 0 2 2 1 1 1 2 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 2 1 1 0 1 2 1 0 1 1 2 3 1 0 1 2 0 0 1 1 1 0 4 1 2 2 1 0 0 1 0 2 1 1 2 1 0 0 0 1 1 2 1 3 1 1 3 0 1 2 3 0 0 2 0 1 1 1 1 2 1 2 1 0 2 1 1 0 2 0 1 0 2 0 3 0 1 0 1 1 0 0 0 2 3 0 1 1 2 1 3 1 0 0 1 1 1 0 1 0 1 1 2 2 1 1 2 1 0 3 1 1 1 2 0 1 0 0 1 1 1 1 1 0 1 0 1 0 0 2 0 0 1 0 0 0 0 1 0 2 1 0 1 2 2 2 1 0 0 1 1 0 0 0 0 0 1 1 0 0 2 1 0 1 1 2 0 1 0 1 3 1 0 0 1 0 0 3 1 1 1 0 1 0 2 4 0 1 0 4 1 1 0 0 0 2 2 0 0 0 1 1 0 1 1 1 0 2 0 1 3 1 2 2 0 0 0 2 0 2 2 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 1 0 2 1 1 1 3 2 0 2 2 1 2 0 0 3 1 0 1 0 1 0 1 0 0 2 0 1 1 0 0 0 0 1 2 4 0 1 1 1 1 0 1 0 0 0 0 1 1 0 3 0 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 2 0 0 0 2 3 2 2 0 0 0 2 2 0 4 1 0 0 2 1 0 1 2 3 3 0 3 0 1 1 1 2 0 1 1 1 0 0 0 0 2 3 0 1 0 1 0 0 0 0 2 2 0 0 0 2 2 2 0 0 0 2 0 1 2 0 3 0 0 0 2 0 1 2 1 0 1 2 0 1 0 1 0 1 0 0 2 0 1 1 1 0 1 0 2 1 3 0 0 1 0 3 1 1 1 1 2 2 3 2 0 2 0 1 1 1 0 1 0 2 1 2 1 1 1 1 1 0 2 0 0 2 1 0 2 0 1 2 0 0 2 1 2 2 0 1 1 0 0 2 1 0 1 0 3 0 2 2 1 1 0 2 2 1 2 1 0 2 0 1 1 3 1 0 2 0 1 1 0 1 1 0 1 2 0 1 1 0 0 0 0 3 0 0 0 2 0 0 1 1 1 1 3 2 2 1 0 0 1 1 2 1 0 1 0 2 0 0 1 2 1 0 0 2 0 0 1 1 0 2 2 3 1 0 1 1 1 1 1 0 0 0 4 1 1 1 2 1 1 0 1 0 1 1 1 2 0 2 0 0 0 1 2 1 1 0 1 1 0 1 1 3 3 0 0 1 0 0 0 1 1 1 0 1 2 0 4 1 1 0 2 0 0 2 3 0 2 0 0 2 1 0 0 2 1 1 2 2 1 0 1 2 1 1 1 1 0 1 3 0 0 0 0 1 0 0 0 1 3 0 0 1 1 2 0 0 0 0 1 2 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 1 1 0 1 0 0 2 2 0 0 1 0 1 2 0 0 1 0 0 2 1 1 2 1 0 0 0 0 1 0 0 0 2 1 1 0 1 2 2 1 1 1 0 1 0 1 2 0 0 1 1 2 1 0 2 1 2 1 1 3 0 2 0 1 0 3 0 0 0 2 3 0 0 1 0 1 2 1 0 0 0 0 0 1 1 0 0 1 1 0 1 1 3 0 1 4 0 0 0 0 0 2 0 2 0 0 0 0 0 1 0 1 1 0 0 1 2 0 1 1 0 0 3 1 1 0 0 1 2 1 2 3 1 1 1 2 0 0 1 1 2 1 0 0 0 0 0 4 1 0 3 0 1 0 0 1 2 1 0 1 0 3 0 1 0 0 1 1 3 1 3 0 1 3 1 2 3 0 1 0 3 0 0 1 2 1 1 0 1 0 1 1 3 0 0 0 0 2 1 1 3 1 0 0 1 2 0 0 0 0 4 2 0 1 1 0 0 0 1 1 0 0 1 1 3 1 0 0 1 2 3 1 0 1 2 1 1 2 2 1 1 0 0 1 0 0 0 0 1 0 1 0 0 1 2 1 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 2 2 1 0 1 2 2 2 3 0 0 0 2 1 0 0 1 0 0 1 1 1 0 1 2 0 1 1 1 0 1 1 0 0 0 2 0 2 2 0 2 0 1 2 0 0 0 0 1 1 2 1 0 1 1 1 1 1 2 1 0 1 1 0 0 0 1 2 1 2 1 0 0 0 0 1 0 1 0 0 2 1 0 0 1 1 0 1 0 0 1 0 2 0 1 0 1 0 0 0 1 0 3 2 1 2 1 2 2 1 0 2 0 1 1 1 1 2 0 0 2 2 1 0 0 1 2 2 0 1 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 3 0 1 1 0 1 0 0 2 1 2 0 1 3 1 0 1 0 0 1 0 2 1 2 0 0 0 1 0 0 0 2 0 0 0 0 0 2 0 1 1 0 2 1 2 0 0 0 1 1 1 1 0 2 1 2 1 1 0 3 0 2 2 0 0 1 0 2 0 0 0 0 0 1 1 1 1 0 1 0 0 2 0 2 0 0 2 2 2 2 1 0 0 1 0 3 1 0 3 1 3 1 0 0 0 0 1 0 1 0 1 2 1 1 1 1 1 0 0 1 2 0 0 0 0 1 0 1 0 1 1 1 1 1 1 1 1 1 0 2 1 2 0 2 0 0 1 0 0 1 1 1 3 0 0 1 1 0 2 1 2 0 1 2 2 0 3 1 1 2 0 2 2 1 0 1 0 0 0 0 1 0 0 1 1 1 2 0 0 3 1 0 2 3 0 3 0 1 0 1 0 0 2 2 0 0 3 0 1 2 1 1 1 0 1 0 1 0 1 0 1 1 2 2 0 1 2 1 0 0 0 1 1 0 1 1 2 1 1 2 1 0 2 0 2 0 0 1 0 1 0 1 1 2 1 0 1 0 0 1 1 0 2 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 1 1 0 0 1 1 1 2 1 1 1 0 1 0 2 1 1 0 1 2 0 2 0 2 0 0 1 1 0 0 0 0 1 1 2 1 1 1 0 1 1 1 0 0 0 1 1 0 1 0 0 0 2 0 2 0 2 0 0 1 0 0 0 2 2 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 1 1 0 0 0 0 0 2 3 1 2 1 0 1 1 0 0 2 2 2 2 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 2 0 2 2 1 0 2 1 1 2 2 2 2 1 0 1 1 1 1 1 1 2 1 1 0 0 1 3 0 1 2 0 1 0 0 1 2 0 0 1 2 0 0 0 0 1 1 0 2 0 2 2 0 0 2 1 0 1 0 0 0 1 0 0 2 0 1 0 1 0 0 0 2 2 1 0 4 1 0 0 2 0 1 0 0 1 2 0 2 0 1 0 0 0 1 2 0 1 1 1 1 0 0 2 0 1 1 1 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 2 2 0 1 1 0 3 1 1 2 1 0 0 0 2 3 1 0 1 1 1 0 1 1 2 0 2 1 0 0 3 0 0 0 3 0 4 1 1 1 1 2 4 0 0 0 5 2 0 2 1 0 0 0 0 1 1 1 1 0 1 2 0 2 3 1 2 1 1 3 1 1 2 0 1 0 0 1 1 0 1 0 1 1 0 0 0 3 0 0 1 1 0 2 0 1 0 0 0 1 1 0 0 0 2 0 0 1 1 2 1 0 0 2 0 2 1 1 1 1 1 1 2 3 0 1 3 1 2 0 0 1 1 0 0 1 0 2 2 2 1 0 0 3 1 0 1 0 0 0 0 1 0 1 1 0 0 1 2 0 0 3 0 0 2 0 0 1 1 0 0 3 0 1 0 0 0 0 1 2 1 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 2 1 1 1 1 0 3 0 3 1 1 1 1 1 0 0 0 1 2 2 2 2 4 0 1 1 2 2 0 0 1 0 0 3 3 1 0 2 1 0 1 2 1 0 2 0 2 2 0 1 1 1 0 2 2 4 0 3 0 1 1 1 0 1 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 3 0 0 1 0 0 1 0 1 2 0 1 0 2 1 2 2 0 3 1 3 0 1 1 0 1 1 0 0 0 0 1 1 1 1 0 0 1 0 1 2 1 1 1 0 0 3 0 0 1 1 0 0 1 0 0 0 1 3 1 1 0 1 0 1 0 0 2 0 3 0 1 1 2 1 0 0 1 1 0 0 0 0 1 2 2 0 0 2 0 1 2 1 2 1 1 0 0 0 0 0 1 2 1 0 2 2 1 2 0 1 2 1 0 2 1 0 1 1 1 2 0 0 2 1 0 0 0 0 2 0 1 0 0 0 1 0 1 1 2 1 1 0 2 2 1 2 1 0 1 0 2 1 0 0 1 2 0 1 0 1 2 0 1 1 0 2 1 1 0 1 0 1 0 3 1 0 2 0 0 1 1 1 1 1 2 0 2 2 0 2 0 2 1 1 1 2 1 1 0 2 0 1 0 0 1 2 1 2 0 1 1 1 1 1 0 1 0 1 2 2 0 1 0 0 0 1 1 1 2 1 1 0 2 1 1 0 2 1 1 2 1 0 0 0 1 0 2 0 2 0 1 0 3 1 1 2 2 1 1 3 3 1 2 0 1 0 3 0 1 1 0 0 0 2 1 4 0 1 0 0 0 1 1 3 1 0 2 1 2 0 0 0 0 0 1 2 1 2 0 0 0 0 1 0 1 3 1 1 2 0 1 1 1 0 1 0 0 2 1 2 0 0 0 1 1 1 0 3 3 1 0 0 3 0 3 1 1 0 0 1 1 1 0 1 0 0 1 0 0 2 0 1 0 1 1 0 0 0 0 1 0 1 1 1 0 2 0 1 1 1 0 3 0 1 1 0 1 0 0 1 2 0 0 1 0 1 1 1 2 0 1 1 1 2 2 1 0 1 0 0 1 0 3 0 0 0 1 1 2 1 0 1 1 2 1 1 2 0 0 1 0 0 0 0 0 1 0 3 3 1 1 0 1 1 0 0 1 0 3 0 0 2 1 0 1 2 0 3 1 0 1 0 0 1 0 1 0 2 0 0 0 3 1 1 1 1 2 2 2 1 0 1 0 3 3 1 0 1 2 1 2 0 2 2 0 0 1 2 0 0 2 1 1 0 0 0 0 2 1 1 2 1 1 1 2 1 1 2 0 1 1 1 0 3 1 0 2 0 0 0 1 1 1 1 0 1 2 1 1 1 0 0 0 0 0 1 1 2 0 0 0 0 1 0 1 1 1 1 0 0 1 2 1 0 2 2 1 0 2 1 2 1 2 0 1 1 2 2 3 1 0 1 0 0 1 2 2 0 2 1 1 0 2 1 1 2 0 1 1 2 0 0 0 0 2 1 0 3 3 0 3 0 0 2 0 0 1 0 2 1 1 1 0 0 0 0 2 1 1 1 1 1 1 1 4 0 0 0 1 1 0 1 1 2 1 1 0 0 1 1 0 2 1 2 0 1 0 1 0 1 3 0 1 0 0 0 2 1 0 3 0 1 2 1 0 1 1 1 0 0 0 1 1 1 0 1 2 1 2 1 1 1 0 1 0 1 2 1 0 0 0 0 1 1 0 1 3 1 1 0 2 0 0 1 3 2 3 0 0 0 1 0 2 1 1 2 0 0 1 0 2 0 1 3 1 1 1 0 0 1 2 2 1 0 0 0 1 2 2 2 4 0 0 1 1 0 1 1 1 0 0 0 0 1 1 1 1 1 1 0 0 0 2 0 1 3 1 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 2 0 0 2 1 0 1 1 1 1 1 1 1 1 1 1 2 0 2 0 1 1 0 0 1 0 1 1 1 1 1 0 1 0 0 1 0 3 1 0 1 0 0 1 2 2 0 1 1 1 1 0 2 1 2 1 1 2 1 2 0 0 0 1 0 3 0 1 1 0 1 1 1 1 0 2 0 2 1 0 2 3 2 2 2 0 2 2 0 0 1 1 3 0 2 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 2 0 0 0 2 2 2 2 1 1 0 1 2 3 0 0 1 0 2 0 1 0 0 0 1 2 3 0 0 0 1 1 0 1 1 0 0 2 0 3 0 0 1 0 1 1 0 2 2 0 0 1 0 1 0 1 0 0 2 1 0 0 2 1 0 3 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 2 0 2 1 1 0 0 0 1 0 1 2 0 1 0 0 1 1 0 0 1 1 0 0 1 1 0 0 1 1 1 0 0 1 2 1 1 0 0 0 1 0 0 1 1 0 0 3 0 0 1 1 1 2 1 1 1 1 0 1 0 1 1 2 0 0 1 0 2 2 1 0 0 0 0 0 0 3 0 0 0 1 3 0 1 0 0 0 1 0 2 1 3 0 1 0 2 2 0 0 1 1 0 1 2 0 1 2 0 1 0 0 1 1 1 0 1 1 2 1 1 1 0 3 1 0 0 2 1 0 1 0 0 1 1 1 4 0 0 2 0 1 0 0 0 0 0 1 0 0 1 1 1 2 0 0 1 1 1 3 1 0 2 3 1 1 0 0 2 0 2 0 1 2 0 1 1 2 1 1 1 0 0 0 2 1 1 0 1 0 1 1 0 2 1 0 0 1 2 0 0 0 0 0 1 1 2 1 0 3 0 1 1 1 0 1 1 0 1 2 1 0 2 1 0 0 1 0 1 0 2 1 0 0 0 1 0 0 1 1 1 2 0 0 1 0 1 1 0 0 0 0 0 0 0 2 3 0 0 1 0 0 0 2 1 2 1 0 2 0 2 0 0 0 0 0 1 0 0 2 0 3 1 1 1 1 0 2 0 0 1 1 0 3 1 2 1 0 2 1 2 1 1 2 1 0 1 0 0 0 1 2 1 0 2 2 3 1 2 1 4 1 0 0 0 0 0 1 0 2 1 1 0 0 1 2 1 1 0 0 0 1 0 0 2 2 0 2 1 0 2 0 0 2 2 2 1 0 0 0 0 3 1 0 2 1 0 0 0 1 0 1 2 0 0 0 0 1 1 2 0 0 1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 1 2 0 0 0 0 1 1 0 2 0 2 1 1 1 1 2 3 2 0 1 2 1 1 1 1 0 0 1 0 2 1 0 2 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 3 1 0 1 1 1 1 0 1 1 0 1 2 0 2 0 1 3 0 1 1 0 0 1 0 1 0 0 1 2 0 1 1 0 1 1 1 0 0 0 1 1 1 0 0 1 1 4 4 1 0 0 0 0 1 1 1 2 3 0 0 2 0 1 3 0 3 1 1 2 1 0 0 1 0 0 0 1 0 2 0 1 0 1 0 4 1 2 1 2 0 1 2 2 0 1 0 1 0 0 2 1 1 2 2 2 0 0 1 5 0 0 2 0 0 1 1 1 1 1 2 0 1 0 1 0 1 1 1 1 1 1 0 0 0 2 0 1 2 1 0 1 1 2 1 0 0 1 1 0 2 1 0 1 2 2 2 1 0 2 2 2 0 2 0 1 0 1 0 0 3 0 0 0 2 0 0 1 1 2 1 0 1 1 0 1 0 0 0 0 1 1 1 3 0 0 0 3 3 1 1 0 0 2 1 0 0 0 1 0 1 0 0 1 0 1 2 2 1 0 1 1 1 1 1 0 0 0 3 3 0 0 0 1 1 0 1 1 2 2 1 2 1 1 1 1 0 1 1 1 1 1 1 2 1 1 1 3 0 2 0 3 1 0 2 0 1 0 0 0 3 2 1 2 1 2 0 1 1 2 0 0 0 2 1 0 0 0 2 1 2 1 0 2 0 0 2 1 1 0 0 1 2 1 0 1 0 3 1 0 1 1 2 0 0 0 3 0 1 1 3 1 0 0 0 3 2 1 1 0 2 0 0 1 2 0 1 2 0 1 1 0 0 1 0 0 2 0 1 0 1 0 0 0 2 0 0 1 2 0 0 0 3 0 0 2 1 3 0 0 1 1 0 0 1 1 5 3 2 0 3 1 1 0 0 3 1 0 3 1 1 1 0 1 1 1 2 2 1 0 0 2 0 1 0 0 2 0 0 1 0 0 1 0 0 0 1 1 0 2 0 4 0 1 1 3 2 2 1 0 2 1 2 0 2 0 1 1 1 0 1 0 0 0 0 1 3 0 1 2 1 1 0 1 2 1 1 1 1 1 1 0 3 1 2 1 1 2 1 0 1 3 2 1 1 1 2 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 1 1 0 2 0 1 1 3 1 0 2 0 2 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 1 0 0 1 1 2 1 0 0 0 0 1 1 2 0 0 0 0 3 1 1 0 2 0 0 0 0 2 1 2 1 0 0 0 1 0 0 0 0 1 2 1 0 1 0 0 0 2 2 0 1 3 0 0 0 2 1 0 0 1 0 1 0 1 1 0 0 0 1 1 2 0 2 1 1 1 0 1 1 1 0 1 1 3 1 1 1 2 1 0 1 1 0 0 1 3 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 4 1 0 2 0 1 3 1 0 0 1 0 1 0 0 0 0 2 3 0 0 3 0 1 0 1 0 2 0 0 1 0 2 0 0 0 0 0 0 2 2 1 0 1 0 0 0 1 1 1 1 2 1 0 0 0 1 1 0 2 0 2 0 0 1 0 0 1 1 0 1 0 0 1 1 2 1 0 1</t>
+    <t>EXN(0.6031137269187287, 15.677257032952191, 6.53064201889336)</t>
+  </si>
+  <si>
+    <t>14 13 20 18 23 24 21 13 17 12 16 14 17 17 23 16 6 13 35 0 18 23 15 7 16 27 6 13 13 24 0 26 31 17 16 23 13 17 17 20 23 31 17 20 21 41 16 12 21 17 26 14 9 27 13 20 13 17 31 16 19 21 17 3 22 41 38 16 10 17 13 23 17 16 17 13 13 26 16 30 6 21 34 19 16 13 26 23 24 28 14 20 23 16 11 24 14 34 23 31 11 13 17 13 20 22 6 13 21 17 17 38 26 21 20 16 24 20 19 20 3 27 9 10 35 12 34 17 23 20 24 24 21 6 18 24 7 25 13 6 19 16 17 10 17 14 22 31 20 6 17 13 20 23 34 23 13 24 13 24 21 22 14 26 21 14 17 17 20 29 12 24 31 24 20 14 13 16 27 7 23 10 20 14 16 23 13 20 30 10 24 29 13 30 7 12 20 20 30 10 15 0 28 27 16 17 20 14 21 17 25 19 29 24 22 14 30 31 12 20 16 12 13 13 17 22 9 13 20 24 27 24 27 19 10 20 18 19 20 28 17 21 17 12 3 6 35 16 24 20 19 16 16 13 17 31 16 13 6 10 12 28 24 17 31 13 7 14 13 31 28 13 17 21 34 20 15 19 13 20 20 17 20 14 20 13 7 21 31 15 27 20 13 23 21 28 10 20 16 16 13 10 24 10 20 20 41 22 13 31 20 31 14 12 5 16 10 23 27 37 24 40 24 23 17 14 7 14 20 24 24 20 20 38 14 20 21 17 13 21 18 30 14 17 21 10 26 24 17 17 24 27 23 22 20 9 14 13 6 16 31 13 21 13 17 16 7 6 27 11 17 23 35 30 14 21 20 19 17 21 21 0 30 17 23 20 27 14 14 18 13 15 6 17 27 17 24 23 28 9 17 10 24 28 17 28 17 42 24 37 26 15 27 19 15 10 26 21 20 7 9 15 20 24 15 17 28 16 34 17 15 20 7 14 17 28 13 20 27 15 14 6 17 23 30 24 13 20 10 23 6 20 27 28 21 16 45 20 10 16 30 23 27 35 20 27 27 28 15 10 24 30 20 24 12 20 15 18 10 24 16 20 16 10 14 23 13 17 9 38 17 17 23 14 19 17 17 21 33 19 27 27 6 16 10 24 7 23 20 31 30 21 17 23 31 20 23 13 27 6 17 23 25 24 31 26 15 9 17 38 30 24 21 17 10 25 16 16 34 27 24 20 27 23 21 14 13 13 22 12 24 26 14 31 24 17 10 20 27 9 21 13 7 20 10 27 14 33 9 20 10 10 9 19 17 24 28 3 31 10 20 13 22 24 23 27 17 23 25 9 17 9 17 28 24 16 21 14 10 17 21 13 30 21 17 19 24 20 17 28 31 24 13 17 24 33 12 37 20 9 27 31 21 13 19 22 17 38 12 23 19 28 27 7 19 20 17 21 14 7 24 23 19 24 17 20 10 26 25 41 24 30 30 14 13 13 17 26 16 16 13 14 6 30 20 35 27 21 28 15 18 13 18 21 17 17 19 23 17 42 24 34 31 25 13 26 21 17 23 13 17 20 3 21 16 19 26 21 44 20 20 18 20 22 13 3 14 24 21 21 14 24 15 20 17 25 3 14 6 20 17 13 23 20 20 21 24 10 24 24 15 17 21 23 19 28 13 14 24 27 16 20 48 31 27 18 31 17 27 21 14 9 10 33 6 17 27 17 26 42 21 27 23 10 22 14 23 23 10 23 13 19 20 24 31 31 16 11 16 17 20 10 20 24 17 17 19 19 26 23 15 14 14 7 14 19 20 13 19 23 21 17 14 23 28 13 29 10 17 9 10 20 14 16 23 24 10 3 13 19 21 20 14 16 20 13 24 17 24 23 10 32 20 20 9 37 10 17 31 20 23 35 29 16 20 17 17 17 38 21 16 24 15 24 31 19 13 26 29 9 31 16 20 10 14 16 24 23 28 16 17 27 13 28 17 13 23 14 27 31 13 24 12 24 24 18 27 18 15 20 24 20 19 20 31 9 17 24 30 23 29 16 19 31 16 20 13 10 16 37 24 13 10 31 21 24 21 23 20 13 21 25 37 10 17 18 10 24 16 28 31 31 31 13 21 16 24 23 15 14 23 31 16 21 26 24 24 13 25 15 19 11 23 23 31 3 16 23 3 20 10 13 24 17 23 21 20 23 24 10 31 31 21 38 27 24 3 20 27 26 30 12 16 23 13 16 22 20 16 14 14 41 16 34 10 25 24 10 17 24 15 23 17 17 10 19 23 33 10 17 24 19 13 13 37 13 20 30 10 17 23 35 26 23 27 3 20 26 20 20 15 10 24 32 15 26 17 15 17 43 27 34 27 16 14 23 10 13 10 31 27 41 30 16 23 17 10 34 41 20 20 7 26 34 26 14 15 34 17 41 22 19 7 27 21 10 27 39 17 19 24 7 17 31 20 24 21 24 10 10 17 16 18 21 24 28 10 17 28 9 12 7 15 26 20 24 21 3 16 17 20 27 23 20 21 17 10 20 19 20 13 20 6 17 17 20 17 17 18 17 13 17 17 14 34 16 20 11 10 10 22 13 17 27 20 7 12 20 24 23 13 17 20 13 14 16 24 20 17 27 17 37 16 10 17 28 27 20 26 27 24 23 17 37 17 25 17 23 37 14 14 13 24 17 17 28 16 38 34 24 20 14 15 17 17 23 26 7 17 20 20 33 17 13 17 11 16 35 9 31 9 13 13 28 7 13 21 30 12 24 23 17 27 26 20 21 24 24 16 22 22 23 27 17 30 21 24 3 21 17 9 24 16 21 9 27 24 13 21 9 13 17 27 27 10 23 19 19 27 17 26 23 16 10 23 38 20 27 18 16 13 12 3 17 16 6 10 31 27 17 23 16 22 9 20 18 10 17 13 16 23 20 20 21 24 16 13 24 10 17 8 14 6 31 17 10 20 20 13 14 20 10 23 20 13 20 3 37 34 13 27 32 17 24 19 24 13 7 6 23 9 27 16 24 10 15 21 22 6 34 31 10 20 30 23 31 20 15 30 22 24 24 15 19 25 24 10 23 3 10 21 34 7 24 20 17 20 20 10 17 27 20 16 28 20 8 20 26 36 6 6 15 19 24 20 20 24 27 23 27 21 27 13 26 37 34 20 14 17 17 26 9 12 23 20 17 14 14 13 15 24 10 15 6 16 25 20 24 14 34 23 13 23 10 18 20 12 33 20 16 3 16 20 21 30 10 20 7 20 17 21 24 27 34 13 30 20 27 37 41 24 44 16 38 31 27 34 19 23 23 7 21 17 23 21 14 10 14 21 17 18 30 24 11 23 9 7 7 14 27 3 31 23 31 17 20 20 41 17 13 17 23 12 27 11 20 17 17 12 24 28 13 12 13 14 19 13 24 34 23 9 13 17 20 35 21 7 17 26 12 22 22 30 37 16 19 17 23 21 15 21 14 29 23 21 24 16 19 24 24 23 23 3 25 20 14 32 13 41 21 21 23 23 27 20 17 10 20 9 28 30 13 17 24 19 17 19 10 13 28 34 7 17 30 20 7 35 13 20 28 13 17 19 17 24 7 20 10 38 20 9 17 24 6 3 13 21 15 16 31 24 14 20 29 6 17 14 30 24 14 28 16 16 20 23 16 19 30 13 23 18 14 21 20 22 19 20 24 17 17 27 19 25 24 16 27 20 21 24 20 16 13 18 31 24 20 21 20 20 33 12 21 20 24 20 17 9 23 13 13 17 24 20 16 13 26 20 18 13 13 21 14 16 6 23 27 27 21 20 20 17 27 6 42 23 24 17 24 20 20 28 12 17 24 27 7 27 9 13 19 13 25 27 23 15 22 8 0 27 17 20 24 19 10 14 14 3 7 17 13 20 7 23 31 6 23 20 14 27 23 17 9 27 17 10 7 27 20 27 31 16 17 20 20 13 23 23 20 27 38 17 22 11 0 16 21 6 7 6 17 9 30 20 23 20 21 10 29 17 17 20 19 40 6 30 15 19 3 28 25 23 21 26 18 14 18 14 18 19 20 18 27 16 24 17 23 37 17 10 24 13 10 20 29 20 20 35 21 6 21 23 13 22 26 20 10 20 29 16 21 26 20 7 35 14 10 14 27 20 10 16 14 16 33 26 14 20 30 3 9 13 27 17 16 25 13 22 37 24 9 23 15 25 24 24 14 23 23 16 10 20 22 9 17 10 19 27 24 23 13 3 17 28 23 20 24 7 31 27 15 17 22 17 20 17 45 19 10 22 10 6 15 10 17 17 14 16 9 17 20 13 13 36 3 34 13 22 6 16 10 23 26 14 30 20 24 20 17 21 17 14 27 7 17 6 27 31 37 7 38 22 14 16 24 28 20 27 23 19 34 21 16 10 27 20 21 15 20 17 24 17 17 20 10 21 10 3 17 15 15 17 21 16 10 27 34 24 33 23 31 13 27 17 23 13 14 13 21 16 13 19 17 13 10 29 16 18 28 23 23 35 17 24 25 10 10 17 23 13 30 33 25 20 10 20 23 26 13 20 20 22 10 24 13 21 23 32 33 30 13 33 19 20 17 16 34 16 15 23 27 30 13 26 17 28 16 21 11 9 9 24 28 19 19 15 23 10 10 3 12 20 24 27 24 12 13 23 27 21 31 20 13 17 22 18 24 17 20 17 28 33 23 14 28 31 14 21 24 16 17 26 13 13 20 20 26 17 31 24 17 20 23 26 13 20 27 21 30 16 17 13 18 24 13 23 6 24 27 27 23 14 27 31 23 29 27 16 17 16 19 10 17 24 23 13 23 9 20 24 18 24 24 20 7 21 31 10 17 13 27 15 13 31 20 20 15 20 10 13 17 27 9 7 6 20 20 23 17 20 17 20 17 18 20 24 33 20 18 23 13 21 31 17 17 17 40 27 28 27 9 3 3 20 14 19 26 20 26 23 13 21 14 20 27 17 14 14 18 9 41 19 10 28 17 24 24 35 42 38 18 19 18 27 10 26 3 31 13 30 19 13 35 20 6 17 24 24 34 34 9 16 34 3 17 13 26 18 19 20 19 28 27 17 24 31 24 28 10 16 17 23 16 17 29 17 20 34 10 17 16 27 14 24 17 20 23 10 24 31 40 24 27 27 24 24 20 9 10 16 6 24 17 20 26 15 23 34 27 23 26 10 26 14 14 13 24 10 27 18 21 13 20 27 28 26 17 13 28 14 27 29 27 13 13 12 27 21 3 3 24 24 30 19 14 19 24 17 20 17 33 13 13 21 20 17 24 17 13 21 13 34 16 17 28 7 17 23 20 22 27 14 20 27 23 21 21 10 30 21 24 28 17 13 13 16 17 17 6 10 20 22 38 14 17 10 17 26 17 24 26 20 31 27 24 20 27 13 27 16 15 23 20 26 12 12 17 20 17 23 24 24 16 24 8 21 16 14 18 16 21 28 3 9 27 10 29 16 17 12 41 16 19 19 16 21 16 13 23 21 17 20 31 13 20 23 18 13 15 20 21 17 15 28 20 9 33 17 20 19 6 18 15 24 13 19 20 19 31 31 21 6 12 24 21 24 13 23 23 23 18 20 13 17 17 19 24 16 30 21 21 16 10 20 37 16 26 10 16 26 13 20 37 30 35 23 10 24 9 34 11 27 24 19 31 21 7 10 13 20 28 27 38 17 13 21 3 14 20 12 16 20 23 9 34 26 17 23 24 18 30 12 28 12 26 10 37 20 16 20 20 23 19 30 27 18 13 34 37 27 23 3 10 27 24 10 17 10 24 13 30 20 13 26 17 21 13 26 16 21 23 20 13 23 16 24 21 24 17 13 31 6 10 20 24 27 12 20 13 10 16 17 23 17 24 17 16 17 18 18 12 13 13 25 20 16 20 21 13 20 9 16 34 16 14 13 17 20 20 10 25 10 30 20 13 24 12 0 20 21 17 23 19 10 17 20 16 24 24 13 23 23 14 13 16 24 13 10 19 14 28 23 14 19 27 10 8 31 17 18 21 14 16 14 24 12 20 24 30 24 17 11 14 28 14 23 31 24 13 9 13 21 17 24 13 18 20 24 13 17 19 13 13 30 17 23 21 26 17 11 27 24 16 26 22 18 27 28 22 21 34 27 17 20 13 13 31 16 16 28 16 10 21 16 22 14 16 18 26 16 27 27 21 31 17 9 28 21 28 13 30 10 17 17 17 13 17 20 19 31 14 20 11 0 13 16 31 27 16 20 10 19 10 20 10 31 16 23 25 21 9 9 17 11 28 20 28 10 17 14 24 13 24 9 17 20 16 17 13 17 9 26 27 31 24 10 21 17 24 16 34 24 19 17 10 34 22 16 21 19 23 20 24 30 23 31 16 9 14 26 13 20 17 18 12 19 23 13 13 3 28 24 26 3 27 17 21 6 7 20 21 31 20 24 14 20 13 41 10 16 15 24 13 13 16 29 13 12 16 24 23 34 31 17 13 24 13 21 24 24 14 17 23 13 30 16 27 15 27 27 21 27 27 27 19 21 10 37 20 20 20 17 7 20 24 19 20 16 41 20 20 18 14 24 37 24 29 33 17 9 7 21 23 17 31 20 13 7 14 14 13 10 19 6 17 17 31 22 21 16 13 28 6 3 40 10 27 20 17 24 20 10 16 16 9 23 27 22 27 23 21 17 14 14 0 34 17 30 26 21 17 23 17 33 27 27 28 23 15 10 17 13 13 13 34 17 13 27 24 20 20 24 19 16 20 21 28 17 13 27 6 20 19 31 37 32 7 16 26 20 23 21 34 21 24 33 20 12 21 13 18 11 29 20 21 12 23 21 20 23 7 20 17 24 34 26 14 33 23 25 20 12 14 9 3 27 20 6 19 23 23 24 34 37 30 13 22 20 34 18 15 10 27 38 30 39 27 41 19 17 24 30 16 20 9 8 28 16 10 19 24 20 24 22 6 12 14 17 13 0 16 14 17 13 14 27 17 24 16 21 20 17 26 10 15 20 18 10 13 31 17 22 7 10 21 20 28 42 10 20 20 31 10 17 19 23 22 21 13 27 35 38 14 17 27 24 34 24 17 27 10 44 6 23 13 12 12 17 28 24 10 23 7 26 27 18 17 12 10 10 24 22 3 27 10 3 24 26 17 17 21 6 14 26 16 17 17 19 12 13 13 33 21 28 17 18 27 17 34 12 28 27 15 15 17 16 3 9 14 22 38 29 24 16 20 20 9 32 9 26 13 24 14 21 14 10 36 17 10 24 10 19 30 24 31 13 17 17 21 22 14 34 13 18 18 6 24 27 16 10 21 20 13 17 31 10 27 21 9 12 14 24 10 18 28 19 28 24 30 24 27 30 20 13 20 19 30 26 24 20 27 34 21 17 3 17 22 10 17 16 25 14 16 20 6 6 26 11 20 13 15 16 33 20 41 21 17 16 17 7 19 38 28 23 13 27 24 27 31 0 30 20 17 7 17 7 19 23 27 19 31 23 14 19 28 23 31 23 19 21 20 23 27 19 28 14 24 17 14 13 17 9 16 19 31 21 23 3 27 20 14 26 6 27 27 17 12 26 6 24 7 29 21 21 27 10 17 3 12 14 14 17 20 34 17 24 14 28 15 34 23 9 20 17 20 20 16 23 30 20 10 3 28 27 30 33 16 20 13 9 21 17 14 3 26 28 10 20 14 6 23 14 10 7 6 24 23 30 20 19 13 27 13 23 17 14 13 6 24 20 24 26 27 35 14 33 31 13 23 31 20 14 24 33 3 21 10 14 23 12 22 10 10 21 18 34 30 20 7 14 30 38 17 13 17 16 27 24 29 13 18 10 20 13 17 10 20 16 20 26 21 17 13 12 10 27 28 30 16 16 6 10 15 7 35 10 18 34 17 20 16 28 10 16 24 20 24 38 13 39 17 9 10 27 13 20 19 22 24 17 28 10 16 17 18 7 13 24 24 13 24 37 20 13 17 13 21 28 16 20 21 25 13 13 22 16 13 13 17 24 11 17 13 24 23 33 20 17 14 20 16 23 14 23 28 27 20 31 28 20 24 13 14 21 34 13 16 7 23 26 24 25 17 10 17 13 22 10 7 10 17 23 34 13 20 37 13 27 25 22 31 24 38 20 20 41 21 10 14 27 34 17 38 13 10 16 19 30 17 9 9 24 20 24 10 10 14 17 6 20 21 13 12 17 13 13 27 18 6 14 26 12 17 6 27 27 14 27 17 3 26 21 30 16 10 16 10 24 13 24 20 20 20 10 16 16 27 12 16 14 38 13 27 22 12 31 9 24 26 23 20 10 21 8 15 14 11 20 24 10 24 24 14 20 12 9 17 18 27 13 10 16 27 14 20 20 17 24 24 7 21 12 24 20 20 25 30 14 20 17 21 11 20 28 20 17 17 24 6 24 28 14 20 21 24 27 13 5 20 13 24 21 17 23 34 32 14 20 27 21 23 23 25 24 41 16 3 29 22 25 24 10 19 11 24 7 23 17 7 13 13 24 16 10 24 20 30 9 9 27 24 10 6 21 16 21 23 28 23 20 17 12 21 20 37 14 7 24 12 10 10 28 10 17 31 20 18 23 13 24 20 17 38 11 29 10 19 24 27 21 25 16 17 16 6 10 17 16 20 24 24 16 15 17 10 9 10 18 30 24 26 23 27 14 14 23 17 21 27 20 17 28 17 20 26 20 20 20 20 10 13 21 22 27 24 17 24 23 10 24 27 10 13 20 16 24 20 20 26 20 7 16 27 30 27 27 35 23 9 21 17 24 20 27 9 20 20 15 33 20 6 13 31 35 17 20 12 20 15 31 21 21 20 17 23 13 6 30 16 22 21 20 23 10 21 14 28 9 27 21 20 35 19 3 27 36 14 9 10 35 13 18 17 10 20 13 24 24 20 13 17 10 23 34 30 3 19 17 34 14 31 30 14 13 16 34 13 27 33 3 17 8 16 6 20 20 24 13 10 23 24 21 18 23 14 23 20 10 27 17 22 16 34 17 7 24 20 15 31 19 17 13 16 20 14 27 28 7 21 27 21 17 13 27 17 24 10 42 21 6 10 6 23 40 20 15 17 7 22 27 16 20 27 23 17 20 29 20 27 20 22 17 24 24 17 13 17 24 31 22 30 16 21 9 20 14 21 9 23 11 13 19 34 20 28 12 17 19 13 27 34 30 22 34 20 17 23 23 30 20 14 21 19 16 13 19 10 23 31 10 17 10 27 10 14 14 20 35 9 13 16 17 20 24 23 12 24 23 25 20 31 18 30 20 15 23 21 17 35 19 16 24 27 19 31 16 9 19 19 10 23 16 24 27 24 20 22 30 7 16 10 22 24 20 26 15 17 23 9 21 14 17 20 20 20 13 21 16 26 21 24 14 28 24 24 31 35 17 17 20 9 41 20 19 27 31 13 14 20 12 17 9 27 20 17 6 20 21 23 24 3 20 23 27 13 6 14 23 35 20 17 17 12 30 7 26 10 21 23 22 20 19 3 22 24 6 13 16 23 3 23 27 14 34 16 20 16 35 20 24 15 22 14 10 26 13 10 20 23 23 31 34 17 13 19 27 28 12 17 17 38 44 31 14 27 13 16 14 7 23 23 21 27 24 38 9 16 21 16 18 10 34 23 28 27 17 6 6 30 31 21 31 21 32 17 17 17 27 10 14 12 17 24 20 16 19 20 20 10 20 27 28 30 23 6 26 22 24 20 34 9 29 24 34 21 24 24 24 45 37 20 3 30 10 13 41 14 15 24 22 19 17 17 31 22 16 23 21 17 34 13 24 17 27 28 7 27 13 20 17 19 20 17 16 21 31 7 26 27 28 17 27 24 10 21 20 21 13 24 13 24 14 17 23 31 16 13 37 24 13 19 24 17 19 17 23 19 15 15 22 26 28 7 20 24 13 20 14 10 6 10 9 20 34 10 23 27 25 10 27 20 20 20 16 13 20 13 20 21 21 20 27 30 3 14 16 17 33 35 13 22 23 27 28 10 24 3 19 24 24 31 27 16 28 32 9 17 17 21 6 23 24 10 16 20 16 13 16 38 35 29 8 13 21 13 33 21 13 19 9 20 20 24 37 10 17 24 20 21 24 3 27 16 17 30 20 10 17 25 9 13 37 10 13 14 21 13 6 10 38 28 17 24 24 28 12 17 16 23 23 10 20 27 17 31 17 38 26 24 21 17 37 30 22 22 20 21 28 34 7 13 22 23 31 30 27 10 30 22 27 13 23 20 29 21 13 16 13 20 17 13 9 25 10 20 13 25 17 24 17 31 36 27 26 24 16 9 13 24 18 21 21 17 24 16 6 19 17 26 22 16 20 20 23 23 24 23 35 26 20 21 20 20 23 16 15 15 26 10 30 31 20 10 13 24 28 9 17 27 24 31 21 23 17 28 28 34 20 9 16 6 13 13 26 9 16 13 27 34 13 14 15 17 20 11 27 23 16 13 24 9 17 20 27 24 9 29 16 20 22 10 9 20 13 17 17 13 14 12 27 16 3 24 20 30 20 17 30 21 13 17 17 14 14 13 24 31 20 17 44 17 19 24 17 16 20 6 27 8 17 14 17 17 3 17 17 24 20 24 19 20 31 14 3 24 17 12 6 13 3 17 6 34 21 17 18 16 13 3 41 16 21 45 10 17 35 28 24 15 24 20 28 19 17 23 20 9 17 13 24 13 13 18 17 16 6 17 23 13 14 23 13 34 3 12 27 24 10 20 22 13 26 13 27 24 17 3 17 21 19 16 13 27 24 24 17 31 17 27 14 20 22 19 19 3 17 8 21 10 23 8 10 17 10 38 14 20 27 30 20 14 21 16 16 9 18 34 17 28 6 13 34 35 13 17 26 24 27 30 16 19 13 34 38 6 13 23 17 33 31 24 17 16 13 21 17 21 31 24 37 19 13 25 28 16 10 10 22 16 17 30 13 26 19 21 17 13 17 21 24 14 22 13 10 19 14 6 10 19 19 8 27 9 27 14 14 20 10 23 10 34 22 30 20 26 19 14 30 10 16 7 10 10 21 31 24 15 20 19 20 22 31 17 20 18 6 18 7 17 24 34 13 13 10 26 33 28 20 27 10 28 28 9 16 14 23 14 10 19 6 21 20 20 17 27 9 10 29 14 24 17 24 24 21 13 6 13 20 27 17 24 28 16 20 17 20 35 30 16 17 13 28 21 20 16 20 9 23 10 7 35 40 17 13 16 3 3 38 17 26 13 19 11 24 15 26 31 21 24 30 21 27 23 30 13 24 34 21 16 30 17 17 14 14 26 20 10 26 13 11 23 7 14 27 3 24 13 38 21 23 13 17 10 21 29 26 3 27 21 13 16 13 21 21 17 18 10 17 23 22 24 16 15 6 13 23 20 24 17 14 20 10 19 17 17 10 16 17 13 23 6 19 10 20 33 17 21 24 26 16 20 13 14 23 41 20 10 19 31 24 37 28 13 20 14 25 38 26 30 10 31 30 16 20 28 12 6 25 17 10 20 28 13 10 9 14 20 24 24 20 24 14 13 23 20 10 26 7 23 13 7 31 23 20 21 8 0 13 27 17 20 14 10 24 28 27 30 16 19 27 17 27 13 10 20 18 19 20 24 19 28 29 16 14 31 20 29 6 14 14 20 24 19 10 24 16 14 24 27 21 15 24 17 30 23 27 20 13 23 13 15 19 27 21 27 16 17 31 25 19 33 31 21 12 13 20 10 17 7 24 6 27 6 7 26 24 20 13 20 27 34 19 19 24 20 20 30 28 34 12 26 9 21 17 24 27 15 23 21 14 16 16 10 34 17 20 27 27 26 6 21 20 34 27 15 18 17 13 38 20 20 10 24 13 0 16 30 16 17 14 22 17 13 23 9 26 31 30 13 24 30 28 24 20 24 3 19 22 24 19 30 16 24 7 15 28 24 17 31 14 13 23 19 13 17 45 23 13 10 13 18 31 6 17 23 18 23 16 20 26 19 16 22 16 13 18 34 20 20 17 24 24 23 23 27 20 16 24 13 13 9 28 24 10 18 10 20 20 23 28 17 21 49 37 23 17 27 29 34 27 24 21 20 29 10 31 12 16 16 22 16 13 21 27 10 17 35 13 15 12 17 10 10 16 22 24 13 24 23 17 21 17 24 27 41 17 16 38 31 45 14 22 8 13 23 16 19 24 44 37 21 19 27 20 7 16 14 21 21 3 12 20 20 24 23 20 17 24 19 20 10 21 24 16 10 17 6 35 20 21 17 20 16 17 24 17 6 14 23 24 23 31 28 20 20 29 31 34 10 24 10 24 28 28 13 34 17 22 13 26 12 11 20 27 14 24 17 3 14 22 23 13 19 21 10 25 28 31 22 3 29 13 10 6 17 20 34 5 26 35 10 29 26 27 18 16 23 31 21 0 20 17 24 24 24 13 17 34 31 31 14 14 10 28 24 24 6 33 24 26 6 29 24 14 31 31 31 13 14 23 3 21 34 17 24 31 17 16 20 22 17 10 14 17 23 24 31 20 19 10 24 13 21 16 16 17 10 13 21 20 21 27 16 17 17 19 20 19 38 25 30 17 17 31 3 24 17 13 27 28 25 17 20 20 17 21 13 24 19 27 19 23 24 13 19 17 38 16 35 16 13 17 6 12 30 23 15 17 14 13 16 16 24 7 13 27 30 17 24 20 9 20 13 27 28 16 21 24 27 27 18 10 3 9 27 21 19 23 20 17 32 8 10 20 27 31 17 12 19 29 16 17 23 24 20 40 31 23 20 24 13 16 19 31 13 9 21 23 23 19 20 36 27 23 12 9 10 16 17 31 13 31 16 29 21 12 16 17 15 27 10 27 9 41 28 44 16 20 31 24 20 20 25 19 23 16 17 21 12 27 16 9 3 27 31 17 15 8 3 15 14 24 27 14 20 17 19 21 19 3 20 17 20 27 20 13 26 13 17 31 14 24 10 13 14 20 17 27 27 31 27 14 16 24 20 21 20 24 3 9 12 7 12 19 26 17 26 34 23 39 20 12 17 16 18 12 26 38 15 20 22 21 28 23 15 19 20 27 23 23 17 20 17 26 24 12 27 25 10 17 27 28 23 30 13 23 16 16 24 27 24 30 27 27 17 23 9 20 37 16 30 14 15 20 10 10 19 28 27 10 20 17 18 19 11 23 31 26 24 17 31 12 29 11 9 26 24 29 17 20 10 17 17 14 16 33 27 54 24 17 19 35 16 23 35 13 20 15 19 34 20 31 23 30 20 13 14 15 28 35 30 24 24 16 27 10 21 17 20 20 15 12 16 13 33 25 14 10 8 27 7 14 17 19 11 31 22 29 27 24 14 28 17 21 14 6 27 7 31 14 27 13 23 25 7 22 20 10 20 10 24 12 16 16 10 14 7 31 14 31 27 16 9 17 20 20 17 18 7 27 13 10 21 17 30 23 13 15 15 16 26 21 15 19 3 25 28 13 24 15 24 20 10 26 24 27 20 14 24 19 6 36 13 17 10 21 13 20 17 52 6 27 28 23 21 31 9 12 20 17 27 24 23 13 16 13 27 9 12 34 13 20 14 17 30 13 10 14 22 13 9 17 14 13 24 25 13 21 17 25 14 38 20 28 30 33 20 16 14 24 23 9 15 10 12 16 15 20 15 16 26 16 19 6 20 21 21 35 10 22 21 17 10 24 12 24 3 16 17 13 17 17 28 15 14 20 19 35 13 36 12 9 30 18 12 13 24 14 24 20 6 21 12 0 27 24 7 20 27 12 20 22 23 21 16 31 26 21 26 27 40 30 11 48 13 19 13 11 16 27 21 24 8 23 13 16 27 26 27 17 37 14 25 13 27 17 23 10 34 17 7 30 17 7 25 13 23 31 3 33 25 19 31 23 22 6 27 28 3 31 10 10 26 6 31 17 16 27 17 30 10 10 10 20 29 27 37 21 17 7 25 31 22 29 27 17 23 17 12 18 24 3 28 24 14 24 9 3 12 16 10 13 17 30 21 20 10 27 9 13 4 27 8 30 17 14 21 12 13 26 14 19 18 14 9 23 14 13 23 24 19 13 3 20 24 26 20 20 23 17 21 17 10 14 3 31 24 14 17 10 22 22 21 20 20 34 23 28 22 13 24 33 13 7 24 11 13 34 20 10 16 12 21 31 12 26 24 19 13 28 23 21 27 13 27 17 24 3 19 23 14 27 27 20 7 30 31 21 10 20 12 10 38 13 17 10 20 20 13 28 12 12 16 24 7 20 10 13 37 7 15 11 9 14 16 24 29 28 21 20 17 31 13 16 22 10 10 32 13 14 22 10 23 21 26 31 38 31 17 13 23 24 20 15 23 23 24 17 13 10 11 17 30 24 20 27 17 15 19 10 15 31 27 16 30 24 27 16 30 23 27 20 15 11 21 16 25 17 24 14 25 14 16 20 3 9 9 38 9 24 10 9 17 13 27 27 27 12 10 21 17 20 12 27 24 13 24 23 13 25 0 19 17 14 17 7 13 16 3 3 26 17 19 20 17 15 27 20 6 23 24 24 13 36 27 16 24 28 20 21 24 23 21 20 24 16 28 20 24 10 19 20 20 9 17 20 17 16 21 10 22 17 18 24 20 34 19 8 24 17 16 31 22 27 27 19 27 21 38 24 21 22 18 30 9 20 12 17 27 24 12 17 34 10 27 17 28 20 28 35 17 30 13 19 30 23 27 14 34 27 19 9 17 27 16 18 7 10 17 24 28 38 23 16 17 17 37 13 9 23 30 27 13 17 17 26 23 16 31 27 20 14 45 20 17 23 28 27 9 25 22 14 20 17 27 20 16 6 21 24 18 17 17 10 17 14 13 21 19 14 33 6 11 13 17 23 14 16 16 27 17 9 28 3 23 26 20 40 24 16 3 14 7 6 27 12 13 26 13 14 24 10 17 24 21 16 30 14 33 24 10 10 26 17 20 21 17 13 21 16 17 21 9 22 18 17 27 20 6 24 13 17 13 33 16 27 12 9 31 12 17 20 19 20 17 22 10 26 6 19 21 20 13 21 30 23 20 24 18 17 19 20 23 20 16 25 27 16 28 10 19 31 21 10 6 20 30 20 24 31 10 20 22 20 21 20 20 13 8 16 18 12 27 17 13 20 34 6 17 16 35 30 16 13 30 26 31 20 20 22 23 17 11 9 16 16 17 19 20 27 20 33 21 20 17 17 10 7 21 17 17 22 16 24 33 23 24 9 20 16 17 17 20 20 24 17 16 7 34 17 13 16 7 23 24 17 23 20 27 20 28 26 16 30 30 31 20 20 31 16 10 13 24 20 13 31 15 14 17 28 12 16 7 10 27 16 31 35 23 13 29 30 24 25 10 23 6 21 49 23 24 31 17 20 13 23 21 34 28 14 18 13 24 30 28 23 9 19 18 16 21 31 21 26 20 20 13 21 14 14 23 24 6 6 20 20 32 13 24 27 20 33 20 16 13 17 3 0 26 13 21 34 13 17 27 13 9 13 21 29 27 7 14 17 27 23 17 34 19 23 17 24 21 16 21 16 27 21 9 16 25 31 24 9 20 15 22 17 20 10 39 13 26 27 18 23 38 27 6 13 9 27 23 14 17 25 6 13 34 10 27 20 27 30 23 10 30 20 15 21 31 27 13 17 17 28 21 20 13 0 36 14 28 9 28 20 20 21 27 17 6 20 27 21 20 21 12 10 36 3 3 17 10 24 17 10 24 30 10 10 6 6 16 10 30 20 16 9 21 20 14 14 28 14 22 20 27 20 24 21 20 28 13 17 17 17 32 14 19 17 21 19 23 26 16 10 20 24 27 20 37 24 27 30 21 12 7 20 38 24 14 20 13 13 20 17 14 18 27 23 27 20 24 20 23 24 21 20 23 31 24 24 20 19 27 21 19 13 15 20 10 17 16 8 24 20 13 12 24 10 12 28 16 21 21 27 10 23 20 6 13 23 25 23 17 27 16 12 42 16 18 35 16 20 35 27 15 17 31 16 14 27 14 8 3 10 9 20 34 21 26 28 21 24 24 13 29 13 20 27 17 31 15 6 17 20 20 49 26 21 22 10 19 12 20 35 19 8 17 14 16 25 14 27 26 20 35 31 6 19 27 18 35 21 28 7 22 7 21 10 9 23 21 24 10 7 28 7 27 17 37 13 27 17 14 23 14 27 27 13 21 12 16 20 26 17 9 24 16 20 27 28 10 20 24 20 30 23 16 14 16 25 22 17 23 22 27 23 23 23 13 21 12 9 24 23 12 9 31 6 24 21 30 24 24 24 28 3 24 13 14 20 27 27 13 20 19 34 7 20 24 23 17 24 35 24 17 20 33 26 16 24 15 10 20 13 20 13 14 10 22 9 19 23 31 13 16 20 30 19 14 16 21 29 21 17 14 27 20 16 28 8 20 27 14 9 17 25 7 15 17 20 33 19 13 14 13 29 21 36 17 38 6 13 10 21 20 24 27 28 27 27 20 24 21 7 16 6 17 6 10 27 15 7 24 14 20 21 17 20 21 19 33 35 27 10 23 21 14 27 24 10 31 20 20 14 17 16 20 24 19 20 24 17 20 20 10 20 9 3 13 24 17 17 24 24 22 7 22 24 27 34 22 16 45 23 7 10 24 23 17 41 24 15 27 24 10 20 22 13 28 10 20 27 30 17 10 17 27 6 21 10 27 29 9 20 21 42 7 31 35 13 19 10 3 19 23 21 13 20 21 24 19 30 19 14 13 38 21 17 33 16 34 22 37 17 23 27 14 9 11 22 24 31 21 19 19 16 24 30 16 31 20 13 14 27 21 38 17 21 14 11 6 14 23 19 29 14 6 20 6 26 13 30 14 17 9 12 27 13 21 27 26 19 20 30 23 22 17 21 18 35 29 17 20 34 27 9 10 17 41 10 24 14 31 20 10 31 16 14 19 22 16 7 18 7 7 31 27 28 16 23 24 13 17 20 21 3 21 3 16 28 19 6 13 13 38 24 26 21 11 20 17 16 20 9 17 10 10 30 20 15 14 20 11 13 13 13 17 19 14 29 10 24 17 19 18 21 21 27 23 20 16 9 28 17 19 34 20 27 29 13 17 17 24 24 20 13 16 24 23 15 28 21 24 42 9 20 34 26 16 38 20 23 20 32 12 31 23 18 13 14 26 10 13 21 31 15 24 16 23 10 10 6 10 13 23 11 13 13 20 21 28 16 24 23 14 27 17 10 6 31 31 24 14 16 25 13 26 20 13 22 19 17 13 34 26 16 20 9 14 19 19 17 24 24 17 27 6 11 23 19 26 17 24 21 20 27 21 3 23 21 16 24 10 13 16 17 14 20 26 25 28 22 21 26 17 13 16 7 24 24 26 20 12 30 17 14 34 10 24 14 17 13 18 17 17 10 28 13 6 23 10 11 30 27 16 18 10 16 17 20 12 24 28 19 13 21 30 10 30 28 27 20 20 9 28 24 17 27 21 24 16 0 27 20 24 31 26 25 27 24 31 20 22 35 19 23 17 22 28 22 14 28 6 22 25 21 14 14 13 34 14 17 15 10 18 23 29 20 30 0 17 38 20 15 17 27 16 21 20 23 7 27 20 16 24 21 27 6 20 16 13 28 17 7 16 23 34 24 32 12 19 17 7 20 12 17 17 22 24 17 24 23 18 34 17 9 31 23 3 18 27 27 10 24 15 17 13 20 21 7 28 18 33 24 20 20 27 17 19 30 25 19 20 19 21 20 27 23 13 21 20 14 19 20 16 10 35 34 13 20 20 20 23 22 27 20 9 23 27 3 40 15 20 7 28 14 21 34 17 3 27 17 20 24 24 13 13 33 31 17 16 11 12 15 6 17 16 23 24 20 10 21 10 8 9 17 10 17 11 20 24 23 28 27 6 13 22 9 20 20 7 16 28 23 21 17 31 22 19 11 17 24 20 27 14 12 19 16 29 3 13 22 16 10 9 6 7 22 20 20 10 16 21 27 13 17 31 25 13 19 20 10 10 10 3 28 16 10 13 19 17 31 21 21 20 27 21 14 16 10 24 24 17 0 27 20 20 10 20 10 15 10 17 10 13 34 14 21 24 26 18 34 25 23 29 19 15 7 27 24 31 21 21 0 30 13 21 23 27 30 26 13 16 27 23 19 27 17 20 14 17 13 14 33 33 20 19 17 19 10 20 19 19 14 20 13 13 13 28 14 15 20 20 17 3 18 30 20 17 14 17 19 17 20 17 16 34 7 30 34 7 26 10 3 22 17 8 27 23 20 8 28 27 24 27 21 7 27 35 29 34 13 24 13 13 17 19 27 27 13 14 24 27 17 23 16 12 21 17 18 7 20 24 19 17 17 17 13 27 29 13 23 6 19 23 12 25 17 26 13 14 0 13 21 7 26 13 10 13 24 23 40 17 14 21 23 13 13 17 24 23 31 16 24 9 17 24 20 24 14 38 20 22 24 13 24 12 32 24 21 10 6 21 6 23 24 24 23 30 37 20 17 27 14 24 6 23 17 20 17 7 27 28 19 30 28 26 20 30 27 28 16 24 6 20 6 8 3 9 17 28 21 24 14 31 16 14 17 24 6 16 45 20 24 20 19 14 20 24 16 38 13 19 10 27 13 16 10 10 25 30 28 10 16 3 9 21 14 17 13 38 17 20 17 12 6 14 7 13 20 13 16 17 24 25 17 13 20 24 17 19 28 28 16 14 26 38 10 20 25 24 19 10 20 19 34 20 27 23 31 10 6 23 24 32 20 30 14 10 19 28 26 23 27 28 31 17 16 20 24 27 28 17 21 24 23 16 17 15 14 31 22 14 21 20 16 13 13 15 24 21 21 18 20 28 30 17 16 16 0 20 10 16 19 0 24 9 20 13 31 21 19 38 10 16 23 13 25 27 27 10 10 20 20 16 27 17 23 27 20 19 14 21 21 17 31 16 12 16 33 6 23 13 21 22 2 19 23 21 25 35 32 13 20 41 37 27 17 7 14 25 20 7 26 24 17 24 13 22 27 16 17 28 21 12 10 21 16 20 21 21 16 27 23 24 22 20 6 20 6 19 35 31 10 38 24 7 24 17 16 34 29 19 14 13 17 20 19 31 7 13 0 23 17 37 10 26 6 20 10 21 25 21 24 14 17 16 21 23 21 30 7 17 20 24 24 21 26 45 10 15 27 31 18 26 17 3 17 21 20 24 34 13 17 14 31 17 27 3 14 11 9 31 34 7 19 13 20 20 10 20 17 27 10 10 19 17 17 24 14 38 17 10 3 20 6 19 23 31 13 30 26 17 20 24 17 24 0 16 17 3 17 31 16 23 21 10 16 28 6 24 19 28 28 20 10 31 35 8 27 23 10 16 19 13 14 10 19 34 20 33 27 24 13 14 17 28 15 18 30 30 20 12 13 13 20 40 23 6 37 6 38 25 16 13 24 6 13 24 6 14 19 13 17 11 6 36 27 24 28 14 21 17 30 31 13 30 23 20 23 17 13 20 21 20 15 24 16 26 20 19 15 16 31 0 30 26 19 20 15 11 27 17 17 10 20 16 30 23 20 21 13 20 14 6 38 27 23 10 23 25 6 24 13 20 17 3 15 24 16 6 6 23 23 14 20 33 20 14 14 20 23 22 24 24 20 0 28 21 17 20 9 20 38 17 24 27 10 17 15 14 17 27 13 12 20 28 20 19 31 22 22 28 20 23 21 21 20 13 14 14 20 21 23 41 17 10 16 20 20 16 26 34 28 15 20 24 19 27 29 10 20 27 17 17 23 13 24 17 19 16 13 20 20 16 30 21 12 10 16 9 17 9 9 9 22 12 27 17 41 17 7 17 16 20 10 12 24 14 21 21 21 23 27 19 21 20 10 20 13 20 20 10 20 3 10 16 13 20 10 14 10 24 20 9 23 23 24 28 13 27 20 13 10 27 14 27 27 28 14 34 17 9 17 14 13 16 34 37 21 21 18 33 36 17 3 18 24 24 17 20 6 19 34 9 20 12 20 20 31 7 24 10 11 17 27 27 29 8 14 23 24 16 20 20 21 14 17 13 17 17 19 19 13 14 14 20 23 24 31 20 23 27 26 30 17 23 21 14 27 17 13 24 26 21 20 17 12 23 27 10 9 27 21 31 19 15 16 17 24 28 27 30 10 20 31 23 27 6 14 27 27 20 19 24 21 20 14 17 14 37 6 24 17 10 26 23 10 16 24 24 24 20 10 35 13 41 25 31 19 24 34 27 31 21 10 26 0 20 28 30 26 19 27 7 13 12 12 17 19 6 15 27 20 32 9 7 24 6 6 17 13 24 16 23 21 34 27 24 20 30 17 13 31 23 16 23 24 16 13 38 10 24 28 20 6 13 20 27 31 24 21 23 20 23 20 30 20 29 23 13 17 11 0 25 20 43 24 21 6 22 23 14 11 24 24 16 38 17 13 10 6 10 24 24 38 20 17 17 17 23 12 6 6 10 24 14 27 44 20 16 3 9 14 17 19 27 16 24 6 30 20 33 17 20 27 20 13 27 26 18 24 25 17 31 19 13 23 16 25 20 14 27 10 20 27 3 28 10 3 17 27 28 27 10 16 28 17 10 20 23 20 17 24 24 27 21 14 16 17 21 32 20 21 27 24 13 12 24 19 34 17 17 27 19 12 28 20 25 18 20 16 16 37 24 13 19 37 20 28 17 7 27 16 9 24 24 20 16 28 13 27 28 35 31 28 13 17 14 26 20 28 10 20 10 21 31 23 28 20 13 14 20 13 19 16 34 25 34 13 14 14 13 18 21 24 20 20 23 15 17 10 9 10 19 24 30 27 13 17 3 10 24 11 15 24 13 19 20 30 23 17 9 3 20 13 16 21 24 27 20 16 23 17 15 20 16 27 23 37 15 28 7 21 20 23 22 17 22 19 16 20 21 12 22 19 34 20 38 6 16 26 25 21 24 9 41 24 27 16 13 6 27 24 28 16 16 27 30 10 6 20 34 23 17 28 7 24 21 21 21 24 13 3 28 23 10 14 16 17 13 26 19 17 12 20 23 19 9 35 32 20 19 21 17 13 27 13 20 13 20 28 10 17 23 24 10 23 28 9 22 19 17 24 16 16 6 27 6 21 17 22 28 26 23 14 17 31 23 10 31 3 20 26 24 12 27 19 7 23 21 24 10 21 43 17 12 35 26 10 31 7 24 3 14 17 23 20 26 26 41 16 17 8 20 27 26 24 20 20 28 23 0 18 31 14 17 20 20 23 25 30 17 27 20 34 12 30 38 6 13 9 13 19 34 13 17 13 12 20 7 14 24 3 9 15 20 17 18 9 9 20 24 20 13 13 23 37 13 31 24 38 30 17 10 26 7 28 23 9 22 42 14 16 27 9 27 23 10 7 27 14 21 15 18 15 27 13 17 28 24 17 17 13 14 13 6 34 17 10 17 27 13 20 30 35 34 17 17 31 31 20 12 24 15 11 10 33 9 7 17 18 16 23 31 16 20 13 27 34 24 11 10 10 20 19 35 26 19 31 16 13 10 24 3 27 21 13 3 10 17 27 39 27 10 28 31 40 16 18 21 14 14 21 20 13 9 24 10 20 15 13 20 30 14 35 30 23 10 20 27 27 6 17 25 34 34 24 13 17 15 10 23 17 26 26 38 20 12 26 13 24 20 24 17 17 20 13 24 3 20 20 20 16 10 27 23 13 9 14 19 31 27 16 27 13 21 6 20 22 20 24 20 20 20 26 20 26 24 27 15 26 13 29 10 29 28 23 7 17 31 20 21 23 16 15 24 10 13 14 18 20 31 23 24 20 16 17 14 27 14 13 27 10 10 13 35 23 25 26 30 23 20 17 30 26 34 34 15 23 26 20 12 30 20 20 21 20 22 17 17 22 17 27 33 9 24 23 13 29 13 21 13 19 23 17 21 41 21 24 17 23 23 22 13 17 6 38 13 13 23 17 21 31 8 27 16 38 17 20 9 27 7 9 20 12 14 12 27 14 21 24 23 22 31 20 7 16 13 23 28 7 16 23 18 13 16 16 28 7 23 30 14 9 21 15 17 13 6 27 22 27 27 35 21 25 21 13 24 28 9 24 21 19 27 17 10 17 14 17 27 26 13 18 30 17 10 20 27 16 17 13 23 10 22 14 29 16 23 20 27 24 31 16 27 13 13 34 9 20 28 27 37 34 17 24 14 13 9 28 14 31 22 17 13 34 19 14 13 36 14 21 31 14 20 7 24 18 7 26 17 24 42 27 20 28 20 13 28 6 21 15 20 22 17 20 19 26 23 24 17 16 13 26 27 17 18 20 30 23 31 16 16 24 14 21 10 12 24 6 14 16 6 19 26 16 23 15 22 26 16 17 28 26 13 10 23 31 31 23 7 26 24 30 21 14 10 34 14 23 14 23 42 24 17 17 20 35 31 14 17 13 13 30 24 19 20 20 26 23 15 12 27 20 17 17 14 21 15 23 17 23 20 13 24 9 12 20 3 16 10 13 19 20 13 21 13 9 10 19 30 17 17 27 21 31 27 24 20 13 3 10 27 13 22 38 18 24 14 23 27 16 31 17 12 17 13 13 26 12 14 45 13 12 12 23 27 21 20</t>
+  </si>
+  <si>
+    <t>EXN(0.4494418789446822, 21.918552956838603, 3.9360692289908483)</t>
+  </si>
+  <si>
+    <t>22 24 26 26 21 27 20 18 22 27 24 25 29 22 25 29 25 25 27 26 30 28 18 21 21 25 16 23 22 26 18 22 30 17 19 30 22 32 21 23 27 26 27 23 24 28 23 15 19 23 23 21 25 26 19 23 24 26 22 25 26 19 21 18 24 32 28 22 19 32 30 26 25 20 27 20 24 30 31 24 18 27 26 20 25 20 28 28 21 25 25 23 20 25 29 26 24 24 21 29 20 27 21 30 29 21 18 23 21 18 29 30 23 25 28 23 30 17 30 21 17 27 20 18 30 19 32 27 24 19 21 26 18 18 26 22 25 32 27 20 22 24 20 19 15 22 25 29 30 24 26 23 29 21 21 25 22 24 20 26 28 20 19 22 25 30 19 16 24 21 25 29 27 17 27 20 25 22 28 31 22 22 26 25 20 30 24 25 25 23 22 25 19 31 20 30 17 17 37 24 23 14 32 25 22 33 23 22 25 15 25 33 18 24 23 18 25 31 24 20 19 29 22 22 27 14 15 27 21 30 25 21 23 19 13 19 30 24 21 28 22 22 22 27 17 17 25 23 25 22 28 27 22 21 23 33 24 19 16 20 22 25 26 15 23 19 25 27 18 26 25 24 20 36 18 28 23 23 20 20 18 24 26 22 23 20 22 22 23 30 24 27 18 23 21 15 28 20 29 27 24 27 27 20 28 30 28 23 23 27 20 21 29 28 14 25 25 17 21 28 24 27 28 27 29 23 26 18 28 25 24 21 21 27 28 27 29 22 20 21 37 27 23 19 20 22 24 22 18 26 20 25 20 25 25 19 23 21 13 20 26 24 18 19 18 24 23 18 28 15 26 20 24 26 20 19 25 16 17 26 22 20 31 31 19 26 24 26 20 20 26 16 21 22 21 14 34 21 21 18 24 14 25 26 19 29 12 25 24 28 23 23 25 17 23 21 24 34 25 20 19 19 25 17 28 22 25 22 23 33 18 22 25 18 23 20 20 26 19 21 20 21 21 31 29 18 29 25 25 24 25 24 19 32 22 29 28 18 29 25 33 23 23 21 26 29 25 26 24 17 25 31 22 24 25 23 20 24 22 27 25 30 28 24 25 21 17 25 26 25 28 27 24 18 22 22 20 26 22 17 33 23 18 19 23 24 22 23 18 27 24 25 22 28 24 19 26 24 22 16 24 33 21 22 27 30 29 13 20 28 26 21 24 17 19 30 26 24 30 28 16 24 20 28 17 19 21 25 28 19 23 19 31 27 19 19 23 24 25 23 30 19 21 19 21 28 20 21 21 25 22 19 17 24 20 32 27 17 22 25 25 18 24 25 19 24 21 27 25 31 18 26 23 19 23 22 25 21 19 22 17 25 25 25 27 20 29 23 20 23 30 29 18 20 21 24 27 28 25 23 29 30 22 24 31 23 20 38 26 28 20 33 20 27 22 22 25 21 24 22 28 28 27 23 22 22 17 36 30 32 27 24 26 16 21 26 24 23 22 23 26 26 18 29 25 26 20 24 25 34 22 25 26 26 25 27 28 27 18 31 24 29 27 30 31 29 22 24 23 25 20 25 20 21 23 21 22 17 31 23 17 24 28 27 20 25 18 19 18 27 30 22 28 23 20 33 25 23 22 18 23 24 23 24 30 30 23 28 21 25 22 27 17 23 20 24 23 22 24 26 19 18 30 28 22 20 36 22 32 26 23 29 24 23 18 19 23 22 21 22 15 25 22 34 27 24 19 27 19 27 23 24 19 25 23 25 26 16 24 15 24 21 24 25 22 14 24 30 19 28 27 19 29 27 25 31 25 25 27 27 30 21 22 26 24 20 26 24 28 22 18 29 27 16 21 26 21 21 18 26 17 23 25 22 17 22 21 22 22 23 18 25 20 18 20 27 20 25 28 24 23 32 25 22 32 17 30 23 29 22 15 30 24 25 26 19 22 13 29 24 21 20 19 20 25 29 27 27 26 32 25 21 21 30 27 19 18 22 21 19 23 33 20 27 21 32 25 18 25 19 22 17 20 21 21 18 23 29 24 26 27 23 21 26 31 20 28 24 20 33 22 16 22 23 17 18 17 24 21 29 23 27 18 17 20 20 21 24 19 23 23 23 28 16 23 23 23 19 18 19 24 30 24 27 26 18 26 18 26 25 22 24 29 24 30 21 22 27 24 19 28 22 27 24 19 20 21 22 24 24 31 21 25 29 21 23 22 25 27 32 39 26 27 24 24 26 23 32 24 23 31 24 24 27 17 21 26 24 22 17 23 23 23 25 19 28 20 25 27 21 27 23 23 17 25 17 26 32 27 28 30 24 21 22 18 15 28 27 27 23 21 20 26 23 25 25 24 20 24 32 20 25 23 20 21 21 22 19 23 20 23 28 29 15 23 24 24 29 30 23 21 21 30 26 20 26 22 26 18 32 23 30 17 22 23 15 27 25 19 24 24 21 18 27 23 20 22 23 14 30 25 26 22 26 22 27 26 19 26 22 25 18 28 25 25 28 22 18 25 33 23 17 18 22 16 26 25 34 27 16 14 24 18 26 14 23 29 27 20 22 27 27 27 27 30 26 27 25 19 23 26 23 15 27 28 23 24 19 26 24 26 33 25 20 30 19 18 25 25 27 17 23 25 18 22 28 28 23 26 29 19 17 23 31 30 21 32 25 28 14 16 26 15 17 38 26 20 25 26 26 22 18 25 21 22 23 28 17 22 28 29 27 18 21 23 18 22 26 22 27 21 24 23 28 25 19 22 20 26 26 35 22 25 21 21 24 27 27 25 26 29 34 28 24 26 26 25 21 22 21 20 18 12 23 23 25 25 21 22 18 25 31 30 27 23 27 26 25 23 21 20 29 29 15 24 31 26 29 21 22 27 26 22 23 19 29 25 30 24 22 22 24 13 25 25 24 21 24 22 31 17 25 22 24 15 28 29 26 26 22 19 19 15 21 22 24 24 32 31 22 23 19 29 28 21 23 21 27 23 28 27 17 22 21 24 24 21 19 17 25 17 27 27 20 22 24 22 23 24 20 29 20 21 27 23 23 16 12 22 25 28 22 22 25 26 21 27 29 23 15 21 22 23 17 22 23 31 23 18 16 31 25 24 26 26 19 18 33 20 24 21 28 30 26 23 24 24 23 28 25 23 22 27 24 31 30 22 21 30 19 27 20 22 17 25 18 21 20 20 25 28 32 25 17 15 24 22 25 30 34 31 22 23 23 28 20 20 37 21 25 12 20 25 26 17 19 18 21 25 29 25 30 24 22 17 28 26 27 31 25 33 24 17 31 28 33 29 34 24 26 18 25 27 25 12 21 26 31 22 17 27 24 25 21 19 24 23 24 26 27 14 23 19 29 21 27 22 27 26 26 20 20 15 25 21 27 23 20 16 25 26 32 29 17 22 23 18 24 24 28 19 16 21 19 30 26 26 17 20 21 25 26 25 28 24 24 31 26 38 20 19 14 24 28 26 20 25 23 23 32 30 22 17 24 19 17 18 19 32 21 24 19 21 24 24 20 26 26 17 29 36 26 16 28 27 23 28 14 28 29 31 18 21 27 24 24 23 20 19 23 24 24 25 25 25 15 27 24 28 22 20 26 20 27 27 22 20 21 27 21 21 21 27 23 18 27 22 25 26 21 28 32 23 20 22 24 27 28 23 25 30 20 27 27 22 22 19 30 18 18 27 27 22 22 19 20 24 22 26 28 22 28 23 27 18 21 24 23 30 22 28 26 26 32 18 29 27 22 21 18 21 30 25 22 28 24 23 25 18 23 22 35 14 22 27 21 24 18 25 25 24 26 31 28 22 21 21 22 21 24 24 15 18 14 27 14 27 24 24 24 22 17 27 24 30 25 29 23 23 26 21 32 22 28 22 23 21 19 14 28 24 16 28 25 17 26 19 22 21 20 23 24 26 25 22 28 23 19 27 25 28 21 23 23 25 16 28 23 22 25 25 25 19 21 26 27 20 22 20 16 15 31 19 24 25 23 24 20 22 28 27 28 31 24 22 25 22 19 20 17 27 23 25 30 21 19 17 29 25 18 30 27 23 29 23 30 30 17 21 25 22 20 17 27 25 28 31 21 16 23 25 23 27 18 17 26 22 25 25 23 24 20 25 21 25 22 23 27 23 24 22 24 25 30 22 20 16 26 20 26 32 24 38 19 23 20 24 28 32 18 21 22 26 30 24 24 23 27 23 17 25 22 20 23 24 26 27 19 26 28 18 23 21 30 24 27 11 23 22 29 29 25 21 18 23 30 24 15 20 21 18 20 20 18 20 29 20 22 19 26 21 27 32 14 30 24 24 21 23 22 25 27 21 26 31 28 30 27 27 24 18 24 23 26 25 22 26 34 21 30 23 21 24 25 23 25 24 20 21 27 25 18 32 33 24 27 21 20 21 30 29 20 27 19 22 15 15 23 31 26 21 28 24 26 17 32 27 31 25 27 19 25 27 29 20 28 27 25 21 23 22 18 18 19 29 21 26 19 19 22 27 16 20 32 25 21 24 24 24 31 26 29 20 21 23 33 31 24 19 17 22 26 24 23 17 22 24 27 25 24 25 27 29 22 17 32 25 28 25 22 20 19 32 23 21 20 26 22 24 23 24 28 22 30 33 25 21 21 23 23 25 31 26 22 25 18 19 28 27 21 23 25 24 19 28 26 25 21 25 28 22 29 18 28 27 26 32 23 21 30 24 18 21 22 19 23 27 22 25 15 27 29 23 26 25 26 25 33 22 21 17 23 27 22 27 21 26 25 26 22 26 30 25 28 27 25 20 22 21 25 22 24 27 25 21 23 27 23 23 32 20 18 34 26 23 31 24 25 22 32 26 26 26 21 22 18 23 23 24 26 26 19 25 22 23 19 21 20 24 19 23 19 22 26 21 25 23 20 22 18 21 23 18 24 26 24 22 30 21 14 28 18 20 15 13 19 23 28 25 16 24 23 21 21 21 21 25 28 23 26 23 23 24 23 22 23 24 34 30 23 25 25 30 23 30 17 28 21 31 18 20 25 29 20 23 27 21 32 23 29 22 32 19 27 21 29 23 19 29 18 22 33 22 33 28 23 21 22 22 21 26 19 24 24 28 23 28 20 19 25 23 26 25 25 25 25 22 26 37 29 18 34 27 25 28 21 21 14 24 27 23 26 24 26 25 19 32 30 25 29 22 21 18 24 23 22 23 23 23 23 18 25 21 22 26 22 23 22 19 27 20 27 24 27 29 24 21 13 25 20 31 22 24 31 25 22 24 27 23 28 23 25 28 18 22 29 25 21 28 23 31 22 23 28 23 21 23 15 22 28 26 20 26 26 22 22 26 26 20 31 29 29 31 19 25 25 23 18 16 21 35 31 24 22 15 24 25 29 22 28 22 26 16 19 26 23 24 30 22 23 25 24 24 23 31 23 28 27 22 27 26 21 32 27 23 27 19 18 19 28 21 22 17 31 16 29 26 25 15 29 22 27 19 32 35 17 22 31 29 19 27 29 21 29 25 26 29 17 24 27 25 28 26 28 20 29 21 25 24 18 23 23 22 22 29 31 27 26 27 30 24 19 29 25 19 30 21 25 27 22 20 26 28 21 25 23 23 28 27 25 28 17 18 28 21 22 26 20 23 26 32 30 30 31 26 21 22 23 26 19 21 21 28 27 30 22 26 20 23 21 29 30 25 17 28 18 26 22 11 22 33 23 23 33 27 22 26 20 26 24 23 27 27 16 18 26 14 32 21 24 22 25 27 27 26 29 22 24 23 23 13 21 20 22 20 19 20 22 23 33 26 20 21 25 27 18 30 30 22 21 26 27 23 30 18 20 21 23 24 23 18 24 21 21 17 17 26 24 22 32 23 29 26 23 32 25 16 19 23 23 20 23 30 20 18 29 24 25 21 24 26 31 18 23 18 33 25 28 22 21 27 19 29 17 20 22 18 29 20 17 25 29 27 21 22 27 24 28 29 31 22 26 28 17 25 27 25 20 18 20 21 27 25 30 15 20 20 22 20 23 19 22 25 24 22 23 24 25 21 21 24 23 22 23 18 23 24 22 19 21 17 23 26 18 24 25 22 17 16 28 19 17 25 18 27 17 34 23 24 32 23 26 21 31 26 25 20 33 33 27 26 18 20 26 23 33 25 26 26 26 27 25 22 29 23 25 21 27 22 27 22 28 30 30 20 21 20 18 22 28 30 23 25 23 22 22 26 24 26 17 30 26 18 24 16 28 20 26 15 38 17 17 22 13 26 19 19 26 29 23 9 19 19 23 20 23 22 22 20 21 17 33 25 30 21 24 22 24 17 25 29 22 24 27 16 25 27 20 26 34 23 27 25 23 23 27 24 21 25 23 21 24 25 32 25 25 23 19 23 24 19 24 23 20 24 20 21 18 15 28 30 25 19 21 17 22 20 19 23 29 26 21 25 22 20 28 30 17 22 22 23 24 19 23 28 21 14 27 27 29 27 27 29 17 18 34 20 26 22 22 16 16 17 29 24 23 20 27 26 29 24 20 31 22 25 25 28 22 21 22 22 26 16 28 17 26 19 29 26 22 17 23 29 23 33 26 24 26 19 18 23 24 25 17 19 29 22 24 19 20 18 26 17 25 23 23 22 22 26 26 25 22 20 32 22 32 23 27 25 26 17 18 20 22 23 22 21 25 25 25 29 24 21 31 20 20 27 19 27 27 29 18 27 23 25 19 23 18 25 29 26 21 24 24 22 26 26 18 21 22 26 23 23 27 26 25 27 19 21 22 20 23 26 28 29 29 26 22 25 29 23 26 26 26 25 26 25 19 27 31 20 30 22 26 28 29 21 26 23 19 21 23 26 31 26 19 24 29 24 29 29 26 22 24 24 29 14 23 24 23 29 26 28 25 20 20 26 28 23 18 20 24 21 25 31 25 26 29 23 27 25 22 22 25 21 25 29 16 24 29 18 29 25 21 25 23 30 26 21 23 25 19 22 31 20 21 26 28 28 25 19 22 24 19 27 21 24 26 30 33 26 19 33 19 24 31 31 26 22 23 35 24 21 24 30 25 22 16 20 27 28 22 22 26 28 27 26 24 25 20 30 23 26 15 22 17 21 27 23 17 27 15 18 25 30 25 21 27 16 32 25 22 25 26 17 26 25 22 23 20 23 20 23 20 26 20 17 20 18 19 34 20 29 17 28 18 20 25 20 25 23 15 18 18 24 17 18 19 24 28 26 23 23 26 23 18 22 23 28 23 31 26 31 17 15 32 20 20 31 20 23 17 28 26 23 27 22 19 24 26 28 19 23 19 24 30 28 29 18 24 18 18 19 29 29 22 20 24 18 20 20 24 21 25 29 24 27 27 26 21 20 25 20 36 19 35 34 22 25 21 22 31 24 19 24 21 24 20 19 29 22 26 17 19 24 21 17 19 28 20 23 21 24 26 29 28 17 23 18 14 23 23 30 19 28 16 36 28 16 27 24 26 22 15 18 23 23 34 19 29 26 22 23 23 23 19 22 21 21 22 26 25 19 19 20 25 29 26 23 25 18 14 22 30 30 34 25 25 19 25 23 18 21 27 22 24 24 15 30 20 29 29 28 23 22 17 15 24 22 20 26 26 28 23 24 17 21 30 30 24 17 25 29 27 24 21 28 29 23 22 17 26 31 26 28 18 24 24 22 28 19 20 19 28 20 23 26 24 20 21 19 20 14 16 24 29 23 25 26 31 22 24 16 21 24 21 22 31 28 33 32 26 26 30 27 25 26 27 25 26 26 22 33 15 22 14 20 24 20 23 21 21 26 21 26 30 25 20 20 26 21 25 29 19 24 28 25 24 17 19 19 24 16 21 24 22 21 28 23 24 16 26 22 20 26 25 25 33 20 23 30 22 17 27 22 19 28 15 20 19 22 27 31 17 18 15 26 25 25 25 24 21 26 20 25 22 22 23 20 25 15 19 22 22 25 20 25 29 29 27 33 24 19 22 19 25 22 23 24 24 32 22 22 26 21 17 20 20 27 22 21 25 22 23 21 21 18 18 26 29 28 18 23 29 22 26 20 21 35 27 23 19 29 28 25 27 19 21 24 23 28 31 25 29 20 18 24 17 28 20 23 26 23 23 34 28 26 28 22 30 25 24 20 22 24 26 15 23 26 26 22 29 18 26 27 28 25 19 22 14 29 24 23 17 25 23 19 17 20 29 26 21 28 22 22 22 26 19 24 30 23 21 26 24 25 33 30 25 23 23 22 25 27 17 24 18 28 24 24 25 29 21 20 28 26 28 22 20 20 32 26 24 28 21 35 26 19 31 26 28 16 27 21 27 27 17 23 20 22 23 31 25 21 23 20 22 33 25 25 24 28 25 20 23 22 23 21 19 20 24 34 29 23 28 29 34 21 15 23 25 25 26 20 34 33 15 24 17 22 18 24 25 26 22 26 25 23 20 23 21 23 21 24 28 25 22 23 22 22 19 27 21 18 33 27 16 22 25 23 23 16 20 18 21 23 24 17 26 26 21 20 28 30 28 22 26 18 26 29 27 25 22 26 23 28 30 27 29 20 23 22 16 21 25 29 16 21 20 21 26 31 22 25 24 20 22 19 23 20 20 27 30 21 19 18 28 25 23 19 31 22 21 23 25 26 22 19 28 30 26 18 22 23 21 24 23 24 27 33 30 29 29 17 20 20 14 29 26 17 21 26 25 22 22 22 15 23 25 25 25 21 26 27 17 23 34 21 22 22 22 22 21 20 21 23 26 18 31 23 26 21 32 25 26 20 25 21 24 25 25 26 26 19 21 28 23 23 29 21 21 21 21 29 30 25 13 23 30 30 20 23 25 25 19 26 20 25 19 27 26 26 25 22 26 25 24 30 26 28 21 27 20 23 22 25 23 28 30 36 23 25 20 18 25 26 26 24 24 17 22 23 28 34 26 8 28 30 28 21 27 22 22 13 28 34 22 18 26 19 26 18 29 20 27 22 22 22 18 29 30 29 28 28 22 19 22 21 25 27 23 22 27 22 24 29 21 16 23 24 23 21 17 25 22 24 25 23 19 26 33 22 24 27 22 26 28 31 28 32 21 16 26 21 25 20 16 17 20 25 18 23 24 12 24 18 23 23 19 29 23 27 28 28 20 21 19 22 25 23 26 22 22 21 27 22 19 24 25 21 22 25 29 25 24 28 25 14 18 29 28 26 21 25 20 26 19 29 26 22 13 19 23 24 21 23 25 24 21 23 22 26 30 17 23 37 28 27 20 25 19 25 22 21 22 20 20 15 32 25 19 20 29 27 27 25 33 19 22 23 21 24 20 31 28 22 21 23 24 19 25 27 27 25 24 16 19 30 21 28 15 28 28 23 19 30 21 27 19 29 18 26 22 27 21 19 31 25 25 22 22 25 29 23 21 31 26 24 17 22 23 36 22 28 23 26 20 23 22 30 28 16 25 24 22 17 32 23 21 29 19 22 23 29 28 23 22 31 30 28 22 21 19 25 22 23 22 26 32 29 24 23 12 23 20 22 24 20 32 16 26 26 21 23 34 30 22 29 22 28 20 33 23 20 22 21 20 25 20 21 23 26 26 22 23 27 25 20 23 21 29 33 21 26 27 24 25 26 22 18 27 20 25 27 23 21 18 24 23 27 24 34 28 27 26 24 19 15 24 26 27 24 22 28 20 24 24 18 29 26 25 30 26 18 21 17 23 19 26 29 24 19 26 26 26 18 18 25 24 33 25 22 19 26 28 28 29 26 34 30 28 23 24 24 16 24 29 18 19 21 21 28 23 35 23 23 22 25 23 33 19 30 25 31 23 22 26 23 21 24 25 25 25 25 30 32 22 25 21 18 26 24 25 24 23 25 20 28 21 18 31 17 23 20 29 25 22 20 28 25 20 22 26 22 20 23 22 22 24 25 20 25 18 30 26 18 21 23 23 24 20 14 26 24 24 17 29 23 17 23 31 23 20 19 21 21 13 26 28 28 23 26 19 23 22 23 19 37 25 25 26 21 28 20 18 17 23 23 20 25 23 27 29 21 24 20 19 24 22 16 23 24 29 28 24 27 31 24 28 32 24 22 21 24 24 29 26 23 22 24 15 20 18 26 24 28 33 23 29 20 17 24 25 23 25 24 21 25 17 21 24 27 19 24 24 21 25 32 24 35 25 29 24 22 27 18 24 21 32 18 23 32 28 23 28 17 30 24 24 19 26 27 28 29 17 28 19 21 27 17 20 20 27 23 26 23 18 23 24 22 20 20 17 17 23 15 26 19 22 25 23 24 21 20 17 21 27 20 24 35 24 33 24 27 19 20 30 25 27 29 19 32 26 24 22 14 25 19 26 15 28 22 22 18 21 24 21 24 18 20 19 26 24 25 24 21 25 24 22 22 26 20 24 31 27 23 25 20 25 21 32 20 30 23 27 24 27 22 24 24 24 25 18 30 21 25 19 24 30 30 20 27 28 29 18 24 31 19 23 23 20 23 25 26 24 36 30 27 21 25 21 24 24 27 19 25 24 24 21 18 22 25 21 19 27 26 23 18 28 23 20 23 21 21 24 20 26 21 19 35 23 30 23 22 27 20 23 25 23 22 17 21 30 20 32 30 27 17 18 21 22 25 25 17 21 26 21 19 24 20 22 16 27 25 20 26 24 21 18 29 20 24 26 19 19 24 27 27 24 29 32 22 36 26 26 24 20 31 25 18 27 16 27 25 21 12 17 29 26 18 25 19 28 20 21 18 17 24 27 18 26 29 21 28 27 24 12 24 25 23 20 27 26 25 27 18 27 23 34 24 26 27 21 20 28 22 24 26 28 36 21 23 21 24 22 19 18 24 27 27 20 32 25 16 19 17 22 19 17 22 17 26 25 29 26 25 30 22 33 23 27 30 26 27 20 19 25 26 25 29 24 17 22 23 25 22 17 32 26 29 29 22 18 25 14 19 23 31 23 21 25 21 23 22 27 18 22 22 22 18 20 24 24 21 22 32 20 25 22 20 19 25 20 20 23 22 24 25 26 23 34 22 17 26 34 21 13 27 26 23 27 26 25 25 27 23 21 17 28 19 21 24 20 18 29 20 26 20 28 28 30 21 25 24 25 29 27 24 34 12 28 20 31 25 19 20 26 22 31 19 21 26 17 21 24 22 25 26 20 22 19 26 28 24 18 23 19 27 17 23 27 26 20 21 25 27 27 24 28 23 20 24 17 30 25 28 23 23 20 11 30 35 16 20 23 16 16 34 23 20 17 25 22 22 17 33 26 22 28 23 22 22 25 22 22 21 28 17 24 28 23 23 23 19 26 28 19 20 25 13 19 22 22 22 14 25 26 26 27 22 25 26 21 22 23 24 32 26 20 23 30 34 20 20 25 21 17 22 25 25 23 18 22 21 27 25 18 23 26 30 24 15 17 20 20 22 24 15 26 26 22 24 22 22 23 24 23 21 19 16 26 35 25 26 28 29 21 29 25 33 24 22 25 19 33 26 20 30 29 23 25 29 26 23 23 28 15 17 24 25 25 31 20 19 23 26 21 19 22 23 16 23 19 24 25 23 32 30 23 22 23 30 22 20 21 22 22 25 23 20 32 22 29 31 21 25 35 17 23 21 25 23 32 21 32 34 27 28 26 15 29 34 25 28 27 28 25 16 22 20 33 24 25 15 22 24 26 20 28 18 24 24 28 25 22 28 22 20 29 23 18 19 20 27 26 23 33 28 26 30 28 28 28 24 27 24 24 20 16 18 27 25 22 11 21 22 25 17 23 24 22 32 23 31 27 29 29 25 30 29 21 18 25 17 23 26 14 24 29 31 17 15 26 27 25 24 20 24 31 19 29 28 29 20 28 18 30 19 28 21 24 15 24 21 20 29 22 25 24 15 33 21 23 25 20 20 20 23 29 27 33 23 25 29 20 16 27 31 21 24 24 24 29 21 22 30 22 22 28 22 22 27 29 18 20 39 33 21 23 21 21 24 18 19 26 26 32 21 24 35 25 19 22 22 18 26 20 19 27 16 35 21 24 31 25 20 25 22 23 22 22 30 27 22 27 16 23 23 27 27 21 20 32 29 27 20 24 28 25 30 28 21 24 31 29 23 22 22 19 25 19 18 34 33 18 17 26 20 27 23 22 21 20 23 28 27 21 24 22 21 22 26 29 22 28 21 21 32 30 31 19 26 26 24 28 26 24 22 32 29 22 18 23 26 20 11 28 19 21 32 19 25 26 23 22 28 25 21 26 26 23 23 29 24 20 13 23 24 20 21 20 20 29 21 28 26 17 22 27 27 26 28 22 20 26 21 25 27 26 27 19 24 36 25 19 29 24 24 24 24 19 13 21 27 18 30 24 14 27 23 26 21 24 25 15 27 39 24 22 17 26 20 18 23 21 22 22 10 19 31 7 22 23 23 29 21 25 28 23 15 28 23 24 31 26 17 16 27 25 24 19 21 23 28 31 25 18 27 22 26 32 24 23 26 25 30 28 22 23 20 20 25 26 24 27 33 23 25 26 31 21 16 20 14 20 20 24 30 20 24 26 20 25 22 20 23 27 21 24 27 21 23 23 25 24 29 25 27 25 19 19 21 22 28 15 22 26 20 25 26 22 27 29 26 22 29 22 20 17 25 19 26 19 28 27 23 31 22 21 27 22 24 21 20 34 22 20 24 22 26 32 15 26 24 22 22 29 30 22 16 22 23 15 31 25 18 22 30 22 27 20 11 24 23 24 22 27 21 26 24 29 24 19 18 34 27 27 22 26 24 26 27 21 24 29 29 25 26 28 19 19 20 27 25 24 31 27 24 24 21 15 24 28 22 18 23 27 23 18 21 27 27 24 26 24 28 22 29 23 27 27 24 18 32 26 31 16 17 30 20 23 19 22 24 28 18 21 20 24 21 24 22 24 24 27 26 21 24 17 29 25 25 27 25 19 22 20 20 23 27 23 26 16 28 25 21 25 30 18 20 24 24 24 24 24 16 18 26 28 27 30 23 20 37 19 23 20 20 19 14 27 27 28 23 21 28 33 25 22 30 27 23 16 21 23 17 21 28 26 25 22 28 24 24 20 25 28 25 20 31 23 19 24 27 30 22 23 25 21 25 29 25 26 24 26 23 22 28 21 24 29 25 27 28 21 20 18 20 28 26 27 18 28 21 26 26 26 27 23 13 17 23 23 33 23 24 30 27 22 28 23 20 24 28 23 24 23 27 23 28 14 17 25 22 19 23 22 25 25 23 21 30 22 32 26 24 21 13 26 25 19 23 21 26 21 28 29 25 28 27 24 24 24 24 29 16 28 24 30 20 20 20 22 17 37 27 23 26 24 32 17 28 19 32 24 27 20 24 21 22 20 27 27 21 23 20 27 20 25 25 29 32 20 22 18 20 26 34 23 24 23 26 22 26 19 23 20 26 15 29 31 36 30 20 29 21 25 28 24 23 17 19 18 21 27 29 31 26 26 19 24 25 24 18 17 22 22 32 20 19 27 26 22 27 24 24 23 24 22 16 16 30 17 26 15 21 27 23 30 34 21 23 31 28 24 24 23 22 22 20 26 30 22 17 19 24 23 24 20 26 18 20 27 23 20 18 21 23 15 26 21 18 23 24 21 29 13 29 28 34 24 29 23 20 26 32 24 20 21 26 24 21 23 17 26 21 14 15 24 18 31 22 26 20 26 27 28 29 23 23 23 21 14 23 29 23 20 24 23 16 30 29 23 20 35 15 19 31 23 30 24 15 27 27 13 25 21 22 31 26 26 22 20 14 26 21 18 24 24 21 26 29 24 27 24 32 28 23 24 22 25 26 14 32 23 22 23 25 28 21 30 25 21 27 20 23 25 30 23 25 30 27 26 23 28 24 25 23 30 26 15 23 26 16 26 24 25 28 14 25 22 23 22 26 23 12 25 34 18 25 17 20 22 18 26 28 28 31 23 31 24 22 28 23 22 22 29 21 19 16 25 26 23 28 22 33 24 28 34 28 29 18 27 31 24 24 36 23 22 29 19 26 27 28 24 26 21 26 21 30 26 31 22 25 20 25 24 22 14 21 21 20 24 24 16 27 13 18 23 27 23 24 25 23 23 24 16 20 24 28 23 33 25 26 21 25 23 29 16 31 24 22 24 22 25 29 22 24 25 23 25 19 18 22 24 23 17 29 21 25 18 29 24 24 25 22 25 17 23 26 22 29 25 17 24 18 31 15 17 27 23 20 32 19 16 29 30 24 26 22 21 27 22 28 25 18 26 23 27 31 24 22 28 27 21 19 13 22 22 23 20 18 28 17 26 22 29 28 34 19 20 32 23 30 22 26 20 23 20 25 25 19 21 23 24 23 26 28 31 27 24 31 32 23 29 21 26 20 17 19 22 23 29 26 26 21 21 21 23 20 27 25 22 15 30 20 21 21 20 25 21 20 20 24 25 19 32 24 27 25 23 22 22 19 20 22 24 26 20 24 24 20 19 24 25 25 26 22 26 28 28 21 24 25 23 29 26 26 25 31 25 23 22 25 26 19 19 24 22 17 32 24 19 27 27 26 27 22 12 15 19 28 19 21 20 21 25 30 27 26 29 22 24 24 25 27 27 28 22 13 25 18 21 22 23 25 25 25 25 25 25 17 21 23 23 23 38 20 24 27 21 27 17 27 26 26 27 33 25 19 29 30 24 23 14 30 22 30 23 26 19 24 25 18 24 23 22 21 26 29 23 26 19 20 30 21 24 22 29 24 31 15 27 27 22 28 18 20 30 18 32 27 22 26 26 23 30 26 23 22 23 29 25 27 15 32 31 15 30 22 29 30 24 29 26 23 33 27 17 26 20 30 23 26 29 25 25 24 22 21 22 16 22 16 25 22 25 20 25 23 30 20 16 22 14 24 24 21 18 24 33 25 23 18 38 30 22 27 22 21 25 26 18 23 26 17 26 23 23 29 20 15 18 27 26 21 32 24 23 23 27 23 22 23 26 24 16 19 20 22 25 20 23 27 28 19 20 21 24 21 27 20 16 30 26 17 26 18 28 29 29 17 26 27 30 30 15 22 21 24 19 20 26 20 26 25 20 27 23 22 27 25 20 21 23 27 27 29 24 26 24 24 33 23 18 31 29 24 22 23 25 28 23 24 24 20 22 24 25 34 30 20 29 25 23 21 29 19 16 31 31 29 14 29 24 32 31 24 26 37 22 25 25 25 25 19 24 28 24 23 25 29 27 22 23 17 26 21 24 20 26 22 27 23 29 29 21 17 25 24 26 19 25 25 26 23 25 25 31 17 21 22 24 21 25 16 26 14 22 24 25 29 33 32 26 22 20 21 29 21 12 31 20 20 22 24 26 23 25 28 24 26 21 23 23 18 24 30 31 18 22 24 26 26 28 24 24 31 33 21 29 24 26 32 21 31 23 23 25 23 25 17 34 25 21 23 19 27 21 20 27 29 22 21 28 25 22 22 18 24 26 34 29 13 23 30 24 18 23 27 20 25 29 18 17 22 13 26 31 24 27 27 26 21 26 21 17 15 21 28 26 16 24 22 26 22 20 31 24 32 28 41 21 30 26 20 21 33 29 27 26 27 27 24 23 24 24 29 20 20 31 24 24 28 21 30 24 25 19 16 26 20 22 25 23 22 25 13 25 22 24 22 28 27 23 19 23 21 32 29 31 25 28 17 19 28 24 25 20 20 26 24 26 26 18 18 25 32 21 22 19 18 20 21 19 20 17 29 26 20 21 21 19 27 25 23 23 28 21 20 26 11 27 23 26 27 27 26 23 28 24 21 32 19 23 24 29 22 32 28 31 20 16 19 17 26 25 24 26 18 32 24 25 20 19 25 28 27 28 29 30 22 28 23 27 20 22 16 22 27 21 22 18 21 23 24 21 27 28 30 31 29 28 22 19 32 21 28 23 32 25 21 24 29 31 21 21 21 25 24 17 19 19 31 29 21 26 24 17 24 29 22 24 17 27 26 21 22 25 26 19 13 32 29 21 25 27 19 30 30 24 24 26 23 18 26 23 29 22 22 24 25 25 29 19 28 18 24 22 26 29 23 21 26 20 27 30 21 25 24 21 25 17 19 17 27 23 36 24 17 18 21 24 26 24 20 25 18 27 22 30 27 15 24 38 15 31 29 19 26 29 26 24 26 27 17 26 28 29 22 25 26 26 28 25 15 23 21 29 22 29 20 25 22 21 17 16 29 31 27 17 18 22 18 31 28 21 27 27 20 24 23 16 24 25 17 26 18 21 21 21 22 22 23 21 21 29 24 18 23 24 21 23 21 22 27 19 21 26 19 22 27 25 24 28 24 22 15 21 22 17 31 25 24 22 27 28 22 17 33 27 18 16 14 32 25 25 17 27 26 23 16 29 25 21 17 20 17 23 20 27 20 24 28 26 25 26 22 34 23 25 23 21 18 17 20 18 19 30 24 25 18 17 27 19 19 27 23 29 28 27 39 29 22 24 18 20 27 23 21 21 29 16 21 30 22 28 25 24 22 26 18 29 25 22 22 29 30 20 22 22 27 18 20 29 31 32 19 22 24 24 22 27 24 25 11 24 24 16 28 22 23 28 26 20 20 21 21 23 19 26 21 25 30 17 22 23 26 22 20 24 22 24 19 24 20 21 19 26 29 26 25 28 24 24 24 19 17 26 24 20 30 24 29 21 26 21 24 25 16 29 25 22 25 28 24 26 29 27 17 27 18 30 33 16 25 25 33 24 25 26 15 29 20 26 20 21 19 25 24 28 17 19 27 17 29 26 32 46 26 28 23 21 26 26 21 25 25 25 30 19 31 24 32 18 22 22 18 28 27 30 27 32 20 23 28 25 30 23 30 26 28 22 23 26 19 27 27 17 23 20 32 15 25 19 20 19 23 24 16 27 26 24 24 22 26 24 25 24 25 20 29 29 28 26 31 18 32 18 27 30 22 28 18 26 23 24 22 26 27 17 29 25 15 27 26 21 25 26 23 25 23 37 15 26 23 29 18 20 17 26 25 21 25 18 22 24 29 28 27 17 19 29 27 24 22 26 23 16 24 24 22 22 17 21 23 31 20 24 25 21 20 32 27 25 24 23 25 21 24 23 19 23 27 26 18 23 29 21 29 22 26 24 29 15 27 25 25 26 33 24 23 23 18 26 25 27 18 25 24 22 24 21 20 22 24 24 25 24 29 18 29 34 23 15 27 18 23 27 30 28 26 25 23 30 23 24 29 23 23 26 27 23 24 23 26 22 24 31 21 24 24 30 32 22 23 24 24 29 23 20 25 30 22 20 24 21 27 26 17 17 19 23 21 15 28 29 27 29 19 25 27 23 17 27 22 14 25 24 15 24 17 26 25 24 22 21 13 22 22 29 23 27 23 18 22 22 19 22 23 23 23 23 24 15 26 27 23 33 26 26 22 29 17 20 22 21 23 27 19 13 25 28 22 28 20 18 25 22 24 21 24 21 25 27 27 20 27 28 24 30 19 19 24 19 23 30 27 19 27 24 20 26 20 22 24 18 24 26 23 27 26 26 20 24 26 23 19 22 25 28 29 13 20 18 22 29 21 26 24 23 22 18 24 19 30 22 21 31 29 26 24 19 26 28 25 27 26 21 19 21 25 20 24 21 18 21 22 24 20 19 25 22 26 22 19 20 24 26 21 23 24 25 17 19 21 22 21 20 22 21 17 22 28 22 37 24 24 23 25 18 28 26 24 22 22 34 23 20 25 24 33 23 17 23 25 19 24 21 24 22 29 27 17 20 18 20 34 23 28 31 28 21 19 23 16 20 27 27 25 20 27 25 18 19 30 27 25 18 22 23 22 34 15 20 23 25 20 23 26 32 17 22 27 29 18 24 26 23 27 23 26 21 19 25 29 23 27 22 19 26 25 20 24 19 32 26 21 27 18 28 23 23 24 19 27 25 18 29 25 22 17 30 26 25 23 27 22 28 27 26 21 28 26 29 25 23 22 23 24 20 14 29 27 21 28 22 18 17 30 22 20 26 35 23 26 23 13 26 26 18 30 26 25 15 17 19 26 24 19 18 21 21 23 18 19 24 23 25 24 22 24 20 22 29 20 24 24 19 27 28 24 26 16 22 22 27 26 21 27 23 27 24 32 24 20 21 30 22 25 21 24 21 18 24 22 27 20 20 22 18 35 22 26 14 18 21 28 26 19 24 21 27 20 19 22 25 31 26 20 24 21 26 21 21 22 21 21 23 20 20 25 24 24 24 23 21 30 30 24 21 31 32 24 26 29 18 22 26 13 27 34 19 31 19 21 30 23 17 26 25 31 27 23 20 20 21 25 23 31 28 24 35 22 20 27 22 24 22 29 26 25 28 20 30 25 33 27 24 28 22 30 29 24 27 19 16 21 22 18 29 30 17 19 15 25 20 27 28 27 22 20 22 24 31 23 21 24 23 25 25 28 22 25 24 21 19 22 31 25 20 27 23 26 21 23 22 24 27 27 18 28 26 23 24 16 11 13 27 29 20 23 26 23 23 24 22 26 21 30 28 30 20 20 23 33 23 21 26 26 31 24 20 22 15 22 29 24 24 19 23 27 23 24 21 13 21 22 24 16 26 13 26 23 19 16 37 26 22 20 28 22 21 29 23 21 12 18 19 26 31 24 29 21 23 15 20 20 20 21 20 23 31 23 17 24 14 17 23 22 21 23 29 21 14 18 17 20 21 17 18 23 18 21 24 23 25 23 24 23 27 18 24 32 27 24 26 30 31 21 20 22 26 18 25 28 29 25 26 28 34 21 23 22 24 20 22 25 28 19 21 23 21 20 15 25 20 22 15 20 21 24 25 21 18 24 23 24 30 24 19 19 28 32 24 21 22 22 20 20 28 24 18 23 21 17 24 26 21 23 20 15 24 20 21 20 15 26 20 30 23 25 23 24 32 24 21 22 23 25 27 26 24 19 25 24 20 27 22 25 32 23 26 23 29 29 24 25 18 19 25 35 26 24 21 26 22 19 27 21 24 19 27 20 23 26 30 33 26 16 17 19 19 38 22 18 21 23 18 15 34 21 28 17 23 23 22 27 26 22 25 24 27 27 20 27 23 28 27 20 24 24 21 34 25 20 31 26 21 20 24 29 24 26 25 14 32 19 24 19 35 16 15 13 18 21 24 17 21 14 21 29 22 17 20 25 23 18 28 23 26 22 26 22 19 27 29 33 29 25 31 15 26 28 25 18 28 17 20 20 24 25 21 25 19 28 26 21 21 26 20 30 16 24 30 21 24 20 21 17 23 21 22 27 23 21 23 22 25 19 27 19 23 27 27 22 26 21 22 25 24 23 31 31 24 26 24 20 23 14 20 37 23 16 20 28 20 21 21 20 27 22 31 33 23 29 26 21 26 32 22 32 24 21 21 24 27 17 29 27 26 21 23 19 26 22 26 30 23 19 20 29 24 23 27 27 23 26 29 16 15 34 22 27 34 19 21 30 28 29 31 26 22 25 15 19 24 18 22 24 18 28 23 27 21 26 26 29 22 19 27 19 26 27 24 24 22 31 26 17 17 20 27 26 26 24 22 22 23 16 22 20 27 19 20 26 27 14 27 23 21 15 19 26 27 17 24 29 22 22 23 22 26 14 26 30 30 19 17 23 17 24 25 24 23 32 18 25 26 18 21 20 25 28 26 24 23 24 25 22 20 19 24 21 23 25 18 21 34 26 22 29 22 21 31 11 27 26 29 27 26 25 17 31 21 27 25 25 22 25 20 31 13 21 26 29 29 20 20 22 27 20 22 26 33 31 17 24 22 20 28 21 26 27 24 16 23 25 23 19 25 17 23 22 21 27 24 24 29 22 18 31 22 20 22 25 24 17 19 21 19 31 14 21 21 22 19 20 21 24 21 26 18 27 26 33 25 26 20 27 19 22 21 26 17 25 25 29 26 20 23 27 19 19 33 23 22 25 21 28 31 24 28 23 22 21 24 17 31 27 27 25 30 32 14 25 20 19 18 29 29 16 24 21 27 34 34 17 26 21 24 19 29 23 22 31 23 23 24 29 12 24 20 23 27 22 16 26 22 19 18 24 30 19 27 27 30 21 20 27 25 26 20 24 22 28 19 20 19 22 21 25 23 21 30 29 24 24 27 15 21 23 17 24 22 18 21 22 17 19 24 27 19 20 24 24 20 22 24 22 25 27 30 21 23 24 26 25 29 26 26 20 22 24 16 27 22 30 20 22 23 15 25 19 28 21 29 28 32 18 24 27 21 24 25 18 25 16 37 26 25 22 21 22 30 22 27 26 28 22 22 25 25 23 24 34 21 29 18 23 21 24 22 24 22 28 28 21 24 23 22 25 24 18 27 30 24 25 21 22 22 18 29 22 34 29 23 20 21 26 20 18 28 26 26 22 22 24 24 28 21 27 26 21 22 25 27 20 29 23 20 23 21 26 17 16 27 20 29 26 24 20 20 17 22 28 26 21 24 32 22 25 25 22 17 27 24 25 22 25 26 25 21 23 28 14 15 22 24 26 33 25 19 23 34 26 19 21 23 24 20 22 30 18 28 23 26 26 21 27 18 25 22 17 19 23 23 24 21 24 21 23 19 20 27 17 29 29 19 24 17 26 26 24 26 25 26 20 25 22 35 22 25 21 20 23 20 26 18 21 30 23 27 25 22 18 18 25 19 15 29 30 25 20 18 21 32 29 30 19 29 17 19 19 22 25 24 26 19 30 19 27 25 24 26 25 10 24 25 19 26 27 11 30 27 31 23 24 14 19 26 24 26 18 19 20 17 22 24 23 32 26 29 18 21 17 19 23 32 28 23 20 25 16 24 18 24 24 17 27 25 30 30 22 26 25 25 23 25 25 24 22 20 22 28 20 26 26 21 21 26 26 26 20 27 20 26 18 16 23 28 30 18 24 25 26 14 27 27 23 22 33 39 34 19 27 23 21 23 26 19 19 22 24 33 20 30 25 29 25 27 21 22 29 25 31 23 30 27 19 28 23 28 22 22 22 21 20 21 24 29 15 21 21 30 27 26 26 17 32 24 25 26 21 18 20 25 20 27 21 23 29 21 25 18 24 25 28 27 27 19 27 19 35 19 21 21 30 29 20 17 20 22 30 22 27 32 22 27 20 24 24 24 27 31 27 21 21 16 30 26 31 26 25 32 24 25 30 17 30 20 26 36 22 28 24 26 21 24 22 26 26 22 22 19 22 28 24 20 30 29 14 27 26 25 23 20 23 28 20 31 28 32 18 38 22 28 26 18 23 16 17 23 19 13 26 26 26 21 19 14 18 21 30 33 25 26 32 26 30 30 22 23 21 24 21 29 21 26 27 29 19 27 25 20 16 25 24 21 24 18 31 20 27 26 18 19 17 25 28 18 25 22 27 20 19 24 25 19 21 27 22 24 27 20 20 33 16 17 20 19 14 29 20 26 19 33 20 25 13 15 20 18 23 20 19 19 28 19 25 21 20 22 29 20 24 25 26 27 26 24 30 31 20 19 26 24 24 23 31 21 22 18 25 23 19 29 21 28 22 22 28 23 28 16 28 25 23 23 24 22 26 17 20 18 16 20 29 21 23 26 24 12 29 24 23 22 18 23 30 27 27 25 20 23 22 19 29 24 27 18 18 28 25 27 35 24 35 19 25 20 23 26 23 17 21 25 27 19 27 30 20 17 22 26 22 22 29 24 23 26 33 27 25 19 21 29 25 22 30 31 25 32 23 23 21 17 25 30 26 26 26 23 23 26 18 29 27 21 21 27 21 23 23 30 27 21 23 17 26 22 40 21 22 21 21 20 26 19 20 19 20 21 16 25 28 19 19 25 18 26 22 26 23 25 29 27 28 24 20 21 29 27 21 33 23 21 24 28 23 27 31 24 23 21 19 31 31 22 25 23 23 18 31 19 25 24 25 25 19 25 25 28 22 15 22 22 24 25 23 24 30 20 26 17 22 25 22 29 33 26 30 29 22 26 19 24 19 24 35 29 17 24 22 21 29 25 26 19 22 27 26 22 25 26 25 19 20 20 24 27 20 26 23 24 19 20 21 25 25 27 23 26 13 30 26 20 17 31 21 23 19 22 21 26 21 29 31 18 22 24 27 25 30 24 24 17 22 27 20 22 28 20 23 31 30 22 21 22 25 26 18 19 25 22 18 28 21 19 20 27 24 20 23 24 24 26 27 32 24 14 27 25 20 29 24 29 19 20 31 21 24 29 23 30 29 19 14 16 25 18 29 29 24 26 25 20 22 20 20 18 23 22 29 24 17 25 11 17 24 19 24 23 23 31 30 31 32 29 22 28 20 23 28 22 24 25 27 19 24 27 21 15 19 18 29 23 23 21 17 23 23 19 23 22 19 25 23 19 27 18 20 23 30 24 19 29 28 22 22 25 19 27 27 27 25 20 27 32 23 22 30 21 26 20 27 20 19 20 24 20 15 26 26 33 31 28 29 24 30 34 19 18 26 17 28 25 29 28 17 24 20 29 17 25 28 23 27 25 27 20 31 28 20 26 20 29 19 20 21 25 21 14 20 27 22 23 23 21 23 23 23 24 28 30 28 25 28 23 17 25 27 22 22 23 15 22 33 26 27 20 20 27 20 17 26 24 22 28 31 24 20 24 24 23 22 23 22 22 22 21</t>
+  </si>
+  <si>
+    <t>JSB(8.807402743229218, 7.571647356424632, -22.311868012277028, 235.29741404789206)</t>
+  </si>
+  <si>
+    <t>33 36 37 39 26 35 32 28 31 35 36 35 41 33 37 37 38 35 36 38 41 44 29 34 31 37 31 36 38 41 34 33 46 27 31 37 37 43 32 30 45 32 39 36 31 39 33 21 28 31 29 32 38 31 30 36 38 33 32 39 35 28 31 30 31 43 35 32 32 40 45 37 34 28 35 26 28 38 43 30 30 37 34 30 37 28 35 32 31 33 45 31 23 37 36 36 37 30 31 36 33 44 36 39 38 34 31 37 29 29 40 38 30 28 39 32 43 23 35 28 26 41 31 32 33 29 47 41 32 30 28 36 25 28 41 33 32 44 37 34 31 33 29 36 25 29 34 39 38 33 36 34 43 28 29 29 36 35 27 31 37 31 30 29 35 41 27 27 39 31 41 35 31 25 38 28 38 36 41 55 31 31 36 37 30 39 39 31 33 31 30 36 25 39 32 47 31 29 48 35 41 25 37 33 30 39 33 34 38 19 32 41 24 30 35 35 35 35 37 31 34 37 32 35 39 23 29 39 30 37 30 24 28 27 20 26 45 37 31 34 36 32 33 42 33 26 35 29 29 32 34 37 37 30 30 38 35 27 24 28 31 39 35 25 24 25 36 37 24 36 30 36 34 44 25 36 31 32 31 30 25 34 38 25 30 34 34 29 33 37 32 33 35 30 28 20 40 29 43 37 31 46 38 34 38 41 37 29 30 38 30 31 41 39 36 30 37 29 28 36 31 36 33 38 41 35 38 23 34 35 33 30 37 34 45 36 36 28 30 30 49 38 35 28 28 47 35 31 28 40 27 30 28 31 36 36 33 28 23 31 28 45 24 24 24 34 31 32 35 27 38 29 29 33 27 25 41 24 27 30 28 38 40 44 31 33 31 36 28 28 39 24 36 28 26 20 44 30 29 31 37 21 35 31 33 36 17 32 32 37 32 33 36 27 34 32 32 49 36 34 33 29 35 25 37 38 33 34 33 48 26 28 36 26 32 26 29 32 28 25 26 37 33 40 35 26 46 38 46 32 36 26 29 40 33 35 35 30 37 45 37 37 35 26 36 33 35 38 37 24 37 43 29 35 39 29 28 41 27 32 30 37 43 31 36 27 33 32 35 37 37 38 36 25 30 28 36 32 31 22 39 27 29 27 34 32 28 35 25 33 33 33 30 39 35 29 36 30 33 30 37 46 32 30 38 38 41 25 31 33 32 28 35 31 29 45 44 32 39 43 23 34 25 39 23 39 34 38 44 26 32 26 39 33 28 24 34 39 36 36 39 30 32 29 34 41 32 30 32 41 37 31 25 33 31 40 37 28 31 40 39 37 30 32 26 40 24 37 29 46 21 35 31 28 30 29 36 30 30 37 21 38 33 34 37 32 34 34 31 28 40 52 28 34 26 29 45 36 35 32 41 40 28 41 43 31 23 46 39 40 33 38 27 36 32 32 38 30 33 31 36 38 39 33 36 31 25 56 41 38 38 33 43 27 28 36 34 36 37 31 35 35 22 39 36 33 30 32 33 55 27 32 36 39 31 37 41 35 33 35 31 40 38 44 44 41 31 45 30 39 28 32 37 35 31 37 33 25 40 35 28 34 40 39 29 39 29 24 26 39 38 26 41 29 34 47 38 30 42 24 36 33 36 31 39 39 29 34 32 33 32 42 24 31 28 31 37 40 33 36 39 27 42 33 30 28 44 35 39 38 35 41 37 31 30 32 35 33 33 28 26 38 29 46 39 35 28 32 24 42 34 37 33 32 33 34 33 25 35 22 35 32 36 31 34 24 31 46 32 40 38 27 39 38 36 48 38 36 39 42 39 30 30 32 28 35 38 33 42 34 29 39 44 21 25 37 31 28 35 41 24 37 35 39 27 28 35 32 32 30 27 36 25 28 40 33 30 37 36 36 32 41 37 29 48 30 49 30 36 37 23 33 32 35 36 30 37 25 35 29 28 25 29 34 36 42 34 42 33 46 36 33 30 40 35 26 22 30 31 26 38 49 31 36 32 51 33 26 32 23 30 30 30 29 30 27 32 39 32 36 35 32 33 32 52 31 34 36 28 49 31 24 38 29 23 30 26 40 30 42 33 37 22 31 34 33 33 36 27 35 37 34 41 23 35 28 34 23 33 23 34 37 35 47 34 22 34 31 34 36 30 37 39 35 36 40 28 47 38 27 42 28 35 35 27 26 33 29 32 40 40 29 29 35 28 29 34 32 40 46 50 35 38 33 37 33 31 49 35 38 39 31 33 36 30 28 36 33 34 24 30 34 31 34 32 40 26 36 34 27 43 27 33 26 30 25 37 45 38 37 38 30 35 33 25 23 35 36 40 31 27 27 30 29 32 33 29 30 27 46 29 35 34 36 30 32 37 30 39 27 32 38 42 23 40 37 37 41 39 33 37 38 45 33 28 36 32 39 26 37 32 46 31 31 31 27 35 33 26 41 30 29 24 35 30 24 32 32 34 47 34 36 28 33 29 38 29 31 30 30 36 22 42 31 37 37 36 33 37 41 32 23 31 32 26 36 38 47 36 28 25 34 27 37 19 32 38 36 28 37 40 36 39 36 38 39 36 33 28 40 37 32 23 35 35 37 32 33 37 36 32 46 37 30 40 32 24 39 37 33 30 32 40 23 29 34 34 37 36 43 29 26 31 44 41 35 41 33 42 25 19 42 25 23 48 32 32 33 29 31 31 27 41 31 34 31 37 33 46 41 37 35 28 31 32 30 42 33 33 31 30 40 28 35 35 30 37 29 43 34 48 29 34 36 27 40 34 33 40 34 36 45 36 30 38 39 30 35 28 32 28 26 19 32 35 35 32 30 32 27 39 39 49 32 40 36 33 35 36 35 28 40 35 26 28 39 35 37 23 36 35 37 36 34 31 50 39 38 30 32 34 37 19 36 37 38 36 34 32 40 28 32 37 43 21 39 44 39 43 31 25 27 25 32 28 38 31 39 45 35 33 29 34 34 36 37 35 38 31 38 38 25 37 30 33 31 30 33 28 34 34 38 41 25 32 34 33 45 35 29 37 30 25 37 34 32 21 27 24 34 39 36 36 33 35 30 40 39 36 23 29 35 31 20 33 29 49 32 35 28 43 33 33 36 39 29 28 40 29 32 34 39 40 34 33 33 33 36 31 36 28 28 34 38 47 44 30 34 41 36 36 29 37 33 36 28 32 30 24 41 35 51 43 30 26 32 32 40 48 39 38 32 35 35 38 30 30 47 31 31 24 27 36 33 33 29 25 39 35 39 33 37 30 32 23 35 37 38 42 34 46 34 26 39 35 48 39 52 28 39 28 36 33 30 18 33 34 46 24 25 43 33 33 33 26 40 43 37 35 34 34 29 29 36 29 40 33 36 42 41 32 33 26 31 38 39 33 32 28 32 33 42 46 25 32 30 26 30 36 39 31 23 29 28 37 42 37 26 34 33 32 40 36 40 40 38 39 44 53 28 27 25 30 40 34 26 38 34 30 45 34 29 33 43 24 27 27 35 42 30 36 25 32 35 38 32 33 34 26 37 39 40 21 41 34 34 38 24 41 36 39 21 29 35 33 33 28 30 29 26 40 27 39 31 32 23 37 40 40 29 38 37 25 42 43 26 29 31 37 27 29 28 40 35 23 34 34 35 36 23 45 50 33 24 34 32 40 38 31 37 41 29 37 35 28 27 26 36 30 28 36 42 29 34 27 30 32 32 34 43 35 33 32 32 28 34 30 32 37 34 46 36 39 43 24 49 36 29 32 26 29 43 39 30 44 40 27 34 28 37 31 48 21 30 33 25 32 25 35 35 38 37 48 35 32 32 27 30 31 33 34 25 26 23 30 26 36 39 34 35 34 25 45 36 36 32 40 38 34 37 30 41 36 35 32 33 32 31 22 38 39 31 39 37 30 40 30 31 25 28 32 43 31 34 33 37 37 29 39 34 39 29 35 29 39 25 36 33 34 31 32 34 31 32 37 38 34 41 32 25 23 42 26 36 35 32 29 26 32 42 33 36 40 39 28 35 36 30 28 38 42 32 36 48 31 30 28 41 37 26 41 40 33 40 28 40 39 22 28 37 30 36 26 40 31 45 36 32 30 39 33 29 40 25 29 42 32 38 37 37 33 28 37 27 38 36 30 36 34 42 30 36 37 45 30 32 22 38 30 44 49 35 51 29 34 26 30 37 43 32 30 36 36 41 37 37 35 35 30 33 32 35 29 33 40 36 33 30 37 40 30 30 26 49 29 40 19 36 31 46 44 39 28 24 27 37 38 31 27 34 27 30 35 27 29 43 31 38 31 36 32 41 41 20 39 39 36 28 32 35 31 41 22 39 41 37 44 43 33 31 31 34 42 35 44 34 40 44 35 47 30 34 39 32 30 35 31 34 28 34 34 25 45 42 38 36 33 28 25 37 38 35 33 35 30 25 29 33 41 35 31 42 39 39 26 40 31 37 32 35 32 30 39 42 33 41 37 33 30 37 31 29 34 30 37 33 35 26 30 27 34 26 25 37 34 36 37 35 34 47 37 39 29 38 33 46 42 37 21 27 32 38 37 32 23 31 31 36 35 39 34 40 34 30 25 40 33 40 38 36 31 30 40 32 33 26 39 33 32 31 31 33 27 41 46 39 33 38 31 39 33 34 37 27 39 31 25 42 31 29 38 33 37 29 37 36 34 31 32 40 32 36 29 29 30 34 50 31 31 43 33 32 33 28 30 31 34 31 34 25 37 39 30 39 35 34 34 41 29 30 26 39 34 33 37 33 31 33 33 38 36 39 31 37 41 35 33 32 32 30 36 31 33 37 30 35 43 37 32 39 28 27 46 40 38 39 37 32 39 41 35 46 32 30 32 29 38 30 35 34 35 29 38 39 31 25 27 30 31 28 35 31 37 34 32 32 26 30 37 29 31 32 21 36 30 31 31 42 31 22 42 33 29 27 21 26 29 34 37 28 37 35 31 28 24 38 35 40 33 33 31 33 32 34 35 33 31 41 40 32 34 35 44 40 41 31 39 37 42 28 29 35 45 30 32 35 29 41 28 44 35 41 33 47 28 41 43 24 38 24 31 48 28 41 35 29 32 34 40 41 36 32 26 36 38 26 31 34 33 29 33 41 31 35 36 37 39 34 47 36 28 48 34 35 35 37 37 26 34 45 31 32 34 39 34 31 46 40 41 37 28 26 30 30 34 33 29 31 31 31 29 30 30 26 37 42 37 28 28 31 28 32 36 31 40 30 24 25 42 26 42 30 37 44 34 30 35 32 32 35 30 38 38 30 31 42 31 37 33 36 40 31 32 33 37 28 32 23 32 36 36 32 40 34 31 39 42 33 29 49 39 37 41 31 38 31 33 30 26 28 47 37 42 35 26 34 40 43 28 44 36 33 22 28 34 31 32 37 32 36 29 37 29 33 40 34 39 44 33 37 36 36 47 44 32 37 26 23 30 43 30 36 26 39 28 37 40 34 21 42 32 35 28 42 46 27 37 49 42 33 40 36 33 40 34 35 40 30 34 40 39 39 29 42 27 38 36 38 34 33 33 31 31 31 43 43 37 34 38 37 35 29 44 33 23 48 26 33 44 35 26 33 36 34 36 30 26 36 40 35 36 40 25 31 26 34 38 29 31 33 43 38 41 39 40 33 33 39 35 27 31 32 37 42 39 31 36 29 38 27 40 40 39 28 43 28 34 32 21 28 46 32 30 39 34 29 33 28 35 38 39 34 39 27 30 36 25 39 31 38 26 44 37 37 36 49 27 30 33 31 26 35 23 35 34 32 30 28 33 46 35 30 26 33 38 26 49 36 29 29 33 38 31 39 24 29 26 28 38 31 26 31 35 30 28 25 33 38 31 53 30 37 43 34 43 37 25 30 33 30 28 40 39 32 35 35 37 35 33 42 37 44 26 40 26 43 35 36 32 34 37 37 43 29 24 36 34 43 33 29 37 43 41 27 33 42 30 40 34 45 30 36 40 28 35 44 44 31 36 32 30 36 37 39 22 35 27 34 33 34 31 34 30 33 37 37 30 39 27 31 38 28 34 31 36 32 36 35 28 32 24 44 37 24 38 33 30 26 25 42 23 26 32 30 36 24 44 29 34 40 28 35 31 49 40 35 25 47 41 34 40 25 32 45 38 49 35 36 31 34 41 34 32 38 31 35 31 39 30 39 30 37 37 42 30 25 26 25 33 38 43 40 40 36 35 35 38 32 29 27 39 37 34 40 19 34 31 36 22 46 26 31 35 22 34 30 25 37 40 38 26 31 38 27 32 27 31 37 33 27 28 40 41 41 28 33 29 34 24 32 32 33 36 33 30 32 40 30 43 36 31 40 34 30 29 31 38 37 37 32 30 35 38 46 33 32 36 33 37 42 29 38 31 30 33 30 35 29 25 37 36 30 28 31 18 35 33 31 38 37 37 31 32 33 33 38 37 22 35 35 36 37 27 36 36 24 28 44 35 40 37 38 36 20 28 46 31 30 30 32 20 27 27 33 38 29 29 37 38 37 34 25 39 36 33 38 39 31 33 33 37 43 25 35 25 40 26 36 37 27 34 35 38 33 43 38 35 38 21 30 30 36 36 28 29 34 37 36 29 31 36 39 22 40 33 35 27 31 42 42 34 31 37 41 34 47 35 35 38 34 31 29 33 36 29 33 31 37 31 42 41 46 31 45 30 29 35 26 39 36 38 30 39 29 38 26 36 29 35 35 38 27 33 28 26 31 37 27 32 30 30 29 38 40 39 29 41 26 32 37 34 39 41 36 42 42 33 36 29 38 44 36 34 32 36 33 31 31 38 38 41 40 30 34 48 39 27 34 34 32 30 30 38 42 38 30 30 39 29 37 46 39 33 40 32 37 31 38 31 33 36 44 38 34 29 28 32 32 35 22 27 34 31 32 41 36 37 40 30 34 34 30 32 41 33 33 45 24 35 38 24 37 32 35 37 33 45 35 34 37 38 29 30 44 28 25 32 37 35 36 32 29 39 33 36 30 41 33 37 44 40 35 48 30 34 43 36 40 25 38 46 37 30 39 44 33 28 29 27 36 34 33 37 34 38 43 33 39 33 36 38 32 40 27 39 29 32 33 29 35 40 25 29 34 41 34 32 36 27 44 37 37 36 45 37 42 29 29 32 28 34 30 30 34 39 31 21 27 28 28 41 25 40 23 35 28 27 35 28 34 31 26 38 32 38 34 32 30 38 38 32 34 34 31 30 29 28 38 35 33 43 32 40 28 29 37 26 28 38 31 32 27 36 32 36 42 27 25 35 33 35 29 35 29 37 42 33 40 28 35 29 31 29 39 42 33 32 37 29 24 29 38 32 35 40 30 38 33 40 34 31 36 33 49 24 46 39 29 30 33 27 44 42 30 39 32 36 35 33 41 38 37 29 34 41 28 27 29 41 33 38 28 31 33 40 38 29 33 32 21 32 37 42 29 34 23 52 32 31 35 33 39 32 22 29 33 31 40 32 42 36 33 33 31 32 24 29 34 25 29 36 36 22 26 29 36 35 33 34 32 29 28 36 36 45 37 37 33 25 30 35 30 30 32 32 35 36 32 37 30 47 44 42 31 31 30 21 37 31 27 36 39 42 28 36 32 27 41 35 34 27 34 40 38 40 33 39 42 31 30 29 43 42 31 37 28 35 38 33 37 26 33 41 37 25 32 36 36 37 28 30 30 23 27 32 37 35 38 36 47 25 34 24 27 38 28 38 39 35 40 46 37 37 38 35 39 39 35 45 32 35 34 43 28 37 24 29 34 30 37 35 30 35 31 35 37 35 31 29 36 29 34 43 31 39 42 29 33 31 26 28 31 27 33 31 29 31 42 31 31 27 38 33 37 37 33 35 53 27 38 43 30 25 36 31 35 39 25 29 32 26 41 46 26 26 25 30 38 38 34 31 35 38 32 34 33 35 34 31 32 24 26 29 36 33 37 32 38 42 32 37 33 29 33 28 35 32 37 32 34 45 29 30 34 32 27 32 30 38 35 30 34 35 37 31 30 28 32 35 40 40 26 29 45 35 35 26 32 50 38 36 37 40 34 33 43 28 32 35 29 37 34 41 38 32 21 30 29 52 29 31 31 34 31 42 39 35 38 28 40 35 34 36 35 30 37 27 35 35 38 34 43 24 43 40 40 31 33 34 22 37 30 33 25 38 30 32 33 31 37 37 33 40 36 31 29 41 33 32 38 32 27 36 37 35 40 36 42 38 31 30 30 36 31 33 28 32 36 40 36 46 25 33 39 36 34 35 31 27 40 33 26 37 31 42 40 26 46 36 40 31 38 33 40 43 25 27 30 35 33 42 36 34 40 34 35 43 29 42 48 37 36 27 32 23 32 24 27 32 33 48 37 37 37 35 41 32 27 29 31 40 34 25 48 48 29 29 32 34 29 38 40 41 37 43 39 34 33 29 26 37 29 37 39 35 33 31 27 28 24 38 25 23 42 44 27 34 38 35 37 27 24 28 28 38 30 31 50 40 33 35 37 49 42 32 33 28 38 32 40 31 42 33 31 39 45 34 46 25 35 28 24 25 33 38 36 37 29 35 39 44 40 40 40 25 33 30 37 29 27 37 36 36 28 28 34 39 29 32 45 32 29 35 39 43 31 32 42 37 33 31 40 36 35 38 33 32 37 44 44 34 35 24 29 35 23 40 30 25 31 34 31 30 28 32 23 35 34 36 36 32 35 38 24 32 42 31 31 27 32 35 32 27 31 30 45 28 40 32 39 32 50 35 35 26 30 25 37 33 39 38 31 28 33 41 30 38 38 31 40 33 32 38 39 36 31 27 47 39 33 26 41 38 28 36 31 39 28 37 34 28 35 34 29 35 28 51 40 35 29 34 32 39 33 33 25 43 47 52 43 36 29 21 32 35 36 31 28 29 31 39 40 41 32 29 39 43 38 32 32 27 31 30 37 47 32 30 36 29 33 28 36 25 37 28 29 30 30 39 44 37 39 38 33 31 30 32 34 38 31 29 38 32 29 41 28 25 31 36 30 40 24 35 28 35 32 33 31 33 42 33 36 41 28 35 38 38 36 42 31 23 36 25 44 29 24 28 26 33 34 35 33 18 32 28 34 41 28 43 32 32 38 33 29 37 27 33 38 37 38 31 35 31 39 29 26 37 32 39 35 33 39 36 35 40 31 20 25 36 40 39 33 32 27 35 25 39 38 33 19 23 44 34 26 32 37 34 28 34 33 36 37 26 35 51 42 39 36 39 26 34 25 32 30 29 25 23 43 35 26 38 37 34 43 33 46 35 28 29 31 30 29 43 41 31 27 34 36 34 29 36 43 37 34 27 24 34 34 35 33 40 37 35 25 45 27 40 31 46 24 36 28 39 28 34 39 41 38 28 35 37 34 32 33 39 27 36 28 34 38 46 33 37 33 37 33 33 34 42 38 29 32 32 33 22 50 32 30 41 30 30 37 35 43 33 33 38 39 39 33 28 30 33 38 40 37 40 39 37 32 33 19 30 27 36 36 35 44 32 35 35 33 31 46 43 33 43 30 42 27 44 36 33 33 38 27 27 28 34 30 35 35 36 34 39 33 31 28 30 38 40 29 34 39 33 32 43 31 22 36 31 33 37 32 38 29 35 30 33 33 40 39 42 34 35 31 30 34 38 40 35 28 40 27 31 26 27 36 33 35 40 39 34 31 30 32 28 43 40 32 25 38 32 39 28 31 34 42 51 35 32 30 33 42 34 35 33 44 36 46 45 36 34 27 33 44 27 32 31 30 36 40 45 30 34 33 36 34 43 28 45 33 37 31 36 35 39 27 32 39 37 33 32 42 40 36 35 35 29 38 35 35 37 28 35 26 42 32 32 49 21 37 34 34 38 32 33 36 33 30 30 36 30 24 32 31 33 36 37 30 35 34 44 33 32 30 35 33 38 30 26 35 31 37 24 41 29 31 28 40 31 26 30 31 32 23 33 40 36 37 38 27 35 36 35 29 49 33 32 34 30 34 26 28 27 33 39 32 30 29 33 37 29 33 34 29 31 29 32 36 31 40 37 37 40 43 35 34 38 33 33 32 27 33 40 38 28 33 37 22 27 25 44 36 36 46 30 43 26 27 38 42 31 31 31 34 33 28 30 34 40 31 41 37 30 37 46 39 41 33 44 32 30 33 31 29 31 50 25 40 40 36 35 37 21 39 31 33 28 37 34 41 33 27 33 27 28 38 24 27 25 40 36 37 30 31 33 32 28 38 29 22 26 28 24 41 32 32 37 32 34 26 34 28 31 37 27 31 42 32 38 35 43 24 26 41 28 35 39 31 43 35 36 36 27 31 25 32 26 41 32 32 24 27 31 31 36 30 32 32 39 34 33 33 43 42 35 38 31 31 29 33 39 34 30 35 29 34 32 37 30 40 32 37 33 36 29 38 34 43 39 24 41 33 41 29 31 41 41 30 43 39 38 27 33 36 32 33 29 32 34 41 35 32 48 39 40 28 43 35 31 34 37 32 40 39 34 27 26 36 37 31 26 42 37 26 28 36 34 35 32 33 35 38 26 35 30 29 47 29 39 29 29 43 35 37 31 38 37 21 34 42 34 43 37 32 25 29 25 34 33 33 25 25 30 40 34 33 32 31 25 40 32 26 42 36 30 28 35 31 34 30 29 27 36 33 36 36 39 40 28 44 37 38 37 32 38 38 25 41 27 36 44 29 26 30 32 35 25 32 31 32 34 32 26 26 39 40 26 37 43 32 43 35 32 27 27 37 29 26 43 33 31 40 27 35 33 47 37 40 34 30 29 43 36 34 34 35 47 31 34 27 32 34 32 28 29 33 42 25 47 36 26 32 22 32 30 19 41 23 39 29 46 40 38 41 34 45 43 32 40 37 35 30 26 36 43 37 36 33 29 31 36 35 30 26 40 37 41 40 32 29 30 22 32 30 40 39 31 29 30 35 34 38 26 29 35 30 24 34 32 35 42 27 50 30 34 36 29 29 38 38 28 35 35 39 35 34 32 44 28 22 34 42 29 20 34 38 36 38 41 38 44 31 34 27 20 37 30 34 30 33 24 41 29 32 33 43 39 37 33 39 36 37 33 33 36 45 18 35 28 44 42 28 31 39 31 43 31 31 34 23 35 31 33 36 38 29 29 34 32 43 33 30 31 31 39 26 33 39 33 36 31 33 35 34 37 35 31 33 33 24 42 33 38 36 36 30 19 37 47 23 33 37 28 33 46 36 28 29 34 37 29 30 44 39 31 38 32 28 33 31 32 33 28 39 26 37 39 37 33 32 24 39 34 29 24 38 30 26 38 38 30 30 30 38 36 32 29 35 33 34 31 30 33 44 36 32 34 40 45 27 29 32 26 32 27 33 34 33 21 32 35 35 34 25 32 33 37 30 24 28 27 26 43 38 25 35 38 39 32 39 32 35 30 33 36 27 26 34 43 36 35 36 34 35 40 39 36 31 35 41 26 56 34 22 50 42 35 34 35 34 38 29 36 24 26 36 39 34 35 28 31 33 38 33 35 30 29 24 33 33 37 35 38 38 51 31 34 38 38 30 28 34 34 32 32 31 33 48 28 41 42 26 37 46 27 31 30 36 25 42 30 42 46 40 40 34 21 38 46 35 46 37 39 31 31 27 32 45 40 36 24 29 40 44 26 36 26 37 34 38 33 36 42 31 33 36 36 30 26 35 33 36 29 46 36 31 41 39 35 38 39 40 33 34 30 21 29 45 32 37 22 29 33 39 30 29 32 40 43 34 46 39 43 42 32 39 39 32 33 36 27 27 37 22 31 34 43 36 27 40 38 35 33 23 29 45 27 43 39 36 26 40 32 41 30 39 30 30 24 33 32 32 41 32 40 34 23 41 29 35 33 39 40 23 30 41 39 39 31 31 43 27 23 37 48 30 34 38 36 36 35 33 38 30 33 36 30 36 36 37 33 26 52 39 36 35 33 28 31 29 34 36 39 42 33 31 47 31 29 35 27 26 34 31 25 39 24 49 25 34 38 34 30 39 28 28 30 36 33 34 37 39 30 32 30 39 37 35 29 40 36 34 29 35 37 34 36 31 27 33 40 41 35 33 38 24 38 35 27 42 41 31 23 33 28 38 34 33 29 27 34 40 34 30 31 33 32 33 36 38 29 33 28 38 40 38 37 29 38 42 37 38 35 34 33 45 39 35 31 33 30 22 21 34 28 32 42 36 32 31 33 30 33 33 31 34 40 34 28 41 36 31 21 29 31 25 27 28 24 39 33 41 36 35 32 34 38 37 35 31 27 33 26 33 35 48 43 34 38 47 38 32 39 34 36 28 29 30 26 30 41 29 44 35 24 50 34 38 33 34 35 28 40 46 31 31 31 32 34 30 37 29 30 29 20 29 41 12 28 37 30 38 30 38 34 38 27 38 40 30 41 31 24 27 38 36 33 28 29 30 33 40 33 27 32 32 33 46 31 33 39 34 44 36 29 41 28 35 32 35 34 35 43 35 43 33 41 31 25 27 27 29 30 27 47 29 35 33 32 29 36 28 34 43 37 31 39 27 35 32 35 36 38 37 37 32 26 32 35 38 41 25 33 42 30 36 31 32 41 44 38 33 40 37 27 25 39 33 34 29 37 37 35 38 28 38 37 24 29 32 32 47 32 34 35 34 43 39 23 31 35 32 26 37 38 29 23 34 38 26 42 33 33 34 41 31 33 27 24 40 40 32 30 35 33 35 31 41 28 32 30 44 35 38 38 37 35 38 35 33 33 43 40 31 39 41 30 29 30 37 32 34 41 38 37 37 35 23 36 35 35 30 37 34 33 26 32 36 40 32 39 32 44 32 43 34 32 37 34 25 40 32 39 32 24 40 28 33 25 31 39 35 26 33 31 37 32 34 32 39 32 38 42 28 39 26 45 36 37 38 38 32 34 31 28 35 37 39 33 26 40 37 42 36 41 29 31 40 32 39 31 31 23 27 36 40 36 39 33 35 47 31 31 36 26 33 25 39 39 35 34 29 40 41 31 26 42 39 33 24 27 37 31 33 35 35 33 30 41 40 35 41 34 35 37 31 44 37 29 34 36 41 36 37 35 38 33 39 33 37 35 35 36 27 37 32 34 39 32 32 38 32 29 28 27 39 36 33 26 39 32 44 35 31 34 35 21 26 29 27 47 34 34 37 36 31 45 33 31 32 41 30 30 31 40 32 42 29 24 38 32 29 31 28 35 34 35 29 40 29 43 33 43 33 24 37 41 24 35 35 38 28 37 38 43 38 32 39 34 32 35 39 25 45 35 43 38 40 26 31 23 48 35 31 36 34 44 21 40 30 44 38 41 34 32 28 31 28 37 42 36 30 32 30 28 37 38 37 42 28 35 23 29 32 53 30 36 30 38 29 35 23 33 26 37 28 36 38 48 45 27 45 32 33 47 35 37 26 26 25 39 35 39 48 40 33 26 33 36 34 30 31 29 31 40 29 30 38 32 37 37 27 32 32 36 28 27 24 42 30 34 31 33 38 36 41 42 38 31 36 39 31 37 35 33 32 29 36 38 30 33 32 34 34 49 30 32 31 26 42 36 28 28 34 30 25 38 38 21 31 31 27 38 28 38 36 48 36 37 37 30 40 40 28 30 32 34 33 28 30 24 38 35 26 28 37 32 36 27 37 34 34 38 40 40 43 32 39 35 21 37 43 31 29 36 32 28 38 42 32 28 49 22 30 41 37 40 35 30 32 42 23 39 37 34 33 40 36 34 32 24 36 27 31 27 39 31 34 44 36 35 33 42 34 36 32 27 32 40 32 39 29 29 35 35 43 26 41 30 31 38 29 33 33 36 31 32 41 33 34 36 38 38 33 37 36 34 26 30 34 33 35 33 34 35 33 37 27 32 35 34 33 22 34 48 28 34 32 27 34 35 30 44 41 41 32 39 35 39 34 29 32 32 36 34 27 24 34 34 27 40 28 42 36 45 44 38 40 31 39 41 33 36 53 35 30 39 29 41 37 39 32 34 32 33 32 45 40 43 37 35 29 31 33 28 22 34 29 31 39 33 27 37 22 31 30 36 32 31 35 33 34 36 26 25 31 36 29 49 37 37 35 30 36 42 22 46 33 33 38 29 36 32 27 30 39 39 36 29 26 34 34 29 22 35 30 35 27 48 43 32 36 31 32 23 39 32 28 36 31 29 38 27 41 23 24 34 34 30 43 27 24 36 38 28 38 35 32 46 30 39 34 28 33 32 42 41 36 34 44 36 35 30 21 28 28 41 29 29 36 29 39 30 37 33 48 28 30 40 33 42 31 37 28 30 32 32 34 30 32 32 33 30 33 32 43 42 35 40 39 31 37 29 32 34 29 28 46 28 38 33 40 38 27 38 32 31 44 31 32 26 36 28 31 27 27 35 27 25 34 42 30 33 41 33 38 35 30 33 31 28 33 35 36 32 35 31 39 36 40 37 31 32 30 40 39 33 40 27 38 30 31 35 36 33 37 41 45 29 29 34 37 31 28 31 34 31 38 36 33 41 43 44 37 31 20 21 28 39 31 31 30 30 32 41 38 42 38 32 32 41 37 41 40 33 38 20 34 30 31 30 35 35 36 31 35 35 32 24 33 32 33 31 47 37 31 41 31 32 26 44 36 40 33 39 39 27 37 36 33 30 27 39 33 43 28 37 34 32 36 31 33 37 28 24 31 37 27 34 27 31 37 35 34 29 34 35 44 30 39 38 31 40 26 31 44 26 44 34 25 36 42 36 39 36 41 32 33 38 38 38 20 41 39 25 40 33 45 41 30 42 36 34 41 34 26 34 38 39 31 39 39 35 38 32 29 25 33 23 32 23 35 31 32 32 38 33 40 32 26 30 20 32 31 35 32 30 43 30 34 27 49 43 29 35 28 35 34 35 32 33 30 29 35 31 34 43 30 24 32 41 41 28 40 33 38 31 35 33 30 30 33 34 23 25 35 26 34 26 34 34 45 27 29 32 37 29 41 30 22 40 35 24 37 25 30 36 45 24 38 40 41 46 20 36 38 33 26 29 36 28 39 40 27 36 35 35 42 30 32 30 36 37 37 37 32 39 32 30 40 30 25 42 35 37 28 27 32 35 29 33 31 31 40 32 39 43 41 35 37 39 37 30 39 31 20 43 40 38 22 43 29 41 36 32 34 52 28 35 40 41 36 33 37 38 32 37 41 41 37 32 32 25 50 37 33 31 37 30 37 31 39 37 30 32 39 34 37 28 33 33 31 29 35 36 42 28 29 33 34 28 33 24 37 23 29 38 32 36 49 37 35 34 22 30 39 33 29 45 31 28 31 35 39 33 38 35 33 40 28 35 34 33 30 34 43 32 33 34 32 39 40 35 29 40 42 28 41 34 35 48 29 39 36 37 33 34 33 23 41 37 26 35 28 39 37 31 37 35 30 29 38 39 37 28 29 34 34 42 38 21 30 45 35 26 28 33 31 31 39 28 26 32 23 36 43 34 37 33 38 34 34 35 26 30 27 39 34 25 31 31 40 38 29 38 36 43 36 52 31 38 35 28 30 41 38 35 36 38 36 38 30 41 35 40 29 30 41 36 32 35 29 35 32 35 36 27 42 27 35 32 35 28 36 21 36 31 33 31 36 31 37 33 31 28 39 35 39 33 35 26 29 33 32 34 26 37 36 41 35 39 30 27 40 45 35 36 27 21 28 33 29 36 30 48 37 33 41 33 32 36 40 33 34 34 28 27 41 21 46 36 35 33 34 36 29 35 36 29 42 26 34 33 42 28 41 43 48 29 25 32 27 40 31 40 38 23 41 31 34 27 28 35 41 44 38 48 35 26 38 32 33 35 45 24 32 37 29 36 30 33 27 32 34 41 33 37 39 46 36 37 26 42 32 38 29 45 35 37 31 37 41 27 28 33 34 29 28 35 26 46 38 34 40 31 31 41 43 26 35 23 43 32 31 32 33 35 30 22 49 40 31 31 39 30 39 39 35 31 39 28 19 32 34 44 29 31 33 37 38 40 28 39 33 32 23 37 38 28 33 38 31 36 41 33 37 37 30 39 25 35 30 33 33 49 35 22 28 25 35 37 36 27 41 26 36 36 42 35 21 34 50 29 40 38 28 39 40 40 29 31 45 33 43 44 37 32 36 35 31 36 38 26 33 29 39 28 34 29 37 29 39 24 22 39 38 33 21 27 31 30 40 37 31 38 37 25 32 33 28 33 29 30 35 26 30 30 33 29 30 34 34 30 39 28 25 30 32 32 34 32 26 43 37 28 32 33 31 34 36 35 42 30 29 25 34 36 28 37 40 35 39 39 37 45 27 42 40 23 23 25 41 31 36 25 39 36 35 26 48 51 33 31 32 33 34 29 49 28 41 40 32 36 34 37 40 30 39 37 28 26 27 30 25 27 43 38 33 26 25 43 27 31 34 33 34 43 41 50 34 34 38 29 30 33 38 31 31 37 24 27 38 28 40 36 32 28 29 27 43 31 35 33 42 44 29 35 37 39 28 28 36 40 43 28 33 38 32 32 33 30 30 20 34 33 27 39 32 41 40 36 27 29 31 27 31 27 42 27 36 41 27 32 32 35 37 38 35 29 34 29 31 31 32 25 44 38 35 34 44 36 32 32 22 24 32 38 31 37 33 42 32 40 30 37 30 26 36 39 30 36 40 34 37 36 32 30 33 27 39 47 27 34 33 41 36 32 36 28 42 30 38 25 30 25 37 34 34 23 33 45 35 47 33 42 65 34 37 39 30 36 35 32 37 40 44 45 37 46 35 42 26 28 31 30 42 35 42 37 49 29 38 40 34 36 32 44 40 40 30 35 38 27 37 34 34 32 27 44 20 35 27 30 30 34 34 25 34 33 31 41 32 34 27 34 40 29 29 36 42 45 35 43 26 45 27 39 36 31 34 30 39 35 34 28 38 39 24 42 38 25 43 37 32 37 35 35 40 29 42 31 34 32 39 33 29 27 29 34 30 37 32 40 27 31 37 37 29 30 45 38 35 37 38 33 23 41 29 37 33 33 31 34 46 37 37 35 27 32 55 37 34 39 35 31 31 28 35 29 35 35 37 25 29 35 28 41 33 31 38 39 22 36 36 31 39 44 32 36 34 27 39 31 43 30 26 38 33 32 26 31 29 36 33 33 35 39 34 49 44 33 21 44 28 34 40 43 35 34 37 33 42 34 31 40 34 38 32 36 28 36 28 38 34 30 38 35 43 28 39 46 35 36 30 36 38 29 32 32 38 33 33 28 29 41 38 29 20 30 35 35 19 33 44 39 41 27 39 36 29 30 32 36 25 33 32 25 35 26 39 34 38 36 29 22 36 32 39 33 38 37 39 29 33 33 31 35 31 36 35 36 29 35 39 37 43 37 35 31 39 23 29 34 29 35 37 30 27 30 35 26 38 26 29 42 37 41 28 32 35 34 36 37 32 41 36 34 37 27 33 33 25 31 33 34 29 38 34 30 38 37 28 31 24 28 36 33 37 36 35 32 31 31 34 26 37 41 35 43 19 23 29 32 43 23 36 33 35 32 33 38 26 42 33 32 40 37 33 40 27 28 38 36 35 33 26 30 33 39 30 34 35 34 27 30 34 38 24 36 40 33 33 28 31 35 31 27 36 39 36 23 34 30 29 29 30 32 30 28 29 43 34 43 33 42 28 34 39 43 36 36 39 31 41 33 35 34 34 45 35 23 36 33 30 34 33 33 32 38 36 23 27 28 34 49 32 40 48 39 32 31 35 25 32 34 38 34 29 42 35 29 30 49 38 38 29 28 39 36 54 26 29 33 33 32 33 34 42 32 28 36 43 24 36 37 33 38 32 35 30 31 35 40 37 40 31 31 33 29 33 27 27 44 42 33 39 27 41 31 29 33 24 36 40 27 39 36 31 26 44 34 35 42 36 27 32 30 46 30 36 34 37 35 33 34 32 35 27 31 38 35 32 45 32 28 27 41 27 35 42 48 36 35 32 25 39 36 26 48 40 35 27 25 32 32 39 29 26 28 28 24 26 33 35 32 32 31 30 28 30 28 37 33 30 35 26 36 40 40 38 28 33 32 33 34 33 34 34 32 34 49 38 29 31 41 33 33 28 27 30 32 30 35 35 32 28 25 23 46 34 41 26 28 30 41 36 29 34 37 38 25 36 31 43 38 39 39 37 34 34 29 34 36 35 31 37 29 30 38 34 36 35 29 37 42 40 38 34 42 49 29 46 38 24 35 34 25 40 42 34 41 33 32 42 32 26 33 35 41 40 35 27 30 28 35 36 39 36 28 43 30 31 43 33 36 37 38 40 33 39 29 42 29 44 45 33 37 33 36 42 28 36 25 25 32 34 28 37 40 28 28 26 33 31 45 36 33 34 37 37 34 47 31 35 33 35 39 33 35 29 37 35 28 28 25 40 40 30 36 35 35 30 32 33 36 34 36 19 42 35 33 38 27 25 21 35 37 23 33 40 37 34 42 31 38 32 35 41 41 24 31 34 45 33 32 42 36 37 39 34 30 25 31 39 36 33 28 33 35 28 31 32 21 26 33 39 30 37 21 31 27 30 23 41 40 33 28 39 30 29 31 30 30 26 27 28 37 43 32 36 33 30 20 28 29 28 31 36 34 41 28 25 35 22 25 31 30 29 32 35 27 20 26 31 36 29 30 27 33 27 28 30 31 36 35 42 36 40 25 31 42 34 41 38 38 38 30 32 39 41 28 38 42 39 33 38 35 42 27 36 36 32 29 32 36 35 29 33 35 28 27 28 33 23 29 21 29 31 38 38 27 25 31 33 34 35 31 35 31 36 39 39 28 31 41 27 34 42 31 28 33 32 26 30 39 31 33 32 29 37 35 29 31 29 32 28 46 34 34 29 33 47 33 31 30 34 37 39 33 33 30 33 32 33 41 31 30 37 38 37 29 37 38 37 30 28 25 38 45 41 39 35 35 39 29 37 31 33 24 33 38 38 35 35 44 42 24 26 41 25 47 29 31 33 33 31 30 41 30 49 26 40 34 31 35 36 35 35 31 36 42 35 36 34 39 45 41 31 36 35 42 32 29 41 32 31 26 34 44 29 42 37 24 43 28 35 37 46 28 27 23 26 28 30 28 33 22 35 39 30 27 28 34 33 26 41 30 36 27 35 32 25 37 38 41 37 31 37 29 37 38 34 32 38 25 37 28 29 38 27 34 29 36 34 33 33 31 36 50 25 38 38 30 35 27 31 30 33 36 31 37 38 32 35 34 35 29 44 27 28 38 41 30 38 30 32 35 31 35 49 44 34 35 34 25 37 37 28 44 44 24 30 44 33 32 30 28 38 34 34 48 37 43 32 33 34 42 33 39 38 32 32 37 34 30 45 42 40 29 33 29 37 30 33 43 31 29 33 35 34 30 36 42 31 36 35 29 24 46 35 39 52 27 32 43 39 40 36 36 32 33 21 30 44 35 32 37 27 33 34 34 29 33 37 36 28 31 45 32 30 37 32 32 30 46 32 31 27 32 35 37 37 30 32 31 29 22 30 34 35 24 29 31 39 22 39 31 35 23 22 42 36 28 34 36 23 29 37 33 36 26 33 42 35 25 28 36 28 36 34 42 32 43 32 38 35 27 29 29 33 36 42 37 29 29 46 30 29 26 33 31 34 36 29 31 42 38 37 42 26 29 37 20 42 37 36 51 40 36 22 44 35 39 29 39 31 34 32 40 19 33 38 42 38 36 39 34 39 27 33 32 41 43 22 40 29 29 38 27 40 41 30 27 41 37 34 32 35 27 32 39 28 35 43 37 39 32 21 44 35 32 35 34 32 29 24 32 29 49 24 36 26 39 29 30 32 31 31 34 23 38 40 47 42 38 28 40 30 31 29 33 29 40 34 41 36 30 34 35 32 31 44 33 30 30 34 34 45 33 43 31 30 33 35 26 42 31 41 42 36 50 30 36 31 36 30 38 42 23 38 30 44 44 45 26 33 27 36 30 46 34 28 40 38 33 31 35 15 30 30 33 41 39 26 38 26 30 32 36 38 28 37 37 42 30 35 33 34 39 30 36 34 40 29 26 33 32 35 32 37 33 39 39 30 34 34 24 38 37 27 32 31 25 29 37 25 27 33 35 28 32 35 33 26 35 41 29 40 30 34 29 38 32 39 30 39 34 40 28 32 36 23 40 30 37 27 36 32 32 28 27 39 34 39 39 40 26 34 34 30 32 35 37 39 27 48 35 35 33 30 33 35 28 35 38 38 34 33 29 30 31 36 39 32 35 29 34 35 32 37 33 31 40 39 29 40 38 38 34 31 24 36 37 34 38 33 30 34 23 37 36 46 42 37 29 31 42 31 30 33 40 37 34 34 35 34 44 29 36 38 32 33 31 41 25 37 30 26 32 32 36 28 27 33 33 42 37 34 30 29 21 32 40 39 29 36 37 30 36 33 41 23 46 32 33 31 34 35 36 28 36 41 24 27 26 39 36 41 35 30 35 54 38 30 33 31 37 34 34 43 34 40 33 30 35 30 43 27 37 34 22 25 30 30 41 31 33 37 36 34 31 32 23 39 35 30 34 31 39 38 35 31 34 38 30 30 32 48 28 35 31 36 31 33 36 26 28 34 34 37 33 25 26 29 32 28 31 39 41 33 32 25 31 40 42 36 31 35 22 32 30 34 40 34 41 30 40 32 34 38 38 36 36 19 32 34 30 33 36 16 42 35 39 30 32 23 23 40 33 35 23 29 38 25 31 36 32 39 48 40 27 28 29 27 32 42 38 32 35 43 21 28 32 29 29 21 32 35 39 45 38 37 33 35 31 35 30 31 37 34 42 38 33 32 39 28 33 38 34 38 30 38 36 36 28 31 30 36 36 32 30 36 33 22 36 40 30 30 42 52 42 36 36 27 28 37 32 26 26 30 32 47 35 41 39 42 33 37 38 31 43 33 42 31 43 36 24 36 36 36 32 31 28 36 33 37 34 42 27 37 31 35 35 34 30 30 41 36 29 37 29 26 35 32 28 35 30 25 38 31 32 25 31 39 40 38 40 29 32 26 45 29 30 34 41 40 31 24 31 36 38 36 39 45 28 37 37 28 41 29 37 36 37 32 28 28 39 38 54 36 30 33 39 39 45 20 36 28 47 48 39 38 32 41 31 35 30 35 39 33 34 26 26 38 31 31 33 39 19 39 37 37 37 28 32 35 28 40 34 41 27 52 39 40 39 24 30 27 27 36 29 22 30 32 37 31 27 20 27 37 41 45 29 39 43 41 42 37 30 38 34 35 30 38 32 28 36 50 29 40 39 26 26 38 37 26 34 31 43 31 37 38 33 30 25 38 31 26 31 36 38 29 31 33 37 36 24 38 34 39 38 37 27 40 23 27 32 34 25 39 29 37 34 46 24 35 21 26 33 28 42 25 29 24 41 38 35 33 29 34 36 28 33 32 34 35 36 32 39 44 28 25 32 36 33 32 42 34 35 25 36 35 25 41 33 39 33 42 38 36 45 29 43 32 35 29 31 32 34 22 33 29 21 32 41 27 36 35 42 20 40 31 40 34 32 34 38 45 41 34 32 37 31 28 35 34 38 30 23 38 38 35 53 32 45 23 34 29 30 32 39 30 31 32 42 29 36 48 28 27 34 33 31 33 42 29 30 44 42 38 34 27 36 43 45 33 44 42 37 45 34 34 32 25 33 44 37 44 37 26 31 33 31 37 46 36 37 36 31 33 27 46 45 30 32 27 39 31 47 31 35 30 29 32 31 28 25 36 29 32 26 34 37 31 34 30 30 41 34 33 28 32 43 34 38 34 31 31 34 42 29 40 33 34 34 39 32 35 39 32 29 32 25 40 42 28 36 33 24 31 42 25 38 33 36 37 26 37 45 34 35 26 30 40 32 35 35 34 36 32 40 28 38 35 33 34 41 39 40 40 34 34 25 41 30 35 45 42 25 36 31 30 37 36 37 31 28 39 37 33 34 39 37 28 31 28 31 34 30 37 27 33 28 30 26 35 34 42 40 34 23 46 38 26 26 37 34 35 38 27 26 31 30 40 42 26 32 45 35 38 41 33 29 26 28 33 30 33 44 26 32 44 37 32 31 34 41 36 25 30 34 34 29 37 29 40 29 34 38 25 33 31 32 40 34 42 38 23 34 36 32 39 36 40 36 27 45 35 28 40 29 45 37 26 22 24 33 31 46 46 34 38 32 25 31 27 31 25 30 33 35 32 23 32 23 20 32 37 29 32 32 41 39 41 44 44 41 33 34 29 35 30 32 34 33 25 29 34 28 30 25 32 38 30 33 34 23 31 29 30 34 31 27 37 39 25 40 29 34 35 35 33 22 36 36 30 36 31 29 44 38 38 35 27 33 43 36 32 45 25 34 34 38 28 28 36 32 36 21 37 34 41 40 37 47 33 41 43 28 34 42 29 37 37 39 36 34 35 26 43 28 36 36 33 37 37 35 26 40 42 24 31 35 37 28 31 25 44 33 25 32 43 35 30 33 31 36 31 41 34 37 36 39 37 42 25 25 34 41 31 35 33 27 38 44 46 38 31 32 34 32 23 38 35 27 44 37 41 38 37 29 37 26 34 27 28 30 30</t>
+  </si>
+  <si>
+    <t>JSU(-1.7443535423177943, 6.021237461506568, 170.03692161137795, 277.9288014585863)</t>
+  </si>
+  <si>
+    <t>246 231 300 263 211 297 226 182 229 276 257 238 330 238 248 304 242 275 323 242 314 271 187 211 238 269 154 261 254 294 187 203 334 215 212 286 232 340 236 300 285 292 278 217 276 316 254 160 232 254 246 242 286 265 212 229 204 283 220 293 295 216 204 207 248 327 311 246 193 359 334 289 310 207 264 194 266 306 309 273 173 285 245 211 257 197 295 295 220 283 255 223 203 277 292 246 234 279 244 293 233 280 210 314 327 230 165 218 208 191 295 299 329 291 328 254 315 190 289 222 157 312 202 201 343 198 333 299 246 209 227 271 194 173 256 232 247 322 290 210 227 261 207 216 147 220 263 306 317 211 264 224 309 233 223 252 200 239 220 261 302 217 196 230 240 301 213 173 282 269 246 284 298 176 293 237 244 222 300 327 202 222 271 270 192 339 264 274 281 221 231 277 215 334 192 338 175 190 397 288 237 149 346 258 246 353 236 279 300 185 253 352 179 240 252 180 240 283 250 184 195 302 238 209 266 163 140 273 227 294 261 218 241 210 159 186 295 245 243 275 259 233 219 289 174 173 289 275 236 239 291 298 238 237 261 347 248 221 183 249 228 295 299 168 257 190 245 261 188 328 242 251 239 345 206 316 234 259 212 260 185 261 270 243 259 179 221 233 240 284 284 275 215 242 213 175 310 210 286 293 279 278 307 189 299 316 340 268 243 275 227 273 297 318 134 223 232 181 237 296 252 289 295 297 295 272 254 195 284 294 348 222 257 301 272 284 293 211 210 198 421 280 230 197 202 243 230 241 174 248 243 263 247 252 271 231 251 254 142 223 296 273 185 210 214 272 240 206 276 165 257 230 247 308 193 211 231 173 198 305 260 216 350 331 225 253 242 233 212 213 259 194 214 219 211 154 360 253 251 191 267 148 291 281 191 301 125 283 268 274 224 210 241 191 273 219 257 349 255 189 194 237 280 181 314 284 252 226 268 336 199 225 260 194 243 221 217 276 217 248 244 209 263 288 310 197 245 251 274 219 230 229 196 340 230 306 296 208 316 310 343 259 265 212 243 321 280 293 233 175 311 315 238 266 268 220 208 224 218 303 282 318 308 301 243 237 199 264 291 281 288 241 253 188 246 231 230 275 242 163 363 253 191 200 243 284 190 251 199 300 295 265 234 299 253 203 232 235 194 172 251 343 218 264 279 317 303 158 215 307 247 184 234 199 201 358 272 259 350 318 174 266 203 294 177 179 225 245 270 168 256 233 328 301 194 226 208 222 255 250 307 199 224 178 212 279 213 275 245 292 222 206 187 279 238 351 291 179 240 268 263 201 237 276 214 266 228 273 281 296 203 286 269 219 258 236 260 187 200 254 175 277 299 229 269 228 298 234 186 229 312 282 190 208 237 262 315 379 265 223 309 292 240 227 341 223 193 392 262 321 180 382 218 253 208 274 248 222 266 242 298 257 310 255 274 249 191 353 321 332 285 274 309 185 234 281 268 223 254 241 273 277 200 293 254 288 218 241 232 367 237 270 260 229 265 276 308 289 182 354 247 293 334 322 317 277 268 254 211 268 215 270 216 215 231 237 229 173 329 234 190 279 322 294 185 279 184 170 231 309 325 250 314 258 207 343 249 220 223 210 223 245 229 260 319 314 247 281 217 256 223 283 182 254 228 287 231 226 249 310 209 221 326 280 227 192 394 239 327 277 239 302 271 241 193 189 249 251 243 266 162 250 249 389 317 272 192 287 192 266 267 245 210 286 268 272 293 177 233 154 232 244 242 258 222 152 272 317 197 269 278 230 304 292 294 348 289 261 284 309 290 223 254 289 311 216 348 238 279 212 166 316 293 188 247 281 244 236 225 255 195 274 262 226 211 262 222 227 230 289 162 262 251 218 220 323 201 293 314 260 243 346 291 205 359 176 359 247 287 231 152 317 261 257 291 197 203 147 306 256 258 201 192 184 271 303 287 312 310 319 228 233 219 344 275 226 156 236 238 251 245 359 208 298 239 349 272 206 246 215 224 198 224 215 245 195 219 264 248 240 295 241 219 332 326 218 287 243 237 377 228 163 219 249 179 252 212 250 245 333 209 252 204 163 202 202 219 249 189 270 262 251 305 180 226 264 261 208 177 212 283 349 237 277 267 172 267 196 259 257 245 252 315 239 354 230 229 291 261 234 260 225 272 269 198 229 233 256 253 250 330 210 241 333 217 255 258 297 293 348 407 297 335 229 257 273 253 311 255 257 289 267 252 283 180 227 291 277 203 181 240 254 220 295 220 289 219 293 287 211 317 243 288 201 282 185 277 336 299 294 305 264 239 226 181 150 303 280 299 236 221 199 272 262 310 247 227 221 243 382 240 298 301 245 263 251 244 207 269 201 214 294 271 157 258 232 200 312 305 207 229 204 301 286 249 286 232 245 177 352 238 317 161 228 246 164 278 284 203 281 232 229 183 303 221 242 253 256 144 360 248 301 203 270 246 296 247 185 312 195 297 184 290 266 283 264 233 171 259 379 239 192 188 218 162 265 268 370 259 187 147 247 208 262 154 233 284 280 209 248 268 287 276 252 350 311 268 294 185 237 275 237 174 329 312 253 232 225 290 271 302 332 246 222 306 219 169 260 219 273 187 255 260 204 250 269 289 241 297 321 201 175 233 348 298 237 334 265 283 172 145 308 168 177 374 271 223 272 295 254 214 180 248 239 271 204 318 174 248 321 299 303 211 237 248 214 248 341 221 284 194 221 250 312 231 234 264 209 269 268 386 217 268 244 229 266 300 261 262 278 301 358 322 294 283 282 262 211 223 236 213 191 98 251 258 295 290 227 224 180 242 323 327 289 254 275 264 238 282 239 205 303 298 152 277 357 297 285 220 236 264 253 242 270 215 327 283 298 246 250 242 258 164 273 279 258 223 229 261 303 181 266 231 232 163 307 329 310 281 267 190 225 155 226 238 232 254 357 315 225 268 212 334 273 222 262 203 267 261 282 288 202 267 240 233 242 206 194 165 257 155 312 272 197 254 247 232 238 220 234 318 213 219 289 218 251 152 142 220 272 293 231 232 283 285 199 280 273 250 149 213 218 241 182 206 249 374 257 180 186 340 261 256 292 277 180 187 358 210 227 239 270 349 312 240 242 239 258 299 274 290 228 312 252 345 343 231 207 321 188 265 203 237 186 269 181 212 186 228 297 326 317 283 177 162 258 199 273 315 335 294 215 234 261 299 221 202 414 224 279 127 211 284 299 225 193 200 214 300 319 266 284 241 270 201 266 284 288 301 281 371 238 199 321 318 346 302 370 250 277 186 239 332 235 133 234 255 308 251 184 312 273 280 202 207 237 245 252 225 303 162 228 230 294 259 299 256 302 268 270 247 232 154 248 196 257 220 205 141 276 276 342 289 154 239 227 185 293 254 293 199 169 195 219 278 261 289 193 219 228 271 298 260 335 276 206 315 270 363 211 170 169 270 300 310 217 305 247 260 339 323 255 187 252 193 147 207 197 385 224 279 195 225 260 266 240 274 297 187 299 405 256 180 284 286 254 317 130 260 294 349 173 228 276 262 251 278 191 202 251 235 225 290 254 272 170 304 214 302 240 225 263 240 268 274 218 206 222 278 239 262 222 284 223 186 307 248 265 236 214 291 313 249 223 229 249 251 277 239 265 314 234 292 312 240 208 180 319 191 177 295 314 234 257 202 282 248 210 282 293 260 310 264 290 205 226 271 238 289 240 269 283 254 300 184 335 292 223 232 188 229 326 240 229 287 269 228 277 181 232 259 351 186 212 293 206 265 182 281 250 293 267 294 300 231 227 225 228 250 269 254 154 187 135 299 133 270 210 253 259 253 198 291 267 334 274 290 218 245 294 229 333 246 298 258 239 212 191 156 278 241 172 287 307 167 296 190 244 210 211 245 256 311 271 239 264 270 185 308 266 310 217 238 253 250 182 258 239 233 273 276 241 185 227 277 270 228 225 231 178 171 334 199 241 284 251 262 207 232 332 272 312 284 234 190 265 229 197 211 199 265 253 277 302 221 189 159 302 306 180 334 287 237 287 275 306 285 182 250 283 219 237 187 272 258 278 354 213 150 202 267 253 262 201 208 253 235 263 252 239 251 204 225 240 262 228 231 309 212 283 235 243 248 324 245 218 156 271 219 260 317 258 394 217 258 189 251 290 341 188 234 191 309 292 253 235 241 295 268 191 267 230 212 239 246 279 280 235 242 280 196 222 221 299 247 288 101 264 246 286 290 297 213 182 246 299 214 138 212 229 196 224 238 198 190 306 243 227 193 276 257 293 349 151 302 255 248 167 241 230 283 270 229 290 304 282 331 294 278 218 188 251 232 274 270 211 290 353 196 344 263 193 256 264 233 248 246 220 220 302 286 198 306 369 277 291 250 237 206 308 346 223 259 213 240 133 157 243 332 269 254 309 270 275 162 335 266 338 265 290 209 258 278 319 198 277 283 271 211 259 202 207 175 203 337 219 251 219 205 232 298 165 200 285 289 225 238 266 250 311 275 314 243 220 257 347 342 256 243 208 256 284 246 235 162 289 293 296 274 286 259 327 294 230 173 353 262 264 248 262 241 187 338 213 215 195 281 234 233 239 273 276 230 298 343 278 221 205 237 232 275 317 242 222 251 175 201 297 278 228 212 249 291 178 322 253 273 226 256 303 240 300 208 280 335 266 336 231 229 333 300 184 230 251 222 230 302 258 267 209 300 269 227 320 261 271 235 345 218 223 179 248 334 257 275 221 302 271 290 227 249 326 276 313 342 289 219 259 232 285 227 279 289 264 222 239 269 279 266 349 235 201 336 280 206 353 271 244 239 362 278 280 284 253 245 211 298 232 227 282 255 218 249 221 251 199 189 190 262 168 241 199 274 271 255 285 217 225 222 204 237 259 187 217 270 242 239 307 226 150 286 210 211 182 155 198 263 326 266 151 278 244 221 200 201 221 236 272 262 301 229 237 248 262 234 233 268 315 400 251 309 266 327 262 336 163 338 240 313 164 198 226 307 200 248 289 245 357 231 281 229 322 204 292 226 383 229 210 345 201 234 339 250 309 315 257 245 218 233 232 298 226 265 263 292 233 323 253 205 237 276 269 265 260 300 262 212 286 375 289 192 363 272 261 288 238 216 161 243 279 264 262 288 287 271 196 349 298 234 298 218 208 205 224 254 214 234 264 220 247 190 244 213 239 270 233 263 258 179 315 227 276 267 301 307 234 245 155 245 220 317 231 226 356 265 223 242 267 235 310 262 267 264 187 227 328 286 234 299 263 351 238 243 333 262 238 302 185 241 294 293 220 270 289 254 281 286 271 216 317 338 293 311 184 285 246 205 200 161 247 381 319 244 241 152 245 303 301 219 346 237 279 190 188 264 246 264 335 255 242 271 258 294 262 309 244 288 257 212 311 261 242 352 249 218 300 212 221 205 252 218 213 176 287 172 282 274 256 182 346 251 291 222 346 374 174 209 297 314 213 282 328 194 309 255 259 304 192 268 343 242 290 265 318 217 306 219 281 258 175 254 190 262 263 363 330 283 285 294 299 228 196 303 296 228 300 213 261 285 260 200 267 307 246 250 237 232 276 290 288 332 201 197 298 240 231 244 218 241 284 353 299 343 315 293 208 251 264 279 207 229 234 333 285 288 246 258 195 273 219 331 341 272 168 284 158 307 232 127 297 335 235 231 350 260 253 258 219 246 303 240 249 263 198 218 329 146 325 243 259 216 266 306 289 302 309 220 268 246 259 139 237 239 212 218 214 213 241 234 342 299 188 228 255 253 178 327 318 242 207 288 272 237 305 173 234 237 235 259 256 172 272 230 230 190 146 291 246 210 333 261 337 283 256 347 266 178 198 249 260 233 231 334 223 203 314 244 275 244 258 305 325 188 254 195 332 287 325 234 207 290 216 359 250 234 259 186 290 182 205 266 321 258 243 231 290 263 322 329 362 221 236 300 190 286 273 236 205 214 182 247 276 288 339 160 190 224 238 216 231 206 240 229 250 244 231 247 278 224 227 290 224 254 272 188 261 264 248 202 222 202 226 270 215 284 259 223 158 190 321 192 174 279 185 279 186 334 213 258 311 253 302 250 381 263 270 267 334 370 284 283 175 233 263 262 368 220 258 286 292 274 275 229 335 224 249 213 255 224 292 246 300 321 300 222 280 218 195 244 345 352 266 233 211 225 258 315 247 286 168 308 304 184 235 176 270 218 278 175 383 218 148 194 121 301 210 186 270 270 226 110 212 174 296 213 269 232 268 207 218 187 336 239 284 200 249 230 270 162 257 292 241 264 293 138 287 305 241 273 339 231 291 264 274 243 293 271 220 262 239 222 242 246 351 246 255 275 231 289 254 179 232 221 196 241 212 222 178 153 338 295 259 198 280 186 207 213 206 264 295 255 210 257 234 188 290 326 195 236 226 250 255 185 250 285 242 142 281 284 316 298 315 334 177 160 367 199 295 226 233 175 167 166 337 246 255 239 333 277 303 291 210 323 232 291 245 275 228 255 244 244 256 184 301 173 317 198 342 257 265 200 219 285 249 334 275 296 261 173 200 257 247 263 206 239 301 255 225 184 197 164 282 184 275 221 277 238 235 301 287 266 250 199 316 255 323 286 277 271 270 218 173 229 212 244 227 247 246 258 243 288 211 209 350 207 212 282 204 259 282 350 179 290 269 242 207 242 212 245 288 309 218 264 260 221 250 280 189 237 267 253 250 224 297 285 279 280 167 242 228 244 246 277 357 338 308 292 238 259 305 233 328 254 276 303 247 252 236 296 272 175 386 263 269 295 350 217 290 262 211 219 206 270 304 278 237 294 317 265 307 279 255 236 254 261 328 151 279 260 240 326 282 300 279 214 219 255 338 257 192 206 262 230 284 340 248 277 291 264 312 289 252 251 274 213 283 337 178 251 316 221 314 257 187 266 206 290 268 219 247 234 194 222 326 210 203 259 324 270 264 232 252 254 193 263 225 231 253 316 384 266 178 354 196 244 316 310 269 214 268 379 253 233 283 409 279 214 173 198 236 346 230 237 279 289 288 291 268 300 200 356 269 279 180 257 210 203 300 220 178 287 133 233 261 343 269 220 272 141 342 286 209 267 259 177 295 257 226 241 249 230 197 240 201 265 158 194 211 185 198 363 260 318 197 267 202 176 266 212 252 238 174 184 212 247 176 190 231 288 349 245 259 248 277 242 195 266 245 270 267 328 244 336 190 152 354 236 230 326 177 248 191 282 278 261 276 225 206 278 285 281 193 240 213 254 325 319 297 214 240 222 179 210 292 310 237 205 261 187 231 209 265 232 282 293 282 294 249 237 257 200 238 198 382 203 389 363 236 274 254 215 315 279 190 280 243 218 252 181 306 224 293 191 215 240 197 184 190 293 199 227 237 258 296 344 295 193 257 198 126 234 239 316 200 303 147 391 288 144 320 229 263 255 143 194 264 246 350 201 300 286 210 209 244 256 223 241 203 199 250 285 276 182 202 228 287 248 284 227 257 223 175 217 318 330 332 253 250 218 248 268 210 247 293 275 257 259 166 319 178 292 312 283 276 228 178 152 253 212 215 265 226 290 261 255 195 232 298 354 265 178 294 335 269 287 206 296 275 242 200 138 271 300 289 316 169 255 242 222 257 216 211 205 283 216 231 282 263 223 224 180 216 131 153 224 316 221 272 266 327 246 221 193 231 248 207 222 323 285 315 372 272 298 268 289 262 284 259 302 280 275 286 382 150 250 165 184 289 254 234 237 226 278 197 339 352 297 187 166 288 259 277 311 252 229 270 267 225 246 179 175 237 172 245 267 247 213 304 268 247 151 238 255 215 283 262 224 373 222 210 340 257 172 291 223 175 296 140 224 221 250 298 323 202 182 157 280 271 263 241 258 219 288 230 271 209 231 266 195 360 166 218 205 233 254 204 266 344 286 283 347 235 209 208 215 290 243 264 284 237 312 222 248 289 234 154 195 214 288 237 200 284 256 260 221 198 187 203 297 300 285 170 276 312 197 249 206 249 375 274 268 182 283 299 277 265 205 243 234 253 277 316 246 293 228 192 267 190 326 215 264 272 236 230 331 322 299 303 242 359 311 231 211 226 264 275 177 249 290 277 216 296 207 260 287 277 257 205 249 162 301 261 242 188 262 248 190 179 217 295 274 203 264 256 198 259 272 196 262 296 222 260 278 268 244 313 335 309 259 255 228 245 282 161 254 224 321 283 255 259 283 218 248 290 262 280 226 196 219 349 273 234 322 214 351 261 204 333 308 307 173 293 249 265 304 180 226 233 218 258 343 263 217 201 211 215 324 248 254 260 284 272 197 240 252 227 217 185 216 264 367 331 241 265 273 351 201 152 251 266 243 273 220 373 356 149 254 186 224 224 265 243 284 198 303 250 229 221 231 218 250 251 271 288 272 247 253 247 223 177 304 227 206 345 264 145 251 252 221 281 157 213 148 212 269 269 201 267 292 196 186 269 335 303 237 269 190 281 319 272 245 239 249 228 304 324 316 290 215 256 215 170 251 319 268 171 248 218 223 260 302 195 315 289 241 256 233 243 229 191 294 372 202 220 181 281 271 263 195 319 231 243 249 252 267 219 188 333 328 294 208 250 244 244 249 242 235 301 335 305 310 304 148 215 189 146 290 335 184 212 272 290 246 248 272 150 250 230 278 270 211 285 278 177 262 339 219 219 256 220 240 221 184 266 261 279 176 370 257 276 207 389 273 300 185 310 231 217 272 294 303 265 231 234 297 267 222 319 251 214 246 228 292 285 267 158 264 297 307 209 235 266 243 221 273 244 270 225 298 277 273 269 234 272 247 255 353 293 263 225 304 215 221 237 254 253 298 320 391 207 321 231 192 270 275 288 251 266 168 257 259 300 327 285 92 317 324 322 223 288 240 216 140 287 370 222 219 266 215 306 209 266 182 319 219 230 247 221 293 292 309 271 307 238 199 203 257 265 294 272 208 301 256 254 327 235 187 266 232 250 251 222 307 238 257 268 233 211 286 334 237 298 319 263 298 274 343 279 329 198 170 273 245 258 205 157 213 218 258 209 237 293 133 280 211 248 219 213 296 261 286 319 290 190 203 218 234 272 210 286 217 202 228 312 227 198 250 225 202 210 306 310 212 279 330 297 152 183 303 344 261 240 239 212 233 188 288 337 231 158 193 226 233 217 241 256 240 235 227 216 247 328 193 256 380 301 321 195 295 184 266 231 279 215 208 238 165 354 287 193 237 312 296 281 268 298 220 238 257 205 238 205 299 291 227 234 261 254 189 274 300 305 275 225 144 191 304 226 281 148 289 291 236 208 269 249 304 226 310 182 277 215 309 226 190 315 259 265 235 278 225 288 286 226 349 262 248 171 225 214 396 252 296 266 292 185 270 199 324 276 166 263 260 206 161 347 261 237 306 186 255 218 311 304 221 234 364 342 275 258 240 193 284 224 246 244 259 297 319 258 277 115 208 254 221 292 222 332 150 272 275 206 251 307 341 222 287 243 293 251 318 291 196 262 218 231 264 277 208 268 283 268 256 234 277 284 209 222 209 320 344 264 238 287 242 270 253 223 203 298 209 263 267 233 247 178 248 231 284 254 379 269 297 305 264 198 163 254 291 284 276 245 306 214 213 234 181 319 268 280 324 270 197 219 163 262 222 277 297 258 205 266 344 261 186 209 292 235 353 242 261 197 302 275 325 311 330 374 308 299 268 262 230 199 257 303 181 177 212 211 259 250 363 231 241 255 254 249 340 193 283 260 324 259 248 268 237 227 232 252 275 294 294 343 327 202 287 218 175 276 278 306 238 218 251 207 291 214 186 301 180 264 209 277 278 206 234 299 222 205 230 262 245 207 238 235 189 243 250 231 286 173 319 260 168 267 220 230 260 241 148 291 259 276 157 317 258 172 255 329 252 204 223 235 216 128 254 286 284 273 275 201 230 225 220 195 423 266 253 316 235 334 215 179 221 245 270 230 293 233 273 319 277 251 191 219 222 269 198 268 264 291 310 223 284 319 205 348 356 241 188 244 286 256 315 259 262 263 261 170 214 198 261 276 289 330 248 323 232 194 234 239 239 291 231 278 246 181 215 257 304 189 259 266 222 276 293 249 412 271 307 253 243 299 165 262 223 326 190 243 380 317 233 322 176 272 299 231 192 236 242 317 296 208 273 199 212 292 170 189 221 280 219 293 270 201 282 264 271 198 212 218 219 202 150 272 201 260 265 244 298 254 255 204 226 307 236 259 339 235 344 266 298 212 198 314 262 273 293 228 311 271 236 238 134 235 203 302 150 312 223 238 212 217 251 222 248 173 231 211 284 234 271 265 219 226 282 222 260 296 220 238 317 302 256 234 218 252 228 343 218 313 263 293 264 275 241 247 272 262 302 227 342 209 295 218 277 313 301 213 292 263 304 201 238 305 214 228 253 239 263 269 306 242 350 312 299 219 272 233 251 260 308 211 284 256 260 233 233 224 268 242 196 257 286 238 202 311 223 223 241 217 195 233 221 308 228 184 358 234 298 252 237 288 222 230 265 240 238 208 251 288 200 321 307 302 200 197 223 216 285 281 190 240 301 226 226 271 222 229 177 260 257 235 282 221 199 184 310 180 251 313 194 179 260 312 282 286 302 309 242 360 305 261 240 202 294 264 204 281 194 237 301 222 119 194 297 260 198 248 186 311 228 237 184 192 262 330 175 265 308 225 344 268 272 119 299 275 261 218 270 306 252 313 226 320 237 360 275 272 307 245 208 284 231 255 283 288 349 210 210 238 274 239 237 232 245 330 265 206 334 285 170 201 206 264 208 158 222 188 273 274 321 253 284 339 229 387 242 313 301 267 289 194 188 274 293 304 284 272 198 230 278 287 209 224 334 287 298 312 220 199 259 195 212 266 292 230 235 257 210 229 231 262 169 227 220 227 192 223 228 221 226 227 353 227 243 253 186 191 274 204 230 257 214 245 255 260 235 365 218 164 241 391 252 137 280 253 283 275 317 258 218 300 226 252 184 295 213 203 271 224 217 308 248 268 223 278 279 313 223 264 243 243 365 292 234 314 114 304 200 328 278 213 199 270 231 376 204 217 291 194 210 269 234 263 299 216 241 214 282 317 207 212 269 182 292 195 216 315 367 216 259 242 286 278 242 275 293 224 238 185 321 290 254 244 263 212 123 322 405 173 227 210 162 164 323 236 236 152 240 221 223 168 306 305 232 298 282 250 231 245 214 196 220 267 206 249 276 241 235 225 200 361 315 187 194 277 146 204 197 225 247 141 277 251 297 290 204 250 305 185 222 244 274 307 251 213 290 321 342 209 217 270 215 171 224 268 287 269 208 255 205 259 257 202 256 264 317 285 159 164 218 227 230 229 146 295 299 220 229 219 226 223 247 281 233 195 179 227 379 303 267 306 290 202 260 251 360 293 254 249 206 334 276 210 303 287 263 276 344 272 229 269 299 169 201 244 276 266 337 207 208 214 292 234 209 200 256 156 239 218 213 277 246 344 296 236 241 270 345 230 229 230 217 238 245 231 231 376 263 305 334 201 274 349 175 236 246 274 218 337 215 312 376 248 294 287 159 337 411 257 284 276 283 275 156 244 249 313 224 257 153 238 249 287 238 300 198 249 232 288 261 234 269 259 266 281 218 159 237 186 291 262 242 344 316 299 300 287 290 284 268 303 245 252 214 163 231 293 295 253 94 211 262 273 195 253 259 196 298 255 345 289 296 290 279 331 278 207 179 242 183 240 269 165 236 283 304 184 158 243 285 261 267 233 260 320 182 312 284 303 269 262 184 358 211 282 233 281 171 253 239 217 281 235 245 231 181 309 211 219 271 214 209 233 256 285 252 355 241 291 312 193 165 302 300 236 289 238 263 278 237 219 310 243 211 327 221 262 287 291 187 216 416 327 250 251 245 220 242 183 202 291 269 330 237 244 368 283 220 237 228 194 267 236 186 274 160 366 195 249 305 290 197 252 230 248 223 238 284 276 206 275 164 233 223 308 275 224 247 368 288 276 196 262 288 284 315 300 227 259 337 317 245 254 235 209 253 210 182 323 372 187 180 289 202 271 228 209 238 211 236 310 277 236 247 209 230 229 285 321 262 320 208 223 352 350 331 195 284 266 260 287 271 274 255 355 343 230 170 231 285 201 99 270 191 213 309 240 262 253 254 259 282 233 242 312 250 226 244 301 235 231 152 220 283 200 231 176 216 324 273 296 271 177 213 296 282 303 313 260 229 270 229 313 266 279 337 193 276 374 283 224 299 261 264 236 323 193 138 227 293 227 321 245 172 357 237 296 204 241 298 193 277 408 299 240 187 248 201 205 231 241 236 252 81 216 335 71 264 271 230 265 211 286 317 245 135 295 275 235 338 274 184 190 262 279 285 194 231 242 282 336 264 210 304 241 264 319 305 262 284 273 334 316 212 251 188 216 283 296 254 265 348 242 284 323 308 220 159 193 149 199 238 253 333 230 261 271 207 234 243 192 282 236 228 267 280 221 251 265 271 254 294 253 263 292 208 180 271 224 271 151 250 303 210 288 255 238 263 288 269 249 295 191 234 173 238 206 301 197 276 265 222 329 249 232 309 218 249 256 273 329 255 241 234 193 245 328 132 271 234 222 239 303 332 262 159 219 260 154 333 264 207 253 321 274 319 229 124 284 223 275 222 276 236 246 235 301 262 229 186 323 261 259 258 291 288 258 270 278 254 319 335 262 285 278 177 211 167 306 252 268 344 258 264 284 211 161 266 294 235 171 222 286 246 179 227 293 298 275 255 240 313 215 308 260 297 265 268 171 392 287 313 171 167 331 212 243 207 224 276 316 198 206 222 250 259 244 226 233 247 294 262 209 232 199 292 253 288 301 234 198 234 237 224 230 301 248 281 205 330 263 247 249 298 186 235 263 278 260 271 215 159 159 299 304 291 338 246 240 377 187 267 213 228 200 131 270 266 284 258 228 312 346 298 258 338 304 281 183 216 232 171 172 288 296 251 205 276 247 247 228 257 313 287 213 344 243 196 272 308 325 225 228 276 210 286 316 264 311 252 281 245 250 287 250 265 292 254 314 304 186 218 201 237 270 259 295 156 320 260 280 268 243 259 297 118 165 238 229 329 203 267 314 316 224 319 257 189 245 253 237 266 223 262 236 319 152 182 292 234 220 270 240 266 262 241 239 290 215 357 302 250 261 111 299 252 208 252 223 287 202 325 282 276 266 286 253 282 265 259 351 180 308 267 302 216 234 207 225 164 357 275 254 269 221 324 181 362 181 348 239 299 219 268 224 252 244 299 274 252 237 245 279 217 270 239 328 322 179 222 207 227 240 349 238 262 215 281 223 282 181 221 230 284 158 286 343 385 342 243 319 234 299 301 210 228 186 205 221 241 322 315 315 281 259 198 237 262 254 217 166 248 261 337 212 219 300 259 267 322 255 259 236 242 214 194 174 331 208 254 188 214 297 232 306 379 216 198 314 318 276 249 252 213 246 188 270 283 214 191 186 240 243 254 214 282 199 217 298 219 210 198 224 265 181 280 233 193 243 275 232 302 181 297 305 357 232 332 252 197 245 353 270 220 208 272 242 243 240 173 298 236 151 160 287 229 317 210 300 213 279 300 307 290 235 237 254 225 130 256 323 237 204 280 219 202 324 308 314 188 376 166 193 351 269 301 245 174 310 254 155 262 270 227 323 286 290 212 209 135 269 254 221 237 238 259 301 278 273 271 285 321 327 227 254 240 260 314 157 340 250 224 244 233 314 207 330 279 216 275 205 202 259 342 249 263 287 308 323 239 299 261 251 218 346 289 150 261 265 162 280 245 280 315 125 265 210 282 252 305 246 125 292 353 196 314 208 246 239 199 273 301 268 322 262 354 245 214 294 276 252 254 354 238 213 168 254 288 260 333 235 348 262 326 355 264 298 187 284 269 268 272 357 221 216 295 203 282 253 293 266 254 229 252 219 312 252 321 195 282 166 255 237 222 142 236 219 207 249 258 156 308 147 197 251 316 239 251 238 249 233 266 182 229 268 283 271 342 224 264 235 247 255 326 177 316 272 237 264 245 289 312 250 270 282 262 284 213 179 215 288 216 185 314 255 264 214 294 318 257 291 284 252 165 227 285 228 335 247 150 276 182 313 165 177 261 244 217 329 222 175 283 338 253 277 205 237 279 278 272 258 224 260 269 260 318 259 252 299 288 259 220 131 246 262 266 222 189 300 171 293 240 337 294 345 225 214 322 250 337 241 279 199 260 247 257 272 176 227 237 265 260 304 301 319 316 226 353 300 206 324 219 282 207 182 193 215 249 320 272 293 229 226 193 255 197 286 256 256 151 339 228 221 213 229 242 233 179 200 248 258 211 336 255 292 278 262 228 248 203 197 223 241 297 211 249 261 181 223 263 296 242 282 216 298 313 245 255 282 249 238 278 252 268 274 330 258 264 240 257 271 200 219 247 199 186 344 267 203 282 258 271 269 237 118 169 176 276 208 241 192 205 248 326 281 244 290 251 253 275 280 282 293 300 284 134 262 196 235 220 227 316 238 273 270 261 288 206 202 233 262 231 453 164 252 276 215 254 173 291 290 259 304 331 271 228 312 307 261 240 138 278 233 329 244 283 216 267 296 186 232 228 247 220 279 322 217 295 176 229 350 220 240 259 320 258 319 149 272 298 206 289 173 228 283 208 325 289 228 289 292 242 336 253 259 233 272 272 248 299 151 338 324 148 308 244 275 294 288 294 276 228 336 281 175 289 235 299 244 289 284 287 259 266 256 208 235 161 227 162 277 242 301 194 270 275 323 202 175 236 147 269 262 221 155 268 363 278 264 222 422 360 235 271 220 212 228 242 186 253 283 192 323 254 227 284 258 158 212 276 261 226 338 244 259 217 268 229 279 249 245 229 196 176 247 262 258 232 234 291 277 227 195 221 254 233 278 221 179 353 299 191 254 188 288 341 354 191 266 268 315 290 176 234 245 227 209 249 277 198 266 270 232 297 267 212 281 265 203 258 270 306 297 346 280 306 241 274 347 235 201 333 289 260 203 259 226 312 243 236 230 220 245 279 283 397 317 219 327 227 256 234 305 211 178 341 343 302 143 300 234 379 347 266 255 374 197 275 254 241 252 210 263 328 256 259 296 292 297 254 286 194 234 230 254 203 266 227 275 222 343 294 221 213 264 250 286 217 245 246 293 245 302 216 339 170 203 237 253 236 259 182 246 170 251 242 309 319 326 338 264 213 191 235 330 209 117 316 234 207 223 272 259 243 264 311 249 244 231 244 240 207 271 332 337 187 247 260 283 346 253 262 244 305 369 247 270 247 287 347 208 337 197 251 284 229 261 170 360 286 230 260 193 303 234 197 301 326 206 227 303 256 235 191 194 246 317 339 295 123 230 324 241 192 243 316 204 284 301 178 207 209 154 259 319 276 273 268 271 247 246 226 188 149 208 311 248 172 252 220 246 246 209 326 243 386 325 461 223 303 285 205 244 313 317 257 281 283 317 257 216 286 254 333 227 207 334 251 306 287 245 339 245 290 228 152 254 206 254 276 226 272 295 168 280 234 269 235 294 260 268 206 254 226 316 277 322 300 292 152 237 289 233 282 227 208 308 283 240 284 215 197 268 316 208 212 212 168 223 224 192 210 178 283 284 193 220 237 220 274 283 246 240 312 198 202 224 98 234 218 286 269 292 283 252 290 214 228 322 219 204 217 280 219 344 302 315 250 172 227 212 278 262 246 270 181 309 240 258 213 214 283 347 279 267 293 342 209 266 283 291 219 243 165 253 278 209 218 187 172 217 255 223 269 307 330 351 311 271 253 190 353 245 307 260 288 271 230 270 297 318 235 264 226 280 252 220 194 190 328 331 228 246 269 192 227 329 240 272 203 287 266 214 230 237 275 210 143 298 325 225 282 289 196 315 309 270 235 255 265 194 292 252 304 245 245 271 254 287 294 213 322 202 243 257 271 324 254 206 257 214 271 330 211 275 252 214 274 186 189 196 298 264 385 246 173 196 200 262 263 239 243 264 181 281 203 336 277 166 274 377 137 356 331 187 262 307 289 239 271 298 178 295 270 353 256 274 295 287 307 294 163 244 195 308 219 341 195 284 234 240 208 155 305 318 288 224 161 244 192 317 329 229 259 266 199 282 278 173 228 296 179 278 205 200 241 197 236 215 253 203 205 284 259 177 214 251 245 265 224 210 274 211 218 250 213 280 258 276 249 293 264 235 142 220 227 185 363 281 224 215 252 288 248 163 340 273 196 170 137 324 269 254 158 325 298 246 176 340 239 236 190 203 178 223 219 314 252 243 305 273 263 289 258 351 218 244 266 236 209 181 255 182 200 329 261 272 163 177 279 191 211 274 251 280 284 320 392 356 262 225 200 190 263 217 225 222 342 163 225 287 240 308 292 269 226 290 200 294 270 230 280 317 352 244 252 243 296 206 216 319 293 327 246 231 283 233 245 303 252 270 110 272 233 186 305 277 276 261 299 235 247 222 226 275 194 247 204 284 321 200 184 262 273 219 204 254 254 243 192 271 234 203 168 286 298 273 308 310 246 266 266 185 184 281 257 228 342 236 300 221 294 208 272 274 173 344 243 214 283 316 292 268 280 285 180 259 199 306 339 221 264 305 359 262 269 253 167 303 212 237 248 204 206 268 259 277 187 229 293 198 342 287 358 444 262 303 249 240 274 295 243 262 268 250 331 219 334 254 331 205 180 234 191 272 322 306 275 328 204 231 360 272 324 244 360 266 303 251 229 307 202 296 288 166 216 233 360 135 285 201 196 230 238 280 155 279 308 257 262 274 298 277 268 257 290 211 297 328 314 271 371 187 328 153 273 305 229 285 197 272 262 255 228 269 291 154 309 255 158 258 275 231 242 287 268 253 275 378 167 240 235 245 177 224 195 271 234 242 291 195 229 252 286 278 272 176 198 332 358 290 238 249 244 166 251 274 235 221 201 249 232 340 220 272 266 238 213 305 255 294 251 252 275 215 242 268 218 246 273 292 164 227 298 243 321 254 253 264 281 180 278 254 249 275 388 265 266 230 213 261 299 275 207 290 240 235 271 224 201 233 282 266 229 264 291 178 313 357 246 144 316 204 240 317 311 318 267 226 229 342 220 287 320 250 217 300 299 198 200 268 304 245 248 311 210 265 267 308 388 231 230 284 220 345 228 212 249 285 228 210 270 213 246 303 199 175 203 259 229 185 291 304 317 319 146 274 276 255 166 273 237 165 245 259 154 250 225 284 297 253 226 227 149 233 283 329 258 285 251 202 235 218 206 249 237 251 240 249 261 148 333 268 230 345 242 318 252 303 175 215 253 195 224 282 180 122 276 290 199 314 242 209 258 212 324 216 304 214 276 300 275 212 292 268 271 321 236 229 275 189 244 321 246 240 266 234 208 275 196 240 285 193 275 262 247 295 263 280 227 256 267 229 209 213 240 283 266 146 234 175 291 314 184 290 269 235 252 174 246 180 310 236 239 308 306 242 260 211 296 297 295 271 261 193 184 242 277 203 259 208 200 225 264 333 222 214 286 244 252 237 186 190 243 272 216 319 255 284 167 212 218 211 224 229 236 204 235 216 338 226 412 260 266 256 306 182 289 303 254 305 224 351 268 201 254 225 341 233 179 236 213 197 210 246 280 252 351 301 203 246 174 207 354 186 270 318 287 203 212 219 164 249 320 366 294 197 319 286 182 226 328 288 292 220 228 247 238 369 142 229 222 283 234 247 305 353 177 236 285 314 189 224 254 240 331 226 277 189 186 243 320 223 304 230 205 282 261 233 248 194 343 287 222 324 180 292 249 221 261 204 299 284 184 299 228 236 177 322 263 252 234 302 256 274 287 264 218 307 253 300 290 218 235 263 220 250 158 316 303 217 304 208 212 162 294 260 237 313 369 287 272 262 133 325 255 187 344 294 254 168 176 221 333 238 179 165 194 234 236 207 220 237 258 267 220 236 232 194 249 333 204 238 273 216 291 315 252 264 186 214 183 277 256 250 310 206 333 237 319 307 241 196 314 249 253 218 259 233 198 272 236 277 174 224 258 168 375 204 273 161 224 251 313 273 220 274 225 329 227 226 232 294 333 240 232 247 206 284 204 202 251 244 207 249 221 213 262 239 264 269 223 214 385 303 210 208 313 351 229 300 275 191 230 288 128 293 306 190 325 192 205 276 247 185 289 318 330 271 276 216 210 202 326 257 288 276 277 381 222 220 290 245 192 224 314 329 312 309 204 332 258 350 253 212 276 234 320 298 250 265 207 145 204 245 192 313 303 175 210 151 281 190 297 305 266 232 238 216 238 312 264 228 265 240 257 256 305 296 279 263 237 219 226 306 301 208 271 244 269 211 287 246 255 328 298 211 325 252 240 235 188 115 142 279 305 191 243 284 268 230 232 245 305 259 326 271 328 219 222 251 361 255 224 296 288 314 226 227 239 15</t>
+  </si>
+  <si>
+    <t>MIE(0.422440919401253, 1.5502627453248086, -3.656526298464131e-31, 1.8182545966717023)</t>
+  </si>
+  <si>
+    <t>1 1 1 2 1 2 1 1 1 1 1 2 1 0 0 2 0 0 2 0 1 1 1 1 0 3 0 0 1 2 0 2 1 1 2 1 1 1 2 1 1 3 2 1 2 3 1 1 0 2 2 0 1 3 1 0 1 1 2 1 0 1 0 0 1 1 3 1 0 1 1 2 2 2 0 0 0 1 1 1 0 3 3 2 1 1 2 2 2 2 2 0 1 1 1 2 1 2 1 3 1 0 1 0 0 1 0 1 0 2 1 4 2 1 2 1 2 1 0 1 0 2 0 0 3 1 3 0 0 1 3 3 1 0 2 3 1 2 1 0 1 1 2 0 1 2 2 2 1 0 2 1 1 1 2 0 1 2 1 2 3 1 1 1 1 2 1 1 2 2 1 3 3 1 1 2 1 1 1 1 2 1 0 1 2 2 1 1 1 1 1 2 0 3 0 0 0 0 3 1 1 0 2 3 0 1 2 1 2 0 3 3 4 3 1 0 2 2 0 2 1 1 0 1 2 1 0 1 0 1 2 2 1 0 0 2 1 0 2 1 0 1 1 0 0 0 1 1 2 1 1 1 0 1 2 2 1 1 0 1 0 1 3 0 3 0 0 1 1 1 2 1 2 1 3 1 0 0 0 1 1 0 2 0 2 0 1 2 1 1 0 1 0 0 3 1 1 0 1 2 0 1 2 0 1 2 1 1 1 1 1 3 2 0 0 0 1 1 1 2 3 2 1 3 1 2 0 1 2 2 2 2 1 3 2 3 3 1 1 1 1 1 1 1 2 1 2 3 1 1 1 2 1 0 0 0 0 1 0 0 3 0 3 0 1 1 1 0 2 1 2 0 3 1 2 2 1 0 0 1 1 0 2 2 1 2 3 2 1 0 1 1 0 2 3 1 1 1 3 0 1 1 3 1 1 2 1 5 2 4 2 2 3 0 0 1 2 2 2 1 0 1 0 0 0 1 3 1 0 2 2 1 1 2 1 3 1 1 2 2 1 0 1 2 1 2 2 1 0 1 0 1 2 2 2 2 4 2 1 1 2 2 2 2 1 1 1 3 0 0 2 1 0 1 2 3 0 1 0 2 1 1 1 0 0 1 0 0 0 1 2 1 1 1 0 1 1 2 2 0 1 1 0 1 1 3 1 2 1 2 2 1 2 2 1 0 1 1 2 0 2 2 2 3 3 3 1 0 1 3 1 3 1 1 0 0 1 1 3 1 1 2 2 0 1 1 0 1 2 1 3 2 2 2 2 1 1 1 3 0 2 1 1 1 0 0 1 3 0 1 0 0 0 0 1 1 3 0 3 0 1 1 1 2 0 2 1 1 1 0 2 1 2 0 3 1 2 2 1 1 2 0 1 3 2 1 1 1 2 3 4 2 1 1 3 3 1 4 2 0 3 3 1 1 1 1 1 5 1 2 1 3 1 1 1 1 2 1 1 0 3 2 1 2 2 1 0 2 2 4 0 2 2 1 0 0 1 2 1 1 2 2 0 2 2 2 1 2 3 1 2 0 2 1 1 2 1 3 2 5 1 2 3 3 1 2 1 2 0 0 2 1 0 2 0 1 1 1 4 2 1 1 2 0 1 0 1 3 0 2 1 0 1 2 2 3 0 2 0 1 2 0 1 2 1 3 2 0 2 2 0 2 1 1 0 2 1 1 1 1 1 2 5 4 1 2 3 1 2 1 1 0 1 2 1 1 2 1 1 3 2 2 0 0 2 1 2 1 0 1 1 1 1 2 2 3 1 1 0 1 2 0 1 3 2 2 2 0 3 2 1 2 1 1 1 1 2 0 1 1 3 1 2 2 3 0 3 1 2 1 1 1 1 0 0 0 0 0 1 1 2 2 2 0 0 0 2 1 1 2 0 2 2 2 0 3 1 1 3 2 1 3 3 0 1 1 2 1 4 2 0 1 1 3 3 0 1 1 3 1 1 0 1 1 2 1 0 1 3 2 2 2 0 3 1 1 2 1 0 1 0 3 0 2 1 1 2 1 2 2 2 1 0 1 0 1 2 3 2 3 2 1 1 1 1 2 1 0 0 2 2 1 1 3 0 1 2 1 0 1 2 3 1 1 0 2 0 1 1 3 2 2 2 1 1 1 2 1 0 1 1 3 1 2 3 2 1 0 1 0 0 1 0 1 2 0 0 1 0 1 1 0 2 0 1 3 0 0 1 0 3 2 2 4 1 3 0 1 3 2 3 1 1 2 1 1 1 2 0 2 2 3 0 2 1 0 1 1 1 1 1 2 2 2 1 1 1 3 1 0 1 1 0 0 1 0 2 1 1 1 0 3 1 0 1 0 1 1 2 2 2 0 1 1 0 1 1 1 1 2 1 3 3 1 1 1 0 1 0 4 1 4 2 0 1 0 1 3 2 2 1 1 1 4 1 1 0 3 1 4 2 1 1 2 1 0 2 2 0 0 2 1 2 2 1 1 3 0 1 1 1 0 2 2 1 3 1 2 3 0 0 1 0 1 0 3 2 0 1 1 2 2 1 2 0 2 0 2 2 0 2 1 0 2 1 1 2 1 2 1 1 1 2 2 1 1 1 1 1 1 1 0 0 0 1 0 0 0 3 1 0 2 0 0 2 0 1 2 2 1 1 2 1 0 1 2 2 2 1 3 2 2 1 2 1 1 2 2 1 1 2 1 2 1 2 1 0 2 4 2 1 2 1 2 1 0 0 1 2 1 2 0 2 1 0 1 2 3 1 3 1 0 0 2 1 1 1 0 0 2 3 2 2 2 2 1 3 2 1 0 2 1 2 0 1 1 3 0 2 1 0 1 0 2 1 1 1 0 1 0 1 1 1 3 1 1 0 2 2 0 1 1 1 0 1 3 2 3 0 1 1 1 0 1 1 0 1 2 2 1 1 0 1 0 2 1 0 1 0 0 0 1 1 3 3 1 1 2 1 1 1 1 0 1 1 1 2 2 1 1 1 1 2 1 1 2 0 3 2 1 2 1 1 0 2 1 0 1 0 1 0 3 1 2 0 0 1 2 0 2 3 0 1 2 1 2 2 0 3 2 2 2 0 1 0 1 1 2 0 1 2 4 1 3 2 2 2 1 1 0 2 2 1 2 1 0 1 1 1 0 0 1 2 0 2 1 2 0 2 2 2 2 1 2 2 3 1 1 2 2 1 0 0 1 1 1 1 2 1 1 2 0 1 0 1 1 1 3 1 4 2 1 0 1 2 1 0 3 2 1 0 1 1 2 1 0 0 1 1 0 2 2 2 2 0 1 0 1 3 2 1 3 0 3 2 1 4 2 1 2 0 1 1 1 1 0 0 1 2 0 1 1 2 0 2 0 1 1 1 3 0 2 1 2 2 1 2 2 1 1 0 2 0 2 1 1 2 2 1 3 1 1 1 1 1 1 1 2 2 1 0 1 1 1 3 2 1 2 1 0 0 1 2 0 1 1 1 0 3 0 3 1 2 2 3 2 2 2 2 1 1 0 0 3 1 1 1 0 3 1 1 1 1 1 2 2 1 2 0 2 2 1 1 2 1 2 1 1 1 2 3 1 2 1 1 0 3 1 1 2 1 2 1 1 1 1 1 1 3 2 0 1 3 0 0 0 3 0 0 1 1 2 1 4 0 2 2 1 3 0 2 1 1 0 1 1 1 3 1 2 1 1 2 1 1 0 2 2 2 1 3 1 1 2 1 1 3 3 1 2 0 0 1 3 2 1 2 1 2 1 0 1 2 2 1 1 0 0 0 0 1 2 1 1 1 1 2 1 0 1 2 2 0 0 1 1 2 1 2 0 1 3 0 4 2 0 1 3 1 1 2 1 1 2 2 1 2 1 0 1 0 1 1 2 1 0 0 0 2 2 2 3 0 1 1 2 0 1 0 2 1 1 1 2 0 0 1 2 1 1 0 0 2 2 1 1 3 1 2 4 0 1 2 1 1 1 2 2 1 2 0 2 0 0 1 1 0 0 0 0 0 1 0 1 2 2 1 2 2 1 1 1 4 0 2 2 0 0 3 1 1 2 2 2 2 2 2 2 0 2 1 2 1 2 1 0 2 0 1 1 0 0 0 1 1 2 3 2 0 2 1 1 2 1 1 1 2 0 0 2 1 2 1 3 1 0 2 2 2 0 1 1 0 0 2 1 0 2 0 1 1 1 1 1 0 1 1 1 3 0 2 1 2 2 0 0 2 1 2 1 1 1 0 2 1 2 1 0 2 1 0 1 3 2 2 3 1 1 2 2 2 2 1 0 2 2 1 0 1 1 1 0 0 1 1 0 2 0 2 1 1 1 1 0 2 2 2 0 1 0 2 3 0 2 2 2 1 2 2 2 2 1 0 1 0 1 2 2 1 3 0 1 1 2 3 2 3 2 1 2 2 1 1 4 1 2 0 1 1 1 1 2 3 1 2 0 0 2 0 1 1 1 0 1 3 1 3 1 1 2 0 2 0 2 0 2 1 1 1 0 1 1 1 1 2 0 2 1 2 0 3 1 1 3 0 0 2 0 1 2 2 2 1 0 1 2 0 0 0 2 0 0 0 1 2 1 2 2 1 1 2 1 2 1 2 3 1 0 2 2 2 0 1 1 3 1 2 1 0 0 2 2 0 1 2 2 0 1 0 1 1 2 3 2 0 1 1 0 3 1 2 1 1 2 2 2 1 1 0 2 1 1 1 3 1 2 2 2 0 1 0 1 0 1 1 1 1 2 2 1 2 1 3 1 1 1 2 3 1 1 1 1 1 0 0 0 2 2 1 0 2 1 4 1 2 1 0 1 1 1 1 1 1 2 0 1 0 1 1 2 0 1 3 0 2 3 1 0 1 3 1 2 4 1 1 2 2 0 1 2 1 0 1 0 2 1 2 1 1 1 1 1 2 1 2 1 2 1 2 1 0 1 2 2 1 2 1 3 2 0 0 0 1 1 0 1 1 2 1 0 1 2 2 1 1 2 1 2 0 4 1 0 2 1 0 1 3 3 3 1 1 0 2 1 1 0 2 1 1 2 1 2 1 0 2 2 2 4 2 1 0 1 0 1 0 2 1 0 1 1 0 1 1 3 3 2 2 1 0 0 1 0 1 1 1 1 4 1 1 1 2 1 2 1 0 1 1 3 4 3 1 3 2 2 1 1 1 0 1 0 1 2 3 2 0 1 3 2 2 2 0 2 1 2 1 2 1 2 1 3 1 2 1 3 1 1 1 1 1 1 1 2 0 1 1 1 3 0 0 1 3 3 1 1 1 1 1 1 1 1 1 1 2 0 1 3 1 1 2 1 3 1 2 0 1 0 1 1 2 2 1 1 3 1 1 1 1 2 1 2 3 1 0 1 0 2 0 0 1 2 2 2 1 1 0 1 1 2 2 2 0 2 1 1 1 2 0 2 1 1 2 1 0 1 1 1 2 1 1 2 1 2 1 1 1 2 1 1 0 2 2 0 0 2 1 3 1 0 0 1 1 1 2 1 2 0 1 1 0 0 2 3 1 1 2 2 0 2 2 0 1 0 3 1 0 2 1 1 1 0 2 1 2 1 2 2 2 2 1 2 0 0 3 1 3 2 0 0 0 1 2 0 1 1 1 0 1 2 1 2 1 1 0 2 1 2 1 0 1 0 2 2 3 3 1 1 3 1 2 1 0 2 0 2 3 0 1 0 1 1 2 1 1 1 2 0 0 2 0 0 2 1 0 3 2 0 2 0 1 3 0 3 1 1 1 2 2 1 0 1 1 1 2 1 1 1 2 3 1 1 0 0 3 1 0 1 1 0 0 2 2 1 3 2 3 0 4 0 2 1 1 1 2 1 3 2 1 1 2 3 0 1 2 2 2 0 2 1 0 1 1 1 1 2 1 2 0 2 0 1 1 0 2 0 1 0 2 0 0 0 0 2 1 2 0 2 1 1 1 1 0 3 1 0 1 1 0 0 1 2 2 0 1 2 1 0 2 2 1 2 1 1 0 1 1 1 0 2 0 1 1 0 1 0 1 1 2 0 2 1 1 2 2 1 0 0 2 1 1 2 1 1 2 1 0 2 2 0 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 0 1 2 2 1 1 1 2 1 0 1 0 1 1 3 3 2 2 2 1 1 0 3 1 1 2 1 1 1 1 1 2 2 2 1 0 2 2 3 1 1 1 3 1 2 0 2 1 0 2 0 1 2 2 1 2 2 0 1 0 1 0 1 2 0 1 1 0 1 1 0 0 0 2 2 1 0 0 1 1 2 1 0 1 0 1 1 0 3 0 2 1 1 1 1 2 0 1 1 1 2 1 1 2 3 1 3 1 1 1 1 3 1 1 0 0 2 1 1 1 1 2 1 1 2 1 0 2 1 1 0 2 0 2 1 0 2 3 3 0 1 1 2 0 1 1 3 3 0 1 1 1 1 5 1 1 1 2 0 0 2 2 1 0 2 2 1 2 2 2 1 1 0 2 2 2 0 0 2 0 2 1 0 1 2 1 0 2 1 2 2 2 1 2 1 1 1 0 1 0 2 0 1 1 3 0 1 1 2 2 1 3 2 2 0 0 1 3 1 1 1 1 1 0 1 2 1 1 1 0 0 1 4 1 2 1 1 1 0 0 3 1 3 1 0 3 1 0 0 0 0 1 3 1 1 2 1 0 2 2 0 2 1 4 1 1 0 2 0 2 0 1 1 2 0 1 2 1 0 2 3 1 1 1 1 1 2 1 1 1 0 3 3 1 1 3 0 1 2 3 1 2 1 1 0 1 1 2 2 3 3 1 1 1 2 1 1 1 1 1 2 1 0 3 1 1 1 2 1 2 4 2 0 1 2 2 2 2 1 1 0 1 0 0 0 2 1 0 2 1 3 0 0 1 1 1 1 0 2 2 0 1 2 4 1 2 2 2 1 0 1 1 2 2 0 0 1 1 2 0 0 0 2 1 1 0 1 2 1 1 2 0 1 2 1 1 2 1 0 0 0 2 1 0 2 1 0 1 0 1 1 1 1 3 1 2 2 4 1 0 0 1 2 3 1 3 3 4 0 0 2 3 3 1 2 1 1 4 0 1 0 1 0 2 3 2 0 2 0 0 1 2 1 1 1 0 2 1 0 2 1 0 2 1 0 1 2 0 2 2 0 1 1 0 0 0 0 2 2 1 0 1 1 2 2 0 2 2 0 0 1 0 0 0 0 1 1 2 3 0 2 2 0 3 1 0 1 2 1 3 0 0 3 1 1 0 1 1 3 1 4 1 2 2 1 1 1 1 1 1 0 0 2 2 2 1 2 1 1 2 2 1 1 2 0 0 1 2 1 2 3 1 1 2 3 2 0 1 1 1 2 1 4 3 2 1 1 3 2 1 0 1 0 1 1 0 1 1 0 1 1 0 2 1 0 1 0 1 2 1 2 1 1 1 2 1 1 4 2 2 1 1 3 1 2 0 2 3 1 0 1 0 0 0 1 1 1 2 1 1 3 1 3 0 1 0 2 0 1 2 2 1 2 2 1 1 1 0 1 1 3 1 2 0 3 2 1 1 0 3 2 0 0 0 0 1 0 1 2 1 2 1 0 0 0 1 1 2 1 3 1 3 1 2 1 2 1 0 1 1 1 1 1 1 2 1 1 0 3 2 3 3 0 1 1 0 1 2 1 0 0 1 1 2 1 0 0 1 1 0 0 2 2 1 1 1 1 1 1 0 2 1 1 0 3 1 3 3 2 2 2 2 1 1 1 3 2 2 1 1 0 2 0 2 0 0 2 0 0 2 2 3 3 1 1 1 2 2 2 1 1 1 1 3 1 0 2 1 1 0 0 1 2 0 0 2 0 1 1 0 1 3 2 1 1 0 0 1 0 1 3 1 0 4 1 1 1 3 0 0 0 2 2 3 1 2 2 1 0 1 0 2 1 2 2 1 2 0 0 1 0 1 0 1 1 1 2 0 1 1 1 1 2 2 1 1 3 3 0 1 0 1 0 0 1 3 1 2 0 1 0 2 1 2 2 1 1 0 2 0 3 3 1 2 2 1 3 1 1 2 2 0 0 1 1 1 2 2 1 1 2 1 1 0 0 1 1 1 2 1 1 2 1 2 2 2 3 1 2 1 1 3 2 0 2 1 1 1 1 0 0 2 1 2 1 0 0 3 1 1 1 0 0 2 0 2 2 1 0 2 0 1 2 2 0 1 0 2 1 0 1 2 1 1 1 0 3 2 1 1 0 1 1 1 0 3 0 2 1 0 1 1 0 0 1 0 3 1 3 0 0 4 0 2 2 2 1 0 2 0 1 2 1 3 1 1 2 3 1 0 0 0 1 0 1 1 1 1 1 1 1 1 2 1 2 1 2 1 2 1 2 2 2 0 0 1 2 1 1 3 2 1 1 2 0 2 2 1 1 2 1 3 0 0 0 1 1 1 0 1 2 1 2 1 1 1 1 1 2 1 4 1 0 0 1 3 2 1 0 1 2 1 1 1 0 1 1 2 2 0 1 2 3 0 0 3 3 1 0 2 1 2 2 2 2 1 2 1 3 2 2 1 0 3 0 1 1 2 0 2 3 2 2 2 0 1 1 2 4 1 2 1 1 1 2 0 2 1 1 1 1 1 1 1 2 3 3 1 0 2 0 0 1 2 1 3 1 2 1 0 1 0 2 3 2 2 2 2 1 1 2 2 1 2 0 1 0 1 2 2 2 1 3 1 1 1 2 0 0 1 0 2 1 1 3 2 1 1 3 1 2 3 3 1 1 2 1 1 1 1 1 2 1 0 3 1 0 1 3 3 1 1 0 2 1 3 3 3 2 2 0 1 0 2 1 1 1 1 0 0 2 2 2 0 1 2 1 1 1 0 1 4 2 0 1 5 1 1 2 1 2 1 2 2 1 1 1 0 2 2 3 0 2 1 1 1 3 3 1 0 1 3 0 1 2 0 1 1 0 0 2 2 2 1 1 2 2 2 1 1 1 2 2 1 3 0 2 0 2 1 0 2 2 0 2 1 0 2 2 0 0 1 3 0 2 1 3 1 1 3 2 2 1 5 3 0 1 0 2 2 1 2 2 1 0 2 1 2 1 0 1 0 2 1 3 1 0 2 2 2 1 1 2 1 2 1 1 1 2 0 1 1 0 0 1 1 1 1 3 1 4 0 2 0 1 1 1 1 0 3 1 2 0 2 2 0 2 0 1 0 1 1 1 0 4 0 2 1 1 1 0 2 2 2 0 1 0 0 2 2 0 0 2 0 2 1 2 1 1 1 2 2 1 1 3 1 1 2 1 0 2 0 0 1 1 1 1 2 2 1 0 0 0 2 0 2 1 2 3 2 2 2 0 2 0 3 0 1 1 2 2 0 3 2 2 1 3 1 3 1 1 3 3 1 1 0 0 2 1 1 2 2 0 2 2 2 2 0 1 0 2 0 2 2 0 0 0 1 0 3 1 1 1 2 3 1 1 1 0 3 0 1 1 2 0 1 2 0 0 1 2 0 0 2 2 0 1 2 1 2 1 1 2 1 2 1 1 2 0 0 0 0 1 1 1 1 1 2 1 0 1 2 2 0 2 1 3 3 1 1 1 1 1 2 1 1 2 1 2 2 2 1 0 3 0 0 0 1 2 2 2 1 0 0 1 3 2 2 3 2 2 2 1 1 1 2 1 1 1 2 2 0 1 1 1 3 2 2 3 2 0 1 2 2 2 4 1 2 0 3 3 2 2 3 3 4 0 0 3 1 0 1 2 1 1 1 1 2 1 4 1 1 0 1 1 3 1 3 1 3 3 0 2 0 0 1 1 1 0 1 3 3 1 2 2 1 0 0 3 1 3 1 1 1 2 1 3 1 2 0 3 2 0 1 1 1 0 1 2 1 1 2 2 1 1 0 1 3 1 2 1 1 1 2 0 0 1 0 1 1 1 3 2 1 0 3 2 1 0 0 1 2 1 2 2 2 2 1 0 0 2 2 1 3 2 0 1 2 2 1 0 1 0 0 1 1 3 3 1 1 2 0 2 2 1 0 1 3 1 1 1 1 1 2 4 5 1 1 0 1 1 1 2 1 1 0 0 1 0 3 0 1 2 1 3 3 0 1 2 2 2 2 0 2 3 1 0 2 1 1 2 2 0 0 0 5 2 1 1 1 3 0 0 0 3 2 0 1 3 2 3 2 2 1 3 3 2 3 3 1 2 2 3 1 1 0 1 0 2 3 1 2 1 2 0 2 1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 1 0 2 2 3 1 3 2 1 1 0 0 1 1 1 3 0 3 1 0 1 0 1 1 1 1 1 1 1 2 2 3 1 2 1 2 3 2 1 0 2 3 1 2 4 0 0 1 1 3 1 1 1 2 2 2 2 1 2 1 2 2 0 0 0 1 1 2 0 1 1 0 2 1 1 2 2 2 1 1 2 0 1 2 0 1 1 1 1 0 1 1 2 0 1 0 1 0 1 2 1 1 0 2 1 0 1 2 3 1 0 2 2 1 2 2 1 1 1 1 2 1 2 3 2 2 2 1 1 2 0 2 1 0 2 1 1 0 2 2 1 1 2 1 2 3 1 0 2 1 0 0 1 0 1 0 3 1 0 1 0 1 0 5 2 3 1 1 1 2 0 3 2 2 2 2 2 1 1 1 0 1 0 2 0 0 1 2 1 0 2 1 1 1 1 0 2 0 1 3 1 1 2 2 1 2 1 2 2 2 0 2 1 1 1 1 1 2 1 1 1 0 3 1 1 1 0 2 0 2 0 1 0 1 0 0 0 0 2 2 1 3 2 2 1 2 0 2 1 1 2 2 2 1 0 3 3 1 2 1 2 2 3 1 1 1 1 1 0 1 3 2 1 3 1 2 1 1 3 1 2 4 2 3 1 0 2 3 0 1 0 3 1 2 1 0 2 1 1 1 1 2 2 1 1 2 1 0 1 1 1 1 0 1 1 2 0 1 1 1 0 0 1 0 3 1 0 2 0 1 1 2 1 2 0 1 1 1 2 2 0 1 1 0 2 3 2 0 2 0 1 1 1 0 2 1 1 1 3 1 3 1 3 1 4 0 1 0 1 1 1 1 1 0 1 2 1 1 2 0 1 1 0 1 2 1 2 1 1 0 1 0 3 1 2 1 0 0 2 1 1 1 0 1 1 2 2 2 1 1 0 2 0 0 4 4 1 0 1 0 0 1 0 1 1 1 1 3 0 4 2 3 3 2 1 1 1 2 0 3 3 2 0 2 1 1 1 0 0 1 0 2 1 1 1 0 2 2 0 3 1 1 1 1 0 0 0 3 3 0 0 2 2 1 0 1 2 2 2 0 1 2 0 2 0 2 1 0 1 2 0 2 0 1 1 0 0 0 1 0 0 0 1 2 0 0 1 2 1 1 1 3 0 0 2 1 0 2 3 2 1 3 2 1 2 4 1 0 2 2 1 1 1 1 3 2 0 0 3 1 0 0 1 0 1 2 1 1 0 1 1 1 2 0 2 1 0 1 1 0 1 0 2 1 0 3 2 1 2 0 0 0 2 0 0 2 1 3 3 2 2 0 0 2 1 1 1 1 1 2 1 0 2 0 3 2 1 1 3 2 2 0 1 1 1 0 0 0 2 1 2 3 2 2 1 2 1 2 1 2 1 0 2 1 2 0 1 2 2 1 2 3 3 2 2 1 1 1 0 1 1 1 0 2 0 2 0 1 2 2 2 0 1 1 1 2 1 3 2 2 2 2 4 0 0 0 2 0 1 1 1 2 1 1 2 0 1 4 1 2 2 2 2 0 2 1 2 1 2 0 1 0 4 1 2 0 0 1 0 1 1 1 1 2 0 1 0 1 1 0 2 3 1 2 1 3 1 1 1 0 2 1 2 1 2 1 2 1 1 3 2 1 2 1 1 1 2 1 2 4 2 1 0 1 1 1 0 0 2 2 2 1 1 2 1 1 0 1 2 2 1 2 1 2 2 2 2 2 1 2 0 1 0 0 1 2 2 1 1 1 1 1 2 2 2 2 4 3 1 2 1 3 2 2 3 1 2 2 1 3 1 1 0 2 0 1 3 3 1 0 1 0 0 0 1 0 0 1 1 1 1 1 0 1 2 1 2 0 1 2 1 4 2 4 0 1 0 0 1 1 0 3 3 3 1 1 2 1 1 1 1 2 2 0 0 2 2 2 1 2 1 1 2 1 1 1 3 0 0 0 0 3 2 2 2 1 1 1 1 1 0 1 2 2 0 3 1 2 1 3 2 4 1 3 0 1 3 4 1 2 1 1 0 4 0 1 1 1 0 2 1 0 2 1 2 1 0 2 1 2 3 1 0 0 3 1 1 1 1 1 2 0 1 3 1 3 1 2 2 1 2 2 3 0 2 1 0 3 2 1 1 3 1 2 1 2 1 2 0 2 0 1 0 1 0 1 0 1 3 3 2 1 1 2 0 1 1 1 3 3 1 1 0 1 0 0 2 0 1 1 2 2 0 1 2 0 2 1 1 2 1 0 0 1 2 0 0 0 1 0 2 2 2 2 1 1 1 2 0 1 1 0 2 3 1 1 2 0 1 3 1 1 0 1 1 2 0 0 1 1 4 1 4 0 1 1 0 0 4 1 0 2 1 1 1 1 3 1 1 3 3 1 3 0 0 2 0 3 1 1 2 1 2 2 1 1 0 0 1 2 1 1 1 2 1 1 1 1 3 2 1 0 0 3 1 0 2 2 1 0 2 2 2 2 1 2 2 3 0 0 3 1 0 0 0 1 2 0 1 0 1 1 1 2 1 2 0 2 2 0 0 2 2 2 1 1 0 5 2 2 0 1 3 0 1 1 2 1 3 0 1 2 1 1 1 0 0 1 2 0 0 0 0 1 1 1 1 2 2 1 1 1 1 0 1 2 2 3 1 0 1 1 1 2 2 3 0 1 2 1 1 2 2 4 1 2 1 2 1 3 1 2 0 0 1 1 0 1 2 1 3 2 2 4 2 1 2 1 2 1 3 5 1 2 2 2 3 1 0 0 2 2 0 2 1 2 1 0 2 0 3 3 1 1 2 1 1 1 1 0 0 2 2 3 1 1 2 2 1 0 0 1 1 1 3 1 2 1 1 0 1 2 2 1 1 1 2 3 1 2 3 2 2 1 2 0 3 1 0 1 2 2 2 2 1 1 1 1 0 2 2 4 1 1 1 3 1 1 4 1 1 0 1 3 2 2 1 3 1 1 2 2 4 3 1 2 2 2 2 1 2 0 3 1 1 1 0 0 2 0 1 0 1 2 1 2 1 1 1 2 0 3 2 2 1 2 2 2 2 0 1 1 3 0 2 1 2 2 0 1 2 1 0 1 2 0 0 0 1 2 1 2 0 3 1 0 0 1 1 0 1 1 1 2 1 0 2 2 3 0 2 0 1 1 2 0 1 1 0 1 3 1 2 1 1 0 0 0 2 0 1 1 1 1 0 3 1 2 1 2 1 2 2 4 0 3 3 1 3 2 1 0 2 1 1 3 2 1 0 1 3 1 0 2 0 1 2 1 2 0 0 1 1 1 0 1 1 1 3 3 1 3 0 3 2 3 1 2 3 3 1 1 2 2 1 0 0 0 0 0 1 2 2 0 1 2 1 0 1 2 2 5 1 3 2 2 0 3 1 3 0 1 2 0 1 1 1 0 2 1 2 5 1 3 0 0 2 1 0 1 1 2 2 1 0 1 1 0 3 3 0 2 2 0 1 2 2 3 1 3 2 2 0 0 4 2 1 4 1 0 0 1 1 3 3 3 0 2 0 2 1 0 0 1 3 2 2 0 2 0 2 1 2 1 1 1 1 1 3 1 2 1 0 3 0 1 3 2 0 0 2 2 0 1 1 0 0 0 2 2 1 3 1 3 1 0 1 1 3 1 1 3 1 0 2 2 0 1 0 2 2 1 1 1 2 0 4 2 1 2 1 0 0 2 0 1 0 2 0 1 0 2 0 1 0 3 1 1 2 2 3 1 1 2 0 1 1 1 0 2 1 1 2 2 1 0 0 1 1 0 0 1 1 2 0 2 1 2 0 2 1 1 2 1 2 2 2 0 1 3 2 3 1 1 1 2 1 1 2 0 1 1 1 1 1 0 1 2 1 1 1 1 1 3 1 1 1 1 3 2 2 0 1 1 1 1 2 1 0 1 2 2 1 2 0 1 2 1 2 0 1 1 1 4 0 0 1 2 1 2 0 1 2 0 2 1 1 0 1 1 1 3 1 1 2 2 1 2 1 1 1 2 0 1 0 0 1 2 2 2 2 4 1 1 1 3 2 1 1 1 1 2 0 1 1 0 1 1 0 1 1 2 1 1 1 2 1 1 1 2 2 1 0 1 2 1 1 1 2 0 2 1 2 1 2 1 0 2 0 0 0 2 0 2 1 0 1 1 2 2 2 0 1 2 1 1 0 2 1 1 2 0 1 2 0 2 1 1 1 1 1 0 0 0 1 2 1 2 1 1 0 0 0 1 1 2 1 3 2 0 1 2 2 3 3 1 2 1 2 1 0 2 2 0 2 2 1 0 2 1 1 0 1 0 1 0 1 1 2 2 2 1 2 1 1 3 0 3 2 1 3 2 2 0 1 1 0 3 0 1 0 1 2 3 1 0 3 1 2 1 3 1 1 1 1 1 0 0 2 1 4 1 2 2 1 0 2 1 0 1 1 1 2 0 4 4 1 0 1 2 2 1 0 1 2 1 1 1 0 1 3 0 2 0 2 1 2 0 2 3 2 2 0 1 1 2 2 1 1 2 1 0 2 1 0 1 1 0 1 0 1 3 2 0 3 0 0 1 1 2 1 1 0 3 2 0 3 0 2 1 0 4 3 1 0 2 1 0 2 0 1 1 2 2 1 1 1 2 2 2 3 2 2 1 0 0 0 2 2 3 1 0 2 0 1 0 0 1 1 2 3 0 0 0 2 1 1 2 0 1 1 0 2 0 1 1 2 2 1 1 0 2 0 0 2 0 1 3 1 2 1 1 2 1 0 0 1 2 1 1 2 2 2 1 0 3 1 1 0 0 0 2 3 2 1 1 1 2 3 0 2 1 1 1 1 1 1 2 1 1 1 0 1 2 5 1 0 1 3 3 2 2 2 2 1 1 0 0 0 0 1 0 1 2 1 4 2 2 1 1 1 1 0 2 2 2 0 3 2 1 1 1 0 1 1 1 0 1 2 2 0 1 3 1 1 0 1 1 3 0 0 1 1 2 3 3 2 2 1 3 1 2 0 0 1 1 2 2 0 2 0 1 1 0 1 1 0 1 3 1 4 0 2 0 0 2 3 2 1 1 0 2 0 2 3 3 0 1 0 2 1 3 2 2 1 0 1 2 1 2 0 1 2 0 2 1 1 1 2 2 1 3 0 1 2 2 0 0 1 1 3 0 2 2 1 1 1 1 0 2 0 0 2 1 2 3 0 1 2 1 0 2 2 1 3 1 1 0 2 1 1 4 1 1 2 3 2 1 3 0 2 2 0 1 1 2 2 0 2 1 1 2 1 1 3 0 3 2 0 1 2 1 0 1 0 3 2 0 2 0 0 1 2 0 1 1 2 2 1 0 3 1 2 2 3 2 1 1 1 1 1 2 1 0 0 1 2 1 2 1 1 2 3 2 0 1 0 0 1 1 1 0 2 0 0 2 0 3 2 1 1 3 0 1 1 0 1 1 2 1 1 0 2 1 2 1 2 2 1 2 3 2 3 2 2 1 0 0 1 0 1 1 1 2 3 1 1 1 0 1 1 3 2 2 1 2 2 1 2 0 0 2 2 1 2 1 1 1 0 2 0 2 1 1 2 0 2 1 2 3 2 2 1 2 2 3 1 1 2 1 0 0 1 0 0 1 1 1 1 1 1 0 2 1 1 2 0 2 3 2 1 1 1 0 0 1 2 0 0 4 1 0 4 0 2 3 1 1 0 2 0 1 1 1 1 2 2 1 0 0 0 1 0 2 1 2 3 2 1 1 2 1 1 2 1 3 2 0 1 2 0 4 1 1 3 1 1 1 2 1 1 0 0 2 2 2 1 3 2 1 3 2 0 2 2 1 3 3 3 1 2 0 2 1 0 3 2 2 1 1 4 1 2 2 1 1 1 0 1 1 1 3 3 0 1 0 1 0 2 0 1 1 0 1 2 1 1 1 2 1 1 2 1 1 2 3 2 1 1 2 3 2 0 1 1 2 0 0 2 0 0 1 1 0 0 1 0 2 3 2 1 0 2 1 0 0 2 2 2 1 2 1 1 2 1 0 2 2 4 1 2 1 0 2 0 1 1 1 0 0 2 0 0 1 2 0 1 2 2 1 1 1 2 1 1 1 2 2 2 1 1 2 1 0 3 1 2 1 1 0 2 2 0 1 1 2 1 1 1 2 0 3 2 2 1 0 0 1 1 2 0 1 3 2 1 1 2 1 2 0 1 0 0 0 1 2 2 0 3 2 1 0 1 1 3 2 2 4 2 0 0 2 1 2 1 0 4 1 1 1 1 1 2 1 1 2 2 1 0 2 0 2 0 0 1 2 1 0 1 1 1 1 1 3 3 3 1 1 4 1 1 1 2 1 0 3 1 2 1 1 1 1 2 1 1 1 1 1 1 1 1 2 2 0 2 0 2 2 0 1 2 3 1 1 1 0 2 1 0 0 1 2 1 1 3 2 1 0 1 1 1 3 3 1 4 0 2 0 1 2 1 1 2 1 0 2 2 2 0 1 1 2 1 1 1 3 2 1 1 2 1 2 0 1 2 1 0 2 1 0 1 2 0 0 0 3 0 3 1 0 0 1 2 0 1 1 2 1 1 1 0 1 1 1 0 2 2 1 2 3 2 0 0 2 4 0 1 2 2 1 1 2 1 2 2 2 0 1 2 1 1 3 2 1 1 1 2 0 2 1 0 0 1 0 0 4 1 0 1 0 3 1 2 3 1 0 2 0 1 1 1 0 1 3 1 2 1 1 1 1 0 1 2 0 0 1 1 1 2 2 2 1 1 1 2 1 2 0 3 2 2 3 2 1 1 1 2 1 2 1 1 1 1 3 2 1 1 1 1 3 1 1 3 2 0 2 2 1 2 0 0 4 1 2 1 2 2 1 2 2 3 0 3 1 0 1 1 0 1 1 2 1 1 1 1 1 4 1 1 1 2 2 1 1 0 2 2 2 1 1 1 0 2 1 1 1 1 1 1 2 1 1 2 0 2 0 2 1 0 2 2 3 0 1 0 1 0 1 2 2 0 3 3 0 1 3 1 3 0 1 1 1 1 1 1 1 2 1 1 2 2 1 1 0 2 0 1 1 0 2 2 1 3 0 2 1 1 0 1 1 1 1 2 1 0 2 1 1 2 2 1 2 1 2 0 1 1 2 2 0 0 2 2 0 2 2 3 2 0 0 3 3 0 2 2 2 1 0 2 1 1 3 2 3 1 2 1 1 1 2 2 2 2 1 2 3 2 1 0 1 1 2 2 2 0 3 1 1 1 1 1 2 3 3 1 0 1 4 2 1 1 2 0 1 1 2 1 1 0 1 2 2 3 0 1 1 1 2 2 0 2 3 4 2 3 1 1 0 1 1 0 1 0 0 2 0 2 2 0 3 0 0 3 0 0 0 2 3 0 3 1 0 0 2 3 1 1 1 3 2 1 1 1 1 0 2 3 0 1 1 1 2 3 2 0 2 1 2 2 2 0 0 3 4 1 2 0 2 0 3 2 2 0 1 2 0 2 1 2 1 2 1 2 3 1 0 3 2 2 1 2 0 1 2 4 2 1 1 0 1 0 1 0 1 2 2 1 3 1 1 0 1 1 2 1 1 3 1 2 3 0 0 0 1 2 1 0 1 4 2 3 1 3 0 1 0 1 1 3 2 1 0 0 1 3 0 0 1 2 1 0 1 1 2 1 1 0 2 2 1 1 2 1 1 0 1 2 1 1 0 0 2 1 1 1 2 0 2 1 1 2 2 3 1 0 1 2 1 2 0 2 2 0 1 2 1 1 0 2 0 1 1 1 3 0 1 1 0 2 0 2 1 2 0 0 3 2 1 1 0 2 0 0 2 2 2 3 1 0 1 2 0 1 1 1 1 2 1 1 2 2 3 2 1 0 0 2 0 2 0 1 0 1 0 2 1 0 0 0 2 0 2 3 2 1 1 1 1 1 2 2 0 2 1 2 2 1 0 1 0 0 1 0 3 2 0 1 3 1 3 1 2 1 2 3 4 2 1 0 1 1 0 2 1 1 1 2 1 2 1 2 1 0 2 1 2 1 1 3 2 1 1 1 1 2 3 0 1 0 1 2 0 1 1 1 1 1 0 0 1 0 0 1 0 2 2 1 2 0 1 1 1 2 2 1 2 1 2 1 2 0 0 1 2 1 2 2 1 0 1 0 2 0 1 3 2 1 0 1 0 1 2 1 2 1 4 1 0 1 1 2 0 1 2 1 2 1 3 0 2 2 2 1 0 2 1 2 1 1 0 0 0 1 0 1 1 2 2 0 2 2 2 0 2 3 0 1 4 1 2 1 0 2 2 3 2 1 1 1 0 2 1 1 0 0 2 3 3 1 1 0 0 1 1 1 1 3 0 1 1 1 0 1 1 0 2 1 0 1 2 1 0 1 1 2 1 0 3 3 1 2 3 3 1 0 2 2 1 0 2 0 2 2 1 2 3 1 0 1 2 3 1 0 2 1 0 2 1 2 2 3 1 0 1 2 2 1 1 1 2 3 1 0 2 2 2 3 2 1 1 2 2 1 1 0 1 1 3 2 1 2 3 1 2 1 0 1 1 0 2 0 2 0 2 1 1 2 2 2 0 0 1 1 2 2 2 1 0 2 2 1 2 1 0 3 2 2 1 1 2 2 2 1 0 1 3 0 2 1 3 1 0 1 2 2 1 2 0 0 1 4 1 1 1 0 1 2 2 0 0 2 1 0 0 2 1 2 1 2 2 0 1 2 0 1 2 2 1 2 1 3 2 2 0 1 0 2 4 2 1 2 2 1 0 2 1 2 2 1 2 0 0 2 0 3 0 1 0 3 2 1 1 1 0 2 0 1 2 0 2 1 1 1 1 0 0 2 1 1 1 1 2 2 2 6 0 0 1 1 2 2 1 0 1 2 1 2 1 0 1 1 3 1 2 0 2 1 1 3 3 0 0 1 1 2 1 1 2 2 0 0 1 1 1 2 1 1 1 1 0 1 0 2 0 2 0 2 2 2 1 2 2 2 0 0 1 0 1 2 2 1 1 0 0 2 0 3 1 2 2 1 1 2 4 0 1 1 1 0 1 1 1 1 0 3 2 1 2 0 0 2 2 2 2 2 2 2 0 1 2 1 1 2 2 0 3 0 3 3 0 1 2 0 1 2 0 1 1 1 0 0 1 2 2 2 1 1 0 0 2 3 1 1 2 2 0 1 1 0 3 0 1 2 0 2 2 1 1 1 3 0 3 0 1 1 0 1 0 1 1 1 1 0 2 1 1 3 1 2 1 0 1 2 1 1 1 0 0 2 0 1 1 0 0 0 1 0 0 1 2 2 1 2 1 2 1 2 2 1 2 1 0 0 2 1 0 0 0 2 4 2 2 2 1 1 2 0 1 3 0 1 0 1 1 1 4 1 3 2 1 2 3 2 2 1 2 1 2 1 2 2 1 1 1 1 1 1 2 2 3 1 0 1 2 3 1 0 0 3 0 1 1 1 1 2 1 1 1 1 1 0 2 2 0 1 2 0 1 0 1 0 0 0 2 0 3 0 0 1 1 2 0 0 2 0 1 2 2 0 3 2 2 1 1 2 0 2 1 1 2 0 1 2 1 2 1 2 0 3 1 1 1 0 2 3 1 1 1 1 1 1 0 2 2 2 2 3 1 0 0 1 0 1 2 3 3 2 2 2 3 2 0 2 2 2 1 2 0 0 2 0 1 0 1 0 2 0 3 1 1 2 3 2 2 0 1 2 1 1 2 2 3 2 1 0 2 2 1 0 1 0 2 1 1 1 3 2 1 3 2 0 0 2 2 2 2 1 0 2 1 2 1 1 0 1 0 0 1 2 1 4 1 1 0 1 2 2 1 3 1 2 3 1 4 1 1 2 1 0 1 1 3 2 2 0 0 2 0 3 1 1 1 2 1 0 2 1 2 0 0 1 0 2 1 3 1 2 1 2 1 3 1 2 0 1 3 2 0 0 1 1 1 1 0 1 0 1 1 0 2 2 0 0 3 0 1 0 1 2 0 3 2 4 2 2 2 1 2 1 2 1 1 1 2 0 1 4 1 3 3 1 0 1 1 1 2 2 3 0 2 1 0 1 1 2 2 0 2 1 0 3 1 1 0 3 0 2 1 1 1 3 2 1 1 0 1 0 0 1 1 2 1 2 1 1 2 2 0 0 1 0 2 1 1 4 1 1 0 0 1 1 1 1 0 1 0 3 1 1 2 2 2 1 1 2 1 1 0 2 1 1 1 1 1 1 1 1 2 2 1 2 2 0 0 0 0 2 1 2 1 1 0 1 1 1 1 2 3 1 2 1 1 1 2 1 1 3 2 1 0 0 1 0 0 1 2 4 1 1 2 1 1 3 0 1 0 2 1 1 2 3 1 0 3 2 3 1 0 2 2 0 2 2 1 1 2 0 0 1 3 3 1 0 2 2 2 1 1 1 2 0 2 3 1 2 1 2 2 1 0 1 1 3 3 1 0 2 2 0 1 3 2 1 2 1 0 2 1 1 0 0 1 2 2 0 2 0 1 1 0 0 2 1 1 1 2 2 1 0 0 1 1 0 2 2 1 0 1 0 2 0 0 2 0 1 1 0 2 1 0 1 0 2 2 2 1 1 2 1 0 3 1 2 1 2 1 0 2 1 3 1 0 4 0 2 1 1 0 2 2 3 1 1 0 2 1 0 1 3 2 1 3 0 2 2 1 2 1 0 0 3 1 1 0 1 2 0 2 0 2 1 1 1 0 1 2 3 1 1 2 2 1 3 0 0 0 1 4 0 1 2 1 1 2 1 1 0 1 1 1 0 1 0 1 0 2 1 1 3 0 2 1 2 1 0 1 2 0 0 2 2 0 0 0 1 2 1 2 1 1 1 1 0 4 1 0 3 1 3 0 2 1 2 1 3 1 3 1 2 0 2 1 0 1 1 0 2 2 0 1 1 1 1 0 0 2 1 1 2 1 1 2 0 3 3 0 1 0 1 0 3 1 1 1 0 2 1 2 0 0 1 0 1 2 0 0 0 1 2 2 0 0 1 2 0 1 2 3 0 2 0 2 1 2 1 1 0 3 0 0 1 0 2 1 0 1 2 2 1 0 2 1 2 0 1 0 3 2 0 1 1 0 0 2 1 1 1 3 1 2 3 4 2 2 2 1 3 1 1 3 2 1 1 2 0 1 2 1 1 2 3 2 2 1 2 3 0 1 0 1 1 0 1 1 0 1 0 0 0 2 0 2 1 0 0 1 0 0 2 0 1 2 1 2 1 2 1 1 1 3 2 2 0 1 1 1 1 0 1 3 1 5 1 1 1 1 2 2 0 0 1 2 3 1 0 1 0 1 0 1 1 1 3 1 1 1 2 3 2 0 2 0 0 1 2 0 0 0 1 0 1 2 0 1 0 1 0 3 2 0 0 0 2 0 1 1 1 0 1 0 2 2 0 2 3 2 1 1 0 2 1 2 0 0 1 1 2 2 2 1 1 2 1 0 1 1 2 0 3 0 2 1 1 1 1 2 2 0 2 0 1 2 1 2 2 2 3 0 2 1 3 1 0 2 0 0 1 2 1 2 1 1 2 1 2 2 2 0 0 3 1 0 2 2 1 3 1 2 0 1 2 2 3 4 2 2 2 0 3 1 1 1 1 4 1 0 1 2 3 2 1 3 0 0 2 2 0 2 1 0 0 1 1 0 3 1 1 1 2 0 4 2 0 1 1 1 3 0 2 1 2 1 1 0 1 1 0 1 1 0 3 2 1 1 0 1 2 3 2 2 2 3 2 0 2 2 0 1 2 1 0 1 1 0 1 0 2 1 1 2 0 2 1 1 2 1 2 1 1 0 1 1 3 1 1 1 2 2 2 0 2 1 1 1 0 2 4 2 3 2 1 2 1 2 0 3 1 1 3 0 0 4 0 1 1 2 2 2 2 1 1 0 1 1 1 2 1 1 4 0 2 4 2 1 4 1 1 1 2 2 0 0 1 2 2 1 2 1 1 3 2 1 1 1 1 1 2 1 1 3 1 2 1 0 1 0 1 0 0 2 1 1 1 1 1 2 2 1 1 1 0 1 2 1 2 2 1 1 2 3 0 1 1 1 1 0 1 0 3 2 2 2 1 2 2 1 0 0 0 2 2 1 2 2 2 1 0 0 2 2 0 2 1 2 1 2 1 2 1 0 2 0 0 0 0 1 0 1 1 1 1 3 1 0 0 1 3 2 2 2 1 3 0 2 2 1 0 1 1 0 1 5 1 3 2 2 3 1 2 2 1 1 1 1 0 1 1 3 1 0 0 0 1 1 1</t>
+  </si>
+  <si>
+    <t>GAM(0.19975617672262697, -1.087130123311415e-28, 0.7272540806844241)</t>
+  </si>
+  <si>
+    <t>2 1 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 2 2 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 2 1 1 0 1 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 1 1 1 0 0 0 0 0 0 4 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 2 1 0 1 1 1 0 0 0 3 0 2 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 2 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 1 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 2 1 0 0 0 0 1 0 3 0 1 0 1 0 0 0 0 1 0 0 1 2 1 1 0 0 0 1 0 1 0 1 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 2 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 2 0 2 0 0 2 1 0 1 2 0 1 0 0 1 0 0 0 0 0 2 0 1 3 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 1 2 0 2 0 0 0 3 1 0 3 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 1 1 2 2 2 1 0 0 1 1 0 0 0 1 0 2 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 2 0 0 1 1 0 0 0 1 0 0 2 0 2 0 0 0 0 1 0 0 1 0 1 1 2 0 0 1 0 0 0 2 1 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 1 3 0 0 1 1 0 2 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 0 0 0 1 2 0 0 1 2 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 2 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 2 1 2 0 0 0 0 1 1 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 2 0 3 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 2 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 2 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 0 2 2 0 0 1 0 1 2 1 0 0 0 2 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 2 0 3 1 0 0 2 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 3 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 2 1 2 0 0 1 0 0 0 0 1 1 0 0 2 1 0 0 0 1 1 0 0 0 0 2 1 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 1 1 0 2 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 1 0 0 0 2 3 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 2 1 1 0 0 1 0 0 0 3 0 1 1 1 0 1 0 1 1 0 0 1 1 0 1 0 0 0 4 1 2 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 1 1 0 2 2 0 1 1 1 1 0 0 0 0 0 1 0 0 0 3 1 0 0 2 1 0 0 0 1 1 0 0 1 0 1 0 0 3 0 2 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 2 1 4 0 2 1 2 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 2 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 2 1 1 2 0 0 2 0 0 0 0 2 1 0 0 1 0 0 1 0 0 3 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 2 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 2 0 0 2 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 2 0 1 0 0 1 1 0 1 0 1 1 0 0 0 2 0 1 0 2 1 2 0 0 1 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 2 2 1 0 0 2 0 1 1 0 0 0 0 0 2 0 0 1 1 0 0 0 2 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 2 0 2 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 1 0 1 1 1 0 0 1 0 1 0 0 0 1 1 0 0 2 0 0 2 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 2 0 0 0 1 1 0 3 1 0 0 0 0 1 0 1 1 0 1 0 0 1 2 0 0 2 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 1 1 1 0 1 1 1 0 1 0 0 1 2 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 2 1 0 0 0 3 1 0 3 0 0 1 2 0 0 2 0 1 1 1 1 2 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 2 0 0 0 1 1 2 0 0 3 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 2 0 1 0 1 1 0 1 0 1 2 0 1 1 1 0 1 1 0 1 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 1 1 2 1 1 0 0 1 0 0 1 1 1 1 0 3 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 2 1 0 1 1 1 1 0 0 0 1 0 2 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 2 2 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 2 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 3 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 2 0 0 1 0 0 0 2 0 2 0 0 0 0 1 0 1 2 1 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 2 0 1 1 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 2 1 0 0 1 0 2 0 1 0 0 0 2 0 0 1 0 1 1 0 1 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 3 0 0 0 1 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 2 1 1 0 0 1 0 1 0 0 0 1 0 1 2 2 0 0 1 1 2 0 0 0 0 0 1 0 1 0 2 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 2 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 2 1 1 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 2 1 2 2 0 0 1 0 2 2 1 0 1 1 0 0 0 0 2 1 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 1 2 0 1 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 2 2 0 0 0 1 2 0 0 1 2 0 1 0 1 1 0 1 0 1 1 2 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 2 1 2 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 2 0 0 1 2 1 0 1 0 1 0 0 1 0 0 0 0 0 2 1 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 1 2 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 3 0 1 0 0 0 0 2 1 1 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 2 0 1 0 0 0 1 2 0 0 0 0 1 0 2 0 0 0 0 1 0 0 2 1 1 1 0 0 2 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 2 0 1 0 0 0 0 2 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 2 1 0 0 0 1 0 1 0 2 0 1 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 1 3 1 1 0 0 1 1 1 1 1 0 0 1 2 0 0 0 1 0 0 0 2 1 1 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 2 2 0 2 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 2 0 1 1 0 1 1 2 0 0 2 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 1 1 0 2 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 1 0 0 0 1 1 1 0 0 1 0 0 1 3 0 1 2 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1 0 1 1 1 0 2 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 2 1 0 0 1 0 1 0 2 0 0 0 1 0 1 1 1 1 0 2 2 1 0 0 0 0 0 1 0 0 0 1 2 2 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 0 0 2 2 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 3 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 2 0 1 1 0 2 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 1 0 0 1 0 1 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 1 0 0 2 2 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 2 0 1 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 2 2 0 0 0 1 1 0 1 2 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 2 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 2 0 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 3 0 1 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 2 0 0 0 2 1 0 1 1 1 1 1 0 1 0 1 1 0 0 0 3 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 2 0 1 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 2 0 0 1 1 0 1 2 1 0 0 0 1 1 1 0 2 0 1 0 0 1 0 1 0 1 0 0 2 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 2 0 1 0 0 1 0 1 0 1 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 2 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 1 0 1 0 2 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 2 1 0 0 1 4 0 2 0 0 2 1 1 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 2 1 0 0 1 0 1 0 0 2 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 1 1 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 2 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 1 1 1 2 0 0 2 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 3 0 0 0 0 1 1 0 0 2 1 0 1 0 1 0 1 2 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 1 1 1 0 1 1 0 0 0 2 0 1 2 0 0 1 0 2 0 0 0 0 1 0 0 1 2 0 0 1 0 1 0 0 1 0 0 1 0 0 1 2 0 0 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 1 2 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 2 0 1 0 1 1 0 0 2 0 0 3 2 1 0 0 0 0 0 0 1 1 0 2 0 2 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 2 0 0 0 1 0 1 1 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 2 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 2 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 1 1 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 2 1 0 0 0 0 0 2 0 1 0 0 0 0 1 1 1 0 0 0 1 1 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 2 0 1 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 3 0 1 0 0 0 1 2 0 1 0 0 0 1 1 1 2 0 1 0 0 2 3 0 3 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 2 2 0 0 1 1 0 0 0 1 2 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 2 0 1 1 0 2 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 2 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 1 2 0 1 1 0 0 0 1 0 1 0 1 0 1 0 2 0 0 0 0 1 0 0 1 1 0 2 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 1 0 1 0 1 1 0 0 1 2 0 0 2 1 0 0 1 1 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 1 0 0 1 3 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 1 0 1 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 2 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 2 0 1 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 3 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 2 0 0 0 0 0 1 1 1 1 0 0 1 0 2 3 0 0 0 1 0 0 1 0 0 0 0 2 2 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 2 0 0 2 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 3 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 3 2 0 1 0 2 1 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 1 0 1 3 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 2 2 2 0 2 1 2 0 0 1 0 0 0 0 0 1 0 1 0 1 2 1 1 0 0 0 0 0 3 2 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 1 3 1 1 0 1 0 1 1 1 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 1 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 3 1 0 0 1 2 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 2 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 1 1 0 3 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 2 0 1 1 1 0 0 0 0 0 3 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 2 0 1 1 1 3 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 1 2 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 2 0 1 0 0 1 0 1 1 0 0 0 2 0 0 0 2 1 0 2 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 2 1 1 2 0 1 1 0 2 1 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 3 1 1 1 1 0 1 0 1 0 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 2 2 0 0 1 0 0 1 0 0 0 0 0 1 2 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 2 0 1 0 2 1 0 1 1 1 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 2 1 1 0 1 0 0 2 0 1 1 0 0 0 0 0 3 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 1 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 3 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 2 0 1 1 0 3 2 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 0 0 0 2 0 1 0 0 2 2 1 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 3 1 0 0 2 1 0 0 0 0 1 1 0 1 1 3 1 1 0 0 0 1 0 1 0 1 1 1 1 0 1 0 0 3 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 0 0 2 0 0 1 2 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 1 2 1 0 0 0 0 0 1 2 2 0 0 1 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 1 0 1 2 1 0 1 0 0 1 0 0 0 1 0 2 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 1 2 1 0 0 0 0 2 1 0 1 0 0 1 0 0 0 1 0 2 1 0 0 0 2 0 2 0 0 0 0 1 0 0 2 1 1 0 0 0 1 1 0 1 0 1 2 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 2 0 0 0 0 0 1 0 1 2 0 2 0 0 0 0 0 0 1 1 0 0 0 2 1 0 1 3 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 2 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 2 0 1 0 1 0 0 2 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 2 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 0 1 2 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 2 0 0 0 0 2 1 0 0 1 0 1 0 1 0 1 1 0 2 0 0 0 0 1 1 0 1 1 1 0 2 0 1 0 0 1 1 1 1 0 0 1 0 2 0 0 1 0 0 2 2 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 2 2 2 1 0 0 1 0 1 1 0 0 2 3 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 1 0 1 2 0 2 0 0 0 1 0 1 0 0 0 1 1 2 0 1 0 1 0 2 0 0 1 0 1 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 2 0 0 0 1 0 0 2 0 1 0 0 1 0 0 0 1 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 2 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 1 1 0 0 2 0 1 2 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 1 0 0 0 2 0 0 1 1 0 1 0 1 1 1 1 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 2 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 2 0 1 0 1 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 2 0 0 0 0 0 1 2 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 0 0 1 0 3 1 0 0 0 0 0 0 0 1 0 0 1 0 2 2 0 0 0 0 1 0 0 0 4 0 0 0 0 0 1 0 0 1 3 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 2 0 1 3 0 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 1 0 0 0 2 0 0 1 2 0 1 2 1 0 1 0 2 1 1 1 0 0 0 0 1 1 0 1 0 0 0 2 0 0 2 0 1 1 0 0 1 0 0 0 0 0 2 1 4 2 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 2 2 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 2 1 0 1 1 1 0 0 2 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 2 0 0 0 0 3 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 3 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 1 1 0 0 1 1 2 1 0 2 0 0 2 0 0 0 0 0 1 1 2 0 0 2 1 1 2 1 1 1 1 0 0 0 0 0 2 1 2 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 2 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 2 2 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 1 0 0 2 1 1 1 2 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 1 3 0 0 0 2 0 0 3 0 1 1 0 1 1 2 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 2 1 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 2 2 1 0 0 1 0 0 1 3 0 1 1 0 0 1 0 0 0 1 0 1 3 0 0 0 0 0 0 2 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 2 0 3 0 0 1 1 1 0 0 1 0 2 0 0 1 0 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 4 1 0 0 1 0 0 1 0 0 0 2 1 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 2 0 1 1 0 1 0 0 0 0 1 2 0 0 0 0 0 1 1 1 0 0 2 0 0 2 2 0 2 1 0 0 2 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 2 0 0 1 0 0 0 1 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 0 2 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 1 2 0 1 0 1 1 1 1 0 1 0 0 0 0 2 0 1 0 0 1 0 2 1 1 1 0 1 0 1 0 2 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 1 2 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 2 0 1 0 0 0 1 0 2 1 0 0 0 1 0 4 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 3 0 3 1 0 1 2 1 0 1 0 1 0 0 0 1 1 1 0 3 0 0 1 0 1 2 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0 5 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 0 2 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 1 2 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 1 1 0 2 1 1 1 2 0 1 1 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 1 0 0 1 0 1 0 1 3 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 1 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 2 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 0 2 2 0 1 2 0 2 0 0 0 0 0 1 1 0 0 1 1 2 2 0 1 0 0 1 0 0 0 0 2 0 0 0 2 2 0 1 0 1 1 1 0 0 2 1 1 0 1 2 0 3 0 0 1 0 0 0 0 4 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 2 0 1 0 3 1 0 1 0 2 0 0 1 0 2 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 3 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 2 1 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 1 0 0 1 0 2 0 0 0 1 0 0 2 1 0 2 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 1 2 1 2 0 0 2 1 1 0 1 0 2 0 2 0 0 1 0 0 1 0 1 3 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 2 1 0 0 1 0 1 0 0 1 2 2 0 0 0 1 2 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 2 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 1 0 1 2 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 3 1 1 0 0 0 0 0 0 0 0 0 4 2 0 1 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0</t>
+  </si>
+  <si>
+    <t>JSU(-16.47089718118461, 9.078664890159743, -213.12687296957967, 104.7796397992663)</t>
+  </si>
+  <si>
+    <t>93 88 124 64 128 132 106 122 113 60 85 136 49 109 125 116 71 90 96 37 71 179 88 88 105 155 72 43 21 95 45 180 114 109 86 127 56 58 110 107 129 56 67 94 57 143 134 117 111 52 109 111 12 123 99 104 67 85 117 94 121 110 140 57 165 193 140 81 82 83 49 74 76 99 79 98 108 88 79 94 33 89 168 106 26 81 137 105 91 109 53 140 161 52 66 119 54 115 70 151 69 119 138 42 132 147 86 93 174 46 102 135 109 61 111 56 150 98 117 135 54 129 88 68 71 66 73 44 171 136 101 130 166 76 56 105 116 56 72 117 102 88 144 49 111 115 67 156 62 69 66 70 82 83 132 131 101 191 92 110 38 185 69 136 99 120 79 91 86 99 27 66 123 172 101 70 67 89 102 39 93 47 116 53 87 127 48 123 100 81 88 106 95 66 108 53 162 120 149 53 125 30 66 87 91 84 72 60 86 144 132 105 158 122 133 100 145 134 112 110 101 130 120 68 172 201 73 72 162 155 119 131 94 108 128 128 40 111 122 105 74 112 87 87 72 85 110 94 78 102 68 109 119 113 130 137 101 165 55 29 105 117 98 138 122 130 67 122 105 113 112 86 76 69 160 115 89 130 71 64 147 149 72 104 75 91 98 63 180 108 112 111 120 63 46 180 66 164 82 53 84 58 93 103 102 89 134 159 143 135 79 147 55 63 49 117 68 210 162 152 132 167 56 69 60 77 108 110 88 55 67 93 60 154 95 55 31 116 160 139 98 131 75 94 130 69 144 81 65 35 102 99 109 194 106 118 53 97 93 75 151 64 139 113 88 61 106 103 152 48 76 121 111 116 84 134 137 181 97 52 109 34 120 107 209 80 140 129 89 108 110 101 55 96 145 143 81 123 125 112 68 92 53 118 74 80 120 170 116 149 134 72 218 102 78 75 85 42 90 64 143 113 131 173 68 92 100 137 133 36 112 113 116 84 36 154 53 96 134 72 80 68 114 120 113 159 52 157 65 99 40 117 125 149 105 48 225 130 17 122 89 83 144 161 66 108 153 134 122 89 75 78 139 136 19 111 118 108 100 102 72 143 86 84 98 124 112 105 48 175 95 108 118 85 83 70 89 149 179 190 101 113 57 101 57 117 53 163 133 116 131 86 76 152 120 141 113 121 184 97 89 98 131 138 104 121 129 64 121 146 103 149 173 142 20 107 100 114 114 68 92 79 156 117 116 60 119 81 61 91 59 149 78 141 101 107 54 94 107 126 86 75 72 94 76 147 113 97 96 105 81 159 151 109 87 128 71 88 87 118 85 119 148 82 120 114 140 109 61 103 91 33 72 132 152 83 151 115 76 52 123 104 144 131 55 129 102 108 147 166 64 147 44 95 119 113 43 131 124 29 66 115 89 132 100 66 103 110 47 75 109 115 100 35 124 85 67 101 125 71 99 113 54 65 95 127 104 82 43 148 99 59 117 117 138 53 173 115 116 92 44 34 54 184 103 156 120 106 102 49 95 81 141 93 92 78 29 134 99 101 130 155 93 139 31 60 59 55 129 79 137 199 101 108 84 145 163 172 151 118 146 66 87 96 169 88 92 160 87 40 81 76 50 122 76 37 103 113 65 89 72 62 129 82 131 102 145 48 126 157 139 62 142 135 157 127 67 144 49 82 83 89 116 122 120 111 107 144 118 123 82 67 32 194 93 159 111 89 118 162 146 164 90 71 101 76 155 107 63 117 110 95 103 82 134 138 52 39 116 134 83 99 93 144 158 160 109 152 101 84 145 45 69 92 105 73 112 53 117 78 92 106 111 115 117 114 63 59 67 82 121 58 73 66 156 142 90 92 45 115 95 147 69 97 121 74 156 91 114 150 34 156 82 67 64 138 71 69 121 94 123 107 115 83 62 96 65 93 182 124 164 113 92 78 138 108 83 105 76 64 143 135 113 103 71 59 130 97 66 58 95 120 88 62 118 108 159 88 144 155 71 78 94 99 114 71 75 58 51 105 110 127 124 100 136 79 93 80 170 92 64 51 110 123 93 137 50 102 134 83 102 116 78 128 113 107 70 142 124 42 62 80 172 68 92 119 92 127 154 97 145 65 121 102 82 91 104 141 145 71 86 93 73 82 108 145 99 64 137 122 103 80 121 93 106 94 96 116 36 153 91 57 77 63 95 81 178 95 148 47 126 137 101 137 83 81 26 118 101 118 47 67 40 109 118 147 89 48 99 86 24 172 105 128 103 94 50 37 180 172 44 92 77 85 84 76 130 95 70 108 74 171 107 71 173 107 48 135 81 83 96 160 121 130 187 57 121 86 83 88 38 72 79 133 113 130 104 91 127 169 136 85 105 23 77 108 65 96 93 136 182 151 97 158 109 96 60 100 97 137 131 41 150 135 122 129 114 129 110 129 74 64 138 110 103 90 79 139 201 109 117 71 78 119 74 165 56 123 74 40 115 62 87 146 97 75 50 162 105 90 104 49 103 116 75 200 112 73 78 98 113 110 111 158 129 90 103 63 82 66 115 129 105 105 184 105 160 135 100 84 62 109 74 80 121 127 71 32 85 81 139 66 176 108 122 53 89 102 116 113 36 20 76 146 95 113 122 72 83 130 88 170 120 98 73 151 122 97 126 114 163 127 56 96 92 115 109 88 112 82 126 27 144 127 68 86 72 150 132 89 130 126 125 71 75 105 89 81 81 128 82 124 107 105 68 89 49 77 49 116 37 120 58 74 66 52 159 161 65 104 60 113 191 162 97 64 180 97 105 154 57 53 77 118 125 106 111 37 113 85 74 122 185 147 54 141 129 173 106 95 135 63 176 140 40 116 110 54 182 103 150 98 103 72 93 103 84 131 179 96 119 116 77 73 124 43 75 109 145 43 124 136 67 119 104 94 62 56 65 85 118 121 63 130 140 83 34 125 121 106 26 116 41 151 136 51 129 52 100 117 84 203 80 134 70 89 30 179 87 98 79 180 79 87 93 127 113 93 136 122 51 128 100 132 83 150 90 107 53 197 77 57 108 140 98 149 118 125 130 116 117 101 54 92 157 119 60 130 54 131 97 203 52 115 100 104 78 73 105 168 32 87 67 127 74 25 161 114 210 70 77 91 81 90 90 89 166 141 98 160 62 115 101 119 126 123 122 133 96 88 166 85 65 134 117 140 105 88 68 89 94 52 56 99 113 154 106 71 29 70 124 148 111 29 143 63 88 92 91 56 66 88 130 124 76 121 159 50 111 141 50 101 161 107 120 122 100 118 204 230 82 200 118 109 103 119 115 98 154 135 18 92 67 93 137 47 72 59 111 79 58 124 88 60 87 67 43 42 77 133 94 137 120 107 63 83 118 106 77 84 115 88 53 64 76 81 112 107 102 106 130 103 78 76 85 119 91 93 130 142 76 116 124 134 81 89 34 122 107 98 139 38 161 99 47 190 61 122 69 60 137 99 117 80 84 116 103 75 113 130 77 113 84 67 170 110 188 89 107 131 101 111 73 106 98 132 85 124 72 82 89 41 161 93 13 74 94 41 108 126 81 57 70 81 95 101 188 118 116 126 42 103 122 83 107 63 94 17 135 129 39 169 57 60 31 143 120 85 123 191 156 92 79 137 71 114 52 103 91 123 125 71 94 97 107 51 79 130 90 69 97 97 129 81 169 141 164 88 91 116 92 156 115 136 100 137 129 77 117 80 122 88 68 117 108 172 100 80 102 158 30 51 123 72 89 66 73 135 100 81 65 96 82 33 81 119 68 88 124 51 95 47 119 117 92 201 122 187 58 112 89 68 60 148 68 74 112 73 75 128 88 97 118 127 173 86 96 1 97 129 129 148 74 116 52 142 49 62 188 59 63 73 94 47 53 105 99 73 164 24 156 33 149 53 99 101 114 91 161 127 136 64 55 69 84 85 99 103 95 134 95 131 72 113 64 166 86 98 87 150 90 93 96 73 110 94 40 59 56 132 69 133 120 114 77 113 82 69 112 61 111 89 137 96 149 68 124 41 155 89 137 64 129 16 116 75 133 44 88 125 113 139 122 65 89 91 87 105 104 115 100 28 91 154 95 91 104 148 67 101 127 83 106 109 86 79 168 173 90 163 168 107 73 101 52 69 84 113 154 79 83 77 101 161 137 77 168 130 69 46 97 90 90 65 92 97 95 126 125 19 81 114 119 142 144 73 95 118 89 121 92 127 81 86 75 79 126 105 119 74 62 190 99 135 104 92 80 165 192 39 61 169 79 138 63 209 133 101 153 121 25 112 83 111 167 59 65 72 95 75 74 78 172 91 118 48 54 88 144 100 84 60 65 148 114 65 77 11 110 62 65 107 70 48 31 139 134 99 66 82 79 73 63 158 145 105 117 185 156 113 86 95 41 95 100 95 95 127 65 109 79 112 85 105 103 69 59 101 93 70 54 117 143 71 124 93 186 101 54 138 91 120 102 110 83 39 87 105 103 109 153 131 84 53 131 91 28 163 112 142 110 91 141 58 91 92 139 107 132 99 128 52 103 120 103 119 100 71 97 172 71 92 143 95 117 65 62 162 104 31 104 48 72 139 85 131 110 99 84 112 124 74 127 131 104 122 114 111 107 64 70 142 131 19 42 91 51 130 50 114 120 86 148 126 134 90 164 102 65 104 93 138 124 132 74 108 84 103 106 75 117 101 101 127 116 90 62 93 116 110 102 108 110 79 162 165 56 154 141 110 120 160 112 103 139 157 133 141 80 133 64 85 103 90 87 77 167 143 140 125 67 121 127 117 98 116 129 82 83 61 104 120 131 68 83 81 47 88 89 67 103 150 90 75 137 102 76 78 67 85 115 49 157 80 75 96 61 79 80 71 132 54 82 58 81 115 156 84 89 152 115 93 84 91 98 145 83 111 120 56 188 158 114 137 107 206 124 92 126 93 123 10 127 89 147 154 139 151 128 67 82 45 115 126 63 105 80 92 81 156 132 104 144 57 159 105 113 179 108 81 106 56 106 80 108 97 98 59 140 159 146 195 116 90 81 96 130 72 181 51 102 119 46 70 79 97 82 153 101 193 96 132 122 57 86 111 141 79 101 98 106 170 95 160 85 142 142 42 133 105 175 92 118 77 133 69 59 133 82 155 154 73 174 82 85 117 13 107 52 78 125 114 103 76 97 51 130 120 146 161 71 74 79 108 67 105 94 141 64 111 135 93 186 103 103 90 159 125 112 81 154 96 58 67 65 173 57 113 45 100 41 158 99 28 80 99 58 114 39 92 63 83 88 110 55 81 42 87 108 100 92 122 81 122 37 87 97 108 110 122 76 139 94 94 141 81 56 154 117 97 70 52 102 142 66 99 37 72 67 113 95 108 51 101 90 132 145 63 143 83 98 115 181 137 77 203 41 88 84 98 118 144 134 78 78 66 142 98 109 90 118 56 126 32 158 129 104 77 86 115 167 56 109 157 46 107 104 140 161 162 63 118 174 83 84 120 99 41 82 27 92 101 78 104 74 64 36 95 88 75 97 45 127 74 88 169 80 94 110 32 99 160 77 85 105 90 74 70 141 116 86 109 101 103 100 67 111 175 154 110 121 105 39 94 75 73 121 206 110 39 87 68 117 156 54 62 6 131 132 50 156 121 97 111 98 35 153 66 139 43 130 159 76 98 65 66 29 98 100 67 110 161 54 107 84 45 56 83 101 63 74 75 80 104 139 83 87 176 108 108 167 96 70 134 50 129 88 88 96 89 143 154 141 88 64 47 219 179 121 100 44 61 146 128 90 156 50 152 113 130 86 164 120 67 76 90 36 70 93 116 111 101 187 80 208 66 108 134 42 106 89 80 73 146 155 59 104 106 60 107 94 110 70 123 35 110 122 37 72 83 51 92 120 119 138 43 136 99 121 103 111 126 97 102 110 81 102 77 110 105 63 132 83 53 113 48 118 103 75 59 121 109 94 84 78 101 75 87 86 125 150 93 151 96 136 60 66 122 129 188 123 95 75 113 98 52 189 76 68 132 119 40 45 84 107 94 101 142 85 81 49 105 127 81 83 129 80 79 99 122 105 102 184 107 133 99 98 105 133 83 130 148 101 104 78 90 115 123 102 125 81 138 103 107 91 71 161 78 73 91 131 87 122 76 146 79 167 114 82 85 60 117 143 84 97 77 87 135 113 104 122 63 148 56 64 128 70 149 117 111 54 69 130 91 29 105 163 104 102 132 116 70 87 97 108 173 175 117 139 56 82 81 152 96 125 97 152 62 114 119 64 72 32 112 117 106 135 105 42 138 116 119 49 23 149 73 72 125 110 90 167 134 161 107 109 119 57 138 50 122 104 92 101 65 133 72 57 73 115 84 129 107 136 78 118 149 27 72 83 99 137 97 98 152 72 167 48 79 67 81 72 99 84 127 144 90 78 77 134 54 120 115 115 48 64 71 192 73 73 118 86 52 116 102 93 123 100 35 75 89 135 122 75 96 217 53 165 126 200 45 121 149 48 112 155 103 54 92 135 117 113 148 139 86 109 83 167 91 101 108 112 24 122 35 112 134 81 106 88 152 129 89 161 125 68 102 92 91 34 83 56 118 123 163 103 66 66 103 106 94 34 123 60 123 120 119 163 77 84 55 142 67 45 154 17 34 73 79 162 65 58 74 125 144 141 130 99 87 134 100 129 91 105 18 208 81 81 154 108 97 57 178 141 129 177 243 114 102 88 112 77 83 145 177 152 138 190 135 68 99 128 73 116 65 99 113 76 144 79 50 121 58 133 99 146 46 46 54 148 84 117 151 103 100 129 95 49 98 80 60 71 90 112 133 42 85 113 60 66 97 132 118 106 134 91 89 122 87 76 74 51 102 44 80 146 89 97 124 94 170 91 136 91 162 62 132 75 91 47 121 48 90 116 103 102 139 200 144 86 147 157 90 100 105 27 112 45 84 117 110 113 106 138 65 94 187 38 26 57 108 131 159 134 93 173 157 162 72 109 57 142 121 48 109 139 127 75 92 117 64 88 104 64 81 109 119 138 129 118 78 118 57 116 92 81 41 109 90 167 135 139 114 110 122 102 178 110 114 134 62 123 49 118 142 102 123 79 140 146 112 122 66 120 144 23 135 82 73 75 88 110 43 109 105 56 64 147 85 76 85 101 93 109 70 120 115 109 131 111 128 110 66 145 74 58 121 107 149 92 116 106 114 139 112 52 56 115 139 136 157 103 69 101 105 96 118 115 100 96 71 45 87 79 129 138 96 142 120 54 95 99 130 150 134 82 48 114 110 90 71 131 51 120 120 94 70 96 67 128 110 117 94 71 120 47 182 145 68 87 49 174 90 94 122 113 97 118 146 75 162 155 92 78 36 105 14 93 151 132 149 127 41 75 83 79 100 57 125 93 114 35 117 178 7 74 147 109 188 79 118 104 168 107 200 76 106 103 50 44 172 153 138 103 73 90 162 59 148 45 70 105 136 70 90 71 152 158 95 121 102 66 158 128 98 236 144 139 140 115 121 125 160 105 121 101 99 94 73 83 106 115 131 126 90 75 46 48 126 107 61 87 44 94 63 49 92 103 59 68 75 127 55 129 89 87 119 80 118 70 78 59 121 92 110 67 137 87 88 105 101 84 102 66 121 142 87 105 131 69 116 12 134 85 88 119 126 119 93 51 100 89 68 95 91 77 57 149 44 40 117 149 36 53 83 161 112 170 102 103 60 193 76 155 120 56 111 53 111 150 142 96 156 134 118 153 132 57 82 118 78 117 84 121 121 119 109 78 126 105 82 76 81 128 75 118 95 107 56 106 139 231 86 85 104 137 144 72 184 69 115 87 117 82 112 115 67 146 81 97 108 140 97 122 132 150 131 191 115 110 65 36 132 58 131 114 136 163 154 64 93 123 95 48 137 130 215 171 139 200 58 97 98 97 92 112 82 123 91 120 226 101 122 132 126 72 105 107 80 82 169 145 132 134 147 85 98 159 67 112 61 52 47 53 84 67 151 133 61 78 62 70 109 61 85 125 175 113 58 74 68 134 53 111 94 141 153 119 132 42 109 106 76 134 108 67 85 102 90 130 105 78 78 46 71 94 78 99 63 46 30 83 217 109 154 174 56 95 65 58 131 111 137 100 85 189 108 112 72 73 103 101 184 101 77 98 63 146 109 75 91 88 133 183 31 76 118 79 75 81 107 42 88 64 71 48 162 59 103 83 135 55 107 65 152 103 66 92 81 22 67 114 127 190 108 53 77 87 67 104 140 55 103 79 122 57 157 86 113 94 119 105 195 173 123 78 78 170 87 86 105 107 76 74 92 34 117 117 90 168 125 66 63 116 60 61 145 94 142 104 56 81 112 68 143 129 110 96 84 54 107 63 116 74 130 118 111 140 207 62 115 30 91 108 107 101 91 126 52 92 129 98 79 102 107 164 45 90 129 80 130 74 149 64 135 148 119 148 85 127 189 68 158 135 147 86 59 160 150 136 96 70 145 55 132 87 142 71 52 109 161 170 80 26 85 59 162 75 13 84 80 133 48 151 92 31 74 110 105 203 62 98 129 82 218 87 71 89 97 105 70 94 55 23 123 147 55 99 83 116 112 117 90 56 173 112 85 104 118 130 62 137 41 82 94 63 105 63 79 106 89 70 55 57 63 84 111 90 108 87 215 145 95 125 135 226 185 99 75 97 145 98 78 57 111 85 134 137 98 70 93 69 70 128 136 84 90 162 132 101 152 102 71 133 124 129 115 95 29 149 65 65 58 111 145 208 109 88 27 66 93 85 123 143 105 57 71 113 166 87 100 103 133 120 73 68 148 102 42 63 180 100 102 102 127 108 104 84 48 104 61 100 90 43 128 62 131 93 125 79 123 122 104 27 175 204 47 46 107 86 101 35 66 84 101 55 142 135 79 106 63 49 83 128 116 112 96 70 96 105 88 124 80 138 114 85 116 94 86 61 71 79 127 63 129 103 123 73 146 102 127 93 33 123 48 128 99 79 89 59 49 165 149 68 130 111 92 90 166 98 88 103 53 69 105 178 122 64 63 117 77 81 67 73 57 117 126 97 64 54 23 61 108 139 82 67 171 40 177 119 123 69 105 174 98 105 118 102 143 66 127 93 67 93 120 54 51 110 172 106 95 86 166 143 85 76 192 85 105 41 76 113 140 108 134 107 70 150 60 91 103 109 120 135 106 116 122 127 139 129 96 107 89 109 80 177 66 70 130 61 91 64 130 89 99 60 101 105 33 84 147 82 86 136 118 65 122 175 83 117 176 105 129 108 37 119 73 70 151 91 169 110 168 102 131 145 81 89 153 67 149 74 180 84 157 133 161 167 83 54 113 48 59 134 156 77 96 124 116 70 127 107 104 47 86 134 57 60 144 121 74 126 89 153 138 105 110 87 108 113 103 145 95 83 91 133 109 47 73 39 62 105 96 118 100 139 47 91 83 141 160 134 91 123 118 109 126 96 129 73 95 41 115 112 49 136 65 81 122 150 91 94 109 127 129 97 70 56 75 47 83 142 47 191 125 70 94 103 138 91 89 115 82 49 148 104 89 37 105 183 137 139 63 86 101 58 73 99 100 84 172 158 143 118 135 96 98 51 47 137 139 108 123 130 186 64 133 128 84 140 92 164 58 70 148 44 55 72 108 89 87 100 108 121 166 73 99 194 60 74 47 68 112 136 82 131 139 83 20 84 134 134 110 71 50 136 77 76 50 98 54 122 170 150 75 43 147 70 116 205 71 35 80 102 65 195 29 114 139 72 127 63 119 116 99 82 122 106 126 127 52 69 96 74 120 122 110 67 99 84 104 144 122 61 51 108 41 107 126 160 64 147 81 77 135 120 131 114 109 98 41 112 43 131 155 82 80 163 64 87 207 206 181 143 104 103 142 121 89 96 180 135 60 51 148 50 70 101 78 58 41 116 132 111 41 97 63 100 69 90 75 112 111 127 69 73 95 81 78 95 67 147 119 43 39 85 81 121 134 48 76 126 133 155 124 63 36 69 127 70 135 138 88 129 134 95 80 85 110 44 120 87 65 49 89 97 86 109 100 77 143 56 92 87 63 140 151 89 109 79 154 90 181 171 88 45 83 129 68 117 86 123 46 104 107 114 52 99 104 35 122 96 63 73 92 108 52 77 60 149 128 100 67 82 54 115 97 76 69 146 26 36 119 73 140 119 123 80 154 80 139 172 150 129 105 34 120 118 168 78 90 106 124 119 115 140 81 111 115 118 68 126 105 132 163 117 53 74 66 47 108 84 144 36 103 134 96 87 96 55 180 148 78 45 202 100 65 53 67 76 139 119 135 91 109 92 97 105 127 113 69 112 89 111 132 123 161 153 169 127 90 109 57 66 123 64 62 120 63 169 89 170 63 65 108 81 40 109 87 188 138 110 134 70 78 129 140 65 153 109 54 78 82 71 54 90 107 136 149 26 42 18 132 85 79 122 118 132 73 67 117 109 94 83 98 89 71 118 91 120 28 73 78 69 103 116 38 76 118 91 51 38 112 161 146 65 62 107 81 88 135 105 79 118 76 129 88 115 94 104 81 45 115 119 72 93 51 177 28 171 84 77 68 38 65 60 104 71 89 145 94 72 19 95 117 66 132 74 43 30 96 91 105 107 121 128 97 114 115 162 112 91 177 10 131 183 114 110 21 168 62 127 106 56 97 141 102 21 49 125 106 80 77 89 85 127 84 97 108 81 69 109 134 91 32 77 140 90 93 71 109 194 88 70 79 105 50 117 83 104 139 133 96 143 126 109 88 102 55 98 103 94 135 129 92 81 82 68 94 152 85 138 112 103 184 105 90 166 136 125 67 78 105 87 52 131 167 122 199 59 78 99 200 87 48 99 105 116 71 43 218 58 139 161 63 111 101 29 205 153 61 61 124 75 106 110 123 77 117 162 95 74 116 70 77 56 52 50 115 71 173 121 110 97 104 97 67 129 139 115 133 104 87 115 138 10 32 107 170 123 34 99 82 174 84 69 78 125 102 50 79 166 183 66 137 68 102 118 58 29 66 37 103 67 143 129 89 182 55 153 146 114 47 64 65 54 97 18 69 105 67 58 77 100 92 84 133 120 94 122 79 121 44 121 103 129 98 36 64 74 104 110 134 125 145 113 29 50 101 101 61 90 125 108 118 38 93 101 103 112 100 89 115 79 87 93 209 72 94 121 79 173 124 51 91 96 125 58 90 66 112 201 103 59 73 69 50 105 141 79 140 74 96 130 118 52 149 111 153 135 123 126 110 144 114 119 182 106 95 165 53 101 67 58 143 121 84 113 78 42 131 78 59 102 115 150 117 112 109 145 127 87 171 123 132 119 126 108 86 84 96 91 137 73 104 103 71 61 146 71 97 77 167 47 88 129 105 186 114 71 63 148 222 165 112 105 101 138 64 56 75 98 18 118 159 82 79 86 164 124 116 99 118 114 167 117 72 57 121 109 137 123 121 113 36 129 211 146 91 57 107 110 105 129 103 57 73 129 113 32 138 121 70 79 60 85 159 97 81 84 147 38 44 152 133 55 128 102 105 89 49 104 148 79 64 10 51 90 121 84 92 137 22 62 156 53 79 128 102 101 108 173 67 66 103 62 42 82 99 112 120 105 155 45 124 162 133 99 142 65 46 112 120 129 81 175 71 144 102 79 120 178 83 157 120 89 95 92 103 105 110 110 135 110 100 115 56 79 91 89 79 96 88 47 87 80 78 120 77 96 59 139 78 60 119 75 52 80 84 120 237 92 87 61 108 110 122 68 131 86 174 72 92 114 124 138 109 150 103 53 59 155 19 155 70 56 138 128 45 111 131 168 111 139 12 97 54 104 152 117 111 102 151 127 35 85 212 68 76 69 84 128 137 107 60 109 128 105 55 139 96 142 85 104 118 93 77 98 42 82 108 70 132 52 59 93 135 151 53 104 89 133 74 96 93 116 80 103 73 66 101 112 90 107 72 14 68 56 121 146 139 80 164 136 69 101 168 115 75 62 94 148 80 126 137 158 98 139 150 101 41 129 98 74 77 38 130 119 28 86 95 120 177 147 92 74 117 72 143 145 170 133 92 114 62 114 46 146 97 122 78 95 79 154 61 81 157 94 117 96 163 58 115 120 96 121 124 106 152 108 74 80 81 159 203 76 66 117 230 173 121 153 49 103 118 135 117 102 151 158 94 119 142 78 65 155 79 55 122 69 39 102 118 109 123 110 40 132 71 117 79 141 83 93 89 140 64 156 114 183 86 142 82 168 144 56 37 106 79 91 42 128 137 107 94 100 76 101 16 128 77 112 87 143 96 149 78 152 104 37 51 66 92 151 79 80 136 36 21 121 109 54 77 102 99 102 65 99 123 63 131 94 94 27 101 98 99 48 128 132 93 124 86 98 22 137 126 94 106 44 90 98 104 59 108 96 144 151 181 157 76 65 94 104 115 156 94 148 89 112 39 152 105 74 166 69 90 64 88 169 73 100 136 90 115 161 102 30 140 109 136 93 100 162 139 162 111 108 126 87 104 96 134 85 107 137 84 116 103 141 96 83 69 107 97 183 108 121 142 117 147 93 101 118 49 120 70 108 89 126 99 122 58 103 132 84 99 206 178 187 104 188 129 84 67 135 78 112 162 98 118 77 84 62 135 86 91 99 82 127 62 116 93 49 88 126 110 89 93 148 61 128 135 97 93 129 125 61 131 132 98 62 66 64 118 87 168 103 99 105 98 40 74 118 56 120 92 79 133 105 88 109 125 101 66 112 154 189 93 114 109 99 165 162 122 80 115 109 108 113 157 166 90 107 74 80 59 91 99 169 120 112 116 90 103 65 153 107 54 41 71 180 126 87 106 156 132 135 103 185 115 208 173 65 79 94 172 60 61 117 115 52 71 88 168 54 75 80 33 54 90 105 96 115 106 78 84 125 104 57 106 93 122 106 95 103 111 80 143 142 71 69 52 104 66 118 104 136 122 109 136 118 109 80 213 67 95 206 61 123 57 106 59 125 197 46 61 120 119 72 135 93 121 114 61 81 169 130 63 63 136 84 90 65 102 72 79 90 87 113 90 114 43 119 33 91 95 108 54 85 68 117 108 107 63 109 44 85 120 199 111 161 125 100 124 83 96 129 167 81 127 127 103 64 76 48 77 112 98 79 143 85 115 96 57 108 108 146 150 89 137 92 134 66 98 164 64 137 99 94 97 133 112 62 101 102 140 283 126 107 176 120 113 90 129 36 98 117 95 143 96 178 104 213 172 107 50 52 117 154 131 82 99 40 53 63 71 64 40 109 92 93 68 114 96 106 79 115 43 125 61 96 86 52 90 78 87 114 96 143 49 132 111 34 132 115 134 70 98 109 73 58 100 137 103 127 82 94 118 50 109 86 108 91 138 76 81 158 132 150 160 27 61 58 95 133 130 57 74 117 131 65 128 22 55 77 37 129 155 124 143 138 139 91 79 90 145 64 75 103 106 128 104 141 112 183 79 82 157 131 44 115 126 112 92 108 40 115 45 112 39 143 180 98 104 150 64 62 109 120 146 85 186 111 93 67 147 44 142 139 104 115 90 118 115 78 111 99 161 109 66 83 54 93 151 97 176 65 77 82 142 120 85 192 86 145 58 93 94 61 168 111 95 100 56 114 77 141 57 99 82 139 92 30 128 92 101 99 51 115 80 70 65 89 93 71 98 140 87 123 101 61 105 114 51 105 141 113 47 112 86 99 138 112 130 58 83 62 137 79 136 118 130 51 151 55 102 98 106 122 78 87 121 111 159 143 96 81 131 140 154 167 58 100 73 126 71 32 81 142 92 141 101 109 90 85 158 118 198 185 167 38 69 95 128 112 95 76 79 101 92 149 83 64 132 120 109 167 111 167 113 101 91 103 122 75 125 150 65 94 66 82 150 86 160 72 131 71 100 63 74 122 -5 111 139 132 141 69 84 110 86 152 75 94 128 68 141 96 50 28 113 55 97 88 128 109 11 38 118 86 54 91 136 151 83 127 90 76 101 78 58 140 80 129 142 140 71 44 94 113 125 103 71 67 67 116 136 52 129 110 106 120 65 119 111 112 137 144 140 50 112 55 128 117 53 173 118 33 105 40 73 78 117 147 133 72 210 134 129 65 83 179 94 100 117 88 114 112 74 79 94 58 47 170 43 100 97 149 83 136 133 57 94 92 116 98 83 39 110 121 57 181 106 78 68 107 94 108 70 115 105 74 158 125 76 82 161 105 83 58 82 95 97 107 48 86 86 41 169 95 120 45 39 144 79 104 104 102 55 108 119 85 51 43 102 74 58 122 66 108 181 63 71 171 141 152 131 119 69 22 185 101 80 120 76 82 99 61 106 123 56 77 87 103 153 133 52 57 94 93 81 176 169 115 116 118 172 119 186 112 84 88 140 48 80 123 44 95 80 86 136 170 105 97 123 120 69 174 137 51 78 66 36 66 108 105 178 79 85 77 94 103 72 163 103 45 79 112 60 34 19 86 97 148 86 51 124 82 75 68 115 81 146 80 107 83 167 157 99 194 168 109 117 125 108 79 92 154 129 30 127 129 118 65 106 91 138 105 128 105 81 170 117 106 68 60 86 190 87 49 122 99 54 123 137 121 39 42 178 88 94 95 91 116 115 165 116 61 117 139 91 186 108 113 131 131 114 102 195 98 106 83 96 73 140 115 130 138 64 207 119 75 138 131 122 135 103 69 113 124 61 110 60 196 134 87 90 65 49 124 114 191 116 131 60 56 113 98 111 110 117 158 77 105 99 115 122 149 67 99 92 125 171 80 44 126 90 115 97 73 147 65 106 58 129 104 100 59 140 106 83 113 155 72 46 48 69 115 93 84 203 64 101 151 130 133 111 126 123 102 22 62 160 24 52 113 104 144 130 109 99 51 152 53 69 82 68 115 48 30 94 146 82 152 56 64 109 42 82 100 79 96 137 114 78 116 92 83 108 66 139 96 109 119 61 73 165 126 53 131 33 134 101 102 133 141 100 53 110 103 40 89 129 106 93 96 98 153 41 138 171 166 93 64 173 78 125 91 97 26 102 111 140 45 95 85 82 40 118 71 97 124 118 113 52 75 126 65 118 120 58 105 129 89 94 98 76 83 44 75 99 78 121 49 54 139 167 146 70 46 87 100 145 49 131 96 74 128 123 122 142 88 99 74 125 113 120 106 107 114 103 117 100 165 51 122 46 71 71 115 86 82 93 216 116 104 180 72 65 119 91 117 78 156 108 128 68 100 107 135 96 116 24 88 72 61 85 133 100 113 72 129 60 133 113 196 143 104 144 179 115 42 116 120 83 158 68 52 94 90 95 91 103 52 112 91 187 133 79 51 180 131 106 82 76 169 60 67 225 110 115 132 69 37 97 71 91 88 175 102 62 133 62 115 129 118 36 144 46 115 148 141 81 83 99 59 86 104 55 50 119 35 106 75 139 37 129 82 101 98 70 161 111 87 95 107 91 46 43 94 210 93 99 86 146 135 77 93 94 84 48 87 83 155 108 106 117 97 94 144 33 101 122 105 113 97 150 79 94 88 120 109 139 127 128 117 109 87 239 68 163 94 68 125 122 44 113 118 57 105 97 126 65 89 74 104 89 131 126 74 115 99 107 106 95 71 145 73 39 80 68 93 46 111 91 90 78 109 98 2 117 90 88 36 115 110 127 56 166 117 82 114 121 71 94 34 78 70 232 77 56 73 100 52 93 73 116 78 51 149 50 47 112 59 192 105 49 91 140 91 98 43 110 119 115 107 122 136 55 50 99 130 78 65 71 89 205 44 86 113 42 145 132 157 98 106 86 82 113 58 158 172 68 93 89 87 97 120 165 73 70 95 60 111 111 110 90 93 98 95 107 87 92 136 163 64 119 54 95 124 86 138 101 112 163 162 109 143 48 44 98 122 118 72 65 84 48 79 172 43 50 88 54 75 40 95 97 84 86 53 101 153 83 109 141 72 34 91 173 43 57 121 94 122 231 144 88 94 111 147 37 125 132 79 121 104 60 117 168 141 159 92 139 124 92 81 99 54 120 114 47 91 104 58 137 94 127 145 191 161 89 139 116 59 106 159 26 29 86 61 62 77 111 84 84 139 72 139 55 61 109 17 179 128 74 61 67 12 92 57 113 55 104 125 48 103 171 58 103 71 186 59 107 94 167 166 19 116 144 119 83 77 96 124 102 55 80 129 108 151 97 136 82 143 136 137 139 105 130 100 84 86 101 96 112 171 73 100 139 92 88 69 75 34 143 157 78 33 159 41 96 90 134 132 90 155 143 111 133 75 123 120 97 127 110 54 120 144 81 85 103 125 135 104 125 78 113 91 155 120 116 137 41 25 119 134 91 102 132 87 62 118 59 68 104 54 114 148 139 124 62 99 90 134 139 49 139 159 153 74 122 58 107 99 99 82 80 68 37 41 47 134 146 70 85 75 53 131 107 152 56 127 113 64 109 134 104 121 133 140 119 107 76 103 81 88 40 45 75 124 27 61 102 129 83 48 69 138 28 125 118 86 132 136 129 132 154 191 109 166 199 79 87 107 136 121 62 126 57 145 55 125 94 109 159 95 108 113 75 40 72 123 81 139 155 122 119 82 174 153 134 155 145 83 183 86 43 130 213 74 128 170 95 71 119 95 133 126 77 67 131 75 90 89 136 128 82 65 165 57 45 63 70 50 104 63 103 117 58 97 145 104 51 66 63 101 131 53 124 93 64 96 103 146 104 28 90 99 42 90 112 44 116 109 126 108 130 111 65 12 105 63 138 129 92 114 79 32 122 133 74 141 74 73 69 198 81 82 85 32 96 19 81 69 140 111 43 71 55 89 76 59 124 111 64 120 108 69 124 123 148 105 111 112 83 118 96 113 53 60 132 57 130 83 109 137 185 105 83 114 119 104 128 115 117 117 75 144 81 54 115 44 94 106 50 43 35 145 119 154 128 71 67 80 88 103 78 39 135 73 104 137 139 61 80 54 102 98 80 40 77 76 10 112 151 82 124 51 99 93 128 66 60 144 36 55 97 114 38 141 63 196 47 99 85 117 47 83 137 105 132 163 67 122 97 90 93 105 97 95 122 84 65 86 101 87 123 94 133 85 152 54 97 81 89 173 53 101 109 148 108 157 136 134 68 140 102 168 154 23 63 66 88 76 61 79 95 96 144 61 112 45 72 81 29 62 117 34 51 72 112 58 144 100 131 99 116 142 44 85 48 104 202 41 93 96 119 63 84 79 120 112 107 140 118 144 153 78 87 79 147 129 117 55 142 118 61 101 41 105 125 87 123 99 161 135 143 144 118 44 167 121 68 180 96 54 90 118 75 116 93 135 167 97 148 133 136 128 100 71 72 107 104 90 160 106 42 52 109 94 100 55 85 110 81 90 88 105 95 132 42 51 113 85 156 119 121 45 67 49 72 82 116 127 112 95 108 90 159 113 116 136 126 59 106 89 68 69 88 152 76 98 93 55 81 119 154 171 138 129 81 135 152 119 115 140 133 170 126 103 118 56 122 155 110 130 120 132 61 94 81 90 108 114 123 66 122 139 136 122 137 13 105 171 62 55 83 91 99 91 97 154 58 179 129 63 134 201 77 47 91 60 61 163 90 79 48 137 158 116 115 53 100 106 29 152 114 63 95 104 175 113 117 73 125 90 104 116 187 113 2 53 76 117 68 149 143 138 107 136 106 30 104 98 206 98 79 76 177 102 86 75 49 125 94 87 119 78 96 199 104 83 177 61 113 105 108 51 71 119 114 123 131 45 76 36 150 61 103 123 84 43 78 116 145 65 90 121 125 150 82 21 130 64 81 173 168 127 74 150 131 74 138 33 70 76 97 53 128 98 105 155 57 87 67 17 62 99 102 75 34 119 121 143 186 91 93 126 147 64 96 129 72 97 71 116 153 56 89 99 58 83 89 162 62 130 92 106 138 185 174 68 81 125 59 12 125 27 116 49 97 110 84 33 93 139 107 86 129 119 118 95 119 52 81 63 81 97 109 142 78 131 112 168 106 107 154 115 116 113 90 109 125 88 21 16 120 140 163 83 36 23 22 95 79 129 124 106 93 120 126 59 60 117 171 96 116 65 81 91 129 124 121 184 82 35 80 112 136 82 96 76 110 75 137 108 67 109 173 148 97 67 47 107 74 222 65 73 80 80 68 161 46 124 141 86 169 100 68 104 103 69 71 125 97 100 60 22 143 149 194 49 73 71 104 131 124 103 189 67 167 148 55 126 78 49 143 88 99 94 106 91 33 103 146 165 176 92 39 107 147 76 167 64 70 27 52 140 139 158 78 95 71 155 97 60 110 62 143 63 154 111 37 70 123 141 117 112 104 71 112 166 117 109 84 137 176 83 77 79 153 107 166 61 66 106 77 151 66 96 63 98 96 162 108 146 105 199 20 43 156 103 137 131 129 125 91 139 123 60 116 65 172 151 146 139 142 213 104 92 135 82 41 61 72 36 188 138 104 123 73 109 115 104 79 71 72 41 94 109 165 69 56 179 142 102 191 92 142 88 137 127 134 112 117 53 132 73 49 74 43 127 80 96 105 88 79 62 67 72 105 65 115 153 101 82 103 92 100 90 75 65 138 46 119 120 150 139 99 107 98 61 185 121 99 84 73 124 106 147 119 65 117 91 67 110 66 42 104 61 145 52 95 74 86 116 104 100 85 117 82 121 115 88 106 89 60 125 200 88 103 47 71 104 67 60 134 196 130 127 105 167 79 85 52 123 125 100 131 61 124 106 135 178 188 95 151 140 130 67 115 77 98 183 137 82 153 120 98 97 24 123 101 41 42 115 118 41 143 22 58 83 109 81 71 119 86 128 106 133 91 14 58 74 198 82 57 77 68 100 64 123 123 135 145 119 155 84 84 144 125 127 74 68 103 101 176 120 82 100 98 146 108 63 108 76 51 84 89 82 79 154 160 45 48 66 149 78 157 93 82 106 175 182 74 77 146 151 204 126 102 89 96 55 79 159 91 158 175 118 143 202 44 53 82 83 126 99 23 188 126 120 56 64 109 101 120 30 65 51 106 116 90 139 121 110 133 92 61 145 141 70 141 134 124 76 48 134 58 133 94 39 120 88 98 122 99 40 161 57 130 137 146 82 124 135 113 173 91 113 99 150 140 58 117 95 162 117 114 80 193 124 82 113 89 53 103 94 91 110 119 118 123 142 101 113 58 146 106 69 35 36 93 48 124 93 35 135 92 122 119 92 124 85 117 51 127 131 79 109 102 87 134 73 71 83 136 51 89 138 108 57 95 99 122 70 75 127 93 38 146 64 38 196 200 53 162 197 123 89 108 86 51 58 119 69 62 45 148 102 52 81 127 104 118 114 77 86 115 98 135 96 159 111 186 62 73 106 168 23 43 86 109 113 110 11 87 124 183 149 106 145 17 111 60 73 126 89 50 49 89 31 111 72 174 154 76 34 130 142 123 126 61 122 113 123 92 105 112 163 97 139 41 58 133 110 136 97 134 129 114 178 102 86 124 144 21 88 165 171 56 114 18 149 106 128 61 161 112 113 98 113 89 73 92 160 101 161 163 70 56 125 144 40 73 79 83 78 44 112 187 132 62 143 93 82 97 86 145 135 131 140 70 103 68 95 103 117 33 120 92 117 94 74 90 146 72 120 97 49 87 12 63 79 64 112 57 136 98 70 91 154 102 75 192 109 84 101 100 109 78 55 107 56 75 55 129 111 77 86 47 91 124 146 103 132 95 130 128 99 73 105 59 126 108 197 111 83 107 77 67 164 116 68 85 136 63 123 63 130 42 51 79 107 88 82 59 152 135 100 98 116 125 35 64 75 95 104 90 118 149 96 87 87 115 56 66 56 145 66 120 98 104 106 90 74 74 57 60 107 114 116 110 74 79 90 109 99 191 119 95 91 84 143 58 75 127 84 98 89 117 79 167 61 61 113 53 74 107 125 178 82 75 108 130 201 47 71 43 145 67 161 28 69 158 99 104 89 124 127 109 141 83 103 84 32 115 133 149 134 99 94 53 139 132 131 154 56 84 33 34 66 67 131 87 47 102 155 160 76 130 54 105 93 94 87 124 97 110 176 59 145 86 54 119 120 121 70 59 87 142 124 66 83 181 67 135 56 74 90 60 95 83 165 118 71 78 142 84 139 28 56 183 75 149 94 155 54 108 90 97 154 193 108 46 86 57 138 57 159 100 134 140 63 124 80 167 172 114 115 154 80 146 104 128 174 99 55 78 43 142 107 133 149 109 130 29 53 123 119 61 119 56 114 105 98 101 113 52 97 28 68 89 52 24 97 91 108 156 173 69 150 92 102 33 126 115 80 115 75 183 83 166 60 66 178 162 90 67 49 124 93 68 87 143 122 113 162 115 112 182 163 133 93 58 51 109 111 124 80 54 140 98 106 105 89 79 117 76 118 110 102 65 49 89 75 108 140 109 75 75 14 92 64 65 44 114 119 111 80 141 60 119 12 30 71 152 124 107 130 121 59 121 118 195 118 83 121 92 24 94 130 72 141 160 128 151 167 54 101 115 86 147 93 114 85 62 98 71 168 108 93 72 148 117 129 79 144 84 71 34 124 128 101 109 105 112 82 179 89 85 113 95 90 96 144 136 91 72 77 119 38 81 97 92 167 118 64 107 219 70 135 137 77 49 100 72 119 82 113 98 128 60 74 98 32 118 141 136 152 76 116 163 99 114 105 99 149 132 125 35 120 90 129 55 108 89 134 136 85 90 91 114 83 144 163 73 77 99 85 160 91 96 83 120 73 92 112 140 50 116 78 82 90 41 9 105 115 112 101 107 118 50 62 193 139 116 125 76 57 73 143 78 109 70 86 78 85 136 105 138 100 189 70 86 125 142 99 84 148 179 113 69 133 47 156 119 122 84 144 40 104 142 109 15 69 93 127 189 82 143 104 102 138 102 29 165 52 167 93 82 85 116 51 74 120 68 115 147 126 97 155 56 120 137 83 99 94 72 104 88 129 100 116 154 79 184 121 42 82 106 147 114 62 109 122 91 110 114 106 60 101 100 129 92 138 66 135 66 76 98 99 92 110 146 76 93 149 104 139 148 52 1</t>
+  </si>
+  <si>
+    <t>GAM(0.15758582165817456, -4.509370572841107e-28, 1.309497363694897)</t>
+  </si>
+  <si>
+    <t>1 0 1 0 1 1 2 0 1 0 0 0 1 2 2 0 0 1 3 0 1 2 0 0 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 1 1 1 0 1 1 2 0 0 2 0 1 2 0 0 0 2 0 0 2 0 1 2 2 0 1 4 2 0 1 1 0 0 0 0 2 1 1 1 0 3 0 0 1 0 1 0 0 0 1 2 0 2 1 0 0 1 1 2 1 1 0 1 1 1 2 1 0 0 3 0 1 1 0 2 0 0 0 1 2 1 0 1 0 1 2 0 1 2 2 1 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 1 0 0 0 1 1 2 2 0 1 0 1 0 0 1 1 1 0 1 1 0 1 0 0 1 2 1 0 0 0 2 0 0 0 2 1 0 0 0 1 2 0 2 1 1 0 1 0 2 2 1 0 1 0 2 0 1 1 0 1 0 2 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 2 0 0 2 2 1 1 2 1 1 0 0 1 0 3 2 2 1 0 0 0 4 1 0 1 1 1 1 0 0 2 0 0 0 0 0 2 0 2 1 1 1 1 0 3 2 0 0 2 1 1 0 1 1 1 1 2 0 1 0 1 0 1 3 0 3 1 1 2 0 3 0 2 0 0 1 0 1 1 1 0 4 1 0 3 1 1 0 0 0 1 0 1 2 2 0 2 1 0 1 0 1 1 0 1 1 0 0 2 0 0 0 1 0 2 1 2 1 1 1 0 0 0 1 1 2 1 1 1 2 0 1 0 0 1 0 1 0 1 1 1 0 0 1 0 0 2 2 2 0 1 1 2 2 1 2 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 2 1 1 0 1 0 0 3 1 2 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 2 3 1 1 1 0 4 0 0 1 0 0 1 1 0 1 1 0 1 0 1 1 2 1 0 1 1 1 0 1 1 2 1 0 2 0 0 0 1 0 1 2 1 2 2 1 0 1 1 2 2 2 0 0 1 1 1 1 0 1 0 1 2 1 1 2 0 4 0 1 1 1 1 1 1 1 1 2 2 2 0 0 0 0 0 0 1 2 1 2 0 1 2 3 2 0 1 0 0 1 1 0 1 0 0 0 1 2 2 0 1 0 1 3 0 1 1 2 2 0 1 2 2 0 1 0 0 0 0 1 0 2 1 1 0 1 0 0 1 1 0 1 1 2 1 1 0 1 1 1 1 1 1 2 1 0 1 1 1 0 0 1 2 1 1 2 2 0 0 0 0 4 0 0 1 0 0 1 1 1 2 0 0 1 2 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 2 0 1 1 1 0 0 0 1 1 2 0 0 1 0 2 1 1 0 0 1 1 0 1 1 1 1 1 2 1 1 1 1 1 1 1 0 0 0 0 0 1 0 3 2 1 1 0 0 1 0 2 1 0 1 0 0 1 2 2 1 0 0 2 2 0 2 1 0 1 0 1 1 0 1 2 1 0 1 1 0 2 0 0 1 0 3 1 1 3 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 1 1 1 0 0 2 1 1 1 0 1 2 2 0 0 1 0 2 0 1 1 1 2 1 0 0 1 0 1 0 1 1 3 1 1 2 1 0 1 1 1 1 1 0 1 1 1 2 1 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 1 2 3 1 0 0 0 1 0 0 1 2 0 1 1 2 1 1 1 0 0 1 1 0 1 1 0 1 2 0 1 1 1 0 1 1 1 1 2 1 0 1 1 0 1 0 0 2 1 1 0 0 0 3 1 0 0 0 1 1 0 1 0 0 1 4 3 1 0 0 1 2 1 1 0 0 0 1 1 1 1 4 0 0 0 1 0 0 0 0 3 0 0 0 1 1 2 1 0 0 1 3 2 1 2 2 0 1 0 3 0 2 0 1 2 0 0 2 2 2 0 2 0 1 1 0 1 1 1 0 1 0 1 2 1 1 0 1 0 2 1 2 0 1 1 0 1 0 1 1 2 1 0 2 2 2 1 1 2 1 1 2 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 2 1 2 0 3 2 0 1 2 1 0 0 0 0 0 1 1 0 2 2 0 1 1 3 1 1 2 0 1 2 2 1 3 2 0 1 2 0 0 0 1 2 3 1 1 1 0 1 3 2 1 0 0 1 1 1 0 1 0 2 1 1 1 1 2 0 1 3 0 1 0 1 0 1 1 0 1 1 1 0 1 0 1 2 1 1 3 2 1 1 0 0 2 1 2 0 3 0 0 1 1 0 1 2 1 0 0 1 0 0 0 0 1 2 0 1 0 1 1 0 1 1 0 3 0 1 0 0 2 0 1 0 0 1 2 0 1 0 1 0 1 0 0 3 0 1 0 0 0 1 1 2 3 1 1 1 2 0 1 1 0 2 1 0 1 2 0 0 2 1 2 0 1 1 2 0 0 2 0 1 0 1 2 1 2 0 0 3 1 0 0 1 1 0 3 1 3 0 1 1 0 0 0 1 1 2 0 0 1 0 3 0 0 2 0 0 2 0 1 0 1 1 1 0 0 1 2 0 1 0 0 1 0 0 1 0 1 0 2 0 1 1 2 3 2 0 0 1 1 0 2 1 0 0 2 2 1 1 0 0 1 2 0 0 2 1 0 0 2 1 1 0 1 1 2 0 0 1 0 0 0 0 1 0 0 0 2 1 1 1 1 2 0 0 0 1 1 1 1 2 1 1 0 0 0 0 1 0 1 0 1 0 3 1 0 0 0 0 1 1 0 0 1 0 0 0 1 2 0 1 3 1 3 0 2 1 0 0 1 0 0 0 1 1 0 2 0 0 3 1 1 1 1 1 2 0 0 1 0 1 1 0 1 2 2 0 0 0 0 1 0 0 0 0 0 1 1 0 2 2 0 0 2 1 1 1 2 3 0 0 0 0 3 0 1 0 3 1 1 1 1 0 1 2 1 1 1 0 0 1 0 0 1 1 1 1 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 1 1 0 2 1 2 0 1 2 0 1 1 2 1 2 2 2 1 3 2 2 1 2 2 2 1 0 1 0 1 2 1 1 2 0 1 1 1 2 1 2 1 1 1 0 0 0 1 0 0 2 1 1 0 0 1 3 1 0 2 0 0 1 0 1 0 0 0 0 3 0 0 0 1 1 0 1 2 1 0 0 1 1 2 1 0 0 1 0 2 0 1 4 1 0 1 2 0 1 0 1 2 0 0 1 0 0 1 2 1 2 0 0 1 1 3 1 2 2 1 1 1 2 0 0 0 0 0 1 1 0 1 1 1 0 1 0 0 2 1 0 0 2 1 1 2 0 1 2 0 0 0 1 2 0 1 0 2 0 0 1 0 0 0 1 0 1 1 3 2 0 1 0 0 0 0 2 0 2 1 0 0 2 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 0 1 0 1 0 2 0 0 2 0 2 1 1 1 1 1 1 1 0 2 0 1 0 0 1 1 0 2 1 1 1 1 1 1 0 1 0 1 1 0 1 0 1 0 2 2 1 2 0 2 1 0 0 2 1 3 1 0 1 1 1 0 1 1 1 0 1 0 1 0 1 2 2 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 2 0 1 0 1 2 0 2 1 0 2 2 2 0 1 0 0 0 0 1 1 0 1 1 0 1 0 2 0 0 2 3 2 1 1 0 0 2 0 1 0 2 0 2 2 1 0 0 0 2 0 1 1 0 0 0 2 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 1 1 2 2 2 0 2 1 1 2 1 1 0 2 1 0 1 1 0 0 1 1 0 0 4 1 1 2 0 0 2 1 1 0 1 1 1 0 1 1 3 0 1 2 1 0 0 0 2 0 0 1 0 1 3 0 0 0 0 0 1 2 2 1 1 0 0 1 2 0 0 0 0 2 3 0 0 0 1 1 0 0 0 0 3 1 0 0 0 1 2 0 4 1 1 0 0 0 1 1 1 1 2 0 0 0 2 0 0 3 0 2 0 1 0 0 1 1 0 2 1 0 1 1 0 1 0 0 2 1 1 0 2 2 2 0 2 1 1 0 1 1 0 0 0 0 2 1 0 0 0 1 1 1 1 0 2 1 0 0 0 1 1 0 0 1 1 1 2 1 0 0 3 0 3 1 2 1 1 2 0 1 0 0 2 0 1 1 1 0 0 1 1 0 3 0 2 2 1 2 0 1 1 0 2 0 1 2 1 1 1 1 0 2 1 2 0 1 1 3 1 1 1 2 2 2 0 1 1 0 1 0 1 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 2 2 0 0 0 1 0 0 0 1 1 0 1 0 0 1 3 0 3 0 0 1 1 0 1 1 1 2 1 3 1 1 1 3 0 0 1 1 0 2 0 1 1 1 1 1 2 1 1 0 1 0 0 1 2 1 1 1 1 0 0 2 1 2 0 1 1 2 2 0 2 0 1 1 2 1 0 0 0 0 1 2 0 1 1 0 1 2 0 3 2 0 1 1 1 0 2 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 2 0 1 1 1 1 1 0 0 1 3 0 0 1 0 3 3 0 0 1 2 2 1 1 0 0 0 1 1 1 1 1 1 2 1 2 0 0 2 1 0 0 0 0 1 0 1 2 1 3 2 2 3 2 1 1 0 1 0 2 0 2 0 2 0 0 3 1 0 0 1 1 0 2 0 1 3 0 1 1 0 1 2 1 0 4 2 1 0 1 1 2 0 1 2 1 1 1 1 1 1 0 0 0 0 1 0 1 1 2 1 0 0 0 1 2 0 1 1 2 1 0 1 0 0 2 0 0 1 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 0 0 0 3 1 1 0 0 3 0 2 3 1 1 0 0 2 0 0 0 2 0 0 0 0 0 2 1 1 1 3 0 0 1 2 1 0 0 0 1 0 1 0 0 4 0 2 1 1 0 1 0 1 0 1 0 2 0 1 2 0 1 0 1 0 1 0 1 0 0 0 1 3 0 1 1 1 2 0 1 0 2 2 2 2 1 1 1 1 0 1 1 1 2 0 0 1 0 1 1 1 2 0 2 0 2 0 1 1 1 1 2 0 0 1 0 1 0 2 0 4 0 1 1 1 1 1 0 1 3 2 0 1 0 1 0 0 1 0 0 3 1 1 1 1 0 2 1 1 1 0 0 0 1 0 0 0 0 1 3 1 0 0 0 2 0 0 2 2 2 1 0 1 1 1 0 3 0 1 2 1 1 0 2 3 1 0 0 1 2 1 0 2 0 2 1 0 0 0 2 0 3 1 1 2 0 1 0 1 1 3 1 4 1 0 1 0 2 0 0 1 0 1 0 1 1 2 0 3 1 0 0 1 0 1 0 2 0 0 1 1 2 0 1 2 1 1 2 1 2 2 0 1 0 2 1 1 0 3 1 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 2 1 0 1 0 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 2 0 2 0 0 1 1 2 0 2 1 1 2 0 2 2 0 0 1 0 1 1 0 1 1 0 1 1 2 0 0 2 2 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 2 0 1 0 2 3 1 2 1 3 0 0 2 2 0 2 1 0 0 2 0 2 1 2 2 0 0 1 2 1 3 2 1 1 0 0 2 1 2 1 1 1 2 0 1 0 0 1 4 1 2 1 1 1 0 2 1 1 3 1 1 2 1 0 0 2 1 0 2 0 1 1 0 0 2 0 0 2 0 1 0 0 0 1 1 1 1 0 3 1 0 1 2 2 1 1 0 2 0 2 1 0 0 0 2 0 2 0 0 0 1 3 1 1 1 0 1 0 1 1 4 1 0 1 2 0 0 1 0 2 1 4 0 2 0 2 1 0 0 0 1 0 0 0 0 0 2 2 3 1 0 2 0 0 0 1 2 0 1 0 1 1 1 3 1 0 1 2 2 1 2 0 0 0 1 1 0 1 0 0 0 2 0 0 0 2 0 0 0 2 1 1 0 0 1 0 1 2 2 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 1 1 2 2 0 0 2 1 1 1 1 2 2 1 1 1 0 3 1 1 2 2 1 2 1 0 1 0 2 1 1 1 2 0 2 1 1 1 0 2 2 1 1 0 1 3 0 1 2 2 0 0 0 1 1 3 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 0 3 0 0 2 0 0 1 2 0 1 1 1 1 0 1 0 1 2 0 1 2 0 0 0 2 1 0 2 1 2 0 2 1 3 2 3 0 0 0 0 0 1 0 1 1 0 2 2 1 0 2 0 0 2 0 1 1 0 0 0 1 0 1 3 1 0 0 2 1 1 0 2 0 0 3 1 0 1 0 1 0 2 1 1 0 2 0 1 2 0 0 1 1 0 1 2 2 0 0 0 0 0 0 0 2 2 0 2 0 1 3 2 3 0 1 1 1 3 1 0 1 1 3 3 3 1 1 1 0 1 1 0 2 0 0 2 0 1 1 2 1 1 3 0 0 0 0 0 0 0 0 1 0 0 3 1 1 1 1 0 1 3 1 1 0 1 1 0 3 2 0 1 0 1 1 2 3 0 0 0 0 0 2 1 1 0 0 0 0 2 1 1 2 1 0 1 2 0 2 0 1 0 1 1 0 1 0 1 1 1 1 1 2 2 0 1 0 0 1 1 1 0 1 0 0 1 1 2 1 1 0 0 1 1 1 1 1 1 1 1 1 1 2 2 1 3 0 2 0 1 1 1 0 1 1 0 0 2 1 4 1 0 2 0 1 0 1 0 2 0 1 1 0 2 1 1 1 0 3 0 1 1 2 0 0 0 0 2 1 1 3 0 0 2 0 1 1 0 0 1 1 0 0 2 0 2 1 0 0 1 1 0 0 1 0 2 1 1 0 3 2 1 0 0 0 0 0 1 1 2 1 0 1 0 1 1 0 1 1 0 1 2 1 0 0 0 0 2 0 1 0 1 1 3 1 1 0 0 0 1 1 1 0 0 2 0 2 2 0 1 0 1 1 1 1 1 2 2 1 3 1 1 0 1 1 1 2 1 3 0 2 2 0 2 1 1 0 1 0 1 0 0 0 1 2 1 0 0 0 0 1 0 0 1 2 0 3 0 2 1 2 1 2 1 0 2 0 0 1 1 0 0 1 1 0 1 2 0 2 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 2 1 0 1 2 0 0 0 2 2 0 0 1 0 2 0 0 1 0 1 0 2 1 1 0 2 0 2 0 0 0 0 0 1 0 0 1 3 0 2 3 0 1 1 0 0 2 3 0 1 1 0 2 1 0 1 1 1 0 1 0 1 0 1 1 3 0 0 1 0 2 0 3 1 0 0 1 2 2 0 0 1 2 1 3 1 0 0 0 0 2 2 0 1 0 0 1 0 2 0 0 0 1 1 0 1 1 1 3 0 1 2 0 1 0 0 1 2 1 0 0 1 1 1 2 1 1 1 1 0 1 2 1 0 1 4 1 0 1 0 1 2 0 1 0 0 1 0 2 1 1 1 1 0 0 0 1 2 2 2 1 0 0 1 0 2 0 2 1 0 1 2 1 1 0 0 1 1 2 1 1 0 1 1 1 0 1 0 0 0 2 1 1 0 1 0 2 0 1 2 0 1 0 1 1 2 3 1 1 2 1 1 0 2 3 1 4 1 1 0 0 2 1 0 0 0 1 2 0 1 2 0 0 0 1 0 0 0 1 0 1 0 0 1 2 0 1 0 2 1 1 2 1 0 0 1 2 0 1 0 0 2 1 0 2 0 1 1 0 0 3 1 1 2 2 0 0 2 0 0 0 1 1 0 1 1 1 0 0 0 0 0 2 0 1 0 1 0 0 0 1 2 3 1 0 0 1 1 1 1 0 2 1 0 1 0 1 1 0 0 2 1 2 1 1 0 1 1 0 1 1 1 0 1 2 1 1 0 2 0 1 0 2 0 1 1 2 1 2 2 0 1 2 2 1 1 1 2 1 0 0 2 1 0 1 0 1 0 1 0 2 1 1 0 0 1 0 1 2 0 0 0 0 1 0 0 0 1 0 1 0 2 0 1 0 0 0 0 2 1 1 0 0 0 0 2 1 0 1 0 0 0 1 1 1 0 1 0 2 0 0 2 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 2 2 1 2 0 0 1 0 0 2 1 1 1 0 1 0 2 0 1 1 0 1 1 1 0 1 0 2 1 1 1 1 1 1 0 1 0 0 0 1 0 2 1 0 2 1 0 1 1 2 1 2 0 1 2 1 1 1 0 0 1 2 1 1 0 1 0 1 0 0 0 0 2 0 0 1 0 0 2 1 2 1 1 0 2 0 2 1 1 4 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 1 0 2 1 0 0 1 3 1 1 1 1 1 1 1 1 2 1 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 2 1 1 2 1 1 1 0 0 2 0 2 0 0 2 2 2 1 1 1 2 0 0 1 0 0 1 0 1 0 0 0 0 0 3 1 0 0 0 2 1 0 0 2 2 1 2 1 1 0 1 1 0 1 1 1 0 0 2 2 1 2 0 1 1 1 1 3 1 1 0 1 0 1 1 0 0 0 1 1 2 1 2 1 1 1 0 2 0 2 2 0 3 1 1 0 0 0 2 0 1 0 0 2 0 2 0 0 3 0 0 1 2 0 0 3 0 1 2 1 1 2 0 2 1 0 1 2 1 2 1 0 1 2 2 2 1 0 1 1 0 1 0 1 2 3 2 2 1 1 0 0 1 0 0 0 0 2 0 0 0 2 1 1 0 0 1 0 0 0 1 0 1 1 2 2 1 2 1 1 2 0 3 1 1 1 2 1 0 0 0 0 0 2 2 0 0 0 1 2 1 0 1 2 0 0 0 1 0 2 1 1 1 1 1 1 1 0 0 2 1 1 1 0 2 1 0 1 0 0 0 1 1 1 2 0 1 0 4 0 2 0 0 2 1 3 1 0 1 1 1 3 2 1 1 0 1 2 1 0 1 2 2 3 0 2 0 0 0 0 1 0 2 1 1 3 0 1 0 1 1 1 3 0 2 1 1 0 0 2 1 1 2 0 1 0 0 1 2 0 0 0 1 2 0 0 2 1 1 0 0 1 1 1 0 0 2 1 1 0 0 0 1 3 1 0 1 1 0 3 1 3 0 0 0 1 4 0 0 2 1 0 0 1 0 1 0 2 1 1 1 0 0 1 0 1 1 2 1 2 1 0 1 2 0 0 1 0 1 0 3 2 3 0 0 0 1 2 1 1 0 0 1 0 2 1 0 1 3 2 1 1 2 0 0 1 0 0 0 0 2 2 1 0 0 2 0 1 0 1 0 0 0 1 3 0 0 1 2 1 0 0 1 2 1 0 0 0 1 1 1 1 2 3 0 0 0 1 1 3 1 1 0 1 3 1 2 0 3 2 2 1 0 0 3 2 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 2 0 1 2 0 2 1 0 0 0 2 1 3 1 1 1 1 1 0 0 0 2 0 0 1 1 1 0 0 0 1 2 0 1 0 1 1 0 1 0 2 1 2 2 1 0 2 1 0 0 1 1 0 0 1 0 3 1 0 0 0 1 1 1 0 0 0 3 3 1 0 1 0 1 2 1 0 1 2 1 0 1 1 2 2 0 1 0 1 2 1 0 3 0 1 1 0 2 0 0 1 3 1 0 2 1 1 1 2 1 2 0 2 0 0 0 1 2 1 2 0 1 1 1 1 1 0 2 1 0 2 0 0 0 0 1 0 0 0 1 0 2 1 0 2 1 0 1 2 1 2 1 1 1 1 3 2 0 0 1 0 0 0 1 0 0 0 3 2 0 1 0 0 0 0 2 0 1 0 1 1 1 1 2 2 1 2 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 2 0 0 1 0 1 1 0 0 0 1 1 0 2 2 1 0 2 0 0 1 1 0 0 0 1 0 2 0 1 1 0 0 0 2 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 2 2 0 1 0 0 0 0 0 5 0 1 3 4 0 0 1 0 2 1 1 1 1 0 1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 2 0 0 0 2 0 0 1 0 1 0 1 1 0 0 0 2 0 0 0 2 1 2 0 3 2 0 1 1 0 2 0 0 0 1 2 1 1 1 1 1 1 3 0 1 0 2 0 0 0 1 0 0 1 2 0 2 0 1 1 2 0 0 1 1 2 0 0 0 0 3 4 0 0 0 0 2 1 2 0 0 0 0 1 0 0 1 1 1 1 1 1 2 0 1 0 0 0 2 1 0 0 1 1 0 0 1 2 1 0 0 1 1 0 0 0 1 1 0 1 0 2 1 0 2 1 1 1 1 0 3 0 3 0 1 1 0 0 1 0 0 1 2 1 1 1 1 2 1 1 0 2 0 0 1 0 1 3 2 0 0 0 0 2 1 1 0 0 0 4 0 1 1 1 1 0 0 0 2 0 1 1 1 0 0 1 2 2 0 2 1 2 0 0 0 2 0 1 1 2 1 2 0 1 4 2 1 1 0 2 1 0 0 0 0 0 1 1 1 1 1 1 0 0 0 4 2 1 0 0 0 0 0 0 2 0 0 1 1 2 0 1 1 0 1 1 1 1 1 1 1 2 3 1 1 1 0 0 1 1 0 1 0 0 0 4 2 1 1 2 1 0 1 3 0 1 0 0 1 0 1 1 0 1 0 0 2 1 3 0 0 0 0 0 2 1 2 1 1 1 1 2 1 1 1 2 0 0 0 1 0 0 3 1 2 0 3 1 0 0 2 0 2 0 0 0 2 2 2 0 0 2 0 0 4 1 2 0 1 1 1 2 1 0 0 3 1 1 1 2 0 0 0 0 1 1 1 2 1 1 1 1 1 1 2 1 0 0 1 1 0 1 1 0 0 1 1 2 2 0 0 0 1 1 1 1 2 1 1 2 0 0 1 0 1 2 1 2 1 1 0 0 1 1 0 0 1 1 1 3 1 1 1 0 0 0 2 1 0 1 1 1 1 1 1 1 0 0 0 1 2 1 1 1 0 1 0 0 1 3 1 0 1 1 0 1 1 1 0 1 0 0 1 0 0 1 1 1 3 0 1 0 0 0 1 2 0 0 2 0 1 2 2 2 0 0 2 1 0 1 0 0 1 1 1 1 0 0 0 1 2 2 0 1 1 1 1 1 0 1 3 0 0 0 2 0 1 0 2 1 1 1 0 2 2 0 0 1 2 0 2 1 2 0 0 0 1 1 2 0 1 0 1 1 1 1 2 1 0 1 0 0 0 2 1 0 1 0 1 3 0 2 0 0 1 0 1 1 0 0 1 0 0 0 3 0 1 0 0 1 0 1 2 0 1 2 1 1 0 2 1 0 1 0 1 1 0 2 0 1 3 1 2 0 2 1 2 1 0 2 0 1 0 1 0 0 1 0 1 0 0 0 0 2 4 1 0 0 1 1 1 1 0 2 0 2 2 1 1 1 1 3 4 0 0 1 2 2 2 0 0 1 1 0 1 0 2 1 1 1 1 1 0 0 0 0 1 0 1 0 0 1 2 0 1 2 0 1 0 2 0 1 1 2 0 2 0 1 0 1 0 1 2 1 0 1 1 1 2 1 3 1 1 1 2 0 0 0 1 2 1 0 1 2 0 1 1 0 1 0 1 2 2 1 1 0 0 1 0 0 1 1 0 0 1 3 2 0 0 0 0 0 1 2 2 0 1 2 0 1 2 1 0 0 0 2 0 0 0 0 3 0 1 0 1 1 3 1 1 0 0 2 3 0 0 4 3 2 0 2 3 1 1 1 2 0 1 0 0 1 3 1 0 1 1 0 2 1 2 1 0 0 1 2 2 0 2 0 1 1 1 0 1 0 0 1 3 1 1 3 2 2 1 1 0 0 3 1 2 1 1 2 0 2 1 1 1 1 2 1 0 2 1 0 0 2 1 2 0 0 3 1 1 1 1 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 1 0 2 1 1 1 0 2 0 1 2 1 1 0 0 0 0 2 1 1 1 1 0 1 0 0 1 0 2 1 0 1 0 0 2 0 1 1 4 2 1 0 1 0 0 0 0 2 0 0 1 2 1 2 2 1 2 0 0 0 0 1 2 0 2 2 1 1 0 1 0 0 1 0 2 0 1 2 3 1 1 1 3 1 1 1 1 0 1 1 1 0 2 0 0 0 2 2 1 2 0 0 0 1 2 2 0 0 1 1 1 0 0 1 0 0 0 1 1 1 0 1 2 0 0 1 0 0 2 1 1 1 0 2 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 2 0 0 2 0 0 0 1 2 1 0 0 0 0 1 1 3 1 2 0 2 1 0 0 0 2 2 1 1 1 2 0 1 3 0 0 1 0 1 0 1 1 2 1 0 1 1 0 0 0 0 1 1 1 1 2 0 1 0 0 2 1 1 0 0 0 1 1 0 1 1 1 2 2 1 1 2 0 1 1 0 1 0 0 1 0 2 1 0 1 0 0 0 0 2 2 1 0 0 1 0 0 2 0 1 0 0 1 1 2 1 1 1 0 1 0 0 1 0 0 1 1 1 1 1 1 2 0 1 0 0 2 0 1 2 1 1 0 1 1 2 0 0 2 0 1 0 1 1 0 0 0 2 2 1 2 1 0 1 0 2 1 1 0 1 0 1 1 0 1 2 0 1 0 0 0 2 0 1 0 2 1 0 1 0 2 2 1 2 1 3 1 1 2 1 0 0 0 0 0 1 0 0 0 3 0 0 1 1 0 2 0 0 0 1 2 0 0 0 1 0 0 0 0 2 2 1 0 1 1 1 1 1 0 0 0 1 1 0 0 0 0 0 2 0 0 2 1 2 1 0 1 0 0 1 1 0 1 1 1 1 1 1 0 1 2 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 3 1 0 1 0 0 0 0 0 0 1 1 0 0 2 0 1 1 0 2 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 2 3 1 1 0 2 0 1 1 0 0 0 0 0 1 0 1 0 2 3 3 1 1 0 1 1 1 2 0 0 2 1 0 2 1 0 0 0 0 3 0 0 3 0 1 0 1 0 1 2 0 3 0 1 2 0 2 0 1 0 1 1 0 1 0 1 1 2 4 0 1 1 1 2 1 2 3 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 1 0 2 1 3 1 1 1 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 2 0 1 1 2 2 1 1 0 2 0 0 0 0 2 2 0 0 0 1 0 1 2 1 1 0 1 1 0 2 1 0 0 0 1 0 3 1 0 0 0 1 2 0 1 2 0 0 1 1 0 2 0 0 0 1 0 1 1 1 2 1 1 1 2 2 1 0 0 0 0 3 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 2 1 0 0 0 1 0 2 2 1 2 1 0 2 0 0 2 0 0 1 1 1 2 1 1 1 1 2 3 0 1 0 1 0 1 1 1 2 2 0 1 0 0 2 2 2 2 2 1 0 1 0 1 1 2 0 2 1 1 1 3 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 0 0 3 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 1 2 0 1 2 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 4 2 0 1 2 1 0 0 1 1 2 2 0 0 0 1 1 1 1 0 4 0 1 1 0 0 1 0 0 1 1 1 1 1 0 2 1 2 0 2 0 0 1 1 0 1 2 0 1 0 0 1 3 3 2 1 2 0 0 1 0 1 2 0 0 2 1 0 1 1 1 1 3 2 1 3 1 1 1 1 0 1 2 1 1 0 0 2 1 1 0 0 0 3 0 1 1 1 1 0 1 0 0 1 1 2 0 1 2 1 0 1 2 3 0 1 4 2 0 0 2 1 0 2 0 0 0 1 2 0 0 0 1 2 0 1 1 1 1 2 0 0 0 2 0 0 1 0 1 0 1 1 1 0 0 0 1 0 0 1 2 1 0 1 0 0 0 0 1 1 0 1 0 0 2 0 1 1 1 0 1 0 1 2 1 1 2 0 0 0 1 1 1 1 1 3 0 1 0 0 0 2 0 3 0 1 0 2 1 2 0 0 2 1 1 1 0 0 1 1 1 1 0 1 0 2 0 0 2 0 1 1 0 0 1 2 1 0 1 1 1 0 0 0 1 1 2 0 0 2 3 0 0 2 0 1 0 0 0 2 0 0 0 1 1 0 2 0 1 1 3 0 1 0 0 2 1 0 0 0 2 0 0 0 1 1 1 0 1 1 1 1 1 1 1 0 1 0 1 0 0 0 3 0 0 1 1 0 1 1 2 0 3 0 1 0 2 1 1 0 1 0 1 1 0 1 0 2 0 2 2 1 2 0 1 0 0 1 2 1 1 0 4 1 0 0 1 1 1 2 0 1 1 4 0 0 1 0 0 1 0 5 0 1 3 1 0 1 0 1 0 0 7 0 0 1 2 1 1 0 2 1 2 0 1 1 2 1 3 0 0 1 0 1 1 3 2 2 0 1 0 0 2 1 0 1 0 0 1 1 1 1 1 1 1 2 1 0 1 0 0 0 0 0 1 1 1 1 1 0 0 0 1 2 0 0 1 2 1 1 1 0 1 1 0 0 1 0 0 1 1 1 0 0 1 2 1 0 0 1 1 0 1 0 1 1 0 1 1 2 3 2 0 0 0 0 0 2 0 2 0 0 2 1 2 1 1 1 1 1 0 1 0 1 1 1 0 1 1 3 1 0 0 0 4 1 2 0 2 1 1 1 0 0 0 1 3 1 1 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 1 0 1 2 0 0 0 0 1 0 1 1 3 1 2 1 2 2 0 1 0 0 1 1 1 1 0 1 0 1 0 3 1 1 2 1 0 1 0 3 2 0 1 0 0 1 0 2 0 2 2 1 1 1 1 1 0 1 0 1 2 1 0 1 0 1 2 2 1 1 2 1 1 0 0 2 1 0 0 1 0 0 2 1 1 0 1 0 1 2 0 1 1 1 2 2 0 0 0 2 1 0 2 0 1 5 1 0 1 3 0 1 1 0 0 0 1 0 1 4 0 2 1 0 1 2 0 1 0 1 1 1 1 0 0 1 0 2 3 1 2 0 0 1 0 0 4 0 1 2 0 0 1 1 0 0 1 2 2 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 3 0 2 2 1 2 1 0 0 1 2 0 0 2 1 2 0 2 1 1 1 3 0 1 1 1 2 1 0 1 0 0 1 0 1 0 0 1 2 1 0 1 1 0 1 2 0 0 3 0 3 2 3 1 0 1 3 0 1 0 2 2 1 1 0 1 0 3 0 0 2 2 0 0 1 2 0 2 3 1 1 2 0 0 2 1 0 1 2 0 1 0 0 0 2 0 0 1 1 1 0 0 1 2 0 1 1 1 1 1 1 0 0 2 1 1 0 0 1 1 1 0 3 1 0 0 1 1 0 3 1 5 0 0 0 1 2 2 0 2 2 3 0 2 1 1 0 0 2 0 0 1 0 1 0 0 1 3 1 1 0 0 1 1 1 1 2 1 1 1 2 1 0 1 1 1 1 1 0 2 1 0 1 1 2 0 1 0 0 0 0 1 1 1 2 2 2 0 0 0 0 1 1 0 2 1 0 0 1 2 2 2 2 0 1 2 0 1 1 0 3 0 1 2 2 1 0 0 1 0 0 1 1 2 0 1 1 3 0 2 4 1 0 0 0 1 1 1 0 2 0 1 0 3 1 1 0 2 0 1 0 1 2 1 3 0 1 2 0 0 0 0 1 2 3 0 1 0 2 3 0 1 0 0 1 1 2 3 2 1 0 0 0 0 1 2 1 0 0 2 0 0 1 0 1 2 0 0 1 1 2 2 1 1 1 2 2 1 1 2 0 2 1 1 0 1 1 0 1 0 1 1 1 0 2 1 0 2 0 0 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1 3 0 2 0 1 0 1 0 0 1 2 2 1 0 0 2 0 2 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 1 2 1 0 2 0 0 0 2 2 2 0 1 0 0 1 0 0 1 0 2 3 0 0 1 1 2 1 0 0 0 0 0 2 2 1 3 0 1 1 1 1 3 0 1 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 1 0 0 2 2 1 1 0 2 1 1 1 0 0 1 1 0 2 1 0 0 0 0 1 0 1 3 1 0 0 0 0 2 0 3 1 1 1 2 0 0 0 1 0 0 0 1 0 1 1 1 1 1 1 2 1 1 1 0 0 0 1 0 2 1 1 0 1 0 0 1 1 1 1 1 1 1 1 1 0 2 0 0 0 0 0 2 1 0 0 0 0 2 1 0 1 2 1 1 1 1 1 1 2 0 0 2 0 1 0 2 1 1 1 0 0 1 1 2 1 0 0 2 1 3 1 0 3 0 0 0 0 2 0 0 3 0 1 1 1 0 0 1 1 1 1 0 0 1 0 1 0 2 0 1 1 1 0 0 1 1 1 1 0 0 2 2 0 1 1 0 0 1 0 0 2 0 1 0 0 0 1 1 0 0 2 0 1 0 1 2 1 1 2 1 0 1 1 2 0 1 3 0 1 1 0 1 0 0 2 1 1 0 0 2 0 0 1 0 1 2 1 1 1 0 1 1 0 2 1 0 0 1 1 1 0 0 0 1 1 1 0 0 0 2 0 2 0 1 0 0 1 1 0 2 0 0 0 2 1 1 1 1 0 0 0 0 2 1 1 0 1 0 0 1 0 0 1 0 1 1 2 1 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 1 1 0 0 1 1 1 0 0 0 1 1 3 1 1 1 2 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 1 1 2 1 0 1 2 0 0 3 1 1 1 0 0 0 1 0 2 0 0 0 0 2 2 1 2 0 1 0 1 1 0 1 2 0 0 1 0 2 0 1 0 0 1 0 1 0 3 1 0 3 2 1 4 1 2 2 0 0 1 3 0 2 1 2 0 1 1 1 0 1 1 0 0 1 2 1 2 2 1 1 1 0 0 1 2 1 0 0 1 1 1 0 1 0 2 1 1 0 1 2 0 0 2 2 0 0 0 0 0 1 1 1 0 0 0 0 1 2 0 1 2 0 2 0 0 1 1 0 0 0 2 0 1 2 0 2 1 0 1 2 0 2 0 3 0 0 2 0 1 2 0 0 2 1 1 1 0 0 1 1 0 0 1 0 0 1 1 1 0 1 0 1 2 0 1 0 0 2 1 1 0 0 0 2 2 1 2 0 1 0 1 1 2 2 0 2 1 0 0 1 1 1 2 0 1 0 2 2 0 2 0 2 1 2 2 1 1 0 3 0 1 0 0 1 0 1 1 2 0 2 0 1 2 2 1 0 0 1 0 1 0 0 0 4 0 1 2 1 2 1 2 2 0 2 0 2 0 0 0 0 1 2 1 3 0 2 0 2 0 0 0 0 2 1 1 1 1 0 0 0 0 4 0 1 1 2 0 0 1 1 1 1 1 0 0 0 0 2 1 1 0 2 2 1 1 0 0 1 0 1 0 0 1 1 1 1 2 0 1 1 1 2 1 1 1 0 0 2 0 2 1 1 0 1 0 1 2 0 2 1 1 0 0 1 1 1 1 3 0 0 1 2 1 0 1 1 3 1 0 0 1 2 3 1 1 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 2 1 0 0 1 2 0 1 0 0 0 1 0 1 0 0 1 0 0 0 3 1 0 3 1 1 1 0 0 0 1 0 1 1 0 0 1 1 2 0 0 0 0 2 0 0 2 1 0 0 1 0 0 0 0 1 0 1 0 1 2 3 2 1 1 1 3 2 1 1 0 1 0 1 3 1 1 3 1 0 2 0 1 2 1 0 0 1 1 1 1 1 0 1 1 0 1 0 0 1 0 0 1 2 0 3 1 0 3 0 1 2 0 1 0 1 2 0 1 1 1 0 0 0 0 3 0 1 0 0 1 2 1 3 1 1 1 0 2 2 3 1 0 1 1 2 1 1 1 0 1 0 2 3 0 1 1 0 1 1 2 1 3 1 1 0 1 1 1 0 0 0 0 1 2 1 2 0 1 0 0 1 0 1 1 1 1 1 1 1 1 4 1 0 0 1 0 0 2 2 0 1 0 0 1 1 0 1 0 1 1 0 1 2 0 1 2 1 1 2 0 0 1 2 1 1 0 2 1 0 2 1 0 1 1 0 1 0 1 1 0 2 1 2 1 0 0 1 0 0 1 1 2 0 0 0 1 2 0 0 1 0 2 0 1 0 1 0 0 1 0 1 0 0 2 1 0 3 1 1 3 1 2 2 1 1 0 3 0 0 2 1 0 2 0 2 0 1 1 1 0 1 1 0 1 0 0 3 1 1 1 0 3 1 1 0 1 1 1 1 1 0 0 1 1 0 4 1 1 0 1 1 0 1 1 1 1 0 0 3 0 0 0 1 0 0 1 2 1 0 1 0 0 2 1 2 2 0 2 2 2 2 0 0 1 0 1 1 0 1 0 2 1 0 1 0 2 1 2 1 0 2 0 0 1 0 0 1 0 0 0 1 0 2 1 3 1 0 0 1 1 0 0 2 1 1 2 2 0 0 3 1 2 0 2 1 1 1 2 0 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 0 1 2 2 2 1 1 0 0 1 0 1 1 2 1 1 2 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 1 0 2 1 0 0 2 1 1 1 1 0 1 0 0 2 1 1 0 1 1 0 0 0 2 1 0 0 0 1 1 1 0 0 1 2 0 1 0 1 2 2 1 0 0 0 0 1 1 1 0 1 0 2 0 0 0 0 0 0 1 0 0 1 2 0 2 0 1 1 2 1 0 1 0 1 3 2 0 1 0 1 1 1 1 2 0 2 1 0 1 3 1 0 1 1 0 1 0 1 1 1 2 2 0 0 0 1 1 0 0 1 2 2 2 1 2 0 0 0 2 2 2 0 0 1 0 2 0 0 1 1 2 1 2 1 2 1 3 0 1 0 1 3 0 3 0 0 1 0 1 1 1 2 1 2 0 0 0 0 1 1 0 0 3 0 1 0 1 0 0 0 2 0 0 1 0 1 0 1 1 0 2 0 0 2 1 0 1 0 1 0 1 0 0 1 1 0 0 1 2 2 1 0 2 1 1 2 2 1 2 0 1 0 0 0 0 1 3 2 0 0 1 2 1 0 0 1 0 4 2 0 1 0 0 2 1 4 0 1 1 0 0 1 0 0 1 1 1 2 1 2 1 0 0 1 1 1 2 1 1 0 1 1 3 0 1 1 1 0 1 1 0 3 1 1 3 1 0 1 0 2 2 0 1 0 1 1 0 4 1 0 0 2 2 2 0 1 3 1 0 1 0 0 1 1 2 2 2 0 0 1 0 2 1 3 3 2 1 0 2 0 1 1 1 1 1 0 1 2 1 0 0 0 1 2 0 0 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 3 3 2 1 2 1 0 0 0 1 3 0 0 1 1 1 2 2 1 0 0 1 1 0 0 1 0 3 1 0 0 1 1 0 1 1 0 1 0 0 0 0 1 1 2 1 1 1 0 0 0 2 0 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 2 2 0 2 0 2 2 0 3 1 3 0 2 0 3 1 2 0 0 0 1 0 0 1 0 0 0 2 1 3 0 1 0 2 0 2 1 1 3 2 0 0 0 1 1 0 0 0 3 1 0 0 1 1 1 1 1 1 1 1 2 1 2 1 0 1 2 0 2 0 0 1 0 1 0 0 1 1 1 0 3 1 1 0 0 0 0 0 1 2 2 1 0 1 1 1 2 0 0 3 0 2 1 1 0 1 0 0 2 0 0 1 0 1 2 1 1 0 2 2 0 2 0 1 1 1 1 3 1 0 0 2 1 0 2 3 1 1 1 2 1 1 0 0 0 0 1 1 1 0 2 2 0 0 0 0 2 2 2 1 2 1 0 0 1 3 1 1 2 2 0 1 2 0 2 1 2 0 0 2 0 0 0 0 1 1 0 1 0 0 0 0 0 3 0 0 0 1 0 2 0 0 1 1 0 1 1 1 2 1 3 1 2 3 0 1 0 0 2 1 0 1 3 2 1 2 0 1 1 1 0 1 0 2 0 0 0 1 1 1 3 0 0 2 0 1 1 0 2 1 0 1 0 0 0 0 1 2 0 0 3 1 1 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 1 1 3 0 1 0 1 1 4 1 1 3 1 1 1 1 0 1 2 1 0 0 2 3 2 3 0 2 3 2 0 0 2 1 1 0 0 0 0 2 0 1 0 1 1 1 1 0 2 1 0 1 1 1 0 2 1 2 1 2 1 1 0 0 2 1 1 1 2 1 0 1 0 0 0 3 0 2 2 0 1 0 2 2 1 1 0 1 2 0 0 1 1 1 1 1 3 1 0 0 1 0 1 3 1 2 0 0 2 1 0 1 0 2 1 1 0 0 3 2 0 1 2 0 1 1 0 0 2 1 0 1 0 2 1 2 1 1 0 0 1 1 0 1 1 1 0 0 4 0 0 1 1 2 0 1 0 2 3 2 0 2 1 1 0 1 1 1 0 1 1 0 0 2 2 1 2 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 2 0 1 0 1 0 1 0 1 1 0 0 2 0 0 1 5 0 0 0 1 0 0 2 0 1 0 0 1 2 2 0 2 0 1 1 0 0 2 1 1 0 1 0 0 0 1 3 0 2 2 1 0 0 0 1 0 0 2 0 0 1 3 1 0 0 1 1 2 0 2 1 1 3 1 0 2 1 2 1 2 1 0 3 0 0 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 2 1 1 0 0 3 0 0 0 1 1 2 1 1 1 0 0 0 1 3 0 2 1 0 1 1 0 2 0 1 2 1 1 1 2 1 0 1 1 2 2 3 0 0 0 0 0 0 2 1 1 0 2 2 0 1 0 2 0 0 0 0 1 1 1 1 2 1 2 0 0 0 0 1 0 1 2 0 1 1 0 0 1 0 1 0 1 0 0 1 3 1 1 0 0 3 2 0 0 1 1 0 3 1 0 3 1 2 0 2 3 1 0 0 1 2 1 1 2 1 1 1 1 1 0 0 0 1 0 1 1 0 2 0 0 1 1 1 0 1 2 1 1 0 0 2 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 2 1 3 1 0 0 0 0 2 1 1 0 1 0 0 0 0 0 2 0 0 1 0 0 2 0 0 3 0 1 1 2 2 2 1</t>
   </si>
   <si>
     <t>Name</t>
@@ -222,15 +222,15 @@
     <t>T.Wallace</t>
   </si>
   <si>
+    <t>E.Tomlinson</t>
+  </si>
+  <si>
+    <t>N.Boyle</t>
+  </si>
+  <si>
     <t>M.Boykin</t>
   </si>
   <si>
-    <t>E.Tomlinson</t>
-  </si>
-  <si>
-    <t>N.Boyle</t>
-  </si>
-  <si>
     <t>N.McCrary</t>
   </si>
   <si>
@@ -264,52 +264,52 @@
     <t>J.Tucker</t>
   </si>
   <si>
-    <t>NIG(31.464152411688005, 16.481275215710056, -1.0001826406585161, 34.84472450310422)</t>
-  </si>
-  <si>
-    <t>10 17 23 12 11 7 17 23 16 20 25 20 29 6 19 37 14 18 17 22 21 16 16 13 22 32 10 16 7 26 17 23 10 16 22 14 27 10 13 16 12 19 23 17 20 21 13 23 12 42 10 20 22 13 20 20 14 23 19 31 20 13 20 31 14 19 14 23 13 19 6 13 23 16 14 19 10 16 24 11 21 19 7 24 28 27 17 20 16 24 20 21 21 16 27 27 26 20 24 27 28 24 16 24 13 28 13 16 10 23 23 12 10 6 13 27 20 19 22 17 26 23 24 13 18 10 13 31 20 27 17 20 14 23 23 13 17 17 24 13 13 21 15 35 22 21 26 23 14 20 37 13 14 14 16 27 20 28 16 24 19 17 20 17 21 21 10 21 9 17 6 13 20 14 0 13 14 24 21 23 24 9 17 27 19 31 16 19 14 16 27 25 20 19 27 13 34 27 28 23 20 24 27 19 27 17 16 20 13 24 31 7 13 37 26 14 23 34 21 12 16 35 13 21 17 17 15 12 15 24 19 17 31 41 19 27 13 25 7 12 36 24 23 16 31 25 30 11 21 14 16 10 9 21 16 17 3 9 20 28 24 17 16 6 22 17 24 23 17 14 11 20 28 23 16 17 26 34 9 24 22 15 35 21 20 35 17 14 23 24 20 10 22 30 3 17 23 26 34 16 23 17 20 6 17 17 24 33 40 24 13 27 28 22 13 6 10 21 17 31 13 16 20 20 23 15 19 17 14 13 34 19 13 16 9 25 34 27 24 6 0 21 10 25 20 17 27 34 20 22 28 36 15 28 27 14 20 22 7 17 20 20 21 14 20 24 24 25 13 36 14 31 16 20 20 28 38 10 14 20 31 23 24 14 6 27 17 3 16 40 21 24 19 20 24 28 30 20 26 21 15 24 12 9 20 24 21 20 30 23 25 13 27 13 14 24 14 13 13 3 17 10 24 30 35 30 26 17 30 11 20 23 24 23 19 9 27 13 19 24 34 20 26 24 21 10 17 24 31 14 23 30 18 27 13 20 13 29 28 20 30 20 30 22 27 10 17 13 12 15 40 38 15 24 13 17 10 27 20 30 27 14 17 17 10 27 17 13 17 33 27 20 17 23 13 14 24 27 20 21 31 13 7 24 17 17 16 21 15 19 20 24 23 13 17 16 18 24 29 13 10 34 20 30 26 20 14 23 27 20 27 20 23 12 28 10 25 17 6 15 30 29 19 15 15 23 19 37 33 15 27 23 10 17 24 31 17 30 27 14 19 23 30 38 6 29 20 20 21 31 10 14 13 20 20 17 28 13 18 33 10 20 27 23 10 25 12 17 24 13 22 13 20 19 17 21 22 13 10 24 26 27 12 34 13 23 29 24 17 20 16 27 9 12 18 20 29 33 17 20 34 29 11 30 13 27 27 30 9 12 38 24 27 24 0 10 27 31 9 27 20 14 17 16 31 23 20 14 27 10 16 7 16 30 17 17 24 24 6 34 18 10 33 31 20 31 17 26 19 27 22 10 24 24 20 13 21 0 14 34 17 23 10 37 23 10 7 20 28 9 24 14 19 24 17 31 16 42 16 14 21 31 3 24 21 21 22 24 23 34 26 34 24 28 20 20 24 14 35 7 12 26 32 26 27 20 24 24 10 20 13 21 19 9 17 26 10 17 21 23 17 18 34 20 38 27 23 29 10 6 14 18 20 20 17 13 24 17 24 10 14 24 30 24 43 23 24 16 27 16 10 22 16 20 36 17 27 23 30 31 23 24 16 24 16 17 17 33 30 24 14 27 18 24 10 30 24 10 10 17 19 21 14 20 20 15 23 21 20 15 14 20 16 35 25 13 13 10 16 20 24 10 19 9 13 16 17 28 27 29 20 0 12 12 10 10 24 16 12 15 27 27 20 23 16 23 13 19 38 35 20 23 27 22 15 3 13 13 17 24 30 13 12 17 17 13 20 34 27 23 13 28 37 24 20 14 23 40 18 16 17 20 17 18 18 17 38 24 24 19 23 8 3 20 27 18 13 14 18 22 17 13 24 3 20 3 26 28 22 16 31 14 13 23 20 12 20 8 10 27 14 13 27 19 17 25 24 31 9 10 33 17 19 10 29 28 32 26 19 17 21 34 6 24 21 23 13 20 20 16 17 23 24 17 28 17 30 9 24 27 31 13 14 24 17 10 17 21 19 17 27 27 23 21 27 10 19 34 14 10 18 30 14 17 20 20 19 20 20 23 22 13 20 13 14 17 16 14 19 10 10 27 22 3 23 23 13 26 20 17 14 28 13 35 24 27 13 18 30 21 19 15 31 20 21 18 20 24 6 40 24 19 21 20 14 30 16 24 21 3 14 20 20 7 17 24 13 17 32 17 24 8 16 14 27 27 17 32 21 16 3 14 7 14 45 23 9 3 34 21 29 17 23 41 28 21 22 17 14 24 28 17 20 14 17 27 13 13 17 24 14 13 16 26 14 21 7 14 32 20 17 23 17 17 17 25 16 26 26 7 16 31 7 10 17 27 14 3 13 29 20 16 21 15 14 10 15 30 16 10 21 21 20 7 6 6 17 6 16 45 17 27 28 27 30 38 19 23 16 32 13 22 13 20 20 7 10 16 20 10 25 20 31 20 21 16 24 13 19 13 18 22 23 34 24 30 26 24 9 26 10 17 26 24 27 20 16 13 13 11 30 21 21 26 20 20 21 14 14 26 31 21 37 18 25 31 10 17 20 13 20 17 24 16 18 10 27 16 34 28 11 16 30 21 20 26 34 2 6 21 20 24 22 9 22 23 20 23 9 17 27 10 14 13 27 10 9 6 20 19 30 20 17 16 28 6 21 24 30 21 25 24 24 20 14 21 31 3 17 25 18 12 17 24 21 31 23 38 16 12 20 27 10 6 23 15 21 20 10 13 35 20 24 20 9 30 24 21 20 22 27 9 16 24 27 42 10 27 17 24 9 14 34 31 7 24 33 24 30 27 21 25 18 17 20 19 25 20 17 23 23 24 23 3 17 14 6 7 16 31 28 27 17 20 27 23 17 17 14 31 17 16 21 6 31 23 27 34 6 20 21 10 31 17 37 10 17 27 16 13 7 31 20 7 3 24 27 27 19 20 27 27 9 13 34 27 20 9 20 17 27 31 23 10 15 7 24 28 29 23 38 20 9 31 19 31 28 6 23 26 16 13 13 21 20 10 3 8 18 20 30 10 23 12 30 23 13 12 29 24 13 3 17 17 30 16 24 24 3 16 27 13 34 6 17 28 37 41 30 6 23 26 24 10 28 16 7 6 9 27 28 14 17 10 23 20 10 14 26 21 17 42 21 14 21 9 37 27 16 17 6 13 17 14 10 24 15 17 13 20 23 19 6 33 13 17 10 20 30 7 10 21 16 38 20 17 15 30 27 24 16 23 20 14 20 31 19 7 3 24 36 31 7 30 10 20 27 13 20 17 20 12 24 19 19 29 21 31 34 20 34 20 20 27 20 19 31 10 13 16 24 27 10 22 20 17 17 9 7 13 21 27 29 26 21 20 34 30 14 7 10 35 19 25 16 10 13 13 17 10 41 38 17 41 13 19 30 19 20 22 17 23 10 12 10 12 19 22 24 21 17 26 20 24 35 9 25 19 20 24 16 19 15 31 14 24 3 3 13 12 17 14 20 24 16 16 10 20 9 10 16 17 20 23 14 16 6 19 13 7 20 23 3 20 16 34 21 13 23 33 3 20 20 24 27 17 17 21 23 16 24 20 36 22 31 17 37 7 10 21 17 36 6 23 19 27 27 14 28 28 24 34 10 13 20 34 13 30 30 20 17 24 31 10 18 20 22 14 26 22 29 13 21 26 28 21 15 17 24 13 23 27 22 20 13 14 23 20 17 20 24 27 19 17 13 17 17 3 3 31 16 21 7 13 24 21 31 33 22 21 27 20 30 20 16 6 24 11 31 21 17 10 14 34 19 23 20 22 13 13 30 24 24 17 13 24 17 24 22 24 24 17 22 17 19 24 24 10 28 27 20 28 21 21 24 26 25 31 20 11 24 23 26 28 16 24 17 26 27 28 24 27 21 30 16 20 29 20 12 24 29 13 20 31 19 34 24 27 21 24 13 27 16 28 27 27 24 10 24 13 18 24 17 18 23 24 13 23 17 24 23 34 20 10 10 13 21 16 10 10 17 10 27 24 13 9 10 28 23 27 24 13 10 23 7 31 14 27 18 40 35 24 20 6 20 29 23 9 7 7 20 13 16 16 21 19 26 37 24 24 20 26 27 21 31 20 20 13 21 21 22 20 13 21 41 28 21 20 31 20 21 21 10 27 26 12 20 10 23 9 13 27 27 23 16 10 30 20 24 17 12 30 16 13 21 14 34 27 17 24 13 22 47 13 24 10 20 29 28 19 16 17 17 17 22 17 31 11 23 24 42 9 22 13 23 12 31 26 24 24 13 14 23 17 15 17 17 31 16 28 16 17 20 24 27 26 16 17 20 17 17 14 6 24 16 20 35 14 41 23 17 13 7 24 34 35 2 23 30 34 21 10 28 23 17 16 10 26 13 20 28 29 45 6 33 20 31 17 34 31 28 12 3 28 22 27 30 24 21 20 6 20 17 23 23 24 17 31 20 27 18 36 19 24 23 23 16 14 17 17 21 20 21 23 11 6 16 31 21 34 23 18 17 28 23 16 17 34 24 34 35 21 20 24 10 42 20 20 17 30 17 6 31 24 3 13 27 18 28 24 15 23 20 23 9 31 23 34 20 15 19 17 28 13 35 27 6 21 17 17 44 19 24 7 10 21 27 9 33 20 27 17 34 25 26 15 20 17 9 12 15 21 18 23 14 20 13 37 13 19 20 10 30 27 27 16 24 24 23 13 10 20 28 22 25 7 21 26 20 19 24 6 41 17 21 27 14 19 16 29 33 13 15 17 18 28 15 14 20 20 27 35 30 21 24 23 24 21 36 12 21 10 20 20 16 26 30 34 20 15 10 14 13 20 16 19 17 24 17 10 26 21 15 28 20 35 23 25 15 16 13 21 18 29 27 49 17 34 42 13 17 19 27 21 15 13 24 13 24 20 20 20 23 16 16 14 37 21 9 24 26 26 24 17 24 17 13 13 31 27 30 12 31 10 17 20 20 17 17 20 14 24 31 23 24 23 24 19 21 28 23 9 19 9 29 21 21 26 9 14 30 7 20 27 27 17 17 17 23 23 6 35 17 35 21 13 20 19 20 14 13 17 17 38 10 15 31 10 16 21 23 12 27 20 13 20 20 13 41 23 16 25 24 24 17 35 31 23 16 34 31 9 19 28 27 38 38 14 34 29 24 28 31 14 26 13 16 3 24 17 20 20 27 38 6 23 34 19 20 16 9 17 13 16 27 13 30 22 30 23 10 27 21 38 30 27 13 14 21 16 31 38 23 16 24 16 3 28 12 27 17 24 16 21 20 24 17 26 9 20 23 27 9 30 20 18 16 16 20 12 17 30 17 30 29 11 31 30 17 17 17 28 24 41 13 30 20 24 9 10 21 20 9 27 17 6 26 27 17 19 19 6 20 31 24 28 9 16 16 18 30 17 23 34 34 17 23 6 32 15 28 30 19 26 13 16 12 14 17 10 17 20 13 17 24 27 17 17 24 19 24 9 18 13 27 13 27 19 17 37 15 38 30 36 20 26 13 29 23 20 9 19 14 17 35 26 27 17 16 7 14 10 13 23 30 27 14 24 29 14 21 7 28 41 14 24 24 20 10 20 10 28 30 20 42 21 28 28 26 21 40 16 21 19 21 24 31 29 14 24 20 27 17 24 34 6 20 16 33 24 20 17 14 7 14 19 17 28 23 24 23 17 14 21 24 17 24 34 17 14 18 20 13 10 30 27 24 14 16 20 13 35 16 24 21 10 10 10 22 24 21 30 24 17 24 22 10 17 13 31 54 10 30 30 24 16 6 14 30 26 13 38 27 17 31 14 27 31 26 21 10 21 31 14 19 21 21 27 14 13 13 14 10 13 20 20 22 15 28 16 13 20 26 9 17 33 14 13 27 10 25 28 42 17 10 13 28 26 26 31 24 20 27 13 10 34 31 14 48 19 27 3 7 17 29 27 27 27 24 8 17 20 19 6 15 17 27 23 27 3 20 23 12 16 19 31 24 17 3 31 24 20 34 16 34 27 21 15 24 13 17 30 24 6 12 37 34 7 10 31 20 14 16 17 34 24 36 27 15 9 22 11 21 23 20 20 10 24 14 23 34 20 26 16 9 21 24 13 17 34 10 31 17 10 21 13 9 14 20 16 19 21 15 12 17 17 30 20 27 27 15 24 23 16 23 9 29 30 24 33 17 7 21 17 10 38 31 16 24 20 31 7 12 20 28 27 13 21 30 11 20 24 8 34 24 9 21 10 24 34 17 35 21 24 18 20 16 28 13 19 10 24 31 17 23 26 29 10 16 22 20 23 13 20 13 40 21 22 28 34 13 0 13 22 24 13 30 16 19 23 19 6 20 20 9 19 14 23 18 17 28 9 19 29 22 20 21 24 14 23 24 30 29 23 28 17 34 20 17 26 14 10 23 17 27 20 16 28 20 33 28 7 38 16 16 27 15 17 27 7 17 13 16 17 16 10 27 33 28 16 10 20 14 22 23 14 10 13 30 31 15 24 21 14 23 17 10 20 30 27 14 28 19 30 24 31 13 20 35 25 31 24 17 30 24 16 21 6 20 19 28 20 17 23 17 10 30 17 21 36 24 23 30 21 31 10 21 24 6 23 14 12 16 9 45 14 31 30 18 17 20 19 20 14 23 30 30 17 17 16 13 19 13 24 27 20 16 21 21 20 3 24 21 26 19 19 20 31 0 10 17 20 26 19 16 23 13 13 13 23 20 20 24 13 28 22 21 30 31 23 14 10 42 7 23 17 31 3 6 31 20 12 22 20 31 21 13 7 16 17 20 13 6 36 26 19 28 17 30 34 16 10 27 20 16 23 24 24 10 38 16 41 17 13 13 17 23 35 6 16 15 20 20 16 23 3 24 23 28 17 13 23 10 10 21 13 17 21 21 29 22 15 13 17 12 13 20 17 20 23 11 13 18 16 32 10 20 27 10 7 20 16 24 10 31 7 10 19 21 20 30 20 35 28 13 17 12 18 23 13 9 29 23 16 23 24 26 24 25 27 22 10 22 19 0 17 23 10 30 20 22 26 24 23 13 13 21 9 24 24 24 10 11 28 19 9 20 20 13 10 13 20 28 17 17 24 20 10 9 27 10 17 37 20 19 12 7 17 21 21 19 17 27 12 34 27 28 12 30 24 14 27 19 31 13 20 24 23 31 33 21 14 31 13 31 34 38 17 30 12 36 31 12 9 18 13 24 23 28 27 20 27 31 28 35 27 31 3 18 27 20 24 23 17 10 24 21 28 23 24 20 20 14 17 10 28 20 26 17 24 17 31 13 21 26 26 35 13 10 34 10 21 20 6 17 16 23 9 20 38 13 20 17 9 20 33 3 22 45 16 15 20 9 13 13 12 20 26 30 26 17 25 34 25 14 24 23 24 25 21 17 28 14 17 10 23 10 23 20 14 24 20 23 35 20 6 23 17 24 23 12 13 27 17 13 17 17 17 34 20 22 15 20 11 14 7 19 38 12 13 9 17 36 21 19 27 31 27 31 31 28 28 19 21 10 37 24 31 32 24 6 34 24 25 17 21 16 27 17 23 28 21 22 15 27 17 17 21 17 30 42 16 7 24 24 30 21 24 7 14 12 27 24 14 16 23 31 17 6 13 17 21 24 17 13 17 26 23 22 17 27 14 3 17 19 20 34 20 9 27 9 18 30 26 31 23 14 25 34 45 11 27 7 9 13 21 10 6 17 11 26 14 23 19 30 13 17 10 23 23 19 31 24 18 17 24 20 26 35 17 41 20 23 23 17 26 20 7 13 18 14 24 18 9 17 9 16 14 17 42 31 10 14 9 26 14 20 0 27 22 13 26 16 20 38 20 20 18 14 20 14 16 27 10 24 30 30 23 13 27 10 13 21 24 23 20 24 24 27 27 40 20 23 20 21 20 20 14 42 30 27 20 20 23 16 30 26 14 20 17 17 21 20 20 17 19 23 21 3 17 18 13 17 17 41 15 17 23 30 21 28 17 21 21 24 18 24 17 31 20 35 17 13 22 16 19 31 27 16 21 27 22 13 10 16 20 17 24 24 23 22 13 10 23 17 27 23 16 10 20 24 29 23 18 28 17 17 10 41 31 13 12 14 32 11 23 23 31 21 16 20 17 23 10 43 27 30 22 13 21 16 27 0 22 7 31 24 17 20 20 20 23 6 16 17 21 23 23 14 21 10 13 3 10 13 10 26 34 13 23 22 24 20 14 23 20 18 18 23 23 38 20 13 17 24 20 37 31 34 21 23 30 38 21 7 13 31 13 28 16 13 16 10 10 26 20 19 24 14 17 17 17 13 9 23 9 6 24 24 30 27 20 23 30 37 14 30 0 17 27 34 30 31 31 30 23 15 23 27 19 23 6 24 17 10 6 31 19 6 19 29 24 17 16 23 9 9 22 23 24 10 24 20 14 10 13 10 28 16 31 13 20 19 51 31 14 13 34 19 27 6 17 9 10 27 27 20 25 31 24 17 24 14 17 24 21 22 3 23 17 14 13 9 10 26 19 22 16 10 13 27 18 20 18 24 3 30 20 7 23 22 20 31 27 16 17 20 44 17 10 13 6 13 26 26 9 16 17 17 3 9 30 24 9 17 24 10 36 20 17 17 13 20 17 25 23 37 17 14 10 23 20 17 20 22 13 20 33 17 13 17 27 16 20 35 20 26 30 18 25 21 29 13 21 17 19 23 3 16 24 17 17 17 14 24 20 26 41 7 16 13 16 24 20 12 13 25 30 18 17 10 21 27 17 10 27 40 16 27 38 16 6 10 19 7 24 31 19 7 27 20 31 19 27 27 28 19 30 26 20 31 27 38 19 20 17 24 20 15 15 24 16 14 20 27 26 17 23 16 17 26 19 24 37 10 6 16 14 26 34 24 7 24 25 17 27 33 14 20 28 26 22 24 17 24 10 35 34 20 31 15 20 14 30 16 21 21 20 12 16 21 13 31 20 26 13 21 30 17 9 7 15 21 27 16 17 20 22 21 13 22 16 20 10 15 23 31 25 15 31 23 13 16 27 24 10 17 21 26 17 17 23 15 22 13 31 14 21 18 30 20 18 20 22 20 17 20 38 19 38 24 17 11 19 28 20 17 20 7 15 17 20 20 19 16 20 17 17 22 19 7 28 28 13 13 18 14 14 20 23 27 15 31 19 16 23 24 6 12 24 24 10 10 15 38 19 19 22 24 55 23 9 23 20 16 17 25 23 18 31 21 21 13 13 19 31 17 17 17 17 27 7 13 12 24 10 16 17 27 24 20 27 21 17 16 34 10 6 6 17 26 24 24 10 10 20 20 17 17 9 23 23 49 9 31 10 23 27 31 16 23 21 9 21 20 26 21 34 21 27 23 17 13 3 24 20 9 23 31 20 27 20 10 37 19 33 23 30 10 18 14 16 34 34 15 17 17 16 33 20 19 26 26 19 24 27 28 19 37 33 20 17 13 27 24 6 9 14 20 13 14 23 11 34 9 27 16 30 24 24 23 27 20 30 27 27 16 20 24 18 24 17 24 16 41 27 6 27 38 0 14 13 24 17 45 38 20 23 22 30 20 13 17 23 10 17 34 24 27 10 6 13 17 13 27 18 14 31 16 18 38 20 12 23 17 23 24 20 10 27 12 10 24 24 28 22 36 41 20 26 22 24 35 14 26 28 22 13 27 24 10 21 17 31 3 13 7 23 26 24 14 12 10 25 24 26 13 34 26 24 30 19 23 19 24 3 41 13 17 16 27 21 21 27 23 15 9 20 32 28 18 24 17 27 24 40 16 3 14 28 16 16 12 35 23 37 17 21 16 17 26 14 13 21 31 25 16 26 20 16 17 17 30 40 17 30 28 16 19 26 20 23 21 17 16 23 17 20 13 14 30 35 10 27 23 20 23 21 30 26 21 28 27 30 13 19 37 27 20 21 20 17 20 14 14 14 38 30 22 16 28 23 10 24 20 24 20 21 14 3 17 13 31 24 14 19 21 20 21 27 3 17 30 10 27 19 23 30 17 12 24 33 28 38 6 21 26 10 13 13 14 23 13 17 16 27 10 10 21 27 24 14 17 17 40 9 24 27 31 24 21 23 16 25 23 26 26 13 17 22 34 20 21 20 19 13 24 23 24 42 20 26 13 16 16 16 10 22 30 26 19 14 31 17 19 21 18 30 23 10 34 20 13 14 10 23 13 27 27 24 30 21 26 13 41 17 22 8 10 22 30 26 20 23 23 20 14 31 21 19 19 6 24 14 11 20 31 24 20 17 20 26 17 20 30 20 3 23 37 15 24 19 14 24 13 26 10 7 24 10 17 13 24 20 27 16 27 36 17 10 21 20 14 0 26 27 14 27 30 21 9 10 17 33 16 6 15 31 27 43 12 20 23 24 31 22 17 28 14 22 17 27 10 15 16 19 21 13 10 9 23 13 26 15 7 6 6 21 24 17 17 25 31 14 27 16 21 17 27 24 37 17 19 22 24 9 13 20 13 17 14 17 26 24 17 28 20 20 12 6 20 13 16 18 27 13 24 23 19 13 28 24 16 10 14 22 16 16 31 24 10 34 20 13 34 21 25 17 20 6 21 18 13 17 13 23 6 14 31 14 34 14 34 27 31 17 12 10 3 28 24 24 38 17 16 29 13 23 19 10 19 17 27 3 29 17 12 30 17 21 23 27 10 30 13 34 25 24 34 10 27 31 25 14 13 21 16 19 29 31 28 23 16 24 14 23 29 20 26 3 15 24 26 12 23 20 13 16 28 11 25 20 7 25 28 22 11 27 23 19 12 16 10 27 20 27 40 6 19 9 10 13 6 20 22 29 21 19 24 24 34 3 20 8 45 17 27 20 15 27 14 29 22 14 34 10 13 23 8 23 17 28 21 19 24 19 11 24 20 3 7 12 30 28 20 20 24 31 10 20 35 10 28 20 17 23 23 18 30 16 16 9 13 26 30 13 28 14 14 27 27 17 26 20 13 16 10 25 14 14 21 24 23 17 23 15 17 27 17 15 30 23 27 18 24 7 21 20 23 20 21 10 27 17 27 13 31 26 20 13 27 13 30 10 34 15 24 3 31 6 9 24 38 31 34 12 23 17 37 14 24 23 17 33 17 7 24 21 20 27 20 19 40 34 17 16 13 26 0 9 3 20 13 35 20 7 24 10 13 19 17 10 20 14 27 21 24 12 29 17 14 30 14 25 38 16 23 31 19 27 13 14 17 19 24 17 23 16 29 0 28 24 14 7 28 16 34 35 14 23 24 7 9 10 24 7 26 14 23 24 20 24 30 24 10 21 34 12 13 14 22 25 16 10 26 9 26 20 17 20 20 21 19 42 26 17 38 20 28 10 17 13 28 16 20 22 34 28 10 42 24 20 10 20 20 22 17 23 6 27 19 17 20 6 23 15 27 20 13 14 16 10 9 16 23 13 18 6 20 16 31 17 27 30 30 7 30 17 10 13 21 35 21 31 20 14 16 27 16 24 26 0 14 13 24 10 23 10 17 16 19 31 45 7 19 17 20 24 44 26 21 17 26 23 21 14 17 20 14 18 37 26 17 27 17 31 14 17 12 13 16 13 21 16 13 21 17 35 37 17 20 30 17 30 17 22 29 26 10 24 16 27 29 13 13 7 20 20 20 23 13 13 28 12 27 21 17 21 20 20 22 19 27 23 20 22 3 13 20 30 38 31 19 9 15 17 21 17 20 6 38 23 20 17 27 20 27 26 24 27 30 13 52 20 12 23 27 19 16 24 12 21 28 13 31 20 20 18 27 23 26 17 20 17 20 21 22 23 17 28 26 26 16 36 17 20 24 24 38 16 10 26 24 24 13 19 17 34 18 38 17 10 12 19 27 23 35 19 12 16 3 20 14 24 30 30 22 13 9 16 27 10 20 23 27 31 20 16 30 28 28 16 19 16 30 12 23 27 22 27 23 20 20 20 19 21 20 7 17 27 21 35 23 8 14 31 21 17 20 21 17 17 15 13 19 9 17 10 9 22 22 26 10 14 35 14 17 26 24 23 30 33 23 27 14 3 27 24 20 31 12 9 20 30 27 17 12 31 23 20 44 18 45 10 35 19 44 16 24 20 34 27 27 23 24 23 13 24 26 24 27 9 6 28 20 27 28 33 13 10 16 20 20 10 13 34 7 42 30 14 10 31 30 23 20 35 16 19 24 22 17 12 26 20 29 6 23 0 13 21 17 28 16 24 16 27 21 21 10 20 20 24 22 21 17 20 17 16 20 29 29 19 17 30 34 19 20 13 21 14 20 7 17 23 27 49 17 24 27 16 20 38 17 21 31 12 23 23 17 35 28 25 24 26 23 27 20 27 23 19 24 20 6 24 14 21 27 12 24 24 30 11 6 20 17 17 27 6 31 17 17 19 20 13 24 23 17 20 17 14 24 26 20 12 15 17 14 20 17 22 24 31 24 24 22 9 24 16 11 3 16 14 28 34 34 13 20 24 26 17 14 23 16 37 27 13 19 28 30 20 21 24 23 17 26 23 30 19 41 24 27 13 16 27 12 7 38 17 17 40 23 26 17 16 22 13 6 22 7 28 14 42 21 22 24 10 24 24 10 13 6 30 26 26 24 16 3 24 31 16 12 7 31 44 19 16 20 17 27 6 20 13 30 20 24 33 17 26 15 15 31 7 23 24 29 3 20 10 34 19 14 27 22 17 28 24 13 13 34 28 16 19 13 20 36 16 13 30 10 27 31 10 13 21 40 24 38 13 24 27 16 20 20 19 23 27 20 23 28 25 23 10 13 13 28 17 16 23 20 23 10 16 23 16 27 27 7 14 30 17 9 28 17 27 26 39 20 40 11 15 30 17 19 17 20 33 24 34 23 21 27 21 20 17 14 15 19 22 24 31 21 27 19 20 20 24 19 31 21 20 17 26 26 20 24 24 19 12 23 7 28 20 23 13 23 45 20 35 13 17 23 35 13 16 25 17 24 29 13 28 14 17 17 20 24 20 16 18 13 20 19 12 17 37 30 17 20 12 17 14 9 3 23 25 15 24 17 16 31 26 24 20 20 15 17 3 20 24 23 23 20 17 34 14 17 9 21 27 20 27 28 20 9 13 14 13 54 23 19 13 20 22 31 17 17 24 20 24 21 10 20 16 13 15 21 31 25 17 20 25 20 21 27 10 21 18 27 24 44 31 17 20 27 20 21 24 23 16 21 9 24 23 24 20 13 28 34 17 10 14 24 19 31 17 37 11 15 20 21 38 31 19 21 20 28 26 32 21 19 31 26 36 22 27 13 21 19 20 18 17 17 31 13 17 24 13 48 21 24 29 20 19 3 17 3 14 24 19 21 14 16 20 16 31 30 10 31 33 10 20 17 10 3 16 33 33 18 9 27 34 20 26 7 14 34 24 19 3 16 19 16 21 34 20 22 17 24 19 31 27 21 20 20 20 31 30 13 17 14 21 27 26 20 9 16 27 6 28 20 23 6 30 17 33 27 24 10 31 24 17 28 9 20 27 23 29 30 16 10 6 19 7 9 12 31 37 21 24 13 22 9 23 23 27 15 24 14 13 19 20 29 20 24 17 19 17 24 33 26 21 15 16 17 13 34 35 16 21 21 19 21 17 18 27 28 33 20 9 14 21 25 31 16 10 12 19 24 19 19 20 23 21 23 10 24 16 31 41 19 16 24 23 20 6 39 16 16 31 31 19 24 21 22 24 38 27 38 25 25 24 6 41 26 38 27 6 15 17 20 10 9 12 10 20 13 7 27 20 14 20 31 13 6 22 15 25 35 34 10 14 6 27 17 24 37 16 26 12 22 34 31 27 10 16 17 21 16 10 17 27 17 9 3 27 20 20 20 35 36 10 12 20 27 14 11 19 14 24 24 34 14 41 21 21 22 23 23 17 3 17 23 20 24 9 33 27 30 31 30 21 13 25 17 13 21 20 12 31 14 31 10 28 14 29 35 19 14 23 14 19 23 34 24 3 13 24 10 6 15 30 29 17 36 21 26 17 20 13 23 14 14 7 22 21 19 22 23 17 27 8 10 13 9 16 9 17 24 20 10 3 7 28 13 16 23 31 0 18 19 19 13 19 17 13 27 16 17 20 10 16 10 14 17 28 23 13 20 33 10 23 17 23 35 30 10 31 19 17 14 13 31 26 24 22 17 31 31 17 9 38 31 24 31 24 20 21 11 13 20 20 7 14 15 13 14 7 27 13 21 23 27 20 30 14 13 20 23 15 17 18 20 24 20 23 13 17 6 23 20 17 28 24 37 18 33 20 23 14 37 14 17 20 13 21 10 24 16 41 19 20 14 7 24 16 13 17 7 23 16 10 21 21 32 23 30 17 14 29 31 35 10 15 9 19 30 16 19 7 23 37 23 9 21 20 14 26 13 30 17 21 17 13 27 24 9 17 27 27 9 27 20 22 17 24 17 38 16 14 13 20 23 27 20 18 23 27 13 16 27 30 30 19 17 19 38 20 19 19 17 27 21 14 13 12 20 17 20 7 13 13 16 31 27 9 9 23 17 13 14 15 31 21 16 13 13 20 17 23 17 19 14 13 12 16 28 21 33 19 7 12 28 10 20 24 3 27 24 17 0 21 27 24 25 23 16 13 37 21 20 23 6 13 20 17 24 26 23 20 25 32 13 16 24 16 17 35 17 16 31 27 3 23 9 19 23 20 17 26 30 29 24 21 17 28 13 47 14 24 23 19 27 3 14 31 36 16 31 26 23 18 37 24 34 34 24 10 30 9 33 12 21 27 34 13 24 10 23 28 25 22 24 19 24 17 19 18 10 13 12 20 15 17 16 37 13 13 20 10 17 19 13 12 13 34 20 28 21 17 14 38 31 14 10 30 23 14 35 17 22 20 14 27 22 23 9 19 26 27 14 24 30 10 18 23 12 31 24 34 19 19 34 16 34 22 20 26 26 21 35 41 17 17 17 24 25 16 17 10 24 35 24 28 3 12 21 26 7 16 12 17 21 20 34 28 26 39 10 20 24 12 31 24 40 28 7 17 6 31 34 16 31 34 3 17 15 14 19 19 20 14 20 13 26 31 24 24 31 15 26 34 10 44 21 13 24 22 23 24 22 26 13 20 31 24 21 25 20 20 16 3 24 2 31 10 28 16 16 17 33 31 21 30 35 21 21 14 3 7 20 12 20 14 14 24 23 20 21 19 17 27 18 30 28 19 30 23 11 24 34 17 26 27 24 36 12 13 40 16 23 12 27 45 17 28 21 27 31 33 20 9 28 24 18 10 36 23 37 27 23 15 0 16 12 30 16 42 14 14 26 12 17 23 17 27 37 27 17 21 22 9 22 27 33 23 14 13 23 41 31 30 17 27 16 23 28 19 17 20 13 23 19 29 17 31 23 41 10 41 21 17 18 24 17 49 16 30 24 25 20 28 17 34 7 17 19 23 27 23 21 27 22 34 20 17 20 27 30 24 20 27 14 24 45 21 30 15 38 18 7 20 9 23 24 12 31 27 20 17 10 28 31 18 7 20 24 29 13 16 10 13 27 13 24 27 27 16 14 21 17 35 9 31 17 17 3 24 10 29 24 17 16 31 20 27 19 12 13 37 24 14 16 27 13 41 13 27 14 24 13 16 21 20 11 34 20 18 27 17 24 24 23 27 7 15 20 26 37 20 27 31 16 11 23 16 20 27 21 7 10 21 16 18 21 20 12 27 19 17 28 19 31 10 23 24 28 20 7 9 6 20 17 10 22 34 21 16 28 23 13 7 27 20 21 15 10 32 16 7 14 23 13 16 31 32 26 20 41 15 17 25 28 20 31 28 27 26 26 19 16 34 35 18 13 31 10 23 17 26 16 17 35 19 26 0 40 35 20 8 33 27 39 14 30 20 24 25 23 17 23 21 12 9 16 21 21 15 16 10 23 31 24 31 30 20 6 10 24 3 24 22 22 34 7 20 20 21 21 17 26 14 15 12 22 30 16 3 27 26 17 21 9 25 6 34 17 26 26 18 17 37 19 24 49 17 40 13 13 21 19 28 20 20 23 23 10 20 14 21 17 31 27 30 16 14 12 23 31 20 13 13 7 34 17 17 23 27 27 23 37 6 21 16 24 25 17 17 9 31 22 6 13 29 26 21 12 17 10 14 23 17 20 14 20 24 16 36 18 26 26 22 24 23 31 18 20 23 24 24 27 17 21 24 16 14 13 26 23 16 17 17 9 28 32 15 30 17 14 16 16 10 35 16 10 12 16 23 17 44 20 0 20 17 17 19 22 6 23 18 23 17 35 17 27 24 31 17 26 28 27 34 21 23 33 19 20 10 13 10 35 24 17 16 27 12 7 21 28 19 27 35 29 17 17 10 20 27 27 18 23 44 13 16 7 27 24 24 40 19 14 14 20 27 9 19 33 14 37 9 19 24 17 20 34 15 27 28 24 20 25 22 21 24 17 20 38 16 17 16 32 10 14 41 34 16 17 33 13 24 14 7 9 27 28 30 23 30 10 13 20 7 14 6 17 23 24 16 25 27 17 17 13 13 30 20 17 30 27 19 19 19 24 17 24 27 24 17 20 19 24 24 21 25 28 14 18 30 24 28 24 23 16 15 20 18 19 37 26 38 44 23 13 23 31 21 10 16 13 17 9 31 14 28 17 16 28 24 19 24 9 27 10 15 21 20 21 27 20 21 24 3 22 17 28 24 20 6 22 16 14 37 27 17 33 34 22 19 17 20 24 31 13 3 24 23 10 31 13 20 16 22 20 17 23 38 37 22 19 31 17 27 30 17 25 26 27 29 14 19 27 13 33 16 10 20 27 14 20 26 10 20 20 13 28 15 27 28 17 17 7 28 35 34 13 24 25 10 14 20 25 17 24 24 27 7 20 10 37 17 24 10 27 34 21 14 24 17 35 16 20 15 14 20 21 23 21 20 12 17 40 16 23 24 23 27 31 16 34 28 30 20 17 36 20 23 33 10 13 14 31 37 15 6 13 29 15 15 26 24 24 27 34 8 22 16 17 21 21 32 13 13 14 34 6 23 23 27 13 24 13 15 17 23 16 13 10 24 17 17 25 24 25 19 6 16 17 30 16 26 21 16 22 28 37 20 17 31 20 13 10 16 9 7 21 16 0 17 13 23 31 12 16 0 13 27 14 31 19 22 16 38 27 22 20 10 26 34 17 14 9 18 13 9 24 34 24 14 17 23 33 13 20 30 27 41 17 26 9 20 37 0 17 20 23 14 11 10 31 13 15 20 17 24 33 27 23 28 31 10 27 21 16 21 28 38 23 17 35 17 32 31 24 15 13 27 31 10 27 27 13 24 23 16 20 7 9 15 17 23 16 25 27 34 24 30 26 30 20 16 3 14 34 20 21 13 21 13 17 9 21 17 20 14 20 31 24 31 26 19 14 3 27 13 24 17 22 14 10 10 24 33 14 34 23 23 24 9 27 23 10 44 28 30 29 7 19 20 14 20 24 24 15 17 35 23 14 24 21 24 21 10 19 16 20 24 17 31 26 12 9 23 27 11 20 27 34 29 29 17 23 6 20 37 21 28 21 17 20 21 13 16 10 10 14 23 16 22 17 14 16 23 14 21 23 20 23 18 22 13 23 26 10 19 10 28 17 20 21 17 43 20 10 32 19 23 47 12 16 21 31 27 16 19 20 13 13 21 27 30 23 37 9 14 27 24 40 13 31 15 17 16 23 26 3 29 19 17 13 42 31 33 28 24 13 17 20 16 24 21 20 24 29 27 20 19 14 34 34 22 20 23 31 40 24 14 27 16 13 27 14 9 27 24 18 23 28 14 23 25 10 18 7 9 10 28 24 24 30 9 13 3 31 12 10 37 16 27 30 16 6 28 27 17 24 13 20 17 10 6 34 23 3 14 17 20 9 20 24 31 27 30 34 23 24 20 14 23 14 20 17 15 17 20 17 20 26 16 30 28 24 14 14 19 9 10 9 28 14 14 3 31 9 20 20 13 7 8 22 14 18 6 31 13 31 20 10 29 13 23 23 15 14 41 27 36 21 34 17 19 19 10 16 14 17 23 29 17 23 19 20 27 9 23 15 30 28 13 20 13 14 17 20 24 45 16 23 20 23 24 16 31 17 28 17 29 17 17 22 27 37 0 19 13 27 24 21 20 6 17 16 14 19 25 23 19 13 10 24 12 21 23 27 27 10 24 22 24 24 23 17 6 11 23 20 28 14 13 28 16 8 22 44 9 19 24 30 21 20 20 20 13 34 27 15 31 27 31 22 17 13 14 26 0 16 21 24 16 6 17 26 17 32 21 16 13 20 20 24 29 20 12 33 16 8 24 10 7 9 20 19 20 21 7 19 27 27 27 26 34 13 9 30 17 37 17 15 10 20 17 28 16 29 32 13 13 26 16 30 20 17 21 31 27 20 13 27 30 16 9 16 40 13 28 34 13 37 21 10 18 24 16 10 27 13 20 34 20 20 13 9 17 14 10 12 27 17 10 27 9 38 19 30 24 13 10 23 19 21 17 21 23 6 23 16 28 14 24 21 31 16 16 17 20 10 20 23 14 8 21 17 24 27 29 21 17 31 23 24 6 37 13 17 17 10 24 28 20 48 20 23 20 17 31 16 21 19 29 13 14 23 21 21 16 20 18 27 28 24 31 29 24 27 25 19 37 17 10 31 24 14 24 16 21 17 10 31 0 3 27 7 17 24 24 17 27 36 19 24 24 16 16 19 16 13 24 23 24 23 17 17 17 15 3 10 27 21 6 24 10 26 17 23 24 21 14 24 37 7 10 20 20 27 17 14 24 20 22 24 20 20 23 13 21 22 13 27 27 20 14 12 23 13 24 19 14 17 10 24 21 30 20 23 20 14 21 19 21 6 17 20 19 9 20 23 28 28 17 24 24 10 38 13 24 34 13 24 13 30 20 13 21 27 30 15 6 19 29 17 24 23 26 20 19 20 17 24 31 15 20 28 34 21 12 30 14 17 26 28 19 16 23 20 37 28 23 31 30 27 24 27 23 15 10 24 10 7 20 17 21 24 20 6 10 14 33 24 16 19 20 26 14 30 27 13 20 26 13 16 30 23 6 20 23 14 28 10 6 26 12 21 14 6 33 9 17 10 25 10 24 16 14 13 3 13 37 30 27 16 20 18 13 27 17 3 24 31 6 19 20 36 10 16 27 27 27 24 16 35 17 24 23 28 20 26 20 34 30 34 42 13 20 7 35 10 28 20 16 13 13 14 26 15 24 17 31 23 21 13 23 20 20 13 28 26 24 16 20 31 13 20 17 16 15 10 26 42 28 20 28 15 26 10 23 21 24 20 19 24 20 16 13 14 27 14 16 3 16 13 24 20 23 12 3 17 27 13 24 10 17 19 14 12 20 24 19 16 29 31 40 19 20 14 20 30 3 21 13 13 23 28 21 24 21 27 10 19 37 16 38 30 31 30 22 12 13 27 31 9 22 25 44 17 33 17 11 20 30 20 17 22 17 20 27 14 37 6 8 28 13 10 17 10 20 24 20 23 22 24 24 12 14 24 16 12 17 30 17 29 29 23 31 20 23 20 6 41 27 13 20 7 23 6 17 31 20 12 31 10 20 33 17 0 15 10 17 10 25 16 19 24 23 20 13 20 14 15 19 29 26 30 17 17 12 27 20 20 24 21 16 29 27 13 16 23 19 51 12 17 23 10 14 31 17 10 24 17 27 27 14 29 3 24 20 24 26 13 14 18 21 19 27 13 23 17 28 24 27 23 24 10 30 24 26 23 14 14 7 14 13 20 9 23 13 10 16 16 9 20 12 17 24 28 17 13 28 31 15 38 24 24 21 13 26 12 16 16 16 11 30 20 31 42 26 24 22 27 27 22 19 22 34 24 24 13 17 28 20 27 33 33 13 18 34 19 20 19 31 23 29 23 14 28 13 20 13 13 35 10 20 6 10 16 14 27 35 7 20 24 28 19 24 10 12 27 15 7 25 6 41 21 3 35 10 17 23 14 17 37 23 31 7 22 48 10 23 27 14 30 24 29 20 17 17 24 27 38 13 10 9 7 14 23 10 23 13 13 23 16 14 21 16 19 17 22 7 14 13 16 23 16 9 24 17 15 10 9 31 21 17 20 40 27 37 16 17 20 17 22 16 18 16 14 13 23 31 15 16 20 16 30 27 27 13 18 10 17 17 27 10 3 24 6 13 0 36 10 30 23 10 16 3 30 27 31 19 7 23 16 20 20 17 27 24 14 20 31 29 23 28 38 28 37 24 13 16 26 22 26 20 23 10 36 19 9 9 38 27 28 14 11 22 12 17 17 17 20 7 44 44 16 19 24 19 27 31 24 27 15 17 24 15 26 13 10 17 20 20 49 19 14 10 24 13 19 30 13 13 11 24 14 13 14 23 24 24 31 20 25 7 34 16 24 30 17 20 10 19 25 10 20 10 11 25 17 9 16 27 9 25 20 12 23 20 7 21 13 11 13 17 9 25 34 26 16 16 18 18 23 23 16 30 10 22 21 7 28 20 29 48 27 23 14 20 9 20 24 35 30 34 17 21 23 34 16 38 24 30 10 14 34 34 20 34 14 6 20 10 14 24 20 27 41 20 31 13 12 33 11 16 19 13 23 31 24 30 31 13 19 17 25 20 17 21 20 24 24 10 20 37 31 20 19 21 30 7 8 28 27 14 30 20 22 23 0 16 29 24 26 15 17 20 30 6 17 9 44 20 16 15 13 36 20 30 6 26 17 14 16 29 7 24 16 20 20 21 27 36 35 23 17 7 30 31 17 33 37 16 27 6 33 25 14 28 12 9 13 27 13 17 10 16 6 20 20 27 21 42 24 26 13 20 20 24 26 27 19 14 17 17 17 21 28 38 26 17 31 15 16 9 27 20 27 31 10 31 13 22 10 17 18 13 17 52 20 29 14 13 31 3 0 27 23 20 24 10 32 6 36 9 13 13 13 6 17 21 23 10 9 21 28 23 23 28 26 17 16 13 16 17 23 30 27 10 19 16 20 24 23 9 21 20 13 17 15 17 20 20 13 14 20 20 22 19 33 31 26 14 27 20 27 20 17 16 15 31 19 31 19 30 17 20 24 19 12 20 24 23 17 24 11 9 13 31 18 26 27 30 9 14 28 38 24 38 10 26 23 11 24 24 10 16 13 16 17 16 3 17 20 17 17 27 11 17 14 24 27 37 20 6 17 26 14 35 9 9 26 20 28 34 27 20 18 13 23 26 27 19 0 27 21 23 21 20 13 18 20 13 38 17 14 6 24 35 36 21 23 31 20 13 21 10 20 23 27 16 20 30 7 13 16 30 9 30 20 24 27 24 17 19 27 23 6 31 25 19 19 14 27 19 13 3 16 27 27 28 20 20 15 14 16 17 30 19 13 34 17 25 28 24 35 15 20 27 17 17 12 14 13 24 20 9 27 23 19 16 23 26 19 10 19 20 35 20 20 10 15 13 24 23 17 28 30 17 24 14 17 14 23 27 26 17 23 10 20 17 24 31 28 26 26 30 17 16 23 15 9 24 20 20 19 27 23 26 26 16 29 26 3 32 21 13 19 10 13 20 30 24 20 31 20 30 19 23 35 31 13 16 34 6 10 18 26 24 10 17 13 10 26 29 33 23 27 25 31 24 6 19 10 20 22 31 16 13 19 31 13 14 20 10 9 23 9 22 10 27 31 23 30 9 7 28 28 19 13 20 17 24 14 17 7 24 23 13 10 20 17 10 21 20 35 14 19 20 17 10 18 16 10 16 21 33 14 10 27 16 17 28 23 17 17 31 34 14 17 24 24 13 17 17 24 30 10 17 26 34 27 13 30 21 27 10 10 9 17 24 16 31 20 13 17 23 23 42 12 6 10 19 20 14 20 16 22 13 16 16 13 30 24 34 30 21 18 13 14 3 17 23 17 34 12 17 27 18 24 10 17 10 28 20 27 27 20 16 20 21 27 20 23 24 34 22 27 22 8 6 27 12 24 33 3 20 38 28 18 21 22 19 31 31 20 16 6 9 6 21 17 3 13 19 22 27 31 7 10 27 20 21 17 20 21 17 9 19 7 38 31 13 25 20 35 21 19 31 19 19 28 26 27 7 31 19 11 27 20 25 23 15 24 20 20 15 27 10 23 27 17 14 30 26 14 26 20 3 7 24 26 31 16 21 10 20 17 6 10 16 30 8 17 7 24 6 21 23 21 3 16 10 16 16 27 24 10 21 31 20 24 10 26 19 25 3 22 10 24 10 6 28 17 24 7 20 24 10 16 29 9 20 13 19 31 30 16 27 10 23 21 25 25 39 16 34 27 7 30 13 20 26 20 20 27 27 13 20 38 26 37 13 10 12 8 13 23 13 22 23 14 26 21 14 19 20 24 25 13 21 28 16 31 42 16 17 21 10 17 24 27 13 12 17 20 10</t>
-  </si>
-  <si>
-    <t>GAM(147.865860742797, -28.847084069339, 0.347443180479742)</t>
-  </si>
-  <si>
-    <t>19 34 20 13 24 13 28 26 21 19 27 25 27 20 26 19 21 19 20 26 18 22 25 21 23 23 27 24 19 24 18 32 20 24 21 26 23 21 21 22 20 19 21 21 21 19 13 23 28 28 20 17 21 24 23 24 21 24 19 32 27 22 20 24 24 20 12 29 27 27 19 21 22 26 21 23 19 21 23 17 25 16 23 21 30 28 19 22 25 22 21 21 19 19 25 22 22 23 26 23 25 22 17 23 14 34 13 22 12 24 29 14 21 24 24 27 23 17 19 22 30 32 25 19 25 25 24 24 24 25 24 19 22 22 27 13 21 23 27 21 23 25 16 28 28 21 24 24 23 29 26 16 22 20 21 24 25 17 18 21 22 26 20 20 18 19 17 19 29 24 23 24 27 20 18 21 21 30 29 26 20 18 22 22 24 23 26 21 16 25 26 24 24 19 23 19 19 25 29 20 26 26 16 17 29 17 23 17 22 22 25 19 22 30 23 28 27 23 26 24 21 24 20 23 29 13 26 28 21 26 27 24 21 27 18 27 22 22 30 22 32 24 28 18 21 26 22 24 28 21 20 21 20 32 18 24 24 19 22 34 25 27 20 17 21 28 29 26 26 17 15 28 25 24 29 16 22 37 18 25 29 19 29 21 20 33 25 22 27 17 22 24 21 31 21 24 23 23 25 26 19 19 23 15 23 23 24 28 28 23 20 23 24 25 21 24 28 20 24 27 20 15 24 14 21 18 20 24 20 23 26 24 11 20 19 17 25 24 23 17 20 24 23 32 21 21 29 31 23 22 18 31 25 21 24 13 19 26 15 26 21 13 27 26 24 24 25 26 22 26 22 29 16 19 23 26 33 20 20 20 26 23 25 26 20 18 20 17 26 33 22 23 18 18 31 22 25 25 23 23 21 18 23 14 22 30 27 23 22 26 24 20 28 17 12 20 21 24 21 17 17 15 20 16 25 26 26 22 23 20 24 22 26 22 22 18 23 24 26 23 21 22 23 21 30 11 19 23 21 22 30 27 22 23 19 15 17 26 26 23 18 17 28 21 27 20 26 25 21 31 29 24 23 24 21 29 20 23 21 27 22 18 18 22 23 24 18 17 25 24 31 22 23 21 20 19 23 20 29 20 21 15 20 23 22 22 23 19 17 25 21 24 30 20 24 22 21 23 19 20 19 19 22 27 28 22 23 28 23 24 24 25 19 24 23 22 22 22 15 27 32 29 25 20 16 25 25 31 24 26 16 22 27 17 27 21 15 18 21 20 22 26 20 22 22 17 22 26 21 24 23 19 24 22 22 21 25 22 21 23 21 25 24 24 17 23 19 26 22 18 27 25 22 22 21 26 24 17 19 18 20 21 18 20 25 24 19 30 23 14 14 20 18 23 18 29 28 23 26 24 28 23 18 25 15 22 30 27 22 19 28 25 21 21 26 24 26 27 19 24 25 21 21 21 22 24 15 21 28 25 17 19 23 22 28 23 17 21 18 22 20 21 28 23 26 28 26 23 18 21 27 26 23 32 16 19 22 18 19 29 28 20 21 34 18 23 17 19 27 14 21 19 25 23 18 25 20 33 24 14 31 25 18 20 23 29 30 20 16 25 22 20 26 24 22 23 26 21 24 20 11 24 27 24 18 25 21 23 16 21 19 23 21 20 19 22 21 19 16 24 24 21 29 26 24 18 21 23 18 16 24 22 25 20 27 22 23 27 29 18 27 28 23 19 30 22 17 23 26 22 16 23 22 27 26 23 25 20 22 27 18 28 29 22 22 27 24 23 31 19 29 24 20 27 13 29 22 25 25 16 19 25 20 24 26 17 22 28 26 20 17 15 20 27 27 23 22 21 22 23 25 14 20 15 23 19 21 24 17 27 20 15 23 22 20 22 23 22 15 28 26 23 24 18 25 26 26 23 27 33 27 23 20 16 22 21 26 23 18 21 20 21 19 23 15 22 37 29 28 21 21 21 30 24 20 21 24 28 16 19 19 24 17 21 25 23 23 32 29 21 18 19 18 22 24 25 28 24 27 20 23 17 23 25 28 17 22 24 24 25 20 23 21 20 19 17 19 21 19 27 23 16 26 27 21 22 24 25 32 19 26 25 23 20 21 26 23 19 16 15 27 29 21 21 23 22 23 24 20 20 25 22 24 22 27 21 25 20 23 24 23 17 14 21 23 21 25 30 28 25 23 23 25 28 24 11 24 25 28 27 20 26 22 26 20 23 25 18 26 21 20 23 21 14 18 28 20 20 24 15 21 17 24 17 17 30 18 22 22 20 18 22 23 22 29 32 16 17 23 24 18 16 26 21 24 17 20 20 26 29 24 21 20 30 18 19 16 21 19 14 13 17 19 22 23 25 25 17 24 20 20 12 25 17 25 24 24 24 27 20 18 21 20 21 35 23 25 21 25 20 24 13 24 25 22 23 19 28 22 22 21 25 17 23 20 25 21 22 22 26 24 26 21 29 19 29 21 17 18 17 21 22 28 26 27 26 19 29 18 18 16 15 29 18 25 24 26 23 23 26 18 19 18 24 15 25 23 29 19 18 25 32 21 16 20 17 19 27 24 25 24 22 17 22 22 24 26 19 26 23 18 25 15 14 17 18 15 19 23 19 24 21 31 24 24 24 26 23 18 15 21 26 28 24 20 25 28 16 15 22 15 26 18 26 19 26 26 18 18 17 32 22 24 19 28 21 20 25 21 30 25 28 28 24 25 28 27 23 16 21 19 22 26 23 28 19 23 26 26 19 18 15 28 26 17 28 26 16 22 19 26 22 23 25 29 19 28 24 17 22 19 15 22 18 25 18 20 24 25 16 27 16 18 20 25 19 21 22 26 21 20 26 23 26 26 31 26 22 21 15 16 19 22 18 17 22 22 30 13 17 25 27 28 21 19 21 27 20 17 14 21 18 26 26 24 28 24 18 18 23 19 19 20 19 25 32 24 28 20 31 13 22 28 28 24 25 22 29 22 18 21 22 21 21 20 27 21 25 22 15 27 18 20 28 21 21 25 18 19 28 20 18 27 21 26 26 24 25 20 24 26 25 21 23 26 25 25 33 21 20 17 20 28 21 26 21 27 22 28 23 19 21 19 25 14 18 23 20 17 28 25 27 19 19 26 32 29 19 19 23 20 20 25 18 23 20 22 25 22 26 37 19 19 25 20 25 21 12 24 28 21 15 26 15 26 21 18 18 19 18 22 21 18 21 28 23 24 22 24 22 18 28 21 23 20 21 34 26 17 21 24 19 26 22 27 21 29 31 23 21 22 26 22 22 24 28 15 20 24 19 26 22 27 16 27 22 18 21 25 31 24 24 20 25 23 12 26 29 16 26 14 30 16 17 19 20 29 25 20 26 24 23 22 24 25 17 20 15 26 15 18 20 27 26 29 21 25 23 19 29 21 24 24 29 28 24 21 21 19 21 25 28 23 31 21 26 22 24 31 18 22 24 23 25 16 22 27 26 27 21 22 24 20 27 24 23 26 18 15 27 25 24 18 24 36 10 19 19 24 24 24 32 29 18 16 20 36 26 21 18 24 23 24 21 14 13 28 20 18 25 30 23 30 25 18 23 28 22 20 23 27 24 19 25 20 15 20 16 22 19 30 24 17 22 24 23 24 22 15 24 25 30 18 24 23 20 21 20 25 23 13 18 29 22 26 20 13 23 19 25 26 22 22 22 20 24 18 22 19 12 24 24 24 17 17 26 20 18 23 33 12 16 25 20 29 21 17 16 28 24 28 21 26 15 27 20 30 15 18 22 23 19 17 23 20 24 18 17 26 22 27 28 19 22 23 31 19 27 25 24 23 26 28 15 20 25 23 19 23 21 21 19 22 26 28 16 17 22 26 29 25 20 26 23 20 23 25 21 19 23 24 24 22 36 19 22 21 16 22 26 23 24 20 25 26 38 23 22 19 17 25 22 18 19 21 24 17 27 26 22 16 17 15 29 26 26 27 21 23 18 22 21 25 19 22 25 17 18 22 33 22 21 19 22 22 16 23 16 28 26 21 23 18 23 31 20 30 16 21 16 21 25 23 24 16 31 15 21 23 25 25 29 24 18 22 25 21 16 21 29 20 22 19 30 17 25 19 28 16 21 17 17 19 27 23 29 26 25 24 16 21 24 25 23 25 27 25 18 17 27 22 27 18 20 28 21 20 24 15 22 22 24 27 31 26 13 23 30 20 24 25 18 23 18 20 21 15 21 16 25 23 31 20 23 20 28 23 22 16 22 28 23 24 20 16 30 29 31 24 21 22 17 21 24 30 22 15 22 25 24 20 21 16 27 35 23 19 29 25 22 25 25 21 29 18 22 27 16 31 17 22 22 24 25 17 21 21 21 24 24 17 20 25 18 23 27 24 20 19 22 18 25 34 24 21 22 22 24 18 22 23 24 20 25 17 27 27 24 23 23 31 19 21 19 27 19 24 29 27 30 16 20 24 19 22 25 22 28 24 27 20 20 22 17 25 23 19 27 19 18 18 20 20 22 21 31 21 21 26 25 20 22 17 19 37 30 23 21 21 27 26 20 21 24 27 18 21 24 19 18 26 27 28 22 25 27 27 30 17 33 22 12 19 26 26 26 34 22 18 23 22 22 21 18 27 19 23 27 19 27 28 33 25 25 18 17 25 15 22 25 19 17 22 25 25 17 18 26 18 29 20 20 18 30 30 11 19 29 31 25 24 23 21 21 23 25 19 26 18 23 23 18 28 25 20 20 22 21 23 25 25 23 24 20 25 27 25 31 20 22 27 25 22 22 33 25 28 17 16 20 26 15 24 23 19 20 22 24 25 14 19 27 27 22 23 19 24 24 20 17 27 22 24 21 19 25 26 28 20 21 12 14 19 23 22 22 28 27 21 22 23 22 21 17 25 16 27 21 27 24 16 9 30 22 29 23 23 20 23 26 27 23 22 23 22 28 22 22 21 26 28 32 22 28 23 22 16 19 25 23 28 24 25 24 20 18 25 32 26 24 22 20 23 22 21 23 20 19 27 17 22 28 30 20 21 30 26 27 20 24 17 23 23 25 22 30 19 27 27 23 25 19 24 25 30 19 13 28 24 24 25 20 18 21 15 18 28 25 15 24 21 26 19 16 17 23 17 22 34 18 22 29 28 29 27 27 23 25 22 27 18 33 24 21 27 23 20 22 26 25 25 14 24 24 25 29 29 28 20 15 28 16 26 31 22 22 22 21 21 27 17 29 21 24 28 19 28 17 24 18 21 28 23 26 14 31 24 20 14 18 25 24 24 27 31 25 23 16 36 24 21 25 21 27 20 28 27 20 21 34 21 16 22 24 23 19 33 15 26 24 27 22 20 24 22 22 21 15 33 21 23 23 27 24 20 22 27 28 25 19 20 29 23 19 19 24 19 20 25 27 13 24 24 33 20 19 16 22 20 18 24 28 20 24 23 16 24 22 23 21 22 24 22 21 23 25 23 20 22 22 22 17 18 22 18 21 22 22 20 22 20 25 24 25 28 27 22 28 24 20 23 22 19 25 17 24 19 18 23 23 19 19 22 27 24 19 25 22 22 30 24 11 16 23 28 21 22 22 27 25 22 17 22 23 27 17 20 30 23 23 23 26 26 21 23 21 17 18 23 14 25 16 22 23 27 22 22 18 22 23 16 21 26 26 19 18 21 26 18 26 17 31 29 29 25 29 15 21 28 28 18 22 22 26 30 26 30 18 24 16 27 27 22 25 21 21 18 17 29 34 21 26 22 28 27 27 21 26 15 21 20 21 22 23 29 23 26 21 27 23 28 25 31 14 19 24 29 25 19 27 15 20 22 16 29 23 18 22 22 19 26 19 15 12 25 16 22 22 19 16 17 21 17 24 22 16 20 24 15 15 19 21 21 18 22 29 26 18 22 21 19 23 26 27 23 23 19 20 28 23 17 29 23 19 26 17 24 20 25 25 27 21 28 25 23 15 27 25 29 26 19 26 25 22 23 24 23 29 22 17 22 17 22 23 16 27 27 23 18 17 16 26 21 19 26 23 28 26 27 14 27 25 25 20 24 28 22 22 24 13 26 22 28 18 21 23 26 24 27 24 20 16 22 22 25 24 20 18 33 20 26 15 14 23 27 29 21 21 20 15 17 26 20 22 23 27 27 26 21 23 22 21 21 17 17 27 22 21 19 21 21 25 25 18 30 23 18 16 20 22 22 23 25 17 26 26 24 24 14 25 23 17 24 19 22 31 24 26 18 18 29 22 21 21 22 28 18 20 24 23 28 23 18 20 22 20 22 24 27 24 19 29 20 16 16 23 22 25 19 20 18 23 24 23 19 25 28 23 19 20 23 26 19 26 22 27 23 26 19 32 19 15 17 22 23 26 23 24 21 30 28 14 20 29 26 23 24 14 19 30 20 21 22 26 31 22 28 24 20 23 18 25 19 19 22 22 26 21 19 24 18 26 27 19 27 22 20 18 23 18 23 30 24 21 25 27 18 28 26 27 22 20 24 16 33 25 32 23 21 27 24 16 27 21 22 17 17 22 23 18 22 23 26 24 25 30 23 22 23 26 19 25 24 24 25 19 28 19 26 23 17 26 24 25 20 29 23 25 17 24 24 18 26 19 21 25 23 22 17 27 22 18 22 22 19 21 27 24 24 17 24 19 17 22 23 14 20 24 27 25 23 24 21 26 20 21 25 17 24 27 28 19 20 26 22 23 27 19 29 23 22 20 20 18 17 20 22 23 21 26 23 22 14 22 18 20 26 21 19 33 22 17 25 24 22 22 22 24 19 20 24 22 17 17 25 19 24 23 26 25 19 23 23 24 23 26 30 19 23 23 19 28 23 20 17 18 21 23 18 21 17 20 23 23 14 18 22 28 22 24 20 19 28 22 24 23 22 16 23 33 21 16 24 20 24 29 24 18 25 24 18 29 34 14 30 22 21 10 22 25 20 17 25 29 29 27 22 21 16 17 24 22 19 28 29 22 29 21 23 32 26 30 19 19 26 21 31 25 18 25 18 28 24 20 25 17 22 21 18 13 22 23 25 15 20 15 19 19 27 21 20 34 19 20 19 28 22 22 31 24 24 17 17 27 18 23 20 26 18 29 20 20 25 18 28 19 20 23 20 24 23 22 32 19 21 22 26 30 24 22 25 22 23 28 26 19 24 29 23 18 18 26 24 24 27 26 26 22 22 27 23 16 22 24 21 16 24 19 27 25 19 23 21 23 24 19 26 17 29 24 24 17 22 19 28 21 20 23 27 17 17 28 26 23 32 22 20 20 22 27 21 20 20 27 29 22 15 17 22 17 28 20 23 16 25 26 23 22 24 22 23 22 20 17 17 19 15 25 25 32 18 26 25 19 26 29 29 24 24 21 24 24 15 21 19 15 27 17 16 19 24 22 29 24 31 28 27 21 23 28 30 25 28 21 22 32 22 18 26 22 20 20 20 19 28 21 19 22 22 22 18 19 16 19 28 28 32 19 19 25 24 23 20 16 15 22 25 14 18 26 19 26 20 21 22 24 11 21 29 28 23 20 20 23 20 16 28 24 20 22 23 23 20 18 20 27 27 26 26 18 18 22 21 25 19 22 19 18 20 17 23 29 18 19 23 20 32 23 19 25 21 18 20 23 13 24 27 23 25 20 23 23 22 15 30 19 20 26 20 22 20 19 31 22 21 25 24 22 26 31 22 19 27 19 24 25 24 26 33 22 12 28 23 20 17 26 19 24 22 26 32 20 22 16 20 17 22 20 14 23 28 21 16 31 25 22 21 21 21 23 17 28 28 32 22 22 26 23 17 21 22 27 28 14 22 17 28 18 25 28 26 17 26 17 19 19 32 16 15 23 21 26 29 22 23 26 23 21 19 32 16 22 18 21 23 22 23 10 19 23 17 28 24 22 17 16 26 20 25 19 24 17 24 15 15 24 19 23 25 24 29 26 23 23 26 27 26 17 15 20 23 26 23 19 20 22 15 21 17 25 32 31 24 16 23 22 19 15 23 23 22 24 19 27 23 19 29 19 19 21 13 19 18 24 24 26 20 20 20 24 20 27 20 22 22 18 22 21 18 30 27 27 22 21 17 27 26 17 33 22 30 20 20 23 20 23 21 24 19 27 19 22 21 21 20 20 23 24 23 22 25 18 22 20 32 20 24 25 24 21 26 19 19 21 26 18 28 24 27 25 31 17 24 26 9 22 23 21 17 18 27 27 14 17 14 18 22 24 23 25 22 23 18 22 14 22 22 26 23 20 22 26 24 23 20 26 24 26 30 18 20 17 23 32 24 24 25 24 25 26 24 22 21 16 28 25 20 20 27 20 29 25 16 23 23 23 19 29 17 20 30 18 18 25 21 23 24 25 23 27 22 24 21 12 21 24 18 28 21 24 22 18 24 18 31 21 22 19 22 21 20 25 19 17 21 19 22 23 27 20 23 23 29 17 19 21 22 23 24 22 18 22 18 15 27 22 28 23 21 16 24 26 27 22 16 21 27 21 16 23 24 22 27 23 27 19 29 22 21 21 29 17 27 19 29 19 20 22 17 19 24 13 19 17 25 17 25 21 16 22 24 24 20 19 27 16 15 24 20 22 24 21 19 22 17 18 17 24 16 28 23 23 22 36 26 26 15 31 25 22 22 16 26 22 26 26 27 28 25 23 16 24 12 26 18 22 19 19 19 25 29 20 24 18 19 28 12 23 20 31 30 20 28 15 23 26 31 22 15 20 18 16 25 20 17 20 20 33 28 21 26 16 23 23 25 16 21 18 27 17 22 19 20 22 23 22 22 25 15 18 23 20 20 23 26 27 23 17 19 26 27 26 22 20 29 18 29 22 20 21 19 20 20 25 16 22 26 21 23 26 32 19 16 23 22 20 25 19 18 23 27 27 21 21 27 21 20 29 27 22 19 21 30 25 24 22 20 18 21 24 17 27 25 19 19 22 25 24 24 22 20 15 32 19 22 21 29 23 18 25 21 24 20 16 34 25 23 27 19 21 28 25 28 24 23 18 17 17 19 14 23 25 15 27 24 21 23 20 22 24 21 20 29 26 20 14 20 29 23 24 20 14 26 25 19 24 24 19 21 30 33 21 18 20 18 17 25 25 19 24 23 16 16 26 17 24 26 20 25 23 18 19 25 18 23 21 30 19 23 16 24 19 23 25 21 25 29 25 18 25 29 23 16 23 27 23 25 21 20 24 25 19 22 20 24 17 22 23 18 18 28 22 16 22 27 32 18 23 26 26 23 30 23 18 18 21 26 26 16 27 27 37 13 25 19 19 22 24 18 26 30 19 27 22 24 24 22 13 22 24 16 25 27 19 26 18 21 18 21 29 26 16 20 19 35 19 21 16 24 25 21 21 22 23 27 19 24 20 24 27 18 20 22 25 17 25 18 22 21 20 23 22 24 16 18 23 24 20 16 20 28 16 17 19 25 18 27 17 29 17 21 20 23 20 18 27 19 20 12 19 30 20 28 16 23 29 18 19 18 19 35 19 33 27 31 13 17 28 26 27 23 17 16 25 31 25 18 23 20 24 27 16 24 20 28 25 17 24 22 15 16 20 16 31 22 23 16 37 21 25 13 20 27 22 15 22 30 23 30 21 22 20 23 19 24 23 19 23 31 21 26 19 17 26 28 20 21 19 24 13 24 27 12 23 21 27 22 28 20 29 20 21 27 27 22 23 21 25 31 24 26 28 26 23 27 26 18 19 22 15 30 20 28 22 28 23 22 25 32 29 23 28 19 19 21 22 24 25 29 22 24 20 22 27 26 24 29 23 16 25 25 17 17 29 24 30 30 25 14 26 16 23 17 22 26 27 30 32 29 25 23 18 25 24 33 21 17 28 27 23 25 19 24 21 13 18 17 22 26 18 26 29 18 23 23 25 14 21 30 23 22 23 18 22 26 19 24 27 22 32 19 21 17 21 23 18 18 30 27 29 20 27 25 27 26 33 13 18 27 18 25 24 23 27 18 30 17 22 23 28 18 18 21 28 27 23 21 30 20 20 22 22 23 31 18 31 30 18 21 28 20 20 22 26 20 22 22 22 19 18 16 25 26 27 28 22 21 26 23 21 19 21 28 29 25 24 21 28 21 26 25 20 21 18 24 23 26 30 19 22 28 24 19 26 27 17 23 24 18 23 24 25 19 25 21 14 30 20 19 23 14 22 19 16 27 19 26 32 16 17 21 33 33 26 20 19 29 22 24 26 25 23 13 21 26 27 24 16 25 24 23 20 23 28 27 21 24 15 22 23 18 26 21 23 19 20 24 21 19 23 26 21 24 22 18 24 28 19 20 24 26 16 15 21 18 13 19 23 28 29 25 20 31 22 21 20 21 18 33 15 17 25 13 24 23 22 25 24 32 20 30 25 27 23 34 17 20 18 24 17 25 23 21 31 28 24 15 22 27 16 21 21 26 16 18 25 25 15 27 19 21 22 23 22 25 27 17 27 22 24 24 17 23 21 15 25 16 18 24 19 24 24 23 18 31 22 23 29 18 24 18 20 21 20 28 21 23 25 34 26 14 20 16 27 24 27 24 19 23 39 15 22 19 24 24 20 20 22 27 23 25 34 16 11 17 22 20 30 16 27 20 19 25 19 14 15 14 22 24 28 19 25 25 16 28 14 19 27 27 18 24 23 20 24 22 16 27 19 26 25 16 25 26 18 25 21 21 21 17 14 24 29 19 21 19 17 23 33 17 13 23 24 18 20 23 27 26 25 26 24 16 28 21 20 25 21 19 25 26 30 23 30 15 19 20 23 15 26 26 19 27 14 23 24 22 17 25 23 17 25 18 22 33 19 24 25 21 19 19 27 28 22 29 27 29 28 18 31 30 16 24 23 19 27 26 30 18 20 22 17 21 26 27 16 16 21 25 24 26 27 22 25 18 24 19 25 26 20 20 24 26 25 22 23 25 21 17 18 28 24 23 26 18 29 30 17 19 26 18 30 18 20 12 28 25 26 32 18 17 19 18 22 17 22 23 24 22 25 25 15 24 22 26 23 34 25 22 20 16 26 15 21 21 18 27 15 25 19 19 27 21 22 19 18 21 14 17 26 20 17 20 25 28 32 25 23 29 28 24 24 30 19 22 22 18 25 23 23 24 22 20 24 22 23 19 22 18 22 22 20 29 15 22 30 18 24 15 19 24 21 21 24 18 25 26 24 13 25 22 23 29 27 31 22 23 24 23 23 19 20 19 17 18 27 21 21 24 22 17 26 26 29 21 28 26 22 25 22 24 11 20 31 30 23 24 20 19 21 25 20 18 20 20 30 24 21 25 29 23 26 18 21 25 25 24 14 28 22 19 19 17 19 20 27 29 23 26 19 17 22 26 17 21 21 22 23 28 16 23 20 24 24 16 25 26 20 15 32 23 26 28 17 22 21 27 23 28 20 26 14 20 19 17 17 22 27 29 30 18 27 24 21 30 17 31 13 24 28 24 24 22 28 26 21 19 20 24 22 22 14 28 24 21 24 27 19 30 21 20 23 28 16 19 27 24 21 24 23 26 14 22 15 21 17 18 26 25 19 28 21 21 23 28 29 29 24 21 19 23 23 17 24 23 19 22 24 24 33 17 18 24 22 19 24 23 18 25 14 21 21 26 34 20 20 24 19 23 22 22 28 24 24 26 16 23 23 21 24 19 31 29 25 24 22 25 22 24 21 17 21 25 20 31 18 24 25 22 20 27 22 20 29 26 21 22 22 22 22 23 18 21 25 23 28 18 35 18 22 22 15 19 20 23 21 30 21 18 25 25 23 20 29 16 29 14 18 24 23 16 24 21 18 25 14 18 13 23 23 20 25 19 19 27 25 21 24 19 29 27 28 20 24 34 20 18 17 16 14 24 22 35 23 22 17 25 20 22 25 25 18 26 27 23 18 23 24 23 23 26 19 26 21 34 25 17 23 27 19 19 16 20 18 22 19 35 19 19 22 25 24 31 20 18 22 25 23 24 27 20 30 27 27 23 27 21 21 22 25 23 16 22 24 18 23 16 29 21 21 16 17 22 22 21 21 28 22 30 17 23 23 16 25 32 24 20 23 26 18 15 13 23 14 27 24 20 22 22 19 18 22 18 16 26 23 26 19 20 31 29 26 28 19 17 24 21 20 20 20 23 25 22 22 26 14 28 17 19 22 26 26 16 22 21 22 18 22 19 16 19 22 26 28 19 16 24 14 23 17 24 21 29 28 33 23 20 17 18 25 26 20 15 17 20 20 23 22 23 28 24 13 25 18 29 20 20 21 27 23 23 25 25 27 25 21 19 29 28 15 16 23 30 20 18 27 18 20 26 21 24 17 29 23 21 23 19 24 20 28 27 28 23 26 29 29 19 32 26 20 21 25 24 24 25 22 24 21 23 19 17 23 25 24 16 25 28 20 18 23 20 26 27 26 15 20 17 18 24 21 27 20 22 22 16 28 27 23 22 28 19 21 16 25 27 22 28 27 27 29 28 17 18 26 18 15 26 23 24 23 19 24 23 21 18 24 23 29 20 22 20 24 26 19 23 26 18 17 24 21 26 24 24 19 19 19 15 24 23 18 19 24 22 21 18 20 24 26 22 20 19 21 30 28 17 24 19 22 25 12 21 32 19 25 24 22 26 25 20 16 20 14 16 20 27 23 22 23 22 25 26 18 27 18 19 30 26 23 22 24 25 26 22 26 25 18 24 23 26 24 34 21 22 23 20 27 25 25 30 15 23 30 18 16 21 24 24 18 26 25 23 22 26 26 27 22 18 18 21 25 19 23 18 18 28 19 21 23 20 31 31 24 21 20 22 24 20 21 18 16 23 15 25 21 29 21 22 25 23 20 25 26 23 24 24 24 26 24 16 26 27 25 14 25 19 27 26 21 26 18 32 19 18 22 24 24 33 17 19 23 18 20 25 23 18 22 28 27 28 21 20 21 20 20 20 23 22 27 24 20 30 19 23 27 28 18 19 23 17 23 25 21 22 19 27 26 19 25 22 29 23 17 26 23 23 22 24 31 23 33 22 24 23 27 21 30 26 25 25 30 26 22 19 19 22 15 22 26 30 23 27 29 19 25 19 18 18 22 31 30 30 20 23 25 21 25 24 25 20 23 30 18 25 21 28 15 30 25 20 33 24 19 17 26 20 22 23 18 18 31 23 20 21 24 18 27 23 13 21 22 19 20 24 18 19 29 22 23 22 20 25 15 16 19 17 17 20 27 19 21 18 24 16 17 25 21 23 24 24 23 26 20 30 23 29 17 25 15 17 21 26 27 25 23 20 22 20 19 34 23 25 29 21 27 20 19 27 21 19 23 28 29 23 25 23 22 26 26 28 27 15 25 16 20 31 22 17 21 24 24 27 35 27 22 21 17 21 18 26 26 22 18 21 26 26 22 14 24 26 23 24 22 20 25 28 22 28 17 23 26 18 29 24 17 22 22 23 29 28 17 17 30 22 30 17 25 19 19 18 23 19 19 18 25 21 23 23 21 34 15 27 24 19 21 13 19 22 17 25 27 22 26 25 27 16 29 24 22 30 23 16 17 18 23 17 24 25 28 27 22 22 30 28 31 20 15 29 23 26 16 25 21 19 23 32 22 23 16 28 19 30 25 29 22 20 16 26 25 31 16 25 18 24 25 20 16 26 28 23 16 25 22 18 25 23 25 18 21 19 23 22 18 22 17 26 30 23 25 18 16 25 23 23 24 17 20 28 27 18 25 30 20 29 23 18 23 24 20 20 24 23 21 21 24 20 21 20 15 23 25 18 21 17 28 18 22 24 25 25 26 26 20 31 17 25 25 28 23 20 28 18 19 23 26 22 19 15 28 27 22 20 19 25 22 24 20 20 22 30 24 20 18 24 24 24 20 27 25 20 19 26 26 22 23 30 26 34 26 25 19 26 26 17 31 20 30 24 13 27 19 21 19 23 22 16 22 18 28 29 27 19 22 27 21 21 20 25 20 26 19 21 19 27 27 18 28 34 21 25 18 23 19 27 25 21 26 27 16 23 16 21 22 22 22 17 24 19 21 22 24 28 20 21 19 17 18 25 26 21 29 21 22 17 30 20 24 26 26 25 20 16 21 25 26 21 15 23 25 25 24 22 29 17 25 19 18 22 23 23 18 18 29 16 27 23 26 25 21 22 24 22 23 23 26 29 16 19 25 22 27 28 27 24 16 28 25 31 20 20 19 21 26 23 10 21 28 23 15 19 21 19 19 25 31 24 18 17 26 20 19 15 18 17 23 19 26 21 28 21 23 30 24 26 16 17 24 20 25 24 25 29 22 16 24 25 28 27 22 23 30 19 28 23 22 23 23 27 32 25 24 23 15 31 25 28 20 19 25 17 26 30 30 16 23 21 16 26 20 26 18 22 30 21 18 20 18 29 16 23 26 22 23 24 18 19 17 19 24 22 18 19 20 25 23 23 30 21 18 23 25 17 22 26 22 29 20 25 27 18 22 19 27 23 32 21 27 23 16 25 32 20 29 21 26 22 14 25 19 21 25 21 17 22 19 28 28 33 17 24 21 25 30 22 19 22 23 26 22 25 23 19 29 22 25 24 21 27 26 21 26 23 25 21 21 23 26 15 14 21 29 22 23 18 26 18 22 20 23 25 23 20 24 27 24 21 15 25 25 18 18 21 21 27 21 16 20 24 21 22 23 13 26 18 22 15 20 21 21 23 17 17 26 21 25 22 19 24 25 18 20 18 19 26 16 20 20 16 33 18 24 19 21 27 28 16 22 29 28 20 29 18 23 19 17 25 29 22 25 22 22 26 20 28 24 26 26 21 20 27 15 23 36 26 18 21 24 22 22 29 21 27 28 19 26 15 26 19 25 20 19 18 26 15 27 18 22 27 24 22 30 24 22 23 20 16 27 24 25 18 31 19 23 22 15 22 22 26 23 28 26 20 21 33 19 25 31 24 18 22 18 25 24 19 34 35 20 23 20 21 27 21 25 19 19 25 19 18 22 19 19 17 26 23 23 20 29 15 21 24 22 23 14 23 24 18 40 25 31 19 22 17 27 27 28 21 26 19 27 29 17 17 12 25 22 21 18 13 19 17 21 24 26 22 13 20 25 19 34 28 28 23 25 26 25 24 28 18 25 26 21 28 25 20 12 28 20 22 24 23 25 24 28 16 23 20 15 19 13 21 25 21 22 18 18 25 28 28 40 21 21 21 19 25 26 24 25 17 20 15 24 27 16 24 23 16 13 24 18 23 26 17 21 20 27 23 25 26 22 29 20 16 27 16 32 23 20 23 25 22 24 25 21 20 24 20 24 23 25 20 25 23 16 18 18 26 19 26 20 17 23 26 27 19 27 28 24 23 28 21 20 24 21 27 20 23 23 21 21 26 21 25 26 27 22 26 27 22 21 22 20 27 23 23 24 27 26 14 20 25 20 29 24 26 32 23 25 23 22 20 27 16 16 21 26 24 21 25 21 28 22 29 24 15 23 26 29 29 28 30 25 36 25 21 20 29 21 23 26 30 21 25 16 30 18 26 24 15 25 25 23 25 22 20 22 22 16 21 16 16 19 21 25 23 19 22 22 18 25 21 33 18 17 26 21 19 32 18 21 20 24 19 33 21 18 19 24 20 26 28 23 25 16 19 23 20 22 22 23 21 22 19 21 20 21 30 27 21 27 29 21 17 17 20 23 22 19 21 24 21 22 24 19 21 17 24 19 25 18 19 21 21 17 23 23 27 26 25 24 25 25 22 24 24 22 16 19 26 21 20 26 18 26 23 26 24 24 24 34 20 28 27 18 23 25 21 28 17 19 19 25 20 28 18 24 28 25 29 15 21 30 26 20 17 20 19 21 21 27 34 22 32 29 24 20 23 23 22 18 27 18 19 19 25 19 17 27 25 23 22 23 20 24 28 19 23 24 27 19 24 18 20 21 21 10 33 25 24 20 25 22 16 15 25 26 21 26 14 26 25 18 20 21 23 19 21 25 28 27 27 16 22 20 26 16 29 23 25 23 19 22 18 20 22 29 18 25 15 25 28 32 20 18 29 22 22 16 29 30 24 14 25 13 28 22 25 23 20 23 25 15 26 19 20 21 21 20 24 19 19 19 23 28 21 23 24 19 16 22 17 16 26 22 25 27 15 21 18 22 25 24 21 16 18 19 25 23 15 15 25 19 19 22 25 31 11 24 22 17 29 24 21 23 25 16 28 19 26 17 33 26 24 29 17 18 19 20 16 20 21 22 21 24 22 21 25 25 16 16 33 21 21 16 12 28 25 18 19 24 21 22 30 18 23 29 23 26 16 21 21 25 25 25 20 18 22 26 25 22 19 25 23 26 23 22 21 25 23 22 22 25 30 27 19 25 25 17 21 22 23 23 28 22 18 12 27 28 20 28 21 15 25 19 25 27 27 28 29 21 18 22 28 20 21 19 23 19 18 18 25 28 28 17 21 24 22 29 26 14 25 19 25 27 26 20 20 23 24 23 24 23 22 29 21 25 25 21 27 25 19 25 26 20 31 16 15 28 21 21 23 22 28 21 20 17 25 29 27 22 34 22 27 32 17 21 19 11 23 24 27 18 22 23 26 20 14 27 23 22 27 26 23 27 17 24 25 17 28 26 21 24 26 24 21 21 23 27 29 19 16 22 27 16 26 22 26 26 24 28 22 28 24 17 28 19 25 31 29 27 19 13 25 19 30 18 27 22 23 25 24 20 19 22 22 19 21 24 18 24 22 19 18 13 23 20 19 23 20 21 21 30 20 23 25 18 26 19 21 22 28 24 22 23 20 10 19 24 24 27 23 26 25 21 21 22 25 24 18 25 20 22 25 24 23 21 20 23 17 22 21 23 20 24 17 23 24 22 19 27 22 22 29 24 20 18 23 17 26 15 23 14 22 27 24 21 29 28 19 21 23 17 20 21 21 16 20 21 17 30 27 27 24 31 26 19 29 33 20 24 20 27 20 25 19 21 23 19 24 28 19 20 19 22 25 21 20 26 27 21 24 32 17 22 18 18 23 23 22 21 23 16 16 23 29 21 16 22 28 18 16 22 33 21 29 30 31 22 23 14 29 20 18 27 27 24 27 15 23 19 34 18 21 19 21 20 20 24 27 25 20 27 24 27 19 16 14 23 23 20 28 26 21 22 20 26 18 31 31 20 25 22 28 31 25 22 24 24 17 22 28 22 18 20 27 23 19 23 16 22 31 21 18 25 16 26 20 21 19 26 20 23 22 24 14 19 20 14 18 20 26 25 25 23 19 24 15 18 22 26 22 23 24 28 27 17 30 28 22 20 22 25 26 19 17 21 23 25 19 20 19 34 21 27 21 24 21 24 27 26 21 22 23 32 26 17 25 20 24 24 23 22 24 18 14 17 21 26 17 22 18 18 22 19 21 21 24 35 19 25 25 27 22 19 17 23 27 24 16 23 24 20 24 22 20 18 32 23 20 22 25 25 20 17 21 21 22 26 25 18 29 19 24 19 28 23 17 25 27 20 17 24 17 19 29 27 29 18 19 22 23 29 23 20 19 19 33 29 28 27 16 21 19 17 26 21 28 26 24 24 24 24 23 27 32 19 20 29 22 21 26 29 19 12 26 27 23 19 28 26 21 27 27 26 15 23 27 27 23 15 20 28 22 31 25 28 26 20 31 23 24 21 26 24 23 21 22 23 30 24 24 22 19 25 23 20 28 27 20 32 21 30 23 24 21 22 22 25 22 26 31 17 27 15 21 31 17 28 18 19 21 23 20 20 16 22 17 23 21 21 22 21 21 22 17 20 22 21 26 23 17 22 24 25 22 20 24 23 25 26 27 23 27 17 24 30 15 27 25 25 25 20 23 27 28 31 16 20 22 24 24 23 26 28 19 16 26 22 34 23 26 21 19 25 22 25 14 28 24 26 18 34 23 25 18 25 20 24 25 26 22 22 17 24 20 28 22 23 25 29 30 30 26 31 24 28 25 23 26 19 29 25 22 21 24 26 20 20 23 22 33 20 21 23 23 22 22 20 19 24 27 22 23 20 27 22 24 33 18 24 24 22 18 27 24 25 26 14 20 22 23 24 26 15 16 28 18 24 19 20 21 25 24 21 18 25 25 22 30 23 23 25 21 24 19 23 27 20 21 21 23 23 21 17 23 23 22 22 12 21 23 19 14 22 27 25 24 23 13 14 21 26 25 20 28 23 25 15 21 24 16 23 23 24 18 26 22 24 23 29 19 21 21 20 24 19 25 31 18 27 27 25 18 28 17 25 15 27 26 25 11 22 23 22 22 22 22 16 25 17 18 27 17 26 24 27 30 21 15 29 25 23 24 16 24 25 27 23 21 23 19 18 25 22 18 28 23 23 19 23 24 23 28 23 31 29 20 24 31 24 22 30 23 19 21 27 20 25 17 20 19 33 15 23 26 19 26 17 21 28 28 26 23 21 24 26 22 25 29 26 24 24 21 18 24 14 20 22 22 20 25 20 27 23 27 27 18 22 23 21 36 23 27 20 25 22 25 24 20 28 27 24 21 27 24 19 16 28 26 27 20 18 21 21 23 25 29 25 21 22 22 17 25 24 30 29 26 21 22 26 30 17 22 27 19 17 24 21 25 27 32 24 23 34 20 24 21 23 26 30 22 20 21 23 16 27 18 17 30 20 25 17 24 23 24 22 21 28 18 25 21 14 27 21 32 21 24 28 21 21 17 20 25 26 14 21 21 22 19 24 15 24 30 15 22 20 21 24 19 22 15 21 26 28 22 27 26 27 28 22 23 12 28 21 23 26 21 21 26 18 27 24 15 17 19 22 24 21 21 26 17 20 21 22 22 21 21 22 26 26 17 21 19 19 20 24 23 21 21 24 23 24 23 25 24 24 22 19 19 23 15 29 17 15 17 18 24 18 30 19 27 19 25 18 14 17 19 30 30 24 21 23 24 22 17 13 14 25 20 28 18 19 24 24 24 30 27 12 22 26 22 17 29 20 24 25 21 23 20 25 27 21 25 27 18 19 19 19 30 24 13 23 14 22 24 26 18 19 20 24 25 31 26 23 19 28 24 27 22 18 11 21 18 19 24 26 24 25 26 25 24 27 15 30 22 19 21 17 18 20 17 21 25 22 25 24 19 17 21 33 26 24 26 24 18 21 17 18 23 25 15 18 35 28 25 26 23 24 20 28 29 22 20 28 20 25 28 21 24 26 20 23 27 21 28 17 21 19 26 20 29 26 23 24 25 26 25 20 24 19 21 20 22 26 19 20 19 22 27 20 18 22 23 21 23 25 24 25 23 18 26 13 21 25 25 33 20 20 27 25 20 14 18 20 26 18 17 25 25 19 22 27 18 25 20 28 20 25 27 19 22 29 22 18 23 31 27 30 19 22 31 18 30 22 31 21 25 17 31 27 26 33 20 20 21 23 24 27 22 18 18 19 21 19 24 20 19 23 24 22 25 23 20 28 26 24 26 19 23 26 30 19 18 25 18 19 16 21 31 24 26 23 22 28 17 21 26 31 24 16 23 21 30 24 20 25 20 26 18 14 17 25 24 22 22 24 20 22 21 22 19 16 20 17 16 16 21 18 20 24 25 26 21 21 21 21 31 25 24 21 27 24 29 20 27 26 31 24 24 24 26 28 19 23 26 14 19 23 21 17 18 18 26 28 22 27 25 18 16 16 21 18 21 21 21 15 16 26 19 20 26 28 21 22 18 20 25 19 32 17 19 18 27 27 24 19 24 14 31 30 20 20 27 22 19 26 25 18 28 23 20 22 17 16 19 24 22 28 20 30 16 22 25 22 18 25 21 23 13 18 24 23 20 27 23 15 23 18 21 25 21 23 23 25 30 18 26 20 21 22 20 25 22 23 18 21 24 18 30 23 20 25 20 16 16 22 27 17 18 31 27 26 26 12 21 22 29 22 21 20 21 20 17 24 23 18 16 24 17 25 23 18 20 19 20 23 21 27 22 21 16 19 19 23 18 17 22 14 22 23 23 26 22 20 27 20 29 32 31 26 27 27 30 18 22 26 22 18 26 16 22 28 25 22 25 29 27 28 27 27 25 24 19 19 21 24 19 21 24 22 22 26 25 17 15 24 21 24 24 23 28 26 24 26 25 29 21 20 18 28 25 18 23 19 21 26 31 23 24 20 28 29 16 17 18 21 24 20 25 29 15 24 28 18 30 16 20 24 21 30 34 18 23 26 23 30 25 29 23 21 22 20 19 20 19 19 27 22 33 23 21 18 16 14 22 20 28 22 22 29 23 23 25 14 32 28 23 18 23 20 16 27 18 26 22 20 20 18 22 24 29 21 16 26 29 27 22 20 24 25 20 22 25 20 14 18 23 30 21 23 15 18 21 22 23 23 26 16 19 24 21 19 13 21 22 18 16 34 18 30 28 26 28 19 23 27 24 21 23 22 16 29 16 24 22 24 19 23 28 24 23 23 21 28 26 24 17 22 22 21 19 24 25 19 22 23 22 23 21 22 32 12 19 26 24 24 20 25 19 18 27 28 21 23 24 20 27 21 28 18 20 24 23 23 18 17 26 20 20 26 34 26 15 18 21 21 27 31 18 27 11 23 17 18 18 29 25 28 22 15 27 16 34 24 25 24 26 22 21 24 22 18 22 23 20 21 25 17 20 23 25 31 25 20 21 28 17 19 15 22 14 13 16 28 27 24 23 16 21 23 23 26 21 23 19 24 24 21 24 19 22 27 27 21 23 22 19 19 16 25 21 28 27 18 24 24 26 22 28 25 19 19 27 29 25 17 23 29 23 17 23 24 28 26 25 23 29 25 17 25 17 19 24 26 20 23 26 21 27 19 20 16 18 21 15 15 26 21 22 20 20 28 29 29 25 22 31 21 20 23 18 29 21 23 21 25 17 19 26 20 24 24 23 30 22 15 22 17 26 22 30 21 24 24 27 19 19 25 20 23 24 21 23 19 21 26 27 21 25 31 27 24 18 17 26 22 23 26 26 21 22 13 28 27 14 35 24 20 17 24 18 16 17 20 16 24 20 24 24 32 25 29 21 15 24 22 24 21 20 28 16 24 17 20 24 33 21 24 30 14 19 16 24 21 20 17 22 23 14 22 25 28 20 21 16 30 21 31 17 16 26 16 16 17 21 30 25 17 24 19 30 27 26 19 16 23 28 19 25 20 24 21 20 21 24 16 23 22 21 19 19 18 28 24 26 19 23 29 21 18 18 22 14 20 22 25 23 22 25 24 21 23 20 27 16 23 28 23 27 19 18 25 24 21 18 19 22 25 16 25 22 25 25 25 21 22 19 24 27 27 20 15 16 24 15 24 24 19 23 25 16 19 26 30 27 22 18 26 26 22 32 16 17 21 20 18 27 23 16 21 23 21 18 21 28 17 24 25 22 23 16 18 15 19 20 26 18 24 27 19 20 22 24 20 16 16 28 22 30 23 17 25 23 22 25 21 24 27 23 21 22 14 24 17 23 25 20 23 25 22 22 19 14 19 22 18 23 18 27 31 24 22 24 24 21 23 13 24 28 22 27 29 21 23 19 28 28 26 16 19 22 20 22 13 24 28 25 21 19 17 23 24 23 21 24 19 20 22 21 19 17 24 25 26 27 16 19 26 25 33 19 21 21 19 25 25 20 25 25 27 23 24 25 23 19 24 16 18 15 20 16 23 26 23 29 22 25 26 18 21 17 26 30 22 26 20 18 22 19 23 28 23 19 31 25 19 20 23 20 29 23 20 23 33 26 30 31 27 23 22 27 24 24 16 26 18 28 23 22 18 21 27 18 21 20 22 23 31 23 20 23 23 19 23 27 24 19 26 13 18 22 23 30 25 17 23 23 29 21 27 25 19 24 23 29 16 19 21 16 20 22 22 27 27 19 19 23 19 17 21 24 21 14 26 27 18 23 23 16 22 19 24 15 16 24 25 16 23 20 25 26 20 24 26 24 21 19 18 26 34 22 23 22 24 22 18 20 18 20 29 26 20 27 28 26 20 20 17 24 18 27 25 26 26 18 22 20 37 19 18 21 23 27 21 21 29 18 21 26 24 21 15 29 21 19 27 25 20 12 22 29 18 17 19 29 21 21 25 16 22 25 28 21 34 27 16 25 25 17 24 24 24 28 21 27 17 28 20 28 27 24 23 26 27 17 25 17 24 18 27 19 21 31 23 26 16 18 21 25 17 28 25 11 21 33 26 16 26 31 22 21 34 22 23 27 22 23 15 22 23 19 11 28 19 25 24 22 35 26 16 17 26 25 13 22 26 20 29 25 22 28 25 25 14 18 24 24 24 23 32 33 21 26 26 17 29 22 19 24 21 29 22 20 21 27 22 22 18 17 25 27 20 22 25 25 16 20 25 26 24 25 24 15 24 17 16 25 22 27 19 23 19 22 21 18 26 24 18 26 13 24 19 26 21 23 28 17 21 24 20 26 28 30 29 17 25 22 21 18 27 27 21 17 23 24 19 27 26 20 21 21 17 21 24 19 33 22 25 24 33 23 25 22 21 27 19 30 24 20 27 18 20 26 23 20 26 31 20 24 17 25 14 21 17 19 28 17 15 21 21 23 23 18 19 31 21 20 21 24 18 20 26 20 17 20 18 24 18 27 19 21 19 16 20</t>
-  </si>
-  <si>
-    <t>NIG(108.77296678147763, 79.71655318627029, -1.5927157828365797, 32.57264639949568)</t>
-  </si>
-  <si>
-    <t>43 43 31 22 40 23 39 38 27 36 35 40 38 29 42 28 31 24 29 41 37 33 42 31 30 33 44 34 29 35 29 45 33 37 32 38 32 32 40 34 30 31 29 32 32 31 25 34 40 35 31 24 32 36 27 36 30 35 33 41 33 36 28 34 34 35 28 44 40 37 34 30 34 35 31 33 35 35 35 22 29 27 34 27 44 43 30 32 40 36 32 29 37 31 35 26 30 33 30 31 35 39 28 36 26 41 22 28 24 32 39 22 30 40 33 44 35 27 28 38 43 40 33 31 36 34 37 30 35 31 37 27 31 30 44 26 23 36 35 31 36 33 25 39 47 31 38 35 33 39 33 24 36 37 30 31 41 30 34 35 38 34 32 34 29 28 26 23 39 37 36 37 37 31 28 28 32 42 44 40 35 35 35 29 39 34 37 30 27 29 40 45 30 27 30 27 24 41 37 31 38 36 30 28 39 31 35 28 38 33 33 36 31 39 35 38 36 35 34 35 32 33 32 32 39 18 42 41 31 34 40 34 34 36 30 42 30 35 54 36 46 32 44 26 32 39 40 35 44 30 30 34 32 46 38 35 33 32 29 46 35 40 33 30 29 46 43 38 35 23 25 38 38 31 45 31 30 42 33 33 41 26 33 30 28 39 35 36 38 26 38 35 34 40 36 36 31 34 36 39 30 32 33 32 33 36 35 40 39 33 28 30 33 37 30 35 40 31 33 34 29 30 36 20 31 23 32 33 34 37 35 41 25 29 38 27 35 33 30 28 36 36 46 45 33 32 44 40 36 43 28 46 42 30 29 22 26 44 28 35 27 28 36 36 36 33 34 42 35 37 28 39 28 26 39 34 41 36 29 33 35 31 34 39 35 32 38 27 33 46 30 30 23 32 36 33 42 37 28 29 27 31 35 27 31 40 36 37 34 41 32 28 36 29 22 28 36 34 36 31 32 26 24 23 30 40 32 33 30 28 31 30 41 28 36 26 25 38 35 29 26 34 36 37 47 21 31 35 31 28 43 43 35 35 35 26 28 36 36 39 25 31 39 30 34 31 38 33 38 45 36 31 34 32 32 38 32 31 28 34 28 25 35 31 34 37 29 35 37 32 45 32 35 36 27 29 33 27 36 26 29 24 35 34 30 30 34 27 26 37 39 33 42 34 39 37 36 28 27 32 30 24 32 35 41 33 31 43 29 45 32 36 27 34 32 35 31 31 28 44 44 41 32 33 25 30 36 37 34 38 23 36 40 27 33 31 31 29 31 32 35 41 29 31 30 27 34 40 32 31 35 25 30 30 37 30 34 28 31 29 29 35 37 34 27 34 35 43 27 24 43 38 35 34 32 43 31 26 32 29 30 26 31 26 34 35 28 42 36 30 19 33 26 36 30 39 39 29 40 39 36 31 25 45 23 33 39 32 36 39 39 33 31 32 44 32 40 38 35 35 40 27 29 28 26 33 26 32 45 36 30 24 39 33 43 35 26 25 28 37 29 35 43 34 29 37 38 37 24 33 36 38 37 40 25 28 35 28 34 41 39 31 31 48 34 38 27 30 41 24 29 28 40 38 31 33 34 39 34 29 39 34 26 33 26 36 44 28 28 36 33 31 38 35 28 34 36 39 27 33 25 32 40 36 29 38 29 30 26 27 26 40 29 28 29 38 33 36 24 32 42 34 40 36 31 26 30 36 29 28 37 30 42 29 33 36 29 40 41 39 31 38 37 29 42 33 36 42 33 32 28 33 37 38 39 41 34 34 30 40 26 40 42 32 33 38 38 35 39 24 48 38 32 32 26 43 32 39 38 24 31 35 34 33 32 31 35 43 36 32 25 24 27 33 45 35 31 36 35 38 32 25 36 25 39 30 29 33 24 37 35 40 35 39 28 37 33 38 21 43 37 31 36 32 41 38 35 34 32 43 41 37 35 24 29 35 40 36 30 27 36 31 32 33 21 45 49 41 42 36 32 31 39 30 37 28 32 36 25 36 27 32 29 34 32 32 31 54 36 34 21 42 31 36 33 36 33 35 39 30 38 23 35 35 45 26 30 34 32 40 26 34 27 27 33 29 27 30 35 39 33 22 33 36 31 36 33 35 46 34 32 33 38 32 34 35 31 28 23 28 36 40 31 29 40 33 32 36 26 29 37 35 35 35 34 34 36 31 38 33 34 27 19 32 40 33 45 38 43 32 31 32 37 42 35 27 33 38 43 36 30 34 33 37 35 33 35 27 32 38 29 34 36 22 31 38 30 34 42 33 32 25 32 36 25 40 29 31 41 35 29 29 37 27 42 39 27 32 31 29 26 29 31 30 36 28 29 28 35 37 33 31 34 39 26 33 28 28 29 31 22 27 29 30 34 31 32 32 35 27 26 18 36 25 39 30 34 36 39 28 30 30 29 31 45 35 40 33 35 30 37 17 33 36 26 30 25 34 37 25 31 32 27 39 34 34 28 31 34 37 38 38 36 43 31 36 36 31 24 27 37 31 35 42 41 30 29 32 25 26 21 23 44 33 28 38 39 37 36 33 28 32 29 39 26 38 32 38 30 31 34 43 31 33 33 29 30 48 41 40 34 31 19 26 33 35 44 30 37 30 31 38 32 23 22 29 21 31 33 31 30 29 35 34 37 39 34 35 30 29 28 36 42 37 34 37 37 27 29 27 29 33 24 37 31 36 38 27 28 30 42 28 35 32 39 35 31 32 33 51 33 37 32 34 33 37 51 33 31 32 29 38 34 33 39 32 31 47 32 27 31 25 38 33 32 44 38 28 35 25 39 32 32 41 40 31 40 32 30 30 25 28 34 25 33 32 34 32 40 30 40 22 27 27 30 29 35 33 39 30 32 33 28 38 40 45 35 30 30 25 27 31 30 28 22 32 35 43 23 33 33 37 47 42 31 34 34 29 25 23 31 34 28 38 33 34 33 28 24 32 25 32 36 29 32 41 39 36 36 35 28 39 32 40 39 31 32 39 29 28 34 31 33 32 31 43 31 34 31 23 32 21 36 45 31 30 35 33 28 37 29 26 46 31 33 29 40 32 33 32 40 35 32 37 35 39 33 41 32 30 27 26 37 32 39 32 41 28 41 34 29 26 26 39 32 28 33 30 29 37 35 41 30 36 31 44 37 34 30 37 28 25 34 29 32 37 38 36 30 36 47 28 31 32 27 30 32 20 30 40 27 24 42 29 44 29 33 38 33 30 34 28 30 32 33 37 34 39 34 29 40 48 36 37 29 31 42 36 32 30 29 29 41 37 37 28 38 38 30 37 33 32 34 32 30 40 28 33 35 29 34 29 38 20 41 36 27 26 36 42 35 38 29 35 35 28 37 40 30 37 32 40 23 25 29 29 40 41 32 34 33 29 40 38 32 26 30 21 39 23 32 29 44 37 44 24 40 43 28 42 33 36 33 40 43 29 32 33 30 25 36 38 39 43 32 38 33 35 44 25 31 36 31 34 26 32 34 34 39 36 39 40 33 34 33 30 32 25 22 34 34 31 25 31 46 22 27 36 43 37 39 39 35 25 30 32 44 36 26 30 35 28 35 31 26 28 38 31 30 44 45 31 36 28 24 35 34 33 31 36 33 31 32 38 32 34 33 28 41 33 47 42 32 36 32 39 38 37 22 35 31 37 26 33 39 32 38 34 35 42 25 27 40 33 41 32 31 40 33 42 41 35 32 33 31 34 29 34 35 24 38 36 38 25 27 30 28 33 37 38 28 24 34 26 35 26 29 27 36 43 34 30 38 21 37 32 40 25 26 30 35 26 29 27 28 34 34 36 39 31 44 40 32 34 41 36 26 45 37 37 36 33 34 22 33 35 35 31 29 32 28 27 34 35 41 21 29 28 41 43 32 33 36 29 31 33 28 29 25 39 38 35 29 49 33 36 35 29 36 35 36 31 33 38 39 47 34 28 33 23 33 37 31 25 36 33 28 36 36 38 21 34 26 42 37 45 35 32 40 27 29 28 45 26 38 34 32 27 33 48 36 31 36 29 34 26 28 33 43 37 32 27 30 35 37 26 40 28 27 28 26 38 37 36 24 48 23 32 30 37 32 34 36 24 37 39 28 25 33 38 36 32 30 43 34 41 28 40 23 32 35 21 32 34 32 42 38 33 38 26 29 41 37 38 34 34 32 24 34 33 34 37 31 29 43 34 29 35 24 39 34 41 41 38 37 23 38 36 30 36 34 28 30 27 28 28 26 26 22 32 29 40 21 32 32 37 34 36 28 34 39 35 37 34 25 42 45 39 35 29 30 25 29 42 37 32 29 34 41 38 34 36 29 38 47 29 24 36 32 36 31 32 33 37 28 27 33 26 42 30 33 26 32 35 29 35 30 31 33 35 27 28 43 32 37 39 33 33 38 31 30 33 40 41 30 33 33 36 23 39 39 34 30 33 27 41 37 36 29 30 40 30 33 29 37 33 31 36 36 40 29 28 35 26 30 34 29 42 39 32 26 27 32 21 31 34 25 39 32 27 33 28 37 35 37 40 34 36 33 32 35 31 33 24 47 39 44 32 33 32 39 35 27 38 32 29 26 32 31 32 39 33 39 36 32 35 34 44 23 48 34 26 31 37 37 39 45 29 25 33 40 34 27 26 36 31 35 33 25 39 38 45 32 40 31 29 39 26 36 36 24 30 39 41 35 30 26 33 30 37 25 32 31 40 38 27 23 38 37 38 37 28 30 29 36 30 28 38 35 33 29 36 41 34 30 30 38 33 31 36 35 30 31 26 40 33 35 42 31 32 36 31 37 37 36 31 49 25 29 29 33 23 35 38 32 29 31 35 33 17 30 41 40 29 40 28 35 35 31 27 39 35 37 24 31 45 39 38 37 31 22 26 34 41 31 32 38 36 32 29 35 32 27 31 44 26 37 31 34 34 27 18 39 34 38 35 32 28 33 37 31 37 34 31 38 36 33 38 30 36 42 38 28 38 39 40 28 34 36 39 34 32 33 33 32 27 31 47 35 33 35 38 38 34 39 38 31 27 37 28 33 39 42 30 28 36 34 40 31 37 27 33 29 36 31 39 26 36 36 36 34 31 34 36 37 28 27 45 35 32 38 28 30 31 27 25 39 41 27 39 32 35 26 29 29 37 26 42 47 30 32 45 41 45 39 42 33 30 34 35 25 42 37 25 40 38 27 30 35 31 39 29 36 39 38 46 40 34 36 26 36 29 37 38 32 39 36 31 28 34 30 42 26 30 34 28 40 30 36 31 30 40 35 32 37 41 37 35 28 29 35 30 39 35 45 31 34 26 44 38 29 28 29 44 25 42 36 31 30 50 29 31 40 33 34 32 41 25 33 39 34 32 27 40 33 34 39 25 38 28 29 31 38 29 37 32 40 41 39 26 36 37 33 37 28 32 26 32 31 34 26 35 28 41 27 31 32 26 27 35 31 37 33 43 34 24 40 30 39 28 31 34 37 36 32 31 36 33 38 33 31 26 28 27 38 33 35 37 32 32 29 32 35 34 44 43 30 37 32 37 34 28 26 32 34 35 30 33 41 37 30 28 38 40 36 27 33 32 29 41 34 22 25 28 35 27 30 38 33 43 30 24 30 31 31 32 24 44 36 34 31 39 33 32 37 34 29 28 34 27 37 29 41 32 30 37 32 25 28 30 24 35 39 33 25 34 27 37 26 39 31 38 39 46 35 42 26 33 41 40 31 29 30 43 42 35 40 31 34 30 34 55 40 33 32 27 32 29 39 52 36 38 28 35 41 31 32 36 29 34 31 31 34 36 38 31 38 29 30 32 37 38 39 22 21 37 35 37 28 31 31 28 35 26 39 43 34 31 28 27 35 27 22 22 35 28 36 33 27 21 28 29 31 33 39 26 30 32 22 28 40 37 39 28 30 40 37 29 36 39 29 35 32 41 33 36 36 35 38 33 27 43 33 29 32 27 38 25 36 34 37 31 39 30 29 26 39 32 39 38 32 37 35 36 27 30 36 39 32 28 41 29 30 33 24 48 34 32 35 25 32 36 38 31 35 34 38 40 41 25 39 38 33 33 34 35 29 35 38 24 34 33 39 27 36 31 33 32 37 28 33 25 37 35 42 27 31 32 44 25 33 28 25 34 32 40 32 32 31 27 26 37 36 37 36 39 35 39 30 39 28 43 32 28 26 35 38 34 35 31 34 32 35 29 42 36 32 28 26 35 30 38 33 29 36 37 30 47 25 31 40 28 31 30 36 39 35 37 30 29 44 38 30 28 28 37 24 29 35 36 38 38 33 39 38 31 39 34 46 38 31 40 29 30 23 39 36 32 26 31 24 33 31 35 28 35 46 34 28 27 36 36 33 37 36 42 34 37 29 37 32 22 25 33 36 34 30 33 35 37 38 24 32 43 44 31 42 20 25 40 31 34 34 40 42 34 38 35 29 34 29 32 30 27 38 31 39 32 29 39 28 38 34 23 35 33 30 32 29 24 43 43 37 37 41 33 27 37 36 40 31 38 36 30 41 42 37 30 33 39 40 26 40 28 34 25 28 36 38 31 33 36 39 32 42 38 31 32 29 39 26 34 32 36 37 39 46 38 35 30 22 33 33 30 34 37 35 35 26 44 27 32 33 38 35 34 30 34 26 47 29 29 34 37 29 37 35 34 31 35 35 28 26 35 34 26 33 33 44 34 35 30 35 32 28 28 43 28 39 44 39 25 34 35 30 38 38 29 34 35 32 25 32 30 24 31 30 36 33 34 30 37 35 31 30 29 34 28 27 43 36 26 33 31 33 32 37 40 35 28 37 31 33 27 33 33 35 32 42 31 27 42 31 33 32 38 46 28 32 33 27 33 31 31 27 27 31 35 31 28 27 30 36 37 26 32 37 38 40 38 27 34 38 32 32 33 37 28 40 48 28 28 28 28 28 46 35 25 32 33 26 38 46 32 41 29 31 18 38 35 30 27 39 38 36 34 39 33 33 27 32 36 35 42 47 32 44 34 30 43 42 39 28 30 44 35 39 32 32 33 31 43 36 28 36 26 29 28 31 17 42 33 34 26 32 21 35 26 31 31 32 45 31 31 27 37 32 36 44 32 34 28 28 34 29 32 32 36 29 39 31 31 31 25 39 27 30 30 33 39 38 37 44 37 31 36 37 45 33 38 38 35 34 40 38 28 34 44 31 27 30 39 38 30 38 43 37 34 36 38 29 21 33 33 42 28 34 28 36 40 31 41 34 33 41 26 37 30 39 37 35 35 39 25 38 31 33 28 46 28 28 35 37 29 46 28 36 36 34 36 33 32 29 40 45 36 26 22 30 25 41 32 35 39 33 36 31 39 31 35 35 29 32 29 24 30 25 35 31 44 21 38 28 32 38 40 38 34 34 33 34 28 23 33 26 24 34 22 23 23 30 31 52 32 39 39 38 36 40 43 51 35 38 27 29 46 34 32 40 29 25 27 31 33 39 28 30 35 30 27 28 26 21 26 37 38 43 33 35 33 42 31 29 25 24 31 34 25 28 36 34 34 34 35 37 33 23 32 34 43 35 32 31 37 26 36 36 33 29 30 30 35 28 29 26 35 45 36 35 29 25 28 38 40 29 36 29 30 33 25 30 40 30 25 29 37 39 39 31 34 35 30 34 34 21 30 38 36 36 31 34 38 34 29 42 30 29 41 36 32 27 26 40 29 30 32 30 30 35 44 31 28 39 28 37 32 33 38 45 36 18 36 35 32 27 31 27 35 31 31 43 26 34 25 31 22 30 30 32 29 39 33 31 42 35 31 31 27 40 30 28 41 41 43 36 31 33 33 30 40 31 39 36 24 40 28 36 27 35 37 45 28 44 26 28 26 46 23 32 34 38 37 37 32 32 39 39 31 27 48 24 31 29 36 35 29 40 25 29 38 24 41 39 36 25 24 42 31 31 24 36 29 42 20 33 32 28 38 30 31 40 38 31 27 32 40 32 22 25 31 43 32 33 39 26 39 22 27 31 35 43 41 41 28 33 42 32 30 31 37 40 33 26 37 26 29 44 30 29 33 27 32 27 44 38 33 29 24 38 30 36 43 24 33 36 23 31 30 33 38 44 46 30 34 24 39 35 28 39 31 39 33 31 40 25 29 28 34 25 41 26 34 32 36 30 29 41 34 35 36 43 24 34 36 45 29 39 36 35 28 39 29 34 30 33 24 44 37 34 36 39 33 37 35 20 30 32 28 34 25 36 43 27 22 25 33 32 35 30 36 32 32 30 31 21 31 32 35 31 32 32 33 33 29 35 39 34 40 42 29 29 34 30 40 38 37 37 38 34 50 33 38 26 29 33 34 28 26 36 27 40 35 29 36 30 34 24 39 29 32 42 29 33 35 34 33 34 33 36 39 31 49 37 18 30 36 26 32 35 30 33 28 33 22 39 32 40 30 30 33 27 34 34 29 31 28 31 31 36 27 32 35 43 34 34 32 29 37 39 30 28 33 27 23 44 33 43 30 38 25 37 33 42 41 25 36 41 35 26 31 33 26 37 36 35 26 39 38 29 36 40 25 32 25 40 28 28 36 27 26 31 19 27 21 51 35 33 32 25 38 39 34 31 31 41 22 29 32 27 30 32 27 30 33 23 38 35 35 32 43 35 33 35 43 39 41 28 38 43 34 38 32 40 35 34 40 38 45 32 38 22 32 21 37 31 30 27 31 28 33 34 33 33 30 29 38 21 42 31 41 45 33 46 23 32 41 38 30 25 33 25 24 32 23 25 23 30 43 42 32 42 27 35 37 36 33 32 28 32 26 39 24 33 37 30 32 32 38 22 26 35 37 36 29 32 32 44 28 28 43 39 36 38 32 43 26 35 33 23 31 26 32 33 33 26 32 44 27 45 42 46 31 26 33 33 26 41 30 28 30 36 41 33 30 38 38 28 40 35 42 29 38 43 35 36 31 30 27 28 37 27 35 34 29 33 37 36 46 28 30 32 21 44 26 31 37 40 32 29 39 34 31 29 24 46 33 33 35 31 32 33 35 36 33 33 28 29 25 29 24 32 41 24 35 33 29 29 31 34 36 36 32 36 30 32 30 32 43 31 34 34 28 43 32 33 30 33 29 33 38 48 34 25 25 27 35 34 36 30 26 33 24 28 40 27 32 40 31 44 35 33 28 35 26 32 33 38 30 36 31 31 26 37 35 32 39 42 34 33 36 41 37 27 38 36 37 34 28 31 41 38 33 28 30 34 29 33 30 25 29 35 31 26 32 41 41 27 36 42 34 34 45 31 25 32 27 36 32 22 39 42 52 26 37 32 28 30 34 36 39 46 28 45 32 34 32 34 21 32 33 27 36 45 30 36 36 31 28 34 42 32 32 31 30 50 30 32 27 33 38 28 37 31 44 42 29 38 29 30 40 28 31 34 30 31 35 30 34 30 30 31 30 29 23 28 30 48 26 29 25 36 26 30 29 40 24 36 26 37 24 29 32 35 28 28 37 27 34 23 28 45 27 46 30 34 39 26 36 27 29 54 33 41 42 39 19 31 40 37 42 43 26 27 34 45 36 22 35 30 33 33 27 30 36 38 33 30 37 32 29 26 34 30 37 36 32 20 53 25 38 24 35 30 33 28 28 45 33 42 32 35 28 29 30 36 29 24 36 43 30 37 31 36 35 44 35 34 25 35 23 36 37 20 37 34 39 30 36 32 35 28 33 40 33 29 39 37 40 42 33 34 39 36 35 39 33 28 24 35 33 49 34 35 28 35 38 27 33 47 38 33 40 31 31 35 27 35 34 38 44 33 35 30 39 36 34 37 30 26 38 37 31 32 38 38 40 44 36 18 40 23 41 24 30 35 39 39 39 39 34 38 30 37 45 44 29 27 38 34 30 40 28 33 34 30 28 23 31 38 20 38 46 31 29 30 31 26 26 38 27 32 39 30 35 38 33 34 39 35 39 30 25 24 32 35 25 34 40 36 38 36 35 30 35 38 44 23 31 44 28 34 34 35 36 28 41 25 38 31 48 24 35 27 36 37 33 34 44 34 34 36 40 33 36 30 41 42 29 32 45 25 29 27 45 28 32 30 31 28 27 25 28 50 34 37 36 30 35 31 39 25 30 38 38 28 33 36 38 36 36 33 32 41 32 31 40 32 39 32 29 40 37 32 37 42 23 39 36 34 43 39 41 28 40 32 26 38 32 34 35 22 36 27 28 38 28 39 44 31 28 32 43 40 33 42 25 37 34 35 46 36 38 21 33 41 35 38 24 37 32 37 40 30 43 40 34 31 25 33 35 24 37 27 40 27 27 29 32 31 33 37 28 27 33 33 33 37 28 30 32 42 24 28 41 26 26 34 31 46 49 40 33 42 36 32 30 36 27 47 22 24 38 27 42 32 33 36 37 38 32 38 40 35 32 41 28 31 30 36 28 29 31 32 46 35 35 27 33 35 30 28 32 39 29 37 36 33 25 47 34 38 30 37 37 35 35 31 37 33 29 32 35 39 29 24 38 29 27 32 29 42 35 36 29 40 30 33 44 30 38 29 30 29 39 39 32 35 36 44 39 21 31 26 37 39 44 36 26 28 61 27 27 26 31 34 32 28 35 39 31 33 39 26 18 29 30 32 43 28 40 32 32 34 34 20 25 19 37 40 38 27 39 36 34 38 25 31 41 39 23 36 35 37 30 33 29 46 26 38 35 24 37 45 27 34 27 27 40 26 23 36 40 31 37 35 24 32 46 32 28 30 37 32 33 32 43 40 37 32 35 34 36 29 34 37 30 29 40 44 46 31 45 34 30 32 32 30 38 35 31 33 28 30 36 32 24 32 39 30 37 25 34 41 33 38 36 30 31 33 37 41 39 39 44 43 42 30 38 40 29 35 38 31 33 42 40 27 29 31 24 29 36 37 23 30 30 34 31 37 37 30 35 32 38 26 32 35 27 29 38 35 36 33 33 40 36 34 30 36 33 42 36 27 37 43 27 34 35 26 46 27 41 26 41 31 31 46 37 28 23 25 32 27 31 29 37 29 37 37 19 32 42 35 36 41 35 36 26 29 39 22 32 27 33 39 27 37 36 30 41 30 35 30 28 29 23 29 41 29 30 37 36 38 42 41 30 33 40 37 34 36 30 30 34 26 41 27 34 34 32 35 34 32 32 21 36 28 38 35 29 40 23 35 43 31 35 25 28 34 37 30 28 28 38 41 37 27 35 36 34 38 38 41 29 37 41 32 30 37 33 26 27 27 34 35 31 32 29 28 40 33 44 31 32 36 36 43 36 27 25 30 38 44 28 33 30 31 32 37 29 29 31 27 41 35 33 28 41 35 33 25 33 41 33 40 23 45 34 29 31 38 29 32 40 45 31 29 33 31 37 35 22 30 30 30 40 42 30 37 28 32 30 26 38 35 31 25 40 40 42 37 28 31 34 40 37 32 31 35 27 30 31 30 39 34 34 37 35 27 31 30 37 42 33 39 24 35 51 37 33 31 35 33 29 31 25 31 30 35 25 41 35 31 39 39 25 37 31 34 29 41 26 29 33 38 31 34 32 33 25 34 24 28 22 26 38 32 39 49 32 35 37 42 38 41 43 34 25 31 31 26 41 30 38 30 37 33 45 22 34 38 31 33 34 32 32 35 26 35 31 33 51 26 26 36 39 37 32 31 40 41 31 34 20 38 34 32 37 29 45 41 42 35 31 35 37 28 34 27 30 32 34 46 26 32 33 34 29 36 32 27 40 35 37 25 40 28 31 33 26 28 39 41 42 33 44 32 36 39 23 27 29 31 34 52 30 24 33 37 32 28 44 24 42 22 28 31 28 29 35 34 31 33 22 32 27 37 34 30 32 30 29 39 43 30 33 31 35 39 41 29 32 44 30 28 30 34 31 39 34 43 34 31 30 45 31 32 35 34 33 37 40 32 28 32 33 31 33 36 34 40 38 46 31 27 35 37 27 30 22 27 28 28 34 41 28 28 29 39 34 39 29 25 32 35 33 32 39 29 36 40 39 36 41 33 27 32 36 37 27 42 32 32 39 27 40 32 27 27 22 33 32 35 28 37 28 45 26 39 35 31 41 45 40 37 34 40 28 19 19 36 25 42 35 24 39 36 29 29 30 27 22 37 32 40 29 23 39 42 36 40 26 24 43 31 33 34 32 30 39 31 30 36 29 44 24 29 33 38 37 22 28 31 41 32 29 25 31 29 30 36 35 30 24 29 24 40 30 31 30 41 33 41 29 27 27 28 37 39 26 27 31 35 33 35 35 33 45 42 24 32 37 35 25 27 31 37 34 36 36 32 45 37 32 27 45 40 27 28 34 42 40 31 36 25 29 38 29 37 28 39 34 29 33 32 33 35 39 42 45 40 29 33 33 24 37 38 27 29 36 32 38 33 32 33 39 33 30 28 37 33 31 34 32 35 32 26 36 31 37 35 40 21 29 26 27 33 29 35 30 32 32 22 40 37 37 31 40 27 38 28 43 43 28 38 35 40 36 34 25 26 40 25 26 36 35 33 39 31 28 32 28 24 34 35 41 31 30 36 35 35 30 35 40 29 24 34 36 39 39 30 33 31 27 23 34 33 31 32 42 28 43 26 30 37 42 33 30 32 38 36 37 31 36 31 34 37 24 24 42 26 41 39 33 37 39 30 25 30 33 29 27 33 32 30 31 33 33 34 26 35 26 30 40 34 34 34 28 36 31 29 37 37 32 37 36 40 35 51 32 33 36 29 36 41 36 40 28 34 43 29 34 24 34 34 27 46 36 38 29 40 38 36 33 29 28 29 30 29 28 28 25 41 32 35 32 30 40 41 36 32 30 37 36 36 34 22 26 35 32 32 31 38 29 35 39 34 27 33 41 36 34 36 31 37 35 28 42 37 36 22 33 27 39 35 33 42 31 44 28 35 33 40 37 44 23 30 32 27 31 39 35 33 29 41 38 35 40 32 31 35 28 35 35 34 42 33 32 38 23 31 37 43 28 31 35 33 33 35 29 28 30 36 33 32 41 33 41 30 34 43 32 36 33 32 43 32 47 36 39 34 41 33 41 39 37 35 36 36 29 31 30 39 24 33 37 44 33 35 34 25 32 35 23 30 34 46 38 49 31 31 41 30 32 32 33 28 36 47 30 29 33 36 24 43 37 33 44 38 25 25 35 32 38 36 31 27 48 29 31 31 36 25 36 36 18 27 43 28 27 33 35 31 37 27 32 38 29 34 32 27 35 23 25 35 36 32 30 25 34 29 25 38 32 34 35 42 33 37 33 41 31 39 37 45 27 26 31 33 41 36 31 38 32 28 34 44 30 40 48 28 38 29 28 39 28 26 36 40 49 32 35 34 27 40 40 40 40 22 39 29 28 45 30 25 37 34 39 35 49 41 28 34 27 31 25 32 43 35 29 33 41 40 43 25 33 29 43 34 47 33 35 36 33 37 26 42 38 26 37 38 27 29 35 36 35 43 24 33 38 29 37 34 33 31 28 34 32 29 26 32 30 34 39 34 31 42 27 33 42 28 32 28 31 43 23 33 36 33 32 35 42 26 41 36 32 40 30 31 27 31 40 28 34 30 33 39 33 32 41 39 38 33 22 37 30 39 26 34 30 25 42 45 40 37 24 39 26 43 36 45 32 29 27 40 33 39 29 39 22 37 37 26 30 41 48 38 19 39 32 29 33 31 36 26 33 29 29 28 26 26 28 46 37 35 32 29 24 47 37 33 36 26 36 33 37 32 39 52 34 44 35 26 30 45 29 41 41 37 28 30 39 31 30 27 23 36 34 31 28 27 35 31 28 39 38 38 37 35 34 52 25 35 40 35 35 27 43 30 32 39 32 33 28 26 42 38 28 30 32 35 27 46 32 31 34 40 36 35 28 38 41 45 31 36 36 35 26 36 41 35 29 44 39 51 33 33 25 39 35 37 39 37 38 34 35 33 29 32 29 32 38 28 30 36 39 34 35 36 33 34 33 32 37 35 36 33 29 31 25 42 39 26 34 42 33 45 32 40 27 34 34 31 38 40 22 37 28 32 29 29 34 35 36 32 37 31 33 36 32 36 34 27 30 39 38 39 39 32 29 27 42 28 34 39 35 36 32 30 30 36 38 32 34 37 40 35 37 34 46 27 41 27 29 34 34 37 31 30 44 25 33 28 39 32 33 40 36 27 37 31 34 43 26 35 37 35 44 37 37 37 23 38 35 38 27 35 36 30 37 28 30 35 43 39 26 23 29 27 43 35 46 34 34 29 33 29 21 26 35 24 28 37 35 28 37 39 33 42 47 32 20 33 39 32 43 42 38 44 31 25 40 34 32 37 38 34 39 31 34 34 36 30 32 40 40 47 34 33 23 44 31 39 31 26 35 26 40 49 37 23 31 23 30 32 28 36 30 31 38 34 25 36 29 35 25 35 37 35 33 39 31 26 30 31 38 30 29 33 34 34 31 41 37 36 26 30 38 28 44 36 36 46 30 31 42 31 38 30 38 41 45 33 34 34 26 38 42 30 46 31 36 36 23 33 35 47 33 28 27 29 33 46 37 43 25 32 31 34 40 34 26 34 42 33 38 36 37 27 37 33 35 37 31 43 41 37 34 34 34 31 30 37 39 31 27 26 42 30 36 25 35 26 26 28 27 34 29 33 32 35 36 34 26 37 30 32 25 25 27 39 35 29 37 35 37 33 36 23 37 30 29 22 31 33 34 33 28 30 37 32 33 35 30 35 41 31 24 31 31 34 30 32 27 24 38 24 45 33 31 36 48 33 34 34 34 26 39 29 35 28 29 34 41 36 35 34 28 41 33 37 30 37 37 29 36 35 23 32 59 33 32 36 30 27 31 46 31 40 36 25 40 20 40 27 32 30 31 26 43 30 38 31 33 38 37 31 46 32 35 37 27 23 32 34 31 28 41 28 30 30 24 31 29 36 26 42 41 30 26 39 29 31 46 34 26 30 33 43 37 31 45 41 30 31 30 32 41 26 35 29 26 33 28 28 35 30 32 23 40 42 32 27 38 27 35 31 36 33 26 35 38 24 53 32 32 35 33 32 40 35 46 35 35 30 42 35 30 26 19 34 32 32 27 23 32 30 27 32 36 35 25 36 34 29 48 38 45 33 37 32 34 39 40 25 41 37 39 39 39 34 27 35 38 38 40 37 43 28 40 24 29 33 27 29 24 32 35 38 29 32 25 39 39 37 50 40 29 32 31 37 32 40 30 27 29 31 35 41 27 35 33 31 19 37 28 36 41 27 30 35 41 32 35 34 31 34 30 23 33 27 42 30 32 30 43 30 31 34 35 33 30 29 40 32 42 26 42 32 36 28 29 34 29 36 28 28 32 41 35 26 36 36 33 34 39 32 27 33 29 46 31 35 34 34 32 33 33 33 37 41 36 36 40 32 27 36 35 36 33 30 32 41 33 29 31 40 28 39 34 32 42 33 35 29 38 30 37 28 25 29 32 35 31 34 34 38 31 41 38 24 31 35 44 42 37 41 36 47 34 35 28 41 29 32 40 46 24 29 34 41 27 40 36 24 35 32 35 35 36 34 32 35 28 32 28 20 31 27 32 34 24 34 30 27 38 34 37 24 32 39 37 27 42 27 28 30 39 31 42 34 31 39 34 28 37 39 30 44 22 27 29 24 34 33 34 29 37 31 29 33 31 39 40 28 37 41 32 26 26 35 35 29 27 34 37 31 34 35 27 29 32 39 31 38 27 31 29 37 27 35 32 37 36 31 37 33 36 31 36 36 32 26 24 41 30 35 38 29 32 39 37 34 30 35 54 26 37 35 33 33 32 31 39 29 34 30 39 28 37 25 41 40 41 42 25 31 43 41 27 29 29 30 36 31 38 39 33 44 42 35 33 31 32 34 24 38 30 29 32 34 35 25 37 34 32 37 31 26 37 40 29 34 30 45 29 39 34 31 30 36 18 49 35 33 32 30 30 26 26 37 38 34 36 28 37 32 30 28 31 34 26 31 30 37 46 36 23 34 27 38 24 32 32 36 37 28 32 34 29 32 47 26 38 31 35 36 36 33 32 39 40 31 29 38 33 39 25 35 25 37 35 36 41 36 35 33 27 36 27 31 29 33 26 32 25 31 26 33 39 25 28 31 29 25 37 22 21 37 34 33 37 29 33 28 37 42 32 29 22 27 30 33 38 24 35 32 29 24 31 40 47 20 33 31 30 40 36 28 32 38 24 40 28 35 30 45 35 40 38 31 24 34 33 25 32 29 33 30 32 33 34 38 37 30 30 47 32 32 30 23 37 40 27 29 35 30 35 39 26 37 45 37 34 29 30 35 34 33 38 33 28 30 35 38 31 29 46 32 40 40 32 30 38 32 31 38 34 41 38 32 40 41 23 27 33 37 32 35 36 22 20 37 45 30 44 33 27 35 30 37 34 36 37 42 31 27 39 33 37 32 27 32 28 33 27 35 33 40 32 32 34 31 43 35 23 36 26 34 38 34 29 27 36 35 32 32 35 27 40 27 32 36 37 33 40 32 36 31 30 44 28 26 45 28 34 32 33 39 32 33 27 40 39 37 33 47 34 34 50 28 33 31 18 29 33 41 30 37 35 46 28 22 35 30 36 38 36 32 45 23 31 32 27 40 39 30 38 41 36 39 28 36 37 38 25 28 34 36 25 37 30 39 39 38 43 32 41 39 26 41 27 32 46 41 45 30 26 35 34 47 31 36 32 36 36 36 35 33 33 31 32 37 34 28 27 30 28 29 24 27 32 27 31 29 31 30 44 31 34 35 29 35 32 33 30 37 36 30 30 33 23 32 40 37 41 33 40 33 36 32 37 35 33 26 36 34 31 36 32 36 25 24 35 19 32 36 38 26 32 24 32 32 31 26 41 34 34 42 42 30 26 34 34 40 25 31 28 29 37 30 32 39 36 26 37 30 27 30 27 35 25 34 41 33 42 42 38 34 48 37 34 42 40 30 36 38 36 29 37 26 40 28 30 28 38 29 33 26 33 33 32 36 49 39 38 34 42 27 34 32 33 31 39 26 30 36 28 34 33 43 31 28 30 45 30 26 29 49 34 45 34 42 31 35 23 37 30 26 43 38 31 33 31 35 21 42 27 30 34 30 24 26 35 37 40 34 38 27 49 28 23 22 33 29 33 35 31 30 26 33 39 24 40 36 30 34 36 35 41 39 33 42 28 33 29 42 34 30 36 39 37 29 38 26 34 44 30 25 33 30 39 32 30 34 32 38 34 35 36 27 34 30 29 34 29 42 37 43 35 26 37 27 30 37 35 27 32 34 40 40 28 43 42 36 26 39 41 38 37 29 31 32 42 25 31 32 53 27 43 30 36 30 39 38 36 27 32 38 41 40 29 33 34 33 33 34 32 43 30 24 29 30 35 25 30 39 26 36 29 28 31 31 45 29 31 34 39 31 30 27 31 34 33 26 32 36 29 36 34 25 30 47 35 26 31 35 40 30 25 30 33 38 34 35 27 38 23 38 26 33 36 27 35 41 32 24 33 26 27 43 34 45 30 37 31 29 41 33 28 33 28 42 46 36 39 26 30 35 31 37 27 32 30 33 33 31 39 32 39 47 29 36 37 32 32 43 44 35 23 33 42 29 30 38 34 29 40 36 34 34 31 40 36 34 29 39 46 34 45 35 37 39 40 49 37 37 26 34 28 35 31 32 25 46 33 30 31 29 42 36 29 47 35 33 40 30 47 35 38 34 37 30 33 34 37 42 29 36 30 28 38 23 36 29 26 26 36 32 32 27 35 24 36 34 29 37 35 30 35 27 28 34 32 35 38 28 36 37 36 35 30 40 31 37 33 39 31 41 28 37 40 27 33 42 44 34 34 29 40 45 46 28 30 31 28 33 30 43 40 27 26 39 33 48 33 40 31 33 39 31 32 27 40 31 39 31 47 36 32 30 35 28 42 36 41 34 28 29 32 28 36 35 33 36 35 39 40 45 38 35 42 37 39 33 29 43 29 31 30 35 35 31 33 33 33 46 34 31 34 35 34 41 27 31 34 38 40 38 37 38 37 36 44 35 35 36 35 36 36 38 31 40 23 27 35 33 38 36 31 27 36 28 34 41 24 33 33 34 32 29 39 36 29 44 36 40 36 30 35 29 34 38 29 27 35 38 31 31 25 37 31 35 33 30 35 39 27 29 30 44 35 38 39 26 25 37 39 35 39 38 36 37 21 37 38 24 29 35 35 30 33 29 35 37 33 26 35 33 32 34 29 34 51 28 34 41 33 27 37 39 36 27 37 34 35 17 33 39 34 30 32 28 21 35 26 30 42 30 34 40 34 41 32 25 37 39 32 35 31 37 41 40 31 28 32 31 33 42 41 24 43 33 34 35 34 32 39 34 36 40 41 32 33 35 31 32 38 33 27 32 39 32 35 27 29 25 48 27 38 39 35 41 27 33 36 42 36 31 37 32 42 43 29 34 38 41 39 32 35 34 25 32 30 35 32 37 30 36 36 44 34 31 33 31 24 45 33 36 35 37 28 40 33 32 43 36 39 35 36 32 31 31 36 30 35 30 29 33 31 31 41 36 35 32 39 29 23 33 39 41 42 36 32 33 45 36 26 38 35 27 26 39 27 33 41 52 31 36 42 31 26 33 34 34 45 29 32 33 39 28 39 28 23 41 31 37 31 36 35 34 31 30 35 28 36 28 27 38 35 41 28 42 45 31 35 28 29 42 45 25 33 34 31 27 31 29 32 46 25 39 35 37 36 34 35 30 33 44 35 32 34 35 37 40 28 37 23 41 31 35 43 32 32 38 39 36 38 30 27 32 33 41 28 33 38 28 29 36 30 26 38 38 27 34 34 29 31 25 34 25 38 34 27 33 35 35 34 35 33 43 36 33 26 28 35 34 42 30 26 33 24 41 24 41 31 36 29 32 31 27 24 36 39 42 39 26 30 32 34 25 23 25 35 30 42 28 29 34 34 33 43 35 31 29 37 34 25 39 31 30 34 30 32 35 39 42 31 36 35 31 27 27 25 39 39 18 34 27 31 40 40 36 31 33 33 34 38 36 38 27 37 34 42 32 25 24 32 32 29 39 38 36 34 36 40 31 40 29 37 34 28 29 25 24 35 29 31 33 34 43 30 35 29 33 40 36 31 36 37 27 35 29 31 29 33 23 25 50 33 34 37 30 39 36 39 36 35 28 38 32 32 38 30 36 33 32 29 38 25 40 32 26 32 41 29 38 36 32 38 47 41 35 30 37 28 28 30 32 35 29 31 30 30 38 35 33 33 33 31 37 32 36 34 33 30 39 19 25 35 36 49 40 30 41 38 35 25 27 34 45 28 27 34 35 31 33 35 26 42 25 42 34 31 36 30 40 41 31 37 38 47 35 39 28 37 42 26 43 29 42 30 36 31 44 39 33 40 31 32 35 31 35 34 36 26 29 33 30 31 30 29 28 28 36 32 48 34 33 43 42 39 43 26 32 43 42 27 32 42 28 31 24 33 40 30 36 29 32 35 34 29 39 43 38 25 37 32 47 39 29 38 35 47 36 26 28 36 38 33 37 36 36 35 32 35 35 29 29 32 27 21 33 26 26 35 34 34 31 35 40 33 44 40 34 33 39 33 42 31 41 30 43 49 40 31 32 38 28 32 39 32 34 38 34 23 28 28 34 37 31 36 42 37 22 24 35 34 28 31 25 21 23 34 33 32 30 44 33 31 31 29 32 32 45 29 25 25 44 40 36 33 35 22 39 44 29 25 45 28 30 40 36 32 37 31 31 30 31 23 33 32 33 37 28 36 27 34 38 39 36 35 27 31 24 25 42 31 32 34 38 25 32 31 36 34 29 34 34 29 42 32 41 31 28 29 29 38 27 40 26 29 35 30 43 39 29 34 31 27 20 38 33 29 23 39 39 35 34 26 34 30 37 32 32 32 38 26 28 36 41 25 29 34 23 34 32 28 39 30 27 34 29 34 33 31 22 26 34 36 24 32 28 20 33 37 32 39 27 28 32 33 42 43 44 37 35 38 43 23 35 38 34 28 37 30 38 36 37 31 40 34 38 39 40 37 39 39 30 33 28 33 28 36 34 29 31 34 34 28 28 37 38 39 32 33 41 37 32 40 39 45 27 33 28 36 41 28 37 29 32 36 43 35 33 26 33 35 22 23 31 38 34 36 34 40 24 32 37 35 44 30 30 30 29 42 47 29 29 46 38 41 35 33 37 34 36 40 31 28 26 31 41 33 39 38 37 34 28 21 31 43 42 35 32 43 35 39 42 27 46 47 34 30 29 32 27 36 30 38 30 25 28 32 36 28 36 31 22 38 39 34 29 29 41 39 29 31 41 36 21 29 37 39 30 41 29 28 28 35 35 36 40 30 28 33 34 29 35 27 39 29 37 49 32 47 38 48 41 35 39 38 35 31 33 37 22 40 30 34 29 34 29 32 40 34 35 37 31 44 40 30 35 36 34 29 25 36 37 28 35 43 33 32 26 34 45 25 30 39 36 37 28 37 35 26 35 39 31 36 34 33 35 25 45 26 30 39 29 35 31 30 48 31 34 42 41 39 26 32 31 39 41 45 31 38 22 35 25 30 24 36 36 33 34 26 43 26 49 35 38 35 39 30 32 38 37 30 28 37 32 32 32 25 29 37 36 45 30 36 28 42 28 31 28 34 28 24 26 37 38 34 33 29 29 39 35 36 34 37 36 29 41 42 36 27 30 41 34 27 30 36 40 24 24 36 32 36 36 29 28 35 35 31 38 29 31 24 33 36 33 30 35 47 39 29 30 34 43 36 33 35 42 39 30 35 28 28 41 38 28 29 37 31 37 25 27 28 26 32 24 28 33 34 28 34 31 43 37 40 40 28 41 34 32 40 31 42 28 32 32 37 26 29 35 28 34 38 33 44 28 30 35 29 38 46 44 35 34 32 34 34 30 33 25 36 38 31 47 34 33 33 33 29 35 39 39 31 31 29 37 29 30 38 32 38 30 29 37 38 24 43 37 36 28 37 29 22 27 32 27 32 33 36 34 43 36 36 31 26 34 29 34 31 28 44 24 41 26 31 32 39 37 35 40 21 31 32 40 31 33 26 43 35 25 29 36 45 37 30 33 37 31 44 24 26 40 38 33 29 31 47 35 25 34 31 48 38 39 31 31 36 40 30 36 36 36 30 28 30 35 22 37 30 34 28 31 30 40 35 30 35 38 42 30 25 23 32 19 32 39 34 37 31 36 29 33 35 26 42 28 31 43 37 41 33 25 38 31 35 31 31 35 34 33 35 35 38 43 42 28 32 28 32 35 35 29 31 35 44 23 36 34 29 34 36 24 29 39 38 37 25 33 33 38 32 42 29 28 34 32 36 38 35 28 35 28 29 27 31 50 30 30 38 29 37 19 35 23 30 31 39 30 39 36 36 23 29 33 35 25 26 39 31 44 33 27 31 31 30 35 30 34 43 35 30 35 23 33 32 32 32 32 38 33 29 32 40 20 33 28 23 38 34 43 44 40 30 35 33 32 35 24 28 43 30 45 43 40 36 35 44 35 40 26 30 26 29 34 22 38 39 34 32 33 26 47 41 30 34 32 29 26 33 30 26 24 31 31 42 37 25 29 41 34 47 32 28 26 39 32 34 26 41 41 33 31 36 36 32 31 30 21 28 26 24 22 30 37 30 38 34 41 36 30 34 21 32 43 35 36 33 27 39 27 34 37 32 29 39 34 32 28 36 33 43 34 29 41 43 33 42 41 46 37 32 39 33 31 27 36 28 46 29 27 25 30 37 32 27 31 30 36 40 39 37 32 41 27 39 38 34 42 36 25 23 28 33 41 37 27 34 30 36 39 39 39 30 35 31 44 24 33 32 29 30 32 35 42 42 25 29 32 30 30 30 35 33 25 34 33 25 37 33 22 32 34 35 26 25 33 40 30 32 33 36 35 28 31 36 33 39 27 29 35 52 31 30 34 33 32 31 28 27 27 34 37 30 41 37 37 32 27 30 33 28 36 37 32 39 32 35 30 46 31 32 31 31 38 44 25 42 34 28 40 35 34 24 42 29 27 33 36 34 20 35 36 27 21 32 43 31 34 38 29 33 36 38 32 53 38 30 32 43 23 38 40 34 44 29 35 29 45 38 40 36 40 40 38 32 33 36 25 36 31 40 31 33 37 36 42 25 24 32 35 27 36 32 26 36 50 33 29 35 43 31 34 42 27 37 36 37 36 28 32 37 28 25 37 36 38 36 35 43 35 28 28 34 39 21 36 39 36 32 31 33 42 39 33 27 30 35 35 36 29 38 46 29 38 35 31 35 35 28 35 37 40 36 29 31 35 34 35 29 23 34 35 34 39 37 37 34 31 40 35 38 38 31 28 35 24 26 39 29 35 32 44 36 29 41 27 31 34 26 40 29 34 30 37 29 35 36 27 31 37 27 32 43 39 39 28 31 37 38 34 38 39 27 28 29 35 30 44 38 31 32 34 25 28 35 24 51 42 34 34 44 34 34 31 27 36 30 43 43 31 35 26 28 37 36 27 35 43 29 32 30 33 26 37 22 29 42 26 30 33 37 28 31 34 33 42 27 40 30 38 27 27 34 32 24 34 30 34 30 42 30 34 25 29 31</t>
-  </si>
-  <si>
-    <t>GAM(110.09052919381199, -280.56771277246474, 4.905028713698697)</t>
-  </si>
-  <si>
-    <t>219 356 225 140 255 146 323 267 265 217 342 240 326 212 263 261 225 210 222 316 202 239 309 247 265 322 294 248 215 262 193 376 219 287 258 304 261 217 221 248 233 263 232 232 255 206 138 272 345 302 202 186 216 285 254 341 249 270 207 378 328 256 237 289 265 258 122 351 306 282 228 211 246 304 244 267 200 260 271 185 307 212 247 259 386 288 216 264 238 242 219 242 267 241 310 324 241 289 288 271 291 263 168 286 162 344 153 303 130 282 326 184 254 231 251 313 270 219 210 266 403 391 244 208 269 309 268 292 271 255 287 210 223 303 306 156 238 225 338 215 274 293 180 316 306 254 309 284 271 323 317 180 239 216 235 267 283 230 237 284 213 291 249 231 204 247 186 238 369 279 245 260 259 214 209 227 264 305 305 316 231 212 274 281 256 267 253 222 183 298 317 251 261 224 264 238 207 244 297 253 279 321 193 216 360 191 266 178 257 262 278 199 239 391 218 301 296 258 289 317 220 285 241 246 314 135 287 330 242 259 243 284 229 330 202 324 256 249 314 211 400 287 299 183 231 295 290 279 296 193 240 234 256 357 183 256 274 198 286 401 282 318 231 197 245 324 326 321 252 212 148 280 267 245 307 181 216 427 230 276 369 211 325 254 257 337 257 251 295 207 286 268 233 337 230 280 281 238 302 293 208 216 278 166 259 265 247 344 357 251 224 276 272 298 271 251 304 208 269 307 237 162 278 170 239 246 215 257 202 294 271 272 143 248 225 181 294 297 269 208 261 283 272 359 244 251 303 411 262 231 207 330 282 263 315 160 234 294 186 298 262 167 322 301 270 266 268 285 231 287 248 370 172 224 252 281 360 231 248 197 304 262 240 278 215 209 210 182 300 384 272 277 230 225 337 270 295 250 259 260 252 190 250 184 235 339 345 203 275 337 266 236 332 186 141 216 246 310 255 235 188 168 234 192 280 308 310 255 283 247 282 284 306 226 254 197 239 298 268 261 256 255 251 231 310 109 215 302 272 256 381 303 214 281 231 203 157 290 314 276 234 170 290 209 299 228 311 282 217 345 335 342 227 287 216 304 221 271 206 292 269 197 202 273 237 289 192 175 297 280 334 262 259 219 237 196 243 230 334 251 203 178 228 228 233 221 282 245 181 242 246 281 324 225 279 256 232 290 197 196 217 205 243 298 353 297 267 324 251 271 250 284 239 287 248 254 254 274 159 325 339 343 247 233 200 312 286 332 281 298 210 238 274 223 298 246 218 221 253 263 263 322 261 275 249 182 248 330 219 278 202 271 259 250 271 222 237 256 265 277 205 316 289 278 173 269 212 292 239 218 314 297 253 258 232 317 280 219 228 232 186 279 213 235 266 325 197 330 283 203 172 209 190 259 191 343 299 282 274 262 303 279 211 280 164 284 359 278 296 218 331 268 249 271 272 275 354 321 192 294 281 242 211 258 250 278 155 245 294 274 195 208 287 273 306 265 205 237 201 300 230 200 362 301 316 361 277 296 234 216 287 262 284 339 200 224 273 190 205 335 311 261 249 384 237 233 187 204 334 166 231 204 308 286 214 307 237 406 303 164 362 316 192 233 249 324 336 227 184 276 284 229 302 322 241 276 298 230 274 217 132 257 295 284 246 274 255 231 150 238 239 269 267 223 194 244 243 221 178 276 246 245 356 329 272 191 244 289 196 158 283 260 302 248 322 255 265 272 336 229 307 313 250 218 388 276 214 281 315 262 195 270 278 325 334 228 293 211 251 350 214 353 313 224 272 270 263 295 331 229 341 293 212 324 132 343 265 307 303 196 213 259 265 294 313 216 237 338 303 234 187 186 195 341 275 271 238 242 254 268 261 173 225 157 248 225 248 236 219 293 225 185 218 292 243 247 307 277 217 332 267 253 279 215 323 320 330 277 335 346 290 224 259 188 304 217 291 259 207 249 220 260 206 265 162 245 433 330 354 254 268 281 347 262 218 238 278 308 191 228 247 282 186 250 312 234 287 355 298 267 176 194 171 254 318 337 313 238 285 227 257 233 239 277 303 175 247 264 283 321 236 254 290 268 208 181 237 211 223 337 258 155 333 324 250 261 244 318 404 201 287 270 291 249 259 325 239 218 181 169 280 326 266 248 294 293 280 273 266 230 284 260 222 217 286 224 291 235 276 246 263 185 174 255 255 206 246 334 320 247 266 276 259 288 295 173 269 285 298 334 227 333 227 250 262 270 310 198 316 264 234 248 262 163 192 300 211 250 261 148 226 222 259 198 188 327 184 269 260 216 212 258 272 310 321 348 183 214 285 245 190 150 323 242 265 190 231 265 234 377 243 229 240 375 219 249 205 273 200 152 140 174 215 239 268 281 259 196 322 195 223 149 287 176 322 273 284 268 343 200 193 213 246 262 422 296 275 245 322 202 273 136 261 300 243 244 217 369 248 253 262 288 195 244 232 281 244 240 250 295 292 293 229 338 216 304 234 207 210 219 216 288 315 256 290 302 187 329 214 161 175 251 281 191 244 269 311 254 269 312 218 210 186 253 173 276 314 312 287 197 266 377 253 219 260 183 228 344 297 281 255 271 190 277 267 284 342 219 260 246 199 310 167 165 198 212 158 235 242 207 255 222 373 277 287 245 282 262 192 164 262 259 321 274 236 259 378 187 207 242 161 256 197 285 201 301 351 233 210 207 369 281 293 217 347 232 205 312 249 338 266 293 358 272 266 313 289 249 164 238 192 261 310 280 307 204 281 264 302 191 222 180 348 286 206 331 307 184 273 230 314 223 288 275 364 229 327 292 173 247 248 130 268 227 298 260 257 288 251 161 288 185 186 228 308 201 221 219 257 302 262 273 287 300 312 337 283 234 210 199 190 216 239 241 198 241 212 340 158 177 275 333 334 225 228 260 335 230 187 147 245 257 268 310 279 346 267 206 179 235 245 238 230 201 281 388 259 335 252 357 158 217 346 309 254 268 268 338 258 213 254 255 241 253 226 310 241 281 297 177 301 203 240 318 238 225 284 203 232 355 236 221 280 254 336 317 268 287 217 323 248 265 279 223 264 269 265 341 210 230 239 247 311 237 303 245 319 292 312 286 231 240 253 282 138 226 291 223 178 332 302 293 197 193 298 346 287 194 207 227 236 220 295 194 236 219 223 282 261 255 394 243 234 267 247 247 258 115 282 369 230 184 275 144 317 209 179 195 227 209 249 243 177 271 330 286 261 242 254 242 219 324 248 246 215 243 347 292 198 244 289 228 299 239 405 219 342 367 260 221 254 342 229 272 279 344 158 236 243 204 306 209 299 158 328 239 203 246 271 335 260 280 220 249 236 125 294 361 198 294 166 352 174 203 214 253 339 281 250 306 273 223 234 331 265 189 249 201 312 177 204 210 334 311 300 252 248 303 253 336 204 289 242 330 333 334 241 235 241 237 275 348 210 322 251 284 263 259 356 211 239 269 252 287 213 273 283 338 282 256 252 248 229 339 298 285 353 179 154 296 298 289 210 297 404 123 227 210 249 280 287 402 329 245 190 211 406 283 242 177 287 290 239 230 185 150 281 248 192 322 368 299 355 265 188 269 324 272 252 285 321 270 196 270 269 157 218 179 281 213 344 241 199 274 288 284 316 281 162 296 260 321 189 294 260 253 204 233 293 261 175 195 321 296 284 262 167 276 187 279 302 217 262 235 226 281 206 220 233 115 284 277 257 205 198 360 244 251 299 363 139 184 321 235 345 285 225 203 335 286 295 253 284 181 266 228 313 151 215 259 283 212 189 290 218 263 215 188 295 258 338 324 202 254 283 347 181 329 259 291 287 274 334 154 251 279 266 200 262 225 255 212 292 305 284 190 198 240 284 300 327 256 305 279 324 227 297 264 223 319 293 273 249 335 221 262 204 182 245 347 254 248 239 259 276 399 245 249 233 219 298 241 230 226 258 273 209 307 326 251 201 188 183 353 313 306 311 213 287 186 207 257 326 210 287 263 212 205 261 400 232 238 205 213 237 169 252 196 365 264 237 250 211 295 316 212 308 185 201 180 267 329 292 264 177 341 175 236 271 290 299 334 274 210 252 296 224 163 235 305 238 264 190 359 212 287 234 292 159 260 226 199 198 304 232 320 267 262 345 186 260 280 281 220 268 321 285 247 188 290 266 305 239 229 307 260 238 260 155 286 253 275 298 358 272 192 249 325 245 267 304 189 250 226 205 226 160 258 189 301 246 322 251 235 263 302 241 234 199 246 301 243 291 260 179 386 369 343 292 260 248 182 232 302 344 245 152 273 322 290 227 206 177 334 424 275 219 348 260 252 303 240 222 338 217 264 288 183 374 199 273 261 270 290 221 232 236 204 274 269 179 221 276 183 278 270 297 269 233 254 181 293 344 313 267 246 238 283 233 233 266 261 211 258 179 303 293 282 291 262 350 193 234 189 294 228 292 318 294 366 200 220 333 221 237 258 240 292 294 332 201 191 245 193 252 256 204 371 182 201 184 206 266 265 242 398 234 198 266 328 223 289 182 279 414 399 240 241 248 406 267 212 263 315 325 231 233 282 219 223 346 258 331 246 287 278 304 341 187 363 245 132 217 303 292 283 388 277 229 252 223 249 223 229 315 233 253 311 229 301 294 360 255 277 215 181 248 173 264 308 245 200 277 266 292 224 208 323 192 307 254 220 221 315 360 124 254 345 346 309 288 319 227 258 255 292 235 268 194 245 256 184 322 267 209 219 255 260 260 275 285 227 271 239 217 335 299 377 273 228 270 305 281 234 349 307 312 232 185 228 274 172 268 223 222 222 237 232 283 167 224 326 344 294 240 231 272 260 222 185 305 236 253 254 206 286 291 351 243 277 160 153 206 269 246 237 321 320 255 263 229 283 253 215 279 161 290 246 290 272 185 92 354 257 314 284 261 246 275 277 296 305 251 271 236 338 267 246 236 276 308 327 230 308 234 269 227 224 333 253 309 253 249 273 241 217 278 390 285 247 262 191 269 238 256 265 211 227 311 202 292 338 306 233 271 336 287 316 234 266 214 261 252 283 244 352 214 286 336 216 296 229 235 308 346 232 189 281 242 279 294 244 264 226 202 205 292 297 169 274 247 257 211 185 220 277 210 255 363 240 265 311 362 326 286 291 270 301 283 300 212 335 285 221 288 251 267 236 309 257 273 153 301 276 296 350 324 296 233 152 357 183 278 382 245 262 266 289 257 319 204 372 223 299 309 192 304 199 262 224 231 358 262 319 174 334 272 257 178 207 272 277 269 322 349 266 267 201 379 300 228 258 263 335 220 339 325 231 243 362 269 192 246 298 280 253 402 179 318 278 339 252 244 299 279 254 281 172 394 269 257 305 331 274 245 245 294 321 290 171 249 299 262 198 230 305 251 217 278 317 162 274 265 358 256 242 174 221 263 224 260 327 241 285 275 188 267 232 273 262 241 263 201 276 255 269 274 262 247 245 301 209 216 235 208 215 268 238 233 247 214 267 279 324 294 304 305 329 259 230 248 225 252 325 197 273 227 168 273 246 191 212 258 295 228 232 252 275 262 325 276 126 173 238 280 301 256 268 338 289 243 176 281 256 278 194 219 364 266 239 284 272 288 265 248 260 180 214 258 138 307 159 291 277 308 268 244 225 271 284 177 232 299 290 217 205 254 341 214 340 166 348 318 335 259 324 200 220 317 322 206 242 226 286 369 330 345 188 253 177 317 286 211 259 245 245 192 198 280 356 256 277 238 355 306 295 258 309 167 234 233 250 264 280 326 277 248 238 338 282 350 275 290 184 222 283 353 261 211 292 185 243 249 221 352 255 217 259 294 245 280 215 169 120 261 227 226 253 215 201 227 238 207 305 278 151 245 281 143 192 197 269 267 202 288 338 253 185 234 228 204 218 285 289 276 255 186 240 320 299 242 336 238 215 299 183 237 210 258 314 314 236 341 342 229 193 309 256 313 325 211 300 296 259 262 313 287 305 244 214 249 183 261 265 191 354 304 266 226 178 220 313 240 214 273 234 302 311 305 155 293 252 293 235 255 326 215 237 281 156 278 238 335 229 239 247 278 289 320 255 256 175 199 293 294 247 270 210 386 233 313 148 177 273 301 340 273 233 208 182 231 303 235 250 250 252 349 285 235 265 292 248 288 235 186 327 251 204 210 281 276 259 300 221 379 289 201 191 228 263 226 238 263 219 340 293 285 262 137 251 241 210 259 217 288 340 287 276 230 233 340 256 265 239 251 324 199 251 285 242 331 260 210 268 215 236 259 300 324 277 219 394 207 212 173 280 210 294 224 256 229 268 248 273 230 273 313 255 277 244 259 271 207 310 265 333 267 347 221 316 206 172 182 238 270 298 246 289 242 398 336 156 209 361 305 237 265 157 233 310 213 299 225 303 380 221 283 278 266 287 182 309 213 242 270 284 292 202 217 280 181 276 316 209 311 221 240 222 246 219 261 359 261 231 262 342 211 310 323 340 249 206 263 217 333 295 373 263 250 309 274 207 303 250 222 181 230 294 303 211 237 234 326 286 296 318 257 240 226 305 257 285 281 287 290 211 300 246 290 287 207 281 296 283 262 313 247 284 197 258 308 193 300 207 231 312 261 237 208 309 247 227 257 246 214 224 296 276 245 210 248 239 191 254 244 156 246 239 325 309 255 290 263 299 218 272 278 247 249 266 309 214 238 269 250 239 289 248 405 269 242 236 231 200 230 223 258 261 230 300 267 244 188 236 186 210 302 208 199 373 237 211 263 301 269 226 231 275 184 222 252 231 193 178 288 191 310 261 304 286 213 275 267 273 246 334 342 206 272 267 202 361 271 266 220 188 238 245 219 221 206 230 256 248 161 228 271 298 222 269 259 213 307 220 324 275 236 164 257 377 264 178 273 271 278 333 265 210 284 272 205 296 372 171 333 265 269 108 227 299 214 174 272 329 297 293 219 246 165 212 268 291 214 333 327 262 327 229 269 355 271 324 249 270 282 285 361 279 216 294 174 377 270 222 305 176 261 264 166 172 269 268 294 166 232 208 233 184 270 241 196 396 240 224 226 325 291 223 338 258 261 204 185 291 189 241 249 292 184 319 232 250 290 200 321 228 194 291 207 212 229 233 382 183 236 248 337 336 284 260 290 225 288 283 272 195 285 342 328 229 205 269 252 293 307 286 294 220 260 296 288 193 241 266 207 216 265 236 299 316 219 265 223 268 312 219 277 198 314 233 296 196 242 218 288 202 228 246 319 174 189 313 344 252 381 272 296 249 232 327 252 254 241 269 372 271 180 219 219 190 298 234 257 191 280 302 231 272 276 235 276 243 226 221 201 254 176 257 255 415 204 306 284 187 286 306 354 280 292 222 272 255 155 211 216 151 329 200 212 236 236 262 340 295 337 301 310 222 274 303 379 267 342 220 242 391 269 207 331 264 206 228 226 217 319 231 259 270 247 280 186 211 206 230 360 294 380 208 254 240 266 298 236 194 235 263 280 168 218 310 203 334 239 238 271 268 134 214 334 316 282 239 253 265 234 161 288 300 259 249 283 267 249 221 226 291 280 288 302 196 177 255 267 286 237 265 214 233 258 177 286 358 207 229 288 223 340 263 233 301 260 186 208 266 146 272 299 253 299 244 243 239 266 182 310 201 256 316 242 228 223 207 364 261 234 297 296 323 303 322 225 225 307 208 313 269 256 289 339 262 141 346 239 224 218 308 234 282 263 297 366 232 312 195 260 203 302 246 128 266 353 242 167 312 308 251 201 221 294 271 194 365 330 366 279 249 305 273 193 196 265 316 323 175 251 205 298 260 297 277 342 223 302 220 249 253 417 154 178 270 236 296 351 328 257 295 250 241 247 362 198 235 221 243 245 257 261 123 204 296 238 287 258 243 195 186 298 225 320 212 321 188 312 173 171 258 200 260 287 272 340 297 244 279 290 294 264 183 156 222 248 290 224 239 243 222 205 229 197 285 369 336 270 184 295 239 245 168 244 265 263 267 206 301 271 202 346 230 207 251 166 224 222 276 284 281 221 271 244 267 245 323 226 235 265 195 269 240 201 362 368 330 266 255 198 288 327 167 353 290 326 234 224 253 232 259 268 284 217 314 221 274 207 250 262 243 293 290 246 236 294 213 239 233 352 225 264 280 244 232 312 220 195 221 288 250 304 253 290 301 369 199 313 339 90 260 249 232 205 215 335 295 146 194 154 234 213 295 270 308 313 241 215 276 152 243 267 284 258 241 274 284 299 218 206 279 267 307 397 216 201 205 265 374 251 234 306 274 284 325 242 274 208 171 342 278 229 233 298 239 298 337 189 256 251 264 227 308 207 230 338 230 196 282 230 291 277 270 262 310 256 249 274 143 215 317 207 285 253 286 267 217 249 198 353 217 265 192 220 218 240 283 219 196 219 230 274 282 290 251 258 275 342 209 180 241 252 263 258 255 199 246 212 159 314 252 315 287 222 193 276 316 295 249 191 224 307 255 184 255 272 235 295 270 377 196 350 290 264 258 345 206 327 237 335 226 212 271 184 206 279 132 185 199 256 192 277 248 186 249 279 271 228 229 288 200 169 299 233 239 280 289 220 253 184 212 175 288 171 364 259 305 221 431 262 312 175 353 265 332 238 197 328 236 283 289 309 325 309 286 192 261 144 261 193 298 221 222 212 271 324 207 284 231 234 311 121 284 215 338 337 226 324 171 277 297 369 253 149 251 206 182 284 221 214 220 238 369 310 222 302 185 274 270 314 193 224 187 311 215 271 214 221 244 250 274 257 339 165 204 254 210 204 237 287 302 242 212 245 316 323 312 267 232 308 228 346 255 245 249 217 259 238 273 179 239 312 227 256 265 344 253 195 240 222 236 269 259 195 294 347 279 284 239 314 239 288 330 280 239 247 213 372 268 279 268 214 201 206 293 208 285 292 231 188 298 309 261 250 271 225 168 349 195 206 249 335 217 214 284 218 262 241 177 392 304 254 257 232 209 301 277 308 264 279 212 206 189 200 155 265 279 181 260 245 243 238 223 224 247 215 222 321 302 229 183 238 289 286 293 213 141 331 303 212 285 297 200 250 357 337 217 229 267 230 235 224 340 218 282 277 162 204 321 176 268 302 228 282 273 207 209 300 207 258 239 306 244 233 198 252 216 246 277 226 298 309 278 211 257 298 319 178 291 319 247 262 256 229 282 276 187 221 253 287 158 249 264 217 213 363 272 179 198 304 360 234 292 290 333 266 351 274 230 221 241 278 260 216 360 273 385 183 284 212 210 263 231 220 267 372 224 284 258 312 273 262 164 229 282 200 296 347 211 282 264 271 218 270 328 313 207 273 227 430 264 230 190 293 272 274 247 256 258 288 217 279 231 306 340 194 213 246 295 196 283 200 275 247 240 267 216 256 186 198 226 279 238 223 217 286 227 196 264 317 203 285 188 324 196 255 223 263 250 229 306 231 269 149 194 359 239 340 205 257 316 237 222 212 200 454 235 361 315 332 157 201 343 325 287 278 197 177 256 323 293 188 293 195 256 300 165 291 232 329 324 187 294 262 201 208 260 204 358 276 255 183 380 220 324 124 206 317 248 178 282 374 288 380 235 268 210 276 257 286 250 245 281 366 260 294 228 213 267 291 214 234 217 302 134 264 293 122 267 238 281 246 320 233 316 232 250 295 384 251 291 266 289 383 270 301 297 310 232 306 300 203 230 269 200 330 203 315 240 382 287 254 296 352 328 234 258 225 201 206 200 264 270 322 248 277 205 236 280 295 281 281 259 176 295 333 193 207 352 274 317 323 308 178 312 176 239 215 267 258 310 382 382 310 276 245 206 301 259 369 235 197 320 281 255 288 208 280 242 156 227 190 266 304 210 301 336 198 273 237 263 187 270 386 311 309 256 222 251 283 197 354 291 235 343 230 223 170 234 281 173 184 355 309 323 260 328 293 306 303 402 150 201 333 209 305 251 285 287 214 351 188 265 298 331 232 195 247 338 310 243 251 335 271 262 236 262 259 354 190 326 317 191 210 314 239 240 241 301 210 244 242 209 226 199 214 305 286 286 341 267 277 262 253 218 211 247 344 350 301 298 269 328 256 242 294 224 231 215 260 283 310 326 250 283 329 238 212 311 310 177 258 267 215 290 288 330 231 299 233 150 344 231 199 272 160 256 237 182 321 231 260 360 180 235 241 378 346 308 219 215 347 234 269 301 297 313 146 237 268 285 247 201 261 252 303 232 252 313 285 249 264 197 262 277 217 284 232 302 231 262 243 245 208 257 316 227 291 258 225 295 320 239 253 328 306 245 184 266 187 150 248 263 371 374 271 195 372 237 248 235 252 223 351 148 193 252 154 251 297 265 287 232 350 238 341 295 257 235 453 226 257 169 287 195 275 299 254 347 320 307 194 274 316 183 217 278 264 229 211 272 331 202 313 212 269 255 242 219 276 268 185 304 258 265 271 187 241 218 187 291 173 206 225 203 271 294 274 215 352 251 281 354 221 273 203 214 266 240 315 226 271 276 371 289 158 221 167 316 278 300 304 263 252 409 157 281 183 297 255 202 245 238 323 254 275 400 227 122 205 218 229 315 181 312 259 211 267 235 133 167 156 242 323 337 187 327 300 164 347 186 225 284 354 230 262 265 265 280 246 182 314 234 313 355 192 286 322 221 296 196 225 226 233 149 315 310 184 274 258 176 277 400 207 171 262 237 205 223 277 287 313 339 327 277 205 301 243 248 265 244 240 268 343 361 266 373 171 219 210 236 194 265 285 235 285 138 301 278 264 208 298 253 207 272 252 242 410 236 263 346 261 233 221 277 313 253 338 306 321 299 246 324 357 233 306 257 213 323 295 318 260 291 248 233 231 309 310 190 203 238 277 283 303 323 264 277 193 260 224 266 279 235 220 279 296 323 264 226 264 277 215 194 332 253 254 247 204 342 337 161 195 338 179 313 230 231 144 256 300 275 357 206 208 221 218 264 207 289 293 265 245 286 301 185 281 264 272 282 411 266 248 235 235 361 166 244 274 258 318 168 304 236 198 311 234 250 222 206 246 162 202 261 249 217 209 288 289 343 308 264 328 327 236 260 334 212 255 250 210 273 236 262 302 287 226 305 262 311 239 242 193 247 306 223 381 190 273 338 207 250 152 256 257 233 223 311 180 303 331 284 179 309 272 269 328 294 336 227 293 274 287 246 216 221 246 196 204 298 209 231 287 259 212 258 270 311 276 320 327 282 292 236 250 125 218 371 388 255 258 207 239 240 321 229 222 203 238 316 248 227 269 316 254 290 213 238 326 299 301 158 342 245 206 208 205 213 196 294 305 234 314 189 201 267 278 213 250 251 269 273 301 175 266 224 266 280 194 287 284 226 206 339 255 311 338 206 231 232 329 271 337 245 283 200 254 216 184 177 285 286 328 322 202 351 292 262 344 196 355 149 313 348 257 300 258 370 309 250 215 226 300 218 266 170 321 283 216 327 303 226 317 215 250 237 347 227 207 352 250 202 301 256 272 172 219 164 251 195 213 281 233 191 308 270 274 270 348 366 299 273 244 218 255 236 193 270 303 222 264 281 280 365 223 196 313 202 209 320 271 232 267 149 229 258 328 407 291 213 319 203 255 244 246 320 289 261 300 174 276 306 267 232 219 339 342 262 287 256 258 272 266 261 186 219 297 243 321 186 254 307 260 203 347 239 238 343 288 200 257 265 229 254 299 192 227 304 252 354 202 394 199 235 270 163 247 266 271 248 358 230 243 290 285 266 229 335 196 334 174 248 250 247 194 261 235 201 347 132 242 128 253 257 216 288 253 220 284 253 247 288 218 310 301 345 236 250 384 304 196 155 166 134 282 268 434 268 245 185 278 234 264 276 270 207 288 325 243 203 291 308 251 245 291 273 292 291 399 286 165 278 321 200 223 184 212 206 268 208 369 224 202 241 319 286 342 193 202 301 267 272 305 289 262 305 308 327 254 316 205 216 243 301 260 191 238 295 246 255 181 273 249 237 185 244 263 253 260 240 308 226 345 175 286 229 182 273 348 269 270 253 310 182 148 188 253 167 319 293 264 243 262 284 228 261 217 191 298 269 339 231 260 378 295 279 296 185 182 311 228 223 241 220 268 316 262 221 293 178 301 189 228 259 299 276 195 243 249 251 190 259 206 178 207 210 284 333 207 155 268 190 236 210 288 236 312 359 365 303 206 163 245 312 312 247 201 205 245 238 320 241 290 342 258 148 277 178 329 285 247 265 301 256 276 261 309 324 270 218 225 344 299 185 168 250 302 199 209 288 178 228 307 208 290 192 312 283 199 263 222 295 241 357 354 312 236 278 313 284 199 379 283 274 241 281 258 276 302 296 257 229 295 212 215 264 268 266 207 270 293 241 194 272 208 301 298 314 177 216 186 185 241 259 301 236 254 262 176 299 303 239 229 291 214 214 186 283 278 246 333 337 289 356 287 192 193 325 205 176 276 268 245 258 250 250 262 228 224 295 295 365 231 246 223 285 305 187 240 271 208 191 303 218 296 272 301 222 220 216 154 248 303 211 267 271 246 276 211 223 288 302 229 231 224 211 374 335 239 296 189 240 262 124 236 354 208 263 365 302 311 248 203 205 209 160 175 219 296 309 253 266 301 260 308 215 307 221 233 362 317 229 214 245 284 301 275 282 273 259 284 286 315 291 348 257 280 267 235 303 257 311 342 164 284 309 222 175 226 242 289 240 305 301 224 280 295 314 316 273 235 247 238 295 189 282 219 205 308 260 273 232 225 339 355 300 253 187 259 404 206 229 204 155 234 167 308 242 324 250 262 280 263 238 335 349 291 300 310 257 318 258 215 315 326 295 185 307 196 277 313 214 270 237 396 255 204 225 279 305 368 212 237 276 196 256 253 257 229 258 381 279 323 272 265 230 249 226 214 271 287 318 298 209 334 211 277 330 298 207 199 265 189 278 281 236 240 243 294 248 247 280 225 363 290 186 302 250 257 232 278 370 291 369 274 254 300 284 240 289 341 307 318 355 297 299 250 192 253 203 251 297 367 228 262 313 209 274 218 193 228 234 312 383 351 252 291 339 234 270 251 237 219 261 334 225 340 246 303 218 343 303 224 407 301 225 197 298 236 242 285 186 240 353 279 246 234 298 204 316 245 147 254 276 222 240 281 214 232 357 243 256 306 260 267 176 190 211 193 211 272 305 210 263 232 295 153 197 265 230 284 261 274 286 246 216 376 306 341 175 312 163 192 299 275 285 259 255 172 257 224 232 386 278 262 315 229 340 219 217 331 263 205 256 326 341 259 290 252 292 294 310 298 297 188 259 199 208 384 256 198 221 260 297 306 402 315 254 260 195 239 199 318 300 270 181 220 286 279 226 155 250 308 263 273 249 211 251 320 239 321 199 272 313 199 316 293 160 276 281 247 352 334 206 200 337 262 334 216 283 212 207 240 268 241 204 203 272 258 280 242 240 417 172 286 328 224 277 151 225 289 202 316 298 257 259 296 312 150 315 282 238 312 257 197 202 182 236 170 308 261 292 303 248 282 356 304 369 204 187 361 253 322 155 272 228 212 291 402 320 253 193 330 203 337 284 312 280 217 168 287 298 353 172 286 215 289 282 225 184 333 326 269 218 306 262 170 276 260 298 244 227 239 232 258 197 303 179 347 318 311 284 220 163 286 268 274 264 195 217 359 343 227 312 330 214 342 264 230 262 266 254 220 252 254 234 266 277 218 232 208 182 284 333 241 231 193 310 186 254 269 309 288 282 257 226 348 184 334 348 291 253 209 281 205 241 271 341 255 204 167 360 339 296 271 220 274 227 301 230 251 235 365 286 231 243 254 283 231 242 343 348 208 204 339 305 260 260 346 322 399 306 294 227 274 331 180 332 210 330 283 165 309 239 233 198 253 254 169 226 209 341 350 332 232 249 288 255 262 205 245 215 316 234 245 219 314 344 190 363 390 243 297 223 268 233 311 264 229 294 276 179 258 171 233 274 237 212 185 259 209 253 247 287 315 253 261 214 179 145 268 329 203 305 241 318 211 367 230 230 288 293 303 257 163 245 263 291 253 185 251 328 347 246 244 333 184 269 207 201 237 305 225 214 195 258 204 310 269 332 292 213 201 256 249 254 278 312 337 186 251 261 232 331 328 304 327 180 293 289 320 201 222 235 203 266 239 133 230 338 277 186 203 258 221 220 281 326 250 180 236 318 224 229 163 194 177 279 229 290 265 335 243 284 299 290 252 264 234 251 246 272 260 286 313 264 213 303 259 320 352 247 268 357 205 292 226 296 249 247 339 342 290 306 285 170 338 255 264 266 194 316 207 264 355 340 223 318 255 200 264 219 292 199 256 358 250 199 260 201 313 147 310 245 249 240 269 199 260 214 248 259 251 173 202 234 277 257 314 326 266 238 231 307 168 281 308 237 349 248 326 316 212 221 200 314 218 347 265 343 269 166 284 399 230 324 258 250 216 160 256 227 253 296 281 179 237 217 305 327 431 194 248 263 255 329 248 191 219 274 333 280 280 279 215 323 257 257 289 276 276 265 230 309 278 269 248 281 287 290 196 132 231 331 296 256 217 319 225 243 220 273 275 244 241 272 286 278 260 187 307 277 225 220 274 273 315 239 149 218 297 216 253 270 177 305 224 223 137 285 226 228 227 229 183 272 213 278 243 193 282 301 203 209 241 206 338 175 229 228 170 368 213 299 218 248 279 291 187 255 315 270 264 323 190 250 277 191 291 322 219 284 255 243 272 263 318 261 346 289 255 234 294 181 251 369 262 217 210 285 241 281 336 237 296 334 244 342 196 294 261 266 222 238 213 322 174 287 213 290 298 291 258 353 309 261 269 267 186 328 265 295 233 350 236 224 254 171 245 245 307 272 328 283 249 256 341 212 294 339 283 245 270 196 317 272 220 344 390 262 270 225 225 264 220 305 184 235 354 224 211 271 239 202 215 287 274 256 211 380 168 206 264 276 257 172 251 202 201 478 252 342 208 293 179 303 341 302 282 344 207 301 316 227 199 138 313 225 228 220 129 217 177 232 266 299 256 154 242 287 218 413 316 338 265 300 291 270 284 309 202 300 339 216 306 274 250 143 314 260 254 244 269 312 270 335 180 246 249 180 222 140 244 295 249 279 197 167 329 322 285 435 310 251 231 190 298 313 289 288 195 235 133 274 324 189 263 243 172 120 240 201 280 291 209 232 250 282 296 317 268 293 284 229 212 303 192 348 306 210 252 310 238 289 259 222 237 280 237 238 300 287 227 290 259 190 202 208 312 222 296 271 194 235 315 289 216 327 319 264 304 308 210 238 251 259 338 240 269 238 240 251 318 261 280 280 330 290 290 293 265 237 250 206 347 277 282 316 312 294 177 253 332 227 326 255 281 361 312 271 244 241 228 327 198 190 232 289 284 246 315 247 291 249 341 300 158 272 276 338 332 313 331 316 367 253 225 238 324 258 311 308 353 237 307 199 358 246 322 289 166 228 302 333 274 280 249 232 277 203 254 164 154 228 209 276 302 195 275 285 193 326 267 419 237 172 330 271 224 410 225 232 247 295 200 354 219 209 186 261 250 337 313 238 257 226 216 274 239 244 299 262 289 249 210 217 233 224 343 261 239 298 306 217 206 215 241 262 257 199 238 327 210 259 251 245 270 199 264 217 255 225 223 238 257 193 312 263 311 333 275 251 259 256 265 277 266 296 196 221 321 201 194 290 220 319 235 305 288 252 255 341 195 306 330 207 213 326 250 336 232 237 217 271 236 352 206 258 323 265 323 176 224 362 330 174 211 253 204 254 262 329 385 229 349 334 301 229 262 247 267 212 296 182 196 214 301 258 222 280 299 261 254 252 240 240 304 207 271 282 319 218 271 193 231 254 237 128 387 307 241 224 312 273 211 143 309 307 265 281 174 301 290 211 244 258 230 242 239 271 327 302 298 150 228 221 319 193 283 247 261 257 212 243 230 228 282 340 225 285 190 307 350 375 257 242 366 236 269 220 348 325 301 182 280 150 306 224 267 246 246 249 303 166 271 275 209 239 250 229 289 207 215 192 270 290 224 279 301 219 175 254 169 152 271 221 296 299 184 257 216 230 300 282 234 157 197 204 275 258 178 181 296 212 240 258 288 382 139 273 243 236 343 265 241 302 278 179 325 239 288 193 380 267 248 319 221 212 227 249 196 268 209 246 277 269 240 237 289 295 192 204 382 253 252 197 128 309 245 204 221 300 213 255 347 200 282 355 286 285 177 231 267 321 279 255 249 227 269 298 296 245 206 296 221 286 278 261 233 268 250 295 221 251 355 259 237 305 284 209 252 281 293 256 319 262 212 146 279 336 247 339 252 183 263 230 303 300 375 320 316 241 208 295 294 208 291 178 256 211 204 206 322 306 313 174 227 239 267 357 288 174 282 206 316 297 369 221 234 287 292 286 291 261 281 328 237 268 312 245 286 267 205 254 308 199 382 199 187 317 218 234 265 246 377 261 279 198 270 319 327 314 362 263 334 416 221 267 200 141 273 275 326 241 228 281 296 207 148 345 283 242 326 274 283 335 215 249 322 191 298 287 209 290 282 274 253 215 234 336 373 232 216 275 336 186 277 267 303 271 225 333 281 305 299 195 288 205 296 369 331 347 198 175 298 229 348 185 298 248 279 286 280 221 198 245 233 245 229 286 201 253 258 235 249 168 245 224 192 255 197 242 297 397 252 275 291 193 322 227 249 257 273 261 249 242 191 111 227 260 289 308 240 294 276 238 232 243 289 265 198 282 227 254 309 308 261 240 212 233 213 243 208 261 228 285 212 263 241 274 227 304 221 238 331 287 218 220 244 227 292 164 269 165 231 307 289 245 310 335 211 245 263 177 207 254 230 160 225 231 196 334 298 308 286 361 275 228 339 400 253 266 251 291 207 290 243 215 279 213 255 347 243 233 240 236 277 237 219 261 313 227 263 398 226 262 242 189 250 248 280 250 226 193 178 270 310 231 192 242 326 191 184 276 379 230 309 337 292 202 215 186 324 222 237 313 330 252 284 207 247 227 386 222 248 234 225 209 232 292 278 319 219 304 251 321 220 185 159 285 280 217 346 310 294 257 215 332 181 392 328 211 257 243 308 350 289 249 246 297 216 220 322 248 210 240 329 249 214 285 174 237 363 245 210 279 181 250 234 220 214 284 195 261 244 254 185 223 250 167 206 229 293 240 276 280 242 278 192 201 245 292 257 276 288 321 302 188 361 301 249 279 271 281 330 209 176 235 266 276 190 223 203 368 214 290 258 278 222 281 340 325 258 263 318 334 276 180 321 206 245 296 272 255 261 212 135 212 223 323 195 223 199 205 215 218 227 267 289 418 217 272 280 307 238 201 201 253 306 300 168 276 278 231 289 275 232 187 333 234 226 247 272 325 225 191 243 228 240 291 305 225 299 204 299 215 324 272 214 300 372 234 204 261 183 231 307 292 354 201 186 265 273 327 249 225 247 220 316 294 331 308 187 246 203 193 346 239 345 312 245 287 277 265 252 300 337 215 238 335 283 256 330 352 206 135 313 351 276 205 327 278 223 305 312 289 177 308 263 360 253 182 252 322 228 353 289 336 335 192 347 286 293 251 299 279 251 214 279 253 362 263 299 264 221 310 265 251 369 300 256 385 227 334 269 292 284 236 240 285 264 294 338 210 320 165 243 399 189 331 204 246 231 258 243 238 208 241 185 253 239 254 265 269 214 248 187 230 235 258 282 260 199 237 259 285 235 222 292 284 320 254 290 248 354 211 311 350 173 328 321 286 288 204 292 295 285 380 184 220 247 251 282 258 329 334 234 213 299 251 411 242 316 248 196 280 215 282 133 330 253 286 253 377 235 292 224 314 200 264 273 318 232 230 221 259 271 334 245 255 277 355 389 344 311 330 259 359 280 238 272 211 309 293 233 236 268 290 201 200 254 247 376 208 198 255 257 248 225 195 215 239 308 283 283 190 324 230 288 395 177 324 285 286 212 308 315 274 330 155 219 253 245 284 293 177 195 316 245 317 222 220 276 278 278 256 227 273 286 244 338 262 262 274 237 294 214 273 330 244 232 241 265 271 223 201 256 269 237 249 161 207 267 214 177 254 317 283 287 294 152 159 268 254 263 238 315 239 284 189 281 280 194 265 272 259 209 321 289 269 255 343 253 232 239 209 265 220 327 391 195 273 299 304 247 347 188 309 182 316 329 284 96 222 248 248 264 256 266 155 281 201 210 307 203 303 255 310 344 238 169 317 276 280 276 152 295 262 313 223 265 282 267 232 288 254 240 330 257 250 219 246 282 278 290 270 353 345 258 305 323 270 260 383 299 247 245 281 249 278 159 220 223 378 152 241 313 243 285 228 232 307 318 277 254 240 251 314 236 291 321 316 264 247 237 179 245 146 190 231 231 230 272 210 324 320 302 321 208 239 311 255 358 283 293 201 297 217 297 295 266 274 312 296 245 298 253 189 17</t>
-  </si>
-  <si>
-    <t>F(1.439726817026352, 1.2228876321811435, -1.9123459933260866e-30, 1.3389965485950968)</t>
-  </si>
-  <si>
-    <t>1 2 1 1 1 0 2 2 1 2 1 1 3 0 0 1 1 2 1 2 0 0 2 1 3 1 1 1 0 1 2 3 1 2 2 2 3 0 0 0 0 2 1 2 2 3 1 2 1 4 1 1 2 1 2 3 1 1 0 3 2 0 1 2 2 1 0 1 1 2 0 1 2 2 1 1 0 2 2 1 2 1 0 2 4 2 1 2 2 2 1 2 1 1 2 1 2 2 3 4 3 2 1 2 1 3 0 0 0 2 2 0 0 0 1 1 1 1 2 1 3 2 1 1 1 1 0 4 1 2 2 1 2 2 2 1 1 1 2 1 1 2 1 3 1 1 1 1 2 1 5 0 1 1 1 2 1 3 0 2 1 0 0 1 0 1 0 0 0 2 0 1 0 1 0 1 1 2 2 2 1 0 2 3 2 3 2 1 1 2 2 3 0 2 1 0 4 1 3 0 1 2 1 1 4 1 1 2 1 2 2 1 1 1 1 2 2 2 0 1 1 4 1 1 1 1 1 0 2 3 2 2 0 3 0 1 2 0 1 1 4 1 1 1 1 2 2 1 2 2 1 0 0 2 2 1 0 0 2 2 3 1 1 0 1 2 2 1 1 1 1 3 4 1 2 0 2 4 0 2 2 1 3 3 1 5 2 1 1 3 1 0 0 3 0 0 0 0 2 1 1 0 2 0 2 1 2 3 4 2 1 2 4 3 0 0 1 3 2 2 1 0 2 1 0 0 1 2 0 1 5 2 2 1 0 2 2 2 1 0 0 0 1 2 2 1 3 2 1 2 1 4 2 2 2 1 0 1 1 1 0 1 3 1 2 3 2 2 2 3 1 3 1 2 1 3 3 0 1 0 2 1 1 2 0 2 1 0 0 4 2 3 1 1 2 1 2 2 2 3 2 1 0 0 2 3 2 2 2 1 1 0 2 1 1 2 1 0 1 0 1 1 2 1 3 1 2 2 1 1 2 2 2 2 2 1 3 1 1 2 2 1 1 3 3 1 1 2 2 0 3 1 2 2 1 1 1 4 3 2 3 2 1 1 3 0 1 1 1 2 1 3 0 1 1 2 1 3 2 3 3 2 2 1 0 2 2 1 1 1 1 2 0 1 1 1 1 0 1 2 4 1 0 3 1 1 1 1 1 1 1 3 3 1 1 1 2 1 3 1 1 2 1 3 1 2 2 1 3 0 3 1 1 0 2 0 2 1 0 1 4 3 1 1 1 2 1 4 4 0 3 2 1 0 2 2 1 0 0 1 1 1 2 4 0 1 2 2 2 0 1 1 1 1 1 1 3 0 1 1 1 2 3 1 1 1 0 2 2 1 1 2 1 2 2 2 3 0 1 0 2 3 0 0 1 1 3 2 0 2 1 3 1 1 0 2 3 1 2 2 2 1 1 3 0 2 2 3 1 1 1 2 2 1 0 1 1 3 0 3 1 1 2 1 2 1 1 1 2 1 1 1 0 1 1 1 3 2 0 4 2 0 3 3 1 2 2 0 1 2 0 1 3 3 1 1 2 0 2 1 2 1 0 2 1 0 0 2 2 0 1 1 1 1 1 3 1 6 0 1 2 2 0 1 3 3 3 3 2 2 0 4 1 3 1 2 2 1 4 1 0 3 4 2 2 0 1 2 1 2 1 2 0 1 1 2 0 2 3 1 2 0 3 2 4 1 1 2 1 0 1 0 1 1 1 2 2 2 2 0 1 3 2 2 1 1 1 2 2 1 1 2 0 2 2 2 3 1 1 3 1 3 2 3 1 2 1 3 3 2 2 2 1 3 1 3 3 0 1 2 2 2 2 1 1 1 2 3 2 1 2 2 1 3 1 0 0 1 1 1 1 0 1 0 1 0 1 1 1 3 1 0 1 1 1 0 3 1 0 0 1 2 1 1 0 2 0 1 2 3 2 2 2 2 1 0 1 1 1 2 3 0 0 1 1 2 1 2 2 1 0 3 4 2 2 2 1 4 1 1 1 2 1 2 2 1 3 2 2 1 1 1 0 2 1 2 0 2 2 1 2 1 3 0 1 0 2 2 2 2 1 1 0 2 2 0 2 1 1 3 1 1 2 1 1 3 2 3 1 1 2 2 1 1 2 3 2 3 1 1 2 3 1 1 2 1 1 2 0 1 2 1 3 2 3 1 2 0 3 1 2 1 0 2 1 0 1 2 1 2 2 2 1 2 3 1 1 3 2 1 0 3 2 2 0 1 1 3 1 1 1 1 2 0 1 1 1 1 1 0 0 2 2 0 0 2 1 2 2 2 1 2 0 4 2 3 1 1 2 2 1 2 3 1 2 1 2 1 1 1 2 1 3 2 2 1 1 3 1 0 0 2 2 1 1 2 2 1 0 2 2 1 1 1 1 3 0 2 3 2 0 2 1 2 3 1 0 0 2 0 3 2 1 3 3 2 1 2 1 3 2 2 1 1 0 1 1 1 2 1 0 1 1 2 1 3 1 2 1 0 2 1 0 2 2 3 2 3 2 1 1 2 1 1 1 3 1 0 0 1 2 1 2 2 0 1 0 3 0 1 2 3 2 1 1 0 1 1 1 3 2 3 3 1 3 1 1 0 2 2 1 1 1 0 1 1 0 1 2 1 3 1 3 0 2 0 3 0 1 0 1 3 2 4 3 4 2 1 0 2 1 1 2 3 0 1 1 1 1 1 3 2 2 1 3 1 3 2 2 2 1 2 4 2 3 3 1 1 1 1 2 1 2 2 1 1 3 2 3 1 1 1 2 2 1 2 3 0 0 1 1 3 3 1 2 1 2 2 0 2 1 0 2 1 2 1 0 1 1 1 3 1 2 1 2 0 2 2 2 2 1 3 1 0 1 3 1 0 0 1 0 0 1 3 1 4 2 3 0 1 1 2 1 0 2 2 0 1 1 1 4 1 0 2 0 3 1 2 1 1 2 0 0 2 3 4 1 2 2 3 1 1 2 3 1 3 2 3 2 3 3 2 2 2 3 2 2 2 2 1 1 1 1 0 2 0 0 0 0 3 1 2 2 1 3 2 2 2 1 4 1 2 2 0 3 1 1 3 0 2 1 1 3 1 0 1 1 1 0 1 0 2 1 1 0 1 2 2 2 2 1 1 1 0 2 2 3 1 1 2 4 3 2 1 2 0 3 4 0 1 4 1 0 3 0 3 3 0 1 3 1 1 1 2 1 0 0 1 1 1 2 0 2 0 2 0 1 1 3 3 1 0 2 1 3 1 3 2 0 1 3 1 2 0 2 4 3 3 3 0 2 2 0 1 1 1 1 0 0 2 3 2 1 1 1 1 1 1 2 3 1 3 2 1 2 0 2 2 1 1 1 1 2 1 1 2 0 2 1 2 1 1 0 1 0 1 1 1 3 0 0 2 1 3 1 2 1 1 2 1 0 0 1 1 0 2 2 1 0 2 2 3 1 4 1 2 2 1 1 1 2 0 2 2 1 2 2 3 3 2 1 2 3 2 2 1 3 1 1 1 2 1 1 2 2 0 1 1 1 0 3 2 1 2 1 1 3 2 0 1 1 2 1 3 2 1 1 2 1 1 4 2 1 3 1 1 1 1 2 1 1 1 0 1 1 0 3 2 3 1 2 2 1 3 3 0 3 0 0 3 1 1 1 2 2 0 0 0 1 1 2 2 2 1 2 1 1 2 0 0 2 0 2 1 1 2 0 2 0 0 1 1 0 1 1 1 3 1 2 2 0 1 1 3 2 1 1 2 2 1 2 1 3 1 3 2 4 0 0 2 1 2 0 1 1 1 2 2 3 1 1 3 1 1 2 2 1 1 3 2 2 3 3 0 0 1 1 2 2 1 2 1 2 1 3 1 1 1 2 1 1 2 3 1 1 1 2 2 2 1 3 3 1 2 1 2 0 0 0 4 1 3 1 1 3 3 2 2 2 2 3 0 2 1 1 0 1 1 4 2 1 1 2 4 0 3 2 1 0 0 2 1 3 2 1 3 1 2 2 2 0 2 1 1 0 2 2 0 2 3 2 3 2 1 2 1 3 2 2 1 2 2 2 1 0 3 1 2 2 2 2 1 3 2 1 1 3 0 0 2 2 2 1 4 2 1 3 2 1 2 0 1 0 1 3 3 2 1 0 0 1 2 2 2 2 2 1 2 1 1 0 3 2 1 1 0 1 1 0 1 1 1 3 3 0 0 1 4 2 1 2 1 1 1 1 1 1 2 2 4 3 3 1 0 0 3 3 1 0 1 2 1 2 0 1 1 1 3 3 2 2 1 2 3 3 1 2 0 2 3 2 0 0 3 4 2 0 2 3 2 2 3 1 4 1 1 2 1 2 0 1 1 3 2 1 1 3 2 2 2 0 3 2 1 3 2 3 2 2 1 1 2 6 1 3 1 2 2 1 1 2 2 2 2 3 0 2 1 2 1 5 1 3 1 2 0 2 1 0 2 0 2 2 1 0 2 1 3 1 3 2 2 1 3 3 3 1 1 2 1 1 2 0 2 1 1 3 2 2 2 1 1 1 2 4 3 0 2 3 3 1 0 3 1 2 1 1 1 0 2 2 4 2 0 3 0 2 1 3 2 2 1 0 3 0 2 2 2 2 1 0 1 1 1 2 2 2 3 2 1 1 3 1 1 2 2 2 1 1 1 1 1 1 2 1 0 2 3 1 4 1 2 1 3 2 0 1 3 3 4 5 2 0 2 1 3 2 1 1 1 1 0 3 1 0 1 3 0 4 3 1 2 1 2 1 3 1 2 2 2 1 2 3 2 5 2 0 2 2 1 3 1 0 0 1 2 2 1 0 2 1 2 2 2 1 0 1 2 0 0 2 2 1 1 1 2 1 3 1 1 0 0 1 1 2 1 0 3 2 1 1 2 3 2 2 1 3 2 2 1 2 0 4 2 2 2 2 2 2 1 3 1 2 1 2 2 1 2 0 1 1 3 4 1 2 1 2 0 3 1 3 1 2 0 0 1 3 4 3 2 0 2 1 2 1 2 2 2 1 0 2 1 2 3 0 4 1 1 1 2 1 2 1 2 1 3 1 4 4 1 1 1 2 3 1 1 1 2 2 2 2 1 2 1 0 1 2 3 0 2 1 0 2 0 2 2 0 0 3 0 3 1 2 1 2 1 2 2 1 2 2 3 3 3 3 3 3 2 2 2 2 0 1 0 3 1 3 1 0 2 1 1 2 3 1 1 1 0 1 2 0 3 2 2 1 1 2 2 1 1 0 2 2 4 0 2 3 0 1 2 1 1 2 2 1 0 1 1 3 2 0 3 1 2 2 3 1 2 2 2 2 0 2 2 2 2 4 2 2 3 3 3 1 2 2 1 1 0 2 1 2 1 2 2 1 1 4 2 0 1 0 1 1 1 2 1 2 2 2 0 0 3 2 4 1 1 0 2 2 1 3 2 1 1 1 0 0 3 1 3 0 2 1 2 2 3 1 1 0 2 2 2 0 2 1 2 1 0 2 0 2 2 2 3 1 1 2 2 2 2 2 3 2 5 0 1 1 1 0 1 2 2 0 2 2 0 4 1 1 1 1 0 1 4 2 0 1 1 1 0 2 1 2 4 1 1 1 0 3 0 4 2 2 2 1 0 0 0 2 0 2 2 1 2 3 1 2 0 2 2 2 0 2 1 1 1 1 2 2 4 0 4 2 2 2 3 1 1 2 1 0 1 1 2 5 1 3 1 1 1 2 1 2 1 1 2 1 2 4 2 3 1 4 3 2 3 1 2 0 1 1 3 2 1 3 2 3 3 2 2 1 2 3 1 3 1 1 1 2 3 1 2 0 0 3 0 2 1 2 2 2 1 1 1 2 1 2 3 2 1 2 2 1 2 2 0 3 3 2 1 0 1 1 1 1 2 2 1 2 1 0 2 1 3 3 1 1 1 2 3 2 2 2 0 1 0 1 2 1 3 3 0 1 1 2 1 0 1 1 1 2 3 3 1 3 1 2 4 2 2 1 1 2 2 1 3 3 1 2 0 0 1 0 1 2 1 0 2 2 1 0 2 2 1 2 0 2 1 2 0 0 2 4 0 1 1 2 1 2 3 3 1 1 1 1 2 3 1 4 0 2 0 1 1 2 4 2 0 1 1 2 1 0 0 1 2 2 2 2 0 1 1 0 0 1 2 3 1 0 2 1 2 3 0 3 2 2 1 2 1 1 1 3 0 1 4 4 1 1 2 0 0 1 1 2 3 2 3 1 0 3 1 0 2 2 2 1 3 1 1 3 1 2 2 0 2 3 1 2 3 1 3 2 1 1 1 1 2 1 1 1 2 1 1 2 2 3 1 2 3 2 2 2 1 2 1 3 3 2 3 2 0 2 2 1 3 1 2 3 1 3 0 1 2 2 1 1 2 2 1 2 2 0 4 3 0 2 0 1 2 2 1 2 3 1 1 1 4 1 2 1 3 4 0 2 2 1 1 1 2 2 2 1 0 1 4 1 2 3 3 1 0 1 0 2 2 2 0 2 2 1 0 1 2 0 0 1 1 2 1 2 0 2 3 2 1 2 2 2 1 1 3 2 1 2 0 3 1 1 1 1 1 2 1 1 0 2 2 2 3 4 0 2 0 1 2 2 1 2 1 1 1 0 1 0 0 2 4 3 1 1 2 0 1 1 1 1 1 2 4 1 2 2 1 2 2 0 0 3 2 2 2 0 2 2 4 1 0 3 2 2 2 2 2 1 1 1 0 0 2 3 1 1 2 2 0 3 2 2 4 1 3 3 1 1 1 2 3 1 2 2 1 0 1 3 2 3 0 2 2 1 3 0 2 2 2 1 2 1 2 1 2 1 3 0 2 2 2 1 1 0 1 2 2 0 0 0 2 0 1 2 2 2 1 1 1 1 1 0 2 1 1 2 1 3 3 1 3 2 2 2 1 3 1 1 1 2 0 0 1 2 0 1 3 3 3 1 1 1 2 2 1 0 1 2 1 4 2 3 5 1 1 2 1 2 2 2 2 1 3 1 4 2 1 1 2 1 1 1 2 1 1 2 1 2 0 2 1 4 0 0 2 1 0 1 0 1 3 2 3 2 1 1 2 1 1 1 1 1 1 0 0 2 0 2 1 1 2 1 1 2 1 3 1 4 0 0 2 0 1 4 2 2 4 1 2 0 1 0 1 1 0 1 2 0 3 2 2 0 1 0 1 1 1 0 2 2 0 3 3 3 2 2 2 1 1 2 1 2 1 2 0 0 4 1 0 1 2 1 1 1 3 3 2 2 1 2 1 0 2 1 0 1 1 2 0 1 1 2 3 2 1 1 1 3 3 3 0 2 3 2 4 1 1 1 2 1 2 3 3 1 2 1 1 2 3 2 0 4 1 4 1 1 0 2 1 2 0 2 2 2 3 1 3 4 1 2 0 2 1 2 1 3 2 1 2 2 1 2 0 2 1 1 1 0 1 2 2 0 0 0 3 0 3 2 4 1 0 1 3 0 1 1 1 1 1 2 1 1 3 1 1 1 0 1 3 0 0 5 1 0 1 0 2 0 0 1 2 2 1 2 2 1 1 0 3 3 2 1 1 2 1 1 1 1 2 1 1 1 2 2 2 2 4 1 1 2 1 3 2 0 0 3 2 1 1 1 2 3 1 2 1 2 1 1 0 1 4 1 1 0 1 4 2 1 3 1 2 3 3 3 1 1 1 0 3 1 4 3 2 0 3 2 2 1 2 1 3 2 0 3 2 1 1 1 2 2 2 0 4 2 0 1 2 2 1 2 2 0 0 0 1 1 2 0 3 3 1 0 2 0 3 3 1 1 2 3 1 3 2 3 2 0 1 0 2 4 0 0 2 1 0 2 2 2 1 1 3 2 3 1 0 0 0 1 2 0 0 1 1 2 1 2 2 1 2 2 1 2 1 1 0 2 2 2 2 2 2 2 2 4 2 2 2 2 2 2 0 1 1 1 2 1 1 2 0 1 2 2 2 2 0 2 0 1 2 0 0 2 2 1 2 2 2 4 2 2 0 2 0 2 1 3 1 3 3 2 1 1 1 1 1 2 1 2 2 1 2 2 1 4 1 1 1 3 1 2 2 5 1 3 2 1 2 1 2 0 1 1 0 1 2 2 0 0 2 3 2 0 2 2 0 2 1 3 0 1 3 3 3 2 1 3 3 2 1 2 2 3 2 3 1 1 2 0 2 4 3 1 2 2 1 0 1 0 2 1 1 2 2 2 0 0 2 2 1 1 1 0 1 2 2 2 1 3 2 1 0 4 2 1 1 1 3 1 1 0 4 3 2 1 1 2 0 3 3 2 2 1 1 0 2 0 3 1 2 1 0 2 2 1 1 0 2 2 3 0 2 2 1 1 1 0 1 1 1 1 3 1 2 1 3 2 2 2 1 1 1 3 2 3 2 1 0 1 1 1 3 3 1 1 1 3 1 1 2 3 1 2 2 0 1 1 0 2 1 1 1 2 2 2 2 0 0 2 1 0 2 2 2 1 1 2 1 2 2 4 0 2 2 3 2 3 2 2 1 1 2 3 2 1 0 3 0 0 0 1 1 1 1 2 2 1 0 3 0 0 3 0 1 0 2 1 1 1 0 0 2 1 3 1 2 0 5 3 2 1 3 2 2 0 1 1 0 0 3 1 3 2 2 1 1 1 1 2 2 1 0 1 1 1 1 0 1 2 1 0 0 1 1 1 1 2 0 3 0 2 1 0 2 0 1 0 2 1 2 1 2 2 1 0 0 1 2 3 0 1 2 2 0 0 1 3 1 1 2 1 2 2 1 1 1 1 2 1 1 2 2 1 0 2 1 1 0 2 1 2 1 2 1 1 2 1 2 3 2 2 2 2 3 3 0 0 2 2 0 2 0 1 0 1 1 1 0 2 0 2 2 1 1 0 2 2 2 0 1 0 3 1 1 1 2 2 2 1 2 2 1 1 4 1 0 1 0 1 2 2 1 1 2 1 2 1 0 1 4 2 4 1 1 3 2 5 1 2 1 3 2 0 1 1 1 2 2 1 1 2 2 2 2 1 0 2 3 0 0 1 1 1 2 2 0 1 0 1 3 3 2 0 3 3 1 2 2 1 1 4 2 2 3 1 2 1 2 1 2 2 1 1 1 1 1 2 2 1 1 3 2 2 0 1 1 2 2 1 1 3 2 2 1 0 1 1 1 1 1 3 2 0 1 2 0 0 2 1 1 2 2 1 1 1 2 0 3 2 3 1 3 1 3 2 2 2 0 1 2 2 4 1 5 2 2 1 2 3 0 2 1 1 1 2 1 1 1 2 2 2 0 2 0 0 3 3 1 1 0 2 2 0 2 2 1 2 0 2 3 0 0 1 3 1 1 1 1 4 0 1 0 2 4 2 1 2 3 2 2 2 1 1 2 2 2 1 0 1 2 1 1 2 1 2 0 1 0 2 0 1 2 2 1 1 3 2 2 0 3 1 0 0 2 0 3 2 1 1 2 2 2 2 1 3 1 5 1 3 0 1 2 1 2 2 2 0 3 2 3 3 1 3 3 1 2 1 0 3 0 0 2 1 1 3 2 1 3 1 1 2 4 1 1 1 1 3 2 1 1 2 1 1 1 1 2 2 0 2 3 2 1 2 2 2 1 0 3 3 0 0 2 1 0 2 2 1 3 0 3 1 0 1 3 1 1 2 3 1 2 0 3 3 2 3 1 2 1 3 3 0 0 2 0 2 1 2 0 2 3 2 2 1 2 2 0 0 2 1 2 3 1 3 1 0 2 2 0 2 1 2 4 0 1 3 2 0 1 1 1 3 1 1 3 0 1 0 3 3 2 3 4 1 1 1 2 4 1 3 1 2 0 3 3 0 2 0 4 0 1 1 0 2 3 2 0 1 1 1 2 0 4 2 2 0 2 1 1 2 0 3 1 2 0 1 2 3 3 2 1 1 2 2 3 1 3 0 2 1 3 0 0 2 2 1 1 1 3 3 4 2 1 1 2 1 0 0 3 3 1 1 2 0 1 2 1 1 2 1 1 2 1 1 2 1 1 2 1 1 1 1 2 1 0 2 1 1 2 3 2 1 2 2 2 2 3 2 1 1 0 3 4 2 1 1 1 1 1 2 1 3 1 1 1 2 3 0 1 2 1 1 2 1 0 1 1 2 3 2 0 2 0 1 3 0 1 2 1 1 1 2 3 0 0 1 3 3 3 0 1 2 1 1 2 2 1 1 1 1 2 0 0 3 2 2 0 2 2 5 0 1 1 4 2 3 2 1 2 3 1 3 1 2 2 4 2 2 0 1 2 1 2 2 5 2 3 0 1 1 0 0 1 1 1 2 1 2 2 2 3 2 2 1 1 1 2 0 2 1 1 1 1 2 3 3 2 2 1 3 1 2 1 1 1 1 2 1 2 2 1 0 3 2 1 2 0 1 1 0 2 4 2 2 2 0 3 2 2 1 3 0 2 1 1 3 2 1 2 1 1 1 0 2 1 2 1 2 2 4 1 1 4 0 1 2 1 2 0 2 3 2 3 3 2 1 1 2 1 2 0 1 2 2 5 0 1 2 2 4 3 2 1 1 2 1 2 1 0 1 0 0 1 1 1 2 2 1 1 0 0 0 2 1 2 2 2 2 1 1 2 3 2 3 2 3 1 1 2 1 1 1 1 1 2 1 1 2 3 1 1 2 2 1 0 2 1 0 1 3 1 2 2 1 0 1 2 0 1 2 2 1 1 4 3 0 3 2 0 3 1 2 1 2 0 2 1 1 2 1 1 0 1 1 2 2 2 3 2 4 1 0 1 0 3 2 2 3 2 0 2 0 0 1 1 2 2 1 0 2 2 0 2 2 2 1 1 1 2 1 3 2 3 2 0 2 4 2 2 1 1 1 1 1 2 1 1 1 2 2 3 3 2 3 0 1 2 0 2 1 2 0 1 4 1 1 2 0 3 3 2 1 2 0 1 0 1 1 3 2 3 5 0 1 1 1 1 0 0 2 1 3 2 3 1 3 0 2 1 6 1 1 1 0 1 1 1 1 2 3 0 1 0 1 2 2 3 3 0 2 1 0 3 1 0 1 0 1 4 1 2 3 3 1 2 2 1 2 2 1 3 1 2 1 1 1 0 1 1 2 0 1 1 2 1 2 1 2 1 1 1 1 2 1 2 1 1 1 1 1 1 2 2 2 1 3 3 3 2 2 1 3 2 0 1 2 1 2 2 2 0 4 1 1 0 3 1 3 1 3 0 3 0 4 0 1 2 3 2 3 1 0 2 3 1 2 1 2 3 1 1 3 2 1 2 1 1 3 3 2 1 0 1 0 1 0 1 0 3 1 1 2 1 0 1 2 0 2 1 1 2 3 0 1 1 1 2 1 3 4 1 2 3 3 2 1 1 2 1 3 2 0 1 3 0 2 1 0 1 2 2 3 4 1 2 2 0 0 1 3 0 2 1 1 2 2 3 2 1 1 1 2 0 1 2 3 0 0 1 1 1 2 1 0 1 2 1 1 5 2 1 3 1 4 0 2 1 4 2 1 1 2 2 1 1 1 0 1 1 2 2 2 2 0 3 0 2 2 0 2 1 1 1 0 1 1 1 0 0 2 1 2 0 1 0 3 1 1 1 1 0 2 1 0 2 2 3 2 2 1 2 1 2 1 2 2 0 1 1 1 1 3 1 2 1 1 3 4 1 1 2 2 2 4 2 1 2 2 2 1 2 2 1 2 0 4 2 1 2 1 1 2 2 1 1 1 0 2 2 1 2 0 4 4 2 0 3 1 4 0 1 2 3 0 2 1 1 3 0 1 1 2 1 2 2 0 2 2 1 2 2 2 3 3 1 3 2 3 3 2 0 0 2 1 3 3 2 1 0 0 2 1 2 2 1 3 2 0 1 1 3 2 2 1 2 1 1 5 1 0 0 1 1 2 1 1 2 2 0 3 1 1 1 2 1 2 2 2 0 2 3 0 2 2 3 0 2 0 3 0 2 3 2 3 1 0 2 1 2 2 2 2 1 1 4 1 1 0 1 2 1 4 1 0 2 0 1 1 1 3 3 3 1 0 0 2 0 0 2 1 4 2 0 1 2 1 0 0 1 2 0 1 1 1 2 3 0 1 2 0 2 2 1 1 2 1 3 2 1 2 4 2 1 0 2 1 2 2 1 3 1 1 1 0 2 2 1 1 1 2 1 1 1 3 1 3 4 3 2 2 0 1 3 1 2 1 0 1 2 1 2 0 1 2 0 5 2 2 0 1 1 2 0 0 1 1 1 2 2 3 1 1 2 1 3 3 0 0 4 2 3 2 2 2 1 1 1 1 1 1 1 0 5 3 1 1 1 3 1 1 1 2 0 1 1 1 1 2 1 2 0 2 0 0 2 1 4 1 2 1 3 2 0 1 2 1 2 1 3 0 2 2 0 2 0 2 1 2 2 2 2 1 2 2 1 2 1 1 1 3 5 1 1 1 2 0 2 2 1 4 1 1 2 1 4 1 2 1 1 3 3 2 2 1 1 2 1 0 2 1 1 4 1 2 1 3 0 0 1 2 1 1 0 3 2 1 2 1 1 1 3 1 2 2 2 3 2 1 0 0 2 1 1 1 3 3 2 2 3 2 1 2 2 1 0 0 2 2 4 2 1 2 2 3 2 2 2 1 3 2 0 1 2 1 2 3 1 2 0 2 1 1 1 4 2 1 0 0 3 1 1 1 1 2 3 2 2 1 1 0 0 0 1 1 2 2 5 1 2 1 1 3 3 1 1 0 1 2 1 2 1 0 3 3 1 0 0 2 4 1 1 2 0 0 0 1 1 3 1 0 2 2 2 0 1 2 1 1 2 2 0 2 1 3 1 2 1 2 2 4 2 1 2 3 1 1 2 1 0 5 0 1 1 1 4 1 1 1 3 1 3 4 1 2 1 2 3 1 1 1 3 0 0 4 2 1 1 1 1 3 2 2 0 1 2 1 1 1 1 3 3 1 1 3 1 1 3 1 2 2 3 2 3 0 2 1 2 1 1 1 2 2 4 2 2 2 3 1 0 1 0 1 2 2 2 1 2 1 1 1 2 1 4 2 0 2 2 2 1 2 3 2 0 2 1 2 2 2 0 1 2 2 3 2 1 0 3 1 1 1 1 1 2 1 0 1 2 1 1 2 1 1 0 1 2 2 1 0 4 2 2 1 1 2 1 1 0 1 1 1 1 1 0 3 1 1 2 2 1 0 0 2 2 2 2 2 1 2 1 2 0 2 3 1 3 4 1 0 1 1 0 2 1 1 0 2 2 4 2 2 3 1 1 2 0 2 2 1 0 1 2 3 2 1 2 1 2 1 1 1 1 2 1 3 4 2 1 3 1 2 1 2 1 2 0 1 2 3 1 0 3 3 1 1 1 2 3 3 2 3 0 1 1 0 4 4 2 3 1 3 3 3 3 0 2 1 4 1 1 1 3 1 1 0 2 1 4 1 1 2 0 5 0 3 1 1 2 0 1 0 2 2 1 1 1 1 1 0 3 3 1 3 4 0 1 1 1 0 1 2 3 0 0 2 3 2 1 1 2 3 2 1 0 1 1 0 1 2 3 1 2 2 2 3 3 3 1 1 0 4 2 2 1 2 3 2 0 2 0 1 2 1 1 2 2 1 3 1 2 2 1 1 3 2 2 3 0 0 2 1 3 2 0 1 0 1 1 0 0 4 2 2 2 1 2 1 2 2 2 2 1 2 1 0 2 2 2 2 2 2 1 2 2 1 3 1 1 2 0 3 4 2 3 3 1 3 1 0 2 4 3 2 0 1 2 1 3 1 0 0 2 1 1 1 1 2 2 3 1 1 1 2 5 0 1 0 3 2 0 3 2 1 2 2 1 3 3 1 1 3 2 3 1 3 1 0 5 2 4 3 0 0 1 1 1 0 1 0 1 1 1 2 2 2 2 2 1 0 0 1 2 2 2 0 2 0 1 1 3 3 1 0 0 2 2 1 3 1 2 2 2 2 1 1 2 1 0 0 3 3 0 1 4 0 1 0 2 2 2 1 1 2 1 2 4 0 4 0 1 3 2 2 2 0 2 1 2 2 0 3 2 1 4 3 2 1 3 1 1 3 2 1 2 0 3 1 3 2 4 4 1 1 2 0 1 3 3 1 0 1 1 1 0 1 2 2 1 3 3 2 1 2 1 1 2 2 0 2 3 2 2 3 1 3 1 1 1 0 1 0 2 1 1 0 0 1 1 0 1 1 3 0 2 1 3 1 2 1 1 3 0 1 2 1 1 1 2 2 2 2 0 2 4 1 3 2 1 3 2 0 2 2 2 1 1 1 2 2 1 2 3 4 1 0 3 1 1 2 1 2 3 0 1 2 0 1 1 1 1 1 1 2 1 3 2 2 1 3 0 1 2 2 0 1 2 0 3 2 2 1 2 1 3 2 1 1 2 3 1 2 1 1 1 2 2 1 2 1 3 1 2 1 4 1 2 2 0 2 1 1 1 1 3 1 1 0 2 3 1 3 1 2 1 3 4 1 1 1 2 3 1 1 1 2 5 0 1 2 0 0 3 1 1 2 2 2 1 3 2 1 0 2 1 0 3 0 3 2 3 2 1 2 2 0 2 1 2 1 1 1 3 0 0 0 4 1 1 2 2 3 2 0 1 0 2 2 2 2 1 2 1 2 1 1 1 1 3 2 0 0 1 1 1 1 2 4 2 1 1 0 2 1 3 1 1 1 1 0 1 1 2 2 2 1 1 3 1 2 3 0 3 2 1 0 1 2 1 0 3 1 1 3 2 2 2 0 0 2 2 3 1 2 1 1 3 0 1 2 1 1 2 1 1 3 2 0 2 0 2 3 2 1 2 2 1 1 2 0 2 1 5 2 3 2 2 3 0 1 2 2 1 1 3 1 1 4 2 2 3 1 0 2 0 2 1 2 1 4 1 2 1 1 2 1 3 1 1 2 2 2 2 1 0 1 1 1 2 1 3 0 0 1 1 1 2 0 1 1 2 1 3 3 2 1 3 2 1 1 3 1 2 4 1 2 1 2 2 0 0 0 2 3 3 1 2 2 0 2 2 0 3 2 2 1 1 3 0 3 3 1 2 1 2 3 3 1 1 0 1 1 1 2 0 3 3 2 4 0 0 1 0 1 0 0 1 3 1 4 3 2 3 0 2 3 1 3 0 2 2 1 1 0 3 3 1 2 3 0 2 0 1 2 1 2 1 2 1 2 1 1 2 3 1 2 2 0 5 0 1 2 1 1 3 3 1 1 1 3 1 1 1 2 2 1 0 3 0 3 0 3 2 1 2 2 3 1 2 3 2 1 1 0 1 1 0 1 2 2 1 1 0 3 1 1 3 2 1 2 1 3 3 1 3 1 1 1 2 2 3 0 1 3 1 2 0 3 6 1 4 2 3 3 2 1 1 3 2 2 1 4 2 4 2 2 1 0 1 1 2 1 2 1 1 2 2 1 0 1 2 3 3 2 3 1 0 1 2 3 1 1 1 1 4 3 1 2 2 2 2 2 1 1 2 1 1 1 3 1 3 1 3 1 4 2 1 1 1 2 7 1 3 2 1 0 4 0 4 1 2 1 1 2 2 2 3 2 3 2 2 2 3 2 1 0 3 2 2 3 2 3 1 4 2 1 2 1 2 2 1 2 3 1 2 0 2 2 0 0 2 3 3 2 1 1 1 2 1 0 3 1 1 2 1 2 4 0 1 1 1 0 3 0 3 0 2 1 3 1 3 2 1 0 1 3 0 0 2 1 3 0 0 2 3 1 2 2 1 1 3 2 1 2 2 2 3 1 0 1 2 1 2 3 1 3 4 1 1 3 1 0 3 3 0 1 1 1 1 2 2 1 2 1 2 1 0 2 0 3 3 2 2 0 0 0 0 1 0 1 3 3 2 1 2 1 0 3 1 2 1 0 2 1 1 2 1 1 1 2 2 2 2 4 0 1 2 1 2 4 3 1 2 1 0 0 2 4 2 1 4 1 0 2 1 2 0 5 1 1 0 4 2 2 1 2 0 4 2 3 1 2 1 2 2 1 2 1 0 1 2 1 1 0 0 2 2 2 3 2 2 0 1 1 0 2 1 2 4 1 1 1 3 2 2 2 1 0 1 2 2 0 0 2 2 2 2 0 2 0 3 1 1 1 1 1 2 3 1 4 2 1 0 1 2 1 3 1 1 3 0 1 1 2 1 2 2 2 0 2 2 0 2 3 1 1 1 0 3 2 1 1 3 3 1 4 1 2 1 2 3 1 2 0 3 2 0 1 2 2 3 1 2 1 1 2 2 1 1 2 2 1 1 2 2 2 2 1 1 2 2 1 1 3 3 0 2 1 1 1 2 1 2 0 1 2 1 0 3 4 1 2 1 2 1 1 0 4 1 1 1 1 1 2 3 2 0 2 2 2 1 3 0 3 0 1 2 3 2 2 1 2 2 2 1 2 2 2 3 2 1 2 1 1 1 3 1 2 2 1 1 0 2 3 1 2 1 1 1 1 1 2 2 3 1 1 3 0 0 0 2 3 3 3 1 1 2 2 1 0 1 3 1 4 1 2 2 1 2 1 0 2 4 1 1 3 1 2 1 1 2 4 1 1 1 3 1 2 1 2 0 2 3 0 2 2 0 0 1 2 2 1 2 0 0 2 0 2 0 2 0 2 0 2 3 1 0 1 1 1 1 2 3 2 0 1 1 3 1 1 1 1 1 1 1 1 3 2 2 2 2 2 2 2 1 2 3 2 1 1 1 0 2 1 4 1 1 1 1 3 2 1 0 1 1 0 3 1 2 1 1 3 0 1 2 0 2 1 2 2 2 2 1 1 0 2 0 0 1 2 1 1 0 3 0 2 2 3 1 3 2 2 0 1 2 2 2 1 0 2 2 1 3 1 1 1 1 1 2 2 5 2 2 2 4 1 1 1 1 0 2 2 2 0 1 2 1 3 1 1 2 2 2 2 2 0 1 1 1 3 1 2 2 2 1 1 2 4 3 0 2 2 0 1 2 3 1 0 1 1 1 1 1 3 1 1 0 3 2 2 2 1 2 3 0 2 0 1 2 1 1 2 2 1 2 1 1 3 2 0 3 4 0 1 3 0 1 1 4 0 2 4 1 1 1 4 2 2 0 1 2 1 0 3 3 3 2 3 1 0 1 1 3 2 3 1 1 2 4 0 3 2 3 1 2 1 1 0 2 1 0 1 2 2 2 2 3 0 1 0 0 1 1 1 2 1 1 1 1 3 2 2 2 2 1 1 1 0 1 1 1 0 1 1 2 2 1 1 0 1 2 2 2 2 1 2 5 4 2 2 1 2 4 0 1 1 2 1 1 2 3 1 0 1 1 4 1 1 0 3 4 2 3 1 2 3 0 1 1 2 0 0 0 2 1 0 0 2 1 3 1 1 3 2 0 0 2 2 3 0 5 1 2 3 1 2 2 1 1 1 2 2 1 1 1 1 1 2 2 3 0 0 0 0 2 0 2 0 3 3 3 2 2 0 0 0 2 3 2 2 1 3 1 1 1 2 1 2 2 1 2 2 3 2 1 2 0 3 0 3 2 0 1 1 1 2 4 1 3 3 2 3 1 1 3 1 4 3 3 2 1 1 1 1 1 3 2 1 2 3 2 1 2 0 0 2 1 2 0 0 3 1 1 0 1 0 1 2 1 1 2 2 3 3 1 1 1 2 3 2 2 1 1 1 2 0 0 1 1 2 0 2 1 1 2 2 3 2 1 2 1 2 2 2 1 0 0 1 0 1 3 1 3 3 2 3 3 1 3 1 1 2 0 2 2 2 2 0 1 2 2 1 1 2 2 2 3 1 0 2 1 5 1 3 1 1 1 3 1 0 2 1 2 1 5 2 3 2 3 1 2 0 1 2 3 0 3 3 3 1 0 1 4 1 3 2 1 3 4 2 2 3 1 0 3 2 0 1 3 2 1 3 1 3 3 0 2 1 1 0 2 0 3 3 0 0 0 2 1 1 3 2 1 2 1 0 3 2 2 3 1 1 1 1 0 2 1 0 1 1 1 0 2 1 2 3 3 1 1 2 1 1 1 1 1 0 0 1 2 2 2 2 1 2 2 2 1 2 1 1 0 1 3 2 1 0 2 0 1 2 1 1 0 2 2 2 1 3 1 1 1 1 2 1 2 2 1 2 3 1 3 2 3 2 0 0 1 1 1 2 2 2 2 3 1 0 3 0 1 0 2 4 0 1 1 1 1 3 2 4 1 2 1 1 2 1 4 2 2 1 1 1 1 1 2 1 0 1 1 2 3 2 1 0 1 1 2 1 2 2 1 2 1 1 1 1 2 3 2 0 3 2 3 2 2 2 0 0 1 2 3 2 1 2 0 1 1 2 0 1 2 2 2 0 2 1 1 2 2 1 2 1 2 0 1 2 1 3 0 0 1 2 1 0 1 1 1 2 1 1 2 1 1 3 2 2 1 2 1 1 2 0 0 1 1 1 2 3 1 1 3 3 0 0 3 1 0 1 1 3 2 1 1 1 0 3 1 2 3 1 1 3 1 2 2 2 3 2 2 2 0 2 4 2 0 0 3 1 3 2 1 3 0 0 0 2 2 1 2 1 1 4 1 2 1 1 2 1 1 1 2 2 1 1 0 4 1 4 3 1 0 2 0 1 1 3 2 0 2 2 1 1 1 2 3 1 2 1 2 0 2 0 1 1 3 0 3 2 3 2 2 3 2 2 0 2 1 0 2 1 2 2 2 2 1 1 1 1 2 1 3 0 2 0 2 2 2 2 2 1 1 2 1 1 1 1 2 1 1 2 2 1 1 2 3 1 1 1 3 2 0 3 0 0 2 0 0 2 1 2 2 2 2 2 3 0 1 1 1 0 1 2 3 3 1 1 2 2 0 1 3 2 0 1 1 3 1 2 2 2 1 3 5 0 0 2 1 3 2 1 1 1 1 2 2 0 2 1 3 1 0 2 2 1 1 0 1 1 2 1 2 2 0 3 2 2 2 2 2 1 2 2 0 0 1 2 1 1 0 2 2 2 2 3 1 1 4 1 1 4 0 1 1 2 1 1 1 1 2 1 0 1 3 1 3 2 1 2 2 1 2 3 4 0 1 4 2 3 0 2 2 1 2 4 1 1 2 1 3 2 1 3 2 1 3 3 0 2 1 3 1 0 0 1 2 2 0 0 1 1 3 3 1 1 1 2 2 1 3 1 2 2 0 0 2 2 0 2 2 1 2 1 0 3 1 3 1 0 1 0 1 1 3 1 1 1 1 1 0 0 5 2 2 0 2 2 1 2 1 0 2 0 0 1 2 1 1 1 2 3 2 1 1 4 2 1 2 3 2 2 2 3 1 1 3 1 1 1 4 0 4 2 1 1 0 1 2 1 2 1 2 2 2 1 2 0 3 0 4 3 2 2 1 2 1 2 2 1 1 1 2 5 2 1 2 1 3 1 1 3 2 2 0 2 1 1 1 1 2 2 2 0 1 1 2 2 2 0 0 0 3 0 1 1 1 1 1 1 1 2 1 0 3 3 4 2 2 1 1 2 0 3 1 0 1 4 2 2 0 1 1 1 4 1 5 3 3 2 1 1 1 2 4 0 1 2 3 2 3 0 1 1 3 2 2 1 1 2 3 2 1 0 1 3 1 0 1 1 2 2 0 2 1 2 0 1 1 2 1 0 0 3 1 2 2 1 3 2 2 2 1 2 1 1 1 1 1 0 1 3 2 0 3 1 0 3 2 0 0 1 2 1 3 1 2 3 2 2 0 1 2 1 3 3 2 2 1 2 0 1 1 2 3 1 1 1 2 0 1 2 1 5 1 1 0 1 0 1 0 0 2 1 2 2 1 2 0 3 1 2 2 1 1 1 1 1 2 1 1 1 2 1 4 1 1 1 2 1 2 1 2 2 0 0 1 0 0 2 1 1 1 1 0 1 1 2 1 3 2 1 4 3 1 2 3 2 2 1 2 1 1 2 0 1 1 2 2 3 3 2 2 2 2 1 2 2 2 2 2 2 1 3 2 3 2 3 0 1 1 2 2 1 3 2 2 2 2 4 1 2 1 1 2 1 2 0 1 1 2 3 3 0 2 3 3 0 1 1 0 3 0 1 3 0 3 2 0 5 1 1 0 2 2 3 1 3 1 1 4 1 3 2 2 1 2 1 1 0 2 2 3 4 1 1 0 0 0 1 1 2 0 1 2 1 1 2 1 2 1 0 1 2 1 1 2 0 1 3 2 2 0 0 2 2 2 1 2 3 2 1 1 1 2 3 1 2 0 1 1 3 2 1 2 0 1 1 2 3 1 1 0 1 1 1 1 0 2 0 0 0 2 1 2 1 1 2 0 1 2 1 1 1 3 1 1 2 2 2 3 2 0 3 2 1 4 3 3 2 2 1 0 1 1 1 1 1 0 0 2 0 0 4 3 3 2 1 2 1 2 0 2 0 0 3 3 1 1 3 1 1 4 1 2 1 1 1 2 3 0 0 1 2 2 6 1 0 1 3 1 1 2 2 1 1 1 2 1 1 1 2 3 2 0 0 1 1 0 2 3 2 2 1 2 1 1 0 1 0 1 2 0 2 1 1 3 2 1 1 1 1 3 1 1 0 1 1 3 4 1 0 1 1 1 1 1 0 2 1 2 2 1 2 2 0 4 3 2 2 2 0 0 0 4 3 3 1 2 2 1 1 1 2 2 0 1 3 3 1 3 1 1 2 1 2 2 1 2 2 1 3 1 0 2 1 2 1 1 2 3 3 2 4 1 1 1 3 1 2 0 2 2 2 0 3 3 2 2 1 3 1 1 0 3 2 1 0 2 0 2 0 1 2 3 1 0 2 1 2 0 1 0 4 3 2 2 1 0 2 2 0 1 2 0 1 1 1 1 2 1 1 2 3 1 4 2 1 1 2 3 2 2 3 0 2 0 2 2 1 3 0 0 1 2 1 1 0 1 0 2 1 3 1 2 2 3 2 2 3 3 2 2 1 1 2 0 0 1 3 5 1 1 3 0 0 0 3 2 2 4 1 3 1 0 1 2 2 0 1 3 2 1 1 1 3 0 0 2 0 2 2 1 4 0 3 1 1 1 0 0 2 1 2 1 1 2 2 1 2 2 2 2 0 0 1 1 2 2 3 1 1 2 1 1 2 0 2 2 1 2 1 2 2 2 1 2 1 2 2 1 2 3 1 1 2 1 2 1 2 1 1 3 1 4 1 2 2 1 2 1 1 2 1 1 2 0 1 0 2 2 2 0 2 3 0 1 3 4 3 1 0 3 0 1 3 3 1 0 0 0 2 1 0 1 2 2 2 2 0 1 0 3 3 0 1 0 0 1 2 4 1 1 2 2 2 2 2 1 2 1 2 3 1 1 0 3 2 0 3 0 1 2 2 1 3 1 0 0 3 2 3 2 3 3 3 1 1 1 1 0 2 1 1 3 1 1 1 1 1 2 2 3 2 2 2 0 1 2 0 3 2 2 0 2 1 1 1 0 1 2 3 2 2 2 1 2 1 2 3 1 0 4 1 2 4 2 5 1 2 1 1 1 1 2 1 2 1 1 3 2 1 2 2 3 2 1 0 2 1 2 0 0 1 1 2 3 2 3 3 2 3 1 1 1 2 0 1 2 0 0 2 1 1 3 2 2 3 1 2 0 2 0 0 2 2 2 1 3 1 1 0 2 3 1 0 3 3 0 1 1 1 2 2 3 2 4 1 2 2 1 4 3 1 1 4 0 1 2 2 1 0 1 0 1 0 4 1 1 2 2 1 1 0 1 1 3 3 3 0 0 1 1 1 1 2 1 1 1 0 1 1 2 0 1 4 1 1 2 2 1 1 1 1 2 1 2 1 2 2 2 1 1 2 1 2 2 2 2 0 2 1 1 2 1 0 2 1 1 1 1 2 1 1 1 2 0 1 3 3 1 2 0 2 1 2 2 2 3 1 2 3 5 2 1 2 2 3 1 1 0 1 3 2 3 2 2 1 1 0 3 2 0 1 2 1 2 1 0 3 1 1 0 1 3 2 3 1 2 0 1 2 0 1 2 1 2 0 0 3 2 1 1 2 1 2 2 4 3 1 2 2 3 1 1 1 3 2 1 2 1 0 1 2 1 2 4 0 1 3 3 2 2 2 2 3 3 2 1 0 0 0 2 2 0 1 1 2 2 4 0 1 2 0 2 2 1 0 0 0 2 1 2 2 0 1 2 4 1 1 2 1 1 4 2 2 0 2 2 1 3 1 3 2 2 3 2 2 2 3 1 1 2 0 1 1 2 1 3 2 0 1 1 2 2 2 2 1 1 2 0 0 0 2 1 2 1 2 0 0 3 3 0 2 1 1 1 2 2 1 2 3 1 3 0 1 0 2 0 1 1 3 1 1 4 1 1 1 1 1 0 1 2 0 1 1 0 3 1 2 3 1 1 3 3 3 1 2 1 3 1 3 0 1 1 0 1 2 2 0 2 4 1 4 1 1 0 1 0 2 1 1 0 1 1 3 1 1 2 2 2 2 1 2 1 4 4 1 2 2 1 1 1 1 1 2 0 1 0</t>
-  </si>
-  <si>
-    <t>GAM(0.4594884992262823, -7.354101386894414e-30, 0.5887092968437939)</t>
-  </si>
-  <si>
-    <t>0 0 1 1 3 0 0 0 0 0 0 0 0 0 0 1 1 1 0 2 3 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 2 1 1 0 0 0 0 0 1 1 0 0 1 1 0 0 2 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 2 0 0 0 0 1 0 0 0 1 2 0 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 1 0 3 0 0 0 0 0 1 0 0 2 0 3 0 0 0 1 0 0 0 3 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 2 0 2 0 0 0 0 0 0 0 0 0 1 1 2 1 2 0 1 1 0 1 0 1 2 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 2 1 0 1 0 3 0 0 0 0 0 1 0 1 0 1 1 1 0 2 0 0 1 2 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 2 0 1 0 0 2 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 1 1 0 3 0 0 0 2 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 1 2 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 0 2 1 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 2 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 0 0 1 0 1 3 3 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 2 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 2 1 0 2 0 1 0 0 0 1 1 1 0 1 1 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 2 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 2 0 1 0 1 2 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 1 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 2 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 2 0 1 1 1 2 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 2 2 0 2 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 2 0 0 0 1 1 0 1 2 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 2 0 0 1 1 0 0 1 2 0 0 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 1 1 1 2 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 2 0 0 1 2 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 2 0 0 1 1 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 3 0 0 0 1 0 0 2 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 3 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 3 1 0 0 1 0 0 2 1 0 2 0 0 0 1 0 2 0 0 0 2 1 0 0 0 0 0 2 0 0 2 0 1 1 1 0 0 1 1 0 1 0 2 0 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 2 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 0 1 2 0 1 0 1 1 0 1 1 1 0 1 0 0 1 0 0 0 0 2 1 0 0 1 1 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 1 3 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 3 0 1 0 1 1 0 1 0 3 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 2 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 2 1 1 0 1 0 2 0 2 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 2 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 3 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 2 4 0 1 0 0 0 1 1 0 0 0 0 2 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 1 2 0 0 0 0 1 0 1 0 0 0 0 0 3 0 0 0 0 2 0 1 0 1 2 2 0 0 0 0 0 1 1 2 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 2 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 2 1 0 1 0 2 2 2 0 1 0 1 0 0 0 0 0 0 1 1 2 0 0 1 1 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 3 0 0 2 1 0 0 4 0 0 0 1 1 0 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 1 1 2 0 1 0 0 1 0 1 0 1 2 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 1 0 1 0 0 2 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 4 0 2 0 0 0 1 0 1 0 1 0 0 2 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 3 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 2 1 0 1 0 2 1 0 2 0 0 0 0 0 0 1 0 0 0 1 1 0 4 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 1 1 3 0 0 0 0 1 3 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 1 0 1 0 0 0 2 0 0 1 0 1 0 0 0 2 0 1 1 0 0 1 1 1 1 1 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 2 0 1 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 2 0 0 1 0 2 1 1 1 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 0 1 1 2 2 0 0 0 0 1 1 0 1 2 0 0 0 0 0 1 0 3 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 3 1 0 0 0 2 0 3 0 2 0 0 1 0 1 0 0 1 0 0 3 1 1 0 0 3 0 2 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 1 2 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 1 0 2 0 0 0 1 1 0 1 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 2 0 0 0 0 0 3 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 1 1 0 2 1 0 0 2 0 3 0 0 0 0 1 0 1 0 0 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 4 2 0 0 1 1 2 2 0 2 0 0 0 0 0 2 0 0 0 1 0 0 2 1 2 0 0 1 0 1 3 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 2 0 1 0 1 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 2 0 0 0 3 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 1 1 0 2 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 2 0 0 1 1 0 1 2 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 1 0 1 1 0 0 2 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 2 0 0 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 2 0 0 1 2 0 0 1 1 1 1 0 1 0 0 0 2 1 0 3 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 2 0 0 0 1 0 2 0 2 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 2 1 2 0 1 0 1 1 0 0 0 0 2 0 1 1 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 0 2 3 1 0 0 1 0 0 0 0 1 0 0 0 1 2 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 1 1 1 0 2 1 0 1 1 1 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 2 0 0 2 0 1 0 1 1 0 0 1 2 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 2 0 0 0 1 0 0 0 1 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 2 2 0 1 1 0 1 0 0 0 0 0 1 0 0 1 2 0 0 1 0 1 0 0 2 2 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 2 1 0 1 0 1 1 0 0 0 0 0 0 2 0 1 1 0 1 1 0 0 0 1 0 0 2 0 0 0 1 0 3 1 0 0 1 1 1 0 0 0 0 2 0 0 2 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 1 0 0 1 2 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 2 1 0 0 1 0 1 0 1 0 0 0 2 0 0 0 2 0 0 0 0 1 0 1 0 0 2 0 0 0 1 1 0 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 2 1 1 0 0 0 2 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 1 0 0 2 0 0 1 1 1 0 1 1 2 1 0 2 0 0 0 0 1 1 0 1 3 2 0 0 0 2 1 0 2 0 0 0 1 1 0 2 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 2 2 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 2 0 0 0 0 0 1 0 0 1 0 1 2 0 2 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 1 2 1 1 0 0 1 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 2 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 1 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 1 0 0 2 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 2 1 0 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 3 1 2 0 1 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 1 1 1 0 0 1 2 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 2 1 0 0 1 0 1 0 1 2 0 0 1 1 0 1 1 1 1 1 0 0 0 0 2 0 1 0 0 1 2 1 1 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 1 1 0 0 0 0 0 1 1 2 0 1 0 0 1 1 1 1 0 0 1 1 2 0 0 0 0 1 0 2 0 0 0 0 0 0 0 2 2 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 2 0 0 0 1 1 0 1 1 0 1 2 1 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 1 0 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 1 0 0 3 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 1 1 0 1 0 1 0 1 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 2 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 2 0 0 0 0 2 0 0 0 0 2 2 0 0 0 0 0 1 1 0 1 0 0 0 0 1 4 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 1 1 0 0 1 0 2 1 0 1 0 0 0 2 0 0 0 0 0 2 1 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 2 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 2 1 0 1 0 1 0 1 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 2 0 0 0 1 0 0 2 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 0 0 2 0 0 0 1 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 2 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 2 1 0 1 0 2 2 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 1 0 0 1 0 1 2 2 1 0 0 0 1 1 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 2 1 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 1 1 0 0 2 0 2 0 1 1 1 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 3 0 1 0 2 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 2 1 0 1 0 0 0 2 0 1 0 1 1 1 1 0 0 2 1 1 0 0 1 0 1 0 0 0 3 1 0 1 0 0 0 2 0 1 1 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 3 2 0 2 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 2 0 1 0 1 1 0 0 5 0 0 1 0 0 1 1 1 1 2 0 0 0 0 0 1 0 1 0 1 0 0 1 0 2 0 0 0 0 1 1 0 0 1 2 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 1 0 1 1 1 0 1 0 0 3 2 0 1 1 0 0 1 1 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 3 0 1 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 1 2 0 0 0 2 0 0 1 0 0 0 2 1 0 0 0 1 1 0 1 0 2 0 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 3 2 1 1 1 2 0 1 0 0 0 0 0 0 0 1 0 1 0 1 3 2 0 1 0 0 1 0 0 1 2 1 1 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 1 0 1 0 0 2 0 0 0 1 1 3 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 2 1 1 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 0 2 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 2 1 1 1 0 0 0 0 3 0 0 0 0 1 3 1 0 2 1 0 1 0 0 0 0 2 1 0 0 0 0 1 2 0 0 3 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 1 0 2 0 1 1 2 0 0 1 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 2 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 1 3 0 1 0 0 1 0 2 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 1 1 1 1 2 0 0 0 1 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 2 1 0 0 1 1 0 1 1 0 0 0 1 0 1 2 0 1 2 0 3 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 1 1 1 0 0 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 3 1 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 3 0 1 1 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 1 2 1 0 0 1 0 1 0 0 2 0 0 1 0 0 2 1 0 0 0 0 1 0 0 1 1 0 1 0 0 2 0 0 1 0 2 0 2 0 1 0 0 0 1 1 0 0 0 0 1 2 0 1 0 0 0 1 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 1 0 2 0 0 1 0 1 0 1 1 1 0 2 1 0 0 0 0 0 1 0 0 0 1 2 1 0 1 0 0 0 0 0 2 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 3 2 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 1 1 0 0 1 2 0 0 2 2 0 1 0 0 0 0 0 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 2 0 0 1 1 1 1 2 1 2 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 2 1 2 0 0 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 2 1 0 0 1 1 2 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 1 2 1 0 1 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 2 1 0 1 0 2 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 2 2 0 0 3 0 0 1 1 2 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 2 0 3 1 0 0 1 0 1 0 2 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 2 1 2 1 0 0 1 0 0 0 2 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 1 2 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 2 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 2 1 0 0 0 1 0 0 3 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 1 0 1 0 2 1 2 1 0 0 0 0 1 0 0 1 2 0 0 0 3 0 1 0 0 0 0 3 2 2 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 2 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 2 0 1 1 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 2 0 3 2 0 3 0 1 1 2 2 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 0 0 1 0 1 0 1 1 1 1 0 0 1 1 0 0 1 1 0 0 2 0 1 0 1 1 0 1 0 0 2 1 0 1 1 2 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 2 1 1 3 1 0 1 0 0 0 0 1 0 1 0 2 0 0 1 1 1 0 1 1 2 0 1 1 1 2 1 0 1 3 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 2 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 2 0 2 0 0 0 0 2 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 2 0 1 0 2 0 0 2 0 2 3 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 1 2 1 0 1 2 2 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 3 0 1 1 0 0 0 0 0 1 1 0 2 0 1 0 1 2 0 0 0 1 1 1 0 0 1 1 0 0 1 1 0 0 0 0 1 2 0 2 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 2 1 1 0 1 0 0 0 0 0 2 0 1 2 0 1 1 1 0 2 0 0 2 0 0 2 2 1 0 1 0 1 1 0 0 0 2 1 1 1 0 3 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 2 1 0 0 1 0 0 0 0 2 4 0 1 1 1 0 0 0 1 0 0 2 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 1 2 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 1 0 1 1 1 1 1 2 0 0 1 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 0 2 0 0 1 1 1 0 2 1 0 0 0 1 0 1 2 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 1 0 0 1 0 2 0 0 0 0 1 0 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 1 2 1 0 1 0 0 1 0 0 1 0 0 1 0 0 2 0 0 0 0 2 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 2 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 2 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 1 1 0 1 0 1 0 0 1 0 2 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 2 2 1 0 0 1 0 0 1 0 1 2 0 0 0 1 0 2 0 0 1 2 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 2 0 0 1 0 2 0 0 0 0 2 0 1 0 0 2 0 1 0 0 1 1 1 1 1 0 1 1 1 1 0 2 1 0 0 2 0 1 0 0 0 1 1 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 2 1 0 2 2 1 0 0 0 1 1 2 0 0 1 1 0 1 1 1 0 0 0 0 1 1 0 0 0 2 1 1 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 2 0 1 4 1 0 0 0 0 0 0 2 0 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 2 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 2 1 2 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 2 0 1 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 2 0 1 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 0 0 0 0 2 1 1 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 0 2 1 0 2 0 1 2 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 1 0 2 1 0 0 2 2 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 2 2 2 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 2 1 0 1 1 0 0 0 0 1 0 0 2 1 0 1 0 0 1 0 0 0 0 2 1 1 0 0 0 2 0 0 2 0 2 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 0 2 0 0 1 0 0 0 0 2 2 0 0 0 0 0 0 0 1 4 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 0 0 2 0 0 0 0 2 1 2 0 1 0 1 0 0 0 0 0 0 2 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 1 1 0 1 0</t>
-  </si>
-  <si>
-    <t>JSU(-10.941243124685872, 6.974272037441294, -128.64517840269104, 94.90022329621839)</t>
-  </si>
-  <si>
-    <t>87 41 112 126 18 80 51 110 52 53 132 78 105 121 143 186 91 110 116 82 124 68 44 92 62 91 65 122 104 151 104 99 77 108 131 19 52 162 63 110 64 86 149 98 108 42 93 72 50 116 127 173 105 101 82 44 51 93 149 60 79 173 125 128 42 91 89 58 87 78 32 49 69 65 114 86 72 75 104 65 114 124 61 72 96 47 85 146 79 93 50 90 134 126 124 47 130 114 99 67 113 60 86 95 44 85 93 86 74 102 86 56 78 68 62 74 60 62 138 69 94 63 147 65 60 53 91 164 127 103 57 77 46 78 68 136 106 94 64 58 57 50 54 92 60 60 128 121 38 54 132 69 70 95 78 95 121 144 81 69 55 44 94 129 84 77 83 157 39 43 88 49 78 126 45 91 54 109 86 47 87 58 97 107 65 115 75 73 97 57 105 21 131 90 113 88 93 98 115 100 62 100 136 57 88 67 69 90 110 66 201 71 67 76 63 75 100 93 149 57 80 71 71 97 45 102 15 147 66 106 92 127 231 133 136 88 101 126 24 27 107 119 71 135 80 81 97 40 74 81 125 67 114 118 98 78 44 86 58 97 103 85 58 35 111 88 61 61 135 62 144 31 69 136 40 96 164 80 73 54 40 86 112 105 81 103 41 96 176 90 97 44 106 127 52 73 70 92 150 130 81 123 29 48 79 58 89 60 143 125 45 92 108 32 90 46 38 125 119 144 82 124 100 115 153 93 95 87 172 63 124 51 70 55 71 99 142 115 56 157 23 107 75 75 85 57 58 57 104 126 146 123 20 114 38 74 118 124 28 30 105 130 70 69 92 53 78 116 58 143 59 51 101 142 47 129 154 95 100 164 120 88 101 103 94 124 50 60 90 89 84 97 101 103 45 115 95 54 107 78 77 113 45 60 90 42 85 53 107 104 136 19 122 107 101 103 45 100 93 35 102 79 133 114 146 122 82 67 144 50 83 129 118 88 73 91 119 57 103 82 158 97 166 140 51 87 88 121 124 94 67 194 68 104 78 141 55 120 63 78 162 135 129 81 100 61 122 59 85 21 123 125 126 83 65 106 80 62 91 98 62 104 54 66 71 70 91 54 108 117 81 70 102 128 92 66 128 140 136 54 139 85 51 111 83 148 92 63 161 63 63 98 58 97 53 112 90 49 122 56 76 156 142 105 86 73 65 93 96 116 90 102 161 105 115 99 70 148 84 53 25 92 98 101 110 111 68 122 100 125 112 151 40 86 120 92 163 160 105 84 36 99 101 222 23 133 50 56 96 106 74 117 68 88 91 79 117 83 51 57 35 113 140 93 56 63 75 77 118 79 88 19 62 96 115 92 62 156 114 107 98 140 96 146 61 59 133 111 55 83 129 75 76 50 164 43 94 102 80 82 72 112 13 95 115 118 116 126 19 107 158 109 125 77 51 56 103 108 146 139 88 83 77 94 96 66 124 67 77 117 65 79 125 79 85 51 97 94 67 114 115 77 57 109 82 70 48 74 103 136 74 66 83 45 80 135 113 83 65 108 87 129 53 70 100 37 42 117 120 95 128 89 105 98 81 114 73 122 69 84 35 81 54 73 140 63 30 74 78 75 47 106 98 86 97 123 38 113 147 25 79 115 74 61 103 76 71 89 118 87 29 71 58 31 153 104 59 101 110 56 57 59 137 125 188 66 81 152 98 66 128 97 84 113 111 59 101 148 43 83 129 42 182 133 99 82 87 79 119 121 129 106 85 62 110 100 97 132 135 87 82 51 43 158 80 46 87 136 148 140 53 115 94 87 38 82 61 85 54 60 128 146 57 79 78 95 96 29 44 94 56 80 108 107 69 75 91 43 104 74 91 69 147 77 76 127 95 88 126 99 135 17 43 33 51 42 58 68 113 87 141 119 107 63 132 36 59 61 69 136 123 115 77 143 93 61 39 116 139 66 83 68 102 91 73 70 48 73 84 114 161 77 113 72 51 70 110 159 65 106 92 133 114 48 23 85 193 65 128 160 132 34 40 91 152 34 63 75 103 212 34 85 108 24 156 69 125 107 134 47 121 45 118 158 82 84 122 52 23 48 72 110 74 78 119 65 82 121 67 113 116 70 64 79 189 73 88 77 90 136 82 109 15 94 98 49 70 116 96 132 57 63 139 55 96 93 59 74 89 118 148 89 106 117 68 63 131 45 80 67 125 77 126 67 118 72 84 121 82 42 130 85 57 13 82 67 134 94 58 92 123 88 107 107 77 74 83 49 146 77 68 102 70 82 133 50 105 38 37 86 82 131 95 113 81 123 66 96 77 95 129 38 84 129 60 56 64 69 71 120 78 77 33 89 50 89 73 25 110 123 134 182 147 92 86 106 42 146 72 94 155 30 61 114 87 103 99 133 47 79 57 73 90 91 85 108 88 82 105 157 83 96 79 86 118 129 62 74 87 113 162 53 81 57 88 92 50 65 79 96 109 37 135 108 106 52 100 104 123 120 97 58 76 53 32 81 112 67 42 85 138 117 18 94 88 113 63 68 74 128 87 94 86 31 73 94 139 104 145 81 78 62 60 92 43 76 128 27 139 160 106 110 178 70 110 146 41 139 87 81 47 117 109 142 124 19 59 100 76 113 57 117 45 111 21 114 65 101 82 103 86 115 115 59 110 172 98 118 70 154 128 120 71 125 138 48 81 76 72 96 97 122 59 186 109 101 61 50 71 129 90 90 125 153 86 115 65 85 90 61 82 45 60 70 80 49 105 38 91 108 70 51 71 67 158 53 76 126 80 121 69 147 118 56 100 123 57 122 105 123 135 85 16 74 79 68 56 11 61 99 80 119 97 104 87 138 76 152 90 111 107 63 33 118 92 86 85 42 128 151 67 87 101 92 96 111 156 108 90 60 63 63 37 58 180 15 100 58 44 101 83 105 100 66 86 85 147 45 143 85 128 94 110 132 96 112 70 72 65 67 45 95 88 83 54 104 80 36 82 74 74 107 104 82 63 86 105 115 89 95 143 63 62 42 99 132 50 113 107 94 145 97 97 123 78 59 85 105 62 65 96 104 51 62 131 131 74 96 99 123 121 62 105 86 146 36 69 173 74 94 42 74 140 36 45 113 72 132 88 69 126 81 51 86 97 73 88 18 102 73 77 116 165 79 41 64 88 127 87 110 54 99 54 122 94 122 69 53 150 66 71 116 44 58 75 59 30 63 97 45 100 129 155 63 68 68 75 68 110 126 66 36 63 92 98 97 75 82 21 134 113 59 118 72 58 65 89 139 87 48 125 56 135 103 150 87 73 23 35 140 134 49 60 92 60 77 86 81 111 132 91 128 49 110 93 91 143 125 72 88 53 62 83 100 86 117 77 99 65 22 92 95 4 114 81 97 48 105 205 73 86 80 17 121 125 123 103 100 139 86 137 148 105 61 127 142 94 135 79 94 127 45 17 121 54 62 67 42 121 67 96 48 128 87 73 75 59 140 144 113 188 109 85 70 77 104 97 129 128 73 130 138 43 45 45 54 110 84 52 91 124 82 86 101 141 119 30 67 72 134 53 148 86 81 82 45 71 106 70 95 115 116 66 224 74 129 100 98 181 109 118 93 70 163 120 106 58 103 48 91 77 84 143 105 106 18 92 71 96 129 92 90 99 87 50 113 65 20 70 33 90 120 121 138 20 52 78 107 91 87 104 119 103 82 49 83 64 91 86 92 107 142 37 115 107 117 91 36 95 85 59 112 88 196 71 59 76 134 100 43 102 82 189 83 124 77 90 66 74 106 132 139 82 87 77 144 131 94 62 148 28 132 57 70 124 95 129 113 79 68 70 115 180 118 111 150 96 73 154 105 106 91 72 109 89 157 123 95 61 79 111 141 69 67 50 109 77 115 44 63 73 129 148 28 70 50 56 90 12 54 80 98 25 92 94 57 130 77 67 109 95 138 142 53 69 52 128 68 109 91 104 114 99 39 55 81 105 80 106 120 130 78 162 64 40 76 113 114 120 50 121 81 58 90 131 152 58 72 75 143 125 174 131 65 53 94 48 169 74 35 88 101 92 77 110 111 141 60 110 68 60 185 90 128 100 75 131 132 61 121 147 49 87 85 110 105 128 87 168 60 75 65 113 58 113 112 56 23 91 49 57 70 60 51 68 70 119 40 81 64 153 136 72 57 44 122 87 28 73 51 46 51 112 70 72 70 55 113 86 83 46 52 68 79 28 135 102 149 40 145 227 59 65 7 98 109 100 38 121 24 66 85 74 125 120 87 110 152 70 85 91 195 112 36 114 68 132 104 49 47 147 84 129 42 123 94 115 61 55 75 108 71 100 66 125 89 38 94 67 72 61 101 88 55 99 78 76 150 104 26 115 83 61 92 68 45 148 111 102 70 71 123 167 57 56 72 90 105 49 119 49 53 89 64 96 111 97 40 55 63 121 112 55 43 92 95 126 96 98 75 98 63 81 95 122 63 83 138 102 61 52 101 141 157 143 111 124 38 114 92 75 40 27 70 70 53 138 97 103 66 124 68 68 78 97 95 54 57 99 93 104 97 78 86 51 70 73 106 125 105 91 86 150 50 87 56 123 65 177 122 97 45 70 72 146 139 102 67 91 92 117 101 92 113 94 131 64 142 64 66 68 103 140 117 75 130 64 77 103 84 124 75 74 119 19 74 75 145 111 146 96 113 110 115 106 145 39 77 54 114 64 70 77 97 115 209 86 75 117 84 99 48 83 162 11 97 92 45 84 129 71 124 68 82 21 96 85 83 74 58 101 114 99 42 106 142 21 70 102 91 233 165 136 39 57 67 109 50 115 84 122 38 112 131 146 113 59 72 55 92 50 105 116 117 74 67 88 149 69 96 174 79 139 119 73 96 102 85 85 128 63 72 67 75 68 86 81 116 69 96 92 97 139 123 78 103 88 61 115 133 82 35 116 82 46 81 95 56 87 87 115 105 75 115 120 145 142 113 120 28 90 100 102 142 102 139 136 61 41 51 60 79 54 74 82 106 84 75 53 65 99 89 41 134 128 142 104 100 141 77 66 98 95 116 132 184 106 132 73 53 57 108 96 47 120 71 81 83 99 108 60 73 95 149 63 97 113 23 72 115 143 113 108 111 77 99 59 50 83 131 111 37 83 26 56 50 52 114 116 113 47 37 107 69 63 103 106 124 17 97 108 32 49 53 65 112 45 86 61 59 102 19 84 52 106 67 54 69 155 136 48 107 64 107 65 106 165 108 91 37 81 39 70 146 151 63 137 66 77 128 77 54 100 74 61 81 118 111 127 80 34 97 98 77 81 72 87 63 71 76 98 100 60 150 89 179 95 126 46 86 116 97 124 42 107 62 53 147 113 42 147 54 157 169 42 99 111 54 76 133 98 161 88 79 87 27 83 84 139 105 94 123 112 100 99 132 85 74 116 94 112 125 93 55 107 108 24 133 41 79 87 93 111 65 86 105 61 129 56 95 76 159 97 116 122 145 49 50 108 74 68 81 70 100 138 52 147 96 74 68 31 85 92 116 97 144 72 109 52 71 117 76 85 102 80 68 92 142 73 100 99 78 84 105 42 122 53 114 68 32 127 90 70 146 196 65 126 30 59 87 134 50 82 100 50 103 87 125 122 125 117 136 21 84 77 67 93 43 109 54 111 90 29 69 76 39 128 132 82 93 95 144 98 160 78 41 172 92 62 119 54 125 41 53 100 65 47 80 79 47 49 37 65 118 128 94 44 48 45 46 69 18 49 170 65 97 161 81 96 80 53 48 135 83 101 122 117 139 66 107 115 115 54 68 97 96 98 152 66 85 137 135 82 151 104 86 106 165 92 81 73 53 92 9 91 25 128 74 148 154 99 101 95 70 56 116 80 130 118 45 116 92 83 64 153 143 53 123 46 112 131 161 98 55 54 117 47 61 42 9 105 100 109 71 81 70 34 86 103 91 176 63 123 131 78 101 72 72 148 112 63 53 79 113 129 53 88 65 122 105 28 100 224 102 106 28 82 90 95 97 91 82 140 87 77 88 137 86 77 39 82 74 86 44 38 129 84 113 39 63 126 95 94 84 46 137 127 108 124 93 69 99 143 117 37 196 115 62 70 95 110 40 26 61 48 52 118 150 74 57 89 108 92 44 143 105 119 107 143 50 55 68 66 69 102 108 131 110 55 149 96 101 79 120 107 101 41 74 108 75 69 121 155 62 103 119 99 19 120 166 52 50 62 84 119 63 121 99 55 24 41 41 100 124 114 73 103 87 93 132 77 120 93 45 73 26 93 35 23 112 104 75 122 64 130 49 58 116 83 120 129 68 87 107 124 125 114 143 132 100 104 80 159 46 59 71 72 119 59 92 102 43 131 100 64 154 172 41 105 72 114 95 93 61 83 111 60 164 176 35 72 123 56 53 128 58 69 74 169 102 88 66 103 110 77 99 81 114 86 84 92 64 109 112 85 91 75 23 95 147 68 176 65 80 58 120 95 111 103 97 73 59 47 59 140 48 52 79 111 71 66 57 92 130 62 85 98 135 98 112 128 92 104 79 47 57 84 142 153 82 140 106 138 91 123 108 122 106 106 60 178 52 103 102 61 59 39 112 150 76 78 40 158 70 70 83 78 77 109 63 139 87 72 63 69 112 105 113 104 83 73 52 95 113 70 68 36 68 72 61 69 126 74 43 146 119 15 93 81 122 73 121 154 106 64 61 98 83 119 75 92 94 58 116 130 59 96 44 87 58 140 59 55 82 98 79 93 64 122 107 90 100 126 116 166 103 146 38 48 129 48 77 62 49 106 84 117 162 82 64 86 29 53 39 121 86 130 45 96 98 138 72 95 89 154 89 56 137 37 60 95 71 32 82 152 127 71 123 39 90 63 87 93 82 76 134 79 74 56 34 131 93 49 64 150 61 77 82 101 58 131 94 168 12 106 66 114 52 80 121 122 74 97 43 109 67 47 46 109 85 119 47 24 176 135 79 38 95 129 74 102 31 119 166 32 23 81 99 115 192 93 91 127 36 46 94 57 123 7 95 106 75 101 172 124 50 98 131 160 56 79 99 67 50 91 101 58 87 70 90 71 102 96 91 83 112 175 33 117 112 54 92 69 162 56 42 113 127 73 32 108 132 114 68 156 27 40 126 44 59 101 70 74 57 59 104 66 66 123 111 68 102 101 95 107 23 105 121 72 75 60 80 75 90 117 93 79 134 101 73 80 110 87 167 107 25 129 60 72 94 92 47 73 100 90 97 96 158 40 35 128 79 69 116 119 84 66 77 87 51 37 61 175 98 46 77 16 53 152 82 110 165 132 51 88 73 91 90 91 177 77 137 110 105 51 131 167 91 101 106 160 61 106 65 122 101 106 85 104 58 172 143 78 89 97 95 72 137 129 139 70 85 121 109 119 88 75 50 79 46 36 105 79 78 60 141 92 144 57 86 57 115 46 59 92 103 57 58 40 95 182 151 111 67 16 22 67 90 87 117 64 106 92 78 65 92 119 83 79 156 67 74 99 56 112 96 67 101 112 102 89 68 67 26 107 113 113 112 133 89 74 93 110 182 42 58 90 97 88 125 102 141 82 50 22 134 79 104 185 130 100 47 135 109 39 81 69 91 113 59 128 58 94 90 105 75 122 83 111 82 124 74 64 66 30 109 89 72 67 60 85 119 120 47 97 158 165 57 148 59 106 111 80 110 89 179 68 98 127 133 87 143 150 70 80 100 106 163 61 107 72 110 109 91 113 98 79 90 82 112 189 68 95 89 71 121 131 132 57 121 110 67 93 40 35 109 80 60 67 82 71 110 97 124 66 77 109 90 18 108 43 65 57 88 102 28 87 129 112 76 54 108 105 103 118 106 93 121 161 137 17 95 67 82 57 71 80 71 124 102 102 86 28 85 115 49 61 99 107 128 72 211 71 111 87 83 94 99 114 119 156 72 148 125 73 80 94 130 120 131 70 114 103 28 136 84 65 148 81 140 60 68 80 75 160 63 59 48 164 86 105 102 97 85 131 142 70 137 74 132 60 108 75 58 63 142 139 150 46 164 32 71 64 110 182 124 73 106 137 128 72 70 133 83 88 61 56 82 100 106 52 108 90 88 137 106 70 84 74 62 147 90 62 152 80 104 91 89 42 47 49 124 130 100 125 89 59 61 134 93 78 61 71 83 109 50 98 49 75 194 104 48 36 49 178 85 144 147 76 143 63 85 96 91 87 102 128 78 131 54 87 138 83 124 109 132 96 101 51 131 86 110 112 127 108 21 38 87 92 152 95 69 75 45 80 113 125 89 66 42 92 54 130 77 115 141 100 135 39 58 50 124 65 83 93 146 140 97 89 107 91 174 21 137 42 21 171 87 50 94 84 81 101 92 66 33 95 117 28 75 89 170 147 12 129 83 69 81 94 97 118 31 116 93 123 106 140 124 145 137 133 77 54 71 73 109 150 49 128 58 159 92 76 94 79 92 72 123 55 52 126 83 94 127 99 58 25 144 164 155 108 75 89 115 144 48 86 21 46 59 108 132 82 115 141 105 123 98 93 83 170 145 136 77 20 25 165 37 44 84 197 87 135 87 93 50 78 123 112 152 62 79 141 76 37 57 97 113 84 98 55 85 81 136 134 57 72 64 47 79 28 97 54 58 101 105 69 62 125 90 106 119 70 87 143 81 114 21 57 79 84 37 66 34 109 108 131 64 87 58 124 88 43 86 107 39 84 49 116 53 122 85 125 193 72 77 104 138 73 119 53 32 86 92 60 89 40 93 81 16 75 121 101 41 124 86 90 73 159 121 96 51 160 112 82 110 91 121 78 63 75 95 94 87 86 124 89 158 110 68 59 87 77 63 109 74 66 161 64 49 17 122 74 82 129 70 100 79 78 98 46 28 50 39 79 106 97 161 51 70 65 90 96 66 62 88 85 262 181 66 40 83 92 128 143 88 115 48 84 170 108 76 23 150 43 131 111 84 39 101 69 180 105 135 73 48 66 141 180 100 101 126 83 69 94 130 102 140 125 114 63 85 86 81 178 115 130 79 53 81 92 115 84 150 103 65 97 76 109 142 130 56 75 99 106 54 170 42 52 92 109 99 73 53 119 70 266 148 98 78 59 123 92 163 31 71 64 46 61 112 57 31 103 72 68 49 28 181 53 89 126 48 106 94 61 69 40 45 68 77 102 105 154 61 88 140 94 157 83 110 165 65 84 92 135 127 62 110 124 131 61 103 123 87 43 59 106 49 30 144 80 81 87 78 93 94 142 164 75 107 80 49 37 82 121 154 46 124 91 50 59 81 62 73 49 71 113 192 40 82 36 140 68 84 98 102 80 106 153 105 64 115 140 100 42 49 96 53 81 123 80 46 41 55 196 132 116 69 94 226 94 23 76 62 37 74 153 109 90 126 76 99 44 96 110 115 69 56 101 173 107 80 32 45 118 108 67 45 139 147 109 94 43 83 85 95 72 90 58 133 46 102 104 89 7 54 70 137 47 82 103 80 110 54 103 98 109 61 89 47 100 81 93 83 26 112 102 128 77 117 106 137 84 43 47 119 162 100 158 94 152 75 90 143 79 192 111 97 80 94 111 76 138 102 69 92 67 92 110 108 46 88 108 98 93 79 106 83 99 129 118 167 83 83 69 120 63 75 89 66 53 90 91 78 71 96 84 128 80 90 159 102 28 105 107 172 73 99 70 89 81 104 119 136 106 128 55 165 174 18 40 57 99 114 166 113 102 73 68 44 80 97 97 126 67 47 171 152 87 43 102 43 78 63 104 117 102 122 111 67 201 121 40 72 86 53 89 83 52 74 108 80 133 88 104 57 101 70 87 103 73 119 103 61 84 140 86 78 167 113 47 70 104 105 66 105 50 71 109 112 38 74 88 128 135 143 108 87 54 115 136 112 61 73 171 52 95 124 104 100 94 113 53 124 147 99 64 71 115 117 100 42 125 121 98 88 174 76 50 163 142 106 28 133 95 98 116 61 110 39 116 54 88 57 76 57 122 72 101 125 102 56 127 94 68 142 115 106 93 167 125 91 121 94 131 108 91 124 65 76 116 141 139 96 62 95 31 103 174 121 49 81 104 102 85 65 89 50 93 100 69 136 96 59 111 46 111 76 81 96 78 102 63 74 62 92 130 87 53 44 122 41 140 97 43 62 119 86 101 93 65 112 137 101 107 78 141 107 114 71 54 96 55 161 102 69 72 88 94 90 61 76 75 100 57 105 36 54 53 123 104 43 83 5 103 111 83 145 158 96 67 142 62 75 108 147 98 66 57 108 113 63 116 124 51 22 99 153 83 93 42 162 70 88 157 149 128 108 100 48 68 102 70 89 51 77 70 117 77 108 188 48 73 105 73 69 41 108 73 66 94 99 115 31 115 60 160 64 29 110 86 69 104 81 56 63 89 116 110 105 75 57 155 75 77 72 134 176 83 85 58 144 57 72 119 34 36 139 123 30 110 75 100 121 59 69 66 44 82 69 81 89 156 97 98 113 138 124 50 57 111 103 49 10 106 88 44 74 84 63 82 71 139 135 76 34 40 90 119 78 166 71 96 60 97 94 85 125 74 106 97 86 73 116 100 107 55 59 140 37 118 93 62 69 51 84 92 55 67 48 140 107 62 80 105 163 92 59 136 135 152 75 87 91 70 68 65 97 86 38 67 42 128 145 62 100 88 66 57 109 98 49 115 100 83 82 177 122 65 112 138 115 134 33 70 30 49 94 65 94 73 153 96 70 192 79 72 94 64 54 85 65 32 38 35 108 43 64 149 8 146 80 121 141 112 85 52 80 43 117 169 117 97 26 98 91 89 144 105 79 102 84 119 52 147 36 106 84 65 51 106 161 88 113 37 131 105 71 92 92 151 135 191 98 91 164 73 74 156 106 107 83 71 105 104 123 108 146 113 31 86 123 113 18 109 54 72 118 65 69 71 115 89 84 78 73 67 86 76 67 98 67 94 96 70 101 91 101 86 61 120 141 45 86 179 124 61 14 89 111 127 23 146 32 120 89 102 108 88 61 119 139 66 58 75 71 81 67 5 89 107 61 32 101 113 96 83 69 128 91 56 70 118 79 47 63 66 85 70 120 139 92 125 80 54 157 117 83 69 129 117 57 58 96 163 91 99 54 41 94 94 84 73 86 59 72 91 155 57 105 141 83 148 71 93 127 82 145 106 68 161 95 95 87 104 72 64 68 118 104 70 41 147 53 133 39 137 145 127 84 78 95 149 128 95 83 45 54 88 38 37 85 165 113 93 65 67 65 113 114 95 164 69 142 99 100 110 63 73 103 114 128 156 141 80 104 52 71 79 64 29 126 56 120 93 47 68 93 59 78 71 87 102 73 111 97 63 136 122 88 46 107 71 123 119 85 65 109 43 100 61 130 58 129 71 83 99 111 47 44 98 85 111 46 118 66 52 77 80 45 75 25 47 114 49 89 110 40 161 79 127 52 130 108 79 102 129 51 34 44 90 69 106 31 129 30 89 129 78 88 97 78 114 103 66 81 110 82 85 94 81 106 172 123 52 91 93 125 42 214 70 96 57 58 99 117 57 86 85 90 122 86 98 42 139 68 105 92 152 102 58 133 128 78 92 26 52 60 72 102 72 109 108 163 110 65 154 79 58 49 42 132 99 188 99 49 72 76 132 75 130 42 70 34 71 12 84 30 144 131 46 100 127 111 119 94 79 156 137 105 164 56 54 111 84 50 145 51 95 93 152 94 90 88 122 138 96 139 70 62 64 54 86 108 39 85 98 148 209 98 60 96 93 39 97 99 176 123 110 151 69 78 83 117 30 102 109 99 127 77 94 64 55 111 97 90 87 81 80 87 68 93 70 59 86 133 64 18 49 96 83 126 77 105 85 89 69 4 118 52 104 98 78 76 83 96 129 99 113 111 203 63 155 50 39 81 115 96 119 156 104 69 133 58 107 83 83 72 130 107 96 106 122 122 98 40 72 114 77 130 157 107 138 74 77 98 63 66 163 59 58 78 95 84 104 115 45 129 59 187 58 94 64 70 75 139 91 92 60 33 35 106 44 109 122 142 62 112 88 102 81 99 142 116 135 115 134 67 126 80 92 110 58 78 97 98 115 125 80 77 70 127 120 104 110 127 125 99 50 67 120 161 61 38 90 96 86 85 79 49 61 132 40 77 91 69 74 63 157 131 93 76 26 73 145 51 45 142 134 86 136 74 35 96 62 107 127 88 93 122 101 58 63 188 94 110 64 137 126 98 150 67 101 91 123 110 185 171 56 65 93 140 89 96 51 106 66 163 119 97 155 60 93 105 109 83 111 214 16 117 47 97 84 43 88 138 65 67 103 115 73 114 74 65 74 91 56 103 126 65 100 80 113 61 104 52 105 71 99 90 119 157 69 102 86 88 80 95 15 53 158 106 73 66 88 130 91 92 70 62 158 60 113 94 116 85 161 44 64 75 121 55 55 112 98 98 81 61 80 48 94 134 62 109 141 54 82 55 94 157 115 129 142 150 61 88 114 101 51 109 91 104 52 74 74 82 113 117 92 80 151 69 51 129 91 107 181 90 106 33 65 81 85 72 69 85 59 40 122 45 76 64 117 105 51 49 91 107 110 58 116 92 57 78 128 42 121 100 64 90 80 55 68 81 127 113 102 82 79 168 80 99 112 119 103 80 128 94 119 71 58 90 54 138 35 69 92 43 103 109 97 85 63 112 41 48 96 71 79 157 94 184 110 126 124 66 32 83 13 75 78 43 111 43 83 93 97 94 98 78 79 78 69 63 79 134 26 131 76 53 53 61 123 116 125 92 100 122 134 76 49 76 133 107 118 90 108 87 127 111 163 192 127 124 161 9 108 29 87 94 74 123 82 68 120 87 62 95 141 109 80 91 83 64 108 81 101 113 90 98 139 20 104 72 119 151 75 69 64 202 82 75 81 62 130 47 161 114 138 131 92 39 75 87 97 59 96 100 131 135 103 106 96 80 89 120 71 66 83 135 74 103 103 137 94 88 153 110 50 39 84 74 89 59 69 101 108 125 126 64 186 95 62 100 196 79 56 51 92 138 105 94 88 121 117 104 89 96 47 144 80 66 153 81 111 96 99 106 56 42 48 149 66 127 126 139 67 103 19 93 122 169 32 78 83 109 63 136 101 189 69 78 113 115 106 122 100 93 91 48 42 70 115 151 91 68 129 65 104 85 82 49 154 113 135 91 105 110 103 92 112 132 113 53 86 63 43 120 138 110 84 103 116 120 46 81 95 139 43 121 90 78 97 58 100 109 162 123 87 91 134 74 130 117 35 124 139 62 68 52 84 110 101 120 73 72 119 123 151 59 99 112 107 95 95 48 151 80 118 90 35 52 112 151 110 111 139 104 103 96 131 87 118 147 56 97 104 107 49 10 130 75 101 69 160 51 87 105 115 79 109 46 99 116 145 111 119 79 109 174 115 102 126 167 130 70 56 66 75 84 109 99 67 52 149 59 152 167 71 64 53 51 50 68 7 92 92 92 37 42 119 20 125 85 155 104 105 100 141 84 72 85 64 90 109 144 104 86 125 134 42 92 54 62 85 141 91 29 61 114 78 123 94 29 106 165 79 94 57 128 71 64 103 113 91 150 28 95 8 99 102 102 139 87 84 96 49 118 79 96 62 108 106 136 165 101 31 95 169 71 61 92 92 100 119 53 118 147 77 46 78 19 68 79 77 83 54 89 29 86 23 108 134 149 51 87 109 52 48 119 88 102 102 100 88 99 83 94 112 101 67 89 80 39 134 93 32 31 66 62 60 55 99 89 103 111 59 41 86 103 75 81 111 73 68 54 49 79 80 108 132 113 71 85 107 112 116 111 120 38 117 86 156 61 145 80 95 125 100 44 178 74 123 93 112 65 148 137 64 37 86 112 118 136 112 31 78 99 96 68 52 28 29 69 86 42 40 70 57 106 142 55 86 111 56 147 122 135 104 99 13 65 107 74 110 55 119 65 123 157 156 116 62 30 44 81 99 19 83 90 73 82 76 70 114 117 95 150 109 5 139 96 126 148 55 89 38 85 153 87 160 148 114 141 38 72 20 124 71 36 98 85 73 115 167 80 132 175 71 36 111 47 88 53 64 115 84 101 61 82 71 111 101 116 149 120 93 108 77 75 65 86 117 44 33 139 38 90 72 101 143 125 144 21 96 84 81 114 66 79 93 51 109 59 85 98 71 137 95 84 60 113 68 121 106 69 120 105 96 68 19 108 110 141 132 114 85 63 85 38 70 88 116 31 121 61 28 59 51 71 56 54 60 84 91 71 124 104 83 74 85 65 143 123 95 65 67 121 64 105 95 137 103 135 79 106 50 33 15 95 165 99 93 69 65 133 52 36 107 57 49 72 85 82 52 41 95 74 40 149 93 137 136 51 108 123 80 96 82 29 58 93 112 118 73 68 119 78 54 88 105 121 103 78 86 74 190 78 240 88 135 78 57 86 91 190 76 156 100 116 83 127 93 73 52 68 28 96 52 110 64 131 90 81 73 105 25 69 139 113 66 65 35 88 104 95 89 28 81 54 129 37 71 97 93 83 88 92 79 128 86 79 97 78 35 159 189 129 60 81 105 58 46 99 64 179 69 120 68 94 92 104 141 80 40 111 127 83 96 119 108 146 132 111 166 115 63 85 82 125 95 67 87 16 117 70 110 78 83 73 90 114 75 69 59 102 49 106 43 122 92 147 105 101 69 61 133 32 80 114 125 62 109 40 105 138 131 87 28 79 90 62 97 89 49 115 107 87 37 46 81 129 77 82 137 71 122 132 71 26 74 80 101 97 66 143 154 162 125 80 86 67 92 35 85 127 144 96 126 150 22 121 34 123 70 65 92 87 101 97 178 86 40 68 111 116 86 96 123 60 97 100 62 122 96 151 147 139 127 90 47 110 98 111 81 79 71 146 107 52 117 132 62 104 155 123 114 104 154 147 145 87 102 97 82 72 50 60 159 87 90 48 168 140 82 56 101 67 121 124 67 76 86 66 117 72 75 23 90 124 217 55 59 115 98 32 92 82 120 110 81 84 71 86 69 149 188 83 104 117 138 75 27 91 91 93 54 137 65 91 162 79 98 74 143 91 94 83 110 141 59 207 111 61 110 59 68 64 153 99 174 96 46 116 110 152 50 87 79 76 70 127 122 90 120 108 68 113 59 50 116 91 130 80 36 66 126 79 79 111 113 127 50 129 79 77 56 107 113 46 94 58 92 88 197 114 88 112 95 114 56 106 103 80 114 60 123 111 100 122 74 88 149 106 65 98 104 16 58 102 92 52 118 93 36 99 57 97 102 127 74 90 136 117 57 82 74 63 94 62 80 74 85 120 89 116 57 65 72 49 78 203 106 58 111 106 49 133 103 117 133 54 99 112 92 60 206 84 62 90 122 116 52 151 101 113 153 101 164 19 108 109 131 46 64 99 95 126 35 33 80 77 27 56 58 135 70 39 52 25 108 124 114 146 98 55 18 120 88 60 69 54 108 122 88 86 96 113 98 120 86 116 85 126 62 109 107 87 93 90 89 121 83 86 100 181 90 81 97 77 18 77 64 138 87 133 87 146 102 99 105 46 61 50 95 65 105 114 109 174 129 145 62 77 65 97 155 103 140 135 50 153 169 44 111 69 71 57 70 94 34 105 123 26 139 70 147 68 76 110 120 52 60 104 84 146 84 59 59 107 58 52 100 96 112 121 120 100 85 135 58 113 67 103 57 53 58 88 110 130 68 103 111 145 98 51 143 195 32 91 127 80 24 99 104 99 67 130 117 69 109 78 25 109 110 108 148 41 73 138 161 143 54 77 95 70 112 117 52 111 68 40 102 107 91 94 93 56 88 142 70 97 113 85 82 94 61 47 107 116 98 89 111 133 126 69 81 30 55 89 92 72 48 60 90 87 98 100 127 87 71 124 64 49 74 113 52 68 85 90 47 119 220 93 72 104 68 141 89 102 86 114 97 111 107 86 78 180 69 90 113 34 96 70 148 33 40 102 39 60 83 104 126 50 56 128 38 30 144 137 134 41 97 115 117 175 87 83 109 67 103 70 100 111 127 51 113 136 81 89 190 109 58 159 90 86 173 66 49 127 73 123 44 119 121 83 51 119 94 113 80 83 77 79 167 17 118 103 105 93 67 35 47 106 113 128 148 135 61 139 78 172 148 98 132 134 102 79 110 96 63 55 93 142 97 110 128 111 48 131 134 129 63 42 90 104 143 44 116 67 97 83 59 122 110 143 129 85 75 74 66 72 81 112 85 83 67 128 106 61 39 149 53 80 65 89 54 61 80 83 57 134 141 129 54 137 43 155 75 71 77 159 98 89 170 129 127 60 116 53 94 116 52 57 69 100 56 128 68 133 93 56 90 53 85 96 102 72 103 86 127 93 68 95 148 166 75 184 26 85 52 82 48 43 83 70 65 169 102 63 115 84 97 133 217 57 81 152 120 88 125 106 185 94 75 59 31 69 99 80 51 75 110 42 55 56 110 133 73 118 69 93 89 86 88 61 85 55 58 92 74 109 107 171 72 101 153 147 60 87 70 152 90 68 150 69 96 30 109 92 70 59 117 97 125 53 128 110 61 89 60 87 165 69 157 91 103 40 109 74 75 159 123 108 100 78 86 127 51 81 37 132 69 66 96 161 139 118 107 83 55 73 178 105 105 89 120 90 108 45 120 48 105 90 94 118 115 93 113 56 146 86 99 92 122 118 102 97 114 145 103 151 60 30 42 137 76 147 77 90 105 130 79 47 94 140 128 136 116 102 96 135 103 143 73 104 73 108 51 107 79 126 125 94 165 106 140 97 97 119 88 40 108 95 93 90 102 63 94 59 100 66 122 105 167 97 97 82 99 105 119 105 215 85 97 94 107 125 81 169 148 54 127 95 118 51 98 97 46 109 105 112 101 95 85 99 71 131 81 136 144 101 79 161 93 106 93 51 64 24 93 82 80 59 55 118 60 31 40 95 104 69 152 52 71 108 140 137 43 114 140 145 91 73 90 95 71 80 98 131 103 22 103 43 73 80 68 124 94 60 92 127 56 75 77 60 104 77 124 101 80 87 92 111 70 52 90 133 143 49 100 87 136 114 123 93 84 57 93 78 75 174 147 110 123 83 64 38 81 103 24 36 103 125 44 71 109 92 126 88 72 40 115 52 146 112 19 135 91 83 61 179 34 134 116 110 106 97 85 106 83 89 99 80 77 95 63 103 112 105 119 46 81 117 89 140 59 122 50 107 68 114 110 70 79 190 102 91 61 46 68 69 64 101 47 50 97 60 130 68 103 58 75 112 60 108 93 91 67 109 70 91 102 16 91 121 92 47 48 65 72 46 99 104 126 116 51 150 56 94 81 153 97 105 95 88 74 83 187 34 94 128 141 25 84 135 125 103 76 77 76 117 89 109 176 87 156 38 74 130 67 81 153 121 101 38 127 162 92 115 131 35 71 68 76 58 101 107 97 104 49 69 33 72 66 115 78 122 104 108 197 178 34 120 132 114 113 95 59 99 120 76 65 104 75 118 107 50 126 55 91 24 63 71 92 124 94 54 53 68 113 77 100 124 82 48 74 29 123 116 79 107 93 64 108 57 108 74 135 122 106 97 61 17 62 123 35 97 62 108 70 47 134 94 50 74 127 113 143 65 81 133 99 58 103 76 118 35 82 202 54 30 95 54 106 101 45 68 134 22 112 78 150 118 163 68 120 65 104 89 66 50 82 149 45 142 59 69 118 113 91 100 105 37 82 91 97 67 100 100 81 114 61 68 21 143 84 94 108 122 58 62 94 102 178 51 69 123 126 55 129 70 114 31 90 107 111 108 69 118 9 52 109 111 104 96 149 143 124 70 103 45 82 78 65 93 107 120 112 77 75 102 87 51 102 74 121 83 113 68 109 88 56 92 78 109 114 101 76 115 165 155 122 76 127 56 53 109 110 44 170 73 92 129 103 37 40 76 152 61 38 107 93 187 120 97 108 21 60 39 154 147 124 103 128 81 108 110 54 99 155 99 91 146 116 48 49 81 79 85 80 43 85 47 20 108 109 113 74 135 106 111 98 62 112 28 44 105 53 46 110 146 74 75 140 96 110 102 103 83 126 66 68 114 80 99 37 147 38 121 72 112 150 81 160 60 56 85 92 37 84 60 99 103 63 178 49 53 81 72 40 155 112 133 57 135 73 80 65 85 101 41 64 60 127 101 140 76 100 98 82 123 136 123 90 54 151 59 49 100 68 97 152 112 87 120 96 53 157 50 36 61 50 142 103 75 101 135 187 14 121 107 128 101 117 125 117 64 59 84 132 100 93 83 85 85 51 41 95 55 93 79 110 56 110 157 98 117 46 80 31 65 105 80 69 33 107 83 9 99 133 80 75 102 153 68 109 72 93 79 132 79 53 151 162 147 84 47 72 70 137 32 138 50 106 90 53 148 126 41 85 88 73 98 75 71 142 147 113 83 119 82 45 92 62 35 72 71 101 45 61 61 77 75 107 56 103 109 73 34 102 59 155 101 50 73 97 138 99 75 173 117 78 132 104 147 87 88 86 71 165 52 73 110 64 75 22 67 104 94 97 137 220 88 127 41 95 132 145 122 39 101 89 98 109 81 38 53 36 76 78 95 28 75 92 28 118 85 140 91 71 109 87 33 79 114 112 81 48 95 32 71 89 91 100 142 138 89 38 99 107 97 73 96 95 44 122 80 121 79 72 108 83 74 107 149 99 32 137 86 78 73 51 90 134 146 85 68 154 126 83 119 74 121 64 75 70 81 148 102 55 48 22 78 97 79 121 164 140 78 153 110 45 98 90 64 117 126 47 97 89 92 87 83 86 39 43 57 66 93 77 98 22 142 88 84 97 142 62 67 150 80 47 81 64 84 66 41 55 91 75 102 73 73 105 58 101 100 47 95 110 90 50 110 88 117 84 58 42 33 102 74 65 126 71 87 104 68 78 99 57 52 87 91 109 102 97 81 88 68 25 86 78 76 64 36 64 67 91 80 144 90 109 139 92 149 71 95 77 127 66 105 167 129 54 78 89 131 76 77 42 109 159 75 118 62 105 66 108 87 103 91 20 47 63 60 31 61 53 115 96 93 120 54 111 82 100 88 103 97 75 66 151 39 99 77 114 104 93 87 158 107 119 114 73 106 128 150 84 97 36 75 106 69 52 124 89 47 54 119 81 69 56 107 109 77 120 67 91 96 159 129 142 88 184 75 80 99 98 105 66 76 101 79 47 86 103 117 98 69 150 108 39 66 74 92 30 132 66 59 76 44 76 145 128 117 98 60 87 117 177 117 56 96 100 71 138 70 130 57 87 60 100 90 91 115 73 83 144 59 49 139 114 109 75 106 125 179 65 93 75 121 51 106 112 129 138 99 116 88 96 147 134 167 76 80 67 73 129 72 91 178 35 121 64 99 105 58 79 82 120 105 42 89 148 92 68 75 91 86 43 99 50 64 42 121 92 70 159 62 97 138 89 26 105 148 32 56 114 107 32 49 88 91 109 152 66 132 127 68 135 143 122 109 127 104 135 144 69 78 50 54 87 43 99 68 88 102 51 73 102 86 79 28 76 110 41 122 93 84 103 97 70 99 76 97 51 97 116 156 52 111 93 54 169 106 95 58 127 89 75 99 94 108 136 95 91 101 88 101 74 177 55 111 74 97 73 103 35 16 86 88 102 77 49 71 103 118 94 117 97 53 54 107 80 100 48 137 76 113 82 107 128 98 57 121 95 88 128 65 4 77 76 92 69 128 117 88 85 93 105 191 84 70 72 162 154 167 195 64 34 83 101 65 65 90 85 110 92 69 58 109 125 95 161 77 91 95 79 132 163 94 42 89 87 64 130 54 81 22 70 88 120 139 83 89 101 143 142 109 84 143 77 91 117 53 94 121 87 123 124 94 101 119 34 89 105 134 167 62 101 178 92 56 89 88 189 119 120 96 88 102 121 61 115 105 102 95 111 167 55 140 99 66 51 115 43 129 126 116 136 79 97 82 112 68 66 39 88 179 137 78 144 68 100 58 92 86 167 95 99 100 109 85 104 130 104 103 108 77 82 95 102 79 81 126 64 155 50 76 69 83 174 143 77 93 109 137 127 148 22 42 101 98 38 98 54 115 64 22 93 55 89 89 83 60 116 69 170 50 158 102 75 58 178 83 128 79 173 112 52 38 97 87 100 51 92 59 36 144 85 52 159 50 50 141 77 115 114 112 53 73 126 29 81 28 93 70 90 51 53 39 62 67 77 176 57 46 133 162 77 133 128 68 94 96 59 74 44 94 113 144 91 87 43 34 111 122 109 130 79 84 149 70 74 81 107 107 77 101 47 133 29 64 46 78 79 69 38 57 155 128 75 112 36 126 147 119 77 81 114 113 15 86 88 104 58 79 186 66 151 104 43 86 110 80 118 105 120 68 130 51 58 83 96 71 95 141 89 78 77 161 73 42 105 60 174 147 99 87 81 106 105 89 147 125 111 55 108 41 60 93 78 97 87 121 82 74 67 20 84 70 125 116 132 30 40 109 79 97 81 103 34 71 102 97 104 73 118 117 127 83 29 122 71 51 134 62 48 81 53 98 142 34 68 62 27 54 144 71 70 60 60 72 104 87 77 34 17 101 69 92 84 89 67 65 98 94 90 121 78 110 56 16 209 66 74 160 97 90 122 71 35 136 128 64 125 111 90 75 159 93 66 97 77 149 100 61 109 134 71 108 125 80 112 40 63 78 74 79 180 78 43 58 41 68 26 49 81 51 75 94 51 132 112 99 97 101 106 107 79 157 60 102 126 96 18 206 100 51 46 82 80 43 62 88 175 145 70 102 82 51 14 65 57 109 100 70 93 68 125 23 91 50 92 43 20 53 79 105 128 148 46 163 122 74 105 142 30 116 61 73 132 84 60 92 140 96 122 21 96 107 98 62 123 81 111 47 85 40 84 68 30 50 117 67 76 126 76 56 28 62 77 100 136 123 73 88 59 90 12 71 119 85 115 72 86 89 79 67 113 77 57 65 49 146 148 65 147 84 118 105 65 166 106 102 24 64 27 137 65 128 74 100 92 28 57 62 29 117 163 33 79 66 139 41 97 51 74 47 69 62 50 92 80 40 45 129 76 141 84 97 116 63 102 67 184 79 33 86 71 106 56 51 90 123 104 71 48 136 46 88 106 91 90 87 67 56 108 44 142 84 98 110 110 62 117 85 157 67 56 143 59 87 68 153 98 160 136 60 87 67 75 79 84 116 77 128 69 69 79 99 101 114 104 77 78 72 100 141 92 152 90 95 98 108 60 107 50 84 71 79 80 35 51 87 102 87 93 112 97 68 101 54 99 199 128 77 85 182 74 88 55 66 93 65 140 107 122 150 106 73 105 85 72 86 54 57 66 100 88 80 96 21 67 81 100 81 69 36 87 157 90 81 70 112 58 120 142 79 135 94 125 143 130 74 64 89 86 94 100 111 77 96 86 115 119 51 85 65 40 106 89 109 188 86 110 81 75 99 81 140 155 130 89 82 94 71 81 79 112 79 156 130 81 135 146 113 109 139 36 161 60 120 47 63 105 71 83 19 82 79 136 69 47 68 85 48 87 101 119 123 68 147 120 78 84 95 63 97 75 60 45 63 141 69 138 177 100 86 127 113 112 96 93 107 129 84 85 85 87 74 39 87 50 81 108 80 126 78 86 66 77 117 133 119 38 111 70 97 95 88 57 105 202 76 74 131 92 127 92 77 107 60 31 90 79 69 78 30 59 112 51 91 134 68 107 97 113 126 140 144 106 102 37 35 49 44 50 113 44 67 95 188 73 101 58 46 20 47 37 85 51 95 108 97 106 36 10</t>
-  </si>
-  <si>
-    <t>GAM(0.6213887287294195, -4.883620097428703e-28, 0.6163834587651804)</t>
-  </si>
-  <si>
-    <t>0 0 1 0 0 1 0 1 0 0 1 1 0 0 1 3 1 0 1 0 3 1 0 0 0 2 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 0 2 0 1 0 0 0 0 2 0 1 1 0 0 0 0 1 1 1 1 1 1 2 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 2 1 0 0 0 1 1 0 1 0 1 1 1 1 0 1 0 1 0 0 2 1 0 1 1 0 0 2 0 1 0 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 1 1 2 0 2 1 1 0 2 0 1 1 0 1 1 1 1 2 1 0 2 2 1 3 2 1 3 0 0 0 1 2 1 0 0 1 1 0 0 2 0 0 0 0 1 0 0 1 0 1 0 2 0 2 1 0 1 0 2 1 1 2 0 0 1 0 0 0 1 2 0 0 3 2 0 1 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 4 2 1 2 0 2 0 0 0 2 1 1 3 0 1 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 1 1 1 0 0 0 2 0 2 1 0 0 1 0 1 2 0 1 0 0 1 1 0 1 1 3 0 0 2 2 2 2 0 2 1 0 0 0 1 1 1 1 1 0 1 0 0 1 0 0 0 0 2 0 1 0 1 2 2 0 0 2 0 0 0 0 0 0 0 2 1 2 0 0 3 0 1 0 1 0 2 2 1 3 0 0 2 1 1 2 0 0 1 2 2 0 1 1 0 1 0 0 1 1 1 0 0 1 1 2 1 1 2 2 1 2 0 0 2 1 0 2 0 1 0 1 1 1 3 1 1 1 0 0 2 1 0 0 0 1 0 2 1 2 1 1 0 0 1 0 1 0 0 1 0 1 3 2 2 0 0 3 0 0 0 1 0 0 0 0 0 0 1 3 1 2 0 0 0 1 1 2 1 0 2 0 1 1 1 0 0 1 0 0 0 3 1 0 1 1 0 0 0 4 2 0 2 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 2 2 0 2 1 0 0 2 3 1 1 0 0 1 0 1 1 0 2 1 0 1 0 0 0 1 0 0 2 0 0 0 3 1 0 1 0 0 1 1 2 0 1 1 0 2 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 2 1 2 1 3 3 1 1 1 1 1 0 1 0 0 0 4 0 1 0 1 1 1 1 1 0 2 0 0 0 1 0 2 0 0 1 0 1 0 1 1 0 1 0 1 0 3 0 0 0 4 0 1 0 1 2 0 0 0 0 0 1 0 0 3 0 0 2 2 0 0 1 1 1 0 0 0 4 1 1 2 0 0 2 0 0 0 1 1 0 0 2 1 1 1 1 0 0 0 1 3 1 1 0 1 0 0 0 1 0 1 1 2 0 2 1 1 1 0 0 0 1 0 0 0 0 3 0 1 1 2 1 1 1 0 1 0 2 1 0 2 1 1 0 0 1 1 1 2 0 2 0 0 0 0 0 2 2 0 2 0 1 0 1 1 1 0 0 0 0 0 1 2 2 1 0 0 0 0 2 0 1 1 1 0 0 1 0 1 1 0 1 2 1 1 0 0 1 1 1 2 1 0 1 0 0 1 0 0 1 1 4 1 2 0 2 0 0 0 1 0 1 0 0 1 3 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 2 2 1 1 0 0 1 2 1 0 0 0 1 1 3 2 1 1 0 0 0 0 1 0 0 1 1 2 1 1 1 1 1 1 0 3 2 0 0 1 1 0 0 1 0 1 1 0 1 1 1 1 0 1 2 1 1 1 1 1 1 0 0 1 1 0 0 1 0 1 0 0 1 2 1 1 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 3 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 3 0 0 0 1 1 1 0 1 1 1 1 0 2 1 1 0 0 2 0 0 1 0 0 1 1 1 0 0 2 2 1 2 1 1 1 1 0 0 0 2 1 1 1 0 0 1 1 0 0 2 1 0 0 2 1 0 0 1 1 1 0 0 1 1 1 0 1 1 1 1 1 0 0 2 1 0 1 0 0 0 2 1 1 1 1 0 1 2 1 0 0 1 1 1 0 0 2 0 4 1 2 0 0 0 3 0 0 2 0 2 0 1 0 1 1 0 1 3 0 1 0 1 1 2 0 2 1 0 0 0 0 0 0 3 1 0 0 2 3 1 0 1 2 1 1 2 0 0 0 2 0 1 1 2 2 0 0 0 2 1 0 0 1 1 0 0 0 3 2 0 1 2 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 1 2 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 1 3 0 1 1 2 0 4 2 2 0 1 0 0 0 2 1 0 1 0 0 0 0 1 1 2 0 1 0 1 1 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 3 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 3 1 1 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 2 0 1 1 1 1 0 0 2 2 1 0 3 0 1 2 2 0 1 0 2 0 0 2 1 0 0 1 0 0 0 0 3 1 0 0 1 1 3 0 0 0 2 0 2 0 1 0 1 1 0 2 0 2 0 0 0 1 2 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 2 1 2 1 0 0 2 0 1 1 1 3 1 0 2 0 1 0 0 1 0 1 0 0 0 1 1 2 1 0 0 2 0 1 1 4 0 1 2 1 0 1 2 1 0 0 2 1 1 0 0 2 2 0 1 2 1 0 0 1 0 0 1 1 0 0 1 0 0 4 1 1 1 0 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0 0 1 2 1 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 1 0 0 1 2 0 0 1 0 1 0 2 0 0 0 0 1 1 0 1 0 1 1 0 1 0 0 1 3 1 1 1 0 2 1 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 3 1 1 0 1 0 1 1 1 0 2 2 0 1 2 1 2 1 3 1 1 2 2 0 0 0 1 2 1 0 0 0 0 1 0 1 1 0 1 1 0 1 2 0 1 1 0 3 0 0 1 0 0 1 0 0 0 1 2 0 0 0 2 1 0 0 1 0 2 2 1 1 1 1 1 2 0 0 3 0 0 0 0 0 0 1 0 1 3 1 2 1 1 3 1 0 0 1 1 1 1 0 0 0 0 0 2 0 1 1 0 2 0 0 2 2 0 1 0 1 2 0 3 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 2 0 2 1 0 0 0 1 1 1 2 0 1 0 3 0 0 0 1 0 2 1 0 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 2 0 2 0 2 1 0 1 3 2 1 0 0 0 2 0 2 0 0 0 0 1 1 2 1 1 0 1 0 1 0 1 2 1 2 0 1 0 0 1 1 0 1 0 1 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 2 0 1 0 2 1 1 1 0 2 0 0 0 1 0 0 0 1 0 0 1 1 1 1 2 0 0 1 0 1 1 0 0 3 0 1 1 1 1 1 1 1 1 0 1 1 2 1 1 0 2 0 0 1 1 0 3 1 0 1 1 1 2 1 2 0 2 0 1 1 2 0 1 0 0 1 0 0 3 0 1 2 1 1 2 1 2 1 0 1 0 3 1 1 1 0 0 0 1 0 1 1 2 2 1 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 2 1 0 0 1 0 3 1 2 0 1 2 0 1 0 2 0 0 0 1 0 0 0 0 1 2 0 1 1 0 1 0 2 1 0 1 1 0 1 0 0 1 2 1 0 1 2 3 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 2 0 1 0 0 0 0 0 1 3 0 0 0 0 0 0 2 2 0 0 2 1 0 0 0 1 1 2 1 3 1 1 0 0 1 1 0 1 1 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 2 0 3 1 1 0 0 1 1 2 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 4 0 1 2 2 1 1 2 2 0 0 1 1 1 2 1 1 1 0 1 1 1 0 1 0 1 0 2 0 1 2 2 0 0 0 1 1 1 2 1 1 0 0 0 0 1 2 0 1 0 1 1 0 1 1 1 0 0 0 1 2 1 0 3 0 2 1 2 1 0 1 1 0 0 0 1 0 0 1 0 1 1 0 1 1 2 0 0 0 0 1 0 0 1 0 1 0 1 3 1 3 1 0 0 2 0 4 1 2 0 2 1 2 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 2 1 2 2 1 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 0 2 1 0 0 1 0 2 0 0 2 1 2 2 0 1 1 0 1 3 1 0 0 0 0 2 1 2 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 2 0 1 2 1 1 2 0 0 0 1 0 1 2 4 1 0 2 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 2 0 0 1 1 3 1 2 1 0 1 1 1 3 0 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 0 1 1 0 2 0 1 0 0 2 0 0 0 2 1 1 2 1 0 0 1 0 3 2 0 0 1 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 1 0 2 1 0 2 0 2 0 2 1 0 2 3 1 0 2 2 0 0 1 1 3 1 0 2 1 0 1 3 0 0 0 0 0 1 1 0 1 1 3 0 1 0 0 2 0 0 1 0 0 1 0 1 1 1 2 1 1 1 1 2 2 1 0 1 0 1 3 1 0 2 1 0 1 0 0 2 1 1 1 0 0 1 1 1 0 1 1 0 1 1 0 0 1 0 1 0 2 0 0 1 0 2 1 0 0 0 1 1 0 1 2 1 2 0 0 1 0 0 1 0 0 0 2 1 0 1 1 1 0 1 4 0 1 0 1 2 1 0 1 3 1 2 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 0 2 1 0 1 1 0 0 2 0 2 0 0 0 0 1 1 1 0 0 0 3 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 2 0 0 2 0 1 2 0 1 1 1 3 1 1 1 0 1 4 0 0 1 0 2 3 2 0 0 1 1 2 3 1 0 0 1 2 1 0 0 1 0 0 0 0 1 0 2 0 0 0 1 1 2 0 1 0 1 1 1 0 0 3 1 1 1 0 1 1 3 1 0 0 0 0 0 0 0 1 1 1 2 2 1 0 0 0 1 4 1 2 2 1 0 0 1 2 1 0 2 0 1 1 1 1 0 0 1 0 1 2 0 0 0 0 2 0 1 1 1 1 0 0 1 2 0 2 1 1 0 1 0 0 4 0 0 1 1 2 2 2 2 0 0 2 2 0 1 0 1 2 0 0 2 1 1 2 1 1 0 0 1 2 0 1 3 2 0 0 1 1 0 0 0 1 0 1 0 1 1 0 1 0 2 0 1 0 2 1 0 1 1 1 1 1 1 1 0 1 3 0 0 0 0 0 0 0 2 2 2 0 1 2 0 3 0 0 0 0 0 3 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 2 3 0 0 1 1 1 0 0 2 2 0 1 1 0 0 1 1 1 0 0 1 1 2 2 0 4 1 0 0 1 0 0 0 0 0 0 0 2 1 1 3 0 0 0 0 0 0 2 1 1 1 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 0 1 2 0 0 1 1 2 0 1 0 1 2 1 1 1 2 2 0 1 0 2 1 0 0 1 2 2 0 1 0 1 0 0 3 1 1 1 0 1 1 0 1 0 1 0 1 1 1 0 1 0 0 0 2 1 1 1 0 0 1 0 0 1 0 0 0 0 1 2 1 1 0 1 1 2 1 0 0 2 2 1 2 1 0 1 2 1 2 0 2 0 1 1 1 1 0 1 1 0 0 1 2 0 0 2 3 0 1 0 0 1 0 0 1 0 3 0 1 3 0 0 1 0 2 0 0 2 2 0 1 0 0 0 0 0 3 0 0 0 2 1 0 1 1 1 1 1 2 2 0 0 0 0 1 0 0 1 0 0 1 0 1 2 1 0 1 0 1 0 2 1 0 0 3 0 1 1 2 0 0 2 0 0 1 0 1 0 0 0 1 0 0 0 0 3 1 0 0 0 0 0 0 0 2 1 0 1 1 1 0 2 1 1 0 0 0 0 1 4 0 0 1 1 0 1 0 0 1 2 0 2 1 1 0 1 2 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 1 1 0 2 1 0 0 0 0 0 0 0 1 1 0 2 1 0 0 3 0 1 0 0 1 2 0 0 3 1 0 2 0 1 1 1 2 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 2 1 1 1 0 0 1 2 1 0 0 0 0 1 0 0 2 0 0 0 1 0 2 3 1 0 1 0 1 1 0 0 1 2 0 1 0 0 0 1 0 0 0 0 3 0 0 2 0 1 1 2 0 3 0 2 1 3 2 0 0 1 3 0 0 0 0 1 2 2 1 0 0 3 1 1 2 2 0 0 2 0 2 0 0 0 0 1 3 1 3 0 1 1 1 1 2 0 0 2 3 2 1 1 0 1 0 2 1 0 1 1 2 1 0 1 0 0 0 1 2 0 1 1 0 1 1 0 1 1 0 1 1 0 0 1 0 1 0 1 1 0 1 3 2 2 0 0 1 1 2 0 2 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 2 1 1 0 0 0 0 1 1 1 0 0 1 1 1 1 1 0 3 1 1 1 1 3 0 2 1 1 1 0 1 1 0 1 1 1 1 1 0 0 0 2 0 1 1 1 2 0 0 1 2 0 3 1 0 1 1 2 1 1 1 2 0 2 2 0 2 0 1 1 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 0 2 0 1 0 1 2 0 2 1 0 0 2 2 0 3 1 0 0 1 1 0 1 0 1 0 0 0 3 0 0 0 0 2 1 4 1 0 0 1 0 0 3 0 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 4 2 1 0 0 1 0 2 0 1 0 0 0 0 0 1 0 0 2 0 2 0 1 0 0 0 1 1 1 0 1 0 0 0 2 1 1 2 1 1 2 1 1 1 1 0 1 0 0 1 3 0 0 1 0 1 1 2 1 1 2 1 1 0 2 2 0 0 0 0 0 0 1 0 1 3 0 1 0 0 0 1 1 0 0 1 1 1 0 1 0 2 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 0 2 1 0 1 1 1 1 1 0 1 0 1 1 1 2 0 0 1 1 0 1 2 0 0 0 1 1 0 1 3 0 1 0 1 2 1 1 0 0 0 2 2 2 0 0 1 2 0 0 0 0 2 0 0 2 0 0 0 0 0 0 2 1 0 0 2 0 0 0 0 1 1 0 0 0 2 0 0 2 2 1 4 1 1 1 1 2 2 2 0 0 1 0 1 0 2 0 0 1 0 1 1 2 0 0 0 0 2 0 0 0 0 1 1 1 2 1 1 2 3 0 0 0 0 1 1 1 1 2 2 1 0 1 0 0 1 1 0 2 1 0 3 1 0 1 1 1 1 1 0 0 0 0 2 2 1 0 1 1 0 1 1 2 0 1 0 0 2 2 1 0 0 1 0 1 0 1 0 1 3 1 1 0 2 1 1 2 1 1 1 1 1 0 1 1 1 0 0 0 1 1 3 1 0 0 3 1 0 2 0 0 1 1 1 1 2 2 4 2 0 0 1 3 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 1 0 2 0 1 1 0 1 0 1 1 2 0 1 1 1 1 1 2 0 0 0 2 0 1 1 1 0 0 2 0 0 1 0 0 0 2 1 0 0 1 1 0 0 3 1 0 1 0 1 2 1 3 0 0 1 0 1 0 0 0 2 0 0 1 0 1 1 0 0 1 2 0 2 1 0 0 0 1 0 0 2 0 0 2 1 2 0 3 2 0 0 0 1 1 1 2 0 0 0 1 0 0 1 0 2 0 0 0 2 1 0 0 0 0 1 2 1 1 1 0 0 1 2 2 1 1 2 3 1 0 1 0 2 1 0 0 1 0 2 0 0 2 0 1 1 0 1 1 0 1 1 1 0 0 1 1 2 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1 2 1 1 1 1 2 0 0 1 2 1 1 1 0 0 0 1 1 0 1 0 0 0 0 3 1 0 0 1 0 0 0 0 0 0 1 2 0 1 0 1 0 2 1 0 0 0 0 2 1 2 1 1 0 0 0 0 0 0 2 0 1 1 2 1 0 0 3 0 0 0 2 0 0 1 1 2 1 1 1 3 1 0 0 0 0 0 1 1 1 2 1 1 0 1 0 2 1 1 0 1 1 1 0 0 1 1 1 0 1 2 1 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 2 0 1 1 1 1 2 0 0 1 0 0 1 0 0 3 0 1 1 0 0 0 0 2 0 0 3 1 0 0 0 2 0 3 1 0 0 0 1 0 1 2 1 1 0 0 2 1 0 0 1 2 1 1 2 0 2 1 0 1 1 1 0 0 0 0 2 1 0 0 0 1 0 1 1 3 2 0 1 2 1 0 2 1 1 0 0 0 0 1 1 1 2 0 0 3 3 0 0 0 1 1 4 2 0 0 1 1 0 1 2 1 0 0 1 2 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 1 0 1 0 1 0 1 1 0 3 0 1 0 1 1 1 1 0 1 1 0 0 3 1 2 0 0 1 1 2 0 0 0 0 3 1 0 0 0 0 2 2 1 1 1 0 1 3 0 1 0 1 0 2 0 0 1 2 1 0 1 0 0 0 0 1 1 1 0 2 1 1 2 1 0 0 2 1 0 0 2 0 0 0 2 1 0 1 0 1 0 0 1 1 0 3 0 0 1 2 2 1 2 1 0 0 1 1 1 1 1 1 1 1 0 0 2 1 4 0 2 0 0 1 1 1 0 1 1 1 3 0 1 1 0 0 2 1 1 1 0 0 0 2 2 2 1 0 0 1 2 0 2 1 1 1 0 1 0 2 0 0 1 1 2 2 0 0 1 1 0 2 0 0 1 0 0 2 1 1 2 0 2 1 0 0 0 0 1 0 1 0 1 1 1 0 1 1 2 0 0 0 0 2 2 0 1 0 0 0 1 0 2 0 0 0 1 0 0 1 2 1 0 2 1 1 1 0 0 1 0 1 1 1 2 2 1 0 1 2 0 0 0 0 1 1 0 4 0 1 0 0 1 0 2 1 0 0 1 0 0 2 1 1 0 0 1 3 1 1 0 1 1 2 1 0 0 0 0 2 1 0 0 0 1 0 0 2 0 0 0 2 0 0 0 3 1 0 0 0 1 0 2 0 1 1 0 0 1 1 0 0 0 2 0 2 0 1 1 0 0 0 0 0 0 1 1 0 0 0 2 0 0 1 2 1 0 0 1 0 1 0 0 0 2 1 0 1 2 0 2 0 2 2 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 2 1 1 0 0 0 0 1 1 1 1 1 2 0 0 1 0 0 1 1 0 0 0 3 0 0 0 0 0 0 1 1 0 0 0 1 0 2 3 0 1 0 0 0 0 0 0 0 1 1 1 1 1 2 0 1 0 0 1 0 0 0 0 1 0 1 3 0 2 0 1 1 0 1 0 0 0 1 1 1 2 0 1 1 1 2 0 0 0 0 2 0 1 0 0 1 0 1 1 2 0 1 0 1 1 0 2 1 1 0 1 0 0 1 1 0 2 2 2 1 1 1 0 0 0 0 0 0 0 1 2 0 1 0 1 0 0 0 1 0 1 0 1 1 0 1 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 2 0 0 0 2 2 0 0 0 0 1 2 1 0 2 1 1 1 0 1 1 1 3 0 0 0 1 0 1 1 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 3 0 2 0 1 0 1 0 2 0 0 0 0 2 2 1 2 1 0 2 1 1 0 1 0 0 0 1 1 0 2 2 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 2 1 1 0 1 0 1 1 0 2 1 1 0 0 0 0 1 1 0 0 0 0 0 1 2 2 2 0 3 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1 1 2 0 1 1 1 0 0 0 1 1 2 1 0 1 0 1 0 0 1 0 1 2 1 0 0 3 1 1 1 1 0 1 0 0 1 0 1 0 1 0 1 0 0 2 0 1 0 1 2 2 0 2 0 1 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 2 0 2 2 1 0 0 0 1 1 0 2 0 0 1 2 1 0 2 0 1 0 1 2 1 0 1 0 0 0 0 1 1 2 0 0 5 2 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 3 1 1 1 0 0 0 1 0 0 0 0 1 1 1 1 2 2 2 1 1 1 1 0 0 2 1 2 1 0 1 1 1 1 1 0 1 0 2 0 0 0 0 0 1 1 2 0 1 0 0 1 2 1 1 0 2 0 1 0 0 1 0 1 0 0 1 1 1 3 0 0 0 0 1 1 1 0 0 1 2 1 0 0 2 1 1 0 2 1 1 1 1 1 0 2 1 1 0 0 0 1 0 1 1 0 2 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 2 0 0 1 0 2 0 0 0 2 0 2 1 2 0 1 0 2 1 2 0 2 2 0 2 2 1 0 2 0 1 2 1 1 1 1 1 1 2 1 0 0 2 0 0 1 1 0 1 3 1 1 1 2 0 0 1 2 1 1 0 2 1 0 0 0 3 1 1 1 0 0 0 1 1 1 1 0 0 0 1 0 2 0 0 0 0 1 2 1 1 2 0 2 0 0 1 2 2 3 1 1 0 1 1 1 2 1 1 0 2 1 0 1 1 0 0 1 1 1 2 0 0 0 0 0 1 2 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 3 1 0 2 0 2 1 0 0 1 0 0 2 0 1 1 0 0 1 1 3 0 0 3 0 3 0 0 4 1 4 1 4 1 3 1 3 1 2 0 0 1 0 1 2 0 0 0 0 0 0 1 2 2 0 0 0 1 0 0 0 3 1 1 0 1 0 3 1 1 1 4 0 1 2 2 1 0 0 1 1 0 1 0 1 1 1 0 1 1 0 1 1 3 0 0 1 0 2 0 2 0 0 1 0 3 0 0 0 1 2 0 1 0 1 1 0 0 1 1 0 2 1 2 2 0 3 3 0 2 0 0 2 0 1 1 3 1 2 1 0 0 0 1 1 0 1 1 0 1 1 2 0 0 1 2 1 0 0 1 0 1 2 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 2 1 0 0 0 1 0 0 0 1 0 1 0 3 0 0 1 1 0 0 1 1 1 1 1 0 2 2 0 0 2 0 1 1 2 2 1 1 1 2 1 1 0 0 0 4 1 0 2 1 0 1 0 1 1 0 1 0 2 0 1 2 0 1 0 0 0 0 0 0 2 1 2 1 0 0 0 1 0 0 1 2 1 0 0 0 2 2 0 1 0 0 1 3 2 0 1 1 0 1 0 2 1 1 0 0 0 1 1 0 2 0 0 0 1 0 0 2 3 0 0 0 2 0 1 0 2 0 0 3 0 0 0 4 0 0 0 1 3 0 0 1 1 1 0 2 2 0 1 2 0 0 0 1 0 0 2 1 0 0 0 2 1 0 0 0 1 0 1 0 1 1 0 2 1 0 1 0 0 2 0 0 1 1 2 0 1 1 1 1 0 1 2 1 0 1 0 0 2 2 1 0 1 1 1 0 0 1 2 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 4 0 2 0 1 2 2 0 0 2 1 2 0 0 4 1 0 1 1 1 2 0 1 0 0 0 0 2 1 1 0 1 0 0 1 0 0 1 1 0 2 1 2 1 1 2 0 0 0 2 0 0 1 1 0 0 1 2 1 0 0 1 0 1 0 0 1 0 0 1 1 5 1 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 2 2 0 0 1 1 1 1 2 0 2 1 1 2 3 0 0 1 0 1 1 2 1 0 0 0 2 0 0 1 1 1 2 1 0 0 1 0 1 0 1 1 0 1 3 1 0 1 0 1 1 0 1 0 1 2 1 1 0 2 0 0 0 1 1 0 1 0 0 1 1 1 1 3 0 2 1 0 0 1 0 0 1 0 2 1 0 1 2 1 1 0 1 0 1 1 0 0 0 0 2 1 1 0 0 1 0 2 0 0 2 0 1 0 1 1 1 1 2 0 1 0 1 0 1 1 0 1 1 2 0 1 0 1 0 0 0 3 0 0 0 1 0 3 0 0 0 0 1 1 1 2 0 1 1 0 1 0 2 1 2 1 1 1 0 0 1 0 0 0 0 2 0 1 1 0 0 0 0 1 0 2 0 0 1 0 2 0 1 0 0 1 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 2 0 1 1 0 0 1 0 0 1 0 1 0 0 2 1 2 0 2 0 2 0 0 0 1 0 0 2 2 0 0 0 0 1 2 1 2 2 0 2 0 0 0 1 0 0 0 1 1 0 0 0 1 2 0 0 1 0 0 0 2 1 0 1 0 0 3 3 1 0 0 2 1 0 1 0 3 1 0 3 3 1 0 0 0 1 0 0 0 1 0 0 0 0 0 2 1 1 5 0 0 0 1 0 0 0 0 2 1 0 2 2 2 0 0 0 1 0 0 0 1 0 1 1 1 1 2 0 0 1 0 0 1 0 0 0 0 2 0 1 0 1 0 0 1 1 1 0 2 1 0 1 2 0 0 2 0 0 0 1 1 1 1 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 3 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 1 1 2 0 0 1 0 3 2 1 1 0 1 0 1 1 2 3 1 2 2 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 1 1 1 1 2 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 1 2 1 1 0 2 1 1 1 3 0 1 0 0 0 0 1 0 2 1 0 0 1 1 1 0 1 0 0 1 0 3 1 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 1 3 2 0 0 2 0 1 0 0 0 1 0 2 1 2 0 0 2 0 0 0 0 4 0 0 1 0 1 1 1 0 1 0 1 1 3 0 2 1 0 0 2 0 1 0 2 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 3 1 1 0 0 0 1 0 0 0 0 0 1 1 0 2 1 2 2 0 1 0 1 1 0 0 0 1 0 0 0 2 0 1 1 1 1 0 1 0 1 3 1 0 1 1 0 0 0 0 0 0 1 0 1 1 2 0 2 2 1 2 0 0 0 0 0 0 1 2 2 1 3 1 2 1 0 1 3 1 2 1 1 0 2 0 1 2 0 0 1 0 1 2 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 1 0 1 0 0 2 2 1 0 0 0 2 2 1 0 1 1 0 1 1 0 1 0 1 2 2 0 0 0 0 0 1 1 1 0 0 0 1 1 2 0 1 2 2 1 0 1 0 3 1 2 2 1 1 2 2 1 0 0 1 0 2 1 0 0 1 2 2 0 2 0 1 0 1 0 0 1 2 1 0 0 0 1 3 2 2 0 0 0 1 1 0 2 1 0 0 1 1 0 1 0 0 0 0 1 3 2 1 1 0 0 1 1 1 2 0 1 1 1 0 0 1 0 1 1 2 2 1 0 0 0 0 0 0 1 1 1 0 0 0 2 1 2 2 2 1 2 0 0 0 1 0 1 0 0 2 1 2 0 0 1 0 0 2 2 1 0 0 0 0 3 1 2 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 4 1 1 1 0 1 2 1 1 1 0 0 0 1 0 1 1 0 1 1 0 1 1 1 2 0 1 0 0 0 0 1 0 0 1 0 1 1 1 1 2 0 2 1 1 1 1 0 0 0 0 1 1 2 0 2 0 0 0 1 1 1 1 1 0 1 1 0 0 1 0 2 1 2 0 0 1 3 0 0 0 1 0 0 0 0 0 1 0 2 0 1 0 1 2 2 2 1 0 0 0 0 0 0 0 1 0 3 0 2 0 0 1 0 1 1 3 1 1 0 0 1 0 3 0 0 1 1 1 0 0 1 3 0 1 1 1 0 2 1 3 0 0 0 0 1 1 0 1 0 1 1 0 1 0 1 3 0 0 1 0 2 1 0 0 0 0 0 0 2 0 0 1 0 2 0 0 1 0 0 1 0 0 3 2 2 1 0 0 2 0 1 1 0 2 1 1 1 1 0 0 3 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 2 1 1 0 1 0 1 1 3 0 0 1 2 0 2 1 1 2 1 0 0 0 0 2 0 2 0 0 0 0 1 0 1 3 0 0 1 3 1 0 1 1 1 1 0 0 1 1 0 0 1 1 1 1 1 1 0 2 1 1 2 0 0 0 2 0 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 1 2 0 1 0 0 0 0 0 0 1 1 2 2 1 1 2 0 2 3 0 4 1 0 1 1 1 1 1 0 2 0 1 0 2 0 2 2 3 0 0 0 1 1 1 0 0 1 1 0 1 2 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 2 0 1 0 0 2 1 2 0 1 1 0 0 3 0 2 2 0 0 0 1 3 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 3 0 0 0 0 0 1 0 0 0 1 1 0 2 0 1 2 2 0 1 3 2 2 1 0 2 1 0 0 0 0 2 2 0 0 2 0 1 1 1 0 1 3 2 1 1 0 0 1 0 1 1 2 1 1 1 1 0 0 2 0 0 0 0 3 0 0 1 1 0 0 0 1 1 1 3 0 1 0 2 1 0 1 1 2 1 0 1 0 1 0 0 0 0 4 2 1 0 0 1 1 0 1 0 2 2 2 1 1 1 1 0 1 0 0 0 2 1 1 0 0 1 2 0 0 2 2 0 1 1 1 0 0 0 1 2 2 1 1 1 0 2 0 0 1 2 0 0 1 1 3 1 0 0 1 1 1 1 2 2 1 4 1 0 1 1 1 0 1 0 1 0 1 1 2 1 0 1 3 1 1 0 1 0 0 1 0 1 2 1 2 1 0 2 1 2 2 1 0 0 2 0 3 0 1 0 2 0 1 1 0 1 2 0 0 1 0 0 1 0 1 1 1 1 0 0 0 2 1 0 0 1 2 2 1 2 1 1 1 2 1 1 0 0 0 0 0 1 0 0 1 1 1 1 0 1 0 1 2 0 1 0 1 1 1 1 1 0 1 0 0 0 1 3 2 2 0 1 0 1 1 2 1 0 2 1 0 1 0 2 1 0 1 1 0 2 1 1 0 0 0 5 0 0 1 3 0 0 1 4 1 3 1 1 0 2 1 0 0 0 1 0 3 0 0 0 1 0 1 0 0 0 1 2 0 2 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 1 0 1 0 0 0 0 3 0 0 2 1 2 1 0 1 0 1 3 2 0 0 2 0 0 0 0 0 0 2 0 0 1 0 0 2 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 2 0 2 1 0 0 1 0 1 1 2 2 1 1 0 0 1 3 1 1 0 0 0 0 2 0 1 1 1 2 1 1 2 0 1 2 0 2 0 2 1 1 2 1 3 1 0 0 2 0 1 0 2 1 1 2 2 1 0 1 2 0 2 2 1 2 0 0 0 1 0 1 2 0 1 0 3 1 0 0 1 1 2 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 2 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 2 1 1 1 3 3 1 0 0 1 2 0 1 3 2 0 0 1 1 0 1 1 2 1 0 1 1 0 0 2 1 2 2 1 1 1 1 1 0 0 0 2 0 0 1 0 0 0 0 2 0 1 0 0 0 0 2 3 0 1 0 1 1 0 0 0 1 0 0 1 0 1 3 1 0 1 2 1 1 1 0 0 0 2 1 1 0 1 0 2 1 2 0 0 1 0 1 0 0 1 0 1 1 0 0 1 2 1 2 0 0 0 2 0 1 0 2 0 0 0 1 1 0 0 3 0 0 0 1 1 1 0 0 0 1 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 1 1 3 0 1 0 1 0 2 0 0 1 0 2 1 0 0 1 1 0 0 1 1 1 0 0 2 1 0 1 1 2 0 0 2 2 0 0 3 1 1 1 1 2 1 1 1 1 1 0 0 0 1 0 2 2 1 1 0 1 0 1 0 1 0 1 0 2 0 1 0 0 0 0 1 0 0 0 1 0 3 1 0 0 1 0 1 0 0 2 2 1 0 1 0 1 1 0 1 1 0 1 2 0 0 1 2 0 0 1 1 1 0 1 1 0 0 1 0 1 2 1 1 1 1 0 0 0 0 2 0 3 1 1 2 1 3 0 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 2 0 2 1 0 1 1 0 0 0 1 0 0 1 1 1 0 1 0 0 2 1 0 0 3 0 0 1 2 1 2 0 1 0 2 1 1 2 2 2 1 1 0 1 0 0 1 2 1 0 0 1 2 1 1 2 0 0 2 1 0 1 0 0 2 0 0 1 1 1 0 1 0 0 0 0 0 0 0 3 2 1 1 0 2 1 1 0 1 0 1 2 1 0 0 1 0 0 0 1 1 0 0 0 2 1 0 1 1 0 0 1 1 2 0 1 2 0 1 2 1 2 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 0 0 2 1 1 1 0 0 0 1 0 1 2 1 0 1 0 0 0 3 1 2 1 1 0 0 1 0 1 0 2 0 0 0 2 0 1 1 0 0 1 0 1 0 3 1 2 0 0 1 2 0 4 1 1 1 1 2 0 0 1 1 1 0 0 1 1 0 1 1 1 3 2 3 2 1 2 1 1 2 1 0 2 0 1 2 0 0 0 1 1 0 0 1 1 2 1 2 0 2 2 0 1 0 2 0 0 0 1 2 1 0 0 1 0 0 0 0 0 1 1 0 2 0 0 1 0 1 1 1 0 0 1 1 0 2 0 0 1 1 1 1 1 0 2 0 0 0 1 1 1 1 1 1 0 1 0 1 1 0 0 1 0 0 1 0 1 0 1 1 0 3 0 1 0 0 0 2 0 1 2 0 0 2 0 1 0 2 0 1 2 0 1 1 0 2 2 1 0 0 0 1 1 0 0 2 0 0 1 0 0 0 1 1 0 2 0 0 2 0 1 1 0 1 0 1 1 2 2 1 1 1 2 0 0 2 0 0 0 0 1 2 1 0 1 2 0 0 0 1 0 0 1 1 0 0 2 0 0 0 1 1 1 1 1 0 0 0 1 2 0 0 0 0 0 1 0 2 0 1 0 1 0 2 0 0 0 0 1 0 1 1 1 1 0 0 1 1 0 1 4 0 0 0 3 0 0 1 0 1 1 0 1 0 2 1 1 1 1 0 1 3 3 3 1 1 0 1 1 0 0 0 0 1 1 1 0 1 1 2 1 1 0 1 2 0 1 0 0 1 0 1 2 0 0 0 0 0 0 1 1 2 1 2 0 0 0 1 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 1 1 0 1 1 0 1 0 1 1 0 0 0 1 1 0 0 0 1 1 0 1 1 3 2 0 1 0 0 0 0 1 1 1 0 0 1 0 0 2 0 3 0 0 2 0 1 1 0 0 1 1 0 0 0 3 0 0 1 1 1 1 0 0 1 2 0 0 1 2 1 0 0 1 0 2 0 1 0 2 1 1 1 0 0 0 3 3 0 1 0 1 0 1 1 0 0 1 0 2 1 0 0 2 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 1 0 0 2 1 0 0 2 0 2 1 1 1 1 0 1 0 1 2 0 2 3 2 1 1 1 1 1 1 0 0 0 1 1 1 0 1 0 2 0 1 0 1 1 2 2 0 1 2 0 1 2 1 1 0 0 1 2 0 1 0 1 0 0 0 0 0 1 0 0 2 1 0 0 0 1 0 3 0 1 1 0 1 0 0 0 1 0 2 0 2 3 0 1 0 1 1 1 1 0 2 1 1 0 1 0 0 0 2 2 1 0 3 0 0 1 1 0 1 1 0 0 0 0 0 0 3 0 0 1 0 1 0 0 2 1 0 0 1 2 2 0 0 0 0 0 0 0 2 1 0 0 0 1 3 0 0 1 1 1 0 0 2 0 0 1 0 2 1 3 1 2 0 1 0 1 0 0 0 0 2 1 0 1 1 0 1 0 1 1 1 0 1 2 0 0 0 0 1 1 0 0 0 0 1 0 2 1 0 1 2 0 3 0 1 1 0 0 0 0 1 1 0 0 2 1 0 2 0 2 1 0 0 0 1 1 1 2 0 0 1 0 1 0 1 0 1 1 0 0 0 2 2 2 1 0 0 0 1 0 0 1 0 0 2 1 1 1 0 2 1 2 1 0 1 2 0 2 1 2 1 3 0 0 0 1 0 1 0 0 0 0 0 2 0 2 1 2 2 1 0 0 1 2 0 2 1 1 1 2 0 0 1 1 0 0 0 1 0 2 0 0 0 1 1 0 0 0 2 0 0 1 1 1 0 2 2 2 0 3 1 1 0 0 0 0 0 1 0 2 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 1 1 1 2 0 0 0 0 1 0 2 2 0 0 0 0 0 2 3 1 0 1 1 1 0 3 0 4 1 1 1 1 1 2 1 1 1 0 0 0 0 1 1 1 3 1 1 0 0 2 0 0 1 0 0 1 0 2 0 0 0 1 0 1 0 3 0 1 1 1 0 1 2 0 0 0 2 0 0 0 1 0 3 0 1 0 0 1 1 0 2 1 0 1 2 0 1 0 1 0 0 0 0 4 0 2 0 1 0 1 1 2 0 2 0 1 1 0 0 3 1 0 1 0 1 1 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 1 1 2 4 1 0 0 0 0 0 0 2 0 0 0 0 2 2 1 0 1 1 1 0 1 0 0 0 1 0 0 1 0 2 0 0 0 1 1 4 0 1 1 0 1 0 0 2 2 0 1 0 0 0 1 0 0 0 1 0 0 2 0 0 0 1 2 1 1 2 0 0 1 1 1 1 1 1 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 2 1 1 1 1 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 2 1 0 3 0 0 0 2 0 2 1 0 0 1 1 1 0 4 1 1 2 0 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 2 0 0 4 1 0 2 2 0 1 0 0 0 0 2 2 1 1 0 1 0 0 2 1 0 0 0 2 0 2 0 0 0 0 2 1 1 0 0 3 0 0 0 1 0 0 2 0 1 2 2 0 1 1 0 0 1 3 0 2 0 0 1 1 0 1 2 1 0 0 0 0 1 0 2 1 0 0 0 1 0 2 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 2 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 3 0 2 1 0 0 1 0 0 1 0 0 0 1 1 0 1 3 2 0 2 1 0 1 2 1 2 1 0 3 0 1 1 0 0 1 0 0 0 0 2 2 3 0 0 1 0 1 0 1 0 0 0 0 2 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 1 2 1 1 1 0 2 0 2 1 1 1 3 2 0 0 0 0 0 1 2 1 0 3 0 1 1 0 0 1 0 0 0 0 3 1 0 0 0 2 2 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 1 3 0 2 0 1 0 0 0 1 0 1 3 1 0 1 0 1 3 0 2 0 1 1 1 0 3 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 2 2 0 0 0 0 1 0 1 2 0 0 0 1 0 0 1 1 2 0 1 0 0 0 1 0 0 2 0 2 0 0 2 0 0 0 1 0 0 0 1 0 0 0 2 1 1 0 2 1 1 0 0 0 1 0 1 0 0 1 2 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 1 1 2 0 0 0 3 2 1 1 0 1 2 0 2 0 0 0 0 1 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 2 1 2 1 2 1 1 0 0 0 0 1 2 2 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 1 1 1 0 1 0 0 0 0 0 1 2 0 1 2 1 0 1 0 1 0 1 1 2 0 0 0 1 0 0 0 3 0 3 0 0 0 1 1 1 2 1 1 1 1 0 1 2 1 0 0 0 0 1 1 0 1 2 1 2 0 1 0 0 1 1 0 2 2 0 0 2 0 0 1 0 1 1 2 1 0 2 1 1</t>
+    <t>NIG(37.53286472456821, 17.849983594727, -0.9815582077937707, 39.1581426533526)</t>
+  </si>
+  <si>
+    <t>26 20 26 24 21 18 27 20 7 17 24 14 31 12 10 7 20 10 28 44 12 27 9 13 20 24 10 27 37 27 24 23 34 19 24 17 27 21 13 17 24 26 23 0 10 22 20 20 20 24 16 13 41 17 9 28 19 21 19 22 26 24 23 21 17 0 19 9 19 14 20 19 23 22 24 9 12 17 13 27 13 31 28 23 34 10 24 14 17 26 24 23 10 21 31 21 26 10 10 14 26 31 23 15 23 6 19 14 24 13 10 18 18 17 7 17 17 23 21 14 13 21 14 21 17 20 9 31 17 23 25 9 14 12 21 17 10 34 17 24 10 21 9 27 7 10 6 7 23 13 20 19 14 13 26 16 17 20 15 14 30 10 16 7 24 27 23 31 17 20 32 15 21 9 17 17 24 6 24 28 10 19 18 29 24 20 23 30 16 17 27 23 23 24 14 21 12 14 10 24 22 16 21 20 20 27 17 28 22 26 16 27 30 10 14 17 27 16 10 12 19 16 10 30 14 30 38 20 16 10 24 16 14 16 3 23 41 10 6 18 10 27 24 31 22 22 18 24 17 11 24 14 20 10 19 24 25 10 22 17 19 22 38 31 17 16 19 19 6 20 21 28 20 31 27 24 16 10 23 26 24 22 14 20 26 20 10 27 28 27 17 11 9 9 36 16 24 23 14 19 20 31 17 17 7 10 22 17 16 28 21 24 23 16 40 20 15 20 19 16 27 25 17 41 38 17 28 19 24 28 17 26 38 3 27 38 24 14 9 16 27 6 20 20 25 20 23 20 28 13 21 23 20 10 21 20 20 16 17 13 27 27 23 14 19 34 10 13 10 40 21 20 14 13 19 23 13 13 7 24 17 34 0 24 17 28 7 21 13 17 20 20 31 21 7 6 17 19 20 17 23 34 27 17 30 21 20 17 19 10 24 20 13 26 22 38 12 34 27 22 17 20 14 27 14 31 20 19 14 23 17 13 20 10 38 21 30 24 21 23 19 24 27 31 17 16 24 20 27 19 27 13 17 13 23 34 11 14 43 16 13 20 17 14 17 13 8 30 15 17 27 20 8 27 32 24 10 21 12 31 24 20 18 23 31 8 10 20 38 30 14 23 10 13 9 19 19 13 15 20 16 15 14 3 15 29 24 14 27 20 27 13 14 17 20 16 28 17 30 14 20 17 29 14 18 11 9 23 14 20 14 17 14 10 27 28 21 38 13 30 20 21 17 16 7 37 14 29 41 23 27 20 22 28 27 10 34 22 24 20 30 24 19 30 14 17 20 20 23 20 16 9 13 16 23 28 41 16 24 22 13 10 16 13 17 24 15 18 28 10 20 19 30 13 27 13 27 16 30 30 10 24 17 26 30 21 21 23 23 21 13 27 31 27 27 17 30 13 12 19 24 21 28 16 24 24 12 9 23 20 27 10 30 24 27 23 30 10 20 20 27 25 30 21 20 17 17 31 35 22 31 27 23 19 20 30 8 20 19 10 37 16 20 7 27 16 20 26 19 33 30 22 20 23 20 20 27 14 12 16 17 16 15 28 23 37 10 28 16 31 10 17 16 17 13 19 14 13 9 23 17 13 23 17 17 20 19 23 17 28 20 14 31 6 20 30 16 24 17 24 23 14 21 14 23 23 18 22 31 21 16 17 27 20 12 21 23 13 23 33 13 24 18 15 22 24 8 40 11 24 31 24 36 14 16 30 17 28 23 19 14 30 21 30 3 6 21 6 20 24 22 13 32 26 23 6 19 34 22 20 9 13 23 30 16 32 30 24 31 17 9 19 6 34 23 24 17 23 6 31 16 45 13 24 21 16 16 24 34 17 3 15 23 23 24 17 20 10 26 14 20 17 17 15 12 19 16 23 17 20 41 20 27 17 42 20 29 19 34 13 10 16 3 17 17 26 30 27 10 17 10 0 26 27 14 23 21 20 13 27 10 20 28 16 21 31 12 13 20 34 20 10 14 35 20 9 17 26 20 17 24 38 13 21 31 31 14 21 30 23 22 10 16 6 20 26 23 16 24 31 21 19 10 21 16 13 24 21 9 20 19 16 30 13 24 26 28 19 7 34 17 28 20 17 20 23 30 15 7 36 13 17 20 16 20 19 16 20 10 30 14 28 13 31 28 18 3 27 24 18 6 27 24 10 8 24 13 20 17 13 7 17 16 20 3 17 13 12 13 36 13 24 27 10 24 23 26 17 31 15 7 17 19 42 17 21 20 32 17 20 34 10 15 16 16 28 19 13 23 30 43 25 30 38 20 13 20 44 31 24 27 3 20 19 14 6 41 12 17 23 29 20 21 19 14 23 16 34 17 17 34 12 16 36 21 3 6 20 20 7 6 14 14 17 19 32 10 16 14 24 30 12 27 5 28 13 20 19 13 13 24 17 7 31 10 20 10 10 24 6 27 31 17 21 23 33 26 22 20 23 20 24 13 25 9 16 42 23 30 41 13 31 25 15 22 10 27 20 21 7 28 20 12 5 17 17 24 17 35 14 23 30 17 10 13 23 14 30 24 19 6 3 20 30 11 16 11 10 27 31 20 20 20 13 14 13 23 30 20 13 10 19 9 14 6 26 17 3 21 27 31 40 23 16 20 23 20 23 30 23 16 22 27 19 23 13 12 31 30 10 16 21 14 21 22 16 10 20 7 20 10 41 13 16 20 3 3 19 28 17 21 21 22 27 24 9 19 19 35 3 24 15 20 37 10 27 30 20 20 28 20 31 10 21 20 17 6 21 23 27 29 20 24 24 17 24 15 7 14 14 17 20 19 14 24 22 27 42 24 16 14 21 17 24 20 13 16 17 24 13 20 26 24 21 21 20 16 13 30 10 20 7 24 30 15 20 16 21 6 30 13 24 13 24 13 38 33 13 16 26 14 14 30 21 23 19 25 15 7 14 20 24 19 14 13 24 24 17 22 6 25 21 22 6 9 27 26 17 24 7 23 23 17 17 27 23 27 3 12 22 12 28 33 26 21 21 10 30 12 17 30 30 13 16 20 22 10 34 16 20 28 22 13 24 13 16 9 9 20 16 16 42 19 24 14 34 24 10 17 17 13 24 19 16 10 14 41 10 20 21 38 16 9 14 27 31 24 20 14 19 12 12 24 16 23 24 21 17 28 12 24 15 12 17 18 34 17 19 14 27 7 7 17 20 27 21 23 22 24 23 14 34 29 17 10 10 10 29 29 17 17 19 13 13 17 10 17 27 17 14 30 27 17 24 21 27 23 20 27 20 27 13 9 21 14 20 23 19 6 16 3 23 17 14 14 37 20 21 21 15 26 28 6 21 16 12 27 24 3 24 40 18 10 37 13 14 24 20 34 15 22 13 17 24 22 29 19 28 27 27 21 26 24 29 26 24 13 13 20 10 17 21 31 30 18 21 17 23 20 6 13 17 6 17 17 24 30 16 27 7 17 23 10 24 34 21 12 20 27 10 17 20 35 20 16 9 27 24 10 27 15 17 17 27 17 13 30 14 24 23 30 13 20 20 30 20 16 17 14 31 3 40 15 20 31 19 7 17 20 10 9 27 6 29 23 21 32 20 9 24 24 7 7 21 20 20 20 27 31 23 30 13 21 6 28 7 24 10 15 22 16 21 17 37 9 24 27 24 21 19 21 14 13 12 27 24 30 10 20 20 35 17 24 13 6 9 24 16 24 20 12 14 16 27 22 30 19 16 30 16 37 31 36 16 27 15 17 23 17 14 37 27 23 27 14 27 16 20 20 16 23 10 15 42 31 23 23 24 20 27 16 24 9 10 8 19 30 15 18 10 31 23 30 27 31 27 19 29 27 17 7 15 12 14 13 21 20 33 20 14 17 22 20 14 27 3 18 20 24 31 29 19 17 20 26 7 20 29 9 38 26 36 26 38 27 27 13 26 21 18 23 35 18 38 16 10 20 14 21 26 13 10 29 7 24 14 14 15 3 10 20 23 14 22 7 18 26 24 9 20 20 13 16 13 14 24 20 23 27 31 23 17 16 9 13 24 6 13 31 17 20 16 24 31 18 12 7 31 26 9 24 13 20 6 13 24 14 20 11 6 22 34 12 3 14 20 15 16 34 10 10 6 30 13 21 24 0 29 14 17 21 22 22 30 44 19 24 17 22 27 7 23 13 30 10 24 27 28 13 28 26 33 17 20 9 9 20 11 15 31 31 24 10 15 14 19 31 14 19 24 14 26 15 20 17 34 17 17 20 38 26 24 18 28 27 13 30 10 17 38 27 23 15 22 21 19 21 29 19 7 23 20 35 14 24 26 24 20 10 13 27 9 7 9 18 23 19 13 14 12 28 20 20 0 14 17 30 30 24 19 30 24 24 16 37 19 28 14 27 28 29 24 22 10 31 23 13 16 17 15 20 13 37 21 21 27 27 24 20 21 21 24 16 16 18 22 24 23 12 23 23 6 13 27 22 14 6 21 17 13 10 19 30 21 16 27 24 16 9 20 21 24 20 9 21 9 37 23 20 9 17 13 30 27 17 23 27 20 13 31 25 27 13 16 7 20 23 31 16 12 17 28 9 30 17 21 28 18 23 36 14 33 16 14 19 22 13 10 14 13 20 24 20 14 10 16 27 30 15 31 17 7 13 34 26 21 31 23 23 31 12 25 16 12 17 21 17 24 35 21 23 17 14 19 24 20 19 17 20 31 6 6 23 17 17 16 24 30 21 23 17 17 21 23 13 9 32 21 17 6 17 18 21 28 12 13 17 22 19 24 31 20 29 23 10 33 7 30 21 24 17 25 12 12 23 24 19 23 7 20 24 10 16 6 16 13 28 3 30 27 20 19 35 27 35 22 27 28 30 16 13 30 11 26 17 23 17 14 24 24 20 19 23 19 17 29 14 10 19 14 17 12 17 17 17 7 15 13 31 33 26 27 23 13 13 21 10 9 24 20 13 41 17 10 11 10 15 20 14 20 9 33 17 21 13 30 17 21 13 10 8 17 14 30 31 15 3 13 35 23 6 17 24 31 27 10 24 33 7 17 17 6 17 20 31 9 13 24 21 31 13 16 19 30 7 24 38 24 26 14 30 27 10 30 0 13 20 13 22 20 20 24 12 10 19 14 17 20 20 17 31 20 28 23 31 16 34 27 3 3 20 9 14 21 27 10 30 16 21 31 14 14 22 28 17 21 31 14 17 20 17 14 27 6 30 7 19 14 27 28 17 17 9 13 16 21 20 16 21 20 35 24 6 10 38 6 29 9 24 9 31 27 17 27 13 31 20 20 15 10 7 20 24 27 26 17 13 24 20 17 20 24 20 17 34 16 20 13 17 7 26 16 24 20 14 23 27 16 20 17 22 23 12 7 13 20 14 24 12 13 28 20 22 37 23 16 21 22 14 21 14 21 20 21 24 24 24 24 18 34 20 17 6 24 18 22 17 30 23 19 19 33 3 21 26 22 12 21 31 23 27 17 17 24 23 30 6 23 10 13 17 14 13 27 28 6 21 36 37 26 26 28 6 27 20 24 10 23 27 34 22 24 9 16 19 12 13 27 0 33 24 20 17 24 24 23 30 21 12 20 10 17 20 17 20 24 20 20 19 31 17 17 10 7 16 21 22 27 16 20 10 37 17 25 18 23 34 20 14 19 0 16 24 14 15 23 3 20 21 23 16 19 20 28 27 24 29 17 23 18 28 38 20 14 35 11 10 16 15 30 42 13 16 28 17 19 20 19 15 19 9 19 21 16 20 34 17 7 3 6 9 19 12 24 24 25 17 18 24 17 38 45 24 14 19 24 20 12 6 21 15 20 31 10 23 21 38 23 23 21 23 30 23 19 16 17 17 22 40 10 24 13 24 17 16 23 27 17 6 13 10 20 24 15 31 27 9 12 19 13 17 21 24 21 26 10 24 16 27 33 20 16 17 26 31 20 24 23 6 24 13 20 27 31 16 33 17 10 48 30 15 8 7 23 23 21 28 21 12 14 20 20 17 13 15 20 30 10 24 31 20 33 24 6 24 19 20 34 24 24 23 27 25 19 7 26 20 20 26 28 38 10 12 20 7 25 22 20 7 27 31 26 13 19 34 16 23 12 22 11 20 17 15 23 31 13 20 13 17 13 22 21 31 21 13 16 14 24 29 3 10 18 27 28 12 13 16 6 17 26 27 26 14 27 28 21 24 11 25 12 12 13 24 30 29 16 17 17 12 27 24 6 24 14 38 20 23 16 27 13 14 27 20 23 13 24 17 24 17 24 23 33 20 12 13 19 17 43 27 17 38 19 30 20 23 13 20 22 26 10 31 10 38 28 9 10 26 27 27 12 20 10 22 23 16 28 34 10 27 22 35 17 12 24 13 7 34 16 20 13 17 11 28 13 21 13 38 20 20 34 24 20 17 16 27 14 38 24 23 31 27 16 16 8 19 27 26 30 23 24 17 27 7 7 6 26 6 25 26 34 27 30 16 24 10 10 18 30 17 20 17 13 30 27 10 24 16 20 16 7 14 20 17 27 13 14 30 24 10 28 21 19 17 26 17 26 14 23 12 17 23 17 16 27 13 13 17 6 10 24 34 23 27 13 27 34 24 12 27 26 28 21 21 17 23 6 13 17 13 19 20 27 24 23 20 28 17 27 23 28 17 17 31 15 30 42 21 23 19 24 28 14 20 13 17 17 30 13 17 28 14 31 17 40 13 23 24 16 24 31 17 20 33 13 17 17 20 18 16 7 20 20 17 21 13 27 13 3 31 13 10 16 21 16 14 23 27 17 17 20 20 24 10 34 17 19 24 23 15 20 24 17 26 21 3 16 13 13 24 27 30 17 28 27 24 6 13 13 28 26 28 19 19 3 19 19 9 20 18 23 17 20 27 20 17 24 38 14 19 26 14 17 18 6 14 7 10 18 36 9 23 17 24 10 16 16 31 25 3 19 27 20 16 17 46 23 24 25 6 27 23 17 29 33 15 17 33 24 16 13 10 10 24 4 17 23 28 42 14 40 16 14 22 17 17 27 30 24 14 10 17 17 27 23 17 21 16 24 10 16 13 30 10 20 20 14 13 12 30 16 17 22 20 24 35 16 3 27 13 16 24 20 17 16 24 21 3 31 18 17 31 14 14 17 38 23 17 14 13 3 17 30 30 20 28 29 15 10 25 10 24 19 28 23 22 6 16 13 28 21 13 26 22 24 24 23 10 14 7 21 19 23 14 30 23 17 14 21 17 24 14 21 24 17 9 23 16 27 17 10 30 24 27 10 29 24 21 16 20 24 13 28 27 17 20 38 10 20 19 19 10 28 24 17 34 7 17 27 24 13 13 6 3 21 31 14 17 14 2 26 13 27 24 17 20 20 9 17 20 24 27 13 17 27 10 38 20 21 23 6 14 40 23 19 30 20 30 20 13 0 27 13 10 33 24 16 21 13 16 16 21 6 14 9 24 22 11 24 30 20 16 34 3 20 13 10 30 14 30 13 36 19 21 23 31 7 20 0 27 9 14 19 23 21 13 29 16 23 24 16 19 24 23 17 17 19 20 21 20 7 0 10 24 34 35 19 17 20 27 23 13 21 33 23 31 26 18 38 20 19 23 30 28 31 7 34 20 27 13 24 23 23 14 24 31 6 18 26 10 25 13 13 23 23 23 20 26 6 14 13 23 27 30 24 30 24 17 14 17 18 10 21 23 15 30 27 17 34 24 17 17 27 29 13 10 10 24 24 21 19 23 27 15 24 30 16 19 10 14 27 28 18 26 17 27 19 35 6 6 6 16 28 27 13 14 16 16 26 3 24 24 14 9 24 27 27 16 29 17 28 28 21 30 13 24 14 26 22 16 16 6 26 23 23 15 7 6 23 25 26 20 24 15 16 21 21 10 13 6 28 31 17 20 25 24 38 37 24 23 20 31 23 10 31 9 20 18 17 7 18 19 24 20 12 23 14 16 21 20 20 9 13 15 24 20 9 14 15 16 13 19 15 19 6 16 23 26 20 26 31 34 17 20 17 12 7 22 20 19 29 23 16 30 17 28 9 22 22 10 10 14 21 14 34 17 17 32 21 34 16 20 31 24 24 17 20 16 19 16 10 22 14 27 20 16 28 22 20 30 21 20 17 3 24 6 23 24 23 38 10 17 16 17 14 15 10 20 20 19 14 23 19 19 27 10 20 27 16 16 20 20 23 17 25 17 7 30 27 24 16 30 13 20 23 34 24 38 13 10 10 41 20 21 24 26 24 24 15 24 15 14 33 21 24 21 13 17 20 31 23 34 10 23 22 34 14 23 36 6 12 10 17 7 20 34 21 27 32 20 23 13 28 20 23 13 17 13 29 20 7 42 31 17 21 16 6 24 21 30 22 21 20 17 27 21 24 18 16 13 13 24 17 28 10 16 24 20 21 24 14 30 17 20 20 17 19 10 3 30 23 26 29 27 26 19 38 16 14 20 27 19 11 13 20 10 30 14 15 6 10 27 22 21 18 27 30 13 27 31 27 27 23 17 21 24 3 19 30 28 10 27 28 35 3 24 17 12 34 19 26 14 34 10 17 27 33 10 7 10 9 22 25 17 6 27 13 20 9 16 41 16 26 40 23 18 25 16 27 14 14 12 11 20 20 14 14 8 14 13 34 7 16 12 27 20 10 24 23 10 20 10 10 24 24 14 20 19 10 31 23 20 14 17 19 28 10 28 13 17 24 21 23 23 29 17 15 10 14 24 17 7 27 24 19 20 23 16 24 25 23 28 16 6 23 18 17 10 35 14 30 33 40 27 16 13 30 17 35 20 24 19 28 14 17 31 23 13 30 17 28 17 14 15 23 13 20 9 23 17 24 13 23 14 10 16 24 21 14 19 22 13 12 28 13 27 14 12 27 28 31 28 27 30 20 12 26 16 27 15 33 33 12 21 21 28 14 31 23 20 19 30 17 10 20 24 27 27 10 13 26 16 19 16 24 14 7 23 17 13 19 35 14 3 24 7 27 32 16 26 21 10 37 21 17 16 12 16 30 21 16 14 17 27 18 21 6 6 20 22 16 31 24 13 19 42 13 21 27 25 38 27 34 21 16 6 17 19 23 21 24 24 20 17 31 16 14 38 27 24 20 23 21 16 6 18 3 37 24 31 7 21 18 10 13 28 31 28 23 27 10 10 24 13 23 19 12 38 20 31 24 12 17 24 13 14 9 8 21 17 17 20 20 11 27 12 20 15 23 17 9 19 37 13 12 7 16 13 24 24 20 31 13 26 21 24 21 14 37 21 12 16 14 20 19 31 16 17 38 24 17 19 27 23 30 24 24 28 19 7 20 18 13 13 28 17 27 17 17 24 14 21 24 20 3 21 30 8 19 45 24 28 23 6 23 31 16 28 7 31 20 16 24 23 27 20 20 36 3 9 31 20 23 27 16 28 28 19 13 27 13 8 24 34 10 0 18 26 31 26 22 21 21 21 13 13 38 15 10 21 21 3 13 27 23 14 19 19 3 18 14 19 20 35 27 18 30 24 27 16 15 16 17 28 20 27 16 27 24 19 28 33 20 13 17 23 24 20 10 34 28 9 17 16 21 31 15 13 26 16 25 16 31 21 10 24 17 23 16 24 23 14 21 17 17 14 25 34 16 13 26 23 13 14 19 41 13 27 22 17 24 31 37 27 23 12 20 17 16 24 38 27 23 29 3 23 23 13 20 29 29 10 29 23 28 9 13 27 26 33 22 16 7 26 16 21 28 31 41 21 31 7 12 19 24 38 15 27 13 15 13 36 24 13 10 13 28 20 35 20 3 20 20 17 10 25 6 28 14 10 22 30 14 20 10 10 35 28 27 9 7 23 20 13 24 15 26 38 14 20 22 24 14 17 17 22 26 22 26 17 27 7 18 26 13 24 33 17 6 31 16 28 23 19 6 17 14 10 16 32 16 13 30 30 14 27 10 34 13 17 25 16 28 3 34 15 24 28 17 20 7 24 22 13 27 3 20 25 28 38 31 14 6 30 28 34 19 27 13 41 20 20 14 13 17 16 31 24 27 10 25 20 35 25 18 13 16 5 19 9 10 22 21 20 17 13 14 27 18 31 21 27 16 28 27 12 21 14 13 10 25 16 7 7 17 20 28 21 31 19 34 21 21 16 10 19 20 16 22 35 17 10 16 24 13 16 9 44 16 10 25 23 21 20 19 19 12 20 31 14 41 26 17 3 28 14 10 17 15 24 13 23 10 7 17 28 18 11 15 10 5 19 17 11 13 24 16 23 17 18 24 10 27 17 11 20 27 17 26 24 19 27 15 45 10 9 22 27 16 23 12 10 8 9 21 23 22 10 18 24 23 17 9 19 35 23 24 24 24 18 31 17 15 12 17 10 17 7 24 26 19 10 30 14 17 30 30 30 31 17 17 21 31 28 28 30 26 29 20 21 21 15 17 16 31 35 14 9 21 27 30 19 24 23 26 17 16 24 17 27 10 31 20 21 30 13 15 21 19 21 17 20 17 24 22 20 14 7 13 17 31 7 10 24 27 24 30 38 6 19 19 27 31 15 20 27 6 17 26 28 20 28 33 17 35 27 9 0 6 17 31 30 19 24 17 17 21 13 23 6 17 34 31 22 23 20 16 13 23 7 22 20 30 21 20 13 18 19 31 24 10 13 27 26 19 13 23 17 20 20 26 24 17 32 20 13 10 27 33 21 23 17 24 31 8 24 20 33 27 27 48 31 26 24 10 24 24 27 23 21 20 7 14 17 23 31 16 37 17 34 24 20 21 20 20 20 20 12 9 11 22 27 13 21 14 10 20 20 33 21 17 17 22 13 27 23 14 17 16 20 15 17 16 17 10 10 9 16 10 35 20 37 13 28 41 24 31 27 24 41 19 22 15 23 0 21 29 22 17 27 17 30 31 6 20 24 28 31 13 13 17 15 19 7 14 18 27 22 26 7 12 27 31 23 15 19 22 37 23 30 9 17 24 14 28 23 7 14 10 27 20 3 27 20 27 31 27 20 9 18 23 22 31 6 26 30 23 35 10 15 15 19 20 16 20 17 20 27 13 33 31 23 13 30 17 13 13 13 38 9 28 23 8 9 27 31 27 27 41 21 27 16 27 14 14 25 23 17 7 13 14 13 33 26 17 16 10 20 16 17 13 10 26 27 22 31 41 13 16 18 22 21 17 9 12 38 23 11 31 22 13 26 13 24 30 17 10 17 14 13 12 25 20 27 10 23 23 20 24 20 13 18 9 12 10 31 31 17 20 24 9 17 14 17 13 31 16 16 21 27 13 22 20 17 20 21 33 20 17 18 27 20 31 15 24 14 20 20 6 33 14 20 28 17 13 27 20 27 12 27 28 11 16 19 30 7 17 23 32 6 20 23 14 27 21 13 16 21 10 28 13 17 18 24 20 10 26 13 16 27 26 31 13 13 27 24 10 28 17 17 26 12 36 23 17 24 23 30 19 6 13 28 31 6 13 20 24 34 12 7 20 24 16 14 25 30 23 26 21 23 12 13 19 13 16 16 23 23 10 12 17 31 19 13 20 20 23 17 27 17 22 22 23 14 12 19 20 31 7 20 24 28 10 17 13 20 30 27 20 23 7 23 41 17 16 17 21 24 13 24 19 23 31 16 27 28 27 17 24 23 21 23 9 31 31 14 20 19 21 31 28 41 16 21 27 7 27 20 21 24 28 17 20 21 20 24 17 27 21 10 21 0 10 34 10 24 28 28 23 27 16 19 30 27 6 24 16 12 23 19 10 22 27 24 14 31 17 20 7 17 7 21 38 27 14 23 37 13 21 7 23 17 26 13 31 30 17 12 14 27 38 23 19 15 14 17 20 19 20 20 29 17 20 24 45 13 27 20 25 19 23 6 24 16 23 10 21 9 23 21 6 20 23 17 34 24 20 24 23 27 24 34 17 20 19 9 28 19 14 27 26 24 27 31 26 17 19 10 16 9 19 6 46 38 7 19 31 23 17 16 24 9 20 33 17 31 28 31 13 23 24 3 10 20 23 21 10 16 12 22 27 28 10 22 7 10 20 9 16 34 34 25 27 30 20 24 21 6 26 24 15 24 7 6 9 20 7 18 13 17 19 20 6 23 29 17 26 20 7 19 19 27 27 3 28 20 20 26 16 9 24 31 16 21 24 16 26 17 20 24 16 16 13 19 27 6 23 15 17 15 27 10 18 17 3 24 16 16 10 10 14 13 24 27 10 19 24 24 17 31 24 19 34 16 17 13 34 19 27 9 24 24 16 20 27 9 12 11 17 15 23 12 23 6 13 31 23 23 20 13 6 17 31 23 9 15 27 22 28 30 22 13 42 19 16 15 20 24 27 31 17 27 6 14 30 21 27 24 41 14 21 32 16 22 27 7 24 20 10 16 27 19 6 30 10 23 21 16 17 13 36 20 19 10 44 17 10 21 24 41 35 20 10 7 19 19 13 18 17 28 27 18 28 19 17 17 10 10 27 14 29 14 27 35 28 17 17 17 19 14 18 17 16 22 31 7 20 24 17 24 23 28 17 6 9 35 14 13 18 36 27 24 23 23 25 16 24 17 31 7 25 22 27 21 20 16 14 24 12 27 15 17 30 27 28 31 19 20 9 31 22 28 35 21 14 33 27 21 16 30 20 14 20 16 24 21 14 34 11 3 3 25 13 31 24 26 34 24 17 21 24 21 14 38 6 20 0 27 20 17 30 15 6 0 14 20 19 37 10 9 3 26 13 24 12 9 13 24 23 10 18 37 34 34 30 14 34 27 16 24 17 19 5 27 31 25 17 10 23 20 22 24 24 28 14 24 23 14 28 9 16 7 18 15 24 24 27 21 13 21 20 25 22 16 28 34 19 20 37 17 24 10 20 28 16 7 43 10 17 13 23 17 19 43 28 17 19 10 21 18 19 18 24 21 17 23 21 12 19 28 21 20 24 23 23 23 13 24 26 20 17 23 27 28 31 16 19 31 20 33 41 16 30 24 19 12 13 28 13 23 14 20 14 18 14 28 16 27 24 17 37 10 14 25 16 30 37 13 14 22 17 23 14 21 24 41 16 17 16 22 25 20 21 21 21 31 23 30 18 3 28 9 29 10 27 24 20 26 15 16 20 14 17 7 27 23 40 45 31 13 18 20 22 14 20 14 10 23 10 19 14 16 37 13 34 34 19 20 34 22 10 20 24 25 23 29 28 20 17 14 13 30 35 21 14 17 21 3 14 20 13 10 30 23 21 3 18 6 17 7 23 16 12 21 21 31 23 18 14 10 24 35 10 14 17 14 20 24 24 25 17 13 30 42 24 24 24 20 29 23 9 27 13 7 27 22 15 16 37 24 13 24 20 14 21 24 16 35 24 15 23 25 31 44 21 14 24 30 20 28 21 31 22 31 10 16 23 24 14 19 21 12 17 21 14 17 21 20 20 13 30 31 24 22 31 12 7 36 23 24 14 38 28 27 24 15 42 13 14 24 3 28 17 30 23 16 23 23 20 17 18 23 19 10 19 23 23 20 6 24 17 16 9 10 20 26 14 24 16 3 30 13 6 27 27 20 27 27 17 10 24 38 19 16 13 24 25 27 33 27 17 13 27 25 21 16 13 21 17 27 20 19 16 10 20 31 10 26 24 24 21 35 14 10 9 11 13 14 26 30 0 20 13 16 20 13 9 28 31 13 23 12 24 9 17 15 13 16 37 23 35 20 20 23 31 20 9 23 13 16 13 27 21 14 27 10 16 18 43 14 31 27 16 21 24 27 20 17 13 35 14 17 16 42 30 20 14 14 23 7 14 19 20 14 21 31 13 30 21 9 28 16 33 22 20 23 16 17 23 22 20 15 23 22 17 24 17 21 13 21 9 22 22 10 15 20 20 28 24 14 21 14 20 37 23 6 17 3 23 30 16 17 14 6 30 10 24 3 18 17 23 14 6 23 20 20 10 24 6 24 24 24 26 23 27 21 31 36 20 9 31 27 20 14 24 10 20 26 27 44 14 9 17 21 17 28 27 16 10 36 31 6 21 27 0 21 17 13 17 17 26 24 20 22 27 21 34 34 6 9 10 3 20 19 24 20 26 10 15 10 24 16 10 10 17 18 14 12 20 27 21 27 14 27 10 0 19 31 20 37 19 17 26 14 23 24 10 20 23 16 14 9 20 9 30 17 9 28 18 20 27 26 41 6 23 6 10 24 14 12 13 10 16 24 30 16 27 30 15 20 13 23 10 9 16 14 24 16 17 17 10 21 3 20 19 17 10 23 9 33 18 17 24 28 28 27 19 23 20 16 18 30 27 13 13 14 23 25 38 17 21 6 20 37 21 20 41 21 24 20 24 17 27 24 20 23 3 21 10 30 20 31 13 18 20 31 17 23 20 13 31 16 16 27 30 24 21 23 14 16 24 24 24 17 3 12 13 13 24 17 19 17 37 26 7 20 29 24 23 7 31 24 21 9 16 24 26 0 13 16 14 31 47 20 19 34 17 21 27 20 24 13 10 16 13 17 20 17 10 30 31 27 23 9 20 9 27 20 17 27 20 21 9 10 21 27 21 17 17 17 20 35 17 24 20 14 21 28 28 33 27 24 28 22 10 17 21 13 21 33 14 31 23 11 27 24 23 20 20 30 20 27 34 10 14 28 28 41 17 22 22 28 31 10 14 19 10 21 28 16 24 10 25 23 31 21 19 27 24 17 21 26 14 27 21 23 14 17 19 3 20 35 21 24 3 13 17 16 27 24 24 23 24 14 17 21 22 16 27 20 31 17 13 20 21 19 16 34 24 12 19 13 24 25 9 11 17 13 20 24 23 23 27 21 32 30 24 13 16 31 7 24 25 48 10 18 13 38 13 31 21 16 24 19 31 23 26 35 33 20 27 34 19 16 16 21 24 19 10 9 31 17 14 33 41 7 26 28 17 24 15 34 13 13 24 14 15 13 30 37 30 13 26 3 23 26 24 34 17 19 17 14 18 13 17 23 23 7 28 20 21 24 16 10 16 15 24 17 16 17 30 21 12 6 17 24 14 29 21 17 31 15 21 23 24 34 7 16 20 7 27 17 20 27 7 20 27 21 27 34 7 23 17 24 24 9 32 27 18 35 17 23 24 14 13 14 21 23 16 16 20 14 9 17 24 17 23 20 40 24 24 23 17 19 38 27 17 20 31 24 14 16 20 27 10 10 16 7 16 22 10 19 19 23 19 20 21 16 17 30 26 6 24 23 19 14 25 17 24 20 23 31 14 14 13 15 14 27 16 3 20 16 21 10 30 21 20 23 10 22 16 9 35 13 22 20 27 23 30 20 19 27 27 13 17 14 17 13 24 19 25 34 21 19 17 37 14 27 20 14 23 20 25 13 31 25 17 14 26 16 10 17 21 38 24 23 24 24 15 7 27 28 20 34 17 21 17 13 14 16 12 0 7 12 25 20 24 13 26 13 24 23 27 21 10 33 10 15 23 28 27 21 9 28 12 34 20 24 21 20 23 10 35 17 21 23 20 29 16 16 13 12 27 15 19 21 23 22 16 14 17 24 8 9 13 21 24 17 30 20 25 21 22 24 24 17 13 26 7 22 21 10 31 24 23 21 7 19 12 38 14 19 31 13 17 27 17 24 31 27 16 13 18 13 20 17 17 10 17 17 10 0 10 14 26 13 18 17 30 24 17 23 24 20 22 24 27 19 20 33 17 24 25 35 17 17 28 27 17 23 21 12 17 13 6 37 17 20 13 17 21 20 33 27 20 21 27 17 3 21 30 20 27 27 20 14 13 14 16 14 19 16 13 27 19 17 19 13 13 31 31 14 10 23 26 21 27 30 38 14 40 21 17 21 15 3 16 26 13 35 15 19 24 12 26 26 16 17 20 27 11 14 10 20 3 20 24 24 24 13 3 13 17 21 17 31 24 20 29 20 14 17 16 10 7 21 14 6 35 13 27 13 19 20 26 23 35 10 31 34 23 24 20 20 23 15 29 17 16 20 22 20 28 21 20 20 38 7 16 13 27 24 13 17 19 20 26 23 23 3 17 7 17 27 20 20 34 17 13 15 23 23 20 27 23 21 16 32 29 18 13 29 18 27 13 19 10 26 3 13 15 13 20 17 28 29 16 24 14 17 34 17 21 24 3 26 26 13 44 30 14 47 27 14 31 29 38 27 14 31 12 33 24 27 34 6 14 33 22 20 14 19 14 18 7 24 20 24 14 17 23 20 13 12 14 24 20 21 10 23 17 16 34 12 27 17 27 24 13 17 19 34 28 14 29 24 21 20 13 14 20 37 6 24 21 17 24 13 21 30 21 20 17 10 45 13 25 19 34 27 34 6 30 16 23 34 31 18 24 21 17 24 20 27 20 17 24 6 7 16 6 27 42 24 8 16 17 19 26 17 38 23 24 16 22 19 16 17 13 28 18 20 24 23 14 16 3 16 20 21 21 38 27 30 28 14 22 13 17 27 37 23 27 20 35 19 17 23 18 22 23 14 10 9 12 17 13 34 22 26 20 21 17 12 21 20 19 30 38 13 37 24 21 10 30 20 21 17 34 9 31 25 14 21 19 23 20 27 31 17 10 15 19 17 15 10 6 24 10 20 22 13 27 10 13 24 9 17 24 33 17 21 20 20 21 19 16 17 22 27 13 27 24 13 24 17 21 7 0 38 20 10 16 27 24 7 31 17 15 15 14 20 15 13 12 7 16 14 15 26 28 26 13 28 13 23 16 17 26 14 11 17 24 16 24 16 29 26 17 16 16 10 16 16 16 31 23 7 24 37 25 35 19 9 13 19 20 10 25 38 6 24 31 20 14 10 7 23 26 16 30 10 41 9 24 24 7 20 9 35 17 31 23 20 27 20 13 29 27 21 13 38 3 10 20 10 20 31 17 10 18 26 24 10 15 18 21 21 28 19 13 18 24 27 17 13 24 27 20 21 26 6 24 19 23 23 19 25 20 20 24 30 27 17 41 34 27 17 24 21 23 12 27 19 23 14 27 20 23 21 20 30 25 18 24 22 13 16 0 24 17 42 35 20 22 22 28 41 24 10 27 37 31 30 41 24 21 20 28 14 20 16 30 25 20 27 27 24 20 24 29 27 38 20 34 19 14 17 13 24 30 29 10 20 31 19 26 6 14 28 16 23 31 23 34 18 30 16 18 16 10 30 15 20 26 29 10 10 17 34 45 28 31 24 18 24 24 3 27 13 14 19 17 35 24 16 9 20 16 24 26 38 25 17 10 20 17 24 24 26 38 27 28 29 31 23 18 24 17 7 20 27 14 20 24 18 10 23 10 23 13 16 27 23 21 19 30 17 31 17 20 27 21 14 10 23 23 24 16 36 9 27 30 10 23 30 24 15 17 13 9 15 9 24 27 10 27 23 14 38 21 10 32 14 24 7 20 24 10 21 38 23 27 10 12 20 20 17 21 20 33 21 17 17 7 19 19 27 31 25 34 14 17 19 23 3 35 27 6 27 8 31 18 24 27 17 23 27 35 20 26 20 17 13 22 17 21 22 23 26 21 7 27 14 14 25 14 15 20 24 17 28 21 22 12 17 19 16 18 16 16 27 27 24 23 19 24 13 37 17 28 40 31 11 34 20 10 20 10 24 17 17 33 9 9 22 17 24 24 27 15 18 27 31 14 10 27 16 10 27 28 24 22 13 18 26 18 29 12 11 20 27 21 17 9 21 20 13 14 26 38 28 30 23 14 19 24 0 21 27 17 24 21 28 13 27 17 21 19 26 22 14 41 3 18 13 27 22 17 20 16 27 23 32 27 26 20 21 41 21 21 17 23 17 32 41 34 36 20 10 16 16 21 21 27 23 18 17 26 20 23 30 14 30 17 19 33 16 18 30 25 24 28 31 14 24 3 31 17 26 30 13 17 25 17 43 28 31 14 12 41 13 27 20 31 17 14 16 17 17 16 26 16 24 33 19 31 10 22 17 24 24 24 6 31 20 21 28 9 15 9 20 7 17 34 32 13 17 13 34 13 24 17 27 27 18 28 12 28 17 10 27 17 13 16 16 20 10 24 6 20 21 14 19 31 12 10 24 23 20 14 20 13 10 10 42 23 13 17 20 33 24 17 16 14 21 20 24 10 14 28 28 27 6 24 21 28 25 31 24 7 20 21 30 7 30 23 24 20 16 13 17 21 17 21 16 30 24 17 21 23 23 20 20 27 12 19 16 24 30 23 13 29 26 24 24 23 20 14 17 21 20 12 26 16 15 22 24 22 13 20 27 35 3 24 9 20 20 14 27 19 31 19 12 27 34 20 16 3 24 17 23 27 20 24 13 13 25 30 13 14 22 11 19 17 31 27 27 14 20 10 19 27 16 6 15 17 31 13 24 21 21 24 23 31 21 23 25 23 16 10 26 6 22 16 15 17 24 22 23 12 19 17 18 16 10 17 27 23 28 23 28 14 19 27 17 22 21 31 31 23 10 20 25 13 37 33 10 9 13 21 23 16 9 19 20 20 16 7 29 17 16 13 31 14 33 13 16 18 17 31 17 10 19 17 24 34 10 26 23 7 20 24 20 9 14 13 35 10 23 17 6 33 10 30 12 13 23 26 12 28 13 24 16 26 22 24 24 28 16 27 27 10 11 13 21 33 17 10 22 27 24 12 21 38 23 24 10 19 16 29 16 24 14 20 18 22 6 12 21 14 25 16 28 24 21 20 34 28 21 17 19 6 23 24 23 13 13 27 23 19 12 24 14 34 27 26 20 17 17 10 31 25 17 19 31 17 10 11 24 17 27 30 20 20 18 26 25 13 20 26 22 10 28 13 16 12 10 10 10 14 33 24 6 13 14 14 26 24 20 33 21 23 34 26 31 23 34 14 38 23 17 27 29 26 16 9 14 7 24 7 19 10 23 6 17 16 23 16 17 20 20 7 27 9 15 20 17 16 17 24 17 13 23 24 16 10 25 20 27 9 17 27 7 26 27 25 24 21 13 13 11 13 24 19 27 13 38 16 9 27 28 15 20 10 16 6 13 24 24 28 31 28 17 27 7 19 20 10 18 19 30 34 27 26 14 10 10 35 14 14 19 17 23 8 17 21 40 31 46 26 17 33 14 6 13 24 17 12 17 22 41 14 9 10 27 34 13 34 17 10 19 16 26 19 12 29 23 20 24 18 3 24 22 24 6 21 22 24 13 16 7 11 23 21 23 24 24 17 13 27 24 13 18 21 21 18 24 13 7 20 22 17 22 6 21 20 10 13 21 41 24 14 24 17 12 27 15 20 14 17 23 17 16 28 19 16 14 13 24 17 26 6 24 22 26 21 20 22 9 28 20 13 13 23 34 27 23 16 27 12 22 31 20 7 20 30 13 18 17 16 28 21 31 20 31 10 20 15 25 21 20 21 31 19 13 20 27 14 16 15 27 30 17 18 17 24 23 22 27 23 20 16 15 26 33 16 20 6 16 13 16 37 7 30 13 17 16 12 20 20 17 22 10 17 28 27 42 27 24 29 25 19 14 9 17 17 19 22 25 38 20 21 17 26 23 24 24 6 13 29 14 24 23 13 19 44 14 19 16 22 13 29 31 19 9 9 17 14 17 30 10 23 14 19 19 3 8 17 20 22 20 12 20 27 24 22 10 25 14 27 14 22 21 13 10 13 13 23 24 29 10 23 10 27 14 20 22 28 23 13 31 23 6 13 18 19 10 24 26 27 34 21 20 26 16 34 23 21 41 21 14 16 29 9 17 13 27 15 13 20 19 23 12 17 26 12 37 23 10 34 26 30 10 17 14 16 20 10 17 24 20 27 23 14 20 20 20 24 20 19 13 14 30 17 28 31 28 29 16 16 35 20 33 16 14 20 10 16 24 31 28 20 37 15 26 16 21 20 16 20 7 29 17 17 37 21 27 16 19 17 26 17 14 24 28 17 16 30 16 13 13 16 24 14 30 14 9 20 7 31 15 6 23 26 41 16 30 28 24 22 27 12 23 26 20 33 23 30 27 13 24 28 26 30 30 33 38 37 28 27 24 34 21 10 20 24 23 10 16 23 17 16 27 24 30 6 16 26 24 10 28 34 3 13 10 23 23 24 30 23 28 13 13 27 41 10 9 14 20 23 24 25 20 16 10 6 15 22 14 29 0 26 12 27 19 27 25 6 16 20 27 9 27 24 24 24 31 24 10 37 16 24 22 13 20 23 25 23 16 23 31 20 25 14 24 17 13 13 20 27 20 7 20 27 20 13 28 17 6 21 21 21 9 23 31 18 20 6 9 17 14 17 23 7 20 17 28 21 23 17 22 24 3 16 30 31 18 17 24 21 13 33 15 10 17 23 16 3 22 42 19 24 16 14 6 31 27 13 26 30 22 20 26 27 10 20 10 16 27 19 18 17 19 17 13 24 7 30 30 19 20 40 24 20 13 27 9 13 16 30 17 17 14 46 26 31 17 18 7 28 16 19 15 17 27 27 16 31 18 12 10 14 38 20 24 16 24 21 31 31 27 10 24 17 27 16 6 38 21 26 28 23 37 31 28 20 7 17 19 17 23 24 9 30 27 33 29 10 27 16 23 29 17 19 13 7 21 19 3 23 31 13 33 19 23 31 7 7 17 17 10 22 17 12 31 23 13 23 20 19 17 29 31 24 10 27 33 20 13 31 14 24 20 17 23 13 27 10 18 31 35 28 22 20 14 24 34 23 23 23 12 20 9 31 10 31 17 21 23 16 17 7 23 24 34 16 9 27 12 13 37 16 17 21 31 19 24 17 12 29 24 12 10 17 30 13 16 16 16 6 24 27 28 15 16 20 6 17 31 17 27 21 10 14 27 12 21 10 38 16 27 31 13 31 27 16 31 17 24 10 16 23 34 21 17 20 21 27 20 26 12 17 10 21 20 10 30 10 6 10 24 12 24 17 37 18 29 33 10 27 15 31 10 31 11 10 21 29 16 20 24 20 34 30 23 28 3 16 24 19 34 9 23 19 34 14 28 15 10 30 10 30 41 25 17 41 13 17 24 27 18 39 16 13 16 28 24 20 17 10 16 29 19 12 16 17 14 21 17 19 10 10 23 17 27 31 7 17 11 27 21 26 17 12 27 20 23 24 10 13 22 23 39 25 28 20 6 24 17 31 40 23 24 10 19 21 13 21 17 12 28 31 26 3 7 25 28 24 23 20 41 28 43 13 20 27 21 30 17 19 20 16 21 6 22 14 22 20 17 32 12 14 23 13 37 17 16 31 27 34 20 21 14 34 19 23 20 15 13 8 16 21 20 17 24 21 24 13 9 17 27 28 20 21 17 27 21 37 7 17 21 20 20 19 13 9 34 24 35 21 15 38 16 27 19 20 20 19 14 20 27 29 23 10 12 20 30 20 23 20 24 17 19 10 34 16 9 27 24 21 31 17 16 24 10 8 13 21 28 38 20 10 24 23 33 45 23 24 20 7 7 20 29 27 24 19 3 19 26 12 20 7 0 24 17 9 3 13 23 31 17 24 17 24 17 20 16 13 16 20 34 14 26 38 16 21 3 23 27 30 21 27 26 24 24 17 13 16 23 17 9 10 17 24 19 13 24 6 19 26 30 12 20 0 17 13 6 28 17 24 34 35 20 17 20 17 38 13 21 31 16 14 16 27 41 19 17 27 26 17 23 24 21 44 30 23 15 13 27 20 22 23 27 17 10 29 20 16 23 17 13 30 27 26 18 10 27 17 30 18 28 20 12 23 13 23 20 27 23 24 35 16 13 21 10 10 34 30 20 13 16 23 20 23 13 7 14 10 21 17 30 24 29 28 8 15 24 34 20 27 14 28 10 17 26 17 26 28 24 24 19 25 23 17 14 23 13 24 23 27 6 19 6 16 13 23 23 20 10 10 29 13 21 17 23 13 24 14 24 16 13 23 43 21 9 17 13 24 34 24 49 30 13 24 20 20 24 19 20 20 20 31 24 3 27 20 20 34 28 9 20 20 9 17 21 24 27 31 10 31 28 13 13 22 24 14 20 36 10 17 10 33 13 23 27 27 17 20 13 31 27 17 35 17 20 18 15 33 13 24 31 31 37 21 16 24 23 14 13 20 19 20 21 15 20 24 24 14 27 37 13 24 10 20 27 17 32 14 24 28 28 3 21 20 22 28 14 33 27 17 27 21 34 24 20 0 20 12 22 30 28 22 16 16 19 16 17 31 0 20 27 24 21 10 22 24 20 16 17 23 13 41 16 14 21 24 16 24 15 17 30 26 24 38 0 16 17 17 23 10 9 16 10 24 9 3 19 26 24 20 20 14 18 20 28 12 34 19 16 22 28 31 24 23 17 14 14 17 20 13 10 20 24 21 21 8 9 14 23 21 20 34 27 17 16 21 31 14 21 16 20 20 10 21 17 13 14 20 40 14 27 28 20 22 15 17 14 7 3 14 27 6 14 21 17 16 19 13 9 35 17 38 13 10 41 31 34 16 34 10 13 32 31 20 13 12 24 10 13 0 20 0 17 24 16 20 20 31 27 24 28 14 28 16 16 30 23 20 17 14 13 13 17 19 24 7 24 20 17 21 6 24 24 29 10 17 27 14 21 9 24 13 17 10 29 30 16 31 26 7 21 18 27 24 20 23 21 21 23 23 33 24 27 30 14 20 14 16 27 19</t>
+  </si>
+  <si>
+    <t>JSU(-7.353202832399745, 11.398859795428965, -5.075155785234522, 39.569165469763064)</t>
+  </si>
+  <si>
+    <t>18 23 23 24 21 24 30 30 22 22 20 30 30 21 21 16 17 17 20 33 17 17 15 17 15 23 24 28 22 24 23 24 28 22 25 20 26 20 19 23 20 22 20 16 18 26 12 23 35 24 24 24 30 25 21 30 19 18 27 18 24 18 24 22 25 17 35 21 20 10 22 15 23 21 24 22 19 23 21 29 29 30 26 25 26 23 23 19 20 28 25 22 14 25 27 23 26 24 31 20 24 23 22 21 31 16 19 21 28 29 21 23 20 25 21 21 24 20 21 22 20 20 17 23 26 19 23 26 23 27 28 21 19 27 22 19 18 22 18 25 29 22 18 24 26 16 16 23 20 15 22 21 17 21 30 16 17 13 14 22 34 16 25 21 21 22 25 22 23 28 30 27 28 28 17 19 22 21 26 25 23 26 16 22 26 29 24 23 20 17 31 31 14 24 20 13 18 25 10 23 23 19 25 17 21 18 26 25 23 23 25 18 30 19 16 22 24 21 9 23 24 14 19 15 12 23 29 23 20 14 21 25 24 25 23 29 26 16 23 20 22 25 23 24 26 20 33 20 24 18 21 17 21 25 22 21 20 19 26 30 17 22 27 27 26 18 20 24 21 27 22 29 24 23 31 17 24 22 24 32 22 21 20 15 24 22 18 36 20 16 23 21 22 22 33 22 27 23 15 24 20 26 19 18 20 18 23 22 18 24 28 22 22 21 25 21 23 19 21 25 26 26 21 26 25 21 22 20 26 22 18 18 25 19 23 27 25 22 23 14 25 22 27 28 24 27 22 27 30 24 25 21 34 16 21 25 24 21 19 25 27 20 19 18 21 23 22 21 15 26 22 22 25 23 22 26 19 19 16 24 25 30 14 20 29 18 16 27 23 14 20 18 29 25 22 16 19 22 26 19 19 32 20 22 27 32 28 26 21 23 25 24 25 30 20 29 20 24 19 21 24 20 21 25 19 27 23 22 21 25 30 14 18 30 29 23 25 24 26 20 27 26 23 24 27 26 18 23 22 19 23 18 19 18 24 22 22 24 28 24 14 21 30 14 23 19 17 26 27 23 22 25 17 22 25 20 17 32 20 23 29 21 18 25 22 13 21 14 33 30 20 19 28 20 25 23 23 19 22 20 23 19 23 20 23 19 21 23 25 23 23 21 19 19 18 28 24 18 21 21 21 22 21 20 21 27 22 23 25 31 27 20 17 23 30 22 17 21 27 25 25 20 23 18 22 30 30 20 33 19 24 20 19 24 21 19 25 21 21 21 24 24 28 22 22 20 22 26 19 27 15 28 25 13 26 25 28 20 26 26 18 23 21 20 23 28 16 25 29 24 22 25 23 22 30 23 25 19 31 30 23 22 24 20 29 20 23 20 22 24 17 29 30 25 24 27 24 26 17 17 18 24 24 21 22 21 23 24 17 22 18 24 25 28 19 28 30 19 20 25 24 19 20 20 19 19 29 24 23 28 19 19 22 20 16 23 24 24 18 22 27 29 18 17 20 28 21 21 20 25 28 16 21 19 17 23 22 18 22 32 22 21 23 26 24 24 22 29 15 25 18 19 20 22 20 30 18 21 22 22 19 16 28 21 23 25 16 23 21 19 24 21 25 17 22 27 16 17 21 18 22 19 24 19 17 17 24 24 23 29 14 28 28 21 16 26 24 21 23 26 17 23 20 31 24 22 23 22 24 22 22 18 33 20 20 21 20 22 22 28 24 25 23 18 20 19 22 13 21 17 21 24 24 25 28 15 22 24 20 25 17 15 25 23 21 25 25 16 28 21 17 27 15 25 21 21 20 20 13 21 14 29 16 21 27 16 28 24 27 19 20 18 20 27 21 20 27 15 30 17 25 24 15 17 21 21 22 19 24 27 34 20 28 21 29 12 24 19 21 19 24 24 23 21 24 26 25 24 20 16 22 19 23 21 22 21 18 31 24 27 20 24 34 18 22 22 23 19 19 19 23 30 21 31 19 22 21 20 18 25 25 29 17 21 25 21 24 20 32 24 25 26 20 21 32 18 27 19 21 24 22 21 25 28 25 25 29 20 13 22 25 22 27 23 29 22 26 19 26 25 28 23 26 20 29 25 24 24 20 21 21 20 21 24 19 19 25 25 25 29 24 19 21 22 22 30 20 27 24 22 17 30 15 22 21 26 24 24 19 20 18 26 22 20 21 30 19 18 21 28 24 24 19 22 26 22 25 15 27 20 12 26 22 26 18 20 24 25 15 23 30 18 18 21 26 19 24 16 17 27 26 22 27 28 26 16 29 27 28 25 18 18 20 16 24 22 31 15 17 29 22 22 27 17 23 29 18 23 18 24 29 18 13 32 19 19 18 19 20 21 22 28 28 24 19 23 22 16 20 21 28 25 21 19 15 21 26 26 25 19 23 25 16 27 20 21 18 17 23 19 30 25 23 22 21 27 19 31 17 26 24 17 20 30 28 19 29 22 25 27 14 26 28 14 21 20 22 21 22 20 20 19 18 23 26 15 21 23 20 14 23 26 21 18 22 25 17 26 24 26 24 21 20 24 20 21 16 14 24 22 25 13 22 16 11 23 27 24 32 18 15 22 27 18 18 29 23 21 20 24 15 31 29 20 22 27 29 20 26 20 24 21 27 24 24 19 15 18 28 20 26 21 23 25 14 19 17 16 26 25 25 32 32 24 17 20 23 25 27 22 19 22 22 25 26 20 15 21 27 15 17 34 20 27 22 26 21 37 26 24 28 20 25 19 23 20 16 22 20 25 22 22 21 17 23 15 16 19 21 21 20 22 21 15 22 23 26 34 26 24 16 25 25 20 17 16 16 17 20 21 21 21 21 23 36 18 20 18 31 21 20 19 18 29 23 28 22 19 16 18 23 17 20 28 21 28 28 22 15 22 26 21 33 23 30 22 24 20 19 15 23 22 25 20 24 23 19 19 21 22 30 24 25 24 24 24 29 21 14 15 26 26 16 21 22 24 28 20 25 19 25 25 27 27 21 21 19 27 22 17 26 20 16 17 17 20 25 29 17 26 22 24 24 19 21 16 26 22 19 21 11 25 19 23 20 22 16 17 22 22 21 23 24 29 23 21 26 17 28 21 27 24 23 22 20 35 23 20 23 20 17 16 18 19 24 23 23 20 23 19 24 22 19 15 24 27 25 18 20 23 14 24 24 19 18 25 25 20 22 19 15 26 31 15 15 14 18 16 26 29 19 19 21 19 21 24 18 28 26 21 25 28 21 17 27 36 21 18 26 18 22 22 22 19 23 20 18 20 15 21 23 38 29 25 17 21 26 20 16 18 30 18 22 21 27 22 23 22 21 30 25 26 24 28 20 17 25 27 28 22 27 23 18 22 17 21 21 29 23 28 19 34 23 22 23 23 23 19 28 22 15 25 17 18 23 21 24 28 28 16 25 19 26 26 18 25 20 20 26 16 17 27 22 28 24 19 24 21 24 13 29 29 23 19 20 28 23 26 21 18 27 19 23 25 21 24 25 25 25 26 23 23 21 22 29 19 22 22 23 21 16 27 19 21 27 22 23 27 19 28 18 29 18 26 24 28 22 17 17 20 23 20 24 29 22 25 20 27 23 27 30 11 21 22 24 27 21 20 18 24 25 31 19 20 20 21 28 35 22 18 17 14 18 16 25 31 26 21 24 23 27 25 29 20 13 18 18 23 20 20 18 20 21 19 26 33 24 26 25 19 27 22 31 24 26 23 19 26 17 18 26 25 22 22 25 25 20 23 25 17 31 20 22 24 24 22 18 26 16 18 23 20 20 19 19 15 24 20 18 18 27 21 26 32 28 22 20 25 27 20 14 23 22 22 19 20 25 26 19 27 25 20 16 24 20 24 18 26 28 26 26 22 21 22 29 20 22 35 18 34 23 28 22 28 30 26 24 27 25 20 18 22 29 26 20 18 23 22 23 22 19 18 22 9 24 24 13 19 23 21 17 23 14 28 19 26 26 23 16 19 21 12 24 18 26 20 22 24 25 28 31 17 27 17 18 18 16 24 17 23 21 23 21 27 26 24 20 21 17 22 21 17 18 17 29 20 20 24 19 15 21 29 22 13 20 28 24 22 30 23 21 17 26 14 23 22 20 28 20 20 20 20 22 32 27 19 26 19 25 29 24 18 19 27 23 15 28 24 26 23 19 28 24 23 19 13 22 21 20 25 24 25 18 23 18 19 23 18 24 19 27 27 22 25 18 31 19 25 28 16 25 20 28 24 21 22 23 20 22 27 23 20 24 18 18 29 23 29 26 19 22 15 26 24 26 25 24 19 17 19 25 18 18 22 30 25 20 18 25 16 23 27 20 18 15 19 21 29 15 23 33 21 22 19 28 20 21 26 23 16 26 28 18 18 18 24 14 25 13 31 23 26 29 20 18 24 22 25 25 18 19 23 25 26 17 25 27 19 19 23 23 18 23 24 27 24 19 17 24 25 24 18 26 17 24 30 20 23 21 19 21 27 25 22 20 22 23 25 20 24 24 30 27 26 18 18 22 24 22 22 21 23 25 17 16 23 20 25 23 14 19 24 19 17 24 21 28 26 24 23 15 21 22 17 23 21 20 19 20 17 28 25 23 22 26 30 21 32 18 29 24 24 20 25 23 20 26 22 25 24 25 26 24 28 20 23 19 26 29 36 22 22 16 21 19 23 16 18 20 28 20 19 22 26 23 17 18 18 23 19 18 28 14 22 22 15 28 29 22 20 20 24 21 23 17 25 17 16 24 21 28 12 23 20 22 20 21 29 11 24 29 24 27 22 23 23 19 22 19 19 23 16 20 22 20 23 25 18 28 21 24 21 22 19 22 22 24 16 19 22 15 29 22 25 21 15 25 17 23 18 25 22 21 20 23 27 23 18 23 30 19 19 31 17 25 20 27 23 25 25 19 29 20 18 23 24 23 19 30 19 21 30 19 26 19 25 21 23 16 24 20 34 14 26 15 25 19 22 20 22 18 23 17 28 20 23 19 20 28 18 21 20 21 20 24 14 24 21 19 23 18 20 22 18 25 23 25 28 24 23 20 28 29 21 13 23 35 29 23 19 34 23 21 17 27 18 20 21 20 28 27 26 23 15 16 21 21 25 23 19 24 22 18 21 24 24 25 14 19 19 21 26 19 26 23 22 36 21 22 25 31 18 25 21 19 21 25 21 24 20 14 24 30 23 28 20 24 18 23 25 19 21 22 28 27 16 20 20 17 23 24 27 17 17 31 14 28 17 26 22 28 22 25 26 25 28 23 24 18 20 17 18 24 19 28 22 22 21 19 25 26 23 22 24 26 17 22 25 20 19 24 17 21 22 21 25 27 26 22 11 28 19 13 17 25 17 28 19 24 22 19 26 25 29 12 20 17 25 23 23 22 19 22 21 18 28 26 24 18 23 21 15 15 22 14 27 18 27 33 23 31 29 12 25 21 20 21 18 25 19 25 25 18 23 24 26 14 19 22 22 19 17 24 26 20 25 19 26 20 27 29 12 19 22 22 29 16 26 17 24 24 26 20 18 27 14 18 24 25 28 24 12 21 27 17 18 21 32 23 16 18 23 20 25 28 24 25 25 14 28 28 24 21 20 17 25 14 21 17 26 19 27 21 20 24 25 26 16 17 16 15 14 25 23 19 24 11 26 25 26 33 20 20 30 18 24 27 24 17 32 28 28 22 22 23 20 19 23 19 26 29 24 23 23 27 25 24 22 30 21 15 27 22 17 24 30 23 16 19 19 18 29 21 20 24 24 18 21 20 25 26 27 23 19 25 25 29 24 14 20 19 18 27 19 22 26 25 22 19 21 26 25 19 27 18 19 20 22 23 26 26 21 23 17 30 29 19 28 28 18 22 21 18 23 25 30 25 25 21 16 22 21 24 24 15 21 24 26 24 27 18 18 19 19 27 28 16 25 18 24 18 28 21 28 30 25 24 22 27 23 17 11 18 22 23 22 23 22 16 18 20 24 20 25 17 17 23 27 19 34 26 25 20 19 28 26 28 30 21 19 29 23 20 20 15 30 25 27 30 18 26 20 26 23 28 28 21 23 19 20 23 23 16 23 28 19 19 21 26 16 18 15 25 22 28 22 23 20 15 17 24 25 23 21 22 15 23 19 21 17 23 19 29 24 11 22 29 12 24 23 21 23 21 20 21 20 24 18 16 24 27 21 23 25 31 23 23 21 22 22 23 25 23 22 36 20 26 20 21 25 14 23 18 18 16 23 24 17 21 23 27 26 27 18 24 23 24 32 20 14 42 28 27 29 26 24 20 25 19 25 19 17 23 25 19 28 29 30 29 17 25 24 25 24 21 24 25 20 23 22 24 20 21 29 25 20 26 27 21 19 21 19 21 18 26 25 29 22 20 24 16 22 15 22 21 19 24 28 22 33 20 17 20 18 22 20 25 30 26 25 24 22 24 22 27 22 21 30 31 20 22 24 24 22 18 23 22 24 21 32 17 21 24 23 15 23 24 25 21 22 33 19 21 26 22 19 27 27 23 19 27 26 22 17 19 23 14 16 21 25 20 22 23 31 18 18 19 21 18 25 23 27 26 29 22 23 27 31 32 24 27 15 14 22 23 13 18 17 21 26 26 19 24 27 18 23 19 19 22 30 23 26 34 23 25 28 20 20 27 23 22 18 14 22 23 22 28 19 22 19 19 15 18 24 19 27 26 21 21 24 12 20 33 22 18 23 24 18 17 16 23 25 19 20 18 18 26 17 26 15 17 23 18 20 20 22 24 22 20 22 30 28 24 25 17 21 18 27 21 24 23 28 20 28 23 26 15 21 23 19 28 17 23 25 22 25 27 18 21 21 22 21 21 16 16 21 21 14 22 21 20 21 23 21 17 22 31 16 17 26 22 16 22 21 23 18 21 26 30 16 22 25 24 19 22 24 30 16 23 22 24 20 22 18 29 23 23 29 17 18 35 14 22 27 21 17 29 26 22 21 18 16 25 12 19 21 20 24 17 21 16 22 25 19 18 20 17 27 22 20 24 24 24 23 24 18 24 24 22 19 17 29 20 27 20 19 21 21 19 19 23 23 23 18 20 23 26 18 26 21 24 22 19 27 19 22 27 26 24 16 22 25 21 26 25 23 25 25 22 18 13 22 34 15 23 23 26 19 21 24 20 21 27 25 16 22 24 20 27 22 21 29 22 29 27 22 26 17 16 20 27 21 23 19 20 27 17 24 29 27 28 26 27 16 20 25 20 23 18 24 35 22 25 21 20 18 30 20 18 25 24 25 24 24 18 31 19 23 26 18 27 30 19 25 21 21 24 22 20 21 21 15 24 21 23 27 17 14 19 31 28 21 21 24 18 19 16 22 17 21 24 23 23 22 25 25 18 23 26 23 29 25 22 24 31 25 26 16 14 11 26 16 25 31 17 22 22 22 23 22 20 22 23 22 21 15 21 20 35 23 24 25 14 21 17 24 26 22 28 27 18 17 26 24 30 15 20 20 23 19 23 19 15 23 18 29 23 13 21 25 22 33 20 28 19 20 21 20 24 25 16 22 21 32 27 14 18 24 25 23 22 21 31 25 20 28 23 23 21 27 17 24 20 26 19 23 24 19 22 24 29 26 25 23 23 19 27 21 18 24 20 27 22 20 30 21 22 15 20 16 22 23 22 28 21 18 17 20 13 23 26 19 18 25 31 24 19 25 31 14 15 25 26 18 23 18 24 23 18 24 24 25 25 24 25 25 23 19 20 22 22 21 24 19 21 24 25 17 20 28 15 31 20 21 19 16 20 28 27 15 26 25 25 21 21 26 22 25 22 26 33 23 25 20 21 22 20 22 23 20 25 31 25 28 18 19 16 22 21 23 28 26 16 26 23 22 25 18 15 24 25 24 18 20 16 28 30 30 29 23 23 20 19 24 20 24 25 17 22 16 17 19 26 18 18 20 23 19 27 19 20 15 25 21 24 15 26 19 22 20 23 23 28 21 25 26 26 19 20 34 21 23 22 22 26 22 20 21 27 23 27 23 27 22 29 13 26 25 30 25 19 33 16 24 20 22 20 17 26 19 22 27 20 19 16 22 25 21 18 27 16 19 21 25 21 33 22 21 24 23 19 22 21 23 12 19 24 24 31 19 23 21 26 20 22 26 22 24 25 30 21 22 22 24 13 23 31 21 19 27 25 21 19 33 23 21 24 22 33 20 22 21 23 16 28 21 31 15 20 15 26 27 30 17 22 23 22 17 28 25 21 25 21 20 24 21 23 24 28 24 24 16 26 22 24 24 26 25 22 20 14 20 11 23 29 15 24 21 22 17 22 22 21 15 24 18 19 27 14 21 27 23 20 23 20 18 16 33 24 23 18 25 24 24 26 26 21 28 20 26 22 20 22 17 16 18 21 18 25 18 30 30 24 35 26 20 23 18 24 27 26 25 22 24 17 30 15 19 20 33 21 21 24 25 18 25 19 24 20 14 25 20 22 23 24 32 18 18 25 23 29 22 25 24 26 13 29 22 18 20 28 21 28 17 22 30 19 26 26 22 18 26 17 18 24 20 16 12 11 25 24 25 19 16 26 17 23 16 20 33 23 27 31 30 20 27 21 20 22 21 17 22 22 25 17 20 24 25 21 30 22 21 24 22 24 22 24 27 23 22 25 18 21 27 18 21 29 17 29 19 24 22 22 20 19 17 25 14 28 22 29 19 22 20 24 25 25 26 26 24 22 24 25 29 27 20 22 22 20 21 26 24 24 23 26 20 29 27 21 26 25 28 25 25 17 29 30 31 24 24 16 23 22 22 31 24 19 26 26 21 20 24 24 24 17 24 18 22 26 23 21 24 15 28 21 19 24 23 23 22 19 22 27 21 27 24 14 25 22 25 28 22 26 23 17 23 16 21 18 23 28 24 25 20 24 17 30 26 23 19 22 19 12 20 27 19 16 23 20 26 21 22 22 18 18 14 24 26 20 26 25 13 17 20 19 22 24 18 21 19 19 23 17 20 19 19 22 28 20 25 19 20 22 21 22 24 27 21 26 20 19 22 28 21 20 25 24 28 27 29 22 20 20 22 18 24 32 18 23 27 33 18 21 26 23 21 28 20 25 19 24 24 26 13 24 19 20 28 29 19 23 17 25 26 25 25 22 16 23 18 19 20 17 24 18 22 31 20 29 25 13 22 26 27 20 19 21 20 19 20 20 13 28 24 21 21 20 18 22 27 24 22 15 16 19 15 18 24 17 27 25 19 21 26 26 25 22 36 21 23 21 25 21 15 25 29 24 20 24 26 23 26 19 23 20 19 28 30 22 17 25 19 21 29 27 21 21 19 26 16 19 28 21 18 23 21 17 20 31 30 24 25 16 21 29 20 16 22 21 22 19 18 14 28 22 18 31 24 17 32 20 22 19 24 26 21 25 22 18 19 19 23 26 21 17 11 23 23 27 27 19 20 17 17 21 25 29 25 17 14 18 26 26 20 22 19 16 22 18 23 18 24 34 22 17 29 20 21 19 22 23 26 28 28 19 25 25 17 21 24 26 23 26 18 24 21 23 23 27 25 18 25 25 18 24 21 22 18 24 29 27 25 23 19 24 21 22 26 25 18 22 24 18 17 21 19 27 17 18 26 26 17 25 29 31 20 17 21 17 23 24 19 25 22 20 26 23 27 22 21 26 28 29 18 26 22 21 22 26 22 15 30 23 28 23 20 26 26 26 18 27 20 22 20 25 31 30 28 19 23 30 19 21 17 30 19 28 23 25 17 25 27 24 29 25 19 17 24 18 12 26 23 20 22 22 19 22 23 13 19 20 21 19 21 17 24 26 25 19 18 22 26 21 24 21 18 25 23 23 27 20 19 25 19 24 24 18 27 21 26 21 19 27 24 25 26 23 20 29 26 26 17 25 22 23 20 24 18 19 21 31 30 22 30 22 22 25 24 18 34 23 21 17 29 25 17 20 25 30 19 17 28 18 22 20 27 22 27 39 17 17 14 25 19 27 19 19 23 27 19 26 31 28 24 30 31 24 23 21 24 21 22 20 30 19 24 25 24 19 20 25 26 24 19 20 22 24 31 21 21 23 20 25 30 22 20 23 15 20 26 20 16 23 23 19 17 19 29 31 22 25 27 24 24 26 22 22 27 25 24 27 26 26 18 22 13 25 20 24 27 17 23 27 28 20 16 20 24 23 33 26 21 20 28 21 16 16 19 26 24 15 20 10 20 28 19 21 24 16 20 22 20 20 18 24 23 20 20 24 20 25 28 21 18 17 24 26 25 22 19 23 23 27 13 18 19 28 29 19 24 21 19 22 19 23 22 24 20 15 24 19 22 22 21 25 20 24 15 27 24 18 19 25 20 17 19 17 18 19 21 13 28 19 20 32 24 21 21 32 32 20 27 24 25 21 27 27 16 22 21 18 23 21 20 21 30 19 20 25 26 22 25 26 27 20 22 30 17 24 17 31 25 20 26 18 17 21 27 22 21 16 18 26 20 15 18 18 22 14 29 19 25 19 31 21 24 31 12 21 20 19 28 24 21 25 18 31 19 21 26 20 25 18 27 26 22 17 25 20 26 22 21 22 19 21 27 21 20 13 23 34 28 25 24 24 22 27 24 16 22 28 28 19 26 24 26 21 33 19 16 21 20 23 24 22 23 15 18 22 18 24 19 27 15 20 26 23 32 13 20 17 18 25 22 19 21 22 23 30 24 25 13 17 18 30 23 22 22 22 28 20 20 20 28 31 29 21 17 29 19 17 26 20 22 21 26 15 23 17 17 25 15 18 12 28 25 21 19 18 22 17 18 24 18 29 18 22 19 22 20 16 24 17 23 14 24 24 15 24 28 24 30 20 32 29 27 25 19 28 24 29 22 23 14 19 20 18 19 28 19 26 30 15 23 25 29 27 19 21 24 19 24 21 19 19 22 29 22 22 19 18 27 28 26 20 23 27 29 35 28 20 21 24 23 26 19 21 22 28 20 19 26 26 25 26 31 23 18 17 32 25 26 16 20 23 26 21 19 23 26 21 29 18 22 26 21 29 15 29 30 20 17 26 19 14 16 23 28 20 18 23 21 23 26 25 27 23 27 16 21 22 30 23 15 31 28 22 20 23 27 24 26 23 17 19 12 26 14 23 17 20 23 21 25 22 27 22 17 24 22 23 14 22 24 22 21 23 29 20 20 27 27 28 26 13 24 29 15 20 20 16 18 23 13 21 20 25 24 31 18 18 26 17 22 23 27 22 23 18 17 20 22 22 15 20 22 19 25 37 17 29 21 25 24 18 22 20 19 28 26 30 27 22 21 20 19 27 21 30 24 22 27 33 17 24 21 29 24 24 18 18 22 18 22 16 18 27 28 21 20 20 15 26 15 20 22 27 22 23 20 23 23 27 27 27 32 24 20 28 22 15 21 17 18 18 20 25 19 20 25 15 29 25 20 21 26 20 22 21 17 19 22 23 27 24 23 24 24 21 20 23 16 25 21 19 26 20 19 25 23 25 22 18 24 20 29 21 20 18 25 25 24 19 26 22 20 23 23 26 22 25 20 13 21 24 24 20 27 22 20 25 21 22 22 21 27 19 21 18 20 18 25 18 20 22 22 14 19 29 19 21 22 20 22 23 21 18 33 24 25 16 16 29 29 19 16 20 25 23 22 21 20 30 26 10 29 17 22 22 25 12 20 14 35 26 19 25 25 16 23 17 18 29 23 19 22 24 26 22 18 25 26 23 17 26 25 15 19 26 16 21 26 27 27 25 19 28 15 21 21 23 31 24 18 23 25 29 18 18 17 16 25 24 22 21 25 27 18 23 30 19 25 22 25 20 24 20 22 18 25 20 26 21 28 28 18 21 31 18 23 20 26 29 22 21 21 18 18 24 20 22 25 23 25 26 24 27 21 28 25 23 17 27 23 18 22 24 31 21 31 28 23 24 25 18 24 20 32 21 25 15 31 26 20 18 24 30 20 19 23 18 27 25 26 29 21 29 20 23 14 20 21 18 26 20 18 21 12 19 21 31 20 15 24 14 17 19 15 24 29 19 21 25 17 27 17 19 22 20 25 25 22 16 11 25 22 20 29 16 16 19 18 22 22 25 23 16 20 22 26 28 20 19 25 19 22 28 13 19 19 18 20 14 19 19 23 12 19 22 22 20 27 19 25 15 25 25 20 21 19 18 24 16 22 25 21 26 23 18 21 13 27 21 20 24 29 23 20 20 18 18 23 22 25 17 21 19 31 16 24 23 20 21 23 20 23 12 22 30 23 22 16 17 16 17 19 23 19 21 22 18 31 26 22 28 26 23 25 24 18 18 29 23 16 18 19 20 24 30 20 29 28 19 27 32 21 24 32 20 21 28 29 24 23 12 17 19 18 23 27 22 23 29 21 27 25 31 32 23 29 18 27 27 31 21 23 20 20 22 30 20 21 16 20 21 18 27 25 20 23 26 20 26 20 20 26 22 26 20 26 14 26 26 28 33 27 15 21 25 22 19 27 28 20 21 21 15 23 23 24 23 22 16 19 27 22 12 27 29 24 21 24 22 26 17 20 15 25 14 29 25 22 12 16 21 19 23 17 25 25 30 27 20 33 25 21 23 21 24 25 19 28 17 26 27 23 19 27 23 24 10 27 25 23 26 18 22 22 18 14 17 16 25 21 23 30 23 18 17 24 19 24 32 11 25 20 20 27 24 24 22 24 20 20 25 21 28 22 21 22 33 19 23 18 19 16 25 20 20 19 35 26 28 31 23 32 18 25 22 19 21 25 22 28 26 26 20 20 21 22 23 24 29 18 20 27 22 16 22 27 13 17 18 27 26 17 19 30 32 20 28 20 29 23 22 26 18 33 25 25 19 22 22 28 10 24 27 18 22 19 17 25 26 26 21 16 25 27 18 26 23 21 20 15 22 16 17 19 19 24 20 28 22 20 21 25 26 22 21 20 23 28 20 22 19 20 23 28 27 23 19 23 22 27 25 22 27 18 21 20 17 18 11 17 26 24 23 17 22 24 14 19 23 23 18 25 25 19 22 20 25 23 22 23 28 20 23 21 23 29 22 24 22 17 23 21 24 25 19 21 21 27 22 23 20 23 24 16 10 23 25 19 17 28 26 26 24 28 18 24 25 19 29 24 26 21 23 22 24 17 27 30 22 25 33 33 23 28 26 21 20 22 12 19 24 19 20 21 28 27 26 23 26 21 20 31 19 19 28 21 23 22 20 25 20 24 14 19 21 16 27 13 17 22 30 26 17 23 22 21 21 19 23 15 13 15 20 17 26 20 25 30 25 22 25 16 24 24 24 17 28 23 21 18 20 24 18 27 19 24 23 23 22 19 24 23 24 24 21 30 21 26 29 24 23 25 26 26 25 18 23 23 27 21 27 28 19 22 20 29 25 17 18 21 22 27 21 18 15 30 24 17 24 21 20 16 24 27 18 15 34 26 25 25 21 26 15 14 22 12 27 17 32 31 24 22 16 33 23 26 25 20 22 22 23 23 19 23 23 21 25 25 19 22 27 19 22 24 23 30 17 19 18 27 23 25 24 14 20 25 28 23 25 21 27 35 27 18 20 26 19 25 19 32 24 17 20 25 25 19 23 25 23 22 28 18 21 23 23 17 29 23 22 22 21 18 18 22 30 19 23 24 19 20 20 22 23 22 20 23 21 20 26 12 23 28 28 23 28 31 28 27 20 21 27 19 28 23 21 15 23 21 14 24 29 20 23 30 21 26 19 23 22 29 23 23 23 18 30 19 22 28 34 17 29 21 30 22 17 20 23 15 22 24 30 25 26 21 21 27 27 30 25 22 21 16 20 27 20 19 26 20 20 23 21 29 23 17 18 23 28 25 15 20 17 19 30 22 20 26 27 20 31 22 12 23 23 19 24 21 18 22 18 18 26 23 21 25 25 21 26 28 23 22 17 21 19 19 25 28 14 25 23 27 24 25 28 25 20 19 19 24 23 23 14 23 22 25 29 25 18 26 26 22 20 19 29 17 26 24 16 23 24 24 18 21 25 22 18 23 31 26 23 17 20 24 30 25 27 20 16 24 28 22 20 30 21 18 22 23 22 18 22 30 25 16 19 18 27 26 23 17 24 18 15 23 27 23 17 19 19 23 22 17 23 16 27 22 18 24 20 17 20 31 17 16 34 24 19 29 18 31 20 19 20 17 21 15 23 17 24 23 24 27 24 19 34 22 16 22 20 19 27 17 24 19 23 19 24 16 21 17 18 18 23 12 21 17 24 13 14 22 19 30 18 27 24 22 21 19 24 24 17 18 25 25 20 23 21 23 27 22 26 23 23 27 23 26 19 14 23 20 26 28 27 17 25 18 28 17 18 23 25 19 28 28 30 20 18 26 21 23 20 24 23 26 19 19 26 19 28 19 21 19 16 23 28 28 23 23 25 25 28 26 26 28 25 21 14 21 23 22 24 26 23 19 19 20 22 20 27 25 25 21 23 20 20 19 20 22 21 18 19 19 21 23 22 21 25 24 23 22 18 20 21 20 21 26 29 18 23 19 19 20 22 20 25 24 26 25 24 24 29 24 19 29 23 16 25 23 26 22 22 19 22 20 15 22 28 22 19 20 14 23 24 28 17 24 28 22 30 26 24 16 32 25 26 26 23 24 30 24 28 18 22 19 22 28 20 26 17 15 17 29 20 12 17 22 22 24 25 21 27 25 25 24 22 21 17 22 26 23 22 20 23 22 18 22 23 20 26 30 21 13 19 18 24 27 23 21 26 21 24 21 20 20 21 23 22 16 24 29 25 21 15 23 24 26 24 25 18 24 12 34 23 18 27 21 23 20 22 24 30 14 28 18 26 20 24 29 26 19 21 21 22 21 27 23 25 16 30 25 22 22 24 20 30 18 23 23 22 15 25 27 14 26 30 21 24 15 27 23 20 23 20 26 23 24 25 23 20 29 16 21 24 25 18 30 26 17 17 17 19 25 25 25 16 27 23 16 25 17 19 22 16 31 18 23 20 24 22 26 15 21 32 19 30 23 19 21 19 18 23 12 23 18 27 27 21 21 15 17 19 21 33 19 24 24 32 17 23 16 23 26 22 22 24 23 28 23 31 27 20 22 14 20 24 26 29 18 20 22 16 26 27 20 13 30 18 24 23 23 26 27 20 29 15 33 23 21 22 26 23 21 13 22 22 24 21 22 22 19 23 20 18 20 22 17 29 24 13 29 23 21 19 20 24 22 23 21 25 16 27 19 20 19 26 19 17 24 21 21 14 22 22 23 21 18 19 26 23 29 27 29 27 20 26 20 23 21 20 23 22 21 27 27 21 18 27 23 21 22 26 21 29 28 19 24 25 25 19 23 19 26 17 24 15 29 21 17 27 21 19 26 27 22 22 23 21 20 27 28 20 22 20 19 27 21 19 17 20 19 23 25 19 20 16 26 21 26 23 18 29 11 21 22 20 21 29 21 24 15 35 23 21 27 24 27 17 28 25 18 25 23 26 24 23 17 18 12 24 23 28 20 21 23 21 24 24 19 25 18 15 24 26 27 27 29 22 26 16 24 19 22 18 24 20 18 27 23 22 21 26 23 21 21 19 12 22 18 18 27 18 19 22 28 23 21 26 24 29 23 22 20 26 24 21 24 23 25 28 15 20 25 18 27 22 26 26 31 26 18 25 28 20 21 25 23 27 22 21 32 25 23 20 23 24 24 14 27 22 24 20 23 28 21 22 24 18 26 22 16 26 24 22 23 23 27 25 28 26 26 29 19 14 15 21 24 26 20 19 23 19 19 19 25 18 21 27 27 27 24 27 30 16 21 18 32 22 29 20 21 18 17 15 20 25 20 25 27 27 24 22 20 23 18 25 34 20 23 18 21 18 15 25 21 15 26 21 17 18 24 17 23 27 21 23 27 22 31 16 18 11 23 23 19 16 27 23 22 17 25 18 24 15 28 17 29 31 24 20 20 35 25 21 21 16 24 21 19 26 23 16 27 21 28 12 26 26 25 30 21 19 23 18 16 29 19 19 22 19 17 26 25 18 23 19 24 27 27 25 24 29 30 21 18 25 28 23 14 24 26 27 27 23 23 26 15 27 24 22 23 24 26 23 19 23 11 25 27 25 23 25 15 21 21 13 28 18 19 31 21 16 22 22 24 28 20 23 23 24 24 28 26 17 21 33 22 21 15 21 21 23 20 24 26 17 19 26 22 23 14 21 22 21 23 17 19 26 19 30 23 21 27 21 21 27 12 21 34 26 26 24 29 18 20 21 18 22 20 30 22 20 24 15 27 21 20 25 28 21 24 15 25 26 26 33 21 26 32 12 26 28 25 21 18 19 26 18 21 18 21 28 28 21 21 28 20 20 12 27 25 28 21 19 17 26 27 23 19 23 21 17 26 19 25 27 16 23 19 23 29 19 24 29 10 27 23 17 21 30 22 32 27 24 20 23 27 21 21 18 21 25 27 17 24 23 18 25 26 19 16 21 17 24 17 30 21 23 19 31 19 25 24 20 18 28 29 23 28 17 25 16 31 19 14 21 28 19 23 27 22 23 19 24 28 25 27 26 21 13 28 16 21 25 21 25 22 24 22 22 24 15 19 24 22 17 25 24 24 23 24 22 23 23 14 26 23 28 27 23 19 21 28 25 23 14 15 27 24 25 24 25 30 23 23 17 22 27 15 27 25 19 14 15 19 22 22 25 25 15 16 21 17 21 24 25 25 21 23 23 20 17 19 22 27 25 20 21 26 25 22 20 28 30 19 21 17 23 24 34 27 15 18 24 17 20 19 34 17 18 25 22 21 20 21 28 19 21 21 16 22 17 24 18 16 28 23 28 28 25 17 19 32 20 20 30 21 19 21 29 19 20 20 19 24 29 21 14 23 24 18 16 20 25 17 21 24 20 19 24 14 22 17 16 21 23 29 24 28 14 27 23 28 24 17 34 16 21 21 24 24 23 27 24 28 24 20 23 18 22 19 29 25 21 20 26 23 21 19 30 25 23 32 20 27 16 23 27 29 23 26 20 26 20 25 22 20 23 27 30 25 23 30 21 20 26 25 20 24 27 21 24 20 18 30 24 24 24 25 24 27 18 24 23 18 21 18 26 27 23 23 24 27 25 17 16 14 18 20 21 27 24 20 30 22 19 22 23 14 22 19 26 29 28 13 17 16 28 30 18 22 20 22 11 28 13 21 19 24 18 21 27 23 18 23 21 26 25 23 25 29 18 19 20 26 20 24 18 21 31 23 24 26 26 21 24 18 24 18 21 24 14 23 25 18 27 21 31 20 20 21 33 17 17 20 25 23 21 22 25 23 20 18 23 21 28 21 27 18 24 25 18 19 20 24 23 30 19 22 22 18 15 24 19 17 31 24 22 27 20 22 19 19 20 20 23 22 24 22 25 20 16 24 20 25 15 24 20 32 20 16 27 23 25 27 20 25 16 25 24 12 25 23 19 27 24 23 27 23 25 20 22 31 18 24 28 28 22 24 28 22 17 26 17 22 32 26 21 22 21 19 20 20 26 20 13 21 22 19 28 23 25 27 24 21 25 21 20 27 23 22 25 18 19 23 25 23 25 22 34 21 22 24 18 21 22 23 21 23 21 24 25 19 22 21 25 28 27 22 22 28 21 24 27 27 16 25 30 25 20 19 16 25 22 15 35 23 21 23 27 21 22 21 17 23 12 20 30 30 26 26 21 22 20 15 16 22 23 20 21 24 24 16 22 29 24 18 21 25 21 26 18 19 23 25 21 18 16 27 24 27 25 25 29 20 22 31 33 22 25 19 22 29 22 30 24 25 19 21 19 26 22 22 29 21 21 13 24 14 25 20 25 19 19 22 24 20 24 24 21 21 25 18 20 18 24 20 21 24 18 23 28 23 32 22 29 18 25 34 17 20 26 24 20 17 20 23 19 19 29 19 22 24 16 27 21 17 15 24 27 20 22 28 22 23 21 18 15 19 20 18 20 26 25 14 24 20 24 17 23 20 23 19 21 24 26 24 16 14 20 18 18 20 19 19 27 18 21 28 26 23 30 26 19 19 22 25 16 25 22 19 22 19 29 20 16 22 24 27 32 29 19 25 22 20 24 24 20 18 19 31 21 16 24 29 15 34 23 24 17 25 22 17 22 22 22 20 21 25 23 28 21 24 25 26 22 18 21 23 23 22 19 29 20 15 26 22 22 18 19 28 24 23 20 24 25 23 15 27 20 16 23 15 22 16 25 23 18 19 24 21 21 21 16 19 22 21 20 29 24 16 19 28 29 18 24 15 25 16 23 23 22 27 24 25 17 23 24 22 23 24 24 26 23 27 19 24 16 18 22 27 14 17 20 16 23 18 31 19 18 22 30 21 21 20 28 18 23 17 26 18 21 27 22 19 21 21 24 17 19 18 17 19 24 17 20 20 24 25 26 28 20 20 17 20 21 28 26 25 16 25 25 17 24 18 21 16 19 24 20 22 21 21 20 21 19 22 23 28 23 16 26 23 27 19 13 23 19 18 19 19 18 29 21 30 23 30 22 24 24 22 18 19 18 19 22 22 31 22 21 25 12 25 18 18 19 22 21 20 22 23 20 32 25 18 23 27 18 22 27 15 20 22 25 30 31 22 19 24 23 22 21 26 27 32 17 20 18 20 26 24 18 28 22 24 20 29 26 24 22 22 26 29 21 29 25 32 25 27 24 21 23 17 26 27 17 21 21 19 24 20 17 26 22 20 23 21 26 24 26 23 29 24 26 18 18 17 19 19 22 20 18 18 19 22 19 25 24 27 16 24 24 21 28 26 21 16 25 22 26 24 24 24 22 23 23 18 22 26 18 24 25 29 27 27 26 15 33 25 22 22 20 20 21 25 22 25 23 18 25 22 26 20 28 25 21 21 21 21 26 19 19 25 16 26 27 19 14 27 25 21 23 27 22 18 26 21 23 24 15 25 22 23 22 24 21 28 17 25 14 17 24 21 27 17 26 23 26 24 30 22 27 18 16 18 15 19 26 23 25 26 16 21 12 24 23 20 18 19 32 27 27 26 14 17 26 31 17 18 15 23 23 21 20 33 25 26 28 20 14 27 21 24 16 19 25 25 20 26 25 21 20 22 28 22 10 35 19 23 31 25 26 24 19 29 20 19 26 19 14 20 25 28 23 21 20 21 19 16 17 18 19 26 28 30 19 23 16 22 24 18 22 27 31 21 22 21 18 23 21 26 21 23 23 26 28 20 18 27 22 19 24 21 25 24 19 18 18 29 21 25 21 32 22 24 21 16 21 18 21 19 22 21 25 18 16 22 17 20 18 19 19 24 26 27 23 25 27 21 15 22 23 20 19 18 24 21 21 22 23 22 20 24 25 22 23 19 27 25 17 21 20 27 16 19 30 11 21 21 26 34 25 20 19 19 21 22 34 24 23 18 19 25 26 23 23 20 24 17 25 20 20 16 17 20 25 15 22 19 21 26 17 21 25 16 32 25 26 26 27 18 22 16 23 22 21 24 25 24 22 26 25 28 22 17 22 16 17 29 20 16 27 25 22 32 29 25 25 26 18 22 26 22 18 22 26 18 23 22 29 17 17 22 24 19 21 24 20 24 26 17 20 23 20 22 26 26 17 31 21 23 22 21 22 23 19 22 14 22 16 24 20 21 28 24 19 26 23 26 29 32 20 20 16 29 20 23 23 23 29 22 20 22 20 27 26 25 27 21 25 21 16 21 21 19 26 23 22 24 23 29 25 20 34 29 28 23 17 26 27 28 18 19 20 29 34 25 24 21 19 24 22 24 24 25 19 28 29 22 23 17 22 16 23 23 24 32 16 21 25 25 27 22 18 22 16 19 20 30 23 26 25 25 30 23 24 22 32 16 16 33 18 19 26 15 29 20 18 21 17 18 28 24 25 21 16 19 24 19 17 27 24 22 25 18 27 18 14 25 18 29 27 24 24 16 28 23 23 23 23 19 17 26 20 28 20 24 23 22 26 20 23 25 22 20 30 28 22 22 19 30 24 15 15 27 21 21 23 20 20 19 23 23 22 20 21 18 20 22 24 25 23 17 22 27 22 27 32 18 24 23 20 17 27 29 19 22 21 22 19 22 21 23 22 20 13 22 19 21 26 23 20 22 20 16 27 22 21 19 25 18 21 26 28 22 25 18 23 25 18 16 15 15 19 23 24 27 25 26 27 20 25 26 21 14 14 22 21 18 27 19 22 23 23 26 19 20 15 17 18 34 16 20 20 18 25 19 19 27 24 16 28 13 24 16 19 24 27 28 22 21 17 26 20 32 23 17 19 28 22 23 23 22 22 22 23 19 20 32 23 25 30 24 10 26 26 28 25 27 15 24 20 26 24 20 24 20 23 28 26 20 18 22 27 21 13 21 25 28 22 30 30 25 19 23 20 24 24 26 19 23 20 33 28 24 18 21 23 32 17 23 31 25 27 32 24 27 28 24 16 18 28 26 26 27 27 21 27 26 31 24 25 20 31 23 11 26 24 23 25 18 31 18 30 23 21 23 20 24 22 23 22 24 29 25 17 25 27 29 18 24 20 27 19 16 20 18 23 23 34 22 26 16 26 23 14 23 18 15 18 23 15 21 21 26 21 22 19 18 19 31 23 23 18 28 32 19 15 20 24 26 24 20 22 20 29 16 23 23 25 33 26 21 29 21 18 16 19 14 29 29 21 28 21 20 18 28 30 23 19 26 22 29 28 23 20 24 17 17 23 26 29 24 23 23 21 23 22 35 25 22 29 23 26 15 18 20 26 19 16 25 24 20 15 22 23 27 22 18 24 16 24 19 22 23 25 16 27 15 21 23 19 16 26 18 23 16 26 20 19 26 27 13 20 21 19 26 18 21 28 28 20 19 25 17 23 15 26 20 20 19 24 28 21 19 19 21 23 24 27 24 22 26 21 15 18 23 19 28 22 19 23 25 25 17 18 25 20 25 26 19 28 16 23 20 18 21 24 26 20 20 29 26 27 32 25 17 24 22 17 25 23 17 19 21 25 23 16 20 19 21 22 21 20 26 18 16 24 20 12 16 18 22 19 26 14 23 16 31 23 28 17 18 25 24 17 26 25 17 28 27 29 25 22 31 19 18 20 26 28 18 21 20 18 15 24 31 25 16 23 17 26 21 19 22 25 28 19 20 26 23 29 14 20 21 26 26 22 19 21 23 19 18 21 24 22 20 29 22 19 25 24 20 32 19 23 26 22 26 23 26 22 31 17 27 21 18 24 17 28 31 28 25 22 25 24 22 21 24 25 25 25 18 26 25 29 21 19 23 21 17 28 18 26 28 24 22 29 17 22 29 21 26 27 23 23 23 25 26 22 21 19 21 20 20 25 16 29 19 29 17 24 20 24 19 21 27 25 18 22 17 17 23 27 24 23 21 24 22 24 13 24 26 27 27 25 23 26 17 19 24 20 22 20 19 16 26 30 19 24 21 20 21 19 25 25 19 20 24 18 29 16 19 15 29 20 16 22 28 24 24 22 32 21 20 19 28 29 30 24 19 23 23 26 27 16 17 31 22 22 18 18 18 31 26 18 17 26 20 26 26 19 22 26 30 15 26 17 26 23 24 23 17 22 20 27 20 20 28 18 18 16 29 21 23 21 25 26 24 26 21 18 30 18 19 23 27 21 28 28 22 20 24 24 27 21 23 21 17 13 25 28 25 22 20 23 19 28 27 26 24 19 21 16 24 20 23 22 19 29 21 22 22 20 7 28 26 19 18 23 24 27 24 14 21 21 16 26 20 19 23 24 22 23 19 18 25 26 29 27 31 26 19 23 18 23 22 23 18 19 23 29 23 16 21 20 17 21 24 13 23 18 25 20 19 22 27 14 27 23 25 20 22 31 19 18 23 29 19 25 25 23 22 23 23 20 24 23 25 31 21 21 28 25 29 24 23 21 21 19 34 23 17 26 20 28 35 22 17 24 20 26 22 26 16 28 21 15 23 26 21 19 23 24 17 16 28 21 36 20 27 18 20 14 29 19 26 22 30 27 19 22 22 19 26 22 30 11 26 28 27 28 14 21 23 22 24 22 25 22 23 21 20 27 24 21 17 21 25 20 28 22 21 22 22 26 20 21 25 27 19 18 27 18 21 18 28 19 20 23 20 27 26 28 12 25 26 26 26 21 22 21 17 23 17 17 23 22 18 23 20 27 26 24 19 17 26 23 21 24 30 25 27 23 29 22 25 25 22 26 23 22 24 21 19 20 20 23 23 16 21 18 25 29 13 24 26 21 24 21 20 19 20 21 19 24 24 21 22 32 23 27 23 23 17 19 28 31 24 27 21 23 24 26 18 23 18 20 26 15 25 27 26 16 19 26 26 20 18 22 22 13 26 24 22 17 19 30 22 25 25 24 29 21 24 17 9 17 34 23 22 17 23 19 24 24 23 21 26 22 25 20 23 21 27 24 19 26 17 23 32 25 19 20 25 23 21 27 20 22 12 24 19 23 22 17 26 20 30 27 21 25 17 21 25 19 16 20 18 20 26 16 22 19 20 22 17 21 21 10 18 21 24 16 18 19 21 26 16 17 20 22 20 25 21 28 25 19 20 22 21 24 24 20 22 24 18 27 23 31 25 38 29 21 26 23 18 24 19</t>
+  </si>
+  <si>
+    <t>FTL(0.07297145140373616, -42.385269417253625, 75.45916542648412)</t>
+  </si>
+  <si>
+    <t>32 33 30 31 35 38 37 39 34 35 32 39 39 31 33 22 27 26 30 42 32 27 22 28 20 39 42 39 30 35 36 32 39 33 31 32 36 30 32 31 31 36 32 27 32 36 23 34 44 41 40 36 38 40 35 40 32 26 42 24 37 26 33 33 31 35 52 31 37 23 37 26 31 31 33 35 26 33 35 37 42 40 38 36 32 37 35 32 29 40 35 30 27 32 39 32 37 43 41 39 34 32 29 29 41 27 28 38 37 47 34 30 28 30 36 33 39 37 26 35 29 31 29 30 36 30 38 37 37 41 40 26 32 38 31 30 27 33 27 35 43 23 30 37 41 33 30 36 33 29 34 24 30 32 49 30 26 23 25 35 39 24 38 37 28 39 38 33 34 36 40 41 37 48 32 25 36 45 36 40 37 34 26 35 36 42 33 34 26 30 40 41 21 32 26 22 25 38 24 34 33 34 32 30 35 26 42 37 30 34 37 23 41 29 28 35 33 31 16 34 35 28 26 25 22 35 39 31 33 24 35 36 37 31 32 40 37 29 42 35 30 38 34 32 38 23 52 30 30 26 28 26 33 40 31 30 27 27 30 39 28 37 37 38 36 26 33 30 36 36 35 36 33 37 45 29 32 35 35 40 30 32 35 25 30 29 30 45 28 26 35 42 31 40 47 38 36 30 34 40 36 38 29 29 33 36 32 42 26 33 44 36 33 35 33 36 36 30 32 38 32 39 33 35 36 41 29 32 35 32 26 35 28 36 36 39 29 34 33 27 31 45 36 40 32 33 39 41 42 33 36 30 44 35 32 35 31 30 28 34 36 29 26 28 33 30 31 29 25 39 36 32 37 37 31 34 28 34 31 33 38 43 28 29 37 35 34 40 35 22 31 26 36 31 41 30 25 31 37 30 26 36 29 28 36 48 41 40 32 40 39 35 38 37 29 37 36 31 29 30 38 32 28 35 27 35 36 30 36 39 39 26 22 35 38 31 36 30 36 27 43 36 31 32 41 33 30 34 33 29 36 27 38 32 36 36 36 38 36 34 31 39 46 31 39 29 29 35 39 33 29 42 32 30 36 30 29 40 29 34 36 33 31 34 36 24 33 25 41 38 27 30 45 30 37 35 34 32 32 29 32 35 34 34 34 28 33 36 31 29 32 28 29 30 29 40 35 26 33 31 32 30 35 34 43 43 37 35 31 38 38 29 27 36 41 42 27 28 47 32 38 34 31 24 30 40 44 32 38 27 35 37 30 33 33 27 36 35 30 30 29 32 40 31 28 28 32 37 23 36 33 40 36 22 36 34 34 28 36 39 27 37 30 31 32 37 24 38 33 38 32 41 31 37 43 36 32 30 39 40 33 34 34 32 40 28 30 34 25 38 26 44 39 31 30 33 33 40 28 32 32 36 33 31 30 27 39 36 28 32 29 38 36 37 33 39 43 31 31 33 31 24 31 31 28 25 45 32 28 55 28 32 30 30 26 32 31 40 31 33 41 39 31 31 30 37 31 32 34 32 39 21 31 31 25 30 29 29 30 44 33 38 40 35 33 39 35 40 33 34 30 26 34 34 32 42 29 35 40 36 26 28 36 36 33 37 28 35 30 29 32 34 33 25 31 33 28 26 34 27 33 27 35 29 28 29 30 40 29 43 20 35 36 34 31 34 33 32 37 39 29 32 35 50 33 30 41 25 34 29 26 32 43 35 34 31 31 34 33 37 41 35 32 31 32 31 30 26 31 25 32 37 31 36 41 32 33 36 32 38 28 25 31 31 41 33 36 23 38 38 31 35 27 29 32 30 25 29 29 37 18 32 31 33 38 31 40 38 33 30 35 27 31 38 30 25 44 31 41 29 36 33 20 31 31 30 30 32 39 40 45 29 36 33 35 21 31 31 30 33 35 35 34 36 37 36 33 34 35 27 43 42 34 28 32 30 27 45 37 36 32 30 43 29 27 32 37 30 31 31 31 43 28 38 31 36 35 27 31 36 35 35 28 33 36 36 33 29 45 36 34 36 34 42 45 28 39 30 31 29 38 32 44 41 41 38 40 31 21 42 39 29 35 33 44 36 35 35 43 33 42 30 31 31 46 42 36 37 27 30 41 33 28 33 30 34 33 39 36 34 37 26 37 32 29 42 32 34 35 33 25 35 27 36 33 37 35 33 35 27 30 29 39 30 35 40 28 24 34 44 32 32 34 32 38 34 38 27 37 31 22 36 31 34 26 22 32 36 24 33 39 36 28 37 41 22 30 23 21 34 39 30 36 33 33 29 40 34 38 30 26 32 25 29 33 34 39 25 30 47 31 29 39 32 35 39 28 35 30 34 37 27 21 43 27 26 29 29 31 40 34 42 46 45 30 25 40 33 29 31 38 37 32 27 19 27 35 40 39 30 29 37 23 36 34 26 31 37 34 31 36 34 37 37 33 39 25 48 28 35 32 28 31 41 44 31 37 31 33 35 24 37 35 22 29 33 25 31 38 23 25 30 29 37 37 21 30 36 29 23 36 34 34 32 34 35 26 37 34 42 35 35 33 36 32 31 26 23 35 31 39 19 33 24 22 40 34 34 46 25 26 34 34 29 27 39 31 35 34 34 23 38 40 29 30 40 40 27 38 28 33 32 44 36 34 28 24 24 36 36 35 27 35 40 30 30 29 25 43 42 32 43 44 38 27 30 34 33 42 36 30 32 32 33 41 33 20 34 33 30 28 46 32 38 37 38 31 48 38 29 42 28 42 25 33 33 29 34 27 32 31 31 34 33 31 25 33 28 34 39 26 29 29 23 37 32 35 40 37 39 23 40 37 25 29 27 30 30 31 29 30 29 30 30 49 36 39 28 45 37 37 33 27 39 39 44 31 25 35 34 35 26 36 35 33 40 38 30 28 27 47 31 46 33 43 34 37 25 32 28 35 28 37 32 33 31 32 31 33 38 39 35 34 39 39 38 38 32 23 24 35 36 22 26 31 39 40 30 36 29 47 31 33 38 37 37 27 41 38 24 34 32 24 22 27 27 38 35 29 43 32 34 37 25 29 27 43 30 30 27 15 39 32 28 29 29 26 29 32 37 34 29 30 40 34 33 35 23 40 34 38 39 37 37 31 39 33 37 33 27 26 26 28 31 30 39 36 34 28 34 33 33 30 26 36 38 34 30 30 34 21 33 30 34 27 32 36 32 32 28 28 38 42 26 27 29 36 22 35 41 33 28 32 31 33 40 24 38 39 32 35 36 38 22 37 45 31 33 41 23 30 37 38 27 31 32 28 29 26 35 38 53 42 45 26 34 38 23 23 31 43 27 36 29 38 35 31 32 29 40 35 37 41 40 33 24 36 36 37 35 41 35 27 36 29 27 34 42 36 33 28 46 32 34 35 29 31 30 38 34 31 33 30 25 34 29 34 33 33 25 36 30 46 37 29 34 33 31 30 26 27 35 38 47 31 29 40 32 36 20 41 40 39 30 32 35 33 38 31 26 40 28 32 34 31 37 31 40 37 37 33 41 28 33 36 26 33 32 31 32 38 36 30 29 36 33 43 39 35 44 29 39 36 34 33 39 34 27 33 28 35 34 41 41 34 34 38 38 35 37 40 20 36 39 36 36 28 34 25 34 37 37 31 30 29 28 41 46 32 25 23 27 27 23 35 45 33 31 31 35 38 37 40 31 30 28 27 30 33 30 29 36 29 30 36 46 39 37 33 31 38 30 40 38 37 35 28 34 31 35 36 33 32 37 32 38 24 39 32 27 43 30 38 32 34 36 28 34 35 27 38 28 31 25 34 25 34 36 31 34 39 33 34 46 35 31 30 35 37 26 29 29 27 37 32 30 39 38 30 41 36 31 25 36 24 45 33 43 43 34 34 36 33 29 37 28 33 48 31 45 38 45 30 39 37 32 36 37 38 32 31 28 39 29 32 23 30 40 32 36 30 28 33 21 34 31 25 26 48 36 23 36 24 39 31 36 39 35 32 30 30 22 34 37 33 29 31 35 34 40 42 23 34 24 28 24 28 30 23 36 35 40 32 39 40 39 33 27 29 37 31 25 23 26 38 26 31 33 26 25 32 39 33 21 33 46 41 32 38 33 36 27 32 22 37 37 34 43 33 35 32 31 30 40 37 29 37 30 37 44 39 26 37 40 37 26 37 33 34 30 26 35 28 27 29 24 29 29 29 34 39 31 30 35 29 28 34 25 33 26 39 43 33 32 29 40 31 36 42 26 34 25 38 39 27 40 34 31 29 38 39 33 42 25 28 43 30 40 36 33 35 23 33 37 30 34 34 35 22 30 37 31 33 34 48 33 29 30 35 33 31 44 33 35 22 29 31 42 28 39 45 27 36 29 34 38 34 39 30 26 38 39 28 40 27 38 27 36 22 41 29 35 43 35 32 29 31 32 32 29 22 29 37 40 26 32 38 32 38 30 34 30 34 30 39 34 34 29 36 32 36 29 40 26 29 36 35 37 35 25 33 36 40 35 35 38 29 35 34 37 39 40 34 34 28 29 33 32 30 28 32 38 39 32 27 33 30 36 35 24 22 34 34 26 33 31 38 31 34 33 21 26 33 27 32 29 33 37 36 27 42 31 41 33 39 40 23 42 26 38 32 40 30 34 39 27 36 33 40 33 43 35 35 36 25 35 28 36 37 50 35 33 24 31 26 34 21 34 31 36 36 34 33 44 27 29 29 27 30 26 31 33 27 31 29 31 31 37 35 32 34 40 34 29 23 35 25 26 37 30 36 25 29 28 34 30 28 39 22 34 38 40 41 28 35 36 34 28 33 30 33 25 35 38 31 35 30 35 33 30 36 37 30 25 30 39 33 20 28 32 22 42 34 36 36 25 35 22 31 20 34 32 31 26 32 36 34 35 29 38 31 25 40 26 40 33 34 28 32 38 27 38 27 31 33 35 30 33 39 32 28 37 28 45 33 38 34 32 23 36 33 45 25 43 29 37 29 34 26 38 36 35 27 41 32 34 40 28 35 25 36 30 31 32 32 24 36 32 27 31 26 41 28 28 31 41 36 42 29 36 32 44 40 35 24 28 47 42 36 24 42 38 28 25 51 24 27 32 26 37 39 38 30 26 26 25 35 34 32 31 35 35 30 35 30 35 33 20 34 33 39 44 28 36 30 44 48 41 34 35 44 23 38 28 30 35 36 36 36 29 17 40 44 36 35 33 35 34 31 39 31 24 37 45 54 30 33 37 28 33 35 32 30 26 42 24 32 25 41 30 41 31 35 35 36 34 35 36 27 35 29 31 32 27 39 33 34 28 33 30 39 28 36 40 34 34 28 33 29 31 35 23 32 32 32 33 37 41 38 16 39 27 21 30 44 28 37 30 40 32 27 37 32 40 26 30 31 35 41 35 30 30 37 32 30 39 37 35 25 33 28 25 30 31 24 42 26 40 41 35 38 41 27 36 35 30 30 28 34 30 31 37 29 33 35 36 29 24 32 37 33 29 32 29 31 40 26 35 32 38 41 24 34 30 32 37 25 34 27 36 32 41 30 28 33 28 29 31 38 38 39 18 35 39 27 26 27 42 35 27 23 38 29 33 43 31 40 36 26 34 44 30 29 36 23 37 25 33 32 38 30 37 34 33 38 44 32 26 27 27 26 28 33 38 30 31 26 41 38 35 51 30 30 42 26 37 34 38 27 41 38 42 37 30 30 36 32 35 31 38 33 42 37 31 40 32 32 29 43 41 27 38 27 28 34 44 37 22 32 30 37 38 35 26 30 35 39 38 30 34 41 32 33 33 33 36 41 39 22 29 30 27 33 25 34 32 32 31 30 34 36 40 30 44 26 34 32 40 34 47 35 29 37 30 43 41 28 41 34 29 34 34 27 41 38 43 39 37 28 35 37 29 30 34 23 35 39 37 34 35 30 38 31 29 34 34 24 30 34 35 26 47 29 34 44 36 33 30 34 36 27 20 34 34 29 33 28 28 22 31 25 39 31 45 30 22 34 44 30 38 36 36 29 32 36 42 48 44 31 28 42 30 31 29 30 46 41 44 35 25 33 32 45 31 36 43 30 27 28 31 33 33 31 32 36 25 30 29 38 26 30 26 34 28 37 32 33 28 22 27 34 31 30 24 38 26 34 25 31 28 38 27 40 32 22 33 38 26 43 34 26 31 39 27 30 32 34 33 28 39 36 32 34 34 43 36 33 33 35 31 34 46 26 27 48 33 34 37 30 36 25 37 26 29 22 34 36 24 32 33 41 39 36 30 39 32 34 43 29 25 52 36 47 45 37 34 37 42 30 33 28 30 30 33 35 36 40 36 38 28 34 37 37 35 31 33 40 33 33 39 35 33 34 39 34 32 39 40 31 38 28 38 32 30 42 38 40 31 32 31 23 34 24 32 36 33 38 33 30 41 36 25 29 38 34 29 35 41 39 32 33 32 32 36 37 30 31 39 44 25 30 37 31 31 26 32 34 39 33 43 22 30 33 32 28 35 34 33 26 33 47 24 32 33 37 37 36 39 32 24 39 30 32 26 29 33 25 22 27 41 32 35 32 45 25 27 32 32 27 37 28 37 37 39 33 28 45 45 35 34 40 24 19 36 34 18 34 33 35 38 36 29 36 36 23 35 30 34 30 40 31 38 44 39 38 37 26 31 38 32 32 33 21 27 34 26 37 35 35 28 28 22 24 32 33 35 38 36 31 32 25 31 43 37 33 40 39 31 29 34 34 36 29 27 24 27 42 31 36 27 29 34 24 28 39 29 35 33 32 35 42 42 37 37 30 33 23 38 32 36 33 43 28 47 43 40 21 37 29 28 42 27 28 33 31 39 45 33 31 26 30 30 35 38 28 29 30 26 36 33 33 33 26 26 29 30 40 29 23 33 28 34 38 38 35 34 32 38 51 26 36 38 34 39 39 38 51 24 39 33 38 33 36 29 35 31 43 37 32 27 51 26 30 36 28 26 41 30 33 33 29 28 38 27 36 30 32 29 25 38 35 32 35 28 31 30 31 32 36 29 37 33 31 33 34 28 41 34 37 36 29 40 30 40 35 26 35 35 30 38 38 31 34 29 23 41 41 30 40 31 45 34 32 41 28 34 32 32 34 26 33 36 32 43 35 36 32 40 31 34 23 32 57 26 35 27 37 31 30 33 29 30 36 30 27 40 43 31 36 31 32 42 28 40 37 31 42 25 29 35 37 32 35 28 31 39 31 32 39 40 37 36 34 27 30 28 31 38 29 35 50 27 37 30 31 36 40 29 25 37 33 34 32 32 25 40 31 32 42 29 41 38 26 35 35 30 33 32 30 37 35 27 37 36 31 39 23 26 33 39 39 31 34 44 27 27 27 32 26 32 33 38 36 27 35 32 31 31 30 38 40 31 32 40 43 35 39 27 30 26 37 35 32 46 29 33 30 30 35 34 26 41 33 36 29 29 36 32 48 27 33 43 36 33 28 34 46 33 39 55 33 28 40 37 36 30 32 31 31 32 45 28 20 30 31 33 32 24 26 35 35 51 26 41 30 30 26 27 35 40 24 38 28 50 34 22 24 34 36 33 38 30 41 37 35 40 29 35 31 38 27 28 28 36 36 32 31 26 31 35 41 39 38 31 31 32 44 25 31 37 32 33 30 32 37 30 33 24 35 29 37 32 28 38 29 30 25 30 23 34 40 29 32 39 40 30 29 33 38 25 28 35 37 34 39 30 34 32 27 34 34 40 38 30 36 36 33 28 30 31 31 32 34 29 29 38 32 27 40 48 27 40 25 34 30 25 28 36 44 26 38 31 38 28 33 32 33 38 29 43 45 31 38 36 27 35 32 36 33 35 36 45 37 42 25 27 22 39 30 30 39 32 24 44 32 32 36 30 21 37 32 36 27 32 26 39 44 39 40 34 33 30 34 35 29 38 43 29 35 28 29 22 41 32 33 30 35 31 40 29 34 23 36 32 33 25 37 31 37 36 36 38 38 34 44 38 36 29 32 42 28 33 29 31 39 34 26 29 40 35 34 42 40 33 39 25 30 40 47 40 28 39 28 31 37 31 31 29 36 25 30 33 34 30 29 31 33 32 31 42 24 29 30 33 26 43 32 33 30 35 29 32 40 36 23 31 35 33 43 32 30 33 35 32 38 38 32 34 39 46 29 41 33 34 19 31 45 29 30 34 36 34 29 40 34 35 34 31 41 38 32 33 37 29 37 31 43 22 37 29 35 38 44 29 29 28 39 34 40 42 36 33 30 30 33 36 34 34 35 32 28 30 39 33 29 38 38 30 36 36 26 36 21 32 39 25 36 34 29 24 36 31 29 29 32 22 28 35 25 36 33 31 31 34 29 32 23 40 33 39 28 35 34 39 38 34 30 40 33 40 33 32 28 27 23 24 25 26 42 27 43 41 39 43 38 34 35 34 36 37 36 34 32 30 29 34 29 30 28 45 32 31 40 38 33 31 35 37 34 25 39 29 30 42 34 43 34 26 29 31 39 32 34 33 40 31 47 28 28 34 36 32 35 30 35 43 34 33 37 29 26 31 33 27 35 29 29 24 21 35 31 35 32 37 35 23 33 27 24 37 35 41 44 47 33 39 36 28 34 34 29 36 32 33 31 30 41 35 33 37 30 31 36 31 42 37 34 33 31 31 33 32 33 39 31 33 40 34 35 34 31 32 29 29 24 27 32 24 49 30 38 31 31 29 32 43 35 37 35 38 37 33 31 48 36 33 34 34 33 29 32 35 36 33 33 38 45 35 29 39 35 47 32 39 24 36 45 40 34 35 29 29 30 31 46 32 28 45 42 29 30 33 44 38 27 34 33 32 40 27 31 41 25 43 26 26 36 39 43 43 29 35 34 36 33 34 30 36 26 34 38 27 33 39 31 31 25 26 28 36 37 40 31 28 30 30 40 39 37 27 33 41 26 31 38 25 21 36 27 36 37 38 43 26 27 30 32 41 28 36 32 17 25 26 28 27 28 27 31 26 31 30 30 29 30 30 39 40 31 38 27 34 32 31 27 40 38 30 37 29 24 33 37 33 28 42 36 38 43 46 27 30 30 29 25 30 53 31 28 41 39 29 29 40 34 31 35 30 36 28 34 33 41 24 39 32 31 41 36 30 32 28 38 34 38 34 27 30 31 26 27 25 26 33 31 36 40 26 44 37 19 33 35 47 32 38 35 26 29 33 26 23 48 33 27 28 26 32 34 36 37 26 26 22 27 25 22 36 23 40 38 30 33 38 35 34 38 48 28 32 29 45 30 24 34 41 40 35 35 33 32 40 30 36 30 29 38 49 36 26 43 30 31 41 40 31 29 34 36 27 28 37 35 29 37 29 30 40 38 42 32 35 27 28 44 31 23 33 29 31 32 28 20 32 34 32 40 43 34 44 31 33 27 36 40 32 33 36 23 28 32 37 36 30 37 18 31 37 41 37 23 34 22 30 30 37 41 41 30 26 43 42 38 30 29 27 21 40 30 39 31 42 44 34 37 35 28 28 26 29 34 40 36 40 27 38 32 25 40 30 42 35 41 26 33 29 32 35 39 33 27 36 35 24 32 30 29 27 33 41 34 30 31 26 41 33 32 34 37 32 34 32 24 30 34 25 41 28 32 41 37 33 40 41 42 30 23 35 25 33 41 26 38 34 36 38 38 36 29 26 44 36 42 32 37 32 31 31 37 26 25 44 36 34 38 36 31 43 35 25 40 33 33 32 34 42 39 42 34 35 48 38 32 24 42 31 42 39 31 30 28 46 34 37 38 24 25 32 30 26 39 31 29 35 32 32 32 29 22 22 34 34 29 33 29 31 35 33 33 31 36 32 30 35 26 30 33 40 36 42 24 28 36 35 40 41 31 40 30 36 33 30 44 40 40 33 36 35 40 37 36 28 34 33 34 29 38 28 24 34 41 38 32 51 33 32 37 32 29 44 34 28 31 39 40 32 32 31 41 29 25 44 25 35 33 35 34 33 54 25 28 31 34 28 33 29 32 34 41 28 40 39 43 31 43 43 38 33 36 34 30 26 29 46 28 40 38 36 31 36 31 42 32 33 31 39 33 44 33 32 33 24 33 38 36 33 32 26 29 36 26 25 40 38 36 28 24 41 46 35 36 29 36 41 36 30 31 36 32 34 38 35 43 31 32 30 35 33 37 38 21 31 38 34 35 25 26 34 31 44 39 36 27 36 29 27 29 32 37 37 24 26 14 33 40 32 32 39 30 29 30 29 31 29 35 30 30 38 34 33 31 38 36 32 31 30 33 37 31 29 33 36 36 22 27 26 37 36 28 44 41 36 36 28 38 32 33 36 27 35 30 35 33 25 37 27 35 26 46 36 32 28 37 28 39 33 31 28 28 33 24 41 35 32 43 34 25 28 45 49 32 34 34 34 32 39 34 33 33 28 26 30 33 30 27 42 31 27 36 31 37 32 37 37 31 39 43 31 31 24 41 35 28 38 28 27 31 32 33 34 27 33 37 32 34 30 35 34 23 42 32 36 24 43 31 33 40 22 33 25 35 37 35 30 40 36 42 28 33 33 28 30 21 35 33 35 28 43 30 38 36 34 35 32 28 39 33 35 30 34 45 37 38 35 39 38 40 34 25 30 50 38 26 37 35 41 29 42 28 27 31 35 31 39 35 31 24 28 34 27 31 26 42 26 32 39 32 46 25 30 26 26 31 35 30 33 35 37 39 29 34 19 28 28 39 37 35 33 31 41 32 31 28 33 42 39 31 26 35 29 30 40 34 28 35 38 23 38 26 20 32 22 22 20 39 39 31 30 27 33 28 25 34 34 34 26 31 31 27 28 28 35 25 41 24 37 42 29 33 37 33 44 26 48 36 36 30 26 36 35 46 35 29 28 28 30 35 30 40 30 39 45 25 32 29 35 32 31 33 34 33 31 31 30 30 32 45 34 34 31 28 35 37 35 37 31 40 40 45 39 32 34 37 29 40 31 32 42 38 29 35 34 43 35 36 39 29 32 28 42 35 40 31 33 36 39 38 30 37 36 35 44 32 35 39 28 38 24 37 44 30 28 38 38 23 29 31 44 33 28 37 43 35 37 41 34 33 34 27 33 37 42 32 26 50 39 37 34 35 35 39 34 34 27 34 23 36 22 33 39 30 35 29 38 29 34 30 23 31 35 30 28 36 36 31 33 32 39 33 34 37 39 42 37 26 37 43 21 35 30 31 28 29 24 29 28 41 32 43 28 27 35 30 37 35 36 39 32 37 28 34 29 31 25 25 32 27 34 45 29 42 39 33 36 26 30 27 27 36 33 40 36 38 31 27 26 38 30 43 36 30 39 43 30 33 36 45 37 35 27 22 37 22 33 33 24 37 37 34 29 32 25 34 27 27 32 37 34 34 28 37 31 36 35 37 41 37 32 38 34 25 37 25 25 26 28 28 36 30 36 23 42 38 36 28 41 32 37 35 28 32 26 42 35 37 33 31 41 41 28 32 29 40 34 33 36 34 35 38 42 42 30 33 30 31 39 33 29 33 34 34 33 35 34 30 30 39 34 39 32 35 26 25 29 35 32 31 35 33 26 29 33 33 31 28 37 26 32 25 35 24 31 28 31 37 32 26 30 38 30 29 32 31 29 37 33 27 49 33 34 28 29 39 40 28 29 34 33 30 25 29 33 36 35 20 44 25 30 37 31 20 28 20 43 38 25 36 34 25 28 27 36 38 33 28 36 31 33 30 31 37 34 32 30 40 33 23 31 38 26 30 34 37 37 35 39 42 24 30 38 32 34 35 24 32 37 47 27 32 29 29 34 41 33 34 36 44 30 34 42 33 31 34 38 27 32 33 36 26 30 31 40 34 39 44 27 25 50 28 28 45 41 42 35 32 33 26 29 33 34 36 33 33 34 39 32 38 27 35 39 39 24 39 36 29 29 36 40 32 43 37 34 37 33 34 38 36 42 35 36 30 40 31 34 31 32 40 27 26 27 32 38 34 36 39 29 39 38 33 24 37 38 25 37 30 37 31 31 27 29 38 39 29 41 23 25 31 24 30 43 31 33 32 27 41 23 32 39 33 37 34 40 32 23 39 37 29 47 33 23 33 29 27 36 34 33 33 29 37 39 35 35 30 32 29 36 40 24 36 31 29 28 20 28 28 28 26 25 28 37 38 35 33 38 23 30 41 35 32 29 27 37 29 37 32 32 31 33 32 33 23 38 25 26 31 38 38 30 26 28 31 30 33 41 25 27 29 41 27 33 32 28 28 28 32 30 23 32 48 37 30 27 32 34 26 28 33 26 30 37 29 42 35 38 39 37 33 36 42 29 37 36 39 30 37 27 27 34 38 29 42 41 39 32 49 33 31 41 33 27 35 45 30 38 30 28 30 30 33 37 31 33 41 32 38 38 43 42 34 47 28 46 42 41 29 35 34 31 33 36 31 33 28 29 30 32 44 35 38 37 38 31 39 34 35 35 31 32 27 40 22 40 30 36 45 44 24 36 40 37 26 38 43 27 35 26 27 39 29 32 31 29 23 34 43 33 24 42 34 30 30 30 39 37 29 30 24 36 24 37 44 32 19 27 29 31 34 35 33 45 48 37 28 42 34 27 29 30 35 38 27 37 26 35 39 34 31 38 32 34 23 39 34 35 33 27 32 36 24 26 33 23 32 37 34 35 31 33 27 34 27 33 38 29 32 34 34 34 33 31 32 33 38 39 37 37 35 39 27 35 46 36 34 35 35 26 35 26 37 28 40 35 41 49 39 43 26 33 35 31 27 46 28 36 39 32 28 33 31 33 32 32 40 32 26 35 37 27 34 42 24 25 27 39 33 24 25 37 51 31 38 29 45 29 31 46 26 43 39 39 26 28 34 45 20 34 40 28 35 26 28 36 42 37 32 27 44 41 27 37 38 34 32 30 30 22 27 35 29 35 32 40 35 35 33 34 37 36 29 26 34 35 36 33 30 39 31 38 38 29 29 41 35 37 45 27 34 26 36 30 27 21 19 27 38 49 31 28 31 34 33 27 39 35 24 32 35 33 39 32 33 42 34 39 39 29 39 34 27 43 34 31 31 30 28 28 32 41 34 30 35 37 34 30 31 37 37 30 23 36 34 30 31 37 40 40 31 39 28 35 45 30 38 35 39 34 36 36 36 34 44 40 42 30 40 54 32 37 36 31 32 29 21 27 37 32 31 36 45 44 36 32 33 31 31 43 32 29 41 30 33 28 32 33 34 33 33 26 31 28 40 22 25 32 35 34 27 37 46 31 29 28 42 24 19 29 36 30 46 29 35 39 32 35 35 23 31 38 40 33 40 35 25 27 27 31 25 33 31 33 29 34 33 25 35 35 36 35 40 39 33 36 43 34 34 34 35 36 32 30 34 32 31 37 39 35 23 29 26 42 45 26 30 31 28 40 31 25 21 39 35 28 32 30 32 24 31 37 25 23 46 33 44 34 33 36 20 22 28 23 33 26 44 42 40 36 32 43 30 35 37 30 34 32 34 33 31 32 29 30 38 42 32 30 35 28 36 39 28 39 31 30 31 38 38 39 39 26 31 36 35 35 39 32 36 48 42 34 32 38 27 40 29 43 32 28 28 41 35 32 31 35 37 30 37 33 31 41 39 28 44 36 34 35 35 35 27 32 46 31 29 33 26 29 32 33 30 32 38 36 33 30 42 16 37 37 43 28 41 42 34 39 31 29 37 29 35 38 34 24 30 33 18 33 45 33 34 41 33 37 29 34 33 32 31 32 39 25 43 29 31 44 48 24 46 30 39 37 30 31 37 27 36 34 38 37 35 35 35 41 42 41 38 32 27 23 29 34 33 30 42 32 28 29 28 40 31 30 32 42 32 33 20 34 22 30 40 31 31 35 37 25 42 31 24 38 40 35 33 34 25 37 27 23 37 37 38 31 33 30 32 41 35 36 31 32 30 34 30 34 23 35 29 38 29 30 40 33 31 24 30 32 41 31 27 35 23 40 36 41 34 39 36 30 28 27 35 35 38 35 31 31 37 44 25 33 45 31 25 32 41 38 33 24 25 39 43 42 45 25 26 36 41 30 34 42 33 26 38 33 29 27 33 42 35 21 27 31 39 35 30 26 35 25 26 33 36 32 25 28 30 36 33 22 40 30 38 33 23 35 38 27 27 40 29 25 49 37 34 38 24 38 36 26 40 27 26 28 31 28 34 34 38 38 35 26 46 34 27 36 22 34 45 25 41 30 32 34 36 27 31 30 22 27 31 19 31 28 31 23 23 30 27 39 26 36 35 31 33 27 37 31 29 31 40 33 27 33 31 37 43 32 41 34 34 35 25 28 31 20 32 26 34 42 38 32 39 32 36 28 28 32 44 27 36 38 44 34 30 32 29 37 31 32 32 36 28 29 39 29 39 32 31 33 30 32 38 36 32 33 33 35 42 39 33 43 31 28 26 30 30 28 38 31 31 27 36 30 37 30 36 38 38 35 29 29 28 27 35 32 34 28 34 29 32 30 33 35 33 31 28 30 24 31 40 25 26 37 39 28 30 26 31 26 31 31 30 36 42 36 31 35 46 36 25 40 30 23 35 32 31 33 34 33 30 23 26 32 35 29 25 29 19 37 30 38 26 33 31 33 38 39 36 29 49 39 37 35 32 31 48 37 39 38 38 30 34 42 31 40 31 29 28 40 31 26 30 34 33 35 40 28 38 41 36 31 31 33 41 31 37 32 31 34 33 41 33 29 30 29 36 39 35 21 28 33 38 36 38 30 41 37 34 31 30 30 28 34 32 24 33 39 35 35 23 33 33 40 34 34 28 36 20 43 31 25 39 30 29 30 30 41 39 23 36 31 35 32 30 40 44 24 34 32 30 30 34 32 36 28 42 40 43 32 36 27 44 29 38 35 29 21 39 34 25 42 47 34 34 24 36 35 27 37 32 42 40 32 36 31 30 37 34 37 29 31 20 43 42 28 27 31 30 39 42 37 30 40 33 25 35 24 35 29 31 38 31 35 29 36 28 36 25 26 40 29 40 39 29 29 31 26 34 22 34 25 39 40 29 29 25 24 29 34 53 25 29 41 41 28 28 25 33 30 37 28 36 40 36 39 43 31 30 33 26 30 36 41 43 23 28 32 33 35 40 30 21 47 25 31 36 31 41 39 26 42 21 42 32 39 37 33 38 42 26 33 40 31 37 38 30 27 38 29 25 28 39 26 42 36 30 43 39 30 28 33 38 33 30 29 34 29 40 31 30 31 37 33 28 36 36 35 27 34 35 32 33 34 30 39 37 36 40 38 35 32 41 30 30 33 29 30 33 35 38 37 34 32 37 32 33 26 37 30 41 37 29 35 35 32 26 35 32 33 26 42 25 44 39 29 38 33 29 33 38 29 33 35 30 33 37 37 26 38 25 29 47 36 31 30 30 34 40 35 29 30 23 41 37 38 35 30 43 22 25 32 37 25 37 26 33 25 43 37 36 39 33 32 33 41 37 22 34 32 38 40 32 34 28 24 34 30 42 28 25 34 32 35 36 35 32 27 28 41 37 42 46 43 32 39 30 35 23 31 28 34 30 27 34 27 33 28 37 32 31 31 26 23 32 34 28 31 33 31 26 45 36 30 33 29 44 35 36 32 38 32 34 42 34 54 39 30 33 34 27 42 43 32 30 43 31 26 33 39 34 29 40 36 42 42 30 38 34 36 28 27 33 35 25 36 32 30 35 36 37 32 41 37 33 34 30 28 36 38 30 43 37 38 33 36 34 35 42 31 24 21 28 32 37 31 33 43 24 31 24 34 30 33 36 41 43 40 37 37 24 31 31 40 33 40 28 27 27 25 32 34 35 39 37 40 39 33 38 25 29 33 35 51 28 35 25 39 30 32 37 26 22 34 36 34 26 34 25 40 38 34 33 46 35 43 27 32 20 35 29 25 31 37 30 32 38 39 29 34 26 36 26 40 42 38 32 29 45 36 35 31 26 38 29 29 39 32 25 42 32 40 30 36 35 36 40 36 29 35 30 18 41 31 29 33 36 27 34 37 25 25 28 44 41 33 38 35 46 42 32 26 32 43 36 22 35 37 48 39 33 40 39 25 41 34 36 28 32 35 39 32 32 15 41 39 31 36 37 27 38 29 28 39 28 33 48 29 25 39 37 38 44 31 35 33 31 38 39 35 28 36 50 41 29 25 31 39 31 31 29 35 34 33 42 29 30 27 39 39 33 29 33 24 32 30 40 25 30 41 34 30 41 19 30 49 28 32 30 44 32 28 31 34 30 31 46 33 28 35 24 36 28 37 38 37 28 37 27 32 33 38 46 32 32 41 27 34 40 35 31 32 31 39 24 35 32 28 40 37 29 30 44 38 28 30 42 32 42 39 32 32 42 41 31 34 34 32 26 38 29 36 39 25 31 25 34 38 28 31 45 25 46 36 29 30 40 30 43 32 34 35 40 33 33 33 25 30 39 36 25 31 32 32 31 35 32 26 35 28 34 30 39 33 33 29 43 26 34 38 26 32 39 39 38 38 26 34 26 41 27 25 35 39 31 32 34 32 33 29 34 43 34 35 36 32 21 43 25 32 40 34 31 42 37 31 30 36 27 32 40 34 32 32 39 35 36 29 31 32 29 21 40 35 38 42 26 28 34 49 37 30 24 30 31 37 35 36 38 41 36 32 31 31 40 26 36 34 36 27 24 30 35 33 38 31 27 26 33 31 35 36 41 38 33 38 30 29 27 31 29 34 36 27 31 33 34 40 31 43 37 28 35 32 35 35 41 37 27 38 37 31 29 33 40 26 30 35 42 29 33 38 41 35 33 28 25 30 24 40 29 29 39 34 39 44 34 26 28 47 30 33 39 27 29 32 31 39 32 26 40 31 37 28 18 34 36 28 24 34 33 28 30 35 31 37 38 20 28 30 28 28 33 40 33 42 27 48 32 38 38 26 44 23 28 30 31 31 32 32 37 44 42 30 33 32 28 27 41 33 38 29 47 30 33 30 36 37 33 38 32 43 19 39 36 33 27 34 32 35 28 34 32 28 36 34 39 37 31 39 29 27 35 35 30 29 38 30 35 29 29 43 29 34 34 33 36 39 22 31 29 26 32 31 37 41 29 36 43 34 35 28 26 25 23 29 37 34 35 33 47 32 29 43 36 25 26 27 36 42 39 32 28 27 38 37 29 32 27 28 18 36 23 24 28 33 28 32 35 32 30 38 31 33 41 28 32 41 26 38 32 33 30 29 29 29 50 33 39 35 32 32 31 27 34 31 29 35 19 32 34 28 36 33 44 30 31 28 43 29 27 27 38 29 29 32 29 33 33 31 32 28 39 33 33 34 31 38 31 31 30 31 37 42 28 32 35 31 23 34 28 23 40 32 26 33 33 33 35 23 34 29 33 38 30 34 37 27 29 35 30 37 25 29 31 46 31 24 40 37 42 36 34 31 31 37 36 23 35 31 33 38 42 36 39 38 36 29 27 39 28 34 38 36 36 38 39 32 24 40 28 30 43 33 32 36 36 23 36 29 34 28 23 35 29 29 42 30 37 40 30 34 37 29 32 36 35 31 39 26 28 34 45 32 34 31 46 28 36 33 24 40 33 34 30 32 27 28 37 36 37 34 37 39 44 33 36 38 28 36 40 40 27 42 39 34 27 30 30 43 29 23 41 38 36 33 31 33 32 33 26 36 27 32 38 35 36 31 35 30 27 24 29 30 32 33 38 30 32 26 33 43 33 30 31 37 36 32 31 38 39 39 32 33 29 37 32 44 42 35 41 31 33 45 47 30 46 31 39 37 37 38 34 33 31 31 20 38 32 37 38 34 27 24 30 22 32 40 36 26 25 29 36 29 39 29 31 29 34 24 33 36 32 32 35 31 25 33 35 38 42 32 36 28 42 44 28 29 39 36 33 26 33 29 30 23 35 29 26 37 28 34 32 27 26 40 40 31 32 35 27 39 33 31 24 38 38 26 30 31 33 27 30 26 38 28 30 30 35 33 33 36 39 32 29 29 29 31 29 28 32 29 47 31 39 40 33 34 39 33 46 36 28 30 24 38 32 29 33 36 39 27 21 28 33 37 41 38 25 41 33 31 39 36 28 27 27 36 43 27 35 41 27 50 32 31 23 39 28 28 30 31 33 28 35 40 38 47 31 33 42 36 34 31 33 32 31 35 32 39 32 31 37 33 29 25 29 36 37 36 32 34 38 37 25 37 31 23 34 25 42 26 37 31 29 25 37 34 34 29 24 26 27 35 32 37 31 26 36 40 35 24 37 26 38 31 34 28 30 32 29 35 30 31 38 33 36 38 41 33 39 32 29 36 23 41 33 41 26 28 30 29 36 29 42 29 27 24 43 28 28 30 41 28 37 34 36 28 36 37 32 26 32 36 39 24 36 27 26 35 31 25 34 28 35 28 32 48 37 28 22 26 30 37 37 27 27 37 38 28 30 25 35 26 36 35 29 30 33 31 40 29 38 31 32 40 37 27 34 29 35 29 24 37 26 31 29 29 34 49 30 39 33 41 27 37 30 30 29 37 23 32 31 34 42 27 29 37 23 39 25 27 33 32 35 33 36 30 30 47 32 26 31 36 27 34 39 28 37 31 38 38 44 31 29 32 25 36 29 33 39 41 30 33 31 31 43 32 26 38 32 35 28 39 37 38 33 43 36 42 33 44 36 37 34 37 35 27 30 25 39 40 29 32 32 32 39 28 24 31 37 32 32 35 34 39 36 37 38 36 33 37 26 34 35 29 34 32 24 26 32 35 26 54 35 39 24 33 35 32 40 36 32 26 29 36 36 35 29 40 36 35 30 25 33 38 28 33 36 43 32 35 33 26 38 36 34 29 28 26 33 49 36 38 31 26 43 37 41 29 33 30 28 35 40 33 34 34 25 39 23 33 36 27 30 43 44 29 35 40 38 33 42 28 28 36 22 31 31 32 28 33 35 37 25 37 28 25 37 26 36 24 32 31 46 34 39 34 41 27 31 29 28 32 43 34 38 42 26 32 28 34 33 37 28 28 44 35 32 44 25 24 40 36 23 32 31 29 31 37 33 45 33 37 43 32 23 35 29 38 26 29 33 37 29 37 34 33 36 41 40 34 19 44 26 37 39 33 37 37 30 37 34 26 31 31 35 28 37 36 39 34 32 31 35 32 23 35 32 32 41 38 29 35 27 34 36 24 40 37 39 36 27 34 36 33 38 41 31 37 36 31 42 33 21 36 29 33 33 29 37 38 28 34 31 39 29 45 32 36 28 40 27 22 35 33 29 32 29 30 39 28 24 34 28 31 27 32 27 34 32 35 40 44 42 33 26 26 28 27 30 28 39 31 31 28 31 30 27 37 31 30 42 29 42 33 33 38 35 41 27 26 47 19 27 34 36 54 34 28 28 26 30 35 47 36 31 26 30 41 46 35 33 32 46 23 40 33 45 20 27 33 43 22 35 31 31 38 30 33 33 30 36 36 34 33 37 29 33 25 34 34 36 33 31 38 36 42 44 34 32 23 28 34 33 36 30 27 38 37 31 40 38 37 42 36 30 27 32 31 33 35 33 25 42 31 42 24 31 35 34 31 28 29 30 42 39 32 32 29 27 27 36 43 28 46 34 32 30 30 35 36 33 42 24 31 33 35 35 28 42 33 30 33 36 39 36 46 31 34 35 41 35 36 33 29 37 33 28 33 29 44 38 31 32 27 36 35 24 40 31 24 32 35 34 33 33 39 39 27 49 41 35 35 31 32 36 36 28 26 31 41 44 39 39 32 28 32 36 38 37 39 27 39 45 33 34 29 33 27 32 34 37 40 23 30 32 34 39 36 30 34 31 27 29 43 41 38 36 41 38 33 31 29 47 26 27 41 33 31 32 28 40 31 29 32 29 28 50 35 37 25 24 31 34 28 27 44 31 34 33 26 44 27 24 34 25 42 41 37 30 29 36 31 27 33 38 30 25 40 34 36 26 38 34 31 31 27 31 33 30 27 43 38 30 29 29 40 37 23 27 35 31 33 29 28 26 32 36 33 34 31 34 28 32 31 33 37 39 28 35 39 31 34 43 26 31 36 28 28 32 42 30 27 34 37 27 27 31 39 32 31 21 30 31 39 45 34 32 33 30 23 40 35 28 31 36 38 29 37 33 27 34 29 35 32 33 24 26 29 27 34 38 35 38 34 39 29 32 39 27 20 26 31 29 33 38 35 34 32 31 37 27 28 29 33 28 48 32 31 23 32 35 35 33 40 39 30 50 25 38 21 33 33 40 38 29 28 36 36 25 40 33 33 28 35 34 34 33 35 29 32 40 33 34 45 32 37 44 37 23 33 42 46 39 34 26 31 28 32 40 27 35 27 31 40 33 34 27 30 48 29 22 28 36 38 34 42 37 31 33 30 35 39 37 40 26 32 28 41 44 35 29 30 34 47 25 32 43 29 35 44 39 36 42 33 24 26 34 31 40 41 37 35 36 31 36 39 32 26 42 29 23 33 35 32 37 28 41 24 35 30 34 38 28 31 40 34 37 34 39 37 24 38 38 49 28 37 30 39 33 30 28 29 41 37 46 43 31 26 32 37 23 36 27 32 31 29 21 31 33 38 30 31 29 32 34 44 36 33 35 44 38 38 24 24 32 37 29 36 34 41 42 32 31 34 31 44 38 29 43 31 26 23 33 24 42 47 38 37 39 31 26 43 41 33 26 34 33 41 37 32 35 37 29 29 34 37 39 35 32 32 29 39 38 44 39 39 38 37 41 26 24 36 37 32 28 38 27 30 31 30 33 44 30 30 37 27 34 26 45 34 33 31 36 23 30 36 30 22 43 32 34 29 37 32 33 39 38 21 29 32 31 39 32 33 37 38 35 26 35 36 32 29 40 35 29 35 40 42 27 28 30 32 37 33 38 29 37 33 31 26 26 34 28 36 29 30 29 38 36 22 37 41 28 41 36 32 40 27 32 33 28 33 32 36 35 30 38 39 32 42 38 29 40 36 25 41 37 27 31 34 37 35 22 32 28 33 30 32 34 37 26 25 36 26 20 33 26 32 26 36 29 32 29 42 37 40 28 30 35 33 22 36 33 29 34 35 34 41 32 44 28 30 38 41 35 27 36 33 29 28 38 40 35 30 31 24 37 34 35 30 31 38 26 34 41 32 43 27 29 34 42 34 33 31 32 33 32 28 34 40 37 29 44 29 31 37 33 34 41 31 34 37 32 42 32 40 35 41 27 37 30 35 33 36 40 39 40 36 35 34 28 36 34 34 36 31 36 28 37 34 40 30 34 40 27 32 37 29 38 49 40 30 38 25 32 36 32 32 37 31 31 36 32 30 28 31 30 34 32 29 38 32 36 29 41 29 46 27 37 31 26 41 29 27 29 27 35 31 39 36 35 29 33 33 37 24 35 35 32 37 32 34 38 29 32 33 29 37 34 33 29 35 46 36 32 31 35 29 29 40 47 27 28 30 32 41 24 27 26 41 32 26 35 37 40 36 36 41 32 34 27 40 40 39 36 24 34 36 36 33 24 26 42 28 34 30 28 27 43 41 29 39 37 32 35 40 33 38 38 42 30 33 32 35 32 41 35 24 32 26 40 29 29 33 26 29 25 41 32 30 37 34 32 30 34 30 25 41 28 25 35 41 30 33 38 28 32 38 34 37 28 36 30 23 24 39 43 35 41 33 36 28 40 41 32 39 30 35 25 39 31 30 34 29 38 38 37 33 37 21 35 37 26 31 36 33 39 32 24 37 32 24 35 28 27 31 35 32 38 30 33 34 36 41 34 38 35 26 34 34 31 30 33 28 33 33 37 31 28 32 25 24 29 32 25 37 29 33 36 25 34 44 26 39 46 32 30 42 45 26 27 35 43 34 36 35 35 29 40 36 30 31 28 37 42 34 34 41 37 45 32 31 32 38 29 43 31 42 44 29 40 44 31 29 35 32 39 28 32 21 41 29 35 30 35 31 35 38 31 32 34 35 33 43 34 35 28 27 20 36 30 40 29 42 34 27 31 35 38 43 41 39 24 38 36 29 45 22 32 30 31 35 33 39 39 36 29 28 41 32 28 33 30 36 34 43 35 38 31 31 36 38 29 35 34 27 30 37 28 34 28 37 40 30 30 33 38 31 38 29 35 40 39 37 33 33 26 29 32 28 28 31 35 32 32 43 42 42 33 29 23 39 32 34 33 40 41 49 37 38 30 37 43 31 36 34 28 35 31 30 36 36 31 29 34 31 29 38 39 24 40 39 27 32 38 28 28 34 28 26 31 35 34 31 39 36 31 30 36 21 29 38 40 39 34 32 34 32 36 30 37 30 30 41 23 40 35 39 24 28 34 39 24 32 30 32 21 37 30 33 24 29 44 38 35 30 38 41 34 35 26 29 29 48 29 32 25 32 31 35 37 37 35 36 32 40 35 33 34 38 34 30 41 31 33 42 38 26 34 35 38 30 34 34 26 22 35 29 37 35 21 37 25 39 32 27 34 26 38 36 27 24 30 31 27 35 27 35 34 30 27 29 28 33 25 26 31 34 28 28 30 33 39 28 24 34 34 30 33 32 42 34 31 35 40 32 33 31 35 31 32 33 36 30 42 35 54 40 41 38 39 29 39 33</t>
+  </si>
+  <si>
+    <t>GAM(183.65509903424908, -435.44402464814004, 3.7721556599950867)</t>
+  </si>
+  <si>
+    <t>198 258 266 268 243 298 332 345 248 251 238 318 365 233 253 165 204 200 277 392 179 189 199 193 191 260 302 280 250 261 298 264 272 240 249 248 290 263 185 286 253 282 234 204 226 311 137 261 409 276 266 246 351 321 220 317 232 209 289 261 243 185 246 257 262 185 401 248 223 90 240 177 296 246 255 248 173 245 227 295 343 327 293 291 290 227 250 202 230 291 321 299 173 266 290 251 306 285 291 236 268 268 243 240 397 190 217 245 322 322 235 270 221 266 214 215 302 289 221 254 245 224 165 263 289 188 223 276 225 339 364 226 234 335 235 215 215 292 217 275 313 267 215 266 285 192 190 303 231 182 287 259 174 257 352 189 187 198 162 266 420 216 310 218 239 271 289 273 271 296 360 294 348 284 220 195 287 277 300 284 273 276 213 263 293 320 314 270 228 251 330 343 171 285 207 150 228 282 113 262 268 204 284 231 233 218 326 286 275 242 250 208 329 206 166 257 260 229 85 226 296 197 221 173 123 273 331 267 226 165 221 271 222 287 223 353 272 184 256 260 247 293 285 292 295 195 345 249 280 227 230 189 207 287 270 262 260 214 258 332 188 248 301 293 301 183 255 283 225 311 269 285 272 279 309 197 264 249 276 353 269 252 210 222 249 214 204 391 237 212 243 225 244 280 339 227 291 257 174 280 252 309 196 222 181 207 281 217 221 293 285 304 247 243 257 272 261 241 240 293 315 299 294 334 341 259 237 207 341 250 198 196 291 216 284 337 270 237 241 182 323 223 282 296 298 291 293 283 313 261 256 239 386 202 228 260 294 225 259 278 309 280 253 197 198 251 236 241 185 308 255 270 285 256 255 285 179 223 177 281 279 364 160 255 309 209 172 286 214 148 230 221 309 269 242 156 220 247 268 234 235 400 229 230 290 341 271 304 255 273 305 291 273 357 272 344 235 288 202 241 289 219 242 329 198 281 256 257 231 288 346 156 187 311 332 228 319 240 273 240 311 333 258 276 270 266 193 242 268 189 300 209 227 232 277 258 281 291 316 268 197 261 368 146 289 213 154 313 309 255 292 281 196 265 301 228 187 365 239 251 293 285 238 284 278 162 255 163 368 358 226 210 326 224 258 241 261 210 282 213 284 244 259 248 240 226 238 237 321 240 279 222 211 209 186 336 277 252 250 241 225 261 278 207 217 290 246 245 255 346 365 251 215 243 308 265 206 277 318 340 307 241 243 235 214 338 349 236 386 231 307 263 226 313 230 166 294 259 239 234 277 302 296 246 230 217 262 339 230 299 192 284 276 138 317 293 352 226 350 313 195 266 253 229 231 279 202 281 308 292 216 307 276 246 289 237 281 211 317 314 246 290 289 214 316 229 292 208 274 265 184 382 355 307 268 283 262 285 189 202 233 279 268 236 273 251 254 295 192 232 227 234 295 323 224 308 302 198 233 259 292 238 264 229 202 211 314 248 274 338 213 241 264 221 175 247 308 283 227 238 316 312 209 202 274 277 205 256 233 304 319 177 239 200 203 246 261 195 225 368 247 259 267 301 275 280 245 299 179 294 201 179 208 258 263 352 174 235 266 229 208 161 337 244 221 298 173 284 267 261 246 257 297 213 223 281 181 188 237 220 284 196 291 224 205 213 279 274 235 315 178 299 276 232 200 276 299 227 231 289 197 264 250 340 283 253 233 287 260 254 265 189 376 232 226 272 249 225 231 299 281 275 328 223 270 232 243 128 232 207 239 309 281 311 289 168 245 312 216 292 254 186 253 322 252 310 323 260 323 228 195 309 148 272 249 241 225 262 160 266 166 344 199 221 286 194 348 275 314 231 219 184 219 305 223 247 335 184 358 172 300 282 208 195 199 268 248 246 274 339 402 213 336 223 361 116 274 212 240 218 254 275 272 242 242 340 286 287 241 163 282 203 265 255 237 256 190 373 251 349 242 271 350 201 227 268 287 216 230 236 256 388 289 350 193 216 230 245 195 301 291 339 174 218 284 271 258 253 363 267 324 305 250 243 389 186 373 217 231 273 245 263 266 351 303 271 379 240 145 233 308 257 295 245 283 249 303 279 298 346 361 281 319 230 341 316 273 277 223 256 243 272 264 276 218 223 281 296 283 338 287 203 253 292 283 287 214 288 269 221 214 325 179 237 212 299 290 288 223 241 206 336 268 251 200 325 214 223 223 350 301 250 240 256 271 218 301 189 302 244 144 297 237 308 221 214 275 286 201 288 303 231 217 209 313 257 280 168 231 303 323 278 305 368 303 219 356 320 327 261 167 200 227 206 238 228 363 185 203 366 262 268 320 203 244 281 197 310 204 248 357 181 176 403 242 217 179 214 255 244 247 289 301 245 234 239 268 204 231 255 318 269 287 196 207 233 302 280 312 209 245 258 182 309 193 262 206 200 276 206 301 319 249 246 222 316 209 347 186 282 242 201 217 349 288 215 337 303 302 303 168 304 330 180 223 227 237 245 251 218 254 223 199 296 296 192 241 251 264 160 259 308 240 199 212 303 208 295 285 256 274 260 269 259 224 250 166 138 275 268 319 164 212 182 108 310 297 264 346 207 174 258 300 221 186 353 253 226 234 303 196 377 300 229 252 305 307 210 318 248 281 252 299 271 233 219 159 182 344 190 247 214 264 285 194 234 214 166 291 254 293 349 340 271 194 223 218 239 275 282 229 276 299 287 324 199 194 233 317 200 216 401 203 336 232 302 287 433 272 294 294 223 266 209 274 220 160 270 246 266 260 237 228 225 242 213 191 210 193 270 251 239 270 220 243 285 333 362 275 294 184 281 256 227 193 176 165 209 229 221 246 256 246 282 400 196 236 243 341 216 219 210 199 337 242 298 222 224 184 212 249 191 217 335 230 363 308 255 214 265 271 244 380 268 357 251 283 222 176 185 248 224 311 237 257 243 239 249 273 264 351 240 283 255 285 269 371 247 175 176 294 288 213 247 269 279 358 188 274 208 293 296 351 296 268 233 190 314 261 189 271 221 207 207 167 234 303 330 183 298 257 267 290 260 237 205 295 229 236 235 123 311 217 263 283 268 181 189 257 232 246 231 270 329 228 250 290 183 308 247 313 266 280 247 214 365 271 260 309 238 221 181 210 231 276 269 270 231 290 229 265 271 249 166 333 314 262 194 203 254 153 255 279 265 239 257 299 243 248 211 161 344 331 164 166 182 237 169 286 316 233 202 237 215 211 249 221 318 295 235 283 307 234 214 322 407 252 233 308 220 284 251 248 223 218 246 185 207 150 259 262 442 310 251 229 246 329 253 159 175 310 184 223 205 293 243 272 257 224 368 338 298 277 337 207 211 258 304 320 216 333 279 219 263 201 247 258 342 301 298 231 369 246 288 287 227 273 230 330 268 152 305 205 228 269 282 281 373 309 187 272 205 287 286 251 261 234 214 346 221 199 307 278 319 311 262 271 277 270 144 290 345 315 220 240 289 276 292 261 261 332 187 253 291 230 264 343 276 326 294 277 247 239 225 349 248 243 264 245 217 198 351 205 233 310 227 298 311 253 305 197 317 193 303 295 312 286 187 203 198 283 239 257 323 258 284 247 254 317 290 332 123 219 227 290 297 248 198 171 282 275 329 260 217 262 260 290 343 257 183 215 160 217 191 275 330 320 208 262 289 308 259 358 250 147 189 204 265 290 229 201 242 225 230 267 361 293 257 321 188 299 285 398 271 286 262 235 308 199 180 309 276 264 285 290 280 194 263 329 185 387 223 265 301 307 259 261 326 198 212 243 270 252 266 191 190 271 210 208 250 328 264 277 325 332 289 233 294 352 205 148 273 245 232 225 223 269 312 240 306 247 222 228 289 262 291 207 301 320 327 286 246 275 287 343 222 260 372 181 396 290 339 302 328 328 292 250 299 290 224 194 245 286 296 219 180 250 240 202 254 234 229 282 96 267 237 162 228 303 237 163 285 151 340 218 316 261 261 173 210 249 163 242 211 285 214 300 283 300 288 374 182 319 206 184 200 187 257 226 277 233 262 272 304 292 279 232 229 203 236 229 183 189 191 328 218 230 279 203 217 249 303 275 142 253 317 237 285 318 247 239 198 302 189 223 231 228 334 220 263 240 224 286 416 314 183 298 202 269 338 269 220 236 297 242 148 330 255 283 253 186 323 261 309 208 146 271 254 258 262 274 286 228 271 217 232 275 224 284 223 254 307 270 284 202 319 228 277 316 247 328 248 334 249 237 236 266 243 247 334 266 213 253 184 217 358 251 346 268 222 233 180 298 225 279 306 265 236 212 217 274 234 193 256 388 295 218 165 293 200 261 319 252 213 155 201 268 328 182 248 378 254 281 211 321 256 250 289 269 181 316 303 202 189 240 311 145 270 160 351 274 293 355 261 224 293 241 274 297 171 243 308 278 289 176 246 308 224 256 279 275 203 310 303 291 261 235 230 252 264 233 236 311 206 276 352 221 223 256 229 272 279 268 275 279 229 288 314 220 263 234 340 317 284 194 209 276 264 242 274 275 258 272 188 236 268 227 300 259 159 198 298 224 245 305 286 326 310 288 260 170 253 222 209 286 248 214 197 208 227 282 348 247 216 288 323 262 330 223 311 308 264 236 277 246 271 299 283 326 237 302 267 284 312 252 304 202 266 305 411 254 194 178 241 215 291 185 191 236 350 211 223 251 281 279 235 210 224 237 216 208 265 181 261 264 213 326 346 232 221 261 274 241 285 178 285 203 162 274 284 391 163 313 261 262 231 275 326 150 305 321 303 327 241 332 290 225 253 225 244 265 201 233 234 229 281 257 185 301 267 243 229 255 176 249 274 263 160 203 273 146 355 235 284 230 188 349 191 255 196 319 288 246 246 240 296 270 209 266 329 233 218 342 221 286 208 316 276 340 297 242 314 230 193 262 249 273 208 336 217 208 311 207 320 219 281 262 266 175 272 246 443 148 267 189 288 213 262 245 264 183 276 178 308 246 244 224 241 302 174 222 217 233 206 319 150 292 256 179 271 190 231 235 178 263 247 295 340 288 257 274 282 380 232 155 295 410 286 262 210 378 267 238 199 280 207 215 238 194 380 246 303 240 181 204 237 241 287 244 255 303 287 174 251 295 271 297 144 201 199 272 294 257 312 261 245 383 218 246 235 347 173 286 246 171 213 347 221 279 230 159 216 330 295 287 200 286 219 233 264 210 217 238 322 300 184 199 218 204 271 325 295 192 199 376 152 337 203 307 235 310 292 282 277 268 260 249 255 198 186 236 238 282 211 337 247 268 224 208 271 302 316 277 273 295 174 231 256 213 188 278 170 220 291 271 253 324 365 259 121 313 205 146 153 296 191 349 214 283 235 235 274 300 360 160 225 207 279 255 282 247 265 241 260 173 335 306 256 209 257 238 135 176 258 169 331 214 315 425 260 339 367 135 278 263 255 242 222 297 221 339 316 225 253 277 280 149 220 248 275 199 162 255 292 233 307 211 321 237 266 341 126 231 273 251 296 191 294 231 273 283 289 217 193 269 181 217 264 262 337 265 132 283 298 231 245 243 349 262 201 246 294 205 317 368 279 281 286 159 298 347 305 290 254 196 267 159 245 179 279 227 327 239 263 273 304 295 192 167 181 145 163 281 298 254 291 131 252 287 302 373 200 232 323 217 271 317 260 201 347 292 348 284 261 266 243 242 271 233 325 315 287 263 246 290 304 297 223 356 228 173 272 255 180 271 369 272 157 223 187 227 348 256 232 274 261 190 260 237 283 286 276 275 244 336 280 329 262 147 235 236 214 321 222 231 307 302 246 185 249 290 288 210 323 186 219 207 269 259 290 321 203 267 172 366 358 273 362 275 233 225 268 263 272 298 286 275 293 242 175 232 233 282 298 169 215 270 303 244 362 200 204 181 275 336 307 170 264 190 299 197 308 259 323 345 294 276 262 365 333 187 122 204 243 257 274 287 207 189 196 214 322 229 280 237 179 262 334 252 383 312 327 230 194 324 255 310 345 211 215 276 267 258 234 163 366 334 341 314 214 276 227 316 348 324 306 238 252 233 251 292 239 144 238 331 240 250 234 314 170 223 155 247 253 351 239 265 255 203 191 280 306 276 263 248 170 258 265 255 178 237 252 291 328 138 270 344 148 262 235 265 259 256 204 255 238 274 186 208 261 294 238 263 303 355 216 255 228 236 274 277 301 263 279 416 243 287 233 204 289 165 279 227 203 187 259 257 192 257 244 303 288 352 227 246 297 245 355 230 202 455 285 282 359 322 276 210 345 200 310 216 208 303 287 232 312 332 318 341 168 303 266 329 286 241 268 282 220 309 247 238 243 221 327 265 225 291 279 284 210 244 188 227 200 330 302 342 233 252 331 211 234 172 239 296 181 326 313 241 365 209 222 209 173 231 248 301 370 272 270 263 276 262 247 341 224 247 367 322 218 260 283 266 230 178 268 252 290 210 351 184 219 287 249 184 258 286 264 225 215 357 193 199 277 240 228 347 322 256 212 289 260 254 172 210 295 166 149 263 285 248 223 282 340 182 207 232 264 211 261 256 315 310 298 261 280 280 317 352 269 301 139 177 236 274 145 191 196 245 333 360 235 293 269 212 268 201 268 299 343 258 295 376 252 283 349 213 253 321 271 223 217 154 234 237 275 391 219 281 226 244 176 190 266 208 281 355 259 267 286 116 206 413 271 256 252 280 217 218 196 251 284 188 267 194 222 292 190 282 138 211 226 208 232 211 252 297 237 268 262 318 322 235 311 190 242 203 286 241 286 302 314 257 296 250 273 174 248 270 215 301 224 247 294 253 278 325 199 213 286 241 266 284 164 163 246 228 160 257 264 248 217 307 233 212 244 351 180 218 294 237 164 253 228 245 213 235 293 369 187 256 315 261 223 236 283 372 201 209 220 315 202 242 212 378 250 265 311 214 243 401 168 283 282 265 188 345 292 237 246 247 173 278 132 201 256 219 318 201 244 184 254 366 214 201 243 213 317 228 277 302 335 294 265 259 214 271 276 231 226 195 320 261 277 232 221 238 236 203 245 272 298 283 221 249 277 278 233 287 228 326 224 220 313 271 320 309 274 271 176 275 241 241 315 284 277 259 277 257 209 147 256 359 172 313 269 247 185 253 298 220 220 278 283 157 236 295 238 333 245 235 368 236 288 277 230 232 194 199 264 302 247 316 199 207 301 178 299 338 320 277 311 330 198 229 287 223 274 184 273 437 258 256 237 281 220 331 278 237 308 235 248 262 249 225 364 208 265 320 183 321 345 212 257 255 253 269 222 240 241 213 180 273 233 283 368 208 176 195 331 271 233 229 243 227 210 214 257 192 218 290 266 254 257 228 304 239 251 313 300 298 327 245 282 327 269 352 209 153 121 292 159 276 344 207 216 235 252 271 249 224 263 257 275 242 196 248 214 423 273 247 269 182 264 192 299 308 223 348 328 233 245 328 297 356 170 208 192 284 178 251 220 212 242 207 314 244 121 249 282 317 339 250 376 237 229 220 236 286 284 183 262 210 395 291 158 190 274 283 271 247 252 311 264 218 318 255 260 236 285 229 269 224 299 237 242 285 243 238 286 292 316 324 261 249 196 298 296 212 263 237 321 260 292 348 304 245 148 249 228 245 249 277 282 230 213 200 247 99 258 283 194 200 284 319 292 270 312 355 152 171 260 282 208 338 190 262 290 231 284 263 320 248 270 296 316 272 193 203 264 260 220 294 223 218 292 291 176 285 341 170 343 302 229 244 197 245 315 265 171 295 271 291 247 244 274 247 300 261 327 361 232 294 214 226 231 251 237 259 214 272 313 283 317 237 198 185 269 228 310 325 267 163 278 240 234 289 227 171 263 258 258 209 251 238 331 332 333 346 248 288 250 200 313 215 259 316 205 217 191 199 195 301 196 211 240 243 260 298 216 272 169 286 259 242 179 242 220 252 234 267 241 325 266 290 298 310 198 210 367 295 294 240 250 296 240 228 211 325 264 279 255 319 259 343 150 292 297 304 251 217 353 165 304 207 243 252 189 289 211 247 302 220 235 176 235 264 255 229 303 189 207 263 287 235 367 261 248 267 222 196 236 233 278 129 198 270 310 400 216 282 256 264 204 241 264 259 280 304 331 264 314 248 305 146 274 350 222 205 291 309 230 214 335 251 227 321 241 386 203 256 238 226 184 343 238 379 193 199 155 290 320 330 202 236 268 249 210 374 309 269 284 254 199 290 246 277 258 339 279 301 173 295 243 285 259 311 259 273 203 172 229 143 296 356 188 269 256 274 197 266 249 244 181 252 167 216 291 182 236 316 285 238 277 181 204 201 333 273 296 239 305 270 288 309 291 236 282 215 304 237 235 215 208 217 195 205 192 297 235 340 319 280 388 309 226 259 206 302 310 286 294 243 265 215 332 196 197 246 370 291 217 266 288 190 286 262 287 224 160 282 182 270 243 250 400 172 210 258 251 346 295 276 282 305 150 329 269 202 212 341 214 356 186 231 361 217 359 255 220 242 299 202 212 278 244 190 122 139 288 238 277 202 188 308 222 254 180 230 379 279 297 398 379 234 321 215 209 242 228 231 241 216 277 213 211 277 291 221 371 243 221 288 265 292 241 256 324 248 257 259 197 218 312 210 244 377 183 365 208 274 233 242 242 250 200 277 176 306 282 326 223 263 206 271 331 286 272 290 271 233 274 290 381 261 240 258 265 204 219 275 240 249 266 291 201 321 289 209 340 331 363 295 312 209 320 347 394 278 265 185 229 229 270 341 296 220 349 307 270 218 318 272 278 183 283 220 262 279 261 201 234 177 328 256 187 271 232 276 254 198 249 347 263 322 277 157 279 239 285 321 268 255 237 215 287 229 249 199 309 387 262 313 236 285 166 338 326 277 204 242 213 158 239 315 227 169 304 234 311 197 265 279 245 220 164 269 295 252 292 281 145 149 208 214 277 254 199 263 221 195 249 194 239 209 208 244 356 247 282 245 226 239 278 243 268 311 236 315 236 209 296 328 246 239 263 280 327 367 350 232 234 263 231 212 262 347 182 259 288 409 193 257 295 277 241 316 237 296 239 292 266 267 150 248 199 282 309 318 208 264 206 306 332 252 303 266 195 284 207 241 201 156 272 222 249 350 218 333 294 127 213 276 353 230 233 226 244 195 192 249 158 296 283 238 213 239 209 248 249 257 259 191 220 215 167 171 245 215 292 310 229 242 272 285 283 219 396 258 284 234 258 228 184 327 335 271 219 294 292 272 268 264 309 266 213 303 360 254 191 319 230 256 319 318 197 237 198 322 200 211 331 244 191 281 248 179 215 357 343 283 256 157 239 318 217 176 233 249 262 233 216 157 309 258 181 391 272 180 367 219 309 208 255 290 255 312 239 215 240 224 266 300 212 195 138 328 270 323 356 238 213 201 180 257 309 315 288 178 200 215 314 288 215 254 229 204 258 241 231 224 303 350 257 215 384 228 276 197 257 273 295 316 304 220 275 288 187 272 317 335 239 319 214 264 254 265 256 322 279 190 311 232 215 267 250 259 173 289 320 342 296 266 207 291 220 283 303 297 239 253 260 178 206 219 243 339 195 180 322 282 191 274 315 359 222 208 252 218 293 345 237 302 257 245 284 287 350 268 267 297 309 323 198 300 231 263 256 307 251 178 343 287 337 273 222 263 310 329 208 296 200 243 202 262 362 305 343 204 270 329 231 229 216 346 202 390 245 323 220 312 284 248 328 300 207 185 300 229 160 283 268 234 225 256 232 290 267 153 174 232 215 225 224 198 258 277 296 249 203 232 317 225 263 235 182 343 252 278 298 205 233 308 196 271 275 246 317 213 302 240 198 329 244 276 315 216 235 346 265 343 225 291 225 277 271 285 192 242 257 339 352 291 338 266 265 299 251 214 386 268 272 202 333 270 175 236 279 343 225 169 325 265 254 235 302 251 305 424 220 187 149 284 203 294 215 238 262 334 208 299 327 330 252 317 325 317 243 247 247 244 260 248 320 213 291 239 245 236 220 274 276 281 253 240 225 304 333 227 235 257 245 310 338 246 239 260 142 196 290 221 189 255 271 235 224 233 332 365 255 278 319 276 265 265 220 209 303 320 270 309 322 315 210 236 167 276 235 273 312 225 243 333 322 276 179 242 304 275 350 323 249 180 335 275 189 188 202 274 297 176 211 141 192 354 194 244 282 170 237 282 198 227 196 261 247 226 247 262 236 264 316 234 217 211 246 280 267 222 255 270 252 317 141 205 201 329 338 224 280 251 239 223 207 286 245 278 224 195 247 226 274 217 231 289 225 308 174 321 247 200 219 273 225 168 189 211 218 248 238 172 300 241 191 391 274 244 271 371 384 238 291 254 273 256 284 292 175 285 270 208 279 235 211 220 316 226 247 263 334 252 287 283 293 214 267 305 202 307 194 320 297 232 302 181 232 207 266 234 216 205 209 299 256 194 194 190 239 178 338 213 313 207 329 242 268 351 131 252 246 228 359 267 211 320 220 301 216 303 258 258 278 178 320 319 281 195 292 226 339 292 252 301 214 212 312 263 259 132 270 407 348 256 270 228 244 327 281 189 275 337 349 210 294 268 289 227 341 229 194 235 247 254 270 267 289 198 198 247 233 247 248 350 172 240 302 234 395 192 219 218 202 321 254 233 289 271 266 366 333 302 173 197 197 343 276 265 268 237 305 229 253 212 294 369 321 263 234 351 241 193 284 219 279 249 264 159 268 159 179 276 179 224 135 313 292 225 256 221 241 160 209 264 272 360 207 301 210 222 231 154 272 214 271 142 253 251 182 291 316 307 324 252 378 324 321 254 249 343 261 341 217 288 150 229 229 237 236 299 216 277 323 193 270 291 342 342 227 253 295 244 260 226 231 227 279 346 294 232 228 215 282 306 302 208 262 331 319 382 341 203 269 282 258 286 209 229 246 316 236 215 342 294 268 306 369 246 192 173 372 286 299 146 234 274 327 228 238 277 322 262 347 200 243 316 258 309 173 314 341 213 204 333 235 127 198 306 323 239 240 249 271 284 295 301 340 279 342 173 270 267 340 243 155 312 343 241 215 256 301 263 362 282 181 215 121 269 178 310 199 209 287 252 322 261 307 280 171 293 245 268 188 249 261 238 240 263 304 232 221 297 318 307 287 155 266 341 164 205 233 185 189 265 152 205 247 305 314 403 201 189 322 195 216 297 292 275 232 179 211 217 236 245 207 266 296 236 293 379 219 319 210 278 300 200 261 217 218 327 299 331 301 282 253 254 202 353 250 378 265 273 326 362 177 309 238 299 228 266 188 196 206 230 279 183 247 321 326 230 279 242 156 290 167 196 258 337 213 305 231 251 230 279 281 267 362 255 211 306 244 219 223 212 184 201 248 284 199 212 293 188 344 279 221 239 267 249 216 255 169 221 249 280 288 283 262 281 281 234 237 253 207 262 253 251 321 251 231 285 266 272 261 207 285 222 330 263 185 212 311 301 237 239 268 255 263 237 284 276 283 307 278 168 265 270 297 252 274 258 193 300 217 222 278 231 307 291 222 198 186 250 292 235 222 238 268 169 201 308 254 208 252 266 303 249 238 244 348 291 258 209 181 324 384 226 212 227 301 244 253 223 239 308 289 117 326 239 257 240 289 143 219 168 390 321 231 304 291 177 268 202 211 310 227 209 282 270 278 238 205 264 279 310 198 327 299 158 224 298 170 260 300 302 306 306 230 307 159 245 202 247 336 266 196 244 332 318 220 219 197 175 266 265 266 242 311 283 172 257 326 242 297 276 274 247 273 235 239 223 292 222 316 201 331 349 214 277 381 194 273 235 319 352 258 205 257 203 262 291 211 237 262 281 289 258 270 330 237 294 269 314 210 312 286 215 265 283 308 231 353 274 252 284 308 260 231 234 352 252 315 185 359 305 228 205 290 326 229 224 253 179 278 281 252 305 256 334 245 295 193 217 220 186 312 237 204 226 150 226 244 355 202 185 267 139 223 202 210 259 337 207 236 270 208 287 179 225 255 235 318 259 238 180 117 271 239 255 314 169 201 222 206 266 329 285 268 174 207 271 321 351 258 241 311 208 239 308 147 198 240 228 246 172 172 212 284 145 219 267 263 248 309 235 334 181 279 270 192 233 221 177 272 173 231 289 202 260 252 203 223 170 313 235 212 277 325 242 249 255 215 197 246 279 280 249 234 215 371 189 266 262 245 238 299 197 272 175 269 335 267 264 234 195 198 224 238 262 212 204 277 201 335 314 246 309 284 269 288 262 222 210 359 265 199 180 240 228 268 369 240 306 345 239 317 353 246 262 394 234 237 314 310 245 267 132 219 221 193 268 329 234 247 360 246 311 258 338 327 243 338 189 293 318 378 274 211 203 247 282 313 204 234 215 248 245 210 299 242 251 249 308 194 334 187 235 285 298 304 229 312 146 343 314 281 384 288 178 276 290 250 219 317 323 223 231 250 170 253 230 265 244 303 208 221 316 230 125 318 368 236 277 266 280 309 195 233 172 279 165 329 285 246 159 165 240 227 287 202 279 287 328 312 232 343 286 213 243 287 300 282 217 330 205 341 285 275 209 318 278 286 109 304 271 246 282 178 269 246 207 164 212 187 248 250 280 328 283 213 209 289 204 255 394 117 269 203 211 276 265 293 258 229 240 207 279 229 306 268 228 255 402 203 241 199 214 174 250 235 198 247 399 307 338 361 302 334 241 274 263 175 281 273 240 340 266 296 227 246 245 283 261 273 337 201 236 304 247 199 240 323 145 238 225 276 294 192 228 313 397 202 293 208 317 277 279 297 205 389 269 265 196 234 290 317 100 302 292 190 237 214 184 315 296 307 262 184 255 331 218 284 265 247 246 197 231 197 192 238 200 240 227 297 269 257 259 268 247 206 230 216 216 312 219 232 232 219 263 328 318 306 227 257 252 325 296 254 291 193 286 218 177 167 146 199 273 286 240 180 216 296 151 227 276 284 203 332 288 275 224 206 281 244 268 268 324 221 235 274 248 364 258 290 261 217 244 242 237 323 215 263 239 292 263 279 239 278 275 178 135 267 225 240 184 348 326 338 250 277 208 266 280 199 299 249 296 224 323 246 283 203 322 323 258 284 400 345 266 308 308 230 233 250 155 200 278 200 231 225 310 316 284 295 277 230 235 304 226 197 338 238 251 260 274 279 229 261 171 223 201 196 301 140 212 256 333 280 187 251 276 265 265 219 228 175 158 171 239 189 281 243 287 343 286 260 228 198 260 299 269 219 310 270 252 225 240 248 193 307 289 258 268 236 222 231 277 248 298 280 239 359 222 296 388 267 264 314 314 306 287 221 266 240 297 245 287 291 201 248 238 322 281 182 213 245 258 327 258 179 149 310 239 225 261 241 223 189 287 332 203 151 379 333 283 311 226 284 168 132 211 138 305 217 337 388 307 290 189 375 268 271 316 233 245 256 264 277 214 271 269 226 265 289 225 277 330 209 243 252 260 334 167 195 216 305 285 286 256 169 192 283 317 301 263 249 290 393 320 237 228 295 209 275 238 376 260 228 256 264 306 200 252 278 249 251 331 196 235 265 250 213 378 253 234 256 242 193 213 250 336 222 262 263 180 212 224 264 260 275 189 296 233 233 305 130 269 351 285 306 290 338 311 326 229 262 295 197 303 260 252 175 280 199 164 269 307 227 267 346 266 346 224 239 263 310 272 317 246 212 366 219 278 317 367 214 325 238 340 220 168 221 266 180 245 285 358 274 301 264 262 349 258 348 320 257 179 168 230 324 265 212 302 224 208 258 225 341 265 221 183 234 320 309 155 224 221 202 337 286 219 294 305 209 342 246 164 261 205 202 311 240 252 228 198 182 251 247 228 283 291 233 253 303 281 211 229 230 224 216 320 306 148 285 272 330 247 290 313 260 237 206 270 269 272 241 158 279 256 250 361 246 186 289 240 266 254 237 317 202 299 267 182 246 302 266 204 189 260 215 207 280 388 283 263 182 177 304 302 260 295 232 176 278 335 262 216 307 279 199 263 277 219 207 267 320 270 190 220 184 313 303 308 193 263 187 171 292 300 236 185 217 252 251 241 207 263 191 298 272 192 253 230 204 226 355 193 182 377 309 189 341 224 342 256 208 240 204 266 164 285 192 222 263 280 340 281 232 395 229 197 215 290 227 309 212 252 257 259 228 269 172 233 224 203 236 271 141 247 225 260 149 165 253 246 324 201 271 282 281 238 161 313 237 220 174 277 312 229 284 236 258 311 258 339 248 217 304 239 293 192 220 262 241 329 295 299 209 267 200 295 186 239 254 281 188 310 307 330 235 212 273 250 314 259 287 308 297 257 211 277 222 324 241 253 253 171 281 263 304 285 230 293 286 271 300 289 354 304 225 169 245 257 264 238 294 305 232 240 236 247 240 290 273 316 203 281 210 233 220 233 254 207 203 220 222 233 259 227 222 269 299 253 224 194 246 226 247 272 306 376 243 231 205 245 242 276 221 287 290 300 311 271 269 304 314 228 281 257 190 329 260 267 232 276 235 254 212 166 224 331 234 223 227 161 258 269 341 181 293 325 271 330 303 273 221 366 291 301 282 275 313 342 276 283 192 219 224 228 337 262 283 204 184 199 322 229 139 189 268 253 291 260 243 294 284 297 250 235 261 182 230 269 260 238 262 272 238 193 310 229 233 271 346 250 161 215 200 265 297 260 300 288 225 283 249 236 235 230 289 284 230 301 374 260 234 175 267 249 298 300 301 194 316 161 385 314 207 321 255 278 205 280 335 281 170 328 227 309 190 283 309 267 218 243 246 245 240 312 286 322 234 339 254 265 272 250 244 326 211 245 322 242 160 301 328 152 315 332 241 276 154 318 256 206 263 252 299 285 261 298 269 242 323 204 249 284 286 214 313 280 181 201 197 210 312 227 243 173 342 250 157 262 209 217 252 215 311 194 271 232 249 241 289 171 260 371 218 381 285 218 209 204 220 231 135 260 234 278 310 241 282 159 238 207 210 401 242 213 297 339 199 287 168 282 305 279 297 245 267 336 253 364 319 219 268 174 227 263 290 330 176 247 260 173 280 265 267 186 370 235 285 233 252 285 304 272 323 203 346 272 222 240 290 284 208 143 218 255 278 286 239 271 231 275 230 233 228 238 186 292 241 156 314 316 247 193 236 267 246 264 245 279 185 269 200 222 235 307 210 185 279 247 257 150 254 229 279 222 223 272 309 223 291 328 334 327 242 315 258 265 249 262 262 255 231 331 294 250 220 292 293 242 245 302 241 313 303 235 243 266 289 245 271 207 310 191 301 156 315 257 187 322 244 280 314 337 308 248 277 220 238 326 347 217 282 223 236 370 239 202 192 203 235 229 284 245 233 185 297 265 302 282 218 359 152 220 263 267 236 327 254 271 201 395 260 245 317 241 322 206 317 276 205 338 260 302 289 265 213 200 143 286 252 312 218 252 289 240 265 265 197 267 227 179 274 277 316 329 356 251 320 191 300 202 252 231 293 210 200 338 224 244 225 310 251 210 222 223 146 259 196 247 289 208 201 252 283 309 226 302 285 341 293 264 258 296 278 278 236 244 310 309 161 216 287 221 302 249 329 247 331 313 204 304 289 198 253 257 272 341 273 233 332 290 262 238 258 275 275 158 311 258 262 237 292 332 264 290 305 203 312 279 200 277 242 273 277 272 270 278 327 305 283 344 278 156 142 248 315 268 215 214 288 229 216 192 293 210 239 288 316 295 265 286 367 195 269 209 413 224 304 244 232 222 203 180 228 291 227 311 307 329 279 297 187 257 195 296 353 247 281 174 248 201 185 310 284 155 266 254 215 219 248 184 243 349 258 242 340 245 370 228 205 124 262 271 217 149 305 253 233 181 288 223 252 175 367 204 313 380 261 233 239 323 245 231 290 174 256 263 257 277 216 177 278 247 320 127 315 325 316 347 274 216 250 202 153 352 171 234 269 196 195 299 279 260 255 201 268 260 316 262 240 353 311 227 208 257 334 228 155 281 298 307 276 281 250 264 168 277 279 232 270 220 324 285 175 266 139 278 338 242 278 260 153 249 238 170 352 201 236 381 254 157 238 290 271 346 257 258 251 307 253 350 285 196 218 390 294 229 175 238 238 248 247 282 300 199 218 302 286 204 161 244 277 261 248 175 234 285 234 338 277 269 311 222 259 305 109 260 346 281 272 277 316 237 250 270 224 234 216 360 256 217 270 176 299 235 227 277 338 205 255 182 310 320 292 339 223 342 345 133 300 299 269 269 225 219 277 200 251 201 260 296 302 242 249 285 238 210 125 285 269 280 252 263 181 324 349 271 267 265 241 182 308 202 304 329 156 266 195 269 306 220 265 312 109 298 260 171 274 362 284 382 321 273 254 258 288 294 219 238 270 302 283 194 290 264 244 277 293 223 175 234 197 320 192 337 252 274 192 312 233 251 283 233 179 309 321 288 336 169 275 174 341 198 140 288 348 224 284 342 241 283 242 253 349 262 335 344 253 145 358 178 214 323 228 253 257 289 225 266 299 197 210 278 252 195 267 289 253 267 275 280 257 295 166 278 240 334 262 284 222 259 333 267 277 152 166 320 274 286 276 293 350 236 238 213 232 296 233 307 324 246 170 141 228 262 251 260 324 177 186 277 171 251 267 256 252 214 227 219 241 193 216 240 294 289 257 271 289 272 272 222 325 334 196 247 190 293 264 375 361 178 193 281 180 226 236 408 193 236 323 211 235 240 256 337 230 234 230 180 340 214 299 235 188 313 229 304 310 284 187 247 359 254 251 306 249 215 281 321 184 217 221 224 272 331 260 165 257 324 187 206 209 331 230 237 245 258 248 275 191 285 185 205 219 294 303 271 341 173 315 314 350 265 243 335 191 262 221 263 278 307 360 285 329 267 268 261 245 229 243 314 290 217 241 321 264 226 221 349 270 277 351 262 291 202 232 328 290 307 317 244 317 303 246 306 230 263 301 339 283 257 324 242 243 308 269 225 282 284 221 219 266 191 409 249 274 272 269 267 304 213 318 279 209 223 183 261 315 253 278 301 312 297 203 192 164 209 206 274 316 279 264 322 239 214 230 237 147 268 225 302 340 295 153 171 195 332 368 182 273 250 252 142 295 128 250 214 271 215 213 328 288 207 283 225 274 284 273 297 342 186 246 246 267 233 298 189 241 350 274 274 301 310 222 273 206 271 260 226 243 201 271 313 223 274 278 312 263 228 210 353 173 233 257 268 280 267 221 278 272 209 215 263 258 292 243 277 197 280 266 195 243 232 307 245 313 266 246 245 212 178 283 200 236 338 251 258 290 202 252 215 201 243 189 219 292 236 274 261 234 187 249 245 317 200 292 215 399 216 185 355 234 319 302 228 275 214 307 260 126 308 220 243 301 282 280 344 236 301 222 290 344 231 253 295 339 243 299 329 251 223 248 210 260 349 307 268 228 245 225 222 250 280 233 122 237 220 213 349 264 295 290 247 200 261 271 224 276 267 254 309 213 217 272 270 263 281 237 365 267 227 279 202 223 282 242 225 260 231 289 267 251 255 224 291 309 307 237 249 358 319 278 285 321 193 306 355 305 231 206 162 262 300 174 378 271 262 277 297 253 265 233 176 251 127 251 318 344 268 304 230 264 240 178 199 259 241 209 242 274 265 191 275 366 269 212 244 319 220 327 217 209 236 256 251 194 214 337 278 369 287 293 362 248 210 400 334 225 265 206 245 303 256 363 293 267 197 253 206 325 268 254 334 242 222 143 266 157 236 266 279 190 199 269 276 262 291 224 251 245 306 183 306 198 262 272 217 306 210 268 384 295 413 232 326 179 299 373 196 246 321 320 241 193 181 252 204 234 315 224 243 304 201 350 214 187 165 267 317 238 235 278 269 246 243 199 151 229 242 193 264 319 300 187 256 218 297 210 271 207 299 227 256 296 247 344 175 147 270 201 213 208 185 198 337 256 250 326 279 241 334 311 215 225 265 297 182 310 257 213 236 201 330 265 150 254 273 314 386 324 203 275 247 232 269 249 219 239 199 356 220 186 274 334 180 368 247 302 214 286 256 239 283 255 270 223 209 259 273 283 270 272 308 305 270 180 236 297 308 237 240 343 237 157 303 233 272 243 229 335 266 277 213 231 288 259 199 341 235 221 253 171 266 179 251 238 207 216 286 206 226 247 180 207 248 233 248 339 242 189 227 360 296 266 276 148 314 156 267 269 290 318 288 286 223 283 279 269 247 287 255 299 231 284 220 245 187 199 246 347 180 203 238 203 305 229 360 204 214 253 340 235 246 221 292 157 251 181 288 192 267 299 240 226 295 241 272 215 208 250 168 209 292 226 233 250 279 297 364 333 189 223 232 215 197 340 319 327 209 284 295 187 299 253 226 147 225 325 237 249 209 230 223 245 241 253 278 308 246 183 310 245 291 207 134 253 234 234 219 203 221 331 246 381 250 310 239 285 304 229 233</t>
+  </si>
+  <si>
+    <t>MIE(0.6102473226188646, 2.262404297389106, -4.293244236720491e-31, 2.0882440329457466)</t>
+  </si>
+  <si>
+    <t>2 2 1 1 3 1 2 2 1 1 2 1 4 1 1 1 1 0 1 2 0 3 0 0 1 3 1 3 3 0 2 1 4 0 3 1 1 3 1 2 2 3 2 0 1 2 2 2 1 2 1 1 1 1 1 2 0 1 2 2 3 1 1 3 2 0 2 0 0 1 1 1 1 2 1 0 0 2 1 3 1 3 4 1 4 1 1 1 0 3 3 2 1 3 3 2 2 1 1 0 3 2 1 1 2 0 1 1 3 1 1 2 2 1 1 1 2 0 3 1 1 2 2 2 2 2 1 2 2 1 2 0 1 0 2 2 1 3 1 2 1 1 1 1 1 0 0 1 1 1 1 2 2 0 3 2 0 0 1 2 2 1 0 1 3 2 0 2 1 2 1 1 2 0 2 1 2 0 2 2 0 1 1 1 2 2 1 1 1 1 2 0 2 2 1 2 1 2 0 3 2 1 2 1 1 3 1 1 2 1 1 2 1 1 1 0 3 1 0 1 0 1 0 2 0 2 4 2 0 1 1 1 2 1 0 2 3 0 0 1 1 1 2 4 1 2 2 3 2 0 3 1 0 0 1 2 2 1 2 2 0 1 3 4 1 1 1 1 0 2 2 3 1 2 3 2 1 1 2 1 3 2 2 1 1 2 1 3 3 2 2 1 0 0 3 0 3 2 2 0 2 3 1 1 1 1 3 2 1 1 3 2 0 0 3 3 1 2 1 2 2 3 1 4 3 1 3 1 2 3 2 3 3 0 0 4 2 0 0 1 4 0 1 2 3 3 2 1 3 0 2 2 1 1 3 2 2 1 0 1 2 0 0 1 2 2 0 1 0 2 3 0 1 0 2 2 1 1 1 2 1 4 0 3 1 2 1 1 1 0 2 1 4 2 1 0 2 0 2 2 3 2 2 2 2 1 1 2 1 0 3 2 2 2 2 3 0 2 1 2 2 2 1 3 1 4 2 2 1 3 2 1 2 1 4 2 3 3 2 2 2 3 2 4 1 2 1 1 2 1 2 1 0 1 2 2 1 1 4 1 1 1 1 1 2 1 1 2 0 1 2 2 1 3 1 1 1 1 0 3 2 1 1 2 3 0 1 1 4 3 1 1 1 0 0 1 1 1 2 1 1 1 2 0 0 0 0 0 2 2 3 1 2 2 3 1 1 1 1 1 2 1 1 2 1 1 0 0 2 2 2 2 2 1 3 1 3 2 2 1 0 3 0 0 1 3 1 1 4 1 1 2 1 4 3 1 1 2 3 2 3 2 1 2 2 1 2 2 0 2 1 1 1 1 1 3 3 1 3 1 0 1 1 1 2 2 1 2 3 1 1 1 2 1 2 1 2 1 2 3 1 3 2 2 2 2 3 2 2 3 0 3 2 2 3 2 2 2 1 0 1 2 3 1 3 0 0 1 1 1 1 1 2 1 3 1 2 1 1 2 2 1 2 1 2 2 2 4 3 2 4 1 0 0 1 4 1 1 1 1 3 1 1 0 1 1 2 1 0 3 0 2 3 2 0 1 1 0 1 2 1 2 1 4 1 2 1 2 1 2 0 2 1 1 1 1 2 1 0 2 1 2 2 2 2 1 2 1 1 2 3 1 3 0 2 4 1 2 1 1 0 2 2 2 1 3 1 1 4 2 0 2 3 1 0 3 2 0 2 2 1 1 0 2 1 0 1 5 1 1 2 1 4 1 0 3 0 4 2 2 2 2 1 3 0 0 2 0 2 1 2 0 3 1 2 0 1 1 2 2 0 0 1 1 1 1 3 2 2 2 0 1 0 3 0 3 2 1 0 3 1 2 0 3 2 0 2 3 2 1 0 0 2 3 3 1 2 0 0 1 1 1 1 1 1 1 1 2 2 1 5 2 2 2 4 1 3 1 2 0 1 2 0 1 0 2 3 1 1 1 1 0 1 1 2 1 1 1 1 2 1 2 4 1 3 3 0 0 1 4 1 1 0 4 1 0 1 1 1 1 2 4 1 3 3 3 1 2 3 2 2 1 1 0 1 1 1 2 1 3 1 1 1 3 1 1 2 3 1 2 2 1 2 1 2 2 2 0 1 5 2 2 2 2 2 0 2 0 1 4 2 1 2 1 1 2 1 2 1 3 2 4 1 2 2 2 0 2 3 2 0 2 2 1 1 3 1 0 1 1 0 1 2 1 0 2 1 1 2 2 1 1 2 1 2 3 1 0 3 2 0 2 1 4 2 1 1 2 2 2 2 1 0 2 2 1 1 0 1 2 3 1 2 2 2 1 1 2 3 0 3 0 1 1 1 0 4 0 1 1 3 2 2 0 1 2 1 1 0 2 2 0 1 4 2 0 0 1 0 0 0 1 2 2 1 2 0 2 0 1 2 1 1 0 3 1 1 2 1 1 1 2 1 4 1 2 1 0 1 0 3 3 2 1 2 1 3 2 1 1 2 1 0 2 1 2 2 3 3 4 0 3 1 1 2 1 2 2 1 0 0 1 0 0 2 1 2 1 2 0 1 3 1 1 1 1 1 3 2 1 0 0 1 1 0 2 1 0 2 3 2 1 2 0 0 1 2 2 2 0 0 2 0 1 0 4 2 0 3 1 3 3 2 1 1 1 3 2 3 1 1 3 1 1 2 2 1 2 1 1 2 1 1 3 2 1 1 2 1 2 0 4 0 0 2 0 0 2 4 1 1 2 2 1 2 1 2 2 1 0 2 1 2 4 1 1 3 2 1 4 3 0 1 1 2 1 0 3 2 3 3 1 2 2 2 1 2 1 2 2 1 0 0 0 0 1 1 2 3 0 2 2 1 2 1 1 1 2 3 0 2 2 1 1 3 2 0 1 1 1 1 1 2 2 1 2 0 0 0 1 0 2 1 2 1 2 3 1 0 0 1 2 2 0 2 1 1 2 1 2 2 2 2 2 0 3 2 1 1 1 1 2 1 1 1 2 3 1 2 1 2 3 1 1 2 1 2 0 1 1 0 3 1 3 0 2 0 3 0 2 4 1 1 1 1 3 1 4 0 1 1 1 1 2 0 0 0 1 2 2 1 4 2 3 1 3 0 0 2 1 0 2 1 1 0 1 5 0 2 2 3 2 0 1 1 4 3 1 2 2 0 1 2 1 0 1 3 1 4 0 2 1 0 2 2 3 1 1 2 3 0 1 2 2 1 3 2 1 2 1 1 2 4 1 0 0 1 2 3 1 2 0 1 1 0 0 2 3 2 1 2 2 2 2 2 3 1 1 1 1 3 1 0 2 2 2 2 3 1 2 0 3 1 1 1 3 1 1 3 2 1 2 0 3 1 0 1 3 0 2 3 1 0 4 0 1 3 1 1 1 1 1 1 1 1 1 1 3 2 3 3 2 2 3 1 2 1 0 2 1 2 2 3 0 0 1 2 2 2 1 1 1 0 2 2 2 2 1 4 0 1 2 1 2 3 1 1 2 2 0 1 1 3 1 2 0 1 3 0 1 2 2 1 2 0 1 3 2 2 3 3 1 1 2 1 1 0 2 2 2 0 4 0 2 2 1 1 2 2 1 1 2 0 3 1 2 3 0 0 1 2 1 1 3 3 2 1 2 3 1 3 0 2 0 2 1 1 0 1 1 1 3 1 3 0 0 1 3 3 0 2 1 0 1 2 2 3 1 2 1 3 2 3 1 0 1 3 2 1 2 0 2 1 0 1 3 1 1 1 1 2 2 4 1 2 1 1 2 1 0 3 1 1 3 0 3 1 1 2 0 2 1 1 2 3 2 1 2 2 2 1 1 0 0 1 1 4 2 1 1 3 1 3 4 2 1 1 2 1 2 1 0 0 1 0 0 1 2 1 2 0 2 2 2 0 0 0 1 3 3 1 1 1 0 3 1 2 3 0 5 3 3 3 2 3 1 0 2 3 1 0 2 2 4 1 1 1 2 2 2 0 0 4 1 1 1 0 0 0 1 1 3 1 1 1 1 1 1 0 0 1 1 1 0 2 2 2 1 3 3 1 2 1 0 0 3 0 0 2 1 1 0 1 4 1 0 1 2 1 0 2 0 1 0 1 2 2 0 0 0 2 2 0 0 1 2 2 1 3 1 1 0 3 1 3 2 0 2 2 1 1 2 1 4 1 2 2 2 1 2 0 0 1 3 0 3 3 4 0 1 2 2 1 1 0 0 2 1 1 4 1 3 1 2 1 0 3 2 0 2 1 3 1 0 0 4 2 1 1 3 2 3 2 3 2 1 2 0 2 3 1 2 1 1 1 3 2 0 0 1 2 0 2 2 3 2 2 0 1 1 1 0 0 0 2 1 2 1 2 0 1 2 0 0 2 1 3 1 1 1 3 2 2 1 4 1 1 2 2 2 1 2 2 1 2 1 1 1 2 2 1 0 3 3 2 2 1 3 2 1 0 3 2 1 1 1 3 1 0 1 1 0 0 2 2 2 0 3 2 2 1 2 2 1 1 1 1 2 0 2 3 1 1 0 0 0 1 3 2 0 1 1 2 2 2 0 2 2 0 3 1 2 0 0 1 1 0 3 1 1 2 2 0 1 1 0 3 2 2 3 1 2 1 1 0 2 1 0 1 2 2 3 2 1 1 0 1 3 0 2 2 1 1 4 2 2 2 1 2 1 2 3 1 1 2 2 2 3 4 1 1 2 2 1 2 2 1 1 2 4 0 0 1 1 1 0 2 2 3 2 2 2 1 1 1 0 2 2 2 0 1 1 2 3 1 1 1 2 1 2 2 2 3 1 1 3 0 1 1 2 2 3 1 1 1 2 0 2 0 0 2 1 1 0 1 1 3 0 4 2 1 2 3 0 2 2 2 2 2 1 1 2 1 3 2 2 2 0 2 1 1 1 2 1 1 3 2 1 0 0 2 0 1 2 2 1 0 0 3 1 2 3 2 0 1 1 1 1 2 1 1 3 0 0 1 1 2 2 1 0 1 2 1 3 0 3 2 2 1 0 1 0 1 1 2 1 0 1 4 0 0 2 0 3 3 0 3 2 1 1 1 1 2 2 2 0 1 2 3 3 0 2 1 1 1 3 4 2 3 1 4 2 1 1 0 2 2 1 2 1 2 2 0 0 1 1 1 2 2 2 1 1 3 2 3 1 2 3 0 0 1 0 1 3 2 1 2 1 1 3 2 2 1 2 2 0 4 2 1 2 0 0 1 0 4 0 1 1 0 3 1 1 1 1 2 1 1 0 2 2 1 2 0 0 1 0 1 0 2 1 3 3 0 1 0 3 1 0 1 1 1 1 1 2 3 1 1 2 3 2 2 2 2 0 3 0 3 1 1 1 1 0 3 1 1 1 1 1 2 0 1 1 0 1 1 1 1 1 0 1 4 2 2 3 1 1 1 2 2 3 1 2 1 2 2 3 2 3 1 3 2 2 0 1 0 2 2 1 1 2 2 2 0 1 1 2 0 1 3 2 3 1 2 1 1 2 0 2 0 1 2 1 1 2 2 0 1 3 3 3 2 2 0 2 2 2 0 1 2 2 1 2 0 0 1 1 0 3 0 3 2 0 1 2 1 2 2 3 2 2 1 2 2 0 2 3 2 1 0 3 1 0 1 0 0 3 0 3 2 1 1 2 1 1 0 1 3 1 2 0 0 0 2 1 0 1 0 2 2 0 2 1 2 3 2 2 1 2 2 2 4 4 2 1 4 0 0 1 0 1 3 1 0 3 2 1 0 2 0 2 0 2 2 0 1 4 1 1 0 0 0 1 1 2 1 2 2 1 1 2 2 4 2 1 2 2 2 1 0 2 1 0 2 0 0 2 4 1 2 2 1 2 2 1 2 1 1 1 3 1 2 1 1 1 1 2 3 1 0 1 0 2 1 0 2 3 0 0 1 1 0 2 2 3 2 1 1 1 2 3 0 1 2 1 2 2 1 1 0 3 0 2 1 2 1 4 2 1 2 1 1 0 1 1 1 2 2 0 0 0 1 1 1 1 2 1 2 1 1 3 2 3 2 0 2 1 1 2 2 0 1 2 2 1 1 3 1 3 4 2 3 0 0 1 0 2 1 1 0 2 0 3 1 1 5 0 1 0 1 0 1 1 2 2 4 1 1 0 0 1 2 2 2 2 0 0 1 0 0 0 1 1 3 3 1 1 1 1 1 2 2 3 2 2 2 2 1 1 1 1 1 1 3 2 1 0 1 1 0 1 2 0 2 2 5 0 2 0 2 1 1 2 2 2 1 2 1 2 1 3 3 2 0 0 1 1 1 4 1 1 4 1 3 2 2 0 2 2 2 1 1 1 4 4 0 1 2 2 3 0 1 1 3 3 1 2 3 1 2 2 2 0 1 1 0 0 2 1 2 0 2 0 2 2 2 1 4 2 1 2 1 1 2 1 2 0 3 1 1 2 2 1 1 0 1 2 1 2 2 2 0 2 1 0 0 1 0 2 3 3 3 3 2 2 1 1 2 1 1 1 1 0 3 2 1 3 1 0 2 1 2 2 2 2 1 1 3 3 1 3 1 1 2 2 2 1 0 1 0 1 1 1 0 2 1 1 1 0 0 1 2 1 0 1 2 1 2 2 3 2 4 2 0 0 2 0 1 0 0 1 1 1 2 2 0 3 2 1 1 3 1 1 2 2 3 3 1 1 3 2 1 1 0 1 2 2 3 1 1 1 2 0 2 2 1 1 2 0 2 4 1 3 3 1 2 2 0 0 0 1 2 1 1 2 0 3 1 0 2 0 1 2 2 1 0 2 2 1 1 0 2 3 1 3 2 1 2 2 1 0 0 2 1 3 0 0 1 1 2 3 2 2 2 3 2 1 1 0 2 1 2 1 2 0 2 2 1 1 1 2 1 2 0 2 1 1 3 0 1 2 1 2 2 0 2 1 1 2 4 0 1 2 2 0 2 1 3 2 0 3 1 0 1 2 4 2 1 1 0 1 0 0 1 3 0 1 2 2 1 1 1 1 2 0 2 2 2 3 2 0 1 1 2 2 2 1 2 2 0 0 2 2 2 1 1 3 2 2 1 0 2 1 0 2 2 1 1 1 3 1 1 2 1 2 4 1 0 0 0 1 2 0 1 1 2 3 0 3 1 2 3 1 1 2 4 1 0 0 1 0 1 3 3 2 1 1 2 1 3 0 2 1 3 2 1 0 1 1 3 2 2 2 2 2 2 1 1 1 0 2 1 1 1 1 1 2 1 3 2 3 1 2 2 2 0 1 2 1 2 1 3 2 2 1 2 1 2 1 2 3 1 2 3 2 2 3 0 2 1 1 1 3 2 2 3 1 2 2 1 2 1 0 0 0 3 0 1 1 0 2 1 1 2 1 2 1 0 2 2 1 2 1 1 3 1 3 1 1 2 0 1 3 2 0 2 2 1 0 1 0 2 1 0 3 2 2 1 2 1 1 2 0 1 0 3 1 1 1 2 1 1 3 0 1 1 1 2 1 1 0 2 1 0 2 3 1 2 0 3 1 1 2 2 2 1 3 2 1 3 1 1 3 2 2 0 2 1 2 2 1 0 1 2 3 3 1 1 1 2 2 1 2 3 2 2 4 2 4 2 0 0 2 3 1 1 4 1 2 1 1 3 1 1 3 2 0 2 3 0 2 1 1 2 2 0 2 1 0 1 0 1 4 3 2 1 2 1 1 1 1 1 1 0 2 4 3 1 2 3 1 1 2 1 0 1 1 3 2 1 1 2 1 2 2 3 1 0 1 1 4 4 2 2 0 2 2 4 0 1 0 1 3 2 2 1 1 1 2 0 0 3 2 0 1 0 3 0 2 2 3 3 3 3 0 2 2 1 1 1 1 0 2 1 3 1 1 0 1 2 2 2 3 2 1 2 1 0 1 0 3 3 2 0 0 1 3 3 2 1 1 3 1 0 2 0 2 2 1 1 0 1 3 1 0 1 2 2 1 1 2 0 1 2 2 2 0 2 1 0 1 2 1 2 1 0 2 2 1 1 3 1 1 1 2 1 1 1 1 2 3 2 0 3 2 4 0 0 1 1 1 1 3 1 3 2 2 2 2 3 1 2 2 3 3 1 1 1 2 1 1 2 1 2 2 0 2 1 1 2 1 2 2 0 1 0 1 3 1 2 1 1 2 1 2 2 1 1 1 2 2 2 2 0 1 1 3 3 1 0 2 1 1 2 1 2 1 2 3 1 1 2 1 2 1 3 2 5 1 0 1 4 2 1 3 3 1 3 0 3 0 1 2 3 1 3 1 1 2 4 2 3 1 2 3 2 2 1 3 0 0 1 2 0 2 2 2 3 4 3 1 1 1 0 1 1 1 1 2 2 1 2 1 2 2 0 0 1 3 0 1 1 1 2 3 3 2 2 2 0 1 3 1 3 0 1 1 2 2 2 2 2 2 2 2 1 0 1 0 2 2 0 2 2 2 2 3 1 2 1 2 1 1 1 1 1 2 1 1 0 1 2 1 2 2 2 1 1 2 2 2 3 0 1 3 1 0 1 1 4 1 2 2 3 0 3 2 1 3 2 1 1 3 1 1 1 3 0 0 1 1 1 3 1 0 2 0 2 0 1 5 1 3 3 1 1 2 1 1 2 2 2 1 1 1 1 1 1 1 1 4 0 1 1 2 0 0 1 1 0 0 1 0 2 3 1 2 2 0 4 1 2 2 2 2 3 1 1 1 2 0 2 1 1 2 1 0 1 2 1 1 1 1 2 2 2 1 1 2 1 2 4 1 0 2 2 2 0 3 2 1 2 3 3 0 1 1 1 3 2 3 0 4 1 0 1 1 1 3 2 3 2 1 2 2 0 2 0 1 1 2 1 2 1 1 2 3 3 1 2 1 0 1 2 1 2 2 0 2 1 2 3 3 1 2 1 2 0 3 2 2 2 0 3 1 0 1 4 1 2 0 3 0 1 1 3 1 2 1 0 2 0 1 0 2 2 0 2 2 0 0 2 1 0 3 1 3 2 0 1 1 1 3 3 1 0 1 0 2 1 0 2 2 2 1 2 0 0 2 1 1 2 0 1 0 4 1 1 3 3 5 2 2 3 1 1 2 2 2 2 3 2 2 2 1 1 1 4 2 2 1 1 2 1 0 0 0 1 2 2 1 2 1 1 0 3 2 3 1 2 0 1 2 1 0 1 1 3 2 4 2 1 2 3 1 0 0 0 0 1 1 1 3 1 2 0 1 2 1 2 1 2 2 1 0 1 2 1 2 3 1 3 1 0 3 2 3 1 4 3 1 0 1 2 2 4 2 2 3 2 0 2 3 2 0 0 2 4 1 1 1 2 1 1 1 1 1 1 2 2 2 2 2 1 0 1 4 1 1 4 2 4 2 0 3 2 1 3 1 3 2 1 3 1 3 0 0 4 0 0 3 1 2 2 1 3 3 2 1 1 1 1 2 3 0 0 1 1 1 2 2 2 2 3 1 1 2 1 1 1 2 0 1 2 3 2 2 2 0 1 1 0 1 5 1 0 3 2 3 1 1 1 2 4 2 3 1 1 3 0 4 3 0 1 1 2 2 2 1 3 3 1 1 1 2 3 0 1 3 1 2 2 3 2 1 3 1 1 2 1 1 2 1 2 2 1 2 4 0 1 2 1 1 2 2 1 1 1 0 0 2 3 3 4 3 0 2 1 2 2 3 1 1 3 0 1 1 0 2 2 2 1 3 1 3 1 2 1 2 4 1 2 1 2 1 3 1 3 3 3 2 1 0 1 2 3 2 1 1 2 1 1 2 0 1 1 2 2 3 0 0 1 2 1 0 2 0 2 1 0 1 2 1 1 1 1 3 1 3 0 0 1 2 1 1 2 2 1 2 0 1 3 1 2 0 0 1 1 2 2 2 1 1 2 2 3 4 2 0 3 2 2 0 0 0 2 2 1 0 1 0 1 2 2 1 1 1 2 1 1 2 2 4 0 4 0 1 2 1 2 0 1 1 1 2 0 2 1 3 5 2 2 0 0 1 3 1 3 1 4 3 2 2 1 2 1 4 3 2 0 1 1 3 1 1 2 1 0 2 0 1 2 3 3 0 1 2 1 2 4 3 2 0 3 2 1 2 1 1 1 2 1 1 1 2 2 3 3 3 3 2 2 3 0 1 1 1 1 2 1 1 1 1 2 0 2 1 2 0 1 1 1 2 2 2 1 0 1 3 0 5 2 1 0 2 1 1 2 2 1 0 2 1 0 1 2 2 1 2 0 0 2 2 1 1 1 0 1 1 1 0 1 1 1 1 0 4 1 2 2 1 3 0 5 0 0 1 2 2 2 1 1 1 0 2 2 1 1 2 3 0 1 1 2 2 1 3 3 1 0 1 2 0 1 2 1 1 1 1 2 0 1 3 1 1 3 2 2 1 2 2 2 1 3 2 1 2 3 0 2 3 2 2 0 3 4 2 0 1 1 3 1 3 2 1 2 1 1 2 3 1 3 1 1 2 1 2 1 1 2 2 2 1 2 2 0 1 1 1 2 3 1 1 2 3 3 3 4 0 0 2 2 4 1 2 1 0 2 1 1 2 2 0 2 3 0 0 0 0 2 2 2 2 2 2 2 3 1 2 0 1 4 2 0 2 2 1 1 2 0 2 2 2 0 1 1 2 0 4 1 1 1 2 2 1 1 3 1 0 3 0 2 1 2 0 1 0 1 3 2 2 2 1 3 1 2 2 2 2 3 5 3 1 0 1 3 0 3 1 3 2 1 1 2 1 3 2 3 0 2 2 2 2 2 1 2 1 1 0 1 2 3 0 1 1 0 3 2 2 2 1 2 2 1 1 1 1 0 0 2 0 2 1 2 1 0 0 0 1 3 1 2 1 2 3 3 1 3 1 3 0 2 1 2 0 1 1 2 2 2 2 3 3 0 1 2 3 3 0 2 2 0 1 1 0 0 2 3 2 1 0 2 2 2 1 1 1 3 1 3 1 1 3 0 3 2 1 1 1 3 2 0 2 2 2 3 2 2 1 0 2 1 2 0 1 1 1 1 1 1 1 2 2 2 2 2 1 1 0 2 3 1 1 3 2 1 0 1 3 0 1 2 0 0 2 2 2 3 6 2 3 0 3 1 1 3 3 1 0 0 2 1 2 1 1 0 1 1 2 0 1 1 2 3 2 3 2 1 2 2 1 1 1 0 1 2 1 0 4 1 1 2 0 3 2 1 1 2 2 1 1 2 1 2 1 2 3 2 1 1 1 2 1 0 1 0 3 2 1 2 1 1 1 1 1 2 1 2 2 3 1 1 2 2 1 1 3 2 2 2 3 1 4 1 2 2 1 2 0 1 2 1 4 1 0 2 1 3 1 3 4 1 1 1 2 1 2 2 2 0 1 3 0 2 2 1 0 3 1 2 1 1 1 0 2 1 2 1 2 2 1 2 1 1 2 0 1 1 2 1 2 0 2 2 2 3 1 2 2 0 1 3 3 0 2 1 2 3 0 0 2 2 1 2 2 2 2 1 3 2 1 1 0 0 1 1 1 1 1 0 2 2 1 1 2 0 1 1 2 2 2 1 1 2 1 1 1 3 1 1 2 4 0 1 1 1 1 1 2 0 0 2 2 1 1 0 2 0 1 2 1 2 1 0 2 3 1 1 2 1 3 2 0 4 2 2 2 1 3 4 3 3 1 3 3 1 2 1 2 1 2 2 0 3 2 3 0 2 2 1 2 0 1 4 1 2 1 4 3 3 0 1 3 2 0 1 1 0 2 2 1 2 3 2 2 3 1 1 1 2 1 3 3 3 2 3 3 1 3 1 0 1 2 1 1 2 1 1 1 2 4 2 1 2 1 1 2 2 2 1 3 1 1 2 4 1 0 1 2 1 0 0 0 1 1 1 3 1 1 2 0 1 3 2 4 3 1 2 2 1 2 3 1 1 2 0 3 2 2 3 2 3 2 2 1 1 3 1 1 0 1 0 4 3 0 1 3 1 1 0 2 0 1 3 2 4 4 2 0 1 2 0 0 2 2 3 1 1 1 0 2 3 0 2 1 1 2 0 0 4 4 2 1 2 0 1 1 0 2 1 0 3 1 0 0 1 1 1 1 2 3 1 0 2 3 1 0 1 0 1 0 1 1 0 1 1 2 2 1 0 1 2 0 2 2 1 1 1 2 2 1 1 1 2 3 0 1 2 1 1 2 1 1 1 0 2 1 2 0 1 1 1 2 3 0 0 2 1 1 4 1 1 3 2 1 0 2 1 1 0 1 2 2 0 0 0 0 1 1 2 2 1 1 1 1 3 0 3 0 2 0 2 3 1 1 1 3 2 3 3 0 1 4 2 0 2 2 2 3 4 1 2 0 1 1 2 1 2 4 2 3 0 1 0 2 0 1 2 0 1 2 1 0 2 1 2 2 1 2 1 2 1 2 1 2 0 1 2 2 4 4 2 1 1 1 1 0 1 2 4 2 2 1 2 2 1 1 1 3 2 2 1 2 4 4 2 2 0 1 1 1 0 2 1 3 0 2 1 0 2 0 2 1 0 0 4 1 1 0 4 3 2 2 2 1 1 2 1 4 1 2 2 3 2 1 0 1 3 1 2 2 2 2 2 3 3 2 1 0 1 1 2 4 2 1 1 0 2 1 1 1 1 2 1 2 2 1 1 1 0 0 2 0 4 2 2 4 3 1 2 1 2 2 4 0 1 0 2 3 1 2 1 0 0 0 0 1 2 1 1 0 1 1 2 1 0 0 3 1 1 1 5 1 3 2 1 4 0 1 3 2 1 0 2 4 1 2 1 1 1 2 1 1 4 2 3 2 1 3 0 1 0 2 1 3 2 2 0 1 2 1 0 1 2 3 2 1 0 3 1 3 1 2 3 2 0 3 1 1 0 0 0 2 3 3 2 1 0 1 2 1 1 3 1 1 1 2 0 0 3 3 2 1 3 1 1 1 3 3 1 2 2 3 1 2 1 1 3 2 3 2 0 3 1 0 1 1 3 1 3 1 1 1 0 1 2 0 1 2 1 1 1 1 2 2 0 4 1 1 2 2 1 2 3 3 5 2 2 1 2 2 2 2 1 1 3 0 2 1 0 2 0 2 1 3 1 1 3 0 1 2 1 0 1 2 2 2 5 3 0 0 2 2 2 2 2 0 2 0 1 1 1 4 1 2 4 2 1 2 2 0 0 1 1 1 2 3 2 1 0 1 3 0 3 2 0 2 0 1 1 1 0 2 2 1 0 2 1 1 0 1 2 0 3 2 2 2 0 2 1 3 4 1 2 2 1 1 2 3 3 1 0 4 3 2 2 3 1 3 1 0 3 1 1 2 3 0 1 3 2 1 1 2 2 2 1 1 2 1 1 2 2 2 2 0 2 2 1 2 2 1 3 3 4 1 1 2 1 2 0 0 0 0 2 2 0 1 1 2 1 4 3 1 2 3 1 0 2 2 2 2 4 3 2 2 1 4 0 1 3 0 4 1 2 1 1 1 0 2 0 2 0 2 1 0 2 2 1 0 2 2 2 0 1 1 2 2 2 1 0 2 1 0 2 1 1 2 3 0 0 2 3 1 0 1 2 3 3 1 1 1 1 3 0 2 1 1 2 1 2 1 1 0 1 1 4 1 1 1 3 2 4 2 1 1 1 1 1 2 1 0 2 2 1 2 0 0 2 2 1 1 0 3 0 0 1 1 2 2 2 3 1 1 2 3 1 0 2 0 1 1 2 2 2 3 0 0 2 2 1 2 1 0 2 2 3 1 1 1 5 2 1 1 3 2 2 1 2 1 1 1 0 2 1 2 3 1 3 3 0 3 2 2 3 1 2 0 0 2 0 1 1 2 2 2 1 2 3 1 2 1 2 1 0 1 1 2 3 2 1 2 1 1 3 1 0 2 0 1 2 1 0 0 0 3 1 2 0 2 2 1 2 1 2 2 2 0 2 0 2 3 1 1 3 3 1 2 2 2 0 1 4 1 1 2 0 1 0 2 3 2 0 2 2 1 3 1 1 1 3 3 0 1 1 0 1 2 1 1 1 3 3 2 2 1 3 4 4 0 1 0 0 2 2 0 1 3 0 2 1 1 1 0 1 2 2 1 0 2 3 3 2 1 3 1 0 2 3 2 0 1 1 1 0 2 2 1 2 2 1 1 0 1 0 2 2 0 4 2 1 2 1 4 0 2 0 1 2 0 0 2 1 1 1 2 1 2 2 1 2 1 3 1 0 1 2 1 2 2 1 1 2 0 2 1 1 1 2 0 3 1 0 1 1 3 2 1 2 0 0 0 1 2 1 1 2 2 2 2 1 2 0 1 0 2 1 5 1 2 1 1 2 2 2 0 2 0 3 1 1 1 3 1 0 1 3 1 2 2 1 4 1 1 3 2 2 3 1 1 1 1 2 2 2 0 0 1 2 3 1 1 2 4 1 0 1 2 3 1 0 2 2 1 0 2 3 1 0 1 0 1 3 5 1 1 3 1 0 2 0 1 1 1 0 1 2 1 2 1 3 3 3 1 1 2 0 3 2 2 2 2 3 1 1 3 2 2 2 0 2 1 4 2 2 1 1 2 2 2 3 2 2 1 1 1 2 1 2 2 2 1 1 2 0 1 1 2 2 1 3 2 2 2 1 2 2 3 3 2 1 0 3 3 1 1 0 1 2 4 2 2 1 1 1 2 2 1 2 2 1 3 2 2 2 2 1 2 2 1 0 1 3 1 3 0 1 2 1 2 2 2 2 1 2 1 3 1 2 3 2 2 2 1 1 3 0 1 1 2 0 1 2 3 2 0 1 1 1 1 2 3 1 3 2 4 2 1 1 1 4 1 1 2 5 1 2 0 3 2 2 1 0 3 0 3 1 2 3 1 1 2 2 1 1 1 3 2 1 1 1 2 1 1 3 2 1 2 3 0 3 0 1 1 1 2 2 0 0 2 1 2 0 1 0 2 1 2 3 2 2 1 1 2 1 2 1 1 1 2 0 2 2 2 1 1 0 2 2 1 2 2 1 1 1 2 2 1 2 1 1 3 1 3 2 1 3 0 1 2 1 2 1 0 1 1 2 2 3 3 4 0 1 0 0 2 0 3 2 2 3 2 0 1 1 1 1 2 2 2 1 0 1 0 2 2 2 1 1 2 3 2 0 2 1 4 1 2 0 3 2 1 0 2 3 1 1 0 1 0 1 1 1 2 1 1 3 3 0 1 3 2 0 3 2 1 1 2 1 2 2 2 2 2 1 1 1 1 2 1 0 0 2 3 0 0 1 1 2 1 2 1 1 3 0 1 2 2 0 2 1 1 3 1 1 2 1 1 1 2 1 1 1 2 1 1 4 2 3 0 2 3 1 2 0 2 1 2 1 2 0 1 1 2 3 1 1 3 3 2 1 2 2 2 2 0 3 1 1 2 1 1 0 0 1 3 1 2 0 2 2 2 2 1 2 0 2 0 1 2 3 1 2 0 2 1 3 3 1 2 3 2 1 1 1 2 1 1 1 1 1 1 1 2 1 1 2 1 0 2 2 1 1 1 0 2 2 2 1 2 2 1 1 0 3 3 2 0 1 1 2 1 0 1 1 1 3 1 1 0 3 2 1 3 1 2 3 1 3 3 3 1 0 1 0 0 2 1 1 2 2 0 0 0 2 1 1 2 1 2 3 1 3 2 1 1 3 1 1 1 2 1 2 1 3 0 2 3 3 2 0 3 1 1 1 0 2 1 0 1 2 3 1 1 3 1 1 1 1 0 1 3 1 3 1 0 1 1 2 1 2 1 1 1 1 1 2 2 1 0 3 4 1 1 2 1 2 1 1 4 1 2 2 2 2 1 0 1 2 1 3 2 2 2 1 1 1 1 1 3 2 1 2 0 2 0 1 0 3 3 0 0 1 2 2 1 4 2 1 1 2 2 2 0 0 1 2 1 0 3 1 2 2 2 1 3 1 4 0 4 1 1 1 2 2 2 0 1 2 1 1 0 0 3 1 1 0 4 1 2 2 3 3 1 2 2 1 2 1 3 0 2 1 0 2 2 0 2 1 1 2 2 3 1 1 2 2 2 1 2 2 0 2 2 2 0 1 0 3 0 1 0 1 2 2 4 2 0 2 1 2 2 2 3 2 0 2 2 1 2 2 2 5 1 1 3 0 2 2 1 3 0 2 3 2 1 0 1 1 2 2 2 1 2 2 1 2 1 2 2 1 0 2 0 1 2 2 1 2 1 2 1 2 2 0 3 1 2 2 1 2 0 4 4 1 2 2 2 1 0 2 1 2 0 3 1 1 2 1 1 2 2 1 2 0 3 1 2 1 4 1 3 1 2 2 2 2 1 2 2 2 2 1 1 2 3 2 3 0 1 2 0 3 3 2 0 0 0 1 2 1 3 1 1 1 2 0 0 2 1 3 1 1 3 2 1 1 0 1 1 2 0 4 2 3 4 1 0 1 0 0 4 1 2 2 2 0 2 2 0 1 2 1 0 0 0 1 1 3 1 2 1 2 0 0 2 1 1 3 3 1 2 3 3 1 4 2 3 1 3 1 2 0 1 3 1 1 2 2 3 1 1 0 1 2 1 0 0 3 1 0 2 1 1 1 0 2 1 2 1 2 2 1 2 2 2 1 0 1 1 2 1 0 3 1 2 2 1 0 0 5 2 1 0 3 2 1 3 2 1 1 2 2 1 0 0 1 0 1 2 2 3 1 0 4 1 2 2 2 3 2 0 2 1 1 2 2 2 2 1 0 2 1 1 2 1 3 1 1 1 4 1 4 2 0 1 1 1 1 2 4 0 1 1 3 1 1 1 0 2 2 1 1 4 0 2 2 1 2 0 5 0 2 2 1 3 1 0 2 3 2 1 5 0 1 2 0 2 3 1 0 2 2 3 0 1 2 2 3 3 0 1 2 1 2 2 1 1 2 2 2 3 0 1 0 3 1 1 3 1 0 2 2 2 1 3 2 1 2 2 3 1 1 3 1 1 2 2 1 2 1 1 1 2 0 1 0 1 2 0 0 2 4 3 2 2 2 2 3 3 1 3 4 3 3 3 1 2 2 2 1 2 1 3 2 1 2 2 1 2 3 2 1 3 1 2 1 1 2 1 3 2 2 1 2 2 2 2 0 1 4 1 1 2 2 2 2 3 1 0 1 1 4 1 1 1 3 0 1 0 2 6 1 3 3 0 2 2 0 1 1 2 0 1 5 2 1 0 1 0 3 3 2 3 1 1 1 2 2 3 1 5 2 3 1 3 1 1 3 1 1 0 3 2 0 1 2 1 3 0 2 1 1 0 2 2 1 3 2 1 1 1 2 2 1 1 1 2 3 0 3 0 3 2 1 1 3 3 1 2 1 1 1 1 2 3 1 1 2 1 4 3 0 3 2 2 1 1 3 1 3 0 2 1 1 1 1 2 2 1 1 2 3 0 2 1 2 1 3 3 0 3 1 1 3 3 0 3 2 1 1 1 0 1 1 3 2 2 3 4 2 1 1 1 1 2 1 3 2 1 1 3 0 2 1 2 3 2 2 2 3 1 2 1 2 0 2 1 1 1 0 1 3 2 2 2 0 2 1 3 1 2 2 3 1 2 1 1 1 1 2 1 1 1 1 1 1 2 3 2 3 1 1 1 4 2 1 1 0 1 2 2 3 1 1 1 3 1 3 1 1 1 2 2 1 1 3 2 0 2 1 3 3 2 1 1 0 2 0 3 2 1 2 2 1 1 1 1 0 1 3 1 1 3 0 0 0 3 2 2 1 1 2 2 2 2 2 1 3 4 3 2 1 1 1 3 2 4 5 2 1 1 1 1 2 2 2 0 1 2 1 1 2 1 3 1 2 2 1 1 2 3 2 1 1 1 3 0 3 1 0 2 1 2 3 2 4 2 4 1 0 4 1 1 0 2 0 2 1 2 2 0 2 1 2 3 1 3 0 1 2 2 2 1 1 1 2 3 1 0 2 0 1 0 1 3 3 1 1 2 1 0 1 2 1 1 2 3 0 3 0 0 2 1 0 0 0 2 1 3 0 2 2 1 2 4 1 1 2 3 2 2 2 1 1 1 1 1 1 0 1 1 3 0 0 1 2 2 1 1 2 4 2 3 1 2 2 3 2 4 2 0 3 2 2 0 2 3 2 0 0 1 2 3 0 2 1 2 2 2 2 1 1 2 2 2 1 2 1 3 1 1 1 2 3 0 2 1 1 1 1 1 1 1 1 1 1 1 3 3 1 2 3 5 0 3 0 2 3 2 1 2 3 0 0 2 3 1 0 0 2 2 1 1 1 3 0 2 2 1 2 1 1 1 1 0 3 1 1 1 2 1 0 1 1 0 1 2 4 2 2 2 3 1 2 2 1 1 1 1 0 0 2 0 2 1 1 1 3 2 1 0 1 2 1 0 1 1 2 1 1 2 2 1 2 2 2 1 2 3 3 2 0 2 2 1 2 2 1 0 1 2 1 2 1 2 0 1 0 1 2 1 1 1 3 2 2 2 1 0 2 4 2 0 1 1 0 2 1 3 2 1 1 1 1 0 1 1 4 1 2 1 1 2 1 3 0 1 1 2 0 3 1 2 2 2 2 1 1 2 1 2 2 1 1 0 2 3 2 1 2 1 2 0 3 2 1 3 0 1 0 1 1 2 1 2 0 2 0 1 1 1 2 2 3 2 2 2 3 3 3 2 1 0 2 2 2 1 1 2 1 1 1 2 0 2 3 1 1 2 2 1 3 2 2 2 3 2 0 1 2 1 3 2 2 2 2 2 2 1 2 1 2 1 2 1 2 0 1 1 1 2 3 2 0 2 1 1 1 1 1 3 0 3 3 1 3 1 0 1 4 1 1 3 2 0 1 0 2 1 2 1 0 1 1 0 1 1 2 1 1 0 2 1 2 1 0 2 2 1 2 2 1 1 0 1 1 1 3 0 3 1 1 2 0 1 0 2 3 1 0 1 1 0 2 1 3 2 3 0 1 1 3 2 2 0 1 0 1 2 3 1 3 1 1 1 1 1 2 1 0 1 2 3 3 2 1 1 1 2 1 0 1 2 2 1 2 3 2 2 3 1 1 2 0 0 0 3 2 1 1 1 3 2 0 0 1 4 0 4 1 0 1 0 1 1 0 3 0 2 2 0 0 0 2 2 1 2 1 3 1 0 1 1 0 2 1 2 2 0 2 3 3 1 1 2 2 0 2 1 0 1 2 2 1 0 0 1 1 2 2 0 1 1 1 2 1 2 1 0 1 2 1 1 1 4 2 0 1 0 2 1 1 1 1 2 1 3 2 0 1 2 2 1 1 2 4 2 1 2 2 0 1 2 2 0 1 2 0 2 2 2 3 2 4 1 2 1 2 1 2 2 0 3 2 1 1 1 3 1 1 1 1 1 1 1 0 3 2 2 2 1 3 1 1 3 1 0 1 0 1 1 2 1 1 3 1 1 2 0 2 1 1 2 1 0 4 1 4 2 2 2 3 0 2 0 2 1 1 3 3 2 1 3 2 3 2 3 2 0 1 3 2 1 0 1 2 4 1 0 1 1 1 1 2 2 1 1 2 2 1 1 1 1 1 1 2 0 1 2 1 2 2 1 1 3 3 2 1 2 0 2 1 0 2 0 1 0 1 1 2 3 0 1 1 4 1 2 2 1 1 2 3 2 0 1 2 1 1 3 1 1 3 2 1 0 1 4 1 2 5 1 1 0 0 0 2 1 3 2 1 1 0 0 1 0 1 1 2 2 0 2 2 3 0 1 1 1 1 1 2 3 0 4 3 2 2 2 1 2 0 0 1 0 3 1 2 1 3 3 1 1 3 2 2 1 1 2 1 1 1 3 3 0 2 1 2 0 2 2 2 1 0 3 0 1 4 3 2 0 1 2 0 2 2 3 4 2 1 1 0 0 0 2 1 1 2 1 0 2 0 4 1 0 1 3 1 1 1 3 2 2 3 1 1 2 1 3 1 2 3 2 2 3 1 1 4 2 5 4 2 3 1 3 3 0 1 1 3 0 1 2 1 1 1 2 2 0 1 1 3 1 3 2 0 0 1 1 2 2 3 0 3 0 1 3 5 1 0 1 2 1 3 2 1 2 1 0 0 3 2 0 0 2 0 3 1 1 0 0 0 1 3 0 1 3 1 2 0 1 1 3 2 1 1 0 2 2 3 1 1 0 3 2 2 2 2 1 0 1 1 1 2 1 2 2 2 1 2 2 0 3 2 1 0 0 2 2 1 0 1 1 2 0 2 1 1 2 1 3 1 2 2 2 0 1 3 2 1 1 3 1 1 2 1 0 2 1 1 0 1 4 0 3 1 2 0 3 2 1 3 2 2 2 1 3 1 2 1 0 0 0 1 2 2 2 2 2 0 3 3 1 3 2 2 2 0 4 0 1 2 2 1 1 2 2 1 2 0 1 0 1 1 2 1 0 0 3 0 2 2 1 0 0 5 1 3 0 2 2 1 2 1 0 2 0 3 2 0 4 3 4 2 1 2 3 2 1 0 1 0 2 0 2 0 3 3 2 2 1 1 2 2 3 2 1 1 1 2 1 0 1 4 1 1 1 1 3 1 0 2 1 1 1 1 0 1 3 1 1 1 1 0 4 3 2 1 3 3 2 1 2 2 1 2 2 2 0 2 1 1 2 2 3 1 1 2 3 1 2 2 1 1 0 0 3 1 4 2 1 3 1 2 1 2 2 3 0 0 2 1 1 3 1 2 2 3 1 3 1 1 2 3 1 1 0 2 1 0 1 1 0 1 1 2 0 1 1 0 2 1 1 1 0 1 0 2 1 3 0 2 0 1 1 1 4 3 1 0 1 3 0 1 2 2 1 2 2 3 3 1 1 0 1 1 2 1 0 3 0 0 1 3 1 3 2 3 0 3 2 0 3 2 4 1 3 1 0 1 2 0 0 3 1 2 2 0 3 0 1 1 2 3 1 2 1 2 2 1 2 1 1 1 3 1 2 2 3 1 2 1 2 1 4 0 1 1 1 1 1 0 1 1 2 1 0 1 2 1 2 1 0 1 0 3 2 1 3 1 1 1 2 2 3 0 0 3 2 2 2 0 0 2 1 4 2 3 2 0 2 1 1 4 2 3 1 2 1 1 3 2 0 2 1 3 0 1 2 2 1 3 2 3 3 3 0 1 2 2 0 2 1 1 2 1 0 1 1 2 1 1 3 0 1 2 1 3 2 1 3 2 4 3 2 1 4 0 2 2 1 0 0 1 2 1 1 1 2 1 1 1 1 3 2 2 1 2 2 2 0 1 2 0 2 2 1 1 0 2 2 5 3 2 5 1 1 1 1 0 1 1 1 2 3 2 0 0 1 3 1 2 1 2 1 2 1 3 1 0 1 3 2 0 1 2 0 1 1 1 1 3 4 2 1 3 2 3 5 2 1 2 0 1 1 2 2 1 0 0 1 3 1 1 0 0 1 1 1 0 1 1 3 2 3 2 2 2 2 1 0 2 1 3 1 2 3 1 3 0 2 1 2 1 2 2 2 2 1 1 1 3 1 0 0 2 2 2 1 2 0 0 0 2 0 1 0 2 1 0 3 1 2 1 1 1 0 2 1 3 1 2 2 1 1 1 2 4 0 2 4 2 1 2 1 2 5 2 2 2 1 2 1 1 1 1 2 1 2 2 1 1 1 0 1 2 2 1 1 1 0 4 2 3 2 1 0 1 1 2 3 3 2 4 1 1 2 1 0 3 1 1 0 1 3 2 0 0 1 2 0 2 2 2 2 1 3 1 0 2 2 2 2 0 4 1 1 2 0 1 2 2 2 1 1 3 2 2 2 1 1 2 1 0 0 0 2 0 0 2 1 0 1 2 1 2 0 0 0 1 2 1 1 1 1 4 1 1 0 0 2 3 3 5 3 1 1 1 2 1 1 2 2 1 4 2 0 3 0 1 4 3 0 2 3 0 2 2 0 2 4 1 2 2 1 1 1 3 1 0 4 1 2 1 1 1 2 1 1 1 2 0 3 2 2 1 2 1 1 1 1 1 3 2 2 1 1 1 1 1 2 1 3 1 1 1 0 2 1 1 1 1 2 1 2 1 1 2 2 1 1 1 2 3 0 3 2 1 4 0 3 3 1 3 3 1 2 1 0 2 0 1 3 2 1 1 1 0 1 1 4 0 2 2 3 0 1 2 2 2 1 1 1 1 4 1 1 1 2 2 1 0 2 1 2 1 3 0 0 2 2 2 0 0 1 1 2 0 0 2 2 2 1 2 2 1 2 2 0 2 2 1 1 3 2 2 1 2 0 2 2 2 1 1 1 2 2 2 0 1 1 1 2 1 2 2 1 1 2 3 2 2 2 1 1 0 2 2 1 1 0 3 2 3 2 1 2 1 1 2 0 0 1 3 0 0 2 2 1 1 1 1 0 0 5 0 0 2 3 2 1 2 0 1 2 2 1 1 0 2 1 2 0 1 0 1 3 2 1 2 3 3 2 3 1 3 0 2 1 1 1 1 1 1 0 1 1 2 1 3 0 2 1 0 3 3 3 1 2 2 1 2 0 3 0 1 0 2 2 2 1 3 1 2 1 0 2 2 2 3 0 2 2 3 3 3 3 1 1 0 1 2 1</t>
+  </si>
+  <si>
+    <t>NIG(0.31648501510148114, 0.31644972485523964, 0.003566727911317243, 0.006133472349329609)</t>
+  </si>
+  <si>
+    <t>0 2 0 0 0 2 0 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 3 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 2 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 3 0 0 0 0 0 0 1 0 1 1 1 2 1 0 1 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 2 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 2 2 0 0 1 1 0 1 2 0 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 1 2 0 0 0 0 1 1 0 1 0 0 0 0 1 0 2 0 1 0 0 0 3 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 1 1 1 0 2 1 0 0 1 0 0 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 2 0 0 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 2 0 1 0 0 0 1 0 1 1 0 1 0 0 1 1 0 2 0 3 0 0 1 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 3 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 3 1 1 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 3 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 2 0 0 0 2 2 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 1 0 2 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 2 0 0 0 0 1 0 0 0 0 1 0 0 1 0 2 0 1 1 0 2 1 1 1 0 1 0 0 0 1 1 0 0 0 2 0 1 1 1 1 0 1 0 0 1 1 0 0 2 1 0 3 2 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 1 1 1 0 1 0 1 0 0 1 1 2 2 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 3 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 0 0 2 3 1 1 0 1 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 2 2 0 0 1 1 0 0 1 0 0 2 0 0 1 1 0 0 0 1 1 0 0 0 2 0 0 0 2 2 2 0 0 2 0 2 0 0 0 1 0 1 0 1 0 1 1 2 1 0 0 0 0 1 0 0 1 1 0 0 2 2 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 2 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 0 2 1 0 0 3 0 0 0 2 1 0 0 0 0 1 2 1 0 1 0 2 0 0 0 1 1 0 0 0 2 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 3 1 0 0 1 1 0 0 0 0 2 1 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 0 3 1 1 1 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 2 1 1 0 1 1 1 0 1 1 0 0 0 0 1 0 1 4 0 2 0 0 1 0 0 0 1 2 0 0 2 2 0 0 0 1 0 0 1 2 0 1 0 1 0 1 1 0 1 0 0 1 2 0 0 0 0 0 0 2 2 0 0 0 0 0 0 1 1 1 0 1 0 3 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 2 2 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 2 2 0 0 0 0 0 0 1 0 0 0 1 2 1 0 1 0 1 0 0 2 0 1 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 2 0 0 0 1 0 0 0 2 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 0 3 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 1 1 2 0 1 1 3 1 2 0 0 0 0 0 2 2 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 2 2 0 2 0 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 1 0 4 1 0 0 1 0 1 0 0 2 0 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 2 0 0 2 1 0 0 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 1 0 0 0 3 0 0 0 1 0 1 2 1 1 0 1 0 2 0 2 0 0 0 1 4 0 1 1 1 1 3 0 0 2 2 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 2 0 1 0 0 1 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 2 0 1 1 2 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 2 0 1 1 1 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 3 0 1 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 1 0 0 0 1 0 0 2 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 2 0 1 0 1 0 1 2 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 0 0 1 1 1 0 0 0 0 2 0 0 0 1 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 1 0 3 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 2 1 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 1 0 1 0 1 0 0 1 1 1 0 1 0 1 2 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 2 1 1 1 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 2 0 0 0 1 0 1 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 2 2 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 2 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 2 1 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 2 2 1 2 0 0 1 0 2 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 1 0 1 1 0 1 1 0 0 0 0 1 1 0 2 2 1 1 0 0 2 0 1 0 0 0 1 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 2 0 0 1 2 0 1 0 0 1 1 0 0 0 0 2 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 2 2 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 2 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 2 1 1 2 1 1 0 1 1 1 0 0 1 1 0 0 2 1 1 1 0 1 1 0 0 0 2 0 1 2 0 0 1 0 0 0 0 3 0 1 1 0 0 0 2 0 1 0 0 1 0 1 0 0 0 1 0 1 2 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 2 0 0 0 2 0 0 2 0 0 1 0 0 0 0 0 2 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 2 1 0 1 0 1 1 0 1 0 2 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 3 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 0 1 2 2 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0 1 2 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 2 1 0 1 0 0 0 0 0 1 0 1 1 1 0 1 2 2 0 0 0 0 1 2 1 0 1 0 1 0 1 0 1 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 1 1 0 0 0 0 1 0 2 1 1 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 3 1 0 0 0 0 0 1 1 1 1 0 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 2 1 0 0 0 0 1 1 2 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 2 0 0 0 0 0 1 0 1 1 0 4 2 2 0 3 1 0 1 0 1 1 1 2 0 2 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 2 0 0 0 0 0 1 0 1 1 1 1 0 1 0 0 1 0 0 2 0 1 1 1 0 1 2 0 0 1 2 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 2 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 0 2 0 0 0 1 1 0 1 2 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 1 0 0 0 0 0 2 1 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 2 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 2 0 1 1 0 0 0 1 1 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 2 0 0 0 1 1 1 0 0 2 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 3 0 1 1 0 1 2 0 0 0 0 1 1 1 0 2 1 0 2 1 0 0 0 0 1 0 0 2 0 0 1 1 0 0 0 1 1 0 0 3 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 2 0 1 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 1 0 2 0 1 1 0 1 0 0 0 2 0 0 1 0 0 0 1 0 1 0 0 0 2 1 1 0 0 0 0 0 1 1 3 0 0 0 1 0 2 1 1 0 0 0 1 2 0 0 1 1 1 1 1 0 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 2 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 2 0 1 0 0 2 0 1 0 2 1 0 1 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 1 0 2 2 1 0 0 1 0 0 0 2 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 4 1 0 0 0 2 0 0 2 1 0 1 1 1 1 0 0 0 2 0 0 2 2 0 0 0 1 1 1 1 0 1 0 1 0 0 1 1 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 2 1 0 0 0 0 1 0 0 1 2 2 1 0 1 0 0 0 0 0 1 0 2 0 1 1 1 0 1 1 1 1 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 1 0 0 0 2 1 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 3 0 1 0 2 0 0 1 1 0 2 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 1 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 1 2 0 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 2 0 1 0 0 0 0 2 1 0 0 0 0 2 0 0 0 1 0 0 0 1 1 0 2 0 1 2 2 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 2 1 0 0 1 0 0 0 0 2 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 2 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 2 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 2 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 3 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 1 0 1 0 1 1 1 0 0 2 0 2 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 3 0 0 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 2 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 0 2 0 1 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 3 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 2 1 1 1 0 0 0 0 0 0 0 1 0 2 1 2 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 1 1 0 1 0 2 1 0 1 0 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 0 0 3 0 0 0 0 0 0 0 0 0 0 1 1 0 0 3 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 1 0 0 1 1 0 1 0 0 0 0 1 1 2 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 2 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 2 1 1 2 0 1 2 2 1 0 0 0 0 0 0 1 0 1 0 0 2 1 1 0 0 0 0 0 0 1 0 3 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 2 1 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 2 2 0 1 1 0 0 0 0 1 3 0 0 0 0 0 1 0 0 2 0 0 0 3 1 2 1 1 0 1 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 1 1 0 0 2 0 2 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 2 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 1 2 0 1 3 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 1 0 0 1 1 0 0 1 1 0 2 1 3 0 2 0 0 0 1 0 1 2 0 2 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 2 0 0 0 2 0 0 0 0 0 2 1 0 2 0 1 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 0 0 0 2 0 0 1 0 3 1 1 1 0 1 0 3 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 2 0 2 0 1 0 0 2 0 0 0 0 0 0 1 0 2 0 2 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 2 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 0 0 0 0 0 1 1 0 1 0 2 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 0 1 1 3 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 2 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 4 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 2 0 2 1 0 0 0 2 1 0 2 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 2 2 1 0 1 0 1 2 1 1 0 0 1 0 3 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 2 0 0 0 1 2 0 1 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 2 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 1 2 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 3 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 1 1 2 0 1 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 2 0 1 1 0 0 1 0 1 1 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 1 2 1 1 0 0 1 0 0 2 0 3 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 3 3 0 2 1 0 1 0 0 0 1 0 0 2 0 0 0 0 1 1 1 1 0 0 3 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 1 2 0 0 2 0 0 1 0 0 0 0 0 3 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 1 2 2 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 2 0 0 1 1 1 0 1 0 2 1 0 0 0 1 1 0 1 0 0 0 0 2 0 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 1 0 0 1 0 2 1 0 0 0 1 0 0 1 0 2 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 0 0 2 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 2 0 0 2 0 1 2 1 1 0 0 2 0 1 0 1 2 2 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 3 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 3 0 0 0 3 1 0 0 2 1 0 1 1 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 2 0 1 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 1 2 0 3 1 0 1 2 2 1 1 1 0 0 0 2 0 1 0 1 0 0 1 1 1 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 2 1 0 1 0 0 2 0 1 0 1 1 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 2 0 1 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 3 0 0 0 1 0 1 0 1 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 2 2 0 0 0 0 0 1 2 1 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 2 0 1 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 1 2 0 2 0 0 0 2 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 2 1 1 0 1 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 1 2 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 2 0 1 0 0 1 0 3 0 1 0 0 0 0 0 2 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 0 1 3 1 0 1 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 2 1 0 0 0 0 0 1 1 2 0 0 0 0 1 0 1 2 1 1 0 0 0 0 1 0 0 0 0 2 0 0 2 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 1 0 2 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 2 2 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 1 1 2 1 1 0 0 0 0 2 1 1 1 0 0 1 0 2 3 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 1 0 1 1 2 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 1 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 2 0 1 0 0 0 0 0 2 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 2 0 1 1 1 0 0 1 1 3 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 3 0 1 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 2 0 0 0 1 0 2 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 3 1 0 0 1 1 0 2 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 3 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 2 0 0 1 1 0 2 1 0 0 0 0 0 0 0 0 0 1 1 2 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 2 0 0 0 0 0 0 1 1 0 0 1 0 3 2 0 0 2 1 1 1 1 1 0 1 0 0 2 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 3 0 0 1 1 0 0 2 1 3 0 0 2 0 0 0 2 1 2 1 0 0 0 2 0 0 0 1 0 0 2 2 1 0 2 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 2 0 1 1 0 0 2 0 1 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 3 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 3 1 1 0 0 0 1 1 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 2 3 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 1 1 0 0 1 1 1 0 2 1 1 0 0 0 0 0 0 0 2 1 0 0 2 1 0 0 1 0 2 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 2 0 0 0 1 0 0 1 2 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 1 2 1 0 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 2 1 0 1 0 2 0 1 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 2 1 0 1 1 0 0 1 0 0 0 1 1 0 1 2 0 2 1 1 1 1 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 2 1 2 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 1 2 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 2 2 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 0 0 0 0 0 3 0 1 0 0 0 2 0 2 0 0 0 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 2 2 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 0 0 0 0 2 2 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 1 0 1 0 1 0 2 0 0 1 1 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 2 1 0 0 0 1 1 1 0 0 0 0 1 0 2 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 3 1 0</t>
+  </si>
+  <si>
+    <t>JSB(2.3178867627801427, 2.688087903700021, -43.2406483506236, 445.06424500870895)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 71 133 108 66 46 66 41 38 75 119 134 79 40 89 95 62 96 75 141 45 196 88 70 108 65 81 117 143 150 112 110 104 134 72 107 92 88 142 65 111 63 57 41 126 42 85 78 106 99 41 92 123 73 77 68 90 102 102 94 121 125 56 102 83 44 68 53 91 80 128 178 56 91 117 49 107 40 93 73 111 87 43 113 112 55 114 82 175 106 124 109 74 83 134 116 42 32 27 46 82 126 77 53 55 62 101 99 37 130 64 60 64 65 28 107 56 115 54 66 86 67 62 102 80 77 54 85 66 148 101 52 96 51 123 79 55 119 112 103 117 71 95 108 56 67 73 42 73 82 70 83 38 84 46 65 166 123 178 87 55 43 66 49 119 105 63 89 67 47 129 39 85 87 94 150 100 105 55 129 41 74 109 128 155 79 98 82 51 61 41 63 177 99 74 108 104 124 40 86 75 160 121 126 78 121 63 155 122 76 90 103 70 56 115 89 205 47 132 53 132 53 74 200 87 111 94 66 101 50 48 82 62 93 68 64 109 68 52 81 72 178 48 75 95 123 51 95 84 87 98 83 110 153 101 111 88 74 124 102 81 103 125 82 115 85 87 79 64 47 74 89 87 81 79 90 52 78 159 135 110 111 70 113 98 137 49 65 161 116 46 61 64 74 94 62 118 73 81 76 108 71 82 67 17 40 61 106 56 43 97 116 70 88 153 80 81 131 129 22 50 43 87 129 126 78 94 131 46 141 116 153 154 75 130 110 111 114 40 148 93 36 77 97 57 102 104 69 72 75 93 85 52 34 81 122 162 77 137 75 57 134 99 74 120 148 84 42 61 166 86 132 44 64 100 82 53 71 101 95 122 103 29 50 63 160 58 85 78 114 93 124 123 106 73 89 72 102 105 76 136 103 142 46 119 47 152 91 88 58 64 42 5 133 94 74 76 147 112 123 48 52 83 112 77 108 98 57 39 134 86 82 132 71 112 76 43 123 93 117 83 106 93 126 36 72 133 125 117 157 60 46 95 29 117 110 30 70 129 89 92 87 67 69 62 40 36 107 170 66 91 73 79 85 125 95 115 65 68 127 62 86 121 94 75 100 105 127 44 84 103 98 46 130 75 85 78 76 40 148 43 98 133 38 57 152 190 74 90 63 120 47 106 131 53 89 70 61 101 149 94 62 39 76 118 39 52 173 77 43 49 91 68 56 79 133 63 120 23 109 129 75 93 83 94 113 70 144 59 141 124 46 90 88 139 124 134 116 158 69 126 82 112 102 38 86 109 62 96 99 98 33 68 81 88 51 137 107 57 75 79 72 71 102 53 96 82 72 91 55 111 124 86 38 75 76 162 112 109 105 113 85 32 95 124 94 131 92 106 99 87 91 108 120 123 65 102 14 72 112 69 94 89 111 63 116 35 24 119 135 114 73 119 102 70 76 105 82 116 112 81 143 108 105 127 65 68 64 113 46 105 110 123 129 100 106 65 51 99 117 96 68 140 45 85 56 135 89 133 110 133 102 105 83 93 81 163 105 58 140 96 80 65 47 59 103 110 133 69 61 82 93 58 78 61 121 89 105 31 105 103 110 115 60 65 61 133 71 52 110 102 101 106 97 133 118 136 68 99 178 107 80 99 96 105 102 108 85 123 57 104 165 129 108 66 32 112 36 97 138 99 133 32 41 65 151 10 91 39 90 134 83 79 80 154 128 94 152 103 44 88 141 46 91 31 75 66 68 121 94 132 62 136 118 87 63 61 161 111 111 64 93 149 108 73 117 150 107 136 98 32 76 92 93 80 84 105 66 100 115 109 152 136 125 77 124 58 95 74 102 68 80 115 75 92 67 75 78 94 84 88 93 62 120 63 151 84 122 110 63 90 74 116 105 173 114 130 94 209 68 26 56 39 128 86 59 88 72 31 139 110 20 63 117 63 89 145 80 71 96 42 70 69 78 118 106 21 86 104 150 83 37 86 57 72 83 93 143 139 59 112 91 95 118 98 76 97 64 40 82 89 90 73 84 36 164 103 43 148 127 104 93 55 50 95 96 48 67 80 58 81 139 72 75 129 108 146 95 87 95 93 94 133 83 42 94 129 25 49 169 52 90 82 99 153 127 78 84 39 101 57 127 57 93 87 53 42 57 40 60 113 108 128 82 46 100 62 102 133 113 68 72 88 53 71 101 51 101 64 88 46 115 144 61 120 153 80 110 59 78 82 54 125 155 64 66 133 78 92 62 141 21 107 78 137 160 47 150 74 109 162 114 90 87 88 53 109 132 114 72 138 59 66 125 26 98 192 88 127 44 98 90 85 86 52 138 73 116 87 54 116 94 102 95 85 77 69 132 153 20 74 51 47 117 117 82 151 85 89 135 55 63 27 59 133 106 41 70 77 94 81 117 60 71 73 50 129 60 146 47 80 78 92 127 115 92 129 71 92 79 88 160 130 38 95 54 117 64 96 60 101 82 80 80 91 79 169 91 91 85 110 149 78 112 76 128 123 103 153 58 59 93 93 90 102 80 58 127 100 88 80 82 115 109 124 77 33 129 67 108 73 84 135 129 123 36 112 144 43 53 71 91 120 87 74 135 68 54 98 110 192 114 144 127 166 73 83 111 109 118 100 51 83 46 93 64 66 123 80 49 97 82 73 21 112 85 43 146 28 134 112 132 53 83 33 95 31 74 57 76 102 121 28 122 129 100 98 50 161 52 86 11 96 89 80 184 144 32 81 112 91 133 105 67 141 137 77 54 111 87 76 88 93 73 76 141 93 46 104 113 99 76 127 57 88 50 33 145 105 38 170 75 57 77 117 77 87 82 91 91 98 74 97 103 62 89 79 109 119 69 104 59 92 137 46 64 83 136 49 111 107 74 97 126 125 130 60 31 75 99 61 54 78 128 85 72 61 112 99 102 125 161 60 118 89 65 85 79 111 51 110 91 140 36 31 123 90 54 117 102 73 102 48 36 156 114 129 47 84 127 79 90 85 88 104 82 88 160 54 115 168 110 111 100 92 55 69 99 149 113 122 123 69 133 53 95 108 125 63 52 145 125 83 119 44 81 111 34 171 102 59 116 93 131 86 86 97 75 79 81 98 109 71 71 129 100 112 87 38 109 73 151 74 116 51 71 48 59 69 55 91 70 103 106 78 94 64 71 94 117 52 118 97 101 116 106 122 151 104 87 51 77 73 111 109 87 79 138 84 52 89 110 77 128 169 73 60 49 49 107 106 91 50 110 64 63 115 73 98 70 128 74 63 105 141 115 44 111 44 42 63 24 62 69 100 115 90 52 116 98 74 124 87 103 101 123 69 71 52 89 117 42 85 135 138 61 119 91 120 65 82 25 84 58 116 156 142 61 139 53 61 121 117 79 100 63 73 103 59 60 62 71 173 161 174 101 88 74 55 34 92 135 81 72 100 72 83 84 123 72 133 64 30 73 90 77 85 86 97 82 126 123 104 118 68 115 84 61 69 128 10 111 62 68 95 107 93 97 79 151 140 54 124 89 122 144 81 83 87 112 38 123 71 72 116 67 62 82 53 33 48 155 62 42 22 75 89 123 74 154 161 49 60 82 135 143 108 132 93 74 128 73 97 103 103 68 139 52 85 91 81 121 89 233 70 100 75 60 93 114 99 74 89 101 127 77 80 62 138 97 123 100 49 66 100 73 104 111 150 136 95 62 117 152 56 87 68 86 160 67 166 152 127 80 127 78 118 140 102 76 154 156 106 116 121 60 73 137 85 156 142 42 52 195 96 107 133 75 117 125 123 115 127 42 29 73 87 153 104 57 103 98 112 77 105 103 114 133 133 205 93 78 70 96 40 142 57 88 73 67 91 74 105 21 94 49 80 117 81 103 99 67 100 113 115 97 104 87 132 62 110 111 169 148 50 93 85 100 52 135 159 137 55 141 59 69 141 60 79 106 102 90 109 100 125 134 75 112 53 78 137 66 106 49 46 119 115 99 86 118 127 57 113 30 67 118 77 95 104 57 135 71 54 101 71 123 70 91 120 86 65 65 68 91 112 43 61 252 137 69 96 75 136 81 102 113 75 95 138 65 141 93 115 56 82 122 85 71 110 63 61 87 90 51 102 133 57 131 77 42 28 145 100 60 107 112 33 77 136 85 103 79 90 97 40 154 104 63 88 84 81 144 98 104 70 69 104 51 60 119 119 129 34 33 75 80 90 38 82 95 53 48 103 53 84 96 83 64 115 184 97 132 61 72 142 64 174 71 49 131 97 52 114 91 119 29 95 130 74 70 161 101 105 37 66 70 149 144 118 84 131 58 36 66 27 101 107 134 75 79 134 65 77 42 83 125 120 152 103 81 91 84 83 123 146 102 95 18 137 137 90 81 128 11 133 72 119 51 103 40 96 102 95 69 135 79 154 85 99 82 135 91 44 90 114 77 81 137 96 102 75 17 135 162 67 61 84 68 55 42 70 56 41 118 75 69 122 61 49 118 101 109 79 81 130 83 203 75 137 100 46 68 79 68 66 121 126 96 124 48 84 128 70 90 47 99 74 125 46 155 58 88 38 154 130 75 87 25 68 156 80 141 81 103 38 120 50 41 53 49 67 95 64 87 78 123 151 97 92 96 135 29 42 89 81 84 104 81 89 131 42 50 70 64 47 63 100 41 122 20 128 78 76 86 117 64 172 140 80 92 58 60 159 115 107 102 185 107 72 124 129 153 72 75 88 108 83 51 57 42 76 59 59 95 91 80 103 92 84 134 97 93 94 78 41 164 38 139 127 54 77 46 40 64 95 69 83 138 51 116 83 50 103 49 79 48 94 27 109 177 115 101 114 105 127 64 137 189 170 56 90 103 29 182 120 125 123 59 121 77 88 92 134 94 92 65 102 92 100 138 100 42 58 65 35 67 109 84 86 107 121 86 104 131 72 85 90 72 96 99 55 163 56 98 136 34 50 29 66 146 53 54 101 59 137 147 76 96 137 52 74 112 150 69 109 144 40 54 102 143 52 78 71 179 68 110 72 79 52 72 97 21 76 115 119 55 113 67 42 131 69 35 84 83 97 64 95 86 186 133 81 58 72 145 41 81 69 101 78 145 62 79 63 60 80 88 31 89 71 85 44 73 114 147 52 110 204 141 58 13 89 28 58 66 55 86 89 61 92 136 67 96 76 89 54 109 91 22 36 131 98 89 145 42 91 92 100 130 112 98 112 141 106 58 53 78 83 110 168 70 157 90 77 106 146 47 87 73 124 45 146 70 137 113 24 122 137 142 86 56 107 112 78 132 95 70 83 116 67 106 113 53 125 81 152 130 91 95 61 38 96 156 88 80 62 47 75 10 88 141 73 107 91 121 50 138 81 177 99 32 88 59 74 81 148 77 67 105 61 88 91 92 148 120 153 71 81 75 59 129 89 29 60 123 127 50 145 93 80 111 44 91 11 88 88 121 84 178 89 145 121 75 99 154 95 94 47 96 101 53 54 65 85 68 96 90 112 123 180 122 103 156 57 153 116 56 88 84 144 145 144 104 91 94 101 39 68 55 48 88 77 108 87 90 109 58 111 60 25 20 101 70 111 80 109 108 57 126 185 87 71 64 82 73 106 91 135 98 91 72 118 169 127 78 125 88 158 150 75 109 57 73 54 140 72 67 132 76 40 111 41 87 57 69 136 130 127 89 122 112 99 117 67 103 116 87 90 130 90 116 150 66 84 100 43 94 115 72 96 71 107 111 47 75 79 73 89 64 117 65 50 92 115 162 103 50 24 59 103 106 139 177 91 52 90 82 64 51 39 31 49 117 175 91 104 92 165 93 165 127 87 115 121 76 47 141 63 64 146 83 64 76 52 97 64 72 85 70 62 64 123 97 136 91 120 67 68 95 83 135 155 139 75 77 144 57 36 56 88 104 73 61 142 142 71 41 147 165 77 95 88 60 79 116 59 92 75 89 95 158 95 50 58 77 80 58 108 59 99 104 87 91 75 114 65 126 87 47 117 77 50 80 104 56 55 125 90 103 141 82 50 145 123 74 40 86 90 26 70 113 139 37 78 72 120 90 111 62 48 68 116 77 126 98 112 59 127 47 95 68 108 121 35 105 49 67 64 87 144 72 126 49 145 125 66 86 57 129 95 53 63 80 39 65 69 25 82 99 73 115 68 119 44 124 134 135 97 30 66 79 56 25 65 111 74 123 101 89 83 72 103 84 69 108 98 87 103 106 117 47 106 154 125 125 93 45 85 107 76 83 123 95 130 154 15 63 79 116 118 90 76 109 131 71 76 94 121 67 143 72 119 44 111 86 49 64 141 78 81 64 74 67 68 73 103 86 103 105 77 50 134 52 57 73 56 68 88 82 76 77 125 92 146 61 74 129 134 83 102 101 101 83 80 47 129 87 143 142 101 53 56 99 113 85 100 107 105 109 120 83 77 83 57 101 74 84 43 81 92 125 115 76 91 145 79 112 90 95 129 65 82 89 90 187 86 58 53 76 65 72 45 84 135 147 102 52 72 106 56 75 90 154 34 90 120 150 54 157 70 25 118 92 112 112 123 116 104 42 51 160 154 58 112 66 124 140 80 59 62 97 147 129 106 130 82 52 115 157 69 110 89 81 94 127 104 111 78 108 96 108 71 89 84 42 177 75 104 90 53 49 105 92 126 73 76 58 55 58 35 169 147 153 119 189 117 85 40 90 86 142 233 87 83 59 72 45 59 60 77 25 108 75 89 104 75 72 49 72 152 143 51 102 129 44 38 84 98 93 108 117 117 44 41 161 30 51 100 82 54 114 116 42 134 49 34 66 61 33 113 216 198 39 106 74 174 70 59 109 137 130 99 95 57 27 145 88 34 104 76 111 99 122 119 110 84 73 79 94 59 116 68 165 55 44 82 83 60 47 94 99 145 105 96 33 41 100 39 35 49 46 88 130 84 116 145 64 87 83 39 147 66 127 105 88 91 135 57 121 95 116 51 53 67 25 49 99 128 130 52 128 84 72 110 56 112 104 144 105 69 64 76 100 56 79 49 73 26 132 57 76 83 87 79 53 144 119 86 148 147 68 55 102 165 92 146 47 45 126 36 107 70 120 63 42 76 94 84 107 57 130 168 96 55 47 137 86 113 46 134 68 69 96 109 172 145 161 22 61 77 89 144 99 97 85 120 78 61 56 93 60 28 90 36 126 75 133 105 54 104 67 82 85 55 157 119 79 106 78 47 57 84 82 64 125 70 127 72 91 102 60 88 103 53 101 140 101 68 116 162 64 85 118 114 63 111 98 86 97 55 115 40 119 73 119 158 27 92 45 140 92 64 96 97 87 115 64 73 73 90 75 39 102 131 42 78 57 120 71 87 124 133 26 113 110 91 111 77 114 85 59 56 141 85 70 81 76 110 117 138 35 91 88 65 124 77 60 145 55 102 58 62 69 71 14 85 122 77 127 100 163 60 111 51 129 34 41 169 54 84 47 134 138 117 84 100 60 122 40 117 35 34 72 115 169 40 89 40 220 110 61 115 67 84 48 101 94 92 151 65 31 61 107 112 75 81 96 119 62 153 148 36 107 121 144 196 108 39 134 84 70 135 63 94 116 33 109 112 169 74 96 88 43 66 73 142 54 99 90 57 55 109 52 79 57 147 137 123 37 118 63 129 43 83 88 185 88 129 92 115 70 115 117 98 49 145 153 90 135 77 86 146 135 169 133 33 66 103 75 60 59 53 95 56 80 164 69 105 59 74 121 121 55 130 92 144 62 89 60 79 44 125 79 86 112 106 135 130 80 117 127 155 86 73 112 126 127 65 157 90 53 50 98 78 120 89 43 113 96 105 91 51 113 73 104 75 88 69 96 137 119 98 125 106 94 88 109 97 81 85 100 197 44 132 106 101 104 119 85 149 85 122 61 133 87 47 64 35 137 48 113 99 150 69 94 77 41 85 46 91 51 76 102 79 100 128 101 58 99 88 70 39 58 44 123 58 81 127 128 115 123 102 100 125 101 110 82 87 131 42 143 78 43 133 26 71 47 89 118 43 51 48 68 59 129 82 39 142 122 95 75 71 116 101 78 132 96 109 89 99 51 50 77 129 105 97 134 101 136 98 89 82 151 74 82 56 101 59 55 84 63 69 65 84 108 35 51 132 120 48 84 93 19 110 104 90 38 81 49 89 36 74 99 85 83 61 78 130 164 85 58 131 69 78 97 111 111 50 77 67 35 115 52 76 143 110 86 49 58 95 110 55 132 66 126 83 73 93 108 88 106 105 87 70 87 71 36 71 136 73 42 60 58 68 97 123 79 126 105 47 195 64 88 75 96 100 92 62 145 79 60 185 135 75 92 152 53 86 93 121 109 80 77 107 77 49 56 126 73 112 114 68 56 110 64 41 110 137 101 100 67 125 53 67 81 44 141 28 81 102 87 147 87 127 149 93 137 121 111 111 64 63 100 100 50 48 95 96 86 103 61 102 114 55 47 112 78 45 80 113 90 91 52 73 80 105 58 73 84 103 58 60 115 86 46 124 24 62 104 46 160 84 105 71 55 110 177 58 123 85 91 107 39 111 30 95 154 70 71 138 44 53 150 136 82 72 58 118 106 67 68 103 46 135 95 168 96 53 63 89 78 108 90 67 60 70 78 143 156 86 102 67 87 122 142 48 98 89 67 91 122 86 42 86 83 65 82 97 125 77 99 88 71 140 133 73 112 55 61 95 85 60 109 60 43 102 91 102 55 130 111 124 67 40 74 79 103 87 108 96 88 83 104 121 81 91 105 77 88 83 52 114 177 97 62 91 102 120 107 72 93 93 35 43 32 61 62 100 71 70 122 42 109 62 90 33 124 31 95 98 88 73 33 102 63 126 49 64 155 107 61 62 131 117 90 47 157 146 89 38 86 78 101 112 163 114 47 67 117 92 112 108 100 39 72 114 111 165 93 30 57 130 146 107 97 55 140 129 43 183 81 137 144 95 78 73 84 98 64 115 64 65 153 89 114 155 74 141 106 77 57 64 84 156 87 155 95 56 62 34 66 155 149 83 59 185 72 135 100 85 77 186 135 97 109 56 50 63 186 130 90 90 99 69 113 98 57 161 83 88 136 94 86 105 66 96 53 190 121 92 31 148 99 102 64 56 133 68 78 84 62 112 65 72 90 110 76 88 91 52 95 97 51 90 56 42 102 99 171 129 83 64 129 31 82 88 120 16 109 69 63 105 104 73 80 64 95 90 114 115 76 165 70 160 96 117 81 111 75 148 76 91 58 117 94 135 65 68 158 92 67 68 112 82 134 137 108 61 91 85 105 70 143 99 98 42 91 84 61 187 86 117 99 44 40 105 118 35 58 114 63 73 91 64 120 79 79 153 122 159 119 90 93 101 109 128 75 94 52 126 67 81 67 159 120 70 125 94 85 115 41 23 83 156 89 15 186 71 117 65 43 131 82 130 83 105 135 59 119 117 104 40 44 91 106 74 122 119 62 105 95 133 57 47 62 45 103 89 49 111 73 93 101 63 62 119 99 107 82 152 81 102 157 42 73 121 72 95 95 81 128 26 101 44 85 90 105 41 105 42 96 43 164 127 101 81 89 77 67 120 42 49 75 116 63 94 62 118 101 115 60 105 56 47 31 118 96 110 141 95 74 59 163 72 93 79 99 95 69 47 179 108 82 88 48 98 121 38 121 80 159 77 77 99 130 65 45 96 102 79 119 85 34 130 105 52 68 113 59 64 166 31 90 85 61 105 27 119 12 32 76 156 48 68 105 34 97 175 72 124 83 119 78 25 54 147 59 72 62 60 143 127 66 80 74 47 130 118 80 126 60 114 98 106 103 54 133 91 61 84 45 163 86 106 61 118 127 106 94 117 125 100 141 98 26 61 70 55 25 95 82 95 54 114 41 69 96 45 76 106 81 -1 135 132 27 143 95 116 60 123 99 30 81 40 137 65 166 109 110 71 66 90 92 96 158 79 71 147 114 47 116 46 67 117 173 63 108 107 75 119 109 85 23 46 94 81 87 105 117 105 117 98 152 106 74 77 44 27 79 151 70 132 58 82 63 71 86 118 47 94 73 137 91 106 89 61 120 45 117 58 73 90 82 58 76 85 105 127 77 40 98 84 88 79 49 66 159 92 156 187 83 57 48 57 121 69 90 150 54 29 66 95 92 75 31 110 117 97 63 120 91 86 45 42 134 77 25 153 32 138 92 138 64 48 121 65 121 60 41 68 45 80 153 31 125 104 96 75 61 92 116 35 88 62 62 126 113 77 140 125 57 87 80 109 152 72 107 125 53 89 20 47 31 62 105 137 80 108 129 110 44 94 31 91 128 166 114 92 99 125 134 105 85 70 90 109 48 41 116 189 121 44 95 76 77 83 92 96 161 69 62 144 135 98 107 141 109 156 69 88 59 36 110 116 109 137 19 83 103 112 145 76 92 73 119 129 149 63 39 108 148 128 94 72 120 74 30 28 80 65 100 87 43 92 77 90 140 68 89 111 117 57 58 118 127 98 109 70 101 93 53 122 69 50 43 69 46 61 102 118 124 110 134 118 112 97 40 93 69 48 67 146 69 54 120 109 77 46 98 101 85 60 113 121 86 112 72 127 80 32 76 88 90 146 71 63 65 61 75 113 118 115 118 128 93 52 94 65 115 136 99 77 71 164 116 42 65 76 79 80 92 112 47 78 83 129 113 113 68 89 88 156 109 172 70 102 124 110 64 76 80 142 55 118 105 100 97 101 94 141 77 73 97 64 51 141 157 68 52 74 155 68 78 127 73 36 77 144 67 52 34 82 94 70 108 53 83 106 91 104 76 125 32 76 54 105 81 91 58 157 80 113 56 153 115 68 127 86 110 133 157 41 52 65 82 48 88 52 110 166 73 107 80 59 99 90 34 164 42 48 48 86 168 58 98 116 110 61 76 45 59 94 111 36 60 118 154 125 91 59 58 79 103 101 121 81 81 81 41 53 96 76 76 68 106 58 148 29 39 121 91 75 102 73 132 166 92 195 67 88 71 103 44 86 77 51 106 86 64 88 95 94 118 80 81 57 126 39 110 37 102 70 54 97 108 117 42 111 130 183 59 115 69 70 132 50 53 86 55 117 37 97 63 85 126 106 55 82 125 138 130 76 101 120 46 136 111 73 96 75 112 63 51 150 34 168 100 36 75 58 54 98 58 78 137 148 79 44 103 70 77 89 146 65 63 102 84 89 77 62 70 24 81 66 48 188 180 22 106 121 93 63 117 77 77 113 74 76 112 143 73 84 90 67 74 130 67 133 60 35 91 48 136 87 78 52 129 60 50 120 58 140 59 78 84 123 76 65 60 148 114 146 82 83 111 47 45 71 87 44 62 79 113 93 94 168 89 58 59 114 82 135 162 120 86 35 63 30 103 58 171 154 66 87 135 119 89 100 126 78 102 85 122 76 78 104 79 148 70 37 93 132 133 29 74 124 72 137 45 33 104 150 79 52 94 75 88 117 84 88 94 61 96 80 65 49 67 69 66 83 91 96 109 113 65 113 102 104 79 85 93 68 110 30 61 69 49 111 56 88 133 68 90 137 86 130 170 104 131 124 73 118 130 75 95 108 74 120 93 89 106 64 79 88 52 62 101 75 150 58 118 59 82 107 109 90 81 75 69 111 81 184 109 117 74 73 86 143 71 127 92 49 117 130 54 102 74 135 66 40 123 53 82 153 41 106 79 71 76 84 52 87 90 87 60 125 65 96 150 62 85 83 85 122 83 114 87 46 76 77 41 116 101 56 114 108 68 71 85 59 99 149 105 129 52 50 90 20 133 150 70 65 76 65 54 114 44 61 128 94 62 78 79 132 91 25 142 61 36 75 63 88 115 102 130 49 94 100 111 87 19 89 83 81 123 68 79 75 90 116 54 154 135 158 100 101 77 84 84 100 111 68 109 91 92 75 75 27 40 61 101 38 106 115 110 79 96 65 68 127 107 57 96 109 130 99 120 71 65 79 151 58 106 73 111 121 73 86 119 147 101 69 88 36 23 104 45 110 95 154 113 183 152 67 134 150 124 70 78 170 164 101 12 25 51 102 53 61 54 107 125 111 55 85 80 72 95 158 64 57 106 110 139 27 148 145 50 100 137 73 81 153 134 133 76 100 69 98 64 122 98 92 61 59 32 95 89 17 40 58 140 56 56 83 62 54 154 73 61 67 93 93 55 138 102 87 107 156 82 59 173 73 152 105 91 90 189 68 99 64 143 94 69 120 115 122 50 50 69 60 73 35 87 85 67 141 136 99 103 78 64 52 94 98 61 70 111 56 124 66 141 60 45 33 114 61 106 88 174 126 102 104 44 73 83 38 144 130 101 116 107 186 65 67 132 33 109 110 62 123 104 132 82 108 53 50 77 97 57 71 184 117 80 47 107 94 31 84 138 137 81 121 58 79 68 92 116 45 74 119 163 117 158 53 51 96 90 59 112 70 93 145 128 115 75 73 50 116 90 34 100 104 51 63 70 19 145 140 57 96 89 107 79 64 130 126 92 72 66 90 164 127 56 88 97 74 75 136 72 88 98 71 111 172 94 120 76 55 77 121 54 63 133 130 185 106 91 64 46 141 99 94 129 73 38 65 100 87 83 93 90 102 71 66 90 111 65 91 45 76 96 94 127 132 84 79 96 130 101 85 67 114 79 83 44 50 17 174 109 80 155 104 103 33 100 112 138 144 60 49 64 62 96 105 48 67 71 107 131 89 48 81 155 81 58 41 94 75 74 125 81 41 84 138 104 103 66 37 73 75 96 85 77 82 74 119 113 56 157 49 64 57 102 53 128 142 146 103 101 55 164 119 58 47 105 133 70 89 90 82 68 36 79 184 69 65 141 55 87 50 128 136 39 143 84 61 97 79 75 67 104 72 97 87 99 82 156 79 89 106 97 162 84 82 78 185 118 84 137 74 68 116 70 123 81 111 95 107 101 91 212 112 97 74 46 79 142 116 79 74 55 116 135 124 88 122 78 75 221 99 145 56 52 52 63 134 73 40 76 83 115 85 56 79 88 140 70 47 98 120 135 138 73 116 159 160 126 130 79 61 109 43 129 63 165 84 144 88 128 127 82 55 67 73 95 162 133 215 92 79 79 33 117 52 100 87 110 65 77 88 26 57 79 126 122 112 57 80 168 73 114 127 148 85 171 110 77 73 60 99 56 113 97 75 85 87 81 34 78 79 102 106 120 138 154 43 70 36 36 82 158 25 101 88 81 138 112 136 46 75 120 100 39 31 110 141 133 88 80 90 74 74 149 167 69 68 107 95 71 86 98 120 80 111 70 96 87 88 134 62 88 124 78 81 134 127 110 117 68 80 68 68 119 160 93 68 77 139 80 86 82 76 118 93 117 60 52 137 106 104 71 65 97 58 81 91 144 45 113 102 143 104 68 112 76 39 66 88 75 123 172 74 153 86 72 70 185 41 127 74 44 116 61 115 50 76 78 72 71 139 22 108 50 58 85 120 118 89 48 16 133 71 82 101 99 89 55 138 57 22 109 39 69 113 79 50 149 114 105 127 97 72 48 91 95 53 66 116 126 117 100 79 77 139 47 63 95 113 74 80 74 36 91 42 49 53 115 111 75 117 106 57 66 70 62 79 106 48 147 112 49 104 58 115 76 75 87 143 96 140 114 60 98 62 74 77 96 60 92 88 117 78 113 130 50 83 87 41 85 108 78 75 134 119 93 91 96 24 132 15 69 197 66 69 112 135 83 143 78 120 97 76 98 104 103 77 109 34 158 64 98 87 76 81 59 96 37 127 60 68 88 32 64 45 77 116 94 104 24 95 82 50 73 125 98 109 36 67 94 107 13 81 112 55 69 127 90 169 59 83 66 15 125 86 145 48 65 30 183 64 38 107 80 77 101 76 62 23 81 60 139 69 56 77 50 66 93 116 72 78 77 93 157 103 36 96 117 160 105 59 160 86 52 53 55 89 154 133 76 152 66 124 65 34 73 92 142 94 79 112 140 53 82 74 87 85 104 51 128 102 115 73 125 74 130 53 104 127 62 30 63 66 96 84 130 125 45 117 98 40 125 82 94 84 65 37 128 94 70 37 117 120 60 144 74 48 77 96 111 148 110 74 108 62 124 97 34 77 74 112 84 73 133 106 116 98 84 44 32 110 99 94 98 41 147 48 35 99 96 74 76 69 106 66 158 97 74 105 103 110 108 75 47 75 86 63 106 89 120 59 75 78 33 115 68 85 83 103 63 192 109 96 112 138 134 108 142 93 76 90 155 137 139 128 88 69 133 101 109 40 81 35 91 92 111 127 143 80 109 84 66 168 92 64 92 65 23 51 64 111 132 94 68 56 118 73 97 53 114 63 147 93 78 73 75 56 130 154 82 95 73 66 100 119 37 92 54 75 45 87 148 74 110 87 75 93 93 71 52 105 114 106 127 61 80 79 91 6 118 101 68 128 199 101 27 82 133 115 61 103 95 105 64 47 60 78 108 67 91 81 84 121 86 59 162 107 136 55 77 138 34 120 40 61 81 113 82 37 84 97 133 63 94 44 68 53 50 185 78 133 183 100 90 80 31 82 113 139 105 112 65 91 117 65 103 99 115 95 112 136 32 82 186 81 84 31 49 176 56 55 79 47 145 41 96 106 62 155 46 67 132 42 107 137 105 84 166 150 122 62 84 65 94 100 79 80 66 60 91 32 50 114 74 91 10 86 58 115 62 106 87 108 29 73 83 123 143 94 102 100 104 18 64 52 75 150 135 146 53 98 59 41 67 44 113 18 60 75 117 81 48 96 85 95 72 60 135 52 114 139 55 65 48 133 68 66 120 140 102 69 139 92 68 106 140 142 81 113 138 111 69 85 129 83 69 77 87 82 65 65 110 100 94 167 144 81 96 73 105 65 145 163 75 145 86 114 55 88 187 111 165 94 99 44 157 79 116 109 66 63 109 71 112 79 69 71 143 89 85 92 127 86 62 7 109 92 70 107 58 139 119 152 91 72 80 53 60 62 72 77 194 137 125 66 151 123 68 77 128 47 72 95 75 145 57 32 119 66 101 69 30 78 205 85 91 39 118 97 37 89 102 77 63 99 70 68 64 122 34 79 105 105 36 212 107 84 135 126 113 144 100 65 38 58 163 77 42 124 115 73 98 48 57 74 64 51 82 114 115 50 85 73 100 84 141 80 98 97 106 119 63 61 99 84 122 94 147 77 146 114 130 134 105 53 96 42 81 118 67 52 136 89 60 104 107 151 89 177 73 47 85 38 138 86 136 202 77 139 118 120 93 91 152 57 57 56 59 62 79 94 130 171 72 106 40 93 47 114 96 38 95 84 110 102 70 77 13 32 148 90 64 61 45 132 113 114 93 91 37 31 80 124 59 112 76 53 82 45 84 106 57 79 23 83 84 77 142 104 93 70 107 95 91 87 60 171 87 66 120 74 88 46 106 97 93 142 125 110 60 131 91 44 143 107 150 160 94 49 95 91 74 45 97 109 110 105 51 173 87 50 53 89 43 116 34 38 45 36 106 97 68 113 55 72 68 80 74 101 89 64 65 41 147 91 87 58 79 25 70 165 69 62 91 41 88 91 99 53 164 128 41 69 72 63 85 92 68 68 58 87 47 45 61 30 64 103 49 112 106 78 17 75 144 79 110 123 79 83 117 139 61 86 62 155 136 71 86 73 56 125 103 89 36 94 48 198 80 42 24 66 73 85 193 87 80 88 166 51 50 88 128 113 104 81 63 122 114 57 70 27 88 89 30 135 154 108 55 73 69 87 56 87 106 97 82 98 78 166 82 105 144 103 93 96 130 94 66 59 53 75 17 76 102 82 122 126 112 106 68 117 91 114 76 116 52 67 149 193 131 72 54 103 29 116 71 47 137 127 95 33 28 77 82 92 29 153 101 52 108 99 126 98 52 108 96 135 88 75 126 136 86 105 132 105 105 65 150 58 79 66 60 109 162 83 76 92 114 91 57 82 60 75 34 98 58 118 172 102 107 74 76 25 66 87 92 77 152 59 40 52 35 113 58 88 139 64 59 157 52 74 129 83 103 146 90 48 67 129 27 59 69 49 88 103 109 133 120 132 106 104 138 110 149 108 37 72 122 38 121 168 50 156 98 83 93 146 102 95 64 140 105 187 69 69 111 102 79 103 78 135 65 135 18 97 72 84 118 137 55 41 137 140 114 93 46 125 124 107 82 138 72 43 158 33 64 40 63 69 81 101 87 130 90 47 78 64 80 66 83 66 76 136 49 110 106 56 65 71 58 163 48 157 108 74 141 65 75 96 98 99 83 73 58 56 95 105 134 56 92 112 61 117 107 104 53 109 114 84 30 82 101 58 141 63 47 158 117 55 77 69 139 59 76 88 79 87 81 64 55 128 101 106 121 102 81 107 71 49 98 106 113 165 107 81 105 103 97 90 74 108 164 146 66 73 132 177 87 142 66 52 130 94 66 60 66 85 47 119 42 86 79 77 82 67 122 97 108 60 84 75 146 190 80 77 94 84 103 83 133 32 124 60 41 68 103 98 57 102 146 64 80 133 67 90 69 31 79 85 99 64 133 72 114 102 116 107 99 73 118 160 119 103 87 93 62 69 91 152 97 87 44 89 53 39 72 39 79 93 42 106 95 14 62 95 80 59 93 83 82 89 76 58 87 70 55 52 167 46 68 136 82 126 139 140 132 117 63 78 108 47 42 113 129 84 146 114 67 159 102 100 66 49 83 44 50 93 104 43 84 123 39 64 65 43 33 112 114 77 102 83 76 116 71 76 84 94 94 114 159 54 91 101 134 158 98 88 66 24 105 136 43 129 170 122 62 92 88 68 160 91 90 131 65 55 140 52 67 60 99 127 37 83 120 53 72 69 143 63 127 93 97 79 145 57 129 74 86 51 109 88 52 103 113 84 39 158 107 28 65 100 85 113 85 89 131 128 123 57 101 72 139 88 121 158 77 82 116 132 51 115 106 83 80 106 91 110 61 56 26 76 118 169 110 41 79 69 133 112 122 43 87 107 154 125 160 141 108 70 74 49 135 27 150 64 93 148 82 110 82 52 109 120 161 131 141 139 146 28 103 112 120 79 84 67 138 59 142 58 150 146 71 95 109 98 96 20 87 96 90 53 125 62 127 68 109 146 71 46 83 149 125 154 129 133 115 229 84 60 102 69 70 86 114 153 89 90 65 99 96 87 82 130 38 83 42 101 84 122 71 118 202 65 92 124 115 32 56 89 82 83 94 135 55 105 99 31 40 77 85 43 62 61 84 68 91 130 134 68 144 91 125 88 51 123 87 113 145 66 104 121 94 140 66 62 78 126 71 95 89 82 44 69 66 175 48 68 107 53 54 188 69 122 95 60 124 66 188 129 46 86 201 120 112 83 75 93 60 61 42 128 111 138 48 55 35 53 58 141 115 160 155 73 99 59 80 58 131 147 29 94 35 116 146 117 78 75 86 111 89 96 94 133 112 90 91 83 123 46 92 86 59 62 160 76 22 55 88 101 50 113 86 137 132 86 77 78 100 94 115 99 59 109 117 57 132 86 100 70 68 109 99 105 122 31 78 111 103 85 121 134 97 43 120 56 60 91 98 60 104 105 24 54 96 152 69 51 152 96 62 124 62 101 83 85 169 133 160 37 64 84 66 111 80 84 57 90 59 131 64 127 124 94 102 123 94 90 147 82 104 123 74 98 138 88 64 110 88 68 85 101 133 88 189 60 143 122 97 67 75 86 65 73 95 121 48 186 69 124 123 90 108 121 89 127 74 150 103 131 97 73 74 113 53 85 136 98 105 138 148 103 113 167 86 144 96 108 133 114 79 120 90 97 136 185 80 122 66 121 63 126 76 94 102 59 167 109 108 135 169 58 65 99 92 63 85 103 95 56 30 113 116 96 98 72 92 88 84 85 93 94 93 82 68 25 124 63 42 119 41 50 111 66 57 90 125 95 89 106 74 118 90 90 79 77 93 39 86 153 48 100 134 71 104 85 89 97 99 73 119 96 80 159 98 31 90 83 93 50 79 100 41 106 84 130 100 129 184 98 102 94 98 75 30 97 53 86 89 74 71 93 99 157 68 15 170 62 88 119 112 123 99 122 101 147 77 167 97 95 114 91 81 29 57 43 89 116 113 56 71 80 86 58 84 101 63 57 131 51 79 149 95 69 67 122 79 108 132 92 68 171 38 74 93 69 99 92 95 149 66 119 49 122 127 91 90 80 146 70 43 177 23 97 120 53 43 133 40 54 166 95 65 108 168 50 43 83 100 102 124 65 31 107 24 193 143 125 74 80 60 101 32 124 108 124 72 75 93 86 93 99 69 106 129 63 104 124 134 59 120 111 48 151 75 87 91 92 95 83 118 139 100 71 41 112 85 67 111 98 89 49 110 27 32 76 111 83 91 46 76 117 59 74 100 56 93 144 124 47 107 83 102 117 88 37 116 109 88 161 34 62 101 142 99 69 80 128 60 84 77 76 139 82 58 123 22 70 82 50 80 57 37 95 114 85 73 118 40 138 41 123 89 39 131 71 201 143 113 83 105 76 111 70 123 99 134 147 158 131 147 163 164 148 81 22 67 46 108 70 63 70 73 78 29 124 132 74 94 128 101 96 133 119 83 110 48 75 105 108 63 79 85 83 73 60 123 96 66 106 75 141 84 70 107 148 183 39 33 96 84 169 82 80 78 46 107 105 87 100 46 90 99 138 137 99 66 90 38 74 30 92 52 123 128 134 101 108 101 87 40 121 130 111 10 130 91 46 64 21 114 88 96 127 136 75 63 83 39 91 101 61 180 100 75 102 90 93 97 116 86 159 69 69 104 180 175 130 55 41 110 94 56 116 57 83 45 62 76 125 87 108 101 83 38 127 40 88 48 63 107 73 132 33 95 132 98 150 52 50 135 121 60 113 60 68 108 71 122 111 95 89 82 59 69 95 103 94 35 170 64 54 128 96 62 53 58 94 86 60 102 112 127 85 103 81 111 84 110 102 83 162 98 82 121 60 126 137 104 85 108 61 113 94 58 114 73 86 84 108 112 123 107 94 117 45 60 108 39 66 66 57 60 179 85 55 48 120 99 94 61 90 57 117 121 98 114 80 39 190 62 109 59 73 183 107 59 38 128 138 37 75 106 56 31 116 171 118 91 113 87 102 55 100 41 45 55 62 59 133 85 96 73 162 71 96 39 48 75 50 98 89 162 79 116 122 40 45 100 70 128 66 124 88 54 50 68 167 53 50 143 72 67 127 18 107 121 120 57 192 80 55 77 82 64 25 64 79 51 146 21 96 63 143 174 64 45 100 131 75 69 154 64 103 98 117 64 77 84 162 94 63 110 79 129 118 61 74 119 63 113 48 59 86 64 83 34 118 140 87 55 108 108 46 206 103 67 113 91 114 54 56 59 59 102 21 88 127 106 34 91 91 168 137 61 84 65 116 134 114 81 82 64 90 144 92 116 74 91 125 95 57 130 56 73 77 86 99 97 119 73 156 85 68 155 73 108 53 200 66 66 59 121 72 104 105 94 27 69 105 51 57 95 62 133 102 87 85 87 29 97 134 61 92 56 102 140 78 28 70 91 112 109 77 73 85 121 39 109 107 48 140 121 90 153 18 134 29 116 100 90 160 40 73 103 55 70 111 69 82 59 110 85 107 88 112 108 149 121 75 41 98 58 72 85 135 53 40 62 78 66 81 88 117 139 73 94 61 23 100 92 128 95 77 88 92 62 60 109 73 72 83 102 103 58 60 115 105 89 76 70 75 113 51 102 87 134 97 131 95 91 124 90 87 59 106 96 109 103 59 117 135 72 70 87 208 75 80 143 75 73 20 98 64 59 87 72 89 99 74 106 121 81 119 67 7 68 104 64 100 161 57 69 112 69 140 91 109 50 74 74 86 99 112 26 56 119 149 115 118 59 70 56 79 35 96 110 129 159 80 158 96 99 144 134 56 106 108 90 124 157 176 109 82 69 67 76 125 113 75 55 70 111 88 75 100 124 120 77 79 133 105 110 97 102 70 54 60 110 119 107 98 107 109 114 136 143 102 52 66 59 80 80 168 66 77 52 21 45 147 72 121 131 67 81 49 92 201 141 78 59 109 79 125 73 145 82 69 123 82 119 31 71 72 106 111 78 77 54 73 112 72 91 82 54 76 66 84 100 77 91 117 120 92 39 39 56 78 121 124 73 78 73 80 28 99 118 142 82 55 21 78 77 50 137 50 63 39 112 118 85 128 30 136 60 36 153 118 106 68 98 71 105 68 104 76 73 133 119 76 133 112 164 60 75 118 83 74 119 117 38 121 85 127 98 81 98 52 95 73 107 152 143 59 120 119 132 28 83 163 135 139 88 61 174 93 55 87 90 41 29 74 164 82 114 94 126 98 152 111 60 95 79 117 135 37 88 86 67 62 91 35 104 80 79 77 114 73 41 78 134 96 115 91 35 65 127 109 113 127 97 117 98 46 98 135 137 85 113 74 75 84 69 111 173 35 105 51 155 99 62 67 7 95 75 81 87 124 54 74 91 26 88 53 99 100 104 125 141 113 86 74 89 83 127 68 51 130 93 106 157 102 84 55 164 134 91 49 74 151 112 49 145 46 95 70 97 100 103 132 112 106 82 95 99 100 156 32 80 160 147 136 71 51 123 54 124 46 128 91 112 73 111 79 80 107 153 150 100 46 134 61 57 106 82 51 45 130 95 84 105 92 73 68 90 84 109 94 103 88 107 67 42 182 52 117 97 67 119 67 40 85 28 102 81 121 107 102 55 61 83 72 99 79 131 170 179 111 82 114 55 111 78 55 131 117 44 88 126 83 128 120 120 41 74 92 113 92 100 155 126 60 34 87 54 101 62 103 167 39 117 21 74 10 104 55 82 27 60 121 68 68 107 75 126 148 171 104 57 48 69 129 42 76 59 53 75 150 70 102 82 62 145 52 107 121 120 75 119 61 59 41 98 76 152 78 80 158 96 97 101 105 74 65 162 81 33 133 58 115 104 82 93 41 120 154 89 150 88 50 117 35 123 87 110 89 89 91 125 98 96 61 89 144 137 84 84 110 129 45 90 104 89 160 154 91 61 62 142 125 106 121 78 146 145 75 51 66 114 119 125 108 102 126 140 103 119 102 79 78 184 40 108 116 109 143 73 75 68 87 151 21 119 108 61 108 34 72 116 101 87 100 104 44 57 58 71 82 49 70 106 48 77 102 84 95 103 134 45 70 68 96 108 107 138 19 96 69 45 110 203 30 112 90 94 83 75 55 33 127 130 77 52 119 202 117 79 68 99 161 94 80 114 75 127 84 70 75 77 166 102 72 107 71 78 42 127 111 60 101 133 94 90 168 63 17 95 56 36 114 120 96 190 137 75 126 89 105 160 49 91 70 132 38 63 69 71 88 117 77 89 67 63 138 83 21 129 67 44 32 61 137 170 46 36 118 151 81 71 97 112 21 74 67 96 75 132 119 67 120 134 88 76 81 139 117 124 136 88 102 130 87 122 97 115 107 117 74 78 84 58 46 94 79 83 71 64 63 96 116 51 89 118 160 78 122 98 83 85 59 85 57 159 102 108 165 90 114 76 60 106 150 108 71 96 72 87 135 113 69 35 88 51 60 169 188 17 98 77 105 79 93 96 60 129 68 111 115 34 77 105 59 36 95 73 66 121 93 139 165 119 45 116 74 92 102 51 87 110 82 144 160 137 45 78 98 125 79 53 91 83 69 53 124 111 157 102 52 63 67 196 99 88 75 115 98 93 63 71 109 136 116 155 58 76 112 50 49 50 69 125 126 124 11 56 121 26 140 149 164 68 100 18 108 119 55 89 98 90 111 56 126 76 37 128 116 146 46 150 93 110 128 67 85 97 61 91 76 58 87 48 75 95 61 124 91 59 </t>
+  </si>
+  <si>
+    <t>GAM(0.5909781915595174, -9.406630701241225e-30, 0.5758491511400138)</t>
+  </si>
+  <si>
+    <t>0 0 2 2 0 1 1 0 0 1 1 1 0 0 0 0 1 1 3 4 0 1 0 1 1 0 0 0 1 3 1 1 0 1 0 1 2 0 0 0 1 0 1 0 0 1 0 0 2 0 1 0 4 1 0 2 1 2 0 0 0 2 0 0 0 0 0 0 1 1 1 1 1 0 2 0 0 0 0 0 0 1 0 2 0 0 2 0 2 0 0 0 0 0 1 1 0 0 0 2 0 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 0 0 2 0 1 0 1 0 0 1 0 0 1 1 1 0 2 0 2 0 1 0 0 1 0 1 0 0 1 0 0 2 2 0 0 1 0 1 0 0 1 2 2 1 1 2 1 1 0 0 1 1 0 1 2 1 0 0 2 1 0 2 1 0 1 1 2 0 1 1 1 0 0 0 0 0 0 1 1 1 0 1 3 0 2 0 2 2 0 1 2 0 0 1 0 1 0 1 1 2 1 1 0 1 0 2 1 0 0 0 0 2 1 0 1 0 2 1 0 1 1 0 0 0 1 0 0 3 1 0 1 1 0 0 0 2 0 2 0 1 1 1 1 0 0 0 0 1 2 0 1 0 0 0 2 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 0 0 0 0 0 2 0 1 2 2 1 0 0 0 2 0 2 0 1 1 2 1 1 1 1 1 0 0 2 0 3 1 1 2 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 2 0 1 3 2 1 0 2 1 0 1 3 0 2 1 1 0 0 0 0 0 1 1 0 0 0 1 2 0 1 1 2 0 1 0 1 0 0 0 1 0 0 0 2 1 0 1 1 1 0 0 1 0 0 0 1 0 2 1 2 2 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 2 0 1 1 1 0 2 0 0 2 0 1 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 2 2 0 0 0 1 1 1 1 0 1 0 0 0 1 1 1 1 0 1 0 0 0 1 0 2 1 0 0 0 0 3 3 2 1 0 0 0 0 0 0 0 3 1 3 1 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 3 0 2 2 0 2 1 0 1 1 1 2 1 2 0 1 0 0 0 3 1 0 0 1 1 1 1 0 1 1 0 2 0 0 0 0 0 1 1 2 0 0 1 1 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 2 1 0 0 1 0 0 2 2 1 0 0 0 3 0 0 1 1 2 0 1 2 0 1 1 0 1 0 1 2 1 2 0 0 0 0 2 1 0 2 2 1 1 0 0 1 1 0 1 0 1 1 2 0 0 2 1 1 3 1 0 1 2 1 2 2 0 0 1 0 0 0 1 2 0 2 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 1 2 3 0 1 0 1 0 1 1 0 0 1 0 0 1 0 0 1 1 0 3 0 2 2 0 1 3 0 0 0 2 2 2 0 1 1 0 2 0 0 0 0 1 1 0 0 0 1 0 0 2 0 1 1 2 0 0 0 3 1 0 1 1 1 3 0 2 1 1 2 0 0 0 0 1 2 0 0 1 0 1 0 4 1 0 1 1 0 0 2 1 0 1 0 0 0 1 0 1 2 1 1 1 1 0 0 1 0 1 0 1 0 0 1 0 2 1 0 0 2 1 0 0 0 1 2 0 0 2 0 1 0 0 1 2 0 2 2 1 0 1 0 0 0 0 0 1 1 1 1 1 1 0 2 1 1 0 1 1 1 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0 1 2 2 0 2 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 2 2 2 0 0 0 1 0 0 0 2 1 2 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 2 2 0 0 1 0 0 0 2 1 0 0 0 0 2 1 1 1 1 0 1 0 0 0 0 0 2 0 2 1 0 0 0 1 2 1 0 1 0 0 2 0 2 1 1 0 0 2 0 1 0 0 3 1 1 1 1 2 2 1 3 0 0 1 4 1 3 0 0 1 0 1 0 1 0 1 1 1 1 1 2 1 0 0 4 2 0 2 0 1 1 0 0 0 1 2 0 0 0 0 0 0 2 1 0 2 2 1 0 2 0 1 0 1 0 0 0 2 0 0 0 0 0 0 1 2 0 0 1 0 2 0 2 0 0 1 1 0 2 1 1 0 0 3 0 1 2 1 1 2 1 0 0 1 0 2 1 4 1 0 0 0 1 1 0 3 2 1 0 1 0 0 1 1 1 1 0 1 0 1 2 1 0 0 1 1 1 0 1 0 1 2 0 0 1 0 1 1 0 0 1 0 0 0 0 0 2 0 2 0 0 1 1 0 1 0 1 1 0 2 0 0 0 0 2 3 0 0 2 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 2 1 1 2 1 0 0 0 2 0 1 1 0 0 0 2 0 0 1 0 0 4 0 2 0 1 0 0 0 0 0 1 1 1 0 2 0 0 0 0 1 2 2 2 2 1 2 4 0 1 0 0 1 1 1 0 1 0 0 1 0 1 2 2 0 1 1 0 3 0 1 0 1 1 0 0 1 3 0 2 1 1 0 1 0 3 1 0 1 2 0 0 1 3 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 1 1 1 0 0 1 0 1 3 1 3 1 1 0 0 0 0 2 0 1 1 0 0 0 2 0 3 1 0 1 1 2 0 0 0 0 0 2 0 0 1 1 3 1 0 1 1 1 0 0 1 1 0 1 0 1 2 0 0 1 2 0 0 1 0 1 0 0 1 0 2 1 0 1 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 2 0 0 1 1 1 1 2 0 1 1 1 0 1 1 1 0 1 0 0 2 1 0 0 0 1 1 1 0 1 0 0 1 1 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 2 1 2 0 0 2 1 0 0 0 0 2 0 0 1 2 1 1 1 1 1 0 1 3 0 0 0 1 2 1 1 0 1 1 0 0 1 1 0 1 1 0 1 0 0 0 1 1 4 2 2 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 1 1 2 0 0 1 1 1 1 1 1 0 0 2 0 1 2 0 0 1 1 2 0 1 0 1 0 0 0 1 0 2 1 1 0 0 2 0 1 0 0 2 0 0 0 0 0 0 1 0 1 2 1 1 2 0 2 1 0 0 0 0 0 1 1 1 1 1 1 1 0 2 0 2 1 0 2 0 0 0 1 0 3 2 0 0 2 1 1 1 0 1 1 1 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 3 0 1 0 0 3 0 3 2 1 1 1 0 1 0 1 2 2 2 1 0 2 0 0 1 0 1 1 0 1 4 1 0 1 1 1 2 0 2 0 1 0 1 0 0 0 0 1 1 1 0 2 2 0 1 2 0 0 0 1 1 1 3 1 1 1 0 2 1 0 0 3 0 0 1 0 1 1 0 1 2 0 0 0 1 0 0 0 0 0 3 0 2 1 2 0 0 3 3 0 1 0 0 2 0 0 1 1 1 0 0 2 1 2 1 0 0 1 0 1 0 0 0 2 2 0 2 1 0 1 1 0 1 0 1 0 1 1 0 1 0 1 0 0 1 2 0 1 1 2 0 0 0 0 2 1 0 1 1 1 0 0 1 0 2 0 0 1 2 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 2 0 1 0 4 0 1 0 1 1 1 2 0 1 1 0 0 0 1 3 0 2 1 1 0 0 0 0 1 0 3 0 0 0 1 2 1 0 1 1 0 0 1 1 2 0 0 1 1 2 0 0 0 1 2 0 1 1 0 2 2 0 0 1 0 0 1 3 1 0 0 2 3 0 0 1 1 2 0 0 2 0 1 0 0 1 0 0 0 0 3 1 1 0 0 1 1 2 2 0 0 0 1 0 1 1 3 0 1 2 2 1 0 0 2 2 0 0 0 0 1 1 1 0 1 1 3 0 0 2 3 0 0 0 1 1 0 1 0 2 1 0 1 1 0 0 0 0 0 0 0 0 1 2 0 2 1 0 0 0 0 2 1 0 1 0 3 0 0 1 0 0 1 1 0 2 1 0 1 1 2 1 1 1 0 1 2 1 0 0 0 2 1 3 1 2 1 0 1 1 1 2 0 1 1 1 0 1 1 0 0 0 0 1 0 1 2 0 0 2 0 0 0 1 0 1 2 1 0 3 0 0 0 0 0 1 0 0 1 2 1 0 0 1 1 0 1 1 0 0 0 0 2 1 1 1 1 1 0 1 0 0 2 1 0 0 2 1 0 0 1 1 1 1 0 0 1 0 0 1 2 0 1 2 0 1 1 2 2 1 0 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 1 0 0 2 1 0 1 3 2 0 1 2 1 0 0 1 0 0 0 0 0 2 1 1 1 0 0 0 1 0 0 0 2 2 0 1 1 0 0 0 1 1 1 3 1 1 0 1 0 1 0 0 1 1 0 2 2 1 0 0 0 1 1 2 0 2 1 0 1 0 0 1 0 1 0 2 1 2 2 0 0 0 1 3 0 0 2 1 1 1 0 2 0 1 1 0 0 0 2 0 1 1 0 1 1 0 1 2 0 0 1 1 0 1 0 1 0 3 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 3 2 1 1 1 0 2 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 2 0 3 0 0 0 0 2 2 2 0 0 1 1 1 3 0 1 1 0 0 0 2 1 1 1 0 3 1 0 1 4 0 1 0 1 0 1 0 2 2 1 1 1 2 0 0 0 1 2 1 0 1 0 1 0 0 0 1 0 2 1 1 0 0 1 0 2 1 0 1 1 1 2 0 0 2 2 1 0 0 0 1 1 2 0 0 0 1 1 1 1 0 2 0 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 2 2 0 0 3 1 0 0 2 0 0 1 1 1 2 1 0 1 1 0 2 1 1 0 0 1 0 0 1 0 1 2 1 2 1 1 0 1 1 0 1 0 1 1 2 1 2 1 1 0 1 0 0 1 0 0 0 1 3 0 1 2 1 2 0 0 0 0 0 0 2 0 0 0 1 2 1 1 2 0 1 1 0 2 0 0 1 0 2 1 1 0 1 1 1 0 1 0 1 1 1 1 2 0 0 0 2 0 0 0 0 1 1 2 0 0 0 0 1 0 1 1 0 1 0 0 2 3 0 1 1 0 0 2 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 2 0 0 1 2 0 3 2 0 1 0 1 0 0 0 0 0 2 2 1 2 1 1 1 0 1 1 1 0 0 0 1 0 1 2 0 1 0 2 1 1 0 0 1 0 0 1 1 2 0 2 0 0 0 1 0 2 1 1 0 1 0 2 0 1 0 3 1 0 2 2 0 2 1 0 0 1 1 2 2 0 0 0 0 4 3 0 0 0 1 1 0 2 3 1 2 1 1 1 0 0 1 1 0 2 1 0 1 1 0 1 0 1 2 1 2 1 1 0 0 0 0 1 0 0 2 2 1 0 1 1 1 2 1 1 1 4 0 0 1 0 1 2 0 1 1 1 1 0 0 0 0 1 1 2 0 1 1 2 1 1 2 1 3 3 0 0 0 0 1 0 0 0 0 1 0 1 0 0 2 2 1 2 0 2 0 0 0 0 1 2 2 1 1 0 3 1 0 1 0 0 2 0 1 1 0 1 1 0 0 0 1 1 1 1 0 0 1 2 0 1 0 1 1 2 1 1 0 0 1 0 1 0 0 0 0 3 0 1 0 0 0 1 1 0 0 2 0 0 0 0 2 1 0 1 0 3 2 0 1 1 1 2 0 0 1 0 0 2 0 1 0 1 0 1 2 2 1 0 1 1 2 2 2 1 2 1 0 0 0 0 2 2 1 0 1 2 1 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 2 1 1 1 1 1 1 0 0 1 2 0 0 0 0 0 1 0 1 0 0 0 1 2 1 0 1 0 1 2 1 1 1 1 1 1 1 0 0 1 0 1 2 3 1 4 0 1 3 1 0 0 0 0 1 2 2 0 0 0 0 1 1 1 2 1 1 2 1 0 2 1 1 1 1 2 0 1 3 2 1 0 1 1 1 2 0 0 0 0 0 1 3 0 3 0 3 0 1 1 1 1 0 1 0 1 0 0 0 2 1 1 0 0 1 1 1 1 1 1 0 2 1 0 0 1 0 1 1 1 0 1 2 0 0 0 1 0 0 1 0 0 2 3 0 2 0 0 1 0 0 1 0 1 0 2 0 1 0 0 1 2 1 2 0 0 0 0 0 0 1 1 0 1 0 3 1 1 2 2 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 3 2 0 0 2 1 2 1 0 2 2 2 2 1 1 1 2 1 1 0 0 0 1 0 0 1 2 3 0 4 0 1 0 0 0 2 2 1 2 1 0 0 2 1 1 0 0 1 0 1 0 2 1 1 0 0 0 0 0 0 1 1 1 0 1 1 0 3 1 0 1 2 1 0 1 0 0 1 1 0 1 1 1 0 1 2 2 1 0 0 1 1 1 0 2 2 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 1 1 1 0 1 1 1 0 2 1 2 1 0 1 0 0 0 1 1 1 0 0 1 0 2 0 0 1 1 1 0 1 2 0 0 1 0 0 2 0 0 0 2 1 0 1 0 0 1 1 0 1 0 0 1 2 0 0 0 0 3 1 2 1 1 0 1 0 2 1 1 1 2 0 0 0 2 1 0 1 0 0 2 1 2 0 0 1 2 0 1 1 0 2 2 0 0 1 0 1 0 1 0 2 0 0 0 1 0 1 0 0 0 0 2 1 1 1 1 0 1 0 0 1 1 2 1 2 1 3 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 2 1 1 1 1 0 0 1 1 1 2 0 0 1 1 1 2 2 1 3 0 0 1 1 0 2 0 1 0 0 2 0 0 0 1 1 0 1 0 0 2 0 2 0 1 1 1 0 1 0 3 1 1 1 1 1 0 2 2 0 0 0 1 2 0 1 1 1 1 1 0 0 0 1 2 0 0 2 0 1 1 0 1 0 0 0 0 0 1 2 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 3 0 0 0 2 3 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 2 1 0 0 1 1 0 2 3 2 2 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 0 1 1 1 0 0 2 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 2 2 1 1 3 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 2 1 0 0 1 0 1 1 0 0 2 1 1 1 0 2 0 0 1 1 0 0 1 0 1 0 1 0 1 1 1 1 1 2 1 0 0 2 1 1 0 1 3 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 2 1 1 0 0 1 1 1 0 0 1 0 1 0 2 0 0 2 0 0 0 1 0 1 0 2 0 0 1 1 0 1 2 0 0 0 2 0 1 2 0 1 0 0 1 0 2 1 0 0 0 1 0 2 2 1 0 1 0 2 0 0 4 3 0 1 1 0 2 0 2 0 2 1 0 0 0 1 0 0 1 1 0 1 1 1 1 2 0 1 1 0 1 0 0 0 1 1 0 0 1 0 2 2 1 0 0 2 0 0 1 1 0 0 0 2 0 1 1 0 0 0 1 1 1 0 1 2 0 1 2 1 0 3 1 0 2 0 0 2 0 0 1 2 2 0 0 0 0 1 0 2 1 1 0 1 2 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 1 0 2 1 0 0 0 2 0 0 0 0 1 1 1 1 0 1 0 0 1 0 0 1 2 1 2 1 1 2 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 2 0 0 3 0 1 1 2 1 1 0 0 2 1 0 2 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 2 0 2 2 2 0 1 0 2 0 2 1 0 1 0 1 2 1 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 2 0 1 0 1 1 3 2 0 0 2 0 0 1 1 1 0 2 2 0 0 2 4 0 0 1 0 2 0 2 0 1 0 2 1 0 1 0 1 1 2 1 0 1 0 0 1 1 3 1 0 0 0 0 1 1 1 2 0 1 0 1 1 0 2 1 2 1 0 0 1 1 0 0 0 0 0 0 2 3 0 2 2 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 1 0 0 3 0 1 1 2 1 1 2 1 1 0 1 0 3 0 2 0 1 1 0 1 1 2 1 1 1 1 0 1 0 2 0 0 2 0 0 1 0 0 0 0 2 0 0 2 1 1 1 0 0 1 1 1 0 1 0 0 0 3 0 0 0 0 1 1 0 1 1 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 1 2 0 0 1 3 3 1 0 0 0 1 0 0 0 2 1 2 1 0 1 0 1 1 1 0 2 0 0 0 2 1 0 1 0 0 2 0 1 0 1 0 1 0 1 0 2 2 1 0 0 1 1 1 1 0 1 0 0 0 2 0 0 1 1 1 0 1 2 3 0 1 1 0 0 0 0 3 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 2 2 1 1 0 1 0 1 0 0 0 0 0 2 0 1 0 1 2 0 1 0 1 0 0 1 1 0 1 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 0 2 2 0 0 0 0 1 1 0 1 0 0 1 0 0 0 4 1 2 2 2 1 1 1 0 0 1 0 1 0 1 2 2 1 0 0 1 1 1 0 1 0 0 0 1 1 0 0 2 0 0 1 0 0 0 1 0 3 0 2 0 2 0 0 0 1 2 0 2 1 0 0 3 1 1 0 0 2 0 2 3 0 1 1 1 1 1 0 2 1 1 1 1 1 1 0 0 2 3 0 0 1 1 0 0 2 0 0 4 0 3 1 0 1 0 2 2 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 3 2 0 0 0 0 1 3 1 0 1 1 0 2 0 2 0 1 0 0 0 0 1 1 1 2 1 0 1 2 1 1 1 0 0 1 1 0 2 0 0 3 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 2 2 1 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 2 1 0 1 0 0 1 0 1 4 1 0 0 0 1 0 0 4 1 0 1 1 0 0 0 0 1 1 1 2 0 1 1 0 2 1 0 0 0 2 1 1 0 1 1 2 0 0 0 1 0 0 0 0 1 2 2 1 1 1 1 0 2 1 0 2 0 1 2 1 1 0 0 1 1 0 2 1 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 3 2 0 0 2 1 3 0 0 0 0 0 1 0 2 1 1 0 0 1 1 0 1 2 3 0 0 1 3 1 2 2 0 0 2 1 0 0 0 1 1 1 0 0 2 2 1 0 0 0 1 0 0 1 0 1 0 1 1 2 1 0 0 0 0 0 0 0 1 1 0 2 1 0 0 0 1 0 0 1 0 0 1 1 0 2 0 1 0 0 1 2 0 0 1 3 0 2 3 0 2 3 1 0 0 0 2 1 1 1 0 0 0 0 0 0 1 0 2 2 0 0 0 0 0 1 0 0 1 3 1 0 0 2 0 2 0 0 1 0 0 0 0 1 2 0 3 0 1 1 2 0 1 2 0 1 1 0 2 1 0 1 0 1 1 1 1 1 2 3 0 0 3 0 1 0 0 0 1 0 1 1 0 1 2 2 1 0 1 0 1 0 1 0 1 0 1 0 1 2 1 1 0 0 1 1 0 0 1 0 2 1 1 2 1 0 1 0 1 0 0 1 0 1 0 2 1 2 0 2 2 0 3 0 2 2 1 1 0 0 0 2 1 0 0 1 0 1 1 0 1 1 1 1 1 0 0 0 1 0 1 1 2 0 1 0 0 1 2 1 0 1 1 1 1 1 0 1 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 1 1 2 0 1 3 1 4 0 0 1 0 0 0 0 0 1 2 1 1 1 1 0 0 0 0 1 0 2 0 3 0 0 0 1 2 1 0 0 1 0 1 0 1 1 0 0 1 1 1 0 1 1 2 1 1 0 1 0 2 0 0 1 1 1 1 3 0 0 0 1 2 1 0 0 3 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 3 1 0 1 1 0 1 1 1 0 2 0 0 1 0 0 1 0 0 1 2 1 0 0 0 0 1 0 0 1 0 1 0 0 2 0 1 0 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 2 1 1 0 1 0 0 1 0 0 1 3 1 0 1 0 0 2 2 2 0 0 2 3 0 3 0 1 1 0 2 0 0 0 1 2 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0 0 0 1 1 2 0 0 0 0 1 1 1 0 1 1 0 0 0 2 1 0 0 2 1 1 1 0 0 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 2 2 0 2 1 0 3 1 0 2 1 3 0 1 0 0 3 1 2 1 2 1 1 1 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 1 1 1 1 2 0 2 0 1 0 2 1 0 0 1 0 0 1 0 1 3 0 0 1 1 0 1 1 0 2 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 2 0 0 0 1 0 0 0 2 1 1 0 2 2 1 0 1 2 1 1 0 0 1 1 0 0 0 1 1 1 1 1 2 0 3 1 1 0 2 0 3 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 1 1 1 2 1 1 0 0 1 0 0 0 1 0 1 2 1 1 0 0 0 0 1 0 2 2 1 1 1 2 1 1 1 0 1 0 0 0 0 2 1 1 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 2 1 2 2 2 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 2 1 1 1 1 2 2 0 3 1 0 0 1 1 2 2 1 1 1 0 1 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 1 1 1 2 1 0 2 0 1 0 1 1 2 1 2 1 2 1 0 2 3 0 0 0 1 0 0 0 2 0 1 1 2 0 2 0 0 0 0 1 0 0 0 1 1 0 1 0 2 0 1 0 0 1 0 0 0 1 0 1 2 1 2 1 1 0 0 3 1 1 1 1 2 1 1 1 1 0 0 1 0 0 1 0 0 0 2 1 0 0 3 2 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 2 0 0 0 2 0 1 1 1 0 2 2 1 2 2 1 0 0 1 1 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 1 1 2 1 0 0 1 0 0 1 1 1 1 0 1 0 3 1 2 1 1 0 3 3 1 0 2 1 1 0 0 1 1 1 3 0 0 0 0 1 0 0 1 0 0 1 1 2 1 0 1 0 1 0 1 0 1 1 0 0 0 2 2 1 3 0 0 0 1 0 1 0 0 1 0 1 0 1 0 3 1 1 1 0 3 1 0 0 0 0 1 0 2 0 0 1 1 0 1 2 0 0 0 1 0 1 0 0 1 0 0 0 1 1 3 0 0 1 3 2 0 1 2 0 2 2 1 0 0 0 1 0 1 2 0 1 1 3 2 0 1 1 0 0 1 2 0 0 0 0 2 1 1 1 0 1 1 0 0 2 0 1 1 0 0 1 1 0 0 0 3 2 0 0 1 0 1 4 1 1 2 1 0 0 1 0 0 1 1 1 2 1 1 1 2 1 1 3 0 1 1 0 3 1 0 1 1 0 2 0 0 0 0 0 0 0 1 0 0 1 2 1 1 2 1 0 0 2 0 1 0 0 2 1 0 0 0 0 1 2 0 1 0 3 1 1 1 2 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 2 0 1 2 2 2 1 1 0 0 1 1 0 1 3 0 0 2 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 1 0 1 2 0 2 0 0 0 1 0 0 0 1 1 1 0 0 1 1 0 3 1 1 0 1 0 1 0 0 0 0 1 0 2 0 1 1 0 2 0 0 1 2 1 2 1 0 0 1 2 3 2 0 1 2 1 2 1 1 0 0 0 0 0 2 0 1 3 0 2 1 0 2 2 1 0 0 0 1 2 0 1 0 1 2 0 1 0 1 0 0 1 0 2 1 1 0 0 0 1 1 1 0 1 2 0 2 0 2 0 0 2 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 2 2 1 1 0 2 1 1 2 0 1 0 1 0 0 2 2 0 0 0 1 1 0 0 1 1 1 1 0 1 0 1 0 0 2 1 0 1 1 0 0 0 0 0 1 0 3 0 0 0 0 0 1 0 0 2 0 0 1 0 0 2 1 1 0 2 0 2 1 1 1 1 1 0 0 1 0 0 1 1 0 0 1 1 0 3 1 2 2 2 1 1 0 1 0 0 0 0 1 0 3 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 1 1 1 2 1 2 1 0 0 1 0 2 0 0 0 1 0 0 1 1 0 1 0 1 1 0 1 0 1 1 1 0 0 0 1 2 0 2 2 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 2 1 0 0 2 1 2 0 0 3 0 1 1 1 1 1 3 1 3 0 0 0 0 1 1 2 0 0 2 0 0 2 2 0 2 0 0 1 1 0 0 0 1 2 0 0 1 0 0 1 0 0 0 3 1 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 4 1 1 2 2 0 1 0 1 1 0 1 1 1 0 2 0 0 0 0 1 1 2 2 0 0 0 0 1 2 0 0 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 1 0 0 1 1 1 2 2 3 1 1 0 0 2 1 0 2 1 1 0 0 0 1 3 1 1 0 1 4 1 1 0 1 1 1 2 0 1 1 1 1 0 0 0 2 1 1 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 2 1 0 2 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 1 0 1 1 2 1 2 0 0 0 1 0 0 1 1 1 1 0 0 1 1 3 1 2 2 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 2 0 1 1 0 1 2 1 0 1 2 1 1 1 2 1 0 0 2 0 1 2 1 3 0 0 1 2 1 0 1 1 0 1 2 0 0 1 1 2 0 0 3 1 1 0 1 1 0 0 0 0 1 0 0 1 2 1 1 1 1 0 0 1 0 1 0 2 0 0 1 0 1 2 2 0 0 0 0 0 1 1 1 0 2 0 1 0 1 0 0 0 2 0 0 1 0 2 0 3 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 0 2 2 0 0 0 0 2 0 1 0 0 1 2 0 2 0 1 0 1 1 1 0 1 2 1 1 2 1 0 1 0 1 0 0 0 2 1 0 1 3 0 1 1 2 0 0 3 0 0 1 0 1 1 2 3 1 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 1 2 1 1 0 0 1 1 1 0 0 0 1 2 0 0 0 1 1 1 1 1 1 0 0 0 2 1 1 1 0 0 1 1 2 2 0 0 1 0 0 0 1 1 2 3 1 0 1 1 0 2 0 2 1 1 0 0 1 0 0 0 2 1 0 0 1 0 1 1 3 0 1 2 0 0 1 2 0 2 1 1 0 1 1 1 0 0 1 0 2 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 1 0 1 1 0 0 2 0 1 0 0 0 1 0 0 2 0 0 1 4 2 1 0 0 0 1 0 2 1 1 0 1 2 1 1 1 1 2 0 0 0 1 0 1 0 1 3 0 1 1 1 0 0 2 0 0 2 0 1 2 1 0 1 0 1 0 1 1 2 2 1 0 0 0 0 1 2 0 2 2 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 2 0 1 2 1 0 0 1 2 0 0 2 0 2 0 2 1 0 0 0 4 1 1 2 0 1 1 0 0 0 2 0 2 1 1 2 0 0 1 1 0 0 0 1 1 1 1 0 1 2 1 0 0 0 1 1 0 1 2 1 3 2 1 0 0 0 0 2 0 0 1 0 0 0 1 0 1 1 0 1 0 2 2 0 1 0 0 0 1 0 1 0 1 0 0 1 1 0 1 0 1 1 0 0 2 0 1 1 1 1 2 2 2 0 1 0 0 2 0 0 1 0 0 3 1 2 0 0 0 1 3 0 1 2 2 1 0 2 1 1 0 2 2 1 1 0 1 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 1 1 2 2 1 1 4 1 0 1 0 0 1 0 0 2 0 0 1 0 2 2 0 0 0 1 0 0 1 0 0 1 3 0 0 1 0 0 0 1 1 0 0 1 2 0 0 0 1 1 0 1 1 0 2 0 1 0 0 1 0 1 1 1 0 3 1 2 0 0 0 1 1 0 0 1 3 2 1 2 1 2 1 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 2 1 0 2 3 1 0 0 1 0 1 2 0 1 0 2 1 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 1 1 1 1 0 2 0 0 1 0 1 1 0 3 1 0 1 2 1 1 3 3 1 1 1 0 2 0 1 3 0 0 2 0 0 0 1 0 0 0 1 1 1 0 1 2 0 1 0 0 1 1 1 0 1 1 0 2 0 0 1 1 0 0 0 1 1 0 1 1 1 1 1 1 0 1 2 0 0 2 1 0 0 1 1 1 1 0 1 3 0 1 0 0 2 1 0 1 0 1 2 3 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 3 1 0 1 2 1 1 1 2 1 2 0 1 2 1 0 0 1 1 1 0 0 1 0 0 0 0 1 2 1 1 1 0 1 2 0 2 3 0 1 1 1 3 1 0 0 1 1 0 1 1 0 1 1 0 1 1 1 1 0 2 0 1 1 1 0 2 0 2 0 0 0 0 0 0 1 1 0 2 1 1 0 1 1 0 1 1 1 0 1 1 0 0 1 0 0 0 2 1 0 2 0 1 1 0 0 2 2 0 2 0 0 1 1 1 1 0 1 0 3 0 0 1 0 2 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 2 0 1 0 2 1 1 1 0 0 0 0 0 1 1 0 2 0 2 1 0 0 1 0 1 0 0 1 0 1 2 0 0 0 0 2 1 0 2 0 1 0 1 1 0 0 0 0 2 2 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 1 2 0 0 2 1 0 0 2 1 0 1 0 0 2 1 0 1 0 0 1 2 1 1 2 1 2 2 2 0 1 0 1 0 0 2 1 0 1 1 0 2 1 2 1 0 2 2 0 0 0 3 0 2 2 0 0 0 2 2 0 0 0 1 1 1 2 2 1 0 2 1 0 1 1 0 1 1 1 2 0 0 2 2 2 1 2 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 0 1 2 0 2 0 0 1 0 1 0 0 0 1 1 1 1 0 2 2 0 3 1 0 1 1 1 0 2 0 0 1 1 0 1 1 0 1 1 0 0 2 0 1 0 1 0 1 0 1 0 2 0 2 1 1 0 0 1 0 2 0 0 2 2 0 0 0 1 0 0 0 3 0 0 1 1 0 3 1 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 2 0 1 1 0 1 1 0 0 0 1 0 0 0 5 0 2 0 0 1 0 0 1 1 2 0 2 0 0 0 0 0 1 2 1 1 1 0 0 0 2 1 0 2 0 2 0 2 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 0 1 1 1 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 2 1 2 2 1 0 2 1 0 1 0 1 1 1 2 0 0 0 0 0 1 0 0 1 2 0 0 0 2 2 0 1 2 0 1 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 1 2 1 2 1 1 1 1 0 0 1 1 1 1 3 1 2 1 2 1 0 1 1 2 0 0 1 0 0 0 1 0 1 0 1 1 1 1 0 1 0 1 1 2 1 1 3 1 0 0 0 0 0 1 0 1 0 2 1 1 1 1 1 1 0 0 0 1 0 0 2 0 1 3 3 1 0 0 1 1 3 1 1 0 0 0 2 2 0 1 0 1 0 2 2 2 2 0 0 0 0 1 0 1 1 0 0 1 1 2 0 1 1 1 0 3 1 0 3 0 0 0 1 1 1 2 1 0 1 0 3 1 1 0 2 2 0 1 1 1 2 1 1 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 5 1 1 2 1 2 0 2 1 1 1 0 2 0 0 0 2 0 0 1 1 0 1 0 1 1 0 1 1 1 1 0 1 2 1 0 0 0 2 1 0 2 1 0 1 1 1 0 0 1 0 0 0 0 2 1 0 1 0 3 1 1 1 1 1 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 1 2 1 0 1 0 1 2 2 0 1 0 0 2 0 1 0 0 0 2 1 2 2 1 1 0 1 2 0 0 0 0 0 0 1 1 0 2 0 2 2 1 0 1 1 1 0 0 0 0 0 1 0 0 2 1 1 0 0 1 0 1 2 1 3 0 2 0 0 1 0 1 1 1 1 1 1 0 1 0 3 2 0 0 0 1 2 0 0 0 1 1 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 3 2 0 0 0 0 1 2 1 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 1 0 1 0 2 2 1 0 1 1 0 0 1 0 0 0 0 0 2 1 0 0 3 1 0 1 0 1 2 0 1 1 0 1 0 0 0 2 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 2 2 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 0 1 1 0 0 1 1 0 1 1 0 1 0 0 0 0 1 1 0 0 1 1 1 2 0 0 3 0 1 1 1 1 4 1 1 2 1 0 1 2 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 2 0 0 1 0 1 0 0 0 0 1 0 0 2 2 1 0 0 3 0 0 1 1 1 2 2 0 0 2 2 0 0 1 1 0 0 0 2 1 0 2 1 0 0 1 1 0 0 1 0 3 1 0 1 2 0 0 0 0 1 0 1 1 0 2 1 0 0 3 1 2 0 0 1 0 0 0 3 2 1 1 1 2 2 0 1 0 0 0 1 1 2 0 0 1 2 0 1 1 1 1 1 1 1 0 0 1 2 0 1 1 0 2 0 1 0 1 1 0 0 1 0 0 2 1 1 1 1 2 0 0 0 0 0 1 1 1 1 0 1 1 0 0 1 1 3 1 0 0 0 5 2 1 2 0 0 1 0 2 1 0 1 1 0 0 0 1 1 1 1 1 1 0 2 0 1 0 0 2 0 1 0 0 0 0 0 1 1 0 1 0 1 2 0 1 2 1 1 0 0 0 1 1 0 1 2 0 0 0 1 1 2 0 2 0 0 1 0 1 1 1 2 2 1 1 2 0 1 1 1 1 0 1 0 0 3 2 1 0 0 0 0 3 0 0 0 1 0 0 0 1 1 0 0 2 0 2 2 2 1 1 0 1 0 0 0 1 1 0 0 3 1 0 0 0 1 0 1 0 0 1 0 2 2 0 1 2 1 1 0 1 0 1 2 0 0 0 0 0 1 3 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 2 1 1 1 1 1 0 1 0 1 1 1 1 1 0 0 1 0 1 3 1 0 1 0 0 0 0 0 0 0 1 2 1 1 1 3 0 0 1 0 0 1 1 1 2 0 0 1 0 0 0 1 2 2 0 2 1 0 3 1 1 2 1 0 1 0 1 0 1 0 0 0 2 0 0 0 0 0 1 1 1 1 0 2 0 1 2 3 1 1 0 0 2 0 2 0 1 0 0 0 2 1 1 2 2 0 0 1 1 0 0 1 1 0 2 1 1 0 1 1 0 0 2 0 0 0 0 0 0 2 1 1 1 0 2 1 1 1 0 0 1 0 1 0 1 0 4 1 3 1 1 1 0 1 2 0 1 1 1 1 0 0 1 1 1 3 0 3 0 0 2 0 1 1 0 1 1 2 0 1 0 0 1 0 2 1 1 0 1 1 0 0 0 2 0 1 0 2 0 1 1 2 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 2 2 0 1 1 0 0 2 0 2 1 4 2 0 1 0 2 1 1 0 0 0 1 1 2 1 0 0 0 1 1 1 0 1 2 0 0 0 1 0 0 2 0 0 0 0 1 0 2 2 0 1 0 0 1 0 2 0 0 0 0 3 0 1 0 1 1 0 0 1 2 0 1 0 2 0 1 0 1 0 1 0 0 1 2 1 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 3 1 1 0 0 0 0 1 1 0 0 1 0 3 1 0 1 0 0 0 0 1 1 1 0 4 2 2 2 1 1 2 0 0 0 1 3 0 1 2 0 0 1 2 0 1 0 1 1 1 3 2 2 1 0 2 0 0 0 1 0 0 1 1 3 1 2 1 1 1 2 0 2 1 0 1 0 2 2 0 2 0 0 0 0 1 0 0 1 0 0 1 0 0 2 2 1 1 0 1 0 0 0 0 1 1 3 0 0 1 1 0 1 0 1 1 0 0 1 0 0 2 0 2 1 0 0 1 1 0 1 2 3 0 0 1 0 0 4 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 2 2 2 1 0 2 0 0 3 1 2 1 0 2 1 0 0 1 3 2 2 3 0 0 0 0 4 1 0 1 1 0 2 2 0 0 0 0 2 2 0 1 0 1 1 1 1 1 0 0 0 0 0 0 1 2 1 1 1 1 0 0 0 1 0 1 2 1 1 2 0 1 2 1 3 1 0 0 2 0 1 0 0 1 2 0 3 0 0 2 0 0 4 1 0 2 0 0 1 1 0 0 1 0 0 3 1 1 2 0 1 1 0 0 0 0 1 1 1 2 0 1 0 0 2 1 0 1 0 1 1 0 2 0 0 0 0 1 1 1 1 1 1 0 1 0 0 1 0 3 1 1 0 0 0 1 0 0 0 0 2 3 0 0 0 1 2 1 0 0 2 0 1 1 1 1 1 3 0 1 1 0 2 1 1 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 1 0 0 1 1 0 0 1 1 1 2 1 2 0 0 1 1 1 0 2 0 1 1 4 0 0 3 0 0 0 0 0 2 1 0 0 0 0 0 2 0 2 2 0 1 1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 3 0 1 4 1 0 2 0 0 0 1 1 1 0 0 0 0 0 1 0 2 0 1 0 1 0 1 2 1 0 0 0 0 1 1 0 2 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1 1 1 2 0 0 0 0 2 1 2 1 1 1 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 2 1 1 1 0 0 0 0 1 1 1 3 4 1 2 0 1 2 0 1 2 1 1 0 1 1 2 0 0 1 1 0 2 0 0 1 1 0 0 1 1 1 2 2 0 0 1 1 0 1 1 1 2 1 0 1 0 2 2 0 0 1 0 0 2 0 1 1 1 0 1 1 0 0 1 0 1 1 2 1 1 1 0 0 2 1 0 0 1 1 0 1 1 1 1 0 1 1 3 0 1 1 0 0 1 1 2 1 2 1 1 1 2 0 0 0 0 1 2 1 2 0 1 0 0 1 2 0 1 1 0 0 1 1 2 2 1 2 0 2 1 0 1 2 2 0 2 1 1 1 0 2 1 0 1 2 0 2 1 1 0 0 0 1 0 0 2 1 1 1 0 1 0 0 0 1 3 1 0 0 2 2 0 0 1 0 1 3 0 0 0 0 3 0 1 2 2 1 0 1 1 1 0 4 0 1 1 0 3 0 0 1 2 3 2 0 2 1 0 0 0 0 1 2 1 0 2 2 0 2 2 0 1 0 1 2 0 2 1 2 2 1 0 0 0 1 0 1 2 0 1 0 0 3 1 1 0 0 1 1 0 2 1 0 0 1 0 1 0 0 0 1 0 2 0 1 1 1 0 1 1 0 1 0 1 2 1 0 2 1 0 2 0 2 2 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 0 0 1 2 0 2 0 0 1 1 2 1 1 0 2 0 0 0 1 0 1 1 1 1 0 0 1 1 1 1 2 1 1 1 1 1 0 1 0 1 1 1 1 0 0 1 2 2 0 0 2 1 1 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 4 2 0 1 1 3 1 2 0 2 1 0 1 2 1 1 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 1 1 0 3 1 2 1 1 0 1 1 0 1 0 0 2 0 2 0 0 0 0 0 0 1 1 0 0 0 1 1 1 2 2 0 3 0 0 1 1 3 1 0 1 0 3 0 1 0 0 0 1 0 1 1 0 2 0</t>
   </si>
   <si>
     <t>J.Burrow</t>
@@ -758,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.8</v>
+        <v>47.6</v>
       </c>
       <c r="C2">
-        <v>52.5</v>
+        <v>51.7</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -785,10 +785,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>5.03</v>
+        <v>5.14</v>
       </c>
       <c r="L2">
-        <v>5.85</v>
+        <v>5.81</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +838,13 @@
         <v>19.6</v>
       </c>
       <c r="C2">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D2">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="E2">
-        <v>252.09</v>
+        <v>252.82</v>
       </c>
       <c r="F2">
         <v>1.27</v>
@@ -853,10 +853,10 @@
         <v>0.43</v>
       </c>
       <c r="H2">
-        <v>101.39</v>
+        <v>101.72</v>
       </c>
       <c r="I2">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -976,13 +976,13 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D2">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="E2">
-        <v>252.09</v>
+        <v>252.81</v>
       </c>
       <c r="F2">
         <v>1.27</v>
@@ -997,7 +997,7 @@
         <v>7.9</v>
       </c>
       <c r="J2">
-        <v>31.47</v>
+        <v>31.66</v>
       </c>
       <c r="K2">
         <v>0.27</v>
@@ -1006,7 +1006,7 @@
         <v>0.06</v>
       </c>
       <c r="M2">
-        <v>18.89</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1035,19 +1035,19 @@
         <v>0.02</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J3">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
       <c r="K3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>5.94</v>
       </c>
       <c r="D2">
-        <v>63.3</v>
+        <v>63.32</v>
       </c>
       <c r="E2">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="F2">
         <v>0.08</v>
@@ -1130,10 +1130,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="L2">
-        <v>8.08</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1144,13 +1144,13 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="D3">
-        <v>56.58</v>
+        <v>57.14</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F3">
         <v>0.07000000000000001</v>
@@ -1159,7 +1159,7 @@
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>12.59</v>
+        <v>12.64</v>
       </c>
       <c r="L3">
         <v>7.41</v>
@@ -1182,34 +1182,34 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="D4">
-        <v>22.63</v>
+        <v>22.55</v>
       </c>
       <c r="E4">
         <v>0.11</v>
       </c>
       <c r="F4">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G4">
         <v>6.7</v>
       </c>
       <c r="H4">
-        <v>28.95</v>
+        <v>28.9</v>
       </c>
       <c r="I4">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="J4">
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.16</v>
+        <v>9.19</v>
       </c>
       <c r="L4">
-        <v>6.96</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1220,10 +1220,10 @@
         <v>57</v>
       </c>
       <c r="C5">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="D5">
-        <v>25.73</v>
+        <v>25.87</v>
       </c>
       <c r="E5">
         <v>0.13</v>
@@ -1235,7 +1235,7 @@
         <v>0.4</v>
       </c>
       <c r="H5">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -1244,7 +1244,7 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>3.51</v>
@@ -1258,10 +1258,10 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="D6">
-        <v>23.88</v>
+        <v>23.71</v>
       </c>
       <c r="E6">
         <v>0.12</v>
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="L6">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1296,10 +1296,10 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="D7">
-        <v>23.5</v>
+        <v>23.62</v>
       </c>
       <c r="E7">
         <v>0.12</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="L7">
         <v>3.01</v>
@@ -1337,10 +1337,10 @@
         <v>0.71</v>
       </c>
       <c r="D8">
-        <v>7.38</v>
+        <v>7.33</v>
       </c>
       <c r="E8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
         <v>0.09</v>
@@ -1349,13 +1349,13 @@
         <v>5.3</v>
       </c>
       <c r="H8">
-        <v>22.99</v>
+        <v>23.12</v>
       </c>
       <c r="I8">
         <v>0.19</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K8">
         <v>4.94</v>
@@ -1372,22 +1372,22 @@
         <v>61</v>
       </c>
       <c r="C9">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="D9">
-        <v>7.1</v>
+        <v>7.02</v>
       </c>
       <c r="E9">
         <v>0.04</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G9">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>8.81</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I9">
         <v>0.07000000000000001</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="L9">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1410,10 +1410,10 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="D10">
-        <v>7.64</v>
+        <v>7.77</v>
       </c>
       <c r="E10">
         <v>0.04</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="L10">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1451,7 +1451,7 @@
         <v>0.57</v>
       </c>
       <c r="D11">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="L11">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1486,13 +1486,13 @@
         <v>64</v>
       </c>
       <c r="C12">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>4.99</v>
+        <v>5.22</v>
       </c>
       <c r="E12">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
         <v>0.01</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="L12">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1524,10 +1524,10 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="L13">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1565,7 +1565,7 @@
         <v>0.06</v>
       </c>
       <c r="D14">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0.06</v>
       </c>
       <c r="D15">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L15">
         <v>0.08</v>
@@ -1641,7 +1641,7 @@
         <v>0.06</v>
       </c>
       <c r="D16">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L16">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1867,10 +1867,10 @@
         <v>79</v>
       </c>
       <c r="C2">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="D2">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="E2">
         <v>1.16</v>
@@ -1879,13 +1879,13 @@
         <v>1.23</v>
       </c>
       <c r="G2">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="H2">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="I2">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -1932,25 +1932,25 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="C2">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D2">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="E2">
-        <v>259.43</v>
+        <v>257.33</v>
       </c>
       <c r="F2">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G2">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="H2">
-        <v>91.58</v>
+        <v>91.37</v>
       </c>
       <c r="I2">
         <v>0.73</v>
@@ -2073,37 +2073,37 @@
         <v>96</v>
       </c>
       <c r="C2">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D2">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="E2">
-        <v>259.42</v>
+        <v>257.32</v>
       </c>
       <c r="F2">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G2">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="H2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>5.77</v>
+        <v>5.56</v>
       </c>
       <c r="K2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L2">
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>16.59</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2135,7 +2135,7 @@
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2203,10 +2203,10 @@
         <v>98</v>
       </c>
       <c r="C2">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="D2">
-        <v>21.4</v>
+        <v>21.27</v>
       </c>
       <c r="E2">
         <v>0.12</v>
@@ -2218,7 +2218,7 @@
         <v>16.5</v>
       </c>
       <c r="H2">
-        <v>65.81999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="I2">
         <v>0.51</v>
@@ -2227,10 +2227,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>13.99</v>
+        <v>14.03</v>
       </c>
       <c r="L2">
-        <v>12.03</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2241,16 +2241,16 @@
         <v>99</v>
       </c>
       <c r="C3">
-        <v>5.12</v>
+        <v>5.05</v>
       </c>
       <c r="D3">
-        <v>59.87</v>
+        <v>59.31</v>
       </c>
       <c r="E3">
         <v>0.35</v>
       </c>
       <c r="F3">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>13.11</v>
+        <v>12.97</v>
       </c>
       <c r="L3">
-        <v>7.99</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2279,10 +2279,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>4.78</v>
+        <v>4.72</v>
       </c>
       <c r="D4">
-        <v>57.3</v>
+        <v>56.48</v>
       </c>
       <c r="E4">
         <v>0.34</v>
@@ -2294,7 +2294,7 @@
         <v>0.4</v>
       </c>
       <c r="H4">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="I4">
         <v>0.01</v>
@@ -2303,10 +2303,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>12.68</v>
+        <v>12.57</v>
       </c>
       <c r="L4">
-        <v>7.9</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2317,13 +2317,13 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>4.32</v>
+        <v>4.28</v>
       </c>
       <c r="D5">
-        <v>49.74</v>
+        <v>49.13</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F5">
         <v>0.05</v>
@@ -2341,10 +2341,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>11.06</v>
+        <v>10.9</v>
       </c>
       <c r="L5">
-        <v>6.74</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2358,13 +2358,13 @@
         <v>2.67</v>
       </c>
       <c r="D6">
-        <v>30.4</v>
+        <v>30.29</v>
       </c>
       <c r="E6">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2379,10 +2379,10 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>6.72</v>
+        <v>6.67</v>
       </c>
       <c r="L6">
-        <v>4.06</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2393,34 +2393,34 @@
         <v>103</v>
       </c>
       <c r="C7">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="D7">
-        <v>18.22</v>
+        <v>18.14</v>
       </c>
       <c r="E7">
         <v>0.1</v>
       </c>
       <c r="F7">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H7">
-        <v>13.33</v>
+        <v>13.03</v>
       </c>
       <c r="I7">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="J7">
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="L7">
-        <v>4.34</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2431,10 +2431,10 @@
         <v>104</v>
       </c>
       <c r="C8">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="D8">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="E8">
         <v>0.04</v>
@@ -2446,7 +2446,7 @@
         <v>0.6</v>
       </c>
       <c r="H8">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="I8">
         <v>0.02</v>
@@ -2455,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="L8">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2469,13 +2469,13 @@
         <v>105</v>
       </c>
       <c r="C9">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="D9">
-        <v>7.41</v>
+        <v>7.61</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="L9">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2510,13 +2510,13 @@
         <v>0.44</v>
       </c>
       <c r="D10">
-        <v>4.91</v>
+        <v>4.95</v>
       </c>
       <c r="E10">
         <v>0.03</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2531,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="L10">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2545,10 +2545,10 @@
         <v>107</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D11">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="E11">
         <v>0.01</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="L11">
         <v>0.3</v>
@@ -2598,7 +2598,7 @@
         <v>0.4</v>
       </c>
       <c r="H12">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -2607,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="L12">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2621,10 +2621,10 @@
         <v>108</v>
       </c>
       <c r="C13">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D13">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -2736,16 +2736,16 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="D2">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="E2">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="F2">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="G2">
         <v>0.5</v>
@@ -2754,7 +2754,7 @@
         <v>0.67</v>
       </c>
       <c r="I2">
-        <v>7.69</v>
+        <v>7.62</v>
       </c>
     </row>
   </sheetData>
